--- a/_Out/NFDataCfg/Excel/Item.xlsx
+++ b/_Out/NFDataCfg/Excel/Item.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Desktop\NoahGameFrame\_Out\NFDataCfg\Excel_Ini\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Desktop\NoahGameFrame\_Out\NFDataCfg\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2250,67 +2250,67 @@
       <c r="A3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C3" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="M3" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="N3" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O3" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P3" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R3" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="S3" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="T3" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="U3" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="V3" s="10" t="b">
+      <c r="B3" s="10">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10">
+        <v>0</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0</v>
+      </c>
+      <c r="H3" s="10">
+        <v>0</v>
+      </c>
+      <c r="I3" s="10">
+        <v>0</v>
+      </c>
+      <c r="J3" s="10">
+        <v>0</v>
+      </c>
+      <c r="K3" s="10">
+        <v>0</v>
+      </c>
+      <c r="L3" s="10">
+        <v>0</v>
+      </c>
+      <c r="M3" s="10">
+        <v>0</v>
+      </c>
+      <c r="N3" s="10">
+        <v>0</v>
+      </c>
+      <c r="O3" s="10">
+        <v>0</v>
+      </c>
+      <c r="P3" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="10">
+        <v>0</v>
+      </c>
+      <c r="R3" s="10">
+        <v>0</v>
+      </c>
+      <c r="S3" s="10">
+        <v>0</v>
+      </c>
+      <c r="T3" s="10">
+        <v>0</v>
+      </c>
+      <c r="U3" s="10">
+        <v>0</v>
+      </c>
+      <c r="V3" s="10">
         <v>0</v>
       </c>
     </row>
@@ -2318,67 +2318,67 @@
       <c r="A4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C4" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="M4" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="N4" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O4" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P4" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R4" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="S4" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="T4" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="U4" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="V4" s="10" t="b">
+      <c r="B4" s="10">
+        <v>0</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0</v>
+      </c>
+      <c r="G4" s="10">
+        <v>0</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0</v>
+      </c>
+      <c r="I4" s="10">
+        <v>0</v>
+      </c>
+      <c r="J4" s="10">
+        <v>0</v>
+      </c>
+      <c r="K4" s="10">
+        <v>0</v>
+      </c>
+      <c r="L4" s="10">
+        <v>0</v>
+      </c>
+      <c r="M4" s="10">
+        <v>0</v>
+      </c>
+      <c r="N4" s="10">
+        <v>0</v>
+      </c>
+      <c r="O4" s="10">
+        <v>0</v>
+      </c>
+      <c r="P4" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>0</v>
+      </c>
+      <c r="R4" s="10">
+        <v>0</v>
+      </c>
+      <c r="S4" s="10">
+        <v>0</v>
+      </c>
+      <c r="T4" s="10">
+        <v>0</v>
+      </c>
+      <c r="U4" s="10">
+        <v>0</v>
+      </c>
+      <c r="V4" s="10">
         <v>0</v>
       </c>
     </row>
@@ -2386,67 +2386,67 @@
       <c r="A5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C5" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="M5" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="N5" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O5" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P5" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R5" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="S5" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="T5" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="U5" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="V5" s="10" t="b">
+      <c r="B5" s="10">
+        <v>0</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0</v>
+      </c>
+      <c r="I5" s="10">
+        <v>0</v>
+      </c>
+      <c r="J5" s="10">
+        <v>0</v>
+      </c>
+      <c r="K5" s="10">
+        <v>0</v>
+      </c>
+      <c r="L5" s="10">
+        <v>0</v>
+      </c>
+      <c r="M5" s="10">
+        <v>0</v>
+      </c>
+      <c r="N5" s="10">
+        <v>0</v>
+      </c>
+      <c r="O5" s="10">
+        <v>0</v>
+      </c>
+      <c r="P5" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>0</v>
+      </c>
+      <c r="R5" s="10">
+        <v>0</v>
+      </c>
+      <c r="S5" s="10">
+        <v>0</v>
+      </c>
+      <c r="T5" s="10">
+        <v>0</v>
+      </c>
+      <c r="U5" s="10">
+        <v>0</v>
+      </c>
+      <c r="V5" s="10">
         <v>0</v>
       </c>
     </row>
@@ -2454,67 +2454,67 @@
       <c r="A6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="M6" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="N6" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O6" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P6" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R6" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="S6" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="T6" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="U6" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="V6" s="10" t="b">
+      <c r="B6" s="10">
+        <v>0</v>
+      </c>
+      <c r="C6" s="10">
+        <v>0</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0</v>
+      </c>
+      <c r="I6" s="10">
+        <v>0</v>
+      </c>
+      <c r="J6" s="10">
+        <v>0</v>
+      </c>
+      <c r="K6" s="10">
+        <v>0</v>
+      </c>
+      <c r="L6" s="10">
+        <v>0</v>
+      </c>
+      <c r="M6" s="10">
+        <v>0</v>
+      </c>
+      <c r="N6" s="10">
+        <v>0</v>
+      </c>
+      <c r="O6" s="10">
+        <v>0</v>
+      </c>
+      <c r="P6" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>0</v>
+      </c>
+      <c r="R6" s="10">
+        <v>0</v>
+      </c>
+      <c r="S6" s="10">
+        <v>0</v>
+      </c>
+      <c r="T6" s="10">
+        <v>0</v>
+      </c>
+      <c r="U6" s="10">
+        <v>0</v>
+      </c>
+      <c r="V6" s="10">
         <v>0</v>
       </c>
     </row>
@@ -2522,67 +2522,67 @@
       <c r="A7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="O7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="P7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="R7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="S7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="T7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="U7" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="V7" s="3" t="b">
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0</v>
+      </c>
+      <c r="R7" s="3">
+        <v>0</v>
+      </c>
+      <c r="S7" s="3">
+        <v>0</v>
+      </c>
+      <c r="T7" s="3">
+        <v>0</v>
+      </c>
+      <c r="U7" s="3">
+        <v>1</v>
+      </c>
+      <c r="V7" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2590,67 +2590,67 @@
       <c r="A8" s="11" t="s">
         <v>478</v>
       </c>
-      <c r="B8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="R8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="S8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="T8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="U8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="V8" s="3" t="b">
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2658,67 +2658,67 @@
       <c r="A9" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="R9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="S9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="T9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="U9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="V9" s="3" t="b">
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3">
         <v>0</v>
       </c>
     </row>

--- a/_Out/NFDataCfg/Excel/Item.xlsx
+++ b/_Out/NFDataCfg/Excel/Item.xlsx
@@ -953,15 +953,6 @@
     <t>Item_townhall_3</t>
   </si>
   <si>
-    <t>Item_camp_1</t>
-  </si>
-  <si>
-    <t>Item_camp_2</t>
-  </si>
-  <si>
-    <t>Item_camp_3</t>
-  </si>
-  <si>
     <t>Item_gold_storage_1</t>
   </si>
   <si>
@@ -1067,15 +1058,6 @@
     <t>Desc_townhall_3</t>
   </si>
   <si>
-    <t>Desc_camp_1</t>
-  </si>
-  <si>
-    <t>Desc_camp_2</t>
-  </si>
-  <si>
-    <t>Desc_camp_3</t>
-  </si>
-  <si>
     <t>Desc_gold_storage_1</t>
   </si>
   <si>
@@ -1175,15 +1157,6 @@
     <t>NameID_townhall_3</t>
   </si>
   <si>
-    <t>NameID_camp_1</t>
-  </si>
-  <si>
-    <t>NameID_camp_2</t>
-  </si>
-  <si>
-    <t>NameID_camp_3</t>
-  </si>
-  <si>
     <t>NameID_gold_storage_1</t>
   </si>
   <si>
@@ -1283,15 +1256,6 @@
     <t>Icon_townhall_3</t>
   </si>
   <si>
-    <t>Icon_camp_1</t>
-  </si>
-  <si>
-    <t>Icon_camp_2</t>
-  </si>
-  <si>
-    <t>Icon_camp_3</t>
-  </si>
-  <si>
     <t>Icon_gold_storage_1</t>
   </si>
   <si>
@@ -1391,15 +1355,6 @@
     <t>Build_townhall_3</t>
   </si>
   <si>
-    <t>Build_camp_1</t>
-  </si>
-  <si>
-    <t>Build_camp_2</t>
-  </si>
-  <si>
-    <t>Build_camp_3</t>
-  </si>
-  <si>
     <t>Build_gold_storage_1</t>
   </si>
   <si>
@@ -1467,6 +1422,51 @@
   </si>
   <si>
     <t>Force</t>
+  </si>
+  <si>
+    <t>Item_cannon_small_1</t>
+  </si>
+  <si>
+    <t>Item_cannon_small_2</t>
+  </si>
+  <si>
+    <t>Item_cannon_small_3</t>
+  </si>
+  <si>
+    <t>Build_cannon_small_1</t>
+  </si>
+  <si>
+    <t>Build_cannon_small_2</t>
+  </si>
+  <si>
+    <t>Build_cannon_small_3</t>
+  </si>
+  <si>
+    <t>Icon_cannon_small_1</t>
+  </si>
+  <si>
+    <t>Icon_cannon_small_2</t>
+  </si>
+  <si>
+    <t>Icon_cannon_small_3</t>
+  </si>
+  <si>
+    <t>NameID_cannon_small_1</t>
+  </si>
+  <si>
+    <t>NameID_cannon_small_2</t>
+  </si>
+  <si>
+    <t>NameID_cannon_small_3</t>
+  </si>
+  <si>
+    <t>Desc_cannon_small_1</t>
+  </si>
+  <si>
+    <t>Desc_cannon_small_2</t>
+  </si>
+  <si>
+    <t>Desc_cannon_small_3</t>
   </si>
 </sst>
 </file>
@@ -2080,10 +2080,10 @@
   <dimension ref="A1:V177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="10" topLeftCell="O11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="10" topLeftCell="B143" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="G157" sqref="G157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2588,7 +2588,7 @@
     </row>
     <row r="8" spans="1:22" s="3" customFormat="1" ht="13.5">
       <c r="A8" s="11" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>33</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>34</v>
@@ -4839,7 +4839,7 @@
       <c r="H47" s="17"/>
       <c r="I47" s="17"/>
       <c r="J47" s="38" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="K47" s="17">
         <v>0</v>
@@ -10174,7 +10174,7 @@
         <v>1</v>
       </c>
       <c r="G142" s="32" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="H142" s="32"/>
       <c r="I142" s="32"/>
@@ -10199,16 +10199,16 @@
       </c>
       <c r="Q142" s="32"/>
       <c r="R142" s="32" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="S142" s="33" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="T142" s="32" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="U142" s="32" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="V142" s="32">
         <v>0</v>
@@ -10232,7 +10232,7 @@
         <v>2</v>
       </c>
       <c r="G143" s="32" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H143" s="32"/>
       <c r="I143" s="32"/>
@@ -10257,16 +10257,16 @@
       </c>
       <c r="Q143" s="32"/>
       <c r="R143" s="32" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="S143" s="33" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="T143" s="32" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="U143" s="32" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="V143" s="32">
         <v>0</v>
@@ -10290,7 +10290,7 @@
         <v>3</v>
       </c>
       <c r="G144" s="32" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="H144" s="32"/>
       <c r="I144" s="32"/>
@@ -10315,16 +10315,16 @@
       </c>
       <c r="Q144" s="32"/>
       <c r="R144" s="32" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="S144" s="33" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="T144" s="32" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="U144" s="32" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="V144" s="32">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>4</v>
       </c>
       <c r="G145" s="32" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="H145" s="32"/>
       <c r="I145" s="32"/>
@@ -10373,16 +10373,16 @@
       </c>
       <c r="Q145" s="32"/>
       <c r="R145" s="32" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="S145" s="33" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="T145" s="32" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="U145" s="32" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="V145" s="32">
         <v>0</v>
@@ -10406,7 +10406,7 @@
         <v>5</v>
       </c>
       <c r="G146" s="32" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="H146" s="32"/>
       <c r="I146" s="32"/>
@@ -10431,16 +10431,16 @@
       </c>
       <c r="Q146" s="32"/>
       <c r="R146" s="32" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="S146" s="33" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="T146" s="32" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="U146" s="32" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="V146" s="32">
         <v>0</v>
@@ -10464,7 +10464,7 @@
         <v>6</v>
       </c>
       <c r="G147" s="32" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="H147" s="32"/>
       <c r="I147" s="32"/>
@@ -10489,16 +10489,16 @@
       </c>
       <c r="Q147" s="32"/>
       <c r="R147" s="32" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="S147" s="33" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="T147" s="32" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="U147" s="32" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="V147" s="32">
         <v>0</v>
@@ -10522,7 +10522,7 @@
         <v>7</v>
       </c>
       <c r="G148" s="32" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="H148" s="32"/>
       <c r="I148" s="32"/>
@@ -10547,16 +10547,16 @@
       </c>
       <c r="Q148" s="32"/>
       <c r="R148" s="32" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="S148" s="33" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="T148" s="32" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="U148" s="32" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="V148" s="32">
         <v>0</v>
@@ -10580,7 +10580,7 @@
         <v>1</v>
       </c>
       <c r="G149" s="32" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="H149" s="32"/>
       <c r="I149" s="32"/>
@@ -10605,16 +10605,16 @@
       </c>
       <c r="Q149" s="32"/>
       <c r="R149" s="32" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="S149" s="33" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="T149" s="32" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="U149" s="32" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="V149" s="32">
         <v>0</v>
@@ -10638,7 +10638,7 @@
         <v>2</v>
       </c>
       <c r="G150" s="32" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="H150" s="32"/>
       <c r="I150" s="32"/>
@@ -10663,16 +10663,16 @@
       </c>
       <c r="Q150" s="32"/>
       <c r="R150" s="32" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="S150" s="33" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="T150" s="32" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="U150" s="32" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="V150" s="32">
         <v>0</v>
@@ -10696,7 +10696,7 @@
         <v>3</v>
       </c>
       <c r="G151" s="32" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H151" s="32"/>
       <c r="I151" s="32"/>
@@ -10721,16 +10721,16 @@
       </c>
       <c r="Q151" s="32"/>
       <c r="R151" s="32" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="S151" s="33" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="T151" s="32" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="U151" s="32" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="V151" s="32">
         <v>0</v>
@@ -10754,7 +10754,7 @@
         <v>4</v>
       </c>
       <c r="G152" s="32" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="H152" s="32"/>
       <c r="I152" s="32"/>
@@ -10779,16 +10779,16 @@
       </c>
       <c r="Q152" s="32"/>
       <c r="R152" s="32" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="S152" s="33" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="T152" s="32" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="U152" s="32" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="V152" s="32">
         <v>0</v>
@@ -10812,7 +10812,7 @@
         <v>5</v>
       </c>
       <c r="G153" s="32" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="H153" s="32"/>
       <c r="I153" s="32"/>
@@ -10837,16 +10837,16 @@
       </c>
       <c r="Q153" s="32"/>
       <c r="R153" s="32" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="S153" s="33" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="T153" s="32" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="U153" s="32" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="V153" s="32">
         <v>0</v>
@@ -10854,7 +10854,7 @@
     </row>
     <row r="154" spans="1:22" s="34" customFormat="1">
       <c r="A154" s="35" t="s">
-        <v>307</v>
+        <v>464</v>
       </c>
       <c r="B154" s="32">
         <v>4</v>
@@ -10870,7 +10870,7 @@
         <v>6</v>
       </c>
       <c r="G154" s="32" t="s">
-        <v>345</v>
+        <v>476</v>
       </c>
       <c r="H154" s="32"/>
       <c r="I154" s="32"/>
@@ -10895,16 +10895,16 @@
       </c>
       <c r="Q154" s="32"/>
       <c r="R154" s="32" t="s">
-        <v>453</v>
+        <v>467</v>
       </c>
       <c r="S154" s="33" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="T154" s="32" t="s">
-        <v>417</v>
+        <v>470</v>
       </c>
       <c r="U154" s="32" t="s">
-        <v>381</v>
+        <v>473</v>
       </c>
       <c r="V154" s="32">
         <v>0</v>
@@ -10912,7 +10912,7 @@
     </row>
     <row r="155" spans="1:22" s="34" customFormat="1">
       <c r="A155" s="35" t="s">
-        <v>308</v>
+        <v>465</v>
       </c>
       <c r="B155" s="32">
         <v>4</v>
@@ -10928,7 +10928,7 @@
         <v>7</v>
       </c>
       <c r="G155" s="32" t="s">
-        <v>346</v>
+        <v>477</v>
       </c>
       <c r="H155" s="32"/>
       <c r="I155" s="32"/>
@@ -10953,16 +10953,16 @@
       </c>
       <c r="Q155" s="32"/>
       <c r="R155" s="32" t="s">
-        <v>454</v>
+        <v>468</v>
       </c>
       <c r="S155" s="33" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="T155" s="32" t="s">
-        <v>418</v>
+        <v>471</v>
       </c>
       <c r="U155" s="32" t="s">
-        <v>382</v>
+        <v>474</v>
       </c>
       <c r="V155" s="32">
         <v>0</v>
@@ -10970,7 +10970,7 @@
     </row>
     <row r="156" spans="1:22" s="34" customFormat="1">
       <c r="A156" s="35" t="s">
-        <v>309</v>
+        <v>466</v>
       </c>
       <c r="B156" s="32">
         <v>4</v>
@@ -10986,7 +10986,7 @@
         <v>1</v>
       </c>
       <c r="G156" s="32" t="s">
-        <v>347</v>
+        <v>478</v>
       </c>
       <c r="H156" s="32"/>
       <c r="I156" s="32"/>
@@ -11011,16 +11011,16 @@
       </c>
       <c r="Q156" s="32"/>
       <c r="R156" s="32" t="s">
-        <v>455</v>
+        <v>469</v>
       </c>
       <c r="S156" s="33" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="T156" s="32" t="s">
-        <v>419</v>
+        <v>472</v>
       </c>
       <c r="U156" s="32" t="s">
-        <v>383</v>
+        <v>475</v>
       </c>
       <c r="V156" s="32">
         <v>0</v>
@@ -11028,7 +11028,7 @@
     </row>
     <row r="157" spans="1:22" s="34" customFormat="1">
       <c r="A157" s="35" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B157" s="32">
         <v>4</v>
@@ -11044,7 +11044,7 @@
         <v>2</v>
       </c>
       <c r="G157" s="32" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="H157" s="32"/>
       <c r="I157" s="32"/>
@@ -11069,16 +11069,16 @@
       </c>
       <c r="Q157" s="32"/>
       <c r="R157" s="32" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="S157" s="33" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="T157" s="32" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="U157" s="32" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="V157" s="32">
         <v>0</v>
@@ -11086,7 +11086,7 @@
     </row>
     <row r="158" spans="1:22" s="34" customFormat="1">
       <c r="A158" s="35" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B158" s="32">
         <v>4</v>
@@ -11102,7 +11102,7 @@
         <v>3</v>
       </c>
       <c r="G158" s="32" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="H158" s="32"/>
       <c r="I158" s="32"/>
@@ -11127,16 +11127,16 @@
       </c>
       <c r="Q158" s="32"/>
       <c r="R158" s="32" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="S158" s="33" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="T158" s="32" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="U158" s="32" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="V158" s="32">
         <v>0</v>
@@ -11144,7 +11144,7 @@
     </row>
     <row r="159" spans="1:22" s="34" customFormat="1">
       <c r="A159" s="35" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B159" s="32">
         <v>4</v>
@@ -11160,7 +11160,7 @@
         <v>4</v>
       </c>
       <c r="G159" s="32" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="H159" s="32"/>
       <c r="I159" s="32"/>
@@ -11185,16 +11185,16 @@
       </c>
       <c r="Q159" s="32"/>
       <c r="R159" s="32" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="S159" s="33" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="T159" s="32" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="U159" s="32" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="V159" s="32">
         <v>0</v>
@@ -11202,7 +11202,7 @@
     </row>
     <row r="160" spans="1:22" s="34" customFormat="1">
       <c r="A160" s="35" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B160" s="32">
         <v>4</v>
@@ -11218,7 +11218,7 @@
         <v>5</v>
       </c>
       <c r="G160" s="32" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="H160" s="32"/>
       <c r="I160" s="32"/>
@@ -11243,16 +11243,16 @@
       </c>
       <c r="Q160" s="32"/>
       <c r="R160" s="32" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="S160" s="33" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="T160" s="32" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="U160" s="32" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="V160" s="32">
         <v>0</v>
@@ -11260,7 +11260,7 @@
     </row>
     <row r="161" spans="1:22" s="34" customFormat="1">
       <c r="A161" s="35" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B161" s="32">
         <v>4</v>
@@ -11276,7 +11276,7 @@
         <v>6</v>
       </c>
       <c r="G161" s="32" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="H161" s="32"/>
       <c r="I161" s="32"/>
@@ -11301,16 +11301,16 @@
       </c>
       <c r="Q161" s="32"/>
       <c r="R161" s="32" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="S161" s="33" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="T161" s="32" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="U161" s="32" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="V161" s="32">
         <v>0</v>
@@ -11318,7 +11318,7 @@
     </row>
     <row r="162" spans="1:22" s="34" customFormat="1">
       <c r="A162" s="35" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B162" s="32">
         <v>4</v>
@@ -11334,7 +11334,7 @@
         <v>7</v>
       </c>
       <c r="G162" s="32" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="H162" s="32"/>
       <c r="I162" s="32"/>
@@ -11359,16 +11359,16 @@
       </c>
       <c r="Q162" s="32"/>
       <c r="R162" s="32" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="S162" s="33" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="T162" s="32" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="U162" s="32" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="V162" s="32">
         <v>0</v>
@@ -11376,7 +11376,7 @@
     </row>
     <row r="163" spans="1:22" s="36" customFormat="1">
       <c r="A163" s="35" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B163" s="32">
         <v>4</v>
@@ -11392,7 +11392,7 @@
         <v>7</v>
       </c>
       <c r="G163" s="32" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="H163" s="32"/>
       <c r="I163" s="32"/>
@@ -11417,16 +11417,16 @@
       </c>
       <c r="Q163" s="32"/>
       <c r="R163" s="32" t="s">
+        <v>447</v>
+      </c>
+      <c r="S163" s="33" t="s">
         <v>462</v>
       </c>
-      <c r="S163" s="33" t="s">
-        <v>477</v>
-      </c>
       <c r="T163" s="32" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="U163" s="32" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="V163" s="32">
         <v>0</v>
@@ -11434,7 +11434,7 @@
     </row>
     <row r="164" spans="1:22" s="36" customFormat="1">
       <c r="A164" s="35" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B164" s="32">
         <v>4</v>
@@ -11450,7 +11450,7 @@
         <v>7</v>
       </c>
       <c r="G164" s="32" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="H164" s="32"/>
       <c r="I164" s="32"/>
@@ -11475,16 +11475,16 @@
       </c>
       <c r="Q164" s="32"/>
       <c r="R164" s="32" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="S164" s="33" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="T164" s="32" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="U164" s="32" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="V164" s="32">
         <v>0</v>
@@ -11492,7 +11492,7 @@
     </row>
     <row r="165" spans="1:22" s="36" customFormat="1">
       <c r="A165" s="35" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B165" s="32">
         <v>4</v>
@@ -11508,7 +11508,7 @@
         <v>7</v>
       </c>
       <c r="G165" s="32" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="H165" s="32"/>
       <c r="I165" s="32"/>
@@ -11533,16 +11533,16 @@
       </c>
       <c r="Q165" s="32"/>
       <c r="R165" s="32" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="S165" s="33" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="T165" s="32" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="U165" s="32" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="V165" s="32">
         <v>0</v>
@@ -11550,7 +11550,7 @@
     </row>
     <row r="166" spans="1:22" s="36" customFormat="1">
       <c r="A166" s="35" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B166" s="32">
         <v>4</v>
@@ -11566,7 +11566,7 @@
         <v>7</v>
       </c>
       <c r="G166" s="32" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="H166" s="32"/>
       <c r="I166" s="32"/>
@@ -11591,16 +11591,16 @@
       </c>
       <c r="Q166" s="32"/>
       <c r="R166" s="32" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="S166" s="33" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="T166" s="32" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="U166" s="32" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="V166" s="32">
         <v>0</v>
@@ -11608,7 +11608,7 @@
     </row>
     <row r="167" spans="1:22" s="36" customFormat="1">
       <c r="A167" s="35" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B167" s="32">
         <v>4</v>
@@ -11624,7 +11624,7 @@
         <v>7</v>
       </c>
       <c r="G167" s="32" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="H167" s="32"/>
       <c r="I167" s="32"/>
@@ -11649,16 +11649,16 @@
       </c>
       <c r="Q167" s="32"/>
       <c r="R167" s="32" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="S167" s="33" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="T167" s="32" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="U167" s="32" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="V167" s="32">
         <v>0</v>
@@ -11666,7 +11666,7 @@
     </row>
     <row r="168" spans="1:22" s="36" customFormat="1">
       <c r="A168" s="35" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B168" s="32">
         <v>4</v>
@@ -11682,7 +11682,7 @@
         <v>7</v>
       </c>
       <c r="G168" s="32" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="H168" s="32"/>
       <c r="I168" s="32"/>
@@ -11707,16 +11707,16 @@
       </c>
       <c r="Q168" s="32"/>
       <c r="R168" s="32" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="S168" s="33" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="T168" s="32" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="U168" s="32" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="V168" s="32">
         <v>0</v>
@@ -11724,7 +11724,7 @@
     </row>
     <row r="169" spans="1:22" s="36" customFormat="1">
       <c r="A169" s="35" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B169" s="32">
         <v>4</v>
@@ -11740,7 +11740,7 @@
         <v>7</v>
       </c>
       <c r="G169" s="32" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="H169" s="32"/>
       <c r="I169" s="32"/>
@@ -11765,16 +11765,16 @@
       </c>
       <c r="Q169" s="32"/>
       <c r="R169" s="32" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="S169" s="33" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="T169" s="32" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="U169" s="32" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="V169" s="32">
         <v>0</v>
@@ -11782,7 +11782,7 @@
     </row>
     <row r="170" spans="1:22" s="36" customFormat="1">
       <c r="A170" s="35" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B170" s="32">
         <v>4</v>
@@ -11798,7 +11798,7 @@
         <v>7</v>
       </c>
       <c r="G170" s="32" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="H170" s="32"/>
       <c r="I170" s="32"/>
@@ -11823,16 +11823,16 @@
       </c>
       <c r="Q170" s="32"/>
       <c r="R170" s="32" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="S170" s="33" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="T170" s="32" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="U170" s="32" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="V170" s="32">
         <v>0</v>
@@ -11840,7 +11840,7 @@
     </row>
     <row r="171" spans="1:22" s="36" customFormat="1">
       <c r="A171" s="35" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B171" s="32">
         <v>4</v>
@@ -11856,7 +11856,7 @@
         <v>7</v>
       </c>
       <c r="G171" s="32" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="H171" s="32"/>
       <c r="I171" s="32"/>
@@ -11881,16 +11881,16 @@
       </c>
       <c r="Q171" s="32"/>
       <c r="R171" s="32" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="S171" s="33" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="T171" s="32" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="U171" s="32" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="V171" s="32">
         <v>0</v>
@@ -11898,7 +11898,7 @@
     </row>
     <row r="172" spans="1:22" s="36" customFormat="1">
       <c r="A172" s="35" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B172" s="32">
         <v>4</v>
@@ -11914,7 +11914,7 @@
         <v>7</v>
       </c>
       <c r="G172" s="32" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="H172" s="32"/>
       <c r="I172" s="32"/>
@@ -11939,16 +11939,16 @@
       </c>
       <c r="Q172" s="32"/>
       <c r="R172" s="32" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="S172" s="33" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="T172" s="32" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="U172" s="32" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="V172" s="32">
         <v>0</v>
@@ -11956,7 +11956,7 @@
     </row>
     <row r="173" spans="1:22" s="36" customFormat="1">
       <c r="A173" s="35" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B173" s="32">
         <v>4</v>
@@ -11972,7 +11972,7 @@
         <v>7</v>
       </c>
       <c r="G173" s="32" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="H173" s="32"/>
       <c r="I173" s="32"/>
@@ -11997,16 +11997,16 @@
       </c>
       <c r="Q173" s="32"/>
       <c r="R173" s="32" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="S173" s="33" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="T173" s="32" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="U173" s="32" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="V173" s="32">
         <v>0</v>
@@ -12014,7 +12014,7 @@
     </row>
     <row r="174" spans="1:22" s="36" customFormat="1" ht="14.65" thickBot="1">
       <c r="A174" s="37" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B174" s="32">
         <v>4</v>
@@ -12030,7 +12030,7 @@
         <v>7</v>
       </c>
       <c r="G174" s="32" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="H174" s="32"/>
       <c r="I174" s="32"/>
@@ -12055,16 +12055,16 @@
       </c>
       <c r="Q174" s="32"/>
       <c r="R174" s="32" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="S174" s="33" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="T174" s="32" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="U174" s="32" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="V174" s="32">
         <v>0</v>
@@ -12072,7 +12072,7 @@
     </row>
     <row r="175" spans="1:22" s="36" customFormat="1">
       <c r="A175" s="35" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B175" s="32">
         <v>4</v>
@@ -12088,7 +12088,7 @@
         <v>7</v>
       </c>
       <c r="G175" s="32" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="H175" s="32"/>
       <c r="I175" s="32"/>
@@ -12113,16 +12113,16 @@
       </c>
       <c r="Q175" s="32"/>
       <c r="R175" s="32" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="S175" s="33" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="T175" s="32" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="U175" s="32" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="V175" s="32">
         <v>0</v>
@@ -12130,7 +12130,7 @@
     </row>
     <row r="176" spans="1:22" s="36" customFormat="1">
       <c r="A176" s="35" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B176" s="32">
         <v>4</v>
@@ -12146,7 +12146,7 @@
         <v>7</v>
       </c>
       <c r="G176" s="32" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="H176" s="32"/>
       <c r="I176" s="32"/>
@@ -12171,16 +12171,16 @@
       </c>
       <c r="Q176" s="32"/>
       <c r="R176" s="32" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="S176" s="33" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="T176" s="32" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="U176" s="32" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="V176" s="32">
         <v>0</v>
@@ -12188,7 +12188,7 @@
     </row>
     <row r="177" spans="1:22" s="36" customFormat="1" ht="14.65" thickBot="1">
       <c r="A177" s="37" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B177" s="32">
         <v>4</v>
@@ -12204,7 +12204,7 @@
         <v>7</v>
       </c>
       <c r="G177" s="32" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="H177" s="32"/>
       <c r="I177" s="32"/>
@@ -12229,16 +12229,16 @@
       </c>
       <c r="Q177" s="32"/>
       <c r="R177" s="32" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="S177" s="33" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="T177" s="32" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="U177" s="32" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="V177" s="32">
         <v>0</v>

--- a/_Out/NFDataCfg/Excel/Item.xlsx
+++ b/_Out/NFDataCfg/Excel/Item.xlsx
@@ -2080,10 +2080,10 @@
   <dimension ref="A1:V177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="10" topLeftCell="B143" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="10" topLeftCell="B149" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G157" sqref="G157"/>
+      <selection pane="bottomRight" activeCell="G154" sqref="G154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/_Out/NFDataCfg/Excel/Item.xlsx
+++ b/_Out/NFDataCfg/Excel/Item.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10343"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10343" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -22,15 +22,15 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Item" type="4" refreshedVersion="2" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Item" type="4" refreshedVersion="2" background="1" saveData="1">
     <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\Item.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="456">
   <si>
     <t>Id</t>
   </si>
@@ -779,105 +779,6 @@
     <t>Item_GEM_POISON_10</t>
   </si>
   <si>
-    <t>Item_HeroCard_Abaddon</t>
-  </si>
-  <si>
-    <t>Desc_HeroCard_Abaddon</t>
-  </si>
-  <si>
-    <t>NameID_Abaddon</t>
-  </si>
-  <si>
-    <t>Item_HeroCard_Beastmaster</t>
-  </si>
-  <si>
-    <t>Desc_HeroCard_Beastmaster</t>
-  </si>
-  <si>
-    <t>NameID_Beastmaster</t>
-  </si>
-  <si>
-    <t>Item_HeroCard_BountyHunter</t>
-  </si>
-  <si>
-    <t>Desc_HeroCard_BountyHunter</t>
-  </si>
-  <si>
-    <t>NameID_BountyHunter</t>
-  </si>
-  <si>
-    <t>Item_HeroCard_Bristleback</t>
-  </si>
-  <si>
-    <t>Desc_HeroCard_Bristleback</t>
-  </si>
-  <si>
-    <t>Hero_Bristleback</t>
-  </si>
-  <si>
-    <t>NameID_Bristleback</t>
-  </si>
-  <si>
-    <t>Item_HeroCard_Clinkz</t>
-  </si>
-  <si>
-    <t>Desc_HeroCard_Clinkz</t>
-  </si>
-  <si>
-    <t>Hero_Clinkz</t>
-  </si>
-  <si>
-    <t>NameID_Clinkz</t>
-  </si>
-  <si>
-    <t>Item_HeroCard_CrystalMaiden</t>
-  </si>
-  <si>
-    <t>Desc_HeroCard_CrystalMaiden</t>
-  </si>
-  <si>
-    <t>Hero_CrystalMaiden</t>
-  </si>
-  <si>
-    <t>NameID_CrystalMaiden</t>
-  </si>
-  <si>
-    <t>Item_HeroCard_Ezalor</t>
-  </si>
-  <si>
-    <t>Desc_HeroCard_Ezalor</t>
-  </si>
-  <si>
-    <t>Hero_Ezalor</t>
-  </si>
-  <si>
-    <t>NameID_Ezalor</t>
-  </si>
-  <si>
-    <t>Item_HeroCard_Lifestealer</t>
-  </si>
-  <si>
-    <t>Desc_HeroCard_Lifestealer</t>
-  </si>
-  <si>
-    <t>Hero_Lifestealer</t>
-  </si>
-  <si>
-    <t>NameID_Lifestealer</t>
-  </si>
-  <si>
-    <t>Item_HeroCard_TeaantProtector</t>
-  </si>
-  <si>
-    <t>Desc_HeroCard_TeaantProtector</t>
-  </si>
-  <si>
-    <t>Hero_TeaantProtector</t>
-  </si>
-  <si>
-    <t>NameID_TeaantProtector</t>
-  </si>
-  <si>
     <t>UIResources/ItemSprite</t>
   </si>
   <si>
@@ -890,24 +791,6 @@
     <t>NPC_HERO_Wererat_Soldier</t>
   </si>
   <si>
-    <t>NPC_HERO_Bristleback</t>
-  </si>
-  <si>
-    <t>NPC_HERO_Clinkz</t>
-  </si>
-  <si>
-    <t>NPC_HERO_CrystalMaiden</t>
-  </si>
-  <si>
-    <t>NPC_HERO_Ezalor</t>
-  </si>
-  <si>
-    <t>NPC_HERO_Lifestealer</t>
-  </si>
-  <si>
-    <t>NPC_HERO_TeaantProtector</t>
-  </si>
-  <si>
     <t>Hero_Orc_Slinger</t>
   </si>
   <si>
@@ -1467,13 +1350,61 @@
   </si>
   <si>
     <t>Desc_cannon_small_3</t>
+  </si>
+  <si>
+    <t>Hero_Samurai</t>
+  </si>
+  <si>
+    <t>Item_HeroCard_Samurai</t>
+  </si>
+  <si>
+    <t>Item_HeroCard_Wererat_Soldier</t>
+  </si>
+  <si>
+    <t>Item_HeroCard_Dwarf_Warrior</t>
+  </si>
+  <si>
+    <t>Item_HeroCard_Orc_Slinger</t>
+  </si>
+  <si>
+    <t>Desc_Orc_Slinger</t>
+  </si>
+  <si>
+    <t>DescID_Orc_Slinger</t>
+  </si>
+  <si>
+    <t>DescID_Dwarf_Warrior</t>
+  </si>
+  <si>
+    <t>DescID_Wererat_Soldier</t>
+  </si>
+  <si>
+    <t>DescID_Samurai</t>
+  </si>
+  <si>
+    <t>NPC_HERO_Samurai</t>
+  </si>
+  <si>
+    <t>UIResources/HeroSprite</t>
+  </si>
+  <si>
+    <t>NameID_Orc_Slinger</t>
+  </si>
+  <si>
+    <t>NameID_Dwarf_Warrior</t>
+  </si>
+  <si>
+    <t>NameID_Wererat_Soldier</t>
+  </si>
+  <si>
+    <t>NameID_Samurai</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1482,11 +1413,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1502,8 +1440,13 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1546,8 +1489,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1663,23 +1612,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
@@ -1697,13 +1661,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
@@ -1760,7 +1724,7 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1">
@@ -1784,8 +1748,32 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1804,7 +1792,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
-    <tableStyle name="MySqlDefault" count="1">
+    <tableStyle name="MySqlDefault" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
@@ -2076,19 +2064,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V177"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="10" topLeftCell="B149" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="10" topLeftCell="O131" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G154" sqref="G154"/>
+      <selection pane="bottomRight" activeCell="U137" sqref="U137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="1" max="1" width="26.73046875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="3" max="3" width="20.1328125" customWidth="1"/>
     <col min="4" max="4" width="9.33203125" customWidth="1"/>
@@ -2588,7 +2576,7 @@
     </row>
     <row r="8" spans="1:22" s="3" customFormat="1" ht="13.5">
       <c r="A8" s="11" t="s">
-        <v>463</v>
+        <v>424</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -2730,7 +2718,7 @@
         <v>33</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>328</v>
+        <v>289</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>34</v>
@@ -2836,7 +2824,7 @@
       <c r="Q11" s="13"/>
       <c r="R11" s="13"/>
       <c r="S11" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T11" s="12" t="s">
         <v>55</v>
@@ -2894,7 +2882,7 @@
       <c r="Q12" s="14"/>
       <c r="R12" s="14"/>
       <c r="S12" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T12" s="12" t="s">
         <v>59</v>
@@ -2952,7 +2940,7 @@
       <c r="Q13" s="14"/>
       <c r="R13" s="13"/>
       <c r="S13" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T13" s="12" t="s">
         <v>62</v>
@@ -3010,7 +2998,7 @@
       <c r="Q14" s="14"/>
       <c r="R14" s="14"/>
       <c r="S14" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T14" s="12" t="s">
         <v>65</v>
@@ -3068,7 +3056,7 @@
       <c r="Q15" s="14"/>
       <c r="R15" s="14"/>
       <c r="S15" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T15" s="12" t="s">
         <v>68</v>
@@ -3124,7 +3112,7 @@
       <c r="Q16" s="14"/>
       <c r="R16" s="14"/>
       <c r="S16" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T16" s="12" t="s">
         <v>70</v>
@@ -3180,7 +3168,7 @@
       <c r="Q17" s="14"/>
       <c r="R17" s="13"/>
       <c r="S17" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T17" s="15" t="s">
         <v>73</v>
@@ -3236,7 +3224,7 @@
       <c r="Q18" s="14"/>
       <c r="R18" s="14"/>
       <c r="S18" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T18" s="15" t="s">
         <v>76</v>
@@ -3292,7 +3280,7 @@
       <c r="Q19" s="14"/>
       <c r="R19" s="13"/>
       <c r="S19" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T19" s="15" t="s">
         <v>78</v>
@@ -3348,7 +3336,7 @@
       <c r="Q20" s="14"/>
       <c r="R20" s="14"/>
       <c r="S20" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T20" s="15" t="s">
         <v>80</v>
@@ -3404,7 +3392,7 @@
       <c r="Q21" s="14"/>
       <c r="R21" s="14"/>
       <c r="S21" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T21" s="15" t="s">
         <v>82</v>
@@ -3460,7 +3448,7 @@
       <c r="Q22" s="14"/>
       <c r="R22" s="14"/>
       <c r="S22" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T22" s="15" t="s">
         <v>84</v>
@@ -3516,7 +3504,7 @@
       <c r="Q23" s="14"/>
       <c r="R23" s="13"/>
       <c r="S23" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T23" s="15" t="s">
         <v>87</v>
@@ -3572,7 +3560,7 @@
       <c r="Q24" s="14"/>
       <c r="R24" s="14"/>
       <c r="S24" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T24" s="15" t="s">
         <v>90</v>
@@ -3628,7 +3616,7 @@
       <c r="Q25" s="14"/>
       <c r="R25" s="13"/>
       <c r="S25" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T25" s="15" t="s">
         <v>92</v>
@@ -3684,7 +3672,7 @@
       <c r="Q26" s="14"/>
       <c r="R26" s="14"/>
       <c r="S26" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T26" s="15" t="s">
         <v>94</v>
@@ -3740,7 +3728,7 @@
       <c r="Q27" s="14"/>
       <c r="R27" s="14"/>
       <c r="S27" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T27" s="15" t="s">
         <v>96</v>
@@ -3796,7 +3784,7 @@
       <c r="Q28" s="14"/>
       <c r="R28" s="14"/>
       <c r="S28" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T28" s="15" t="s">
         <v>98</v>
@@ -3852,7 +3840,7 @@
       <c r="Q29" s="14"/>
       <c r="R29" s="13"/>
       <c r="S29" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T29" s="15" t="s">
         <v>101</v>
@@ -3908,7 +3896,7 @@
       <c r="Q30" s="14"/>
       <c r="R30" s="14"/>
       <c r="S30" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T30" s="15" t="s">
         <v>104</v>
@@ -3964,7 +3952,7 @@
       <c r="Q31" s="14"/>
       <c r="R31" s="13"/>
       <c r="S31" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T31" s="15" t="s">
         <v>106</v>
@@ -4020,7 +4008,7 @@
       <c r="Q32" s="14"/>
       <c r="R32" s="14"/>
       <c r="S32" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T32" s="15" t="s">
         <v>108</v>
@@ -4076,7 +4064,7 @@
       <c r="Q33" s="14"/>
       <c r="R33" s="13"/>
       <c r="S33" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T33" s="15" t="s">
         <v>110</v>
@@ -4132,7 +4120,7 @@
       <c r="Q34" s="14"/>
       <c r="R34" s="14"/>
       <c r="S34" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T34" s="15" t="s">
         <v>112</v>
@@ -4188,7 +4176,7 @@
       <c r="Q35" s="14"/>
       <c r="R35" s="13"/>
       <c r="S35" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T35" s="14" t="s">
         <v>115</v>
@@ -4244,7 +4232,7 @@
       <c r="Q36" s="14"/>
       <c r="R36" s="14"/>
       <c r="S36" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T36" s="14" t="s">
         <v>115</v>
@@ -4300,7 +4288,7 @@
       <c r="Q37" s="14"/>
       <c r="R37" s="13"/>
       <c r="S37" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T37" s="14" t="s">
         <v>115</v>
@@ -4356,7 +4344,7 @@
       <c r="Q38" s="14"/>
       <c r="R38" s="14"/>
       <c r="S38" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T38" s="14" t="s">
         <v>115</v>
@@ -4412,7 +4400,7 @@
       <c r="Q39" s="14"/>
       <c r="R39" s="13"/>
       <c r="S39" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T39" s="14" t="s">
         <v>115</v>
@@ -4468,7 +4456,7 @@
       <c r="Q40" s="14"/>
       <c r="R40" s="14"/>
       <c r="S40" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T40" s="14" t="s">
         <v>115</v>
@@ -4524,7 +4512,7 @@
       <c r="Q41" s="14"/>
       <c r="R41" s="14"/>
       <c r="S41" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T41" s="15" t="s">
         <v>124</v>
@@ -4580,7 +4568,7 @@
       <c r="Q42" s="14"/>
       <c r="R42" s="13"/>
       <c r="S42" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T42" s="15" t="s">
         <v>127</v>
@@ -4636,7 +4624,7 @@
       <c r="Q43" s="14"/>
       <c r="R43" s="14"/>
       <c r="S43" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T43" s="15" t="s">
         <v>129</v>
@@ -4692,7 +4680,7 @@
       <c r="Q44" s="14"/>
       <c r="R44" s="13"/>
       <c r="S44" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T44" s="15" t="s">
         <v>131</v>
@@ -4748,7 +4736,7 @@
       <c r="Q45" s="14"/>
       <c r="R45" s="14"/>
       <c r="S45" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T45" s="15" t="s">
         <v>133</v>
@@ -4804,7 +4792,7 @@
       <c r="Q46" s="14"/>
       <c r="R46" s="13"/>
       <c r="S46" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T46" s="15" t="s">
         <v>135</v>
@@ -4838,8 +4826,8 @@
       </c>
       <c r="H47" s="17"/>
       <c r="I47" s="17"/>
-      <c r="J47" s="38" t="s">
-        <v>329</v>
+      <c r="J47" s="40" t="s">
+        <v>290</v>
       </c>
       <c r="K47" s="17">
         <v>0</v>
@@ -4862,7 +4850,7 @@
       <c r="Q47" s="17"/>
       <c r="R47" s="17"/>
       <c r="S47" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T47" s="16" t="s">
         <v>138</v>
@@ -4918,7 +4906,7 @@
       <c r="Q48" s="17"/>
       <c r="R48" s="18"/>
       <c r="S48" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T48" s="16" t="s">
         <v>138</v>
@@ -4974,7 +4962,7 @@
       <c r="Q49" s="17"/>
       <c r="R49" s="17"/>
       <c r="S49" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T49" s="16" t="s">
         <v>138</v>
@@ -5030,7 +5018,7 @@
       <c r="Q50" s="17"/>
       <c r="R50" s="18"/>
       <c r="S50" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T50" s="16" t="s">
         <v>138</v>
@@ -5086,7 +5074,7 @@
       <c r="Q51" s="17"/>
       <c r="R51" s="17"/>
       <c r="S51" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T51" s="16" t="s">
         <v>138</v>
@@ -5142,7 +5130,7 @@
       <c r="Q52" s="17"/>
       <c r="R52" s="18"/>
       <c r="S52" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T52" s="16" t="s">
         <v>138</v>
@@ -5198,7 +5186,7 @@
       <c r="Q53" s="17"/>
       <c r="R53" s="17"/>
       <c r="S53" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T53" s="16" t="s">
         <v>138</v>
@@ -5254,7 +5242,7 @@
       <c r="Q54" s="17"/>
       <c r="R54" s="18"/>
       <c r="S54" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T54" s="16" t="s">
         <v>138</v>
@@ -5310,7 +5298,7 @@
       <c r="Q55" s="17"/>
       <c r="R55" s="17"/>
       <c r="S55" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T55" s="16" t="s">
         <v>138</v>
@@ -5366,7 +5354,7 @@
       <c r="Q56" s="17"/>
       <c r="R56" s="18"/>
       <c r="S56" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T56" s="16" t="s">
         <v>138</v>
@@ -5422,7 +5410,7 @@
       <c r="Q57" s="17"/>
       <c r="R57" s="17"/>
       <c r="S57" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T57" s="16" t="s">
         <v>151</v>
@@ -5478,7 +5466,7 @@
       <c r="Q58" s="17"/>
       <c r="R58" s="18"/>
       <c r="S58" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T58" s="16" t="s">
         <v>151</v>
@@ -5534,7 +5522,7 @@
       <c r="Q59" s="17"/>
       <c r="R59" s="17"/>
       <c r="S59" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T59" s="16" t="s">
         <v>151</v>
@@ -5590,7 +5578,7 @@
       <c r="Q60" s="17"/>
       <c r="R60" s="18"/>
       <c r="S60" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T60" s="16" t="s">
         <v>151</v>
@@ -5646,7 +5634,7 @@
       <c r="Q61" s="20"/>
       <c r="R61" s="20"/>
       <c r="S61" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T61" s="16" t="s">
         <v>151</v>
@@ -5702,7 +5690,7 @@
       <c r="Q62" s="20"/>
       <c r="R62" s="20"/>
       <c r="S62" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T62" s="16" t="s">
         <v>151</v>
@@ -5758,7 +5746,7 @@
       <c r="Q63" s="22"/>
       <c r="R63" s="22"/>
       <c r="S63" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T63" s="22" t="s">
         <v>160</v>
@@ -5814,7 +5802,7 @@
       <c r="Q64" s="22"/>
       <c r="R64" s="22"/>
       <c r="S64" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T64" s="22" t="s">
         <v>160</v>
@@ -5870,7 +5858,7 @@
       <c r="Q65" s="22"/>
       <c r="R65" s="22"/>
       <c r="S65" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T65" s="22" t="s">
         <v>160</v>
@@ -5926,7 +5914,7 @@
       <c r="Q66" s="22"/>
       <c r="R66" s="22"/>
       <c r="S66" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T66" s="22" t="s">
         <v>160</v>
@@ -5982,7 +5970,7 @@
       <c r="Q67" s="22"/>
       <c r="R67" s="22"/>
       <c r="S67" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T67" s="22" t="s">
         <v>160</v>
@@ -6038,7 +6026,7 @@
       <c r="Q68" s="22"/>
       <c r="R68" s="22"/>
       <c r="S68" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T68" s="22" t="s">
         <v>160</v>
@@ -6094,7 +6082,7 @@
       <c r="Q69" s="22"/>
       <c r="R69" s="22"/>
       <c r="S69" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T69" s="22" t="s">
         <v>160</v>
@@ -6150,7 +6138,7 @@
       <c r="Q70" s="22"/>
       <c r="R70" s="22"/>
       <c r="S70" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T70" s="22" t="s">
         <v>160</v>
@@ -6206,7 +6194,7 @@
       <c r="Q71" s="22"/>
       <c r="R71" s="22"/>
       <c r="S71" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T71" s="22" t="s">
         <v>160</v>
@@ -6262,7 +6250,7 @@
       <c r="Q72" s="22"/>
       <c r="R72" s="22"/>
       <c r="S72" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T72" s="22" t="s">
         <v>160</v>
@@ -6318,7 +6306,7 @@
       <c r="Q73" s="22"/>
       <c r="R73" s="22"/>
       <c r="S73" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T73" s="22" t="s">
         <v>173</v>
@@ -6374,7 +6362,7 @@
       <c r="Q74" s="22"/>
       <c r="R74" s="22"/>
       <c r="S74" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T74" s="22" t="s">
         <v>173</v>
@@ -6430,7 +6418,7 @@
       <c r="Q75" s="22"/>
       <c r="R75" s="22"/>
       <c r="S75" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T75" s="22" t="s">
         <v>173</v>
@@ -6486,7 +6474,7 @@
       <c r="Q76" s="22"/>
       <c r="R76" s="22"/>
       <c r="S76" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T76" s="22" t="s">
         <v>173</v>
@@ -6542,7 +6530,7 @@
       <c r="Q77" s="22"/>
       <c r="R77" s="22"/>
       <c r="S77" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T77" s="22" t="s">
         <v>173</v>
@@ -6598,7 +6586,7 @@
       <c r="Q78" s="22"/>
       <c r="R78" s="22"/>
       <c r="S78" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T78" s="22" t="s">
         <v>173</v>
@@ -6654,7 +6642,7 @@
       <c r="Q79" s="22"/>
       <c r="R79" s="22"/>
       <c r="S79" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T79" s="22" t="s">
         <v>173</v>
@@ -6710,7 +6698,7 @@
       <c r="Q80" s="22"/>
       <c r="R80" s="22"/>
       <c r="S80" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T80" s="22" t="s">
         <v>173</v>
@@ -6766,7 +6754,7 @@
       <c r="Q81" s="22"/>
       <c r="R81" s="22"/>
       <c r="S81" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T81" s="22" t="s">
         <v>173</v>
@@ -6822,7 +6810,7 @@
       <c r="Q82" s="22"/>
       <c r="R82" s="22"/>
       <c r="S82" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T82" s="22" t="s">
         <v>173</v>
@@ -6878,7 +6866,7 @@
       <c r="Q83" s="22"/>
       <c r="R83" s="22"/>
       <c r="S83" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T83" s="22" t="s">
         <v>186</v>
@@ -6934,7 +6922,7 @@
       <c r="Q84" s="22"/>
       <c r="R84" s="22"/>
       <c r="S84" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T84" s="22" t="s">
         <v>186</v>
@@ -6990,7 +6978,7 @@
       <c r="Q85" s="22"/>
       <c r="R85" s="22"/>
       <c r="S85" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T85" s="22" t="s">
         <v>186</v>
@@ -7046,7 +7034,7 @@
       <c r="Q86" s="22"/>
       <c r="R86" s="22"/>
       <c r="S86" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T86" s="22" t="s">
         <v>186</v>
@@ -7102,7 +7090,7 @@
       <c r="Q87" s="22"/>
       <c r="R87" s="22"/>
       <c r="S87" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T87" s="22" t="s">
         <v>186</v>
@@ -7158,7 +7146,7 @@
       <c r="Q88" s="22"/>
       <c r="R88" s="22"/>
       <c r="S88" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T88" s="22" t="s">
         <v>186</v>
@@ -7214,7 +7202,7 @@
       <c r="Q89" s="22"/>
       <c r="R89" s="22"/>
       <c r="S89" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T89" s="22" t="s">
         <v>186</v>
@@ -7270,7 +7258,7 @@
       <c r="Q90" s="22"/>
       <c r="R90" s="22"/>
       <c r="S90" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T90" s="22" t="s">
         <v>186</v>
@@ -7326,7 +7314,7 @@
       <c r="Q91" s="22"/>
       <c r="R91" s="22"/>
       <c r="S91" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T91" s="22" t="s">
         <v>186</v>
@@ -7382,7 +7370,7 @@
       <c r="Q92" s="22"/>
       <c r="R92" s="22"/>
       <c r="S92" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T92" s="22" t="s">
         <v>186</v>
@@ -7438,7 +7426,7 @@
       <c r="Q93" s="22"/>
       <c r="R93" s="22"/>
       <c r="S93" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T93" s="22" t="s">
         <v>199</v>
@@ -7494,7 +7482,7 @@
       <c r="Q94" s="22"/>
       <c r="R94" s="22"/>
       <c r="S94" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T94" s="22" t="s">
         <v>199</v>
@@ -7550,7 +7538,7 @@
       <c r="Q95" s="22"/>
       <c r="R95" s="22"/>
       <c r="S95" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T95" s="22" t="s">
         <v>199</v>
@@ -7606,7 +7594,7 @@
       <c r="Q96" s="22"/>
       <c r="R96" s="22"/>
       <c r="S96" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T96" s="22" t="s">
         <v>199</v>
@@ -7662,7 +7650,7 @@
       <c r="Q97" s="22"/>
       <c r="R97" s="22"/>
       <c r="S97" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T97" s="22" t="s">
         <v>199</v>
@@ -7718,7 +7706,7 @@
       <c r="Q98" s="22"/>
       <c r="R98" s="22"/>
       <c r="S98" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T98" s="22" t="s">
         <v>199</v>
@@ -7774,7 +7762,7 @@
       <c r="Q99" s="22"/>
       <c r="R99" s="22"/>
       <c r="S99" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T99" s="22" t="s">
         <v>199</v>
@@ -7830,7 +7818,7 @@
       <c r="Q100" s="22"/>
       <c r="R100" s="22"/>
       <c r="S100" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T100" s="22" t="s">
         <v>199</v>
@@ -7886,7 +7874,7 @@
       <c r="Q101" s="22"/>
       <c r="R101" s="22"/>
       <c r="S101" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T101" s="22" t="s">
         <v>199</v>
@@ -7942,7 +7930,7 @@
       <c r="Q102" s="22"/>
       <c r="R102" s="22"/>
       <c r="S102" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T102" s="22" t="s">
         <v>199</v>
@@ -7998,7 +7986,7 @@
       <c r="Q103" s="23"/>
       <c r="R103" s="22"/>
       <c r="S103" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T103" s="23" t="s">
         <v>212</v>
@@ -8054,7 +8042,7 @@
       <c r="Q104" s="23"/>
       <c r="R104" s="22"/>
       <c r="S104" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T104" s="23" t="s">
         <v>212</v>
@@ -8110,7 +8098,7 @@
       <c r="Q105" s="23"/>
       <c r="R105" s="22"/>
       <c r="S105" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T105" s="23" t="s">
         <v>212</v>
@@ -8166,7 +8154,7 @@
       <c r="Q106" s="23"/>
       <c r="R106" s="22"/>
       <c r="S106" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T106" s="23" t="s">
         <v>212</v>
@@ -8222,7 +8210,7 @@
       <c r="Q107" s="23"/>
       <c r="R107" s="22"/>
       <c r="S107" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T107" s="23" t="s">
         <v>212</v>
@@ -8278,7 +8266,7 @@
       <c r="Q108" s="23"/>
       <c r="R108" s="22"/>
       <c r="S108" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T108" s="23" t="s">
         <v>212</v>
@@ -8334,7 +8322,7 @@
       <c r="Q109" s="23"/>
       <c r="R109" s="22"/>
       <c r="S109" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T109" s="23" t="s">
         <v>212</v>
@@ -8390,7 +8378,7 @@
       <c r="Q110" s="23"/>
       <c r="R110" s="22"/>
       <c r="S110" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T110" s="23" t="s">
         <v>212</v>
@@ -8446,7 +8434,7 @@
       <c r="Q111" s="23"/>
       <c r="R111" s="22"/>
       <c r="S111" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T111" s="23" t="s">
         <v>212</v>
@@ -8502,7 +8490,7 @@
       <c r="Q112" s="23"/>
       <c r="R112" s="22"/>
       <c r="S112" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T112" s="23" t="s">
         <v>212</v>
@@ -8558,7 +8546,7 @@
       <c r="Q113" s="22"/>
       <c r="R113" s="22"/>
       <c r="S113" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T113" s="22" t="s">
         <v>225</v>
@@ -8614,7 +8602,7 @@
       <c r="Q114" s="22"/>
       <c r="R114" s="22"/>
       <c r="S114" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T114" s="22" t="s">
         <v>225</v>
@@ -8670,7 +8658,7 @@
       <c r="Q115" s="22"/>
       <c r="R115" s="22"/>
       <c r="S115" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T115" s="22" t="s">
         <v>225</v>
@@ -8726,7 +8714,7 @@
       <c r="Q116" s="22"/>
       <c r="R116" s="22"/>
       <c r="S116" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T116" s="22" t="s">
         <v>225</v>
@@ -8782,7 +8770,7 @@
       <c r="Q117" s="22"/>
       <c r="R117" s="22"/>
       <c r="S117" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T117" s="22" t="s">
         <v>225</v>
@@ -8838,7 +8826,7 @@
       <c r="Q118" s="22"/>
       <c r="R118" s="22"/>
       <c r="S118" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T118" s="22" t="s">
         <v>225</v>
@@ -8894,7 +8882,7 @@
       <c r="Q119" s="22"/>
       <c r="R119" s="22"/>
       <c r="S119" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T119" s="22" t="s">
         <v>225</v>
@@ -8950,7 +8938,7 @@
       <c r="Q120" s="22"/>
       <c r="R120" s="22"/>
       <c r="S120" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T120" s="22" t="s">
         <v>225</v>
@@ -9006,7 +8994,7 @@
       <c r="Q121" s="22"/>
       <c r="R121" s="22"/>
       <c r="S121" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T121" s="22" t="s">
         <v>225</v>
@@ -9062,7 +9050,7 @@
       <c r="Q122" s="22"/>
       <c r="R122" s="22"/>
       <c r="S122" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T122" s="22" t="s">
         <v>225</v>
@@ -9118,7 +9106,7 @@
       <c r="Q123" s="22"/>
       <c r="R123" s="22"/>
       <c r="S123" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T123" s="22" t="s">
         <v>238</v>
@@ -9174,7 +9162,7 @@
       <c r="Q124" s="22"/>
       <c r="R124" s="22"/>
       <c r="S124" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T124" s="22" t="s">
         <v>238</v>
@@ -9230,7 +9218,7 @@
       <c r="Q125" s="22"/>
       <c r="R125" s="22"/>
       <c r="S125" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T125" s="22" t="s">
         <v>238</v>
@@ -9286,7 +9274,7 @@
       <c r="Q126" s="22"/>
       <c r="R126" s="22"/>
       <c r="S126" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T126" s="22" t="s">
         <v>238</v>
@@ -9342,7 +9330,7 @@
       <c r="Q127" s="22"/>
       <c r="R127" s="22"/>
       <c r="S127" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T127" s="22" t="s">
         <v>238</v>
@@ -9398,7 +9386,7 @@
       <c r="Q128" s="22"/>
       <c r="R128" s="22"/>
       <c r="S128" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T128" s="22" t="s">
         <v>238</v>
@@ -9454,7 +9442,7 @@
       <c r="Q129" s="22"/>
       <c r="R129" s="22"/>
       <c r="S129" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T129" s="22" t="s">
         <v>238</v>
@@ -9510,7 +9498,7 @@
       <c r="Q130" s="22"/>
       <c r="R130" s="22"/>
       <c r="S130" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T130" s="22" t="s">
         <v>238</v>
@@ -9539,8 +9527,8 @@
       <c r="F131" s="22">
         <v>9</v>
       </c>
-      <c r="G131" s="22" t="s">
-        <v>237</v>
+      <c r="G131" s="41" t="s">
+        <v>445</v>
       </c>
       <c r="H131" s="22"/>
       <c r="I131" s="22"/>
@@ -9566,7 +9554,7 @@
       <c r="Q131" s="22"/>
       <c r="R131" s="22"/>
       <c r="S131" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T131" s="22" t="s">
         <v>238</v>
@@ -9578,7 +9566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:22" s="6" customFormat="1">
+    <row r="132" spans="1:22" s="6" customFormat="1" ht="14.65" thickBot="1">
       <c r="A132" s="22" t="s">
         <v>248</v>
       </c>
@@ -9622,7 +9610,7 @@
       <c r="Q132" s="22"/>
       <c r="R132" s="22"/>
       <c r="S132" s="12" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T132" s="22" t="s">
         <v>238</v>
@@ -9635,8 +9623,8 @@
       </c>
     </row>
     <row r="133" spans="1:22" s="8" customFormat="1">
-      <c r="A133" s="24" t="s">
-        <v>249</v>
+      <c r="A133" s="39" t="s">
+        <v>444</v>
       </c>
       <c r="B133" s="25">
         <v>3</v>
@@ -9651,8 +9639,8 @@
       <c r="F133" s="25">
         <v>0</v>
       </c>
-      <c r="G133" s="24" t="s">
-        <v>250</v>
+      <c r="G133" s="42" t="s">
+        <v>446</v>
       </c>
       <c r="H133" s="25"/>
       <c r="I133" s="25"/>
@@ -9677,24 +9665,24 @@
       </c>
       <c r="Q133" s="25"/>
       <c r="R133" s="30" t="s">
-        <v>283</v>
-      </c>
-      <c r="S133" s="12" t="s">
-        <v>282</v>
+        <v>250</v>
+      </c>
+      <c r="S133" s="44" t="s">
+        <v>451</v>
       </c>
       <c r="T133" s="24" t="s">
-        <v>292</v>
-      </c>
-      <c r="U133" s="25" t="s">
-        <v>251</v>
+        <v>253</v>
+      </c>
+      <c r="U133" s="45" t="s">
+        <v>452</v>
       </c>
       <c r="V133" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:22" s="8" customFormat="1">
-      <c r="A134" s="26" t="s">
-        <v>252</v>
+      <c r="A134" s="38" t="s">
+        <v>443</v>
       </c>
       <c r="B134" s="27">
         <v>3</v>
@@ -9709,8 +9697,8 @@
       <c r="F134" s="27">
         <v>0</v>
       </c>
-      <c r="G134" s="26" t="s">
-        <v>253</v>
+      <c r="G134" s="43" t="s">
+        <v>447</v>
       </c>
       <c r="H134" s="27"/>
       <c r="I134" s="27"/>
@@ -9735,24 +9723,24 @@
       </c>
       <c r="Q134" s="27"/>
       <c r="R134" s="30" t="s">
-        <v>284</v>
-      </c>
-      <c r="S134" s="12" t="s">
-        <v>282</v>
+        <v>251</v>
+      </c>
+      <c r="S134" s="44" t="s">
+        <v>451</v>
       </c>
       <c r="T134" s="26" t="s">
-        <v>293</v>
-      </c>
-      <c r="U134" s="27" t="s">
         <v>254</v>
       </c>
+      <c r="U134" s="46" t="s">
+        <v>453</v>
+      </c>
       <c r="V134" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:22" s="8" customFormat="1">
-      <c r="A135" s="26" t="s">
-        <v>255</v>
+      <c r="A135" s="38" t="s">
+        <v>442</v>
       </c>
       <c r="B135" s="25">
         <v>3</v>
@@ -9767,8 +9755,8 @@
       <c r="F135" s="27">
         <v>0</v>
       </c>
-      <c r="G135" s="26" t="s">
-        <v>256</v>
+      <c r="G135" s="43" t="s">
+        <v>448</v>
       </c>
       <c r="H135" s="27"/>
       <c r="I135" s="27"/>
@@ -9793,24 +9781,24 @@
       </c>
       <c r="Q135" s="27"/>
       <c r="R135" s="30" t="s">
-        <v>285</v>
-      </c>
-      <c r="S135" s="12" t="s">
-        <v>282</v>
+        <v>252</v>
+      </c>
+      <c r="S135" s="44" t="s">
+        <v>451</v>
       </c>
       <c r="T135" s="26" t="s">
-        <v>294</v>
-      </c>
-      <c r="U135" s="27" t="s">
-        <v>257</v>
+        <v>255</v>
+      </c>
+      <c r="U135" s="46" t="s">
+        <v>454</v>
       </c>
       <c r="V135" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:22" s="8" customFormat="1">
-      <c r="A136" s="26" t="s">
-        <v>258</v>
+      <c r="A136" s="38" t="s">
+        <v>441</v>
       </c>
       <c r="B136" s="27">
         <v>3</v>
@@ -9825,8 +9813,8 @@
       <c r="F136" s="27">
         <v>0</v>
       </c>
-      <c r="G136" s="26" t="s">
-        <v>259</v>
+      <c r="G136" s="43" t="s">
+        <v>449</v>
       </c>
       <c r="H136" s="27"/>
       <c r="I136" s="27"/>
@@ -9851,314 +9839,314 @@
       </c>
       <c r="Q136" s="27"/>
       <c r="R136" s="30" t="s">
-        <v>286</v>
-      </c>
-      <c r="S136" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="T136" s="26" t="s">
+        <v>450</v>
+      </c>
+      <c r="S136" s="44" t="s">
+        <v>451</v>
+      </c>
+      <c r="T136" s="38" t="s">
+        <v>440</v>
+      </c>
+      <c r="U136" s="46" t="s">
+        <v>455</v>
+      </c>
+      <c r="V136" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:22" s="34" customFormat="1">
+      <c r="A137" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="B137" s="32">
+        <v>4</v>
+      </c>
+      <c r="C137" s="32">
+        <v>4</v>
+      </c>
+      <c r="D137" s="32">
+        <v>0</v>
+      </c>
+      <c r="E137" s="32"/>
+      <c r="F137" s="32">
+        <v>1</v>
+      </c>
+      <c r="G137" s="32" t="s">
+        <v>291</v>
+      </c>
+      <c r="H137" s="32"/>
+      <c r="I137" s="32"/>
+      <c r="J137" s="32"/>
+      <c r="K137" s="32">
+        <v>20</v>
+      </c>
+      <c r="L137" s="32">
+        <v>0</v>
+      </c>
+      <c r="M137" s="32">
+        <v>1</v>
+      </c>
+      <c r="N137" s="32">
+        <v>0</v>
+      </c>
+      <c r="O137" s="32">
+        <v>20</v>
+      </c>
+      <c r="P137" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q137" s="32"/>
+      <c r="R137" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="S137" s="33" t="s">
+        <v>423</v>
+      </c>
+      <c r="T137" s="32" t="s">
+        <v>357</v>
+      </c>
+      <c r="U137" s="32" t="s">
+        <v>324</v>
+      </c>
+      <c r="V137" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:22" s="34" customFormat="1">
+      <c r="A138" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="B138" s="32">
+        <v>4</v>
+      </c>
+      <c r="C138" s="32">
+        <v>4</v>
+      </c>
+      <c r="D138" s="32">
+        <v>0</v>
+      </c>
+      <c r="E138" s="32"/>
+      <c r="F138" s="32">
+        <v>2</v>
+      </c>
+      <c r="G138" s="32" t="s">
+        <v>292</v>
+      </c>
+      <c r="H138" s="32"/>
+      <c r="I138" s="32"/>
+      <c r="J138" s="32"/>
+      <c r="K138" s="32">
+        <v>50</v>
+      </c>
+      <c r="L138" s="32">
+        <v>0</v>
+      </c>
+      <c r="M138" s="32">
+        <v>1</v>
+      </c>
+      <c r="N138" s="32">
+        <v>0</v>
+      </c>
+      <c r="O138" s="32">
+        <v>50</v>
+      </c>
+      <c r="P138" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q138" s="32"/>
+      <c r="R138" s="32" t="s">
+        <v>391</v>
+      </c>
+      <c r="S138" s="33" t="s">
+        <v>423</v>
+      </c>
+      <c r="T138" s="32" t="s">
+        <v>358</v>
+      </c>
+      <c r="U138" s="32" t="s">
+        <v>325</v>
+      </c>
+      <c r="V138" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:22" s="34" customFormat="1">
+      <c r="A139" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="B139" s="32">
+        <v>4</v>
+      </c>
+      <c r="C139" s="32">
+        <v>4</v>
+      </c>
+      <c r="D139" s="32">
+        <v>0</v>
+      </c>
+      <c r="E139" s="32"/>
+      <c r="F139" s="32">
+        <v>3</v>
+      </c>
+      <c r="G139" s="32" t="s">
+        <v>293</v>
+      </c>
+      <c r="H139" s="32"/>
+      <c r="I139" s="32"/>
+      <c r="J139" s="32"/>
+      <c r="K139" s="32">
+        <v>90</v>
+      </c>
+      <c r="L139" s="32">
+        <v>0</v>
+      </c>
+      <c r="M139" s="32">
+        <v>1</v>
+      </c>
+      <c r="N139" s="32">
+        <v>0</v>
+      </c>
+      <c r="O139" s="32">
+        <v>90</v>
+      </c>
+      <c r="P139" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q139" s="32"/>
+      <c r="R139" s="32" t="s">
+        <v>392</v>
+      </c>
+      <c r="S139" s="33" t="s">
+        <v>423</v>
+      </c>
+      <c r="T139" s="32" t="s">
+        <v>359</v>
+      </c>
+      <c r="U139" s="32" t="s">
+        <v>326</v>
+      </c>
+      <c r="V139" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:22" s="34" customFormat="1">
+      <c r="A140" s="35" t="s">
+        <v>259</v>
+      </c>
+      <c r="B140" s="32">
+        <v>4</v>
+      </c>
+      <c r="C140" s="32">
+        <v>4</v>
+      </c>
+      <c r="D140" s="32">
+        <v>0</v>
+      </c>
+      <c r="E140" s="32"/>
+      <c r="F140" s="32">
+        <v>4</v>
+      </c>
+      <c r="G140" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="H140" s="32"/>
+      <c r="I140" s="32"/>
+      <c r="J140" s="32"/>
+      <c r="K140" s="32">
+        <v>140</v>
+      </c>
+      <c r="L140" s="32">
+        <v>0</v>
+      </c>
+      <c r="M140" s="32">
+        <v>1</v>
+      </c>
+      <c r="N140" s="32">
+        <v>0</v>
+      </c>
+      <c r="O140" s="32">
+        <v>140</v>
+      </c>
+      <c r="P140" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q140" s="32"/>
+      <c r="R140" s="32" t="s">
+        <v>393</v>
+      </c>
+      <c r="S140" s="33" t="s">
+        <v>423</v>
+      </c>
+      <c r="T140" s="32" t="s">
+        <v>360</v>
+      </c>
+      <c r="U140" s="32" t="s">
+        <v>327</v>
+      </c>
+      <c r="V140" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:22" s="34" customFormat="1">
+      <c r="A141" s="35" t="s">
         <v>260</v>
       </c>
-      <c r="U136" s="27" t="s">
+      <c r="B141" s="32">
+        <v>4</v>
+      </c>
+      <c r="C141" s="32">
+        <v>4</v>
+      </c>
+      <c r="D141" s="32">
+        <v>0</v>
+      </c>
+      <c r="E141" s="32"/>
+      <c r="F141" s="32">
+        <v>5</v>
+      </c>
+      <c r="G141" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="H141" s="32"/>
+      <c r="I141" s="32"/>
+      <c r="J141" s="32"/>
+      <c r="K141" s="32">
+        <v>200</v>
+      </c>
+      <c r="L141" s="32">
+        <v>0</v>
+      </c>
+      <c r="M141" s="32">
+        <v>1</v>
+      </c>
+      <c r="N141" s="32">
+        <v>0</v>
+      </c>
+      <c r="O141" s="32">
+        <v>200</v>
+      </c>
+      <c r="P141" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q141" s="32"/>
+      <c r="R141" s="32" t="s">
+        <v>394</v>
+      </c>
+      <c r="S141" s="33" t="s">
+        <v>423</v>
+      </c>
+      <c r="T141" s="32" t="s">
+        <v>361</v>
+      </c>
+      <c r="U141" s="32" t="s">
+        <v>328</v>
+      </c>
+      <c r="V141" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:22" s="34" customFormat="1">
+      <c r="A142" s="35" t="s">
         <v>261</v>
-      </c>
-      <c r="V136" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:22" s="8" customFormat="1">
-      <c r="A137" s="26" t="s">
-        <v>262</v>
-      </c>
-      <c r="B137" s="25">
-        <v>3</v>
-      </c>
-      <c r="C137" s="25">
-        <v>0</v>
-      </c>
-      <c r="D137" s="27">
-        <v>1</v>
-      </c>
-      <c r="E137" s="27"/>
-      <c r="F137" s="27">
-        <v>0</v>
-      </c>
-      <c r="G137" s="26" t="s">
-        <v>263</v>
-      </c>
-      <c r="H137" s="27"/>
-      <c r="I137" s="27"/>
-      <c r="J137" s="29"/>
-      <c r="K137" s="27">
-        <v>0</v>
-      </c>
-      <c r="L137" s="27">
-        <v>0</v>
-      </c>
-      <c r="M137" s="27">
-        <v>1</v>
-      </c>
-      <c r="N137" s="27">
-        <v>0</v>
-      </c>
-      <c r="O137" s="25">
-        <v>1000</v>
-      </c>
-      <c r="P137" s="27">
-        <v>1</v>
-      </c>
-      <c r="Q137" s="27"/>
-      <c r="R137" s="30" t="s">
-        <v>287</v>
-      </c>
-      <c r="S137" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="T137" s="26" t="s">
-        <v>264</v>
-      </c>
-      <c r="U137" s="27" t="s">
-        <v>265</v>
-      </c>
-      <c r="V137" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:22" s="8" customFormat="1">
-      <c r="A138" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="B138" s="27">
-        <v>3</v>
-      </c>
-      <c r="C138" s="27">
-        <v>0</v>
-      </c>
-      <c r="D138" s="27">
-        <v>1</v>
-      </c>
-      <c r="E138" s="27"/>
-      <c r="F138" s="27">
-        <v>0</v>
-      </c>
-      <c r="G138" s="26" t="s">
-        <v>267</v>
-      </c>
-      <c r="H138" s="27"/>
-      <c r="I138" s="27"/>
-      <c r="J138" s="29"/>
-      <c r="K138" s="27">
-        <v>0</v>
-      </c>
-      <c r="L138" s="27">
-        <v>0</v>
-      </c>
-      <c r="M138" s="27">
-        <v>1</v>
-      </c>
-      <c r="N138" s="27">
-        <v>0</v>
-      </c>
-      <c r="O138" s="25">
-        <v>1000</v>
-      </c>
-      <c r="P138" s="27">
-        <v>1</v>
-      </c>
-      <c r="Q138" s="27"/>
-      <c r="R138" s="30" t="s">
-        <v>288</v>
-      </c>
-      <c r="S138" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="T138" s="26" t="s">
-        <v>268</v>
-      </c>
-      <c r="U138" s="27" t="s">
-        <v>269</v>
-      </c>
-      <c r="V138" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:22" s="8" customFormat="1">
-      <c r="A139" s="26" t="s">
-        <v>270</v>
-      </c>
-      <c r="B139" s="27">
-        <v>3</v>
-      </c>
-      <c r="C139" s="25">
-        <v>0</v>
-      </c>
-      <c r="D139" s="27">
-        <v>1</v>
-      </c>
-      <c r="E139" s="27"/>
-      <c r="F139" s="27">
-        <v>0</v>
-      </c>
-      <c r="G139" s="26" t="s">
-        <v>271</v>
-      </c>
-      <c r="H139" s="27"/>
-      <c r="I139" s="27"/>
-      <c r="J139" s="29"/>
-      <c r="K139" s="27">
-        <v>0</v>
-      </c>
-      <c r="L139" s="27">
-        <v>0</v>
-      </c>
-      <c r="M139" s="27">
-        <v>1</v>
-      </c>
-      <c r="N139" s="27">
-        <v>0</v>
-      </c>
-      <c r="O139" s="25">
-        <v>1000</v>
-      </c>
-      <c r="P139" s="27">
-        <v>1</v>
-      </c>
-      <c r="Q139" s="27"/>
-      <c r="R139" s="30" t="s">
-        <v>289</v>
-      </c>
-      <c r="S139" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="T139" s="26" t="s">
-        <v>272</v>
-      </c>
-      <c r="U139" s="27" t="s">
-        <v>273</v>
-      </c>
-      <c r="V139" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:22" s="8" customFormat="1">
-      <c r="A140" s="26" t="s">
-        <v>274</v>
-      </c>
-      <c r="B140" s="27">
-        <v>3</v>
-      </c>
-      <c r="C140" s="27">
-        <v>0</v>
-      </c>
-      <c r="D140" s="27">
-        <v>1</v>
-      </c>
-      <c r="E140" s="27"/>
-      <c r="F140" s="27">
-        <v>0</v>
-      </c>
-      <c r="G140" s="26" t="s">
-        <v>275</v>
-      </c>
-      <c r="H140" s="27"/>
-      <c r="I140" s="27"/>
-      <c r="J140" s="29"/>
-      <c r="K140" s="27">
-        <v>0</v>
-      </c>
-      <c r="L140" s="27">
-        <v>0</v>
-      </c>
-      <c r="M140" s="27">
-        <v>1</v>
-      </c>
-      <c r="N140" s="27">
-        <v>0</v>
-      </c>
-      <c r="O140" s="25">
-        <v>1000</v>
-      </c>
-      <c r="P140" s="27">
-        <v>1</v>
-      </c>
-      <c r="Q140" s="27"/>
-      <c r="R140" s="30" t="s">
-        <v>290</v>
-      </c>
-      <c r="S140" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="T140" s="26" t="s">
-        <v>276</v>
-      </c>
-      <c r="U140" s="27" t="s">
-        <v>277</v>
-      </c>
-      <c r="V140" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:22" s="8" customFormat="1">
-      <c r="A141" s="26" t="s">
-        <v>278</v>
-      </c>
-      <c r="B141" s="27">
-        <v>3</v>
-      </c>
-      <c r="C141" s="25">
-        <v>0</v>
-      </c>
-      <c r="D141" s="27">
-        <v>1</v>
-      </c>
-      <c r="E141" s="27"/>
-      <c r="F141" s="27">
-        <v>0</v>
-      </c>
-      <c r="G141" s="26" t="s">
-        <v>279</v>
-      </c>
-      <c r="H141" s="27"/>
-      <c r="I141" s="27"/>
-      <c r="J141" s="29"/>
-      <c r="K141" s="27">
-        <v>0</v>
-      </c>
-      <c r="L141" s="27">
-        <v>0</v>
-      </c>
-      <c r="M141" s="27">
-        <v>1</v>
-      </c>
-      <c r="N141" s="27">
-        <v>0</v>
-      </c>
-      <c r="O141" s="25">
-        <v>1000</v>
-      </c>
-      <c r="P141" s="27">
-        <v>1</v>
-      </c>
-      <c r="Q141" s="27"/>
-      <c r="R141" s="30" t="s">
-        <v>291</v>
-      </c>
-      <c r="S141" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="T141" s="26" t="s">
-        <v>280</v>
-      </c>
-      <c r="U141" s="27" t="s">
-        <v>281</v>
-      </c>
-      <c r="V141" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:22" s="34" customFormat="1">
-      <c r="A142" s="31" t="s">
-        <v>295</v>
       </c>
       <c r="B142" s="32">
         <v>4</v>
@@ -10171,16 +10159,16 @@
       </c>
       <c r="E142" s="32"/>
       <c r="F142" s="32">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G142" s="32" t="s">
-        <v>330</v>
+        <v>296</v>
       </c>
       <c r="H142" s="32"/>
       <c r="I142" s="32"/>
       <c r="J142" s="32"/>
       <c r="K142" s="32">
-        <v>20</v>
+        <v>270</v>
       </c>
       <c r="L142" s="32">
         <v>0</v>
@@ -10192,23 +10180,23 @@
         <v>0</v>
       </c>
       <c r="O142" s="32">
-        <v>20</v>
+        <v>270</v>
       </c>
       <c r="P142" s="32">
         <v>1</v>
       </c>
       <c r="Q142" s="32"/>
       <c r="R142" s="32" t="s">
-        <v>429</v>
+        <v>395</v>
       </c>
       <c r="S142" s="33" t="s">
-        <v>462</v>
+        <v>423</v>
       </c>
       <c r="T142" s="32" t="s">
-        <v>396</v>
+        <v>362</v>
       </c>
       <c r="U142" s="32" t="s">
-        <v>363</v>
+        <v>329</v>
       </c>
       <c r="V142" s="32">
         <v>0</v>
@@ -10216,7 +10204,7 @@
     </row>
     <row r="143" spans="1:22" s="34" customFormat="1">
       <c r="A143" s="35" t="s">
-        <v>296</v>
+        <v>262</v>
       </c>
       <c r="B143" s="32">
         <v>4</v>
@@ -10229,16 +10217,16 @@
       </c>
       <c r="E143" s="32"/>
       <c r="F143" s="32">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G143" s="32" t="s">
-        <v>331</v>
+        <v>297</v>
       </c>
       <c r="H143" s="32"/>
       <c r="I143" s="32"/>
       <c r="J143" s="32"/>
       <c r="K143" s="32">
-        <v>50</v>
+        <v>350</v>
       </c>
       <c r="L143" s="32">
         <v>0</v>
@@ -10250,23 +10238,23 @@
         <v>0</v>
       </c>
       <c r="O143" s="32">
-        <v>50</v>
+        <v>350</v>
       </c>
       <c r="P143" s="32">
         <v>1</v>
       </c>
       <c r="Q143" s="32"/>
       <c r="R143" s="32" t="s">
-        <v>430</v>
+        <v>396</v>
       </c>
       <c r="S143" s="33" t="s">
-        <v>462</v>
+        <v>423</v>
       </c>
       <c r="T143" s="32" t="s">
-        <v>397</v>
+        <v>363</v>
       </c>
       <c r="U143" s="32" t="s">
-        <v>364</v>
+        <v>330</v>
       </c>
       <c r="V143" s="32">
         <v>0</v>
@@ -10274,7 +10262,7 @@
     </row>
     <row r="144" spans="1:22" s="34" customFormat="1">
       <c r="A144" s="35" t="s">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="B144" s="32">
         <v>4</v>
@@ -10287,16 +10275,16 @@
       </c>
       <c r="E144" s="32"/>
       <c r="F144" s="32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G144" s="32" t="s">
-        <v>332</v>
+        <v>298</v>
       </c>
       <c r="H144" s="32"/>
       <c r="I144" s="32"/>
       <c r="J144" s="32"/>
       <c r="K144" s="32">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="L144" s="32">
         <v>0</v>
@@ -10308,23 +10296,23 @@
         <v>0</v>
       </c>
       <c r="O144" s="32">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="P144" s="32">
         <v>1</v>
       </c>
       <c r="Q144" s="32"/>
       <c r="R144" s="32" t="s">
-        <v>431</v>
+        <v>397</v>
       </c>
       <c r="S144" s="33" t="s">
-        <v>462</v>
+        <v>423</v>
       </c>
       <c r="T144" s="32" t="s">
-        <v>398</v>
+        <v>364</v>
       </c>
       <c r="U144" s="32" t="s">
-        <v>365</v>
+        <v>331</v>
       </c>
       <c r="V144" s="32">
         <v>0</v>
@@ -10332,7 +10320,7 @@
     </row>
     <row r="145" spans="1:22" s="34" customFormat="1">
       <c r="A145" s="35" t="s">
-        <v>298</v>
+        <v>264</v>
       </c>
       <c r="B145" s="32">
         <v>4</v>
@@ -10345,16 +10333,16 @@
       </c>
       <c r="E145" s="32"/>
       <c r="F145" s="32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G145" s="32" t="s">
-        <v>333</v>
+        <v>299</v>
       </c>
       <c r="H145" s="32"/>
       <c r="I145" s="32"/>
       <c r="J145" s="32"/>
       <c r="K145" s="32">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="L145" s="32">
         <v>0</v>
@@ -10366,23 +10354,23 @@
         <v>0</v>
       </c>
       <c r="O145" s="32">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="P145" s="32">
         <v>1</v>
       </c>
       <c r="Q145" s="32"/>
       <c r="R145" s="32" t="s">
-        <v>432</v>
+        <v>398</v>
       </c>
       <c r="S145" s="33" t="s">
-        <v>462</v>
+        <v>423</v>
       </c>
       <c r="T145" s="32" t="s">
-        <v>399</v>
+        <v>365</v>
       </c>
       <c r="U145" s="32" t="s">
-        <v>366</v>
+        <v>332</v>
       </c>
       <c r="V145" s="32">
         <v>0</v>
@@ -10390,7 +10378,7 @@
     </row>
     <row r="146" spans="1:22" s="34" customFormat="1">
       <c r="A146" s="35" t="s">
-        <v>299</v>
+        <v>265</v>
       </c>
       <c r="B146" s="32">
         <v>4</v>
@@ -10403,16 +10391,16 @@
       </c>
       <c r="E146" s="32"/>
       <c r="F146" s="32">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G146" s="32" t="s">
-        <v>334</v>
+        <v>300</v>
       </c>
       <c r="H146" s="32"/>
       <c r="I146" s="32"/>
       <c r="J146" s="32"/>
       <c r="K146" s="32">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="L146" s="32">
         <v>0</v>
@@ -10424,23 +10412,23 @@
         <v>0</v>
       </c>
       <c r="O146" s="32">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="P146" s="32">
         <v>1</v>
       </c>
       <c r="Q146" s="32"/>
       <c r="R146" s="32" t="s">
-        <v>433</v>
+        <v>399</v>
       </c>
       <c r="S146" s="33" t="s">
-        <v>462</v>
+        <v>423</v>
       </c>
       <c r="T146" s="32" t="s">
-        <v>400</v>
+        <v>366</v>
       </c>
       <c r="U146" s="32" t="s">
-        <v>367</v>
+        <v>333</v>
       </c>
       <c r="V146" s="32">
         <v>0</v>
@@ -10448,7 +10436,7 @@
     </row>
     <row r="147" spans="1:22" s="34" customFormat="1">
       <c r="A147" s="35" t="s">
-        <v>300</v>
+        <v>266</v>
       </c>
       <c r="B147" s="32">
         <v>4</v>
@@ -10461,16 +10449,16 @@
       </c>
       <c r="E147" s="32"/>
       <c r="F147" s="32">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G147" s="32" t="s">
-        <v>335</v>
+        <v>301</v>
       </c>
       <c r="H147" s="32"/>
       <c r="I147" s="32"/>
       <c r="J147" s="32"/>
       <c r="K147" s="32">
-        <v>270</v>
+        <v>140</v>
       </c>
       <c r="L147" s="32">
         <v>0</v>
@@ -10482,23 +10470,23 @@
         <v>0</v>
       </c>
       <c r="O147" s="32">
-        <v>270</v>
+        <v>140</v>
       </c>
       <c r="P147" s="32">
         <v>1</v>
       </c>
       <c r="Q147" s="32"/>
       <c r="R147" s="32" t="s">
-        <v>434</v>
+        <v>400</v>
       </c>
       <c r="S147" s="33" t="s">
-        <v>462</v>
+        <v>423</v>
       </c>
       <c r="T147" s="32" t="s">
-        <v>401</v>
+        <v>367</v>
       </c>
       <c r="U147" s="32" t="s">
-        <v>368</v>
+        <v>334</v>
       </c>
       <c r="V147" s="32">
         <v>0</v>
@@ -10506,7 +10494,7 @@
     </row>
     <row r="148" spans="1:22" s="34" customFormat="1">
       <c r="A148" s="35" t="s">
-        <v>301</v>
+        <v>267</v>
       </c>
       <c r="B148" s="32">
         <v>4</v>
@@ -10519,16 +10507,16 @@
       </c>
       <c r="E148" s="32"/>
       <c r="F148" s="32">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G148" s="32" t="s">
-        <v>336</v>
+        <v>302</v>
       </c>
       <c r="H148" s="32"/>
       <c r="I148" s="32"/>
       <c r="J148" s="32"/>
       <c r="K148" s="32">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="L148" s="32">
         <v>0</v>
@@ -10540,23 +10528,23 @@
         <v>0</v>
       </c>
       <c r="O148" s="32">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="P148" s="32">
         <v>1</v>
       </c>
       <c r="Q148" s="32"/>
       <c r="R148" s="32" t="s">
-        <v>435</v>
+        <v>401</v>
       </c>
       <c r="S148" s="33" t="s">
-        <v>462</v>
+        <v>423</v>
       </c>
       <c r="T148" s="32" t="s">
-        <v>402</v>
+        <v>368</v>
       </c>
       <c r="U148" s="32" t="s">
-        <v>369</v>
+        <v>335</v>
       </c>
       <c r="V148" s="32">
         <v>0</v>
@@ -10564,7 +10552,7 @@
     </row>
     <row r="149" spans="1:22" s="34" customFormat="1">
       <c r="A149" s="35" t="s">
-        <v>302</v>
+        <v>425</v>
       </c>
       <c r="B149" s="32">
         <v>4</v>
@@ -10577,16 +10565,16 @@
       </c>
       <c r="E149" s="32"/>
       <c r="F149" s="32">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G149" s="32" t="s">
-        <v>337</v>
+        <v>437</v>
       </c>
       <c r="H149" s="32"/>
       <c r="I149" s="32"/>
       <c r="J149" s="32"/>
       <c r="K149" s="32">
-        <v>20</v>
+        <v>270</v>
       </c>
       <c r="L149" s="32">
         <v>0</v>
@@ -10598,23 +10586,23 @@
         <v>0</v>
       </c>
       <c r="O149" s="32">
-        <v>20</v>
+        <v>270</v>
       </c>
       <c r="P149" s="32">
         <v>1</v>
       </c>
       <c r="Q149" s="32"/>
       <c r="R149" s="32" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="S149" s="33" t="s">
-        <v>462</v>
+        <v>423</v>
       </c>
       <c r="T149" s="32" t="s">
-        <v>403</v>
+        <v>431</v>
       </c>
       <c r="U149" s="32" t="s">
-        <v>370</v>
+        <v>434</v>
       </c>
       <c r="V149" s="32">
         <v>0</v>
@@ -10622,7 +10610,7 @@
     </row>
     <row r="150" spans="1:22" s="34" customFormat="1">
       <c r="A150" s="35" t="s">
-        <v>303</v>
+        <v>426</v>
       </c>
       <c r="B150" s="32">
         <v>4</v>
@@ -10635,16 +10623,16 @@
       </c>
       <c r="E150" s="32"/>
       <c r="F150" s="32">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G150" s="32" t="s">
-        <v>338</v>
+        <v>438</v>
       </c>
       <c r="H150" s="32"/>
       <c r="I150" s="32"/>
       <c r="J150" s="32"/>
       <c r="K150" s="32">
-        <v>50</v>
+        <v>350</v>
       </c>
       <c r="L150" s="32">
         <v>0</v>
@@ -10656,23 +10644,23 @@
         <v>0</v>
       </c>
       <c r="O150" s="32">
-        <v>50</v>
+        <v>350</v>
       </c>
       <c r="P150" s="32">
         <v>1</v>
       </c>
       <c r="Q150" s="32"/>
       <c r="R150" s="32" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="S150" s="33" t="s">
-        <v>462</v>
+        <v>423</v>
       </c>
       <c r="T150" s="32" t="s">
-        <v>404</v>
+        <v>432</v>
       </c>
       <c r="U150" s="32" t="s">
-        <v>371</v>
+        <v>435</v>
       </c>
       <c r="V150" s="32">
         <v>0</v>
@@ -10680,7 +10668,7 @@
     </row>
     <row r="151" spans="1:22" s="34" customFormat="1">
       <c r="A151" s="35" t="s">
-        <v>304</v>
+        <v>427</v>
       </c>
       <c r="B151" s="32">
         <v>4</v>
@@ -10693,16 +10681,16 @@
       </c>
       <c r="E151" s="32"/>
       <c r="F151" s="32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G151" s="32" t="s">
-        <v>339</v>
+        <v>439</v>
       </c>
       <c r="H151" s="32"/>
       <c r="I151" s="32"/>
       <c r="J151" s="32"/>
       <c r="K151" s="32">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="L151" s="32">
         <v>0</v>
@@ -10714,23 +10702,23 @@
         <v>0</v>
       </c>
       <c r="O151" s="32">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="P151" s="32">
         <v>1</v>
       </c>
       <c r="Q151" s="32"/>
       <c r="R151" s="32" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="S151" s="33" t="s">
-        <v>462</v>
+        <v>423</v>
       </c>
       <c r="T151" s="32" t="s">
-        <v>405</v>
+        <v>433</v>
       </c>
       <c r="U151" s="32" t="s">
-        <v>372</v>
+        <v>436</v>
       </c>
       <c r="V151" s="32">
         <v>0</v>
@@ -10738,7 +10726,7 @@
     </row>
     <row r="152" spans="1:22" s="34" customFormat="1">
       <c r="A152" s="35" t="s">
-        <v>305</v>
+        <v>268</v>
       </c>
       <c r="B152" s="32">
         <v>4</v>
@@ -10751,16 +10739,16 @@
       </c>
       <c r="E152" s="32"/>
       <c r="F152" s="32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G152" s="32" t="s">
-        <v>340</v>
+        <v>303</v>
       </c>
       <c r="H152" s="32"/>
       <c r="I152" s="32"/>
       <c r="J152" s="32"/>
       <c r="K152" s="32">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="L152" s="32">
         <v>0</v>
@@ -10772,23 +10760,23 @@
         <v>0</v>
       </c>
       <c r="O152" s="32">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="P152" s="32">
         <v>1</v>
       </c>
       <c r="Q152" s="32"/>
       <c r="R152" s="32" t="s">
-        <v>439</v>
+        <v>402</v>
       </c>
       <c r="S152" s="33" t="s">
-        <v>462</v>
+        <v>423</v>
       </c>
       <c r="T152" s="32" t="s">
-        <v>406</v>
+        <v>369</v>
       </c>
       <c r="U152" s="32" t="s">
-        <v>373</v>
+        <v>336</v>
       </c>
       <c r="V152" s="32">
         <v>0</v>
@@ -10796,7 +10784,7 @@
     </row>
     <row r="153" spans="1:22" s="34" customFormat="1">
       <c r="A153" s="35" t="s">
-        <v>306</v>
+        <v>269</v>
       </c>
       <c r="B153" s="32">
         <v>4</v>
@@ -10809,16 +10797,16 @@
       </c>
       <c r="E153" s="32"/>
       <c r="F153" s="32">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G153" s="32" t="s">
-        <v>341</v>
+        <v>304</v>
       </c>
       <c r="H153" s="32"/>
       <c r="I153" s="32"/>
       <c r="J153" s="32"/>
       <c r="K153" s="32">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="L153" s="32">
         <v>0</v>
@@ -10830,23 +10818,23 @@
         <v>0</v>
       </c>
       <c r="O153" s="32">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="P153" s="32">
         <v>1</v>
       </c>
       <c r="Q153" s="32"/>
       <c r="R153" s="32" t="s">
-        <v>440</v>
+        <v>403</v>
       </c>
       <c r="S153" s="33" t="s">
-        <v>462</v>
+        <v>423</v>
       </c>
       <c r="T153" s="32" t="s">
-        <v>407</v>
+        <v>370</v>
       </c>
       <c r="U153" s="32" t="s">
-        <v>374</v>
+        <v>337</v>
       </c>
       <c r="V153" s="32">
         <v>0</v>
@@ -10854,7 +10842,7 @@
     </row>
     <row r="154" spans="1:22" s="34" customFormat="1">
       <c r="A154" s="35" t="s">
-        <v>464</v>
+        <v>270</v>
       </c>
       <c r="B154" s="32">
         <v>4</v>
@@ -10867,16 +10855,16 @@
       </c>
       <c r="E154" s="32"/>
       <c r="F154" s="32">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G154" s="32" t="s">
-        <v>476</v>
+        <v>305</v>
       </c>
       <c r="H154" s="32"/>
       <c r="I154" s="32"/>
       <c r="J154" s="32"/>
       <c r="K154" s="32">
-        <v>270</v>
+        <v>140</v>
       </c>
       <c r="L154" s="32">
         <v>0</v>
@@ -10888,23 +10876,23 @@
         <v>0</v>
       </c>
       <c r="O154" s="32">
-        <v>270</v>
+        <v>140</v>
       </c>
       <c r="P154" s="32">
         <v>1</v>
       </c>
       <c r="Q154" s="32"/>
       <c r="R154" s="32" t="s">
-        <v>467</v>
+        <v>404</v>
       </c>
       <c r="S154" s="33" t="s">
-        <v>462</v>
+        <v>423</v>
       </c>
       <c r="T154" s="32" t="s">
-        <v>470</v>
+        <v>371</v>
       </c>
       <c r="U154" s="32" t="s">
-        <v>473</v>
+        <v>338</v>
       </c>
       <c r="V154" s="32">
         <v>0</v>
@@ -10912,7 +10900,7 @@
     </row>
     <row r="155" spans="1:22" s="34" customFormat="1">
       <c r="A155" s="35" t="s">
-        <v>465</v>
+        <v>271</v>
       </c>
       <c r="B155" s="32">
         <v>4</v>
@@ -10925,16 +10913,16 @@
       </c>
       <c r="E155" s="32"/>
       <c r="F155" s="32">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G155" s="32" t="s">
-        <v>477</v>
+        <v>306</v>
       </c>
       <c r="H155" s="32"/>
       <c r="I155" s="32"/>
       <c r="J155" s="32"/>
       <c r="K155" s="32">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="L155" s="32">
         <v>0</v>
@@ -10946,23 +10934,23 @@
         <v>0</v>
       </c>
       <c r="O155" s="32">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="P155" s="32">
         <v>1</v>
       </c>
       <c r="Q155" s="32"/>
       <c r="R155" s="32" t="s">
-        <v>468</v>
+        <v>405</v>
       </c>
       <c r="S155" s="33" t="s">
-        <v>462</v>
+        <v>423</v>
       </c>
       <c r="T155" s="32" t="s">
-        <v>471</v>
+        <v>372</v>
       </c>
       <c r="U155" s="32" t="s">
-        <v>474</v>
+        <v>339</v>
       </c>
       <c r="V155" s="32">
         <v>0</v>
@@ -10970,7 +10958,7 @@
     </row>
     <row r="156" spans="1:22" s="34" customFormat="1">
       <c r="A156" s="35" t="s">
-        <v>466</v>
+        <v>272</v>
       </c>
       <c r="B156" s="32">
         <v>4</v>
@@ -10983,16 +10971,16 @@
       </c>
       <c r="E156" s="32"/>
       <c r="F156" s="32">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G156" s="32" t="s">
-        <v>478</v>
+        <v>307</v>
       </c>
       <c r="H156" s="32"/>
       <c r="I156" s="32"/>
       <c r="J156" s="32"/>
       <c r="K156" s="32">
-        <v>20</v>
+        <v>270</v>
       </c>
       <c r="L156" s="32">
         <v>0</v>
@@ -11004,23 +10992,23 @@
         <v>0</v>
       </c>
       <c r="O156" s="32">
-        <v>20</v>
+        <v>270</v>
       </c>
       <c r="P156" s="32">
         <v>1</v>
       </c>
       <c r="Q156" s="32"/>
       <c r="R156" s="32" t="s">
-        <v>469</v>
+        <v>406</v>
       </c>
       <c r="S156" s="33" t="s">
-        <v>462</v>
+        <v>423</v>
       </c>
       <c r="T156" s="32" t="s">
-        <v>472</v>
+        <v>373</v>
       </c>
       <c r="U156" s="32" t="s">
-        <v>475</v>
+        <v>340</v>
       </c>
       <c r="V156" s="32">
         <v>0</v>
@@ -11028,7 +11016,7 @@
     </row>
     <row r="157" spans="1:22" s="34" customFormat="1">
       <c r="A157" s="35" t="s">
-        <v>307</v>
+        <v>273</v>
       </c>
       <c r="B157" s="32">
         <v>4</v>
@@ -11041,16 +11029,16 @@
       </c>
       <c r="E157" s="32"/>
       <c r="F157" s="32">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G157" s="32" t="s">
-        <v>342</v>
+        <v>308</v>
       </c>
       <c r="H157" s="32"/>
       <c r="I157" s="32"/>
       <c r="J157" s="32"/>
       <c r="K157" s="32">
-        <v>50</v>
+        <v>350</v>
       </c>
       <c r="L157" s="32">
         <v>0</v>
@@ -11062,31 +11050,31 @@
         <v>0</v>
       </c>
       <c r="O157" s="32">
-        <v>50</v>
+        <v>350</v>
       </c>
       <c r="P157" s="32">
         <v>1</v>
       </c>
       <c r="Q157" s="32"/>
       <c r="R157" s="32" t="s">
-        <v>441</v>
+        <v>407</v>
       </c>
       <c r="S157" s="33" t="s">
-        <v>462</v>
+        <v>423</v>
       </c>
       <c r="T157" s="32" t="s">
-        <v>408</v>
+        <v>374</v>
       </c>
       <c r="U157" s="32" t="s">
-        <v>375</v>
+        <v>341</v>
       </c>
       <c r="V157" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:22" s="34" customFormat="1">
+    <row r="158" spans="1:22" s="36" customFormat="1">
       <c r="A158" s="35" t="s">
-        <v>308</v>
+        <v>274</v>
       </c>
       <c r="B158" s="32">
         <v>4</v>
@@ -11099,16 +11087,16 @@
       </c>
       <c r="E158" s="32"/>
       <c r="F158" s="32">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G158" s="32" t="s">
-        <v>343</v>
+        <v>309</v>
       </c>
       <c r="H158" s="32"/>
       <c r="I158" s="32"/>
       <c r="J158" s="32"/>
       <c r="K158" s="32">
-        <v>90</v>
+        <v>350</v>
       </c>
       <c r="L158" s="32">
         <v>0</v>
@@ -11120,31 +11108,31 @@
         <v>0</v>
       </c>
       <c r="O158" s="32">
-        <v>90</v>
+        <v>350</v>
       </c>
       <c r="P158" s="32">
         <v>1</v>
       </c>
       <c r="Q158" s="32"/>
       <c r="R158" s="32" t="s">
-        <v>442</v>
+        <v>408</v>
       </c>
       <c r="S158" s="33" t="s">
-        <v>462</v>
+        <v>423</v>
       </c>
       <c r="T158" s="32" t="s">
-        <v>409</v>
+        <v>375</v>
       </c>
       <c r="U158" s="32" t="s">
-        <v>376</v>
+        <v>342</v>
       </c>
       <c r="V158" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:22" s="34" customFormat="1">
+    <row r="159" spans="1:22" s="36" customFormat="1">
       <c r="A159" s="35" t="s">
-        <v>309</v>
+        <v>275</v>
       </c>
       <c r="B159" s="32">
         <v>4</v>
@@ -11157,16 +11145,16 @@
       </c>
       <c r="E159" s="32"/>
       <c r="F159" s="32">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G159" s="32" t="s">
-        <v>344</v>
+        <v>310</v>
       </c>
       <c r="H159" s="32"/>
       <c r="I159" s="32"/>
       <c r="J159" s="32"/>
       <c r="K159" s="32">
-        <v>140</v>
+        <v>350</v>
       </c>
       <c r="L159" s="32">
         <v>0</v>
@@ -11178,31 +11166,31 @@
         <v>0</v>
       </c>
       <c r="O159" s="32">
-        <v>140</v>
+        <v>350</v>
       </c>
       <c r="P159" s="32">
         <v>1</v>
       </c>
       <c r="Q159" s="32"/>
       <c r="R159" s="32" t="s">
-        <v>443</v>
+        <v>409</v>
       </c>
       <c r="S159" s="33" t="s">
-        <v>462</v>
+        <v>423</v>
       </c>
       <c r="T159" s="32" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="U159" s="32" t="s">
-        <v>377</v>
+        <v>343</v>
       </c>
       <c r="V159" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:22" s="34" customFormat="1">
+    <row r="160" spans="1:22" s="36" customFormat="1">
       <c r="A160" s="35" t="s">
-        <v>310</v>
+        <v>276</v>
       </c>
       <c r="B160" s="32">
         <v>4</v>
@@ -11215,16 +11203,16 @@
       </c>
       <c r="E160" s="32"/>
       <c r="F160" s="32">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G160" s="32" t="s">
-        <v>345</v>
+        <v>311</v>
       </c>
       <c r="H160" s="32"/>
       <c r="I160" s="32"/>
       <c r="J160" s="32"/>
       <c r="K160" s="32">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="L160" s="32">
         <v>0</v>
@@ -11236,31 +11224,31 @@
         <v>0</v>
       </c>
       <c r="O160" s="32">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="P160" s="32">
         <v>1</v>
       </c>
       <c r="Q160" s="32"/>
       <c r="R160" s="32" t="s">
-        <v>444</v>
+        <v>410</v>
       </c>
       <c r="S160" s="33" t="s">
-        <v>462</v>
+        <v>423</v>
       </c>
       <c r="T160" s="32" t="s">
-        <v>411</v>
+        <v>377</v>
       </c>
       <c r="U160" s="32" t="s">
-        <v>378</v>
+        <v>344</v>
       </c>
       <c r="V160" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:22" s="34" customFormat="1">
+    <row r="161" spans="1:22" s="36" customFormat="1">
       <c r="A161" s="35" t="s">
-        <v>311</v>
+        <v>277</v>
       </c>
       <c r="B161" s="32">
         <v>4</v>
@@ -11273,16 +11261,16 @@
       </c>
       <c r="E161" s="32"/>
       <c r="F161" s="32">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G161" s="32" t="s">
-        <v>346</v>
+        <v>312</v>
       </c>
       <c r="H161" s="32"/>
       <c r="I161" s="32"/>
       <c r="J161" s="32"/>
       <c r="K161" s="32">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="L161" s="32">
         <v>0</v>
@@ -11294,31 +11282,31 @@
         <v>0</v>
       </c>
       <c r="O161" s="32">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="P161" s="32">
         <v>1</v>
       </c>
       <c r="Q161" s="32"/>
       <c r="R161" s="32" t="s">
-        <v>445</v>
+        <v>411</v>
       </c>
       <c r="S161" s="33" t="s">
-        <v>462</v>
+        <v>423</v>
       </c>
       <c r="T161" s="32" t="s">
-        <v>412</v>
+        <v>378</v>
       </c>
       <c r="U161" s="32" t="s">
-        <v>379</v>
+        <v>345</v>
       </c>
       <c r="V161" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:22" s="34" customFormat="1">
+    <row r="162" spans="1:22" s="36" customFormat="1">
       <c r="A162" s="35" t="s">
-        <v>312</v>
+        <v>278</v>
       </c>
       <c r="B162" s="32">
         <v>4</v>
@@ -11334,7 +11322,7 @@
         <v>7</v>
       </c>
       <c r="G162" s="32" t="s">
-        <v>347</v>
+        <v>313</v>
       </c>
       <c r="H162" s="32"/>
       <c r="I162" s="32"/>
@@ -11359,16 +11347,16 @@
       </c>
       <c r="Q162" s="32"/>
       <c r="R162" s="32" t="s">
-        <v>446</v>
+        <v>412</v>
       </c>
       <c r="S162" s="33" t="s">
-        <v>462</v>
+        <v>423</v>
       </c>
       <c r="T162" s="32" t="s">
-        <v>413</v>
+        <v>379</v>
       </c>
       <c r="U162" s="32" t="s">
-        <v>380</v>
+        <v>346</v>
       </c>
       <c r="V162" s="32">
         <v>0</v>
@@ -11376,7 +11364,7 @@
     </row>
     <row r="163" spans="1:22" s="36" customFormat="1">
       <c r="A163" s="35" t="s">
-        <v>313</v>
+        <v>279</v>
       </c>
       <c r="B163" s="32">
         <v>4</v>
@@ -11392,7 +11380,7 @@
         <v>7</v>
       </c>
       <c r="G163" s="32" t="s">
-        <v>348</v>
+        <v>314</v>
       </c>
       <c r="H163" s="32"/>
       <c r="I163" s="32"/>
@@ -11417,16 +11405,16 @@
       </c>
       <c r="Q163" s="32"/>
       <c r="R163" s="32" t="s">
-        <v>447</v>
+        <v>413</v>
       </c>
       <c r="S163" s="33" t="s">
-        <v>462</v>
+        <v>423</v>
       </c>
       <c r="T163" s="32" t="s">
-        <v>414</v>
+        <v>380</v>
       </c>
       <c r="U163" s="32" t="s">
-        <v>381</v>
+        <v>347</v>
       </c>
       <c r="V163" s="32">
         <v>0</v>
@@ -11434,7 +11422,7 @@
     </row>
     <row r="164" spans="1:22" s="36" customFormat="1">
       <c r="A164" s="35" t="s">
-        <v>314</v>
+        <v>280</v>
       </c>
       <c r="B164" s="32">
         <v>4</v>
@@ -11450,7 +11438,7 @@
         <v>7</v>
       </c>
       <c r="G164" s="32" t="s">
-        <v>349</v>
+        <v>315</v>
       </c>
       <c r="H164" s="32"/>
       <c r="I164" s="32"/>
@@ -11475,16 +11463,16 @@
       </c>
       <c r="Q164" s="32"/>
       <c r="R164" s="32" t="s">
-        <v>448</v>
+        <v>414</v>
       </c>
       <c r="S164" s="33" t="s">
-        <v>462</v>
+        <v>423</v>
       </c>
       <c r="T164" s="32" t="s">
-        <v>415</v>
+        <v>381</v>
       </c>
       <c r="U164" s="32" t="s">
-        <v>382</v>
+        <v>348</v>
       </c>
       <c r="V164" s="32">
         <v>0</v>
@@ -11492,7 +11480,7 @@
     </row>
     <row r="165" spans="1:22" s="36" customFormat="1">
       <c r="A165" s="35" t="s">
-        <v>315</v>
+        <v>281</v>
       </c>
       <c r="B165" s="32">
         <v>4</v>
@@ -11508,7 +11496,7 @@
         <v>7</v>
       </c>
       <c r="G165" s="32" t="s">
-        <v>350</v>
+        <v>316</v>
       </c>
       <c r="H165" s="32"/>
       <c r="I165" s="32"/>
@@ -11533,16 +11521,16 @@
       </c>
       <c r="Q165" s="32"/>
       <c r="R165" s="32" t="s">
-        <v>449</v>
+        <v>415</v>
       </c>
       <c r="S165" s="33" t="s">
-        <v>462</v>
+        <v>423</v>
       </c>
       <c r="T165" s="32" t="s">
-        <v>416</v>
+        <v>382</v>
       </c>
       <c r="U165" s="32" t="s">
-        <v>383</v>
+        <v>349</v>
       </c>
       <c r="V165" s="32">
         <v>0</v>
@@ -11550,7 +11538,7 @@
     </row>
     <row r="166" spans="1:22" s="36" customFormat="1">
       <c r="A166" s="35" t="s">
-        <v>316</v>
+        <v>282</v>
       </c>
       <c r="B166" s="32">
         <v>4</v>
@@ -11566,7 +11554,7 @@
         <v>7</v>
       </c>
       <c r="G166" s="32" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="H166" s="32"/>
       <c r="I166" s="32"/>
@@ -11591,16 +11579,16 @@
       </c>
       <c r="Q166" s="32"/>
       <c r="R166" s="32" t="s">
-        <v>450</v>
+        <v>416</v>
       </c>
       <c r="S166" s="33" t="s">
-        <v>462</v>
+        <v>423</v>
       </c>
       <c r="T166" s="32" t="s">
-        <v>417</v>
+        <v>383</v>
       </c>
       <c r="U166" s="32" t="s">
-        <v>384</v>
+        <v>350</v>
       </c>
       <c r="V166" s="32">
         <v>0</v>
@@ -11608,7 +11596,7 @@
     </row>
     <row r="167" spans="1:22" s="36" customFormat="1">
       <c r="A167" s="35" t="s">
-        <v>317</v>
+        <v>283</v>
       </c>
       <c r="B167" s="32">
         <v>4</v>
@@ -11624,7 +11612,7 @@
         <v>7</v>
       </c>
       <c r="G167" s="32" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="H167" s="32"/>
       <c r="I167" s="32"/>
@@ -11649,16 +11637,16 @@
       </c>
       <c r="Q167" s="32"/>
       <c r="R167" s="32" t="s">
-        <v>451</v>
+        <v>417</v>
       </c>
       <c r="S167" s="33" t="s">
-        <v>462</v>
+        <v>423</v>
       </c>
       <c r="T167" s="32" t="s">
-        <v>418</v>
+        <v>384</v>
       </c>
       <c r="U167" s="32" t="s">
-        <v>385</v>
+        <v>351</v>
       </c>
       <c r="V167" s="32">
         <v>0</v>
@@ -11666,7 +11654,7 @@
     </row>
     <row r="168" spans="1:22" s="36" customFormat="1">
       <c r="A168" s="35" t="s">
-        <v>318</v>
+        <v>284</v>
       </c>
       <c r="B168" s="32">
         <v>4</v>
@@ -11682,7 +11670,7 @@
         <v>7</v>
       </c>
       <c r="G168" s="32" t="s">
-        <v>353</v>
+        <v>319</v>
       </c>
       <c r="H168" s="32"/>
       <c r="I168" s="32"/>
@@ -11707,24 +11695,24 @@
       </c>
       <c r="Q168" s="32"/>
       <c r="R168" s="32" t="s">
-        <v>452</v>
+        <v>418</v>
       </c>
       <c r="S168" s="33" t="s">
-        <v>462</v>
+        <v>423</v>
       </c>
       <c r="T168" s="32" t="s">
-        <v>419</v>
+        <v>385</v>
       </c>
       <c r="U168" s="32" t="s">
-        <v>386</v>
+        <v>352</v>
       </c>
       <c r="V168" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:22" s="36" customFormat="1">
-      <c r="A169" s="35" t="s">
-        <v>319</v>
+    <row r="169" spans="1:22" s="36" customFormat="1" ht="14.65" thickBot="1">
+      <c r="A169" s="37" t="s">
+        <v>285</v>
       </c>
       <c r="B169" s="32">
         <v>4</v>
@@ -11740,7 +11728,7 @@
         <v>7</v>
       </c>
       <c r="G169" s="32" t="s">
-        <v>354</v>
+        <v>320</v>
       </c>
       <c r="H169" s="32"/>
       <c r="I169" s="32"/>
@@ -11765,16 +11753,16 @@
       </c>
       <c r="Q169" s="32"/>
       <c r="R169" s="32" t="s">
-        <v>453</v>
+        <v>419</v>
       </c>
       <c r="S169" s="33" t="s">
-        <v>462</v>
+        <v>423</v>
       </c>
       <c r="T169" s="32" t="s">
-        <v>420</v>
+        <v>386</v>
       </c>
       <c r="U169" s="32" t="s">
-        <v>387</v>
+        <v>353</v>
       </c>
       <c r="V169" s="32">
         <v>0</v>
@@ -11782,7 +11770,7 @@
     </row>
     <row r="170" spans="1:22" s="36" customFormat="1">
       <c r="A170" s="35" t="s">
-        <v>320</v>
+        <v>286</v>
       </c>
       <c r="B170" s="32">
         <v>4</v>
@@ -11798,7 +11786,7 @@
         <v>7</v>
       </c>
       <c r="G170" s="32" t="s">
-        <v>355</v>
+        <v>321</v>
       </c>
       <c r="H170" s="32"/>
       <c r="I170" s="32"/>
@@ -11823,16 +11811,16 @@
       </c>
       <c r="Q170" s="32"/>
       <c r="R170" s="32" t="s">
-        <v>454</v>
+        <v>420</v>
       </c>
       <c r="S170" s="33" t="s">
-        <v>462</v>
+        <v>423</v>
       </c>
       <c r="T170" s="32" t="s">
-        <v>421</v>
+        <v>387</v>
       </c>
       <c r="U170" s="32" t="s">
-        <v>388</v>
+        <v>354</v>
       </c>
       <c r="V170" s="32">
         <v>0</v>
@@ -11840,7 +11828,7 @@
     </row>
     <row r="171" spans="1:22" s="36" customFormat="1">
       <c r="A171" s="35" t="s">
-        <v>321</v>
+        <v>287</v>
       </c>
       <c r="B171" s="32">
         <v>4</v>
@@ -11856,7 +11844,7 @@
         <v>7</v>
       </c>
       <c r="G171" s="32" t="s">
-        <v>356</v>
+        <v>322</v>
       </c>
       <c r="H171" s="32"/>
       <c r="I171" s="32"/>
@@ -11881,24 +11869,24 @@
       </c>
       <c r="Q171" s="32"/>
       <c r="R171" s="32" t="s">
-        <v>455</v>
+        <v>421</v>
       </c>
       <c r="S171" s="33" t="s">
-        <v>462</v>
+        <v>423</v>
       </c>
       <c r="T171" s="32" t="s">
-        <v>422</v>
+        <v>388</v>
       </c>
       <c r="U171" s="32" t="s">
-        <v>389</v>
+        <v>355</v>
       </c>
       <c r="V171" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:22" s="36" customFormat="1">
-      <c r="A172" s="35" t="s">
-        <v>322</v>
+    <row r="172" spans="1:22" s="36" customFormat="1" ht="14.65" thickBot="1">
+      <c r="A172" s="37" t="s">
+        <v>288</v>
       </c>
       <c r="B172" s="32">
         <v>4</v>
@@ -11914,7 +11902,7 @@
         <v>7</v>
       </c>
       <c r="G172" s="32" t="s">
-        <v>357</v>
+        <v>323</v>
       </c>
       <c r="H172" s="32"/>
       <c r="I172" s="32"/>
@@ -11939,315 +11927,25 @@
       </c>
       <c r="Q172" s="32"/>
       <c r="R172" s="32" t="s">
-        <v>456</v>
+        <v>422</v>
       </c>
       <c r="S172" s="33" t="s">
-        <v>462</v>
+        <v>423</v>
       </c>
       <c r="T172" s="32" t="s">
-        <v>423</v>
+        <v>389</v>
       </c>
       <c r="U172" s="32" t="s">
-        <v>390</v>
+        <v>356</v>
       </c>
       <c r="V172" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:22" s="36" customFormat="1">
-      <c r="A173" s="35" t="s">
-        <v>323</v>
-      </c>
-      <c r="B173" s="32">
-        <v>4</v>
-      </c>
-      <c r="C173" s="32">
-        <v>4</v>
-      </c>
-      <c r="D173" s="32">
-        <v>0</v>
-      </c>
-      <c r="E173" s="32"/>
-      <c r="F173" s="32">
-        <v>7</v>
-      </c>
-      <c r="G173" s="32" t="s">
-        <v>358</v>
-      </c>
-      <c r="H173" s="32"/>
-      <c r="I173" s="32"/>
-      <c r="J173" s="32"/>
-      <c r="K173" s="32">
-        <v>350</v>
-      </c>
-      <c r="L173" s="32">
-        <v>0</v>
-      </c>
-      <c r="M173" s="32">
-        <v>1</v>
-      </c>
-      <c r="N173" s="32">
-        <v>0</v>
-      </c>
-      <c r="O173" s="32">
-        <v>350</v>
-      </c>
-      <c r="P173" s="32">
-        <v>1</v>
-      </c>
-      <c r="Q173" s="32"/>
-      <c r="R173" s="32" t="s">
-        <v>457</v>
-      </c>
-      <c r="S173" s="33" t="s">
-        <v>462</v>
-      </c>
-      <c r="T173" s="32" t="s">
-        <v>424</v>
-      </c>
-      <c r="U173" s="32" t="s">
-        <v>391</v>
-      </c>
-      <c r="V173" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:22" s="36" customFormat="1" ht="14.65" thickBot="1">
-      <c r="A174" s="37" t="s">
-        <v>324</v>
-      </c>
-      <c r="B174" s="32">
-        <v>4</v>
-      </c>
-      <c r="C174" s="32">
-        <v>4</v>
-      </c>
-      <c r="D174" s="32">
-        <v>0</v>
-      </c>
-      <c r="E174" s="32"/>
-      <c r="F174" s="32">
-        <v>7</v>
-      </c>
-      <c r="G174" s="32" t="s">
-        <v>359</v>
-      </c>
-      <c r="H174" s="32"/>
-      <c r="I174" s="32"/>
-      <c r="J174" s="32"/>
-      <c r="K174" s="32">
-        <v>350</v>
-      </c>
-      <c r="L174" s="32">
-        <v>0</v>
-      </c>
-      <c r="M174" s="32">
-        <v>1</v>
-      </c>
-      <c r="N174" s="32">
-        <v>0</v>
-      </c>
-      <c r="O174" s="32">
-        <v>350</v>
-      </c>
-      <c r="P174" s="32">
-        <v>1</v>
-      </c>
-      <c r="Q174" s="32"/>
-      <c r="R174" s="32" t="s">
-        <v>458</v>
-      </c>
-      <c r="S174" s="33" t="s">
-        <v>462</v>
-      </c>
-      <c r="T174" s="32" t="s">
-        <v>425</v>
-      </c>
-      <c r="U174" s="32" t="s">
-        <v>392</v>
-      </c>
-      <c r="V174" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:22" s="36" customFormat="1">
-      <c r="A175" s="35" t="s">
-        <v>325</v>
-      </c>
-      <c r="B175" s="32">
-        <v>4</v>
-      </c>
-      <c r="C175" s="32">
-        <v>4</v>
-      </c>
-      <c r="D175" s="32">
-        <v>0</v>
-      </c>
-      <c r="E175" s="32"/>
-      <c r="F175" s="32">
-        <v>7</v>
-      </c>
-      <c r="G175" s="32" t="s">
-        <v>360</v>
-      </c>
-      <c r="H175" s="32"/>
-      <c r="I175" s="32"/>
-      <c r="J175" s="32"/>
-      <c r="K175" s="32">
-        <v>350</v>
-      </c>
-      <c r="L175" s="32">
-        <v>0</v>
-      </c>
-      <c r="M175" s="32">
-        <v>1</v>
-      </c>
-      <c r="N175" s="32">
-        <v>0</v>
-      </c>
-      <c r="O175" s="32">
-        <v>350</v>
-      </c>
-      <c r="P175" s="32">
-        <v>1</v>
-      </c>
-      <c r="Q175" s="32"/>
-      <c r="R175" s="32" t="s">
-        <v>459</v>
-      </c>
-      <c r="S175" s="33" t="s">
-        <v>462</v>
-      </c>
-      <c r="T175" s="32" t="s">
-        <v>426</v>
-      </c>
-      <c r="U175" s="32" t="s">
-        <v>393</v>
-      </c>
-      <c r="V175" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:22" s="36" customFormat="1">
-      <c r="A176" s="35" t="s">
-        <v>326</v>
-      </c>
-      <c r="B176" s="32">
-        <v>4</v>
-      </c>
-      <c r="C176" s="32">
-        <v>4</v>
-      </c>
-      <c r="D176" s="32">
-        <v>0</v>
-      </c>
-      <c r="E176" s="32"/>
-      <c r="F176" s="32">
-        <v>7</v>
-      </c>
-      <c r="G176" s="32" t="s">
-        <v>361</v>
-      </c>
-      <c r="H176" s="32"/>
-      <c r="I176" s="32"/>
-      <c r="J176" s="32"/>
-      <c r="K176" s="32">
-        <v>350</v>
-      </c>
-      <c r="L176" s="32">
-        <v>0</v>
-      </c>
-      <c r="M176" s="32">
-        <v>1</v>
-      </c>
-      <c r="N176" s="32">
-        <v>0</v>
-      </c>
-      <c r="O176" s="32">
-        <v>350</v>
-      </c>
-      <c r="P176" s="32">
-        <v>1</v>
-      </c>
-      <c r="Q176" s="32"/>
-      <c r="R176" s="32" t="s">
-        <v>460</v>
-      </c>
-      <c r="S176" s="33" t="s">
-        <v>462</v>
-      </c>
-      <c r="T176" s="32" t="s">
-        <v>427</v>
-      </c>
-      <c r="U176" s="32" t="s">
-        <v>394</v>
-      </c>
-      <c r="V176" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:22" s="36" customFormat="1" ht="14.65" thickBot="1">
-      <c r="A177" s="37" t="s">
-        <v>327</v>
-      </c>
-      <c r="B177" s="32">
-        <v>4</v>
-      </c>
-      <c r="C177" s="32">
-        <v>4</v>
-      </c>
-      <c r="D177" s="32">
-        <v>0</v>
-      </c>
-      <c r="E177" s="32"/>
-      <c r="F177" s="32">
-        <v>7</v>
-      </c>
-      <c r="G177" s="32" t="s">
-        <v>362</v>
-      </c>
-      <c r="H177" s="32"/>
-      <c r="I177" s="32"/>
-      <c r="J177" s="32"/>
-      <c r="K177" s="32">
-        <v>350</v>
-      </c>
-      <c r="L177" s="32">
-        <v>0</v>
-      </c>
-      <c r="M177" s="32">
-        <v>1</v>
-      </c>
-      <c r="N177" s="32">
-        <v>0</v>
-      </c>
-      <c r="O177" s="32">
-        <v>350</v>
-      </c>
-      <c r="P177" s="32">
-        <v>1</v>
-      </c>
-      <c r="Q177" s="32"/>
-      <c r="R177" s="32" t="s">
-        <v>461</v>
-      </c>
-      <c r="S177" s="33" t="s">
-        <v>462</v>
-      </c>
-      <c r="T177" s="32" t="s">
-        <v>428</v>
-      </c>
-      <c r="U177" s="32" t="s">
-        <v>395</v>
-      </c>
-      <c r="V177" s="32">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:V9">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:V9" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/_Out/NFDataCfg/Excel/Item.xlsx
+++ b/_Out/NFDataCfg/Excel/Item.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="455">
   <si>
     <t>Id</t>
   </si>
@@ -1365,9 +1365,6 @@
   </si>
   <si>
     <t>Item_HeroCard_Orc_Slinger</t>
-  </si>
-  <si>
-    <t>Desc_Orc_Slinger</t>
   </si>
   <si>
     <t>DescID_Orc_Slinger</t>
@@ -1633,7 +1630,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1756,9 +1753,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2068,10 +2062,10 @@
   <dimension ref="A1:V172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="10" topLeftCell="O131" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="10" topLeftCell="B125" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U137" sqref="U137"/>
+      <selection pane="bottomRight" activeCell="G131" sqref="G131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -9527,8 +9521,8 @@
       <c r="F131" s="22">
         <v>9</v>
       </c>
-      <c r="G131" s="41" t="s">
-        <v>445</v>
+      <c r="G131" s="22" t="s">
+        <v>237</v>
       </c>
       <c r="H131" s="22"/>
       <c r="I131" s="22"/>
@@ -9639,8 +9633,8 @@
       <c r="F133" s="25">
         <v>0</v>
       </c>
-      <c r="G133" s="42" t="s">
-        <v>446</v>
+      <c r="G133" s="41" t="s">
+        <v>445</v>
       </c>
       <c r="H133" s="25"/>
       <c r="I133" s="25"/>
@@ -9667,14 +9661,14 @@
       <c r="R133" s="30" t="s">
         <v>250</v>
       </c>
-      <c r="S133" s="44" t="s">
-        <v>451</v>
+      <c r="S133" s="43" t="s">
+        <v>450</v>
       </c>
       <c r="T133" s="24" t="s">
         <v>253</v>
       </c>
-      <c r="U133" s="45" t="s">
-        <v>452</v>
+      <c r="U133" s="44" t="s">
+        <v>451</v>
       </c>
       <c r="V133" s="25">
         <v>0</v>
@@ -9697,8 +9691,8 @@
       <c r="F134" s="27">
         <v>0</v>
       </c>
-      <c r="G134" s="43" t="s">
-        <v>447</v>
+      <c r="G134" s="42" t="s">
+        <v>446</v>
       </c>
       <c r="H134" s="27"/>
       <c r="I134" s="27"/>
@@ -9725,14 +9719,14 @@
       <c r="R134" s="30" t="s">
         <v>251</v>
       </c>
-      <c r="S134" s="44" t="s">
-        <v>451</v>
+      <c r="S134" s="43" t="s">
+        <v>450</v>
       </c>
       <c r="T134" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="U134" s="46" t="s">
-        <v>453</v>
+      <c r="U134" s="45" t="s">
+        <v>452</v>
       </c>
       <c r="V134" s="27">
         <v>0</v>
@@ -9755,8 +9749,8 @@
       <c r="F135" s="27">
         <v>0</v>
       </c>
-      <c r="G135" s="43" t="s">
-        <v>448</v>
+      <c r="G135" s="42" t="s">
+        <v>447</v>
       </c>
       <c r="H135" s="27"/>
       <c r="I135" s="27"/>
@@ -9783,14 +9777,14 @@
       <c r="R135" s="30" t="s">
         <v>252</v>
       </c>
-      <c r="S135" s="44" t="s">
-        <v>451</v>
+      <c r="S135" s="43" t="s">
+        <v>450</v>
       </c>
       <c r="T135" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="U135" s="46" t="s">
-        <v>454</v>
+      <c r="U135" s="45" t="s">
+        <v>453</v>
       </c>
       <c r="V135" s="27">
         <v>0</v>
@@ -9813,8 +9807,8 @@
       <c r="F136" s="27">
         <v>0</v>
       </c>
-      <c r="G136" s="43" t="s">
-        <v>449</v>
+      <c r="G136" s="42" t="s">
+        <v>448</v>
       </c>
       <c r="H136" s="27"/>
       <c r="I136" s="27"/>
@@ -9839,16 +9833,16 @@
       </c>
       <c r="Q136" s="27"/>
       <c r="R136" s="30" t="s">
+        <v>449</v>
+      </c>
+      <c r="S136" s="43" t="s">
         <v>450</v>
-      </c>
-      <c r="S136" s="44" t="s">
-        <v>451</v>
       </c>
       <c r="T136" s="38" t="s">
         <v>440</v>
       </c>
-      <c r="U136" s="46" t="s">
-        <v>455</v>
+      <c r="U136" s="45" t="s">
+        <v>454</v>
       </c>
       <c r="V136" s="27">
         <v>0</v>

--- a/_Out/NFDataCfg/Excel/Item.xlsx
+++ b/_Out/NFDataCfg/Excel/Item.xlsx
@@ -95,9 +95,6 @@
     <t>ShowName</t>
   </si>
   <si>
-    <t>HeroTye</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -902,9 +899,6 @@
     <t>物品子类别 EGameEquipSubType EGameGemSubType EGameItemSubType EGameCardSubType EGameTokenSubType</t>
   </si>
   <si>
-    <t>Item_HOLY_WATER_1,11;Item_HOLY_WATER_2,22;Item_HOLY_WATER_3,33;Item_HOLY_WATER_4,44;Item_HOLY_WATER_5,55;Item_MP1,11;Item_MP2,22;Item_MP3,33;Item_MP4,44;Item_MP5,55;Item_GEM_ATK_1,11;Item_GEM_ATK_2,22;Item_GEM_ATK_3,33;Item_GEM_ATK_4,44;Item_GEM_DEF_1,11;Item_GEM_DEF_2,22;Item_GEM_DEF_3,33;Item_GEM_DEF_4,44;Item_GEM_DEF_5,55;Item_GEM_FIRE_1,11;Item_GEM_FIRE_2,22;Item_GEM_FIRE_3,33;Item_GEM_WIND_1,11;Item_GEM_WIND_2,22;Item_GEM_WIND_3,33;Item_HeroCard_Abaddon,88;Item_HeroCard_Beastmaster,99;Item_HeroCard_BountyHunter,66;Item_HeroCard_Bristleback,33;Item_HeroCard_Clinkz,66;Item_HeroCard_CrystalMaiden,99;Item_HeroCard_Ezalor,99;Item_HeroCard_Lifestealer,99;Item_HeroCard_TeaantProtector,99;Item_dragon_cannon_1,99;Item_dragon_cannon_2,99;Item_dragon_cannon_3,99;Item_gold_mine_1,99;Item_gold_mine_2,99;Item_gold_mine_3,99;Item_ballista_tower_1,99;Item_ballista_tower_2,99;Item_ballista_tower_3,99;Item_townhall_1,99;Item_townhall_2,99;Item_townhall_3,99;Item_camp_1,99;Item_camp_2,99;Item_camp_3,99;Item_gold_storage_1,99;Item_gold_storage_2,99;Item_gold_storage_3,99;Item_mana_storage_1,99;Item_mana_storage_2,99;Item_mana_storage_3,99;Item_barrack_1,99;Item_barrack_2,99;Item_barrack_3,99;Item_bomb_1,99;Item_bomb_2,99;Item_bomb_3,99;Item_worker_hut_1,99;Item_worker_hut_2,99;Item_worker_hut_3,99;Item_anti_air_tower_1,99;Item_anti_air_tower_2,99;Item_anti_air_tower_3,99;Item_mana_well_1,99;Item_mana_well_2,99;Item_mana_well_3,99</t>
-  </si>
-  <si>
     <t>Desc_dragon_cannon_1</t>
   </si>
   <si>
@@ -1395,18 +1389,31 @@
   </si>
   <si>
     <t>NameID_Samurai</t>
+  </si>
+  <si>
+    <t>HeroType</t>
+  </si>
+  <si>
+    <t>Item_HOLY_WATER_1,11;Item_HOLY_WATER_2,22;Item_HOLY_WATER_3,33;Item_HOLY_WATER_4,44;Item_HOLY_WATER_5,55;Item_MP1,11;Item_MP2,22;Item_MP3,33;Item_MP4,44;Item_MP5,55;Item_GEM_ATK_1,11;Item_GEM_ATK_2,22;Item_GEM_ATK_3,33;Item_GEM_ATK_4,44;Item_GEM_DEF_1,11;Item_GEM_DEF_2,22;Item_GEM_DEF_3,33;Item_GEM_DEF_4,44;Item_GEM_DEF_5,55;Item_GEM_FIRE_1,11;Item_GEM_FIRE_2,22;Item_GEM_FIRE_3,33;Item_GEM_WIND_1,11;Item_GEM_WIND_2,22;Item_GEM_WIND_3,33;Item_dragon_cannon_1,99;Item_dragon_cannon_2,99;Item_dragon_cannon_3,99;Item_gold_mine_1,99;Item_gold_mine_2,99;Item_gold_mine_3,99;Item_ballista_tower_1,99;Item_ballista_tower_2,99;Item_ballista_tower_3,99;Item_townhall_1,99;Item_townhall_2,99;Item_townhall_3,99;Item_camp_1,99;Item_camp_2,99;Item_camp_3,99;Item_gold_storage_1,99;Item_gold_storage_2,99;Item_gold_storage_3,99;Item_mana_storage_1,99;Item_mana_storage_2,99;Item_mana_storage_3,99;Item_barrack_1,99;Item_barrack_2,99;Item_barrack_3,99;Item_bomb_1,99;Item_bomb_2,99;Item_bomb_3,99;Item_worker_hut_1,99;Item_worker_hut_2,99;Item_worker_hut_3,99;Item_anti_air_tower_1,99;Item_anti_air_tower_2,99;Item_anti_air_tower_3,99;Item_mana_well_1,99;Item_mana_well_2,99;Item_mana_well_3,99;Item_HeroCard_Orc_Slinger,55;Item_HeroCard_Dwarf_Warrior,66;Item_HeroCard_Wererat_Soldier,77;Item_HeroCard_Samurai,88</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1634,13 +1641,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
@@ -1658,13 +1665,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
@@ -1721,7 +1728,7 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1">
@@ -1745,14 +1752,20 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1760,14 +1773,8 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2062,10 +2069,10 @@
   <dimension ref="A1:V172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="10" topLeftCell="B125" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="10" topLeftCell="H47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G131" sqref="G131"/>
+      <selection pane="bottomRight" activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2157,80 +2164,80 @@
         <v>20</v>
       </c>
       <c r="V1" s="9" t="s">
-        <v>21</v>
+        <v>453</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="2" customFormat="1">
       <c r="A2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="F2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="I2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="M2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="10" t="s">
+      <c r="R2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="10" t="s">
+      <c r="S2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="T2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="U2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="R2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="S2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="T2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="U2" s="10" t="s">
-        <v>24</v>
-      </c>
       <c r="V2" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:22" s="2" customFormat="1">
       <c r="A3" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="10">
         <v>0</v>
@@ -2298,7 +2305,7 @@
     </row>
     <row r="4" spans="1:22" s="2" customFormat="1">
       <c r="A4" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="10">
         <v>0</v>
@@ -2366,7 +2373,7 @@
     </row>
     <row r="5" spans="1:22" s="2" customFormat="1">
       <c r="A5" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="10">
         <v>0</v>
@@ -2434,7 +2441,7 @@
     </row>
     <row r="6" spans="1:22" s="2" customFormat="1">
       <c r="A6" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="10">
         <v>0</v>
@@ -2502,7 +2509,7 @@
     </row>
     <row r="7" spans="1:22" s="3" customFormat="1" ht="13.5">
       <c r="A7" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="3">
         <v>0</v>
@@ -2570,7 +2577,7 @@
     </row>
     <row r="8" spans="1:22" s="3" customFormat="1" ht="13.5">
       <c r="A8" s="11" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -2638,7 +2645,7 @@
     </row>
     <row r="9" spans="1:22" s="3" customFormat="1" ht="13.5">
       <c r="A9" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
@@ -2706,75 +2713,75 @@
     </row>
     <row r="10" spans="1:22" s="2" customFormat="1" ht="92" customHeight="1">
       <c r="A10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="C10" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="D10" s="10" t="s">
+      <c r="E10" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="F10" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="G10" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="H10" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="I10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="J10" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="K10" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="L10" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="L10" s="10" t="s">
+      <c r="M10" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="M10" s="10" t="s">
+      <c r="N10" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="N10" s="10" t="s">
+      <c r="O10" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="O10" s="10" t="s">
+      <c r="P10" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="P10" s="10" t="s">
+      <c r="Q10" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="Q10" s="10" t="s">
+      <c r="R10" s="10" t="s">
         <v>47</v>
-      </c>
-      <c r="R10" s="10" t="s">
-        <v>48</v>
       </c>
       <c r="S10" s="10" t="s">
         <v>18</v>
       </c>
       <c r="T10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="U10" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="U10" s="10" t="s">
+      <c r="V10" s="10" t="s">
         <v>50</v>
-      </c>
-      <c r="V10" s="10" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:22" s="4" customFormat="1">
       <c r="A11" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B11" s="13">
         <v>2</v>
@@ -2790,10 +2797,10 @@
         <v>0</v>
       </c>
       <c r="G11" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="12" t="s">
         <v>53</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>54</v>
       </c>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
@@ -2818,13 +2825,13 @@
       <c r="Q11" s="13"/>
       <c r="R11" s="13"/>
       <c r="S11" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T11" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="U11" s="12" t="s">
         <v>55</v>
-      </c>
-      <c r="U11" s="12" t="s">
-        <v>56</v>
       </c>
       <c r="V11" s="13">
         <v>0</v>
@@ -2832,7 +2839,7 @@
     </row>
     <row r="12" spans="1:22" s="4" customFormat="1">
       <c r="A12" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" s="14">
         <v>2</v>
@@ -2848,10 +2855,10 @@
         <v>0</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
@@ -2876,13 +2883,13 @@
       <c r="Q12" s="14"/>
       <c r="R12" s="14"/>
       <c r="S12" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T12" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U12" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V12" s="14">
         <v>0</v>
@@ -2890,7 +2897,7 @@
     </row>
     <row r="13" spans="1:22" s="4" customFormat="1">
       <c r="A13" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" s="13">
         <v>2</v>
@@ -2906,10 +2913,10 @@
         <v>0</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
@@ -2934,13 +2941,13 @@
       <c r="Q13" s="14"/>
       <c r="R13" s="13"/>
       <c r="S13" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T13" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U13" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V13" s="14">
         <v>0</v>
@@ -2948,7 +2955,7 @@
     </row>
     <row r="14" spans="1:22" s="4" customFormat="1">
       <c r="A14" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B14" s="14">
         <v>2</v>
@@ -2964,10 +2971,10 @@
         <v>0</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
@@ -2992,13 +2999,13 @@
       <c r="Q14" s="14"/>
       <c r="R14" s="14"/>
       <c r="S14" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T14" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U14" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V14" s="14">
         <v>0</v>
@@ -3006,7 +3013,7 @@
     </row>
     <row r="15" spans="1:22" s="4" customFormat="1">
       <c r="A15" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B15" s="14">
         <v>2</v>
@@ -3022,10 +3029,10 @@
         <v>0</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
@@ -3050,13 +3057,13 @@
       <c r="Q15" s="14"/>
       <c r="R15" s="14"/>
       <c r="S15" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T15" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="U15" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V15" s="14">
         <v>0</v>
@@ -3064,7 +3071,7 @@
     </row>
     <row r="16" spans="1:22" s="4" customFormat="1">
       <c r="A16" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B16" s="14">
         <v>2</v>
@@ -3080,7 +3087,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H16" s="15"/>
       <c r="I16" s="14"/>
@@ -3106,13 +3113,13 @@
       <c r="Q16" s="14"/>
       <c r="R16" s="14"/>
       <c r="S16" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T16" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U16" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V16" s="14">
         <v>0</v>
@@ -3120,7 +3127,7 @@
     </row>
     <row r="17" spans="1:22" s="4" customFormat="1">
       <c r="A17" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B17" s="13">
         <v>2</v>
@@ -3136,7 +3143,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H17" s="15"/>
       <c r="I17" s="14"/>
@@ -3162,13 +3169,13 @@
       <c r="Q17" s="14"/>
       <c r="R17" s="13"/>
       <c r="S17" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T17" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="U17" s="15" t="s">
         <v>73</v>
-      </c>
-      <c r="U17" s="15" t="s">
-        <v>74</v>
       </c>
       <c r="V17" s="14">
         <v>0</v>
@@ -3176,7 +3183,7 @@
     </row>
     <row r="18" spans="1:22" s="4" customFormat="1">
       <c r="A18" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B18" s="14">
         <v>2</v>
@@ -3192,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H18" s="15"/>
       <c r="I18" s="14"/>
@@ -3218,13 +3225,13 @@
       <c r="Q18" s="14"/>
       <c r="R18" s="14"/>
       <c r="S18" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T18" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U18" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V18" s="14">
         <v>0</v>
@@ -3232,7 +3239,7 @@
     </row>
     <row r="19" spans="1:22" s="4" customFormat="1">
       <c r="A19" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B19" s="13">
         <v>2</v>
@@ -3248,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H19" s="15"/>
       <c r="I19" s="14"/>
@@ -3274,13 +3281,13 @@
       <c r="Q19" s="14"/>
       <c r="R19" s="13"/>
       <c r="S19" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T19" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="U19" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V19" s="14">
         <v>0</v>
@@ -3288,7 +3295,7 @@
     </row>
     <row r="20" spans="1:22" s="4" customFormat="1">
       <c r="A20" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B20" s="14">
         <v>2</v>
@@ -3304,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H20" s="15"/>
       <c r="I20" s="14"/>
@@ -3330,13 +3337,13 @@
       <c r="Q20" s="14"/>
       <c r="R20" s="14"/>
       <c r="S20" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T20" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U20" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V20" s="14">
         <v>0</v>
@@ -3344,7 +3351,7 @@
     </row>
     <row r="21" spans="1:22" s="4" customFormat="1">
       <c r="A21" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B21" s="14">
         <v>2</v>
@@ -3360,7 +3367,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H21" s="15"/>
       <c r="I21" s="14"/>
@@ -3386,13 +3393,13 @@
       <c r="Q21" s="14"/>
       <c r="R21" s="14"/>
       <c r="S21" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T21" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U21" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V21" s="14">
         <v>0</v>
@@ -3400,7 +3407,7 @@
     </row>
     <row r="22" spans="1:22" s="4" customFormat="1">
       <c r="A22" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B22" s="14">
         <v>2</v>
@@ -3416,7 +3423,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H22" s="15"/>
       <c r="I22" s="14"/>
@@ -3442,13 +3449,13 @@
       <c r="Q22" s="14"/>
       <c r="R22" s="14"/>
       <c r="S22" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T22" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U22" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V22" s="14">
         <v>0</v>
@@ -3456,7 +3463,7 @@
     </row>
     <row r="23" spans="1:22" s="4" customFormat="1">
       <c r="A23" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B23" s="13">
         <v>2</v>
@@ -3472,7 +3479,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H23" s="15"/>
       <c r="I23" s="14"/>
@@ -3498,13 +3505,13 @@
       <c r="Q23" s="14"/>
       <c r="R23" s="13"/>
       <c r="S23" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T23" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="U23" s="15" t="s">
         <v>87</v>
-      </c>
-      <c r="U23" s="15" t="s">
-        <v>88</v>
       </c>
       <c r="V23" s="14">
         <v>0</v>
@@ -3512,7 +3519,7 @@
     </row>
     <row r="24" spans="1:22" s="4" customFormat="1">
       <c r="A24" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B24" s="14">
         <v>2</v>
@@ -3528,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H24" s="15"/>
       <c r="I24" s="14"/>
@@ -3554,13 +3561,13 @@
       <c r="Q24" s="14"/>
       <c r="R24" s="14"/>
       <c r="S24" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T24" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="U24" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V24" s="14">
         <v>0</v>
@@ -3568,7 +3575,7 @@
     </row>
     <row r="25" spans="1:22" s="4" customFormat="1">
       <c r="A25" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B25" s="13">
         <v>2</v>
@@ -3584,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H25" s="15"/>
       <c r="I25" s="14"/>
@@ -3610,13 +3617,13 @@
       <c r="Q25" s="14"/>
       <c r="R25" s="13"/>
       <c r="S25" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T25" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U25" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V25" s="14">
         <v>0</v>
@@ -3624,7 +3631,7 @@
     </row>
     <row r="26" spans="1:22" s="4" customFormat="1">
       <c r="A26" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B26" s="14">
         <v>2</v>
@@ -3640,7 +3647,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H26" s="15"/>
       <c r="I26" s="14"/>
@@ -3666,13 +3673,13 @@
       <c r="Q26" s="14"/>
       <c r="R26" s="14"/>
       <c r="S26" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T26" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U26" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V26" s="14">
         <v>0</v>
@@ -3680,7 +3687,7 @@
     </row>
     <row r="27" spans="1:22" s="4" customFormat="1">
       <c r="A27" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B27" s="14">
         <v>2</v>
@@ -3696,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H27" s="15"/>
       <c r="I27" s="14"/>
@@ -3722,13 +3729,13 @@
       <c r="Q27" s="14"/>
       <c r="R27" s="14"/>
       <c r="S27" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T27" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="U27" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V27" s="14">
         <v>0</v>
@@ -3736,7 +3743,7 @@
     </row>
     <row r="28" spans="1:22" s="4" customFormat="1">
       <c r="A28" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B28" s="14">
         <v>2</v>
@@ -3752,7 +3759,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H28" s="15"/>
       <c r="I28" s="14"/>
@@ -3778,13 +3785,13 @@
       <c r="Q28" s="14"/>
       <c r="R28" s="14"/>
       <c r="S28" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T28" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="U28" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V28" s="14">
         <v>0</v>
@@ -3792,7 +3799,7 @@
     </row>
     <row r="29" spans="1:22" s="4" customFormat="1">
       <c r="A29" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B29" s="13">
         <v>2</v>
@@ -3808,7 +3815,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H29" s="15"/>
       <c r="I29" s="14"/>
@@ -3834,13 +3841,13 @@
       <c r="Q29" s="14"/>
       <c r="R29" s="13"/>
       <c r="S29" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T29" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="U29" s="15" t="s">
         <v>101</v>
-      </c>
-      <c r="U29" s="15" t="s">
-        <v>102</v>
       </c>
       <c r="V29" s="14">
         <v>0</v>
@@ -3848,7 +3855,7 @@
     </row>
     <row r="30" spans="1:22" s="4" customFormat="1">
       <c r="A30" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B30" s="14">
         <v>2</v>
@@ -3864,7 +3871,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H30" s="15"/>
       <c r="I30" s="14"/>
@@ -3890,13 +3897,13 @@
       <c r="Q30" s="14"/>
       <c r="R30" s="14"/>
       <c r="S30" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T30" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="U30" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="V30" s="14">
         <v>0</v>
@@ -3904,7 +3911,7 @@
     </row>
     <row r="31" spans="1:22" s="4" customFormat="1">
       <c r="A31" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B31" s="13">
         <v>2</v>
@@ -3920,7 +3927,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H31" s="15"/>
       <c r="I31" s="14"/>
@@ -3946,13 +3953,13 @@
       <c r="Q31" s="14"/>
       <c r="R31" s="13"/>
       <c r="S31" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T31" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="U31" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="V31" s="14">
         <v>0</v>
@@ -3960,7 +3967,7 @@
     </row>
     <row r="32" spans="1:22" s="4" customFormat="1">
       <c r="A32" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B32" s="14">
         <v>2</v>
@@ -3976,7 +3983,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H32" s="15"/>
       <c r="I32" s="14"/>
@@ -4002,13 +4009,13 @@
       <c r="Q32" s="14"/>
       <c r="R32" s="14"/>
       <c r="S32" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T32" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="U32" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="V32" s="14">
         <v>0</v>
@@ -4016,7 +4023,7 @@
     </row>
     <row r="33" spans="1:22" s="4" customFormat="1">
       <c r="A33" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B33" s="13">
         <v>2</v>
@@ -4032,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H33" s="15"/>
       <c r="I33" s="14"/>
@@ -4058,13 +4065,13 @@
       <c r="Q33" s="14"/>
       <c r="R33" s="13"/>
       <c r="S33" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T33" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U33" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="V33" s="14">
         <v>0</v>
@@ -4072,7 +4079,7 @@
     </row>
     <row r="34" spans="1:22" s="4" customFormat="1">
       <c r="A34" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B34" s="14">
         <v>2</v>
@@ -4088,7 +4095,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H34" s="15"/>
       <c r="I34" s="14"/>
@@ -4114,13 +4121,13 @@
       <c r="Q34" s="14"/>
       <c r="R34" s="14"/>
       <c r="S34" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T34" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="U34" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="V34" s="14">
         <v>0</v>
@@ -4128,7 +4135,7 @@
     </row>
     <row r="35" spans="1:22" s="4" customFormat="1">
       <c r="A35" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B35" s="13">
         <v>2</v>
@@ -4144,7 +4151,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H35" s="15"/>
       <c r="I35" s="14"/>
@@ -4170,13 +4177,13 @@
       <c r="Q35" s="14"/>
       <c r="R35" s="13"/>
       <c r="S35" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T35" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="U35" s="14" t="s">
         <v>115</v>
-      </c>
-      <c r="U35" s="14" t="s">
-        <v>116</v>
       </c>
       <c r="V35" s="14">
         <v>0</v>
@@ -4184,7 +4191,7 @@
     </row>
     <row r="36" spans="1:22" s="4" customFormat="1">
       <c r="A36" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B36" s="14">
         <v>2</v>
@@ -4200,7 +4207,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H36" s="15"/>
       <c r="I36" s="14"/>
@@ -4226,13 +4233,13 @@
       <c r="Q36" s="14"/>
       <c r="R36" s="14"/>
       <c r="S36" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T36" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="U36" s="14" t="s">
         <v>115</v>
-      </c>
-      <c r="U36" s="14" t="s">
-        <v>116</v>
       </c>
       <c r="V36" s="14">
         <v>0</v>
@@ -4240,7 +4247,7 @@
     </row>
     <row r="37" spans="1:22" s="4" customFormat="1">
       <c r="A37" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B37" s="13">
         <v>2</v>
@@ -4256,7 +4263,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H37" s="15"/>
       <c r="I37" s="14"/>
@@ -4282,13 +4289,13 @@
       <c r="Q37" s="14"/>
       <c r="R37" s="13"/>
       <c r="S37" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T37" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="U37" s="14" t="s">
         <v>115</v>
-      </c>
-      <c r="U37" s="14" t="s">
-        <v>116</v>
       </c>
       <c r="V37" s="14">
         <v>0</v>
@@ -4296,7 +4303,7 @@
     </row>
     <row r="38" spans="1:22" s="4" customFormat="1">
       <c r="A38" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B38" s="14">
         <v>2</v>
@@ -4312,7 +4319,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H38" s="15"/>
       <c r="I38" s="14"/>
@@ -4338,13 +4345,13 @@
       <c r="Q38" s="14"/>
       <c r="R38" s="14"/>
       <c r="S38" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T38" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="U38" s="14" t="s">
         <v>115</v>
-      </c>
-      <c r="U38" s="14" t="s">
-        <v>116</v>
       </c>
       <c r="V38" s="14">
         <v>0</v>
@@ -4352,7 +4359,7 @@
     </row>
     <row r="39" spans="1:22" s="4" customFormat="1">
       <c r="A39" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B39" s="13">
         <v>2</v>
@@ -4368,7 +4375,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H39" s="15"/>
       <c r="I39" s="14"/>
@@ -4394,13 +4401,13 @@
       <c r="Q39" s="14"/>
       <c r="R39" s="13"/>
       <c r="S39" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T39" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="U39" s="14" t="s">
         <v>115</v>
-      </c>
-      <c r="U39" s="14" t="s">
-        <v>116</v>
       </c>
       <c r="V39" s="14">
         <v>0</v>
@@ -4408,7 +4415,7 @@
     </row>
     <row r="40" spans="1:22" s="4" customFormat="1">
       <c r="A40" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B40" s="14">
         <v>2</v>
@@ -4424,7 +4431,7 @@
         <v>0</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H40" s="15"/>
       <c r="I40" s="14"/>
@@ -4450,13 +4457,13 @@
       <c r="Q40" s="14"/>
       <c r="R40" s="14"/>
       <c r="S40" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T40" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="U40" s="14" t="s">
         <v>115</v>
-      </c>
-      <c r="U40" s="14" t="s">
-        <v>116</v>
       </c>
       <c r="V40" s="14">
         <v>0</v>
@@ -4464,7 +4471,7 @@
     </row>
     <row r="41" spans="1:22" s="4" customFormat="1">
       <c r="A41" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B41" s="14">
         <v>2</v>
@@ -4480,7 +4487,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H41" s="15"/>
       <c r="I41" s="14"/>
@@ -4506,13 +4513,13 @@
       <c r="Q41" s="14"/>
       <c r="R41" s="14"/>
       <c r="S41" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T41" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="U41" s="15" t="s">
         <v>124</v>
-      </c>
-      <c r="U41" s="15" t="s">
-        <v>125</v>
       </c>
       <c r="V41" s="14">
         <v>0</v>
@@ -4520,7 +4527,7 @@
     </row>
     <row r="42" spans="1:22" s="4" customFormat="1">
       <c r="A42" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B42" s="13">
         <v>2</v>
@@ -4536,7 +4543,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H42" s="15"/>
       <c r="I42" s="14"/>
@@ -4562,13 +4569,13 @@
       <c r="Q42" s="14"/>
       <c r="R42" s="13"/>
       <c r="S42" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T42" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="U42" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="V42" s="14">
         <v>0</v>
@@ -4576,7 +4583,7 @@
     </row>
     <row r="43" spans="1:22" s="4" customFormat="1">
       <c r="A43" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B43" s="14">
         <v>2</v>
@@ -4592,7 +4599,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H43" s="15"/>
       <c r="I43" s="14"/>
@@ -4618,13 +4625,13 @@
       <c r="Q43" s="14"/>
       <c r="R43" s="14"/>
       <c r="S43" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T43" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="U43" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="V43" s="14">
         <v>0</v>
@@ -4632,7 +4639,7 @@
     </row>
     <row r="44" spans="1:22" s="4" customFormat="1">
       <c r="A44" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B44" s="13">
         <v>2</v>
@@ -4648,7 +4655,7 @@
         <v>0</v>
       </c>
       <c r="G44" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H44" s="15"/>
       <c r="I44" s="14"/>
@@ -4674,13 +4681,13 @@
       <c r="Q44" s="14"/>
       <c r="R44" s="13"/>
       <c r="S44" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T44" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U44" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="V44" s="14">
         <v>0</v>
@@ -4688,7 +4695,7 @@
     </row>
     <row r="45" spans="1:22" s="4" customFormat="1">
       <c r="A45" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B45" s="14">
         <v>2</v>
@@ -4704,7 +4711,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H45" s="15"/>
       <c r="I45" s="14"/>
@@ -4730,13 +4737,13 @@
       <c r="Q45" s="14"/>
       <c r="R45" s="14"/>
       <c r="S45" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T45" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="U45" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="V45" s="14">
         <v>0</v>
@@ -4744,7 +4751,7 @@
     </row>
     <row r="46" spans="1:22" s="4" customFormat="1">
       <c r="A46" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B46" s="13">
         <v>2</v>
@@ -4760,7 +4767,7 @@
         <v>0</v>
       </c>
       <c r="G46" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H46" s="15"/>
       <c r="I46" s="14"/>
@@ -4786,21 +4793,21 @@
       <c r="Q46" s="14"/>
       <c r="R46" s="13"/>
       <c r="S46" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T46" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="U46" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="V46" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" s="5" customFormat="1" ht="299.25">
+      <c r="A47" s="16" t="s">
         <v>135</v>
-      </c>
-      <c r="U46" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="V46" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" s="5" customFormat="1" ht="327.75">
-      <c r="A47" s="16" t="s">
-        <v>136</v>
       </c>
       <c r="B47" s="17">
         <v>2</v>
@@ -4816,12 +4823,12 @@
         <v>0</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H47" s="17"/>
       <c r="I47" s="17"/>
-      <c r="J47" s="40" t="s">
-        <v>290</v>
+      <c r="J47" s="45" t="s">
+        <v>454</v>
       </c>
       <c r="K47" s="17">
         <v>0</v>
@@ -4844,13 +4851,13 @@
       <c r="Q47" s="17"/>
       <c r="R47" s="17"/>
       <c r="S47" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T47" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="U47" s="16" t="s">
         <v>138</v>
-      </c>
-      <c r="U47" s="16" t="s">
-        <v>139</v>
       </c>
       <c r="V47" s="17">
         <v>0</v>
@@ -4858,7 +4865,7 @@
     </row>
     <row r="48" spans="1:22" s="5" customFormat="1">
       <c r="A48" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B48" s="18">
         <v>2</v>
@@ -4874,7 +4881,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H48" s="17"/>
       <c r="I48" s="17"/>
@@ -4900,13 +4907,13 @@
       <c r="Q48" s="17"/>
       <c r="R48" s="18"/>
       <c r="S48" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T48" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="U48" s="16" t="s">
         <v>138</v>
-      </c>
-      <c r="U48" s="16" t="s">
-        <v>139</v>
       </c>
       <c r="V48" s="17">
         <v>0</v>
@@ -4914,7 +4921,7 @@
     </row>
     <row r="49" spans="1:22" s="5" customFormat="1">
       <c r="A49" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B49" s="17">
         <v>2</v>
@@ -4930,7 +4937,7 @@
         <v>0</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H49" s="17"/>
       <c r="I49" s="17"/>
@@ -4956,13 +4963,13 @@
       <c r="Q49" s="17"/>
       <c r="R49" s="17"/>
       <c r="S49" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T49" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="U49" s="16" t="s">
         <v>138</v>
-      </c>
-      <c r="U49" s="16" t="s">
-        <v>139</v>
       </c>
       <c r="V49" s="17">
         <v>0</v>
@@ -4970,7 +4977,7 @@
     </row>
     <row r="50" spans="1:22" s="5" customFormat="1">
       <c r="A50" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B50" s="18">
         <v>2</v>
@@ -4986,7 +4993,7 @@
         <v>0</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H50" s="17"/>
       <c r="I50" s="17"/>
@@ -5012,13 +5019,13 @@
       <c r="Q50" s="17"/>
       <c r="R50" s="18"/>
       <c r="S50" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T50" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="U50" s="16" t="s">
         <v>138</v>
-      </c>
-      <c r="U50" s="16" t="s">
-        <v>139</v>
       </c>
       <c r="V50" s="17">
         <v>0</v>
@@ -5026,7 +5033,7 @@
     </row>
     <row r="51" spans="1:22" s="5" customFormat="1">
       <c r="A51" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B51" s="17">
         <v>2</v>
@@ -5042,7 +5049,7 @@
         <v>0</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
@@ -5068,13 +5075,13 @@
       <c r="Q51" s="17"/>
       <c r="R51" s="17"/>
       <c r="S51" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T51" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="U51" s="16" t="s">
         <v>138</v>
-      </c>
-      <c r="U51" s="16" t="s">
-        <v>139</v>
       </c>
       <c r="V51" s="17">
         <v>0</v>
@@ -5082,7 +5089,7 @@
     </row>
     <row r="52" spans="1:22" s="5" customFormat="1">
       <c r="A52" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B52" s="18">
         <v>2</v>
@@ -5098,7 +5105,7 @@
         <v>0</v>
       </c>
       <c r="G52" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
@@ -5124,13 +5131,13 @@
       <c r="Q52" s="17"/>
       <c r="R52" s="18"/>
       <c r="S52" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T52" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="U52" s="16" t="s">
         <v>138</v>
-      </c>
-      <c r="U52" s="16" t="s">
-        <v>139</v>
       </c>
       <c r="V52" s="17">
         <v>0</v>
@@ -5138,7 +5145,7 @@
     </row>
     <row r="53" spans="1:22" s="5" customFormat="1">
       <c r="A53" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B53" s="17">
         <v>2</v>
@@ -5154,7 +5161,7 @@
         <v>0</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H53" s="17"/>
       <c r="I53" s="17"/>
@@ -5180,13 +5187,13 @@
       <c r="Q53" s="17"/>
       <c r="R53" s="17"/>
       <c r="S53" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T53" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="U53" s="16" t="s">
         <v>138</v>
-      </c>
-      <c r="U53" s="16" t="s">
-        <v>139</v>
       </c>
       <c r="V53" s="17">
         <v>0</v>
@@ -5194,7 +5201,7 @@
     </row>
     <row r="54" spans="1:22" s="5" customFormat="1">
       <c r="A54" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B54" s="18">
         <v>2</v>
@@ -5210,7 +5217,7 @@
         <v>0</v>
       </c>
       <c r="G54" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H54" s="17"/>
       <c r="I54" s="17"/>
@@ -5236,13 +5243,13 @@
       <c r="Q54" s="17"/>
       <c r="R54" s="18"/>
       <c r="S54" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T54" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="U54" s="16" t="s">
         <v>138</v>
-      </c>
-      <c r="U54" s="16" t="s">
-        <v>139</v>
       </c>
       <c r="V54" s="17">
         <v>0</v>
@@ -5250,7 +5257,7 @@
     </row>
     <row r="55" spans="1:22" s="5" customFormat="1">
       <c r="A55" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B55" s="17">
         <v>2</v>
@@ -5266,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H55" s="17"/>
       <c r="I55" s="17"/>
@@ -5292,13 +5299,13 @@
       <c r="Q55" s="17"/>
       <c r="R55" s="17"/>
       <c r="S55" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T55" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="U55" s="16" t="s">
         <v>138</v>
-      </c>
-      <c r="U55" s="16" t="s">
-        <v>139</v>
       </c>
       <c r="V55" s="17">
         <v>0</v>
@@ -5306,7 +5313,7 @@
     </row>
     <row r="56" spans="1:22" s="5" customFormat="1">
       <c r="A56" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B56" s="18">
         <v>2</v>
@@ -5322,7 +5329,7 @@
         <v>0</v>
       </c>
       <c r="G56" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H56" s="17"/>
       <c r="I56" s="17"/>
@@ -5348,13 +5355,13 @@
       <c r="Q56" s="17"/>
       <c r="R56" s="18"/>
       <c r="S56" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T56" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="U56" s="16" t="s">
         <v>138</v>
-      </c>
-      <c r="U56" s="16" t="s">
-        <v>139</v>
       </c>
       <c r="V56" s="17">
         <v>0</v>
@@ -5362,7 +5369,7 @@
     </row>
     <row r="57" spans="1:22" s="5" customFormat="1">
       <c r="A57" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B57" s="17">
         <v>2</v>
@@ -5378,7 +5385,7 @@
         <v>0</v>
       </c>
       <c r="G57" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H57" s="17"/>
       <c r="I57" s="17"/>
@@ -5404,13 +5411,13 @@
       <c r="Q57" s="17"/>
       <c r="R57" s="17"/>
       <c r="S57" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T57" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="U57" s="16" t="s">
         <v>151</v>
-      </c>
-      <c r="U57" s="16" t="s">
-        <v>152</v>
       </c>
       <c r="V57" s="17">
         <v>0</v>
@@ -5418,7 +5425,7 @@
     </row>
     <row r="58" spans="1:22" s="5" customFormat="1">
       <c r="A58" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B58" s="18">
         <v>2</v>
@@ -5434,7 +5441,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H58" s="17"/>
       <c r="I58" s="17"/>
@@ -5460,13 +5467,13 @@
       <c r="Q58" s="17"/>
       <c r="R58" s="18"/>
       <c r="S58" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T58" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="U58" s="16" t="s">
         <v>151</v>
-      </c>
-      <c r="U58" s="16" t="s">
-        <v>152</v>
       </c>
       <c r="V58" s="17">
         <v>0</v>
@@ -5474,7 +5481,7 @@
     </row>
     <row r="59" spans="1:22" s="5" customFormat="1">
       <c r="A59" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B59" s="17">
         <v>2</v>
@@ -5490,7 +5497,7 @@
         <v>0</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H59" s="17"/>
       <c r="I59" s="17"/>
@@ -5516,13 +5523,13 @@
       <c r="Q59" s="17"/>
       <c r="R59" s="17"/>
       <c r="S59" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T59" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="U59" s="16" t="s">
         <v>151</v>
-      </c>
-      <c r="U59" s="16" t="s">
-        <v>152</v>
       </c>
       <c r="V59" s="17">
         <v>0</v>
@@ -5530,7 +5537,7 @@
     </row>
     <row r="60" spans="1:22" s="5" customFormat="1">
       <c r="A60" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B60" s="18">
         <v>2</v>
@@ -5546,7 +5553,7 @@
         <v>0</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H60" s="17"/>
       <c r="I60" s="17"/>
@@ -5572,13 +5579,13 @@
       <c r="Q60" s="17"/>
       <c r="R60" s="18"/>
       <c r="S60" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T60" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="U60" s="16" t="s">
         <v>151</v>
-      </c>
-      <c r="U60" s="16" t="s">
-        <v>152</v>
       </c>
       <c r="V60" s="17">
         <v>0</v>
@@ -5586,7 +5593,7 @@
     </row>
     <row r="61" spans="1:22" s="5" customFormat="1">
       <c r="A61" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B61" s="17">
         <v>2</v>
@@ -5602,7 +5609,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H61" s="20"/>
       <c r="I61" s="20"/>
@@ -5628,13 +5635,13 @@
       <c r="Q61" s="20"/>
       <c r="R61" s="20"/>
       <c r="S61" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T61" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="U61" s="16" t="s">
         <v>151</v>
-      </c>
-      <c r="U61" s="16" t="s">
-        <v>152</v>
       </c>
       <c r="V61" s="20">
         <v>0</v>
@@ -5642,7 +5649,7 @@
     </row>
     <row r="62" spans="1:22" s="5" customFormat="1">
       <c r="A62" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B62" s="18">
         <v>2</v>
@@ -5658,7 +5665,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H62" s="20"/>
       <c r="I62" s="20"/>
@@ -5684,13 +5691,13 @@
       <c r="Q62" s="20"/>
       <c r="R62" s="20"/>
       <c r="S62" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T62" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="U62" s="16" t="s">
         <v>151</v>
-      </c>
-      <c r="U62" s="16" t="s">
-        <v>152</v>
       </c>
       <c r="V62" s="20">
         <v>0</v>
@@ -5698,7 +5705,7 @@
     </row>
     <row r="63" spans="1:22" s="6" customFormat="1">
       <c r="A63" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B63" s="22">
         <v>1</v>
@@ -5714,7 +5721,7 @@
         <v>1</v>
       </c>
       <c r="G63" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H63" s="22"/>
       <c r="I63" s="22"/>
@@ -5740,13 +5747,13 @@
       <c r="Q63" s="22"/>
       <c r="R63" s="22"/>
       <c r="S63" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T63" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="U63" s="22" t="s">
         <v>160</v>
-      </c>
-      <c r="U63" s="22" t="s">
-        <v>161</v>
       </c>
       <c r="V63" s="22">
         <v>0</v>
@@ -5754,7 +5761,7 @@
     </row>
     <row r="64" spans="1:22" s="6" customFormat="1">
       <c r="A64" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B64" s="22">
         <v>1</v>
@@ -5770,7 +5777,7 @@
         <v>2</v>
       </c>
       <c r="G64" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H64" s="22"/>
       <c r="I64" s="22"/>
@@ -5796,13 +5803,13 @@
       <c r="Q64" s="22"/>
       <c r="R64" s="22"/>
       <c r="S64" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T64" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="U64" s="22" t="s">
         <v>160</v>
-      </c>
-      <c r="U64" s="22" t="s">
-        <v>161</v>
       </c>
       <c r="V64" s="22">
         <v>0</v>
@@ -5810,7 +5817,7 @@
     </row>
     <row r="65" spans="1:22" s="6" customFormat="1">
       <c r="A65" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B65" s="22">
         <v>1</v>
@@ -5826,7 +5833,7 @@
         <v>3</v>
       </c>
       <c r="G65" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H65" s="22"/>
       <c r="I65" s="22"/>
@@ -5852,13 +5859,13 @@
       <c r="Q65" s="22"/>
       <c r="R65" s="22"/>
       <c r="S65" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T65" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="U65" s="22" t="s">
         <v>160</v>
-      </c>
-      <c r="U65" s="22" t="s">
-        <v>161</v>
       </c>
       <c r="V65" s="22">
         <v>0</v>
@@ -5866,7 +5873,7 @@
     </row>
     <row r="66" spans="1:22" s="6" customFormat="1">
       <c r="A66" s="22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B66" s="22">
         <v>1</v>
@@ -5882,7 +5889,7 @@
         <v>4</v>
       </c>
       <c r="G66" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H66" s="22"/>
       <c r="I66" s="22"/>
@@ -5908,13 +5915,13 @@
       <c r="Q66" s="22"/>
       <c r="R66" s="22"/>
       <c r="S66" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T66" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="U66" s="22" t="s">
         <v>160</v>
-      </c>
-      <c r="U66" s="22" t="s">
-        <v>161</v>
       </c>
       <c r="V66" s="22">
         <v>0</v>
@@ -5922,7 +5929,7 @@
     </row>
     <row r="67" spans="1:22" s="6" customFormat="1">
       <c r="A67" s="22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B67" s="22">
         <v>1</v>
@@ -5938,7 +5945,7 @@
         <v>5</v>
       </c>
       <c r="G67" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H67" s="22"/>
       <c r="I67" s="22"/>
@@ -5964,13 +5971,13 @@
       <c r="Q67" s="22"/>
       <c r="R67" s="22"/>
       <c r="S67" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T67" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="U67" s="22" t="s">
         <v>160</v>
-      </c>
-      <c r="U67" s="22" t="s">
-        <v>161</v>
       </c>
       <c r="V67" s="22">
         <v>0</v>
@@ -5978,7 +5985,7 @@
     </row>
     <row r="68" spans="1:22" s="6" customFormat="1">
       <c r="A68" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B68" s="22">
         <v>1</v>
@@ -5994,7 +6001,7 @@
         <v>6</v>
       </c>
       <c r="G68" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H68" s="22"/>
       <c r="I68" s="22"/>
@@ -6020,13 +6027,13 @@
       <c r="Q68" s="22"/>
       <c r="R68" s="22"/>
       <c r="S68" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T68" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="U68" s="22" t="s">
         <v>160</v>
-      </c>
-      <c r="U68" s="22" t="s">
-        <v>161</v>
       </c>
       <c r="V68" s="22">
         <v>0</v>
@@ -6034,7 +6041,7 @@
     </row>
     <row r="69" spans="1:22" s="6" customFormat="1">
       <c r="A69" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B69" s="22">
         <v>1</v>
@@ -6050,7 +6057,7 @@
         <v>7</v>
       </c>
       <c r="G69" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H69" s="22"/>
       <c r="I69" s="22"/>
@@ -6076,13 +6083,13 @@
       <c r="Q69" s="22"/>
       <c r="R69" s="22"/>
       <c r="S69" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T69" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="U69" s="22" t="s">
         <v>160</v>
-      </c>
-      <c r="U69" s="22" t="s">
-        <v>161</v>
       </c>
       <c r="V69" s="22">
         <v>0</v>
@@ -6090,7 +6097,7 @@
     </row>
     <row r="70" spans="1:22" s="6" customFormat="1">
       <c r="A70" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B70" s="22">
         <v>1</v>
@@ -6106,7 +6113,7 @@
         <v>8</v>
       </c>
       <c r="G70" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H70" s="22"/>
       <c r="I70" s="22"/>
@@ -6132,13 +6139,13 @@
       <c r="Q70" s="22"/>
       <c r="R70" s="22"/>
       <c r="S70" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T70" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="U70" s="22" t="s">
         <v>160</v>
-      </c>
-      <c r="U70" s="22" t="s">
-        <v>161</v>
       </c>
       <c r="V70" s="22">
         <v>0</v>
@@ -6146,7 +6153,7 @@
     </row>
     <row r="71" spans="1:22" s="6" customFormat="1">
       <c r="A71" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B71" s="22">
         <v>1</v>
@@ -6162,7 +6169,7 @@
         <v>9</v>
       </c>
       <c r="G71" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H71" s="22"/>
       <c r="I71" s="22"/>
@@ -6188,13 +6195,13 @@
       <c r="Q71" s="22"/>
       <c r="R71" s="22"/>
       <c r="S71" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T71" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="U71" s="22" t="s">
         <v>160</v>
-      </c>
-      <c r="U71" s="22" t="s">
-        <v>161</v>
       </c>
       <c r="V71" s="22">
         <v>0</v>
@@ -6202,7 +6209,7 @@
     </row>
     <row r="72" spans="1:22" s="6" customFormat="1">
       <c r="A72" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B72" s="22">
         <v>1</v>
@@ -6218,7 +6225,7 @@
         <v>10</v>
       </c>
       <c r="G72" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H72" s="22"/>
       <c r="I72" s="22"/>
@@ -6244,13 +6251,13 @@
       <c r="Q72" s="22"/>
       <c r="R72" s="22"/>
       <c r="S72" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T72" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="U72" s="22" t="s">
         <v>160</v>
-      </c>
-      <c r="U72" s="22" t="s">
-        <v>161</v>
       </c>
       <c r="V72" s="22">
         <v>0</v>
@@ -6258,7 +6265,7 @@
     </row>
     <row r="73" spans="1:22" s="6" customFormat="1">
       <c r="A73" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B73" s="22">
         <v>1</v>
@@ -6274,7 +6281,7 @@
         <v>1</v>
       </c>
       <c r="G73" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H73" s="22"/>
       <c r="I73" s="22"/>
@@ -6300,13 +6307,13 @@
       <c r="Q73" s="22"/>
       <c r="R73" s="22"/>
       <c r="S73" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T73" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="U73" s="22" t="s">
         <v>173</v>
-      </c>
-      <c r="U73" s="22" t="s">
-        <v>174</v>
       </c>
       <c r="V73" s="22">
         <v>0</v>
@@ -6314,7 +6321,7 @@
     </row>
     <row r="74" spans="1:22" s="6" customFormat="1">
       <c r="A74" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B74" s="22">
         <v>1</v>
@@ -6330,7 +6337,7 @@
         <v>2</v>
       </c>
       <c r="G74" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H74" s="22"/>
       <c r="I74" s="22"/>
@@ -6356,13 +6363,13 @@
       <c r="Q74" s="22"/>
       <c r="R74" s="22"/>
       <c r="S74" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T74" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="U74" s="22" t="s">
         <v>173</v>
-      </c>
-      <c r="U74" s="22" t="s">
-        <v>174</v>
       </c>
       <c r="V74" s="22">
         <v>0</v>
@@ -6370,7 +6377,7 @@
     </row>
     <row r="75" spans="1:22" s="6" customFormat="1">
       <c r="A75" s="22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B75" s="22">
         <v>1</v>
@@ -6386,7 +6393,7 @@
         <v>3</v>
       </c>
       <c r="G75" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H75" s="22"/>
       <c r="I75" s="22"/>
@@ -6412,13 +6419,13 @@
       <c r="Q75" s="22"/>
       <c r="R75" s="22"/>
       <c r="S75" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T75" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="U75" s="22" t="s">
         <v>173</v>
-      </c>
-      <c r="U75" s="22" t="s">
-        <v>174</v>
       </c>
       <c r="V75" s="22">
         <v>0</v>
@@ -6426,7 +6433,7 @@
     </row>
     <row r="76" spans="1:22" s="6" customFormat="1">
       <c r="A76" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B76" s="22">
         <v>1</v>
@@ -6442,7 +6449,7 @@
         <v>4</v>
       </c>
       <c r="G76" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H76" s="22"/>
       <c r="I76" s="22"/>
@@ -6468,13 +6475,13 @@
       <c r="Q76" s="22"/>
       <c r="R76" s="22"/>
       <c r="S76" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T76" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="U76" s="22" t="s">
         <v>173</v>
-      </c>
-      <c r="U76" s="22" t="s">
-        <v>174</v>
       </c>
       <c r="V76" s="22">
         <v>0</v>
@@ -6482,7 +6489,7 @@
     </row>
     <row r="77" spans="1:22" s="6" customFormat="1">
       <c r="A77" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B77" s="22">
         <v>1</v>
@@ -6498,7 +6505,7 @@
         <v>5</v>
       </c>
       <c r="G77" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H77" s="22"/>
       <c r="I77" s="22"/>
@@ -6524,13 +6531,13 @@
       <c r="Q77" s="22"/>
       <c r="R77" s="22"/>
       <c r="S77" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T77" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="U77" s="22" t="s">
         <v>173</v>
-      </c>
-      <c r="U77" s="22" t="s">
-        <v>174</v>
       </c>
       <c r="V77" s="22">
         <v>0</v>
@@ -6538,7 +6545,7 @@
     </row>
     <row r="78" spans="1:22" s="6" customFormat="1">
       <c r="A78" s="22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B78" s="22">
         <v>1</v>
@@ -6554,7 +6561,7 @@
         <v>6</v>
       </c>
       <c r="G78" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H78" s="22"/>
       <c r="I78" s="22"/>
@@ -6580,13 +6587,13 @@
       <c r="Q78" s="22"/>
       <c r="R78" s="22"/>
       <c r="S78" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T78" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="U78" s="22" t="s">
         <v>173</v>
-      </c>
-      <c r="U78" s="22" t="s">
-        <v>174</v>
       </c>
       <c r="V78" s="22">
         <v>0</v>
@@ -6594,7 +6601,7 @@
     </row>
     <row r="79" spans="1:22" s="6" customFormat="1">
       <c r="A79" s="22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B79" s="22">
         <v>1</v>
@@ -6610,7 +6617,7 @@
         <v>7</v>
       </c>
       <c r="G79" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H79" s="22"/>
       <c r="I79" s="22"/>
@@ -6636,13 +6643,13 @@
       <c r="Q79" s="22"/>
       <c r="R79" s="22"/>
       <c r="S79" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T79" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="U79" s="22" t="s">
         <v>173</v>
-      </c>
-      <c r="U79" s="22" t="s">
-        <v>174</v>
       </c>
       <c r="V79" s="22">
         <v>0</v>
@@ -6650,7 +6657,7 @@
     </row>
     <row r="80" spans="1:22" s="6" customFormat="1">
       <c r="A80" s="22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B80" s="22">
         <v>1</v>
@@ -6666,7 +6673,7 @@
         <v>8</v>
       </c>
       <c r="G80" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H80" s="22"/>
       <c r="I80" s="22"/>
@@ -6692,13 +6699,13 @@
       <c r="Q80" s="22"/>
       <c r="R80" s="22"/>
       <c r="S80" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T80" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="U80" s="22" t="s">
         <v>173</v>
-      </c>
-      <c r="U80" s="22" t="s">
-        <v>174</v>
       </c>
       <c r="V80" s="22">
         <v>0</v>
@@ -6706,7 +6713,7 @@
     </row>
     <row r="81" spans="1:22" s="6" customFormat="1">
       <c r="A81" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B81" s="22">
         <v>1</v>
@@ -6722,7 +6729,7 @@
         <v>9</v>
       </c>
       <c r="G81" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H81" s="22"/>
       <c r="I81" s="22"/>
@@ -6748,13 +6755,13 @@
       <c r="Q81" s="22"/>
       <c r="R81" s="22"/>
       <c r="S81" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T81" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="U81" s="22" t="s">
         <v>173</v>
-      </c>
-      <c r="U81" s="22" t="s">
-        <v>174</v>
       </c>
       <c r="V81" s="22">
         <v>0</v>
@@ -6762,7 +6769,7 @@
     </row>
     <row r="82" spans="1:22" s="6" customFormat="1">
       <c r="A82" s="22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B82" s="22">
         <v>1</v>
@@ -6778,7 +6785,7 @@
         <v>10</v>
       </c>
       <c r="G82" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H82" s="22"/>
       <c r="I82" s="22"/>
@@ -6804,13 +6811,13 @@
       <c r="Q82" s="22"/>
       <c r="R82" s="22"/>
       <c r="S82" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T82" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="U82" s="22" t="s">
         <v>173</v>
-      </c>
-      <c r="U82" s="22" t="s">
-        <v>174</v>
       </c>
       <c r="V82" s="22">
         <v>0</v>
@@ -6818,7 +6825,7 @@
     </row>
     <row r="83" spans="1:22" s="6" customFormat="1">
       <c r="A83" s="22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B83" s="22">
         <v>1</v>
@@ -6834,7 +6841,7 @@
         <v>1</v>
       </c>
       <c r="G83" s="22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H83" s="22"/>
       <c r="I83" s="22"/>
@@ -6860,13 +6867,13 @@
       <c r="Q83" s="22"/>
       <c r="R83" s="22"/>
       <c r="S83" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T83" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="U83" s="22" t="s">
         <v>186</v>
-      </c>
-      <c r="U83" s="22" t="s">
-        <v>187</v>
       </c>
       <c r="V83" s="22">
         <v>0</v>
@@ -6874,7 +6881,7 @@
     </row>
     <row r="84" spans="1:22" s="6" customFormat="1">
       <c r="A84" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B84" s="22">
         <v>1</v>
@@ -6890,7 +6897,7 @@
         <v>2</v>
       </c>
       <c r="G84" s="22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H84" s="22"/>
       <c r="I84" s="22"/>
@@ -6916,13 +6923,13 @@
       <c r="Q84" s="22"/>
       <c r="R84" s="22"/>
       <c r="S84" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T84" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="U84" s="22" t="s">
         <v>186</v>
-      </c>
-      <c r="U84" s="22" t="s">
-        <v>187</v>
       </c>
       <c r="V84" s="22">
         <v>0</v>
@@ -6930,7 +6937,7 @@
     </row>
     <row r="85" spans="1:22" s="6" customFormat="1">
       <c r="A85" s="22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B85" s="22">
         <v>1</v>
@@ -6946,7 +6953,7 @@
         <v>3</v>
       </c>
       <c r="G85" s="22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H85" s="22"/>
       <c r="I85" s="22"/>
@@ -6972,13 +6979,13 @@
       <c r="Q85" s="22"/>
       <c r="R85" s="22"/>
       <c r="S85" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T85" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="U85" s="22" t="s">
         <v>186</v>
-      </c>
-      <c r="U85" s="22" t="s">
-        <v>187</v>
       </c>
       <c r="V85" s="22">
         <v>0</v>
@@ -6986,7 +6993,7 @@
     </row>
     <row r="86" spans="1:22" s="6" customFormat="1">
       <c r="A86" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B86" s="22">
         <v>1</v>
@@ -7002,7 +7009,7 @@
         <v>4</v>
       </c>
       <c r="G86" s="22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H86" s="22"/>
       <c r="I86" s="22"/>
@@ -7028,13 +7035,13 @@
       <c r="Q86" s="22"/>
       <c r="R86" s="22"/>
       <c r="S86" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T86" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="U86" s="22" t="s">
         <v>186</v>
-      </c>
-      <c r="U86" s="22" t="s">
-        <v>187</v>
       </c>
       <c r="V86" s="22">
         <v>0</v>
@@ -7042,7 +7049,7 @@
     </row>
     <row r="87" spans="1:22" s="6" customFormat="1">
       <c r="A87" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B87" s="22">
         <v>1</v>
@@ -7058,7 +7065,7 @@
         <v>5</v>
       </c>
       <c r="G87" s="22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H87" s="22"/>
       <c r="I87" s="22"/>
@@ -7084,13 +7091,13 @@
       <c r="Q87" s="22"/>
       <c r="R87" s="22"/>
       <c r="S87" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T87" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="U87" s="22" t="s">
         <v>186</v>
-      </c>
-      <c r="U87" s="22" t="s">
-        <v>187</v>
       </c>
       <c r="V87" s="22">
         <v>0</v>
@@ -7098,7 +7105,7 @@
     </row>
     <row r="88" spans="1:22" s="6" customFormat="1">
       <c r="A88" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B88" s="22">
         <v>1</v>
@@ -7114,7 +7121,7 @@
         <v>6</v>
       </c>
       <c r="G88" s="22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H88" s="22"/>
       <c r="I88" s="22"/>
@@ -7140,13 +7147,13 @@
       <c r="Q88" s="22"/>
       <c r="R88" s="22"/>
       <c r="S88" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T88" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="U88" s="22" t="s">
         <v>186</v>
-      </c>
-      <c r="U88" s="22" t="s">
-        <v>187</v>
       </c>
       <c r="V88" s="22">
         <v>0</v>
@@ -7154,7 +7161,7 @@
     </row>
     <row r="89" spans="1:22" s="6" customFormat="1">
       <c r="A89" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B89" s="22">
         <v>1</v>
@@ -7170,7 +7177,7 @@
         <v>7</v>
       </c>
       <c r="G89" s="22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H89" s="22"/>
       <c r="I89" s="22"/>
@@ -7196,13 +7203,13 @@
       <c r="Q89" s="22"/>
       <c r="R89" s="22"/>
       <c r="S89" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T89" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="U89" s="22" t="s">
         <v>186</v>
-      </c>
-      <c r="U89" s="22" t="s">
-        <v>187</v>
       </c>
       <c r="V89" s="22">
         <v>0</v>
@@ -7210,7 +7217,7 @@
     </row>
     <row r="90" spans="1:22" s="6" customFormat="1">
       <c r="A90" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B90" s="22">
         <v>1</v>
@@ -7226,7 +7233,7 @@
         <v>8</v>
       </c>
       <c r="G90" s="22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H90" s="22"/>
       <c r="I90" s="22"/>
@@ -7252,13 +7259,13 @@
       <c r="Q90" s="22"/>
       <c r="R90" s="22"/>
       <c r="S90" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T90" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="U90" s="22" t="s">
         <v>186</v>
-      </c>
-      <c r="U90" s="22" t="s">
-        <v>187</v>
       </c>
       <c r="V90" s="22">
         <v>0</v>
@@ -7266,7 +7273,7 @@
     </row>
     <row r="91" spans="1:22" s="6" customFormat="1">
       <c r="A91" s="22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B91" s="22">
         <v>1</v>
@@ -7282,7 +7289,7 @@
         <v>9</v>
       </c>
       <c r="G91" s="22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H91" s="22"/>
       <c r="I91" s="22"/>
@@ -7308,13 +7315,13 @@
       <c r="Q91" s="22"/>
       <c r="R91" s="22"/>
       <c r="S91" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T91" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="U91" s="22" t="s">
         <v>186</v>
-      </c>
-      <c r="U91" s="22" t="s">
-        <v>187</v>
       </c>
       <c r="V91" s="22">
         <v>0</v>
@@ -7322,7 +7329,7 @@
     </row>
     <row r="92" spans="1:22" s="6" customFormat="1">
       <c r="A92" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B92" s="22">
         <v>1</v>
@@ -7338,7 +7345,7 @@
         <v>10</v>
       </c>
       <c r="G92" s="22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H92" s="22"/>
       <c r="I92" s="22"/>
@@ -7364,13 +7371,13 @@
       <c r="Q92" s="22"/>
       <c r="R92" s="22"/>
       <c r="S92" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T92" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="U92" s="22" t="s">
         <v>186</v>
-      </c>
-      <c r="U92" s="22" t="s">
-        <v>187</v>
       </c>
       <c r="V92" s="22">
         <v>0</v>
@@ -7378,7 +7385,7 @@
     </row>
     <row r="93" spans="1:22" s="6" customFormat="1">
       <c r="A93" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B93" s="22">
         <v>1</v>
@@ -7394,7 +7401,7 @@
         <v>1</v>
       </c>
       <c r="G93" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H93" s="22"/>
       <c r="I93" s="22"/>
@@ -7420,13 +7427,13 @@
       <c r="Q93" s="22"/>
       <c r="R93" s="22"/>
       <c r="S93" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T93" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="U93" s="22" t="s">
         <v>199</v>
-      </c>
-      <c r="U93" s="22" t="s">
-        <v>200</v>
       </c>
       <c r="V93" s="22">
         <v>0</v>
@@ -7434,7 +7441,7 @@
     </row>
     <row r="94" spans="1:22" s="6" customFormat="1">
       <c r="A94" s="22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B94" s="22">
         <v>1</v>
@@ -7450,7 +7457,7 @@
         <v>2</v>
       </c>
       <c r="G94" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H94" s="22"/>
       <c r="I94" s="22"/>
@@ -7476,13 +7483,13 @@
       <c r="Q94" s="22"/>
       <c r="R94" s="22"/>
       <c r="S94" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T94" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="U94" s="22" t="s">
         <v>199</v>
-      </c>
-      <c r="U94" s="22" t="s">
-        <v>200</v>
       </c>
       <c r="V94" s="22">
         <v>0</v>
@@ -7490,7 +7497,7 @@
     </row>
     <row r="95" spans="1:22" s="6" customFormat="1">
       <c r="A95" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B95" s="22">
         <v>1</v>
@@ -7506,7 +7513,7 @@
         <v>3</v>
       </c>
       <c r="G95" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H95" s="22"/>
       <c r="I95" s="22"/>
@@ -7532,13 +7539,13 @@
       <c r="Q95" s="22"/>
       <c r="R95" s="22"/>
       <c r="S95" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T95" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="U95" s="22" t="s">
         <v>199</v>
-      </c>
-      <c r="U95" s="22" t="s">
-        <v>200</v>
       </c>
       <c r="V95" s="22">
         <v>0</v>
@@ -7546,7 +7553,7 @@
     </row>
     <row r="96" spans="1:22" s="6" customFormat="1">
       <c r="A96" s="22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B96" s="22">
         <v>1</v>
@@ -7562,7 +7569,7 @@
         <v>4</v>
       </c>
       <c r="G96" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H96" s="22"/>
       <c r="I96" s="22"/>
@@ -7588,13 +7595,13 @@
       <c r="Q96" s="22"/>
       <c r="R96" s="22"/>
       <c r="S96" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T96" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="U96" s="22" t="s">
         <v>199</v>
-      </c>
-      <c r="U96" s="22" t="s">
-        <v>200</v>
       </c>
       <c r="V96" s="22">
         <v>0</v>
@@ -7602,7 +7609,7 @@
     </row>
     <row r="97" spans="1:22" s="6" customFormat="1">
       <c r="A97" s="22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B97" s="22">
         <v>1</v>
@@ -7618,7 +7625,7 @@
         <v>5</v>
       </c>
       <c r="G97" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H97" s="22"/>
       <c r="I97" s="22"/>
@@ -7644,13 +7651,13 @@
       <c r="Q97" s="22"/>
       <c r="R97" s="22"/>
       <c r="S97" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T97" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="U97" s="22" t="s">
         <v>199</v>
-      </c>
-      <c r="U97" s="22" t="s">
-        <v>200</v>
       </c>
       <c r="V97" s="22">
         <v>0</v>
@@ -7658,7 +7665,7 @@
     </row>
     <row r="98" spans="1:22" s="6" customFormat="1">
       <c r="A98" s="22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B98" s="22">
         <v>1</v>
@@ -7674,7 +7681,7 @@
         <v>6</v>
       </c>
       <c r="G98" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H98" s="22"/>
       <c r="I98" s="22"/>
@@ -7700,13 +7707,13 @@
       <c r="Q98" s="22"/>
       <c r="R98" s="22"/>
       <c r="S98" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T98" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="U98" s="22" t="s">
         <v>199</v>
-      </c>
-      <c r="U98" s="22" t="s">
-        <v>200</v>
       </c>
       <c r="V98" s="22">
         <v>0</v>
@@ -7714,7 +7721,7 @@
     </row>
     <row r="99" spans="1:22" s="6" customFormat="1">
       <c r="A99" s="22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B99" s="22">
         <v>1</v>
@@ -7730,7 +7737,7 @@
         <v>7</v>
       </c>
       <c r="G99" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H99" s="22"/>
       <c r="I99" s="22"/>
@@ -7756,13 +7763,13 @@
       <c r="Q99" s="22"/>
       <c r="R99" s="22"/>
       <c r="S99" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T99" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="U99" s="22" t="s">
         <v>199</v>
-      </c>
-      <c r="U99" s="22" t="s">
-        <v>200</v>
       </c>
       <c r="V99" s="22">
         <v>0</v>
@@ -7770,7 +7777,7 @@
     </row>
     <row r="100" spans="1:22" s="6" customFormat="1">
       <c r="A100" s="22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B100" s="22">
         <v>1</v>
@@ -7786,7 +7793,7 @@
         <v>8</v>
       </c>
       <c r="G100" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H100" s="22"/>
       <c r="I100" s="22"/>
@@ -7812,13 +7819,13 @@
       <c r="Q100" s="22"/>
       <c r="R100" s="22"/>
       <c r="S100" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T100" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="U100" s="22" t="s">
         <v>199</v>
-      </c>
-      <c r="U100" s="22" t="s">
-        <v>200</v>
       </c>
       <c r="V100" s="22">
         <v>0</v>
@@ -7826,7 +7833,7 @@
     </row>
     <row r="101" spans="1:22" s="6" customFormat="1">
       <c r="A101" s="22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B101" s="22">
         <v>1</v>
@@ -7842,7 +7849,7 @@
         <v>9</v>
       </c>
       <c r="G101" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H101" s="22"/>
       <c r="I101" s="22"/>
@@ -7868,13 +7875,13 @@
       <c r="Q101" s="22"/>
       <c r="R101" s="22"/>
       <c r="S101" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T101" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="U101" s="22" t="s">
         <v>199</v>
-      </c>
-      <c r="U101" s="22" t="s">
-        <v>200</v>
       </c>
       <c r="V101" s="22">
         <v>0</v>
@@ -7882,7 +7889,7 @@
     </row>
     <row r="102" spans="1:22" s="6" customFormat="1">
       <c r="A102" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B102" s="22">
         <v>1</v>
@@ -7898,7 +7905,7 @@
         <v>10</v>
       </c>
       <c r="G102" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H102" s="22"/>
       <c r="I102" s="22"/>
@@ -7924,13 +7931,13 @@
       <c r="Q102" s="22"/>
       <c r="R102" s="22"/>
       <c r="S102" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T102" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="U102" s="22" t="s">
         <v>199</v>
-      </c>
-      <c r="U102" s="22" t="s">
-        <v>200</v>
       </c>
       <c r="V102" s="22">
         <v>0</v>
@@ -7938,7 +7945,7 @@
     </row>
     <row r="103" spans="1:22" s="7" customFormat="1">
       <c r="A103" s="23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B103" s="23">
         <v>1</v>
@@ -7954,7 +7961,7 @@
         <v>1</v>
       </c>
       <c r="G103" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H103" s="23"/>
       <c r="I103" s="23"/>
@@ -7980,13 +7987,13 @@
       <c r="Q103" s="23"/>
       <c r="R103" s="22"/>
       <c r="S103" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T103" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="U103" s="23" t="s">
         <v>212</v>
-      </c>
-      <c r="U103" s="23" t="s">
-        <v>213</v>
       </c>
       <c r="V103" s="23">
         <v>0</v>
@@ -7994,7 +8001,7 @@
     </row>
     <row r="104" spans="1:22" s="7" customFormat="1">
       <c r="A104" s="23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B104" s="23">
         <v>1</v>
@@ -8010,7 +8017,7 @@
         <v>2</v>
       </c>
       <c r="G104" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H104" s="23"/>
       <c r="I104" s="23"/>
@@ -8036,13 +8043,13 @@
       <c r="Q104" s="23"/>
       <c r="R104" s="22"/>
       <c r="S104" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T104" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="U104" s="23" t="s">
         <v>212</v>
-      </c>
-      <c r="U104" s="23" t="s">
-        <v>213</v>
       </c>
       <c r="V104" s="23">
         <v>0</v>
@@ -8050,7 +8057,7 @@
     </row>
     <row r="105" spans="1:22" s="7" customFormat="1">
       <c r="A105" s="23" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B105" s="23">
         <v>1</v>
@@ -8066,7 +8073,7 @@
         <v>3</v>
       </c>
       <c r="G105" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H105" s="23"/>
       <c r="I105" s="23"/>
@@ -8092,13 +8099,13 @@
       <c r="Q105" s="23"/>
       <c r="R105" s="22"/>
       <c r="S105" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T105" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="U105" s="23" t="s">
         <v>212</v>
-      </c>
-      <c r="U105" s="23" t="s">
-        <v>213</v>
       </c>
       <c r="V105" s="23">
         <v>0</v>
@@ -8106,7 +8113,7 @@
     </row>
     <row r="106" spans="1:22" s="7" customFormat="1">
       <c r="A106" s="23" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B106" s="23">
         <v>1</v>
@@ -8122,7 +8129,7 @@
         <v>4</v>
       </c>
       <c r="G106" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H106" s="23"/>
       <c r="I106" s="23"/>
@@ -8148,13 +8155,13 @@
       <c r="Q106" s="23"/>
       <c r="R106" s="22"/>
       <c r="S106" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T106" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="U106" s="23" t="s">
         <v>212</v>
-      </c>
-      <c r="U106" s="23" t="s">
-        <v>213</v>
       </c>
       <c r="V106" s="23">
         <v>0</v>
@@ -8162,7 +8169,7 @@
     </row>
     <row r="107" spans="1:22" s="7" customFormat="1">
       <c r="A107" s="23" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B107" s="23">
         <v>1</v>
@@ -8178,7 +8185,7 @@
         <v>5</v>
       </c>
       <c r="G107" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H107" s="23"/>
       <c r="I107" s="23"/>
@@ -8204,13 +8211,13 @@
       <c r="Q107" s="23"/>
       <c r="R107" s="22"/>
       <c r="S107" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T107" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="U107" s="23" t="s">
         <v>212</v>
-      </c>
-      <c r="U107" s="23" t="s">
-        <v>213</v>
       </c>
       <c r="V107" s="23">
         <v>0</v>
@@ -8218,7 +8225,7 @@
     </row>
     <row r="108" spans="1:22" s="7" customFormat="1">
       <c r="A108" s="23" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B108" s="23">
         <v>1</v>
@@ -8234,7 +8241,7 @@
         <v>6</v>
       </c>
       <c r="G108" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H108" s="23"/>
       <c r="I108" s="23"/>
@@ -8260,13 +8267,13 @@
       <c r="Q108" s="23"/>
       <c r="R108" s="22"/>
       <c r="S108" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T108" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="U108" s="23" t="s">
         <v>212</v>
-      </c>
-      <c r="U108" s="23" t="s">
-        <v>213</v>
       </c>
       <c r="V108" s="23">
         <v>0</v>
@@ -8274,7 +8281,7 @@
     </row>
     <row r="109" spans="1:22" s="7" customFormat="1">
       <c r="A109" s="23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B109" s="23">
         <v>1</v>
@@ -8290,7 +8297,7 @@
         <v>7</v>
       </c>
       <c r="G109" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H109" s="23"/>
       <c r="I109" s="23"/>
@@ -8316,13 +8323,13 @@
       <c r="Q109" s="23"/>
       <c r="R109" s="22"/>
       <c r="S109" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T109" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="U109" s="23" t="s">
         <v>212</v>
-      </c>
-      <c r="U109" s="23" t="s">
-        <v>213</v>
       </c>
       <c r="V109" s="23">
         <v>0</v>
@@ -8330,7 +8337,7 @@
     </row>
     <row r="110" spans="1:22" s="7" customFormat="1">
       <c r="A110" s="23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B110" s="23">
         <v>1</v>
@@ -8346,7 +8353,7 @@
         <v>8</v>
       </c>
       <c r="G110" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H110" s="23"/>
       <c r="I110" s="23"/>
@@ -8372,13 +8379,13 @@
       <c r="Q110" s="23"/>
       <c r="R110" s="22"/>
       <c r="S110" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T110" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="U110" s="23" t="s">
         <v>212</v>
-      </c>
-      <c r="U110" s="23" t="s">
-        <v>213</v>
       </c>
       <c r="V110" s="23">
         <v>0</v>
@@ -8386,7 +8393,7 @@
     </row>
     <row r="111" spans="1:22" s="7" customFormat="1">
       <c r="A111" s="23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B111" s="23">
         <v>1</v>
@@ -8402,7 +8409,7 @@
         <v>9</v>
       </c>
       <c r="G111" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H111" s="23"/>
       <c r="I111" s="23"/>
@@ -8428,13 +8435,13 @@
       <c r="Q111" s="23"/>
       <c r="R111" s="22"/>
       <c r="S111" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T111" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="U111" s="23" t="s">
         <v>212</v>
-      </c>
-      <c r="U111" s="23" t="s">
-        <v>213</v>
       </c>
       <c r="V111" s="23">
         <v>0</v>
@@ -8442,7 +8449,7 @@
     </row>
     <row r="112" spans="1:22" s="7" customFormat="1">
       <c r="A112" s="23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B112" s="23">
         <v>1</v>
@@ -8458,7 +8465,7 @@
         <v>10</v>
       </c>
       <c r="G112" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H112" s="23"/>
       <c r="I112" s="23"/>
@@ -8484,13 +8491,13 @@
       <c r="Q112" s="23"/>
       <c r="R112" s="22"/>
       <c r="S112" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T112" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="U112" s="23" t="s">
         <v>212</v>
-      </c>
-      <c r="U112" s="23" t="s">
-        <v>213</v>
       </c>
       <c r="V112" s="23">
         <v>0</v>
@@ -8498,7 +8505,7 @@
     </row>
     <row r="113" spans="1:22" s="6" customFormat="1">
       <c r="A113" s="22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B113" s="22">
         <v>1</v>
@@ -8514,7 +8521,7 @@
         <v>1</v>
       </c>
       <c r="G113" s="22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H113" s="22"/>
       <c r="I113" s="22"/>
@@ -8540,13 +8547,13 @@
       <c r="Q113" s="22"/>
       <c r="R113" s="22"/>
       <c r="S113" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T113" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="U113" s="22" t="s">
         <v>225</v>
-      </c>
-      <c r="U113" s="22" t="s">
-        <v>226</v>
       </c>
       <c r="V113" s="22">
         <v>0</v>
@@ -8554,7 +8561,7 @@
     </row>
     <row r="114" spans="1:22" s="6" customFormat="1">
       <c r="A114" s="22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B114" s="22">
         <v>1</v>
@@ -8570,7 +8577,7 @@
         <v>2</v>
       </c>
       <c r="G114" s="22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H114" s="22"/>
       <c r="I114" s="22"/>
@@ -8596,13 +8603,13 @@
       <c r="Q114" s="22"/>
       <c r="R114" s="22"/>
       <c r="S114" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T114" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="U114" s="22" t="s">
         <v>225</v>
-      </c>
-      <c r="U114" s="22" t="s">
-        <v>226</v>
       </c>
       <c r="V114" s="22">
         <v>0</v>
@@ -8610,7 +8617,7 @@
     </row>
     <row r="115" spans="1:22" s="6" customFormat="1">
       <c r="A115" s="22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B115" s="22">
         <v>1</v>
@@ -8626,7 +8633,7 @@
         <v>3</v>
       </c>
       <c r="G115" s="22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H115" s="22"/>
       <c r="I115" s="22"/>
@@ -8652,13 +8659,13 @@
       <c r="Q115" s="22"/>
       <c r="R115" s="22"/>
       <c r="S115" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T115" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="U115" s="22" t="s">
         <v>225</v>
-      </c>
-      <c r="U115" s="22" t="s">
-        <v>226</v>
       </c>
       <c r="V115" s="22">
         <v>0</v>
@@ -8666,7 +8673,7 @@
     </row>
     <row r="116" spans="1:22" s="6" customFormat="1">
       <c r="A116" s="22" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B116" s="22">
         <v>1</v>
@@ -8682,7 +8689,7 @@
         <v>4</v>
       </c>
       <c r="G116" s="22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H116" s="22"/>
       <c r="I116" s="22"/>
@@ -8708,13 +8715,13 @@
       <c r="Q116" s="22"/>
       <c r="R116" s="22"/>
       <c r="S116" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T116" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="U116" s="22" t="s">
         <v>225</v>
-      </c>
-      <c r="U116" s="22" t="s">
-        <v>226</v>
       </c>
       <c r="V116" s="22">
         <v>0</v>
@@ -8722,7 +8729,7 @@
     </row>
     <row r="117" spans="1:22" s="6" customFormat="1">
       <c r="A117" s="22" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B117" s="22">
         <v>1</v>
@@ -8738,7 +8745,7 @@
         <v>5</v>
       </c>
       <c r="G117" s="22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H117" s="22"/>
       <c r="I117" s="22"/>
@@ -8764,13 +8771,13 @@
       <c r="Q117" s="22"/>
       <c r="R117" s="22"/>
       <c r="S117" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T117" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="U117" s="22" t="s">
         <v>225</v>
-      </c>
-      <c r="U117" s="22" t="s">
-        <v>226</v>
       </c>
       <c r="V117" s="22">
         <v>0</v>
@@ -8778,7 +8785,7 @@
     </row>
     <row r="118" spans="1:22" s="6" customFormat="1">
       <c r="A118" s="22" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B118" s="22">
         <v>1</v>
@@ -8794,7 +8801,7 @@
         <v>6</v>
       </c>
       <c r="G118" s="22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H118" s="22"/>
       <c r="I118" s="22"/>
@@ -8820,13 +8827,13 @@
       <c r="Q118" s="22"/>
       <c r="R118" s="22"/>
       <c r="S118" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T118" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="U118" s="22" t="s">
         <v>225</v>
-      </c>
-      <c r="U118" s="22" t="s">
-        <v>226</v>
       </c>
       <c r="V118" s="22">
         <v>0</v>
@@ -8834,7 +8841,7 @@
     </row>
     <row r="119" spans="1:22" s="6" customFormat="1">
       <c r="A119" s="22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B119" s="22">
         <v>1</v>
@@ -8850,7 +8857,7 @@
         <v>7</v>
       </c>
       <c r="G119" s="22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H119" s="22"/>
       <c r="I119" s="22"/>
@@ -8876,13 +8883,13 @@
       <c r="Q119" s="22"/>
       <c r="R119" s="22"/>
       <c r="S119" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T119" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="U119" s="22" t="s">
         <v>225</v>
-      </c>
-      <c r="U119" s="22" t="s">
-        <v>226</v>
       </c>
       <c r="V119" s="22">
         <v>0</v>
@@ -8890,7 +8897,7 @@
     </row>
     <row r="120" spans="1:22" s="6" customFormat="1">
       <c r="A120" s="22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B120" s="22">
         <v>1</v>
@@ -8906,7 +8913,7 @@
         <v>8</v>
       </c>
       <c r="G120" s="22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H120" s="22"/>
       <c r="I120" s="22"/>
@@ -8932,13 +8939,13 @@
       <c r="Q120" s="22"/>
       <c r="R120" s="22"/>
       <c r="S120" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T120" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="U120" s="22" t="s">
         <v>225</v>
-      </c>
-      <c r="U120" s="22" t="s">
-        <v>226</v>
       </c>
       <c r="V120" s="22">
         <v>0</v>
@@ -8946,7 +8953,7 @@
     </row>
     <row r="121" spans="1:22" s="6" customFormat="1">
       <c r="A121" s="22" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B121" s="22">
         <v>1</v>
@@ -8962,7 +8969,7 @@
         <v>9</v>
       </c>
       <c r="G121" s="22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H121" s="22"/>
       <c r="I121" s="22"/>
@@ -8988,13 +8995,13 @@
       <c r="Q121" s="22"/>
       <c r="R121" s="22"/>
       <c r="S121" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T121" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="U121" s="22" t="s">
         <v>225</v>
-      </c>
-      <c r="U121" s="22" t="s">
-        <v>226</v>
       </c>
       <c r="V121" s="22">
         <v>0</v>
@@ -9002,7 +9009,7 @@
     </row>
     <row r="122" spans="1:22" s="6" customFormat="1">
       <c r="A122" s="22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B122" s="22">
         <v>1</v>
@@ -9018,7 +9025,7 @@
         <v>10</v>
       </c>
       <c r="G122" s="22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H122" s="22"/>
       <c r="I122" s="22"/>
@@ -9044,13 +9051,13 @@
       <c r="Q122" s="22"/>
       <c r="R122" s="22"/>
       <c r="S122" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T122" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="U122" s="22" t="s">
         <v>225</v>
-      </c>
-      <c r="U122" s="22" t="s">
-        <v>226</v>
       </c>
       <c r="V122" s="22">
         <v>0</v>
@@ -9058,7 +9065,7 @@
     </row>
     <row r="123" spans="1:22" s="6" customFormat="1">
       <c r="A123" s="22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B123" s="22">
         <v>1</v>
@@ -9074,7 +9081,7 @@
         <v>1</v>
       </c>
       <c r="G123" s="22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H123" s="22"/>
       <c r="I123" s="22"/>
@@ -9100,13 +9107,13 @@
       <c r="Q123" s="22"/>
       <c r="R123" s="22"/>
       <c r="S123" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T123" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="U123" s="22" t="s">
         <v>238</v>
-      </c>
-      <c r="U123" s="22" t="s">
-        <v>239</v>
       </c>
       <c r="V123" s="22">
         <v>0</v>
@@ -9114,7 +9121,7 @@
     </row>
     <row r="124" spans="1:22" s="6" customFormat="1">
       <c r="A124" s="22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B124" s="22">
         <v>1</v>
@@ -9130,7 +9137,7 @@
         <v>2</v>
       </c>
       <c r="G124" s="22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H124" s="22"/>
       <c r="I124" s="22"/>
@@ -9156,13 +9163,13 @@
       <c r="Q124" s="22"/>
       <c r="R124" s="22"/>
       <c r="S124" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T124" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="U124" s="22" t="s">
         <v>238</v>
-      </c>
-      <c r="U124" s="22" t="s">
-        <v>239</v>
       </c>
       <c r="V124" s="22">
         <v>0</v>
@@ -9170,7 +9177,7 @@
     </row>
     <row r="125" spans="1:22" s="6" customFormat="1">
       <c r="A125" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B125" s="22">
         <v>1</v>
@@ -9186,7 +9193,7 @@
         <v>3</v>
       </c>
       <c r="G125" s="22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H125" s="22"/>
       <c r="I125" s="22"/>
@@ -9212,13 +9219,13 @@
       <c r="Q125" s="22"/>
       <c r="R125" s="22"/>
       <c r="S125" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T125" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="U125" s="22" t="s">
         <v>238</v>
-      </c>
-      <c r="U125" s="22" t="s">
-        <v>239</v>
       </c>
       <c r="V125" s="22">
         <v>0</v>
@@ -9226,7 +9233,7 @@
     </row>
     <row r="126" spans="1:22" s="6" customFormat="1">
       <c r="A126" s="22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B126" s="22">
         <v>1</v>
@@ -9242,7 +9249,7 @@
         <v>4</v>
       </c>
       <c r="G126" s="22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H126" s="22"/>
       <c r="I126" s="22"/>
@@ -9268,13 +9275,13 @@
       <c r="Q126" s="22"/>
       <c r="R126" s="22"/>
       <c r="S126" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T126" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="U126" s="22" t="s">
         <v>238</v>
-      </c>
-      <c r="U126" s="22" t="s">
-        <v>239</v>
       </c>
       <c r="V126" s="22">
         <v>0</v>
@@ -9282,7 +9289,7 @@
     </row>
     <row r="127" spans="1:22" s="6" customFormat="1">
       <c r="A127" s="22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B127" s="22">
         <v>1</v>
@@ -9298,7 +9305,7 @@
         <v>5</v>
       </c>
       <c r="G127" s="22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H127" s="22"/>
       <c r="I127" s="22"/>
@@ -9324,13 +9331,13 @@
       <c r="Q127" s="22"/>
       <c r="R127" s="22"/>
       <c r="S127" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T127" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="U127" s="22" t="s">
         <v>238</v>
-      </c>
-      <c r="U127" s="22" t="s">
-        <v>239</v>
       </c>
       <c r="V127" s="22">
         <v>0</v>
@@ -9338,7 +9345,7 @@
     </row>
     <row r="128" spans="1:22" s="6" customFormat="1">
       <c r="A128" s="22" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B128" s="22">
         <v>1</v>
@@ -9354,7 +9361,7 @@
         <v>6</v>
       </c>
       <c r="G128" s="22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H128" s="22"/>
       <c r="I128" s="22"/>
@@ -9380,13 +9387,13 @@
       <c r="Q128" s="22"/>
       <c r="R128" s="22"/>
       <c r="S128" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T128" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="U128" s="22" t="s">
         <v>238</v>
-      </c>
-      <c r="U128" s="22" t="s">
-        <v>239</v>
       </c>
       <c r="V128" s="22">
         <v>0</v>
@@ -9394,7 +9401,7 @@
     </row>
     <row r="129" spans="1:22" s="6" customFormat="1">
       <c r="A129" s="22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B129" s="22">
         <v>1</v>
@@ -9410,7 +9417,7 @@
         <v>7</v>
       </c>
       <c r="G129" s="22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H129" s="22"/>
       <c r="I129" s="22"/>
@@ -9436,13 +9443,13 @@
       <c r="Q129" s="22"/>
       <c r="R129" s="22"/>
       <c r="S129" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T129" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="U129" s="22" t="s">
         <v>238</v>
-      </c>
-      <c r="U129" s="22" t="s">
-        <v>239</v>
       </c>
       <c r="V129" s="22">
         <v>0</v>
@@ -9450,7 +9457,7 @@
     </row>
     <row r="130" spans="1:22" s="6" customFormat="1">
       <c r="A130" s="22" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B130" s="22">
         <v>1</v>
@@ -9466,7 +9473,7 @@
         <v>8</v>
       </c>
       <c r="G130" s="22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H130" s="22"/>
       <c r="I130" s="22"/>
@@ -9492,13 +9499,13 @@
       <c r="Q130" s="22"/>
       <c r="R130" s="22"/>
       <c r="S130" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T130" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="U130" s="22" t="s">
         <v>238</v>
-      </c>
-      <c r="U130" s="22" t="s">
-        <v>239</v>
       </c>
       <c r="V130" s="22">
         <v>0</v>
@@ -9506,7 +9513,7 @@
     </row>
     <row r="131" spans="1:22" s="6" customFormat="1">
       <c r="A131" s="22" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B131" s="22">
         <v>1</v>
@@ -9522,7 +9529,7 @@
         <v>9</v>
       </c>
       <c r="G131" s="22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H131" s="22"/>
       <c r="I131" s="22"/>
@@ -9548,13 +9555,13 @@
       <c r="Q131" s="22"/>
       <c r="R131" s="22"/>
       <c r="S131" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T131" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="U131" s="22" t="s">
         <v>238</v>
-      </c>
-      <c r="U131" s="22" t="s">
-        <v>239</v>
       </c>
       <c r="V131" s="22">
         <v>0</v>
@@ -9562,7 +9569,7 @@
     </row>
     <row r="132" spans="1:22" s="6" customFormat="1" ht="14.65" thickBot="1">
       <c r="A132" s="22" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B132" s="22">
         <v>1</v>
@@ -9578,7 +9585,7 @@
         <v>10</v>
       </c>
       <c r="G132" s="22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H132" s="22"/>
       <c r="I132" s="22"/>
@@ -9604,13 +9611,13 @@
       <c r="Q132" s="22"/>
       <c r="R132" s="22"/>
       <c r="S132" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T132" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="U132" s="22" t="s">
         <v>238</v>
-      </c>
-      <c r="U132" s="22" t="s">
-        <v>239</v>
       </c>
       <c r="V132" s="22">
         <v>0</v>
@@ -9618,7 +9625,7 @@
     </row>
     <row r="133" spans="1:22" s="8" customFormat="1">
       <c r="A133" s="39" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B133" s="25">
         <v>3</v>
@@ -9633,8 +9640,8 @@
       <c r="F133" s="25">
         <v>0</v>
       </c>
-      <c r="G133" s="41" t="s">
-        <v>445</v>
+      <c r="G133" s="40" t="s">
+        <v>443</v>
       </c>
       <c r="H133" s="25"/>
       <c r="I133" s="25"/>
@@ -9659,24 +9666,24 @@
       </c>
       <c r="Q133" s="25"/>
       <c r="R133" s="30" t="s">
-        <v>250</v>
-      </c>
-      <c r="S133" s="43" t="s">
-        <v>450</v>
+        <v>249</v>
+      </c>
+      <c r="S133" s="42" t="s">
+        <v>448</v>
       </c>
       <c r="T133" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="U133" s="44" t="s">
-        <v>451</v>
+        <v>252</v>
+      </c>
+      <c r="U133" s="43" t="s">
+        <v>449</v>
       </c>
       <c r="V133" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:22" s="8" customFormat="1">
       <c r="A134" s="38" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B134" s="27">
         <v>3</v>
@@ -9691,8 +9698,8 @@
       <c r="F134" s="27">
         <v>0</v>
       </c>
-      <c r="G134" s="42" t="s">
-        <v>446</v>
+      <c r="G134" s="41" t="s">
+        <v>444</v>
       </c>
       <c r="H134" s="27"/>
       <c r="I134" s="27"/>
@@ -9717,24 +9724,24 @@
       </c>
       <c r="Q134" s="27"/>
       <c r="R134" s="30" t="s">
-        <v>251</v>
-      </c>
-      <c r="S134" s="43" t="s">
+        <v>250</v>
+      </c>
+      <c r="S134" s="42" t="s">
+        <v>448</v>
+      </c>
+      <c r="T134" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="U134" s="44" t="s">
         <v>450</v>
       </c>
-      <c r="T134" s="26" t="s">
-        <v>254</v>
-      </c>
-      <c r="U134" s="45" t="s">
-        <v>452</v>
-      </c>
       <c r="V134" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:22" s="8" customFormat="1">
       <c r="A135" s="38" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B135" s="25">
         <v>3</v>
@@ -9749,8 +9756,8 @@
       <c r="F135" s="27">
         <v>0</v>
       </c>
-      <c r="G135" s="42" t="s">
-        <v>447</v>
+      <c r="G135" s="41" t="s">
+        <v>445</v>
       </c>
       <c r="H135" s="27"/>
       <c r="I135" s="27"/>
@@ -9775,24 +9782,24 @@
       </c>
       <c r="Q135" s="27"/>
       <c r="R135" s="30" t="s">
-        <v>252</v>
-      </c>
-      <c r="S135" s="43" t="s">
-        <v>450</v>
+        <v>251</v>
+      </c>
+      <c r="S135" s="42" t="s">
+        <v>448</v>
       </c>
       <c r="T135" s="26" t="s">
-        <v>255</v>
-      </c>
-      <c r="U135" s="45" t="s">
-        <v>453</v>
+        <v>254</v>
+      </c>
+      <c r="U135" s="44" t="s">
+        <v>451</v>
       </c>
       <c r="V135" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:22" s="8" customFormat="1">
       <c r="A136" s="38" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B136" s="27">
         <v>3</v>
@@ -9807,8 +9814,8 @@
       <c r="F136" s="27">
         <v>0</v>
       </c>
-      <c r="G136" s="42" t="s">
-        <v>448</v>
+      <c r="G136" s="41" t="s">
+        <v>446</v>
       </c>
       <c r="H136" s="27"/>
       <c r="I136" s="27"/>
@@ -9833,24 +9840,24 @@
       </c>
       <c r="Q136" s="27"/>
       <c r="R136" s="30" t="s">
-        <v>449</v>
-      </c>
-      <c r="S136" s="43" t="s">
-        <v>450</v>
+        <v>447</v>
+      </c>
+      <c r="S136" s="42" t="s">
+        <v>448</v>
       </c>
       <c r="T136" s="38" t="s">
-        <v>440</v>
-      </c>
-      <c r="U136" s="45" t="s">
-        <v>454</v>
+        <v>438</v>
+      </c>
+      <c r="U136" s="44" t="s">
+        <v>452</v>
       </c>
       <c r="V136" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:22" s="34" customFormat="1">
       <c r="A137" s="31" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B137" s="32">
         <v>4</v>
@@ -9866,7 +9873,7 @@
         <v>1</v>
       </c>
       <c r="G137" s="32" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H137" s="32"/>
       <c r="I137" s="32"/>
@@ -9891,16 +9898,16 @@
       </c>
       <c r="Q137" s="32"/>
       <c r="R137" s="32" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="S137" s="33" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="T137" s="32" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="U137" s="32" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="V137" s="32">
         <v>0</v>
@@ -9908,7 +9915,7 @@
     </row>
     <row r="138" spans="1:22" s="34" customFormat="1">
       <c r="A138" s="35" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B138" s="32">
         <v>4</v>
@@ -9924,7 +9931,7 @@
         <v>2</v>
       </c>
       <c r="G138" s="32" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H138" s="32"/>
       <c r="I138" s="32"/>
@@ -9949,16 +9956,16 @@
       </c>
       <c r="Q138" s="32"/>
       <c r="R138" s="32" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="S138" s="33" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="T138" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="U138" s="32" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="V138" s="32">
         <v>0</v>
@@ -9966,7 +9973,7 @@
     </row>
     <row r="139" spans="1:22" s="34" customFormat="1">
       <c r="A139" s="35" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B139" s="32">
         <v>4</v>
@@ -9982,7 +9989,7 @@
         <v>3</v>
       </c>
       <c r="G139" s="32" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H139" s="32"/>
       <c r="I139" s="32"/>
@@ -10007,16 +10014,16 @@
       </c>
       <c r="Q139" s="32"/>
       <c r="R139" s="32" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="S139" s="33" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="T139" s="32" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="U139" s="32" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="V139" s="32">
         <v>0</v>
@@ -10024,7 +10031,7 @@
     </row>
     <row r="140" spans="1:22" s="34" customFormat="1">
       <c r="A140" s="35" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B140" s="32">
         <v>4</v>
@@ -10040,7 +10047,7 @@
         <v>4</v>
       </c>
       <c r="G140" s="32" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H140" s="32"/>
       <c r="I140" s="32"/>
@@ -10065,16 +10072,16 @@
       </c>
       <c r="Q140" s="32"/>
       <c r="R140" s="32" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="S140" s="33" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="T140" s="32" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="U140" s="32" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="V140" s="32">
         <v>0</v>
@@ -10082,7 +10089,7 @@
     </row>
     <row r="141" spans="1:22" s="34" customFormat="1">
       <c r="A141" s="35" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B141" s="32">
         <v>4</v>
@@ -10098,7 +10105,7 @@
         <v>5</v>
       </c>
       <c r="G141" s="32" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H141" s="32"/>
       <c r="I141" s="32"/>
@@ -10123,16 +10130,16 @@
       </c>
       <c r="Q141" s="32"/>
       <c r="R141" s="32" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="S141" s="33" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="T141" s="32" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="U141" s="32" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="V141" s="32">
         <v>0</v>
@@ -10140,7 +10147,7 @@
     </row>
     <row r="142" spans="1:22" s="34" customFormat="1">
       <c r="A142" s="35" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B142" s="32">
         <v>4</v>
@@ -10156,7 +10163,7 @@
         <v>6</v>
       </c>
       <c r="G142" s="32" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H142" s="32"/>
       <c r="I142" s="32"/>
@@ -10181,16 +10188,16 @@
       </c>
       <c r="Q142" s="32"/>
       <c r="R142" s="32" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="S142" s="33" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="T142" s="32" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="U142" s="32" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="V142" s="32">
         <v>0</v>
@@ -10198,7 +10205,7 @@
     </row>
     <row r="143" spans="1:22" s="34" customFormat="1">
       <c r="A143" s="35" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B143" s="32">
         <v>4</v>
@@ -10214,7 +10221,7 @@
         <v>7</v>
       </c>
       <c r="G143" s="32" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H143" s="32"/>
       <c r="I143" s="32"/>
@@ -10239,16 +10246,16 @@
       </c>
       <c r="Q143" s="32"/>
       <c r="R143" s="32" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="S143" s="33" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="T143" s="32" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="U143" s="32" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="V143" s="32">
         <v>0</v>
@@ -10256,7 +10263,7 @@
     </row>
     <row r="144" spans="1:22" s="34" customFormat="1">
       <c r="A144" s="35" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B144" s="32">
         <v>4</v>
@@ -10272,7 +10279,7 @@
         <v>1</v>
       </c>
       <c r="G144" s="32" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H144" s="32"/>
       <c r="I144" s="32"/>
@@ -10297,16 +10304,16 @@
       </c>
       <c r="Q144" s="32"/>
       <c r="R144" s="32" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="S144" s="33" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="T144" s="32" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="U144" s="32" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="V144" s="32">
         <v>0</v>
@@ -10314,7 +10321,7 @@
     </row>
     <row r="145" spans="1:22" s="34" customFormat="1">
       <c r="A145" s="35" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B145" s="32">
         <v>4</v>
@@ -10330,7 +10337,7 @@
         <v>2</v>
       </c>
       <c r="G145" s="32" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H145" s="32"/>
       <c r="I145" s="32"/>
@@ -10355,16 +10362,16 @@
       </c>
       <c r="Q145" s="32"/>
       <c r="R145" s="32" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="S145" s="33" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="T145" s="32" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="U145" s="32" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="V145" s="32">
         <v>0</v>
@@ -10372,7 +10379,7 @@
     </row>
     <row r="146" spans="1:22" s="34" customFormat="1">
       <c r="A146" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B146" s="32">
         <v>4</v>
@@ -10388,7 +10395,7 @@
         <v>3</v>
       </c>
       <c r="G146" s="32" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H146" s="32"/>
       <c r="I146" s="32"/>
@@ -10413,16 +10420,16 @@
       </c>
       <c r="Q146" s="32"/>
       <c r="R146" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="S146" s="33" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="T146" s="32" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="U146" s="32" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="V146" s="32">
         <v>0</v>
@@ -10430,7 +10437,7 @@
     </row>
     <row r="147" spans="1:22" s="34" customFormat="1">
       <c r="A147" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B147" s="32">
         <v>4</v>
@@ -10446,7 +10453,7 @@
         <v>4</v>
       </c>
       <c r="G147" s="32" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H147" s="32"/>
       <c r="I147" s="32"/>
@@ -10471,16 +10478,16 @@
       </c>
       <c r="Q147" s="32"/>
       <c r="R147" s="32" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="S147" s="33" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="T147" s="32" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="U147" s="32" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="V147" s="32">
         <v>0</v>
@@ -10488,7 +10495,7 @@
     </row>
     <row r="148" spans="1:22" s="34" customFormat="1">
       <c r="A148" s="35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B148" s="32">
         <v>4</v>
@@ -10504,7 +10511,7 @@
         <v>5</v>
       </c>
       <c r="G148" s="32" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H148" s="32"/>
       <c r="I148" s="32"/>
@@ -10529,16 +10536,16 @@
       </c>
       <c r="Q148" s="32"/>
       <c r="R148" s="32" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="S148" s="33" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="T148" s="32" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="U148" s="32" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="V148" s="32">
         <v>0</v>
@@ -10546,7 +10553,7 @@
     </row>
     <row r="149" spans="1:22" s="34" customFormat="1">
       <c r="A149" s="35" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B149" s="32">
         <v>4</v>
@@ -10562,7 +10569,7 @@
         <v>6</v>
       </c>
       <c r="G149" s="32" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H149" s="32"/>
       <c r="I149" s="32"/>
@@ -10587,16 +10594,16 @@
       </c>
       <c r="Q149" s="32"/>
       <c r="R149" s="32" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="S149" s="33" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="T149" s="32" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="U149" s="32" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="V149" s="32">
         <v>0</v>
@@ -10604,7 +10611,7 @@
     </row>
     <row r="150" spans="1:22" s="34" customFormat="1">
       <c r="A150" s="35" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B150" s="32">
         <v>4</v>
@@ -10620,7 +10627,7 @@
         <v>7</v>
       </c>
       <c r="G150" s="32" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H150" s="32"/>
       <c r="I150" s="32"/>
@@ -10645,16 +10652,16 @@
       </c>
       <c r="Q150" s="32"/>
       <c r="R150" s="32" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="S150" s="33" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="T150" s="32" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="U150" s="32" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="V150" s="32">
         <v>0</v>
@@ -10662,7 +10669,7 @@
     </row>
     <row r="151" spans="1:22" s="34" customFormat="1">
       <c r="A151" s="35" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B151" s="32">
         <v>4</v>
@@ -10678,7 +10685,7 @@
         <v>1</v>
       </c>
       <c r="G151" s="32" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="H151" s="32"/>
       <c r="I151" s="32"/>
@@ -10703,16 +10710,16 @@
       </c>
       <c r="Q151" s="32"/>
       <c r="R151" s="32" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="S151" s="33" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="T151" s="32" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="U151" s="32" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="V151" s="32">
         <v>0</v>
@@ -10720,7 +10727,7 @@
     </row>
     <row r="152" spans="1:22" s="34" customFormat="1">
       <c r="A152" s="35" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B152" s="32">
         <v>4</v>
@@ -10736,7 +10743,7 @@
         <v>2</v>
       </c>
       <c r="G152" s="32" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H152" s="32"/>
       <c r="I152" s="32"/>
@@ -10761,16 +10768,16 @@
       </c>
       <c r="Q152" s="32"/>
       <c r="R152" s="32" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="S152" s="33" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="T152" s="32" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="U152" s="32" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="V152" s="32">
         <v>0</v>
@@ -10778,7 +10785,7 @@
     </row>
     <row r="153" spans="1:22" s="34" customFormat="1">
       <c r="A153" s="35" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B153" s="32">
         <v>4</v>
@@ -10794,7 +10801,7 @@
         <v>3</v>
       </c>
       <c r="G153" s="32" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H153" s="32"/>
       <c r="I153" s="32"/>
@@ -10819,16 +10826,16 @@
       </c>
       <c r="Q153" s="32"/>
       <c r="R153" s="32" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="S153" s="33" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="T153" s="32" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="U153" s="32" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="V153" s="32">
         <v>0</v>
@@ -10836,7 +10843,7 @@
     </row>
     <row r="154" spans="1:22" s="34" customFormat="1">
       <c r="A154" s="35" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B154" s="32">
         <v>4</v>
@@ -10852,7 +10859,7 @@
         <v>4</v>
       </c>
       <c r="G154" s="32" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H154" s="32"/>
       <c r="I154" s="32"/>
@@ -10877,16 +10884,16 @@
       </c>
       <c r="Q154" s="32"/>
       <c r="R154" s="32" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="S154" s="33" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="T154" s="32" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="U154" s="32" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="V154" s="32">
         <v>0</v>
@@ -10894,7 +10901,7 @@
     </row>
     <row r="155" spans="1:22" s="34" customFormat="1">
       <c r="A155" s="35" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B155" s="32">
         <v>4</v>
@@ -10910,7 +10917,7 @@
         <v>5</v>
       </c>
       <c r="G155" s="32" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H155" s="32"/>
       <c r="I155" s="32"/>
@@ -10935,16 +10942,16 @@
       </c>
       <c r="Q155" s="32"/>
       <c r="R155" s="32" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="S155" s="33" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="T155" s="32" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="U155" s="32" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="V155" s="32">
         <v>0</v>
@@ -10952,7 +10959,7 @@
     </row>
     <row r="156" spans="1:22" s="34" customFormat="1">
       <c r="A156" s="35" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B156" s="32">
         <v>4</v>
@@ -10968,7 +10975,7 @@
         <v>6</v>
       </c>
       <c r="G156" s="32" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H156" s="32"/>
       <c r="I156" s="32"/>
@@ -10993,16 +11000,16 @@
       </c>
       <c r="Q156" s="32"/>
       <c r="R156" s="32" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="S156" s="33" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="T156" s="32" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="U156" s="32" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="V156" s="32">
         <v>0</v>
@@ -11010,7 +11017,7 @@
     </row>
     <row r="157" spans="1:22" s="34" customFormat="1">
       <c r="A157" s="35" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B157" s="32">
         <v>4</v>
@@ -11026,7 +11033,7 @@
         <v>7</v>
       </c>
       <c r="G157" s="32" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H157" s="32"/>
       <c r="I157" s="32"/>
@@ -11051,16 +11058,16 @@
       </c>
       <c r="Q157" s="32"/>
       <c r="R157" s="32" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="S157" s="33" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="T157" s="32" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U157" s="32" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="V157" s="32">
         <v>0</v>
@@ -11068,7 +11075,7 @@
     </row>
     <row r="158" spans="1:22" s="36" customFormat="1">
       <c r="A158" s="35" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B158" s="32">
         <v>4</v>
@@ -11084,7 +11091,7 @@
         <v>7</v>
       </c>
       <c r="G158" s="32" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H158" s="32"/>
       <c r="I158" s="32"/>
@@ -11109,16 +11116,16 @@
       </c>
       <c r="Q158" s="32"/>
       <c r="R158" s="32" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="S158" s="33" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="T158" s="32" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="U158" s="32" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="V158" s="32">
         <v>0</v>
@@ -11126,7 +11133,7 @@
     </row>
     <row r="159" spans="1:22" s="36" customFormat="1">
       <c r="A159" s="35" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B159" s="32">
         <v>4</v>
@@ -11142,7 +11149,7 @@
         <v>7</v>
       </c>
       <c r="G159" s="32" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H159" s="32"/>
       <c r="I159" s="32"/>
@@ -11167,16 +11174,16 @@
       </c>
       <c r="Q159" s="32"/>
       <c r="R159" s="32" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="S159" s="33" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="T159" s="32" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="U159" s="32" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="V159" s="32">
         <v>0</v>
@@ -11184,7 +11191,7 @@
     </row>
     <row r="160" spans="1:22" s="36" customFormat="1">
       <c r="A160" s="35" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B160" s="32">
         <v>4</v>
@@ -11200,7 +11207,7 @@
         <v>7</v>
       </c>
       <c r="G160" s="32" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H160" s="32"/>
       <c r="I160" s="32"/>
@@ -11225,16 +11232,16 @@
       </c>
       <c r="Q160" s="32"/>
       <c r="R160" s="32" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="S160" s="33" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="T160" s="32" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="U160" s="32" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="V160" s="32">
         <v>0</v>
@@ -11242,7 +11249,7 @@
     </row>
     <row r="161" spans="1:22" s="36" customFormat="1">
       <c r="A161" s="35" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B161" s="32">
         <v>4</v>
@@ -11258,7 +11265,7 @@
         <v>7</v>
       </c>
       <c r="G161" s="32" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H161" s="32"/>
       <c r="I161" s="32"/>
@@ -11283,16 +11290,16 @@
       </c>
       <c r="Q161" s="32"/>
       <c r="R161" s="32" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="S161" s="33" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="T161" s="32" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="U161" s="32" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="V161" s="32">
         <v>0</v>
@@ -11300,7 +11307,7 @@
     </row>
     <row r="162" spans="1:22" s="36" customFormat="1">
       <c r="A162" s="35" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B162" s="32">
         <v>4</v>
@@ -11316,7 +11323,7 @@
         <v>7</v>
       </c>
       <c r="G162" s="32" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H162" s="32"/>
       <c r="I162" s="32"/>
@@ -11341,16 +11348,16 @@
       </c>
       <c r="Q162" s="32"/>
       <c r="R162" s="32" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="S162" s="33" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="T162" s="32" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="U162" s="32" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="V162" s="32">
         <v>0</v>
@@ -11358,7 +11365,7 @@
     </row>
     <row r="163" spans="1:22" s="36" customFormat="1">
       <c r="A163" s="35" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B163" s="32">
         <v>4</v>
@@ -11374,7 +11381,7 @@
         <v>7</v>
       </c>
       <c r="G163" s="32" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H163" s="32"/>
       <c r="I163" s="32"/>
@@ -11399,16 +11406,16 @@
       </c>
       <c r="Q163" s="32"/>
       <c r="R163" s="32" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="S163" s="33" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="T163" s="32" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="U163" s="32" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="V163" s="32">
         <v>0</v>
@@ -11416,7 +11423,7 @@
     </row>
     <row r="164" spans="1:22" s="36" customFormat="1">
       <c r="A164" s="35" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B164" s="32">
         <v>4</v>
@@ -11432,7 +11439,7 @@
         <v>7</v>
       </c>
       <c r="G164" s="32" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H164" s="32"/>
       <c r="I164" s="32"/>
@@ -11457,16 +11464,16 @@
       </c>
       <c r="Q164" s="32"/>
       <c r="R164" s="32" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="S164" s="33" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="T164" s="32" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="U164" s="32" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="V164" s="32">
         <v>0</v>
@@ -11474,7 +11481,7 @@
     </row>
     <row r="165" spans="1:22" s="36" customFormat="1">
       <c r="A165" s="35" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B165" s="32">
         <v>4</v>
@@ -11490,7 +11497,7 @@
         <v>7</v>
       </c>
       <c r="G165" s="32" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H165" s="32"/>
       <c r="I165" s="32"/>
@@ -11515,16 +11522,16 @@
       </c>
       <c r="Q165" s="32"/>
       <c r="R165" s="32" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="S165" s="33" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="T165" s="32" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="U165" s="32" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="V165" s="32">
         <v>0</v>
@@ -11532,7 +11539,7 @@
     </row>
     <row r="166" spans="1:22" s="36" customFormat="1">
       <c r="A166" s="35" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B166" s="32">
         <v>4</v>
@@ -11548,7 +11555,7 @@
         <v>7</v>
       </c>
       <c r="G166" s="32" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H166" s="32"/>
       <c r="I166" s="32"/>
@@ -11573,16 +11580,16 @@
       </c>
       <c r="Q166" s="32"/>
       <c r="R166" s="32" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="S166" s="33" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="T166" s="32" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="U166" s="32" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="V166" s="32">
         <v>0</v>
@@ -11590,7 +11597,7 @@
     </row>
     <row r="167" spans="1:22" s="36" customFormat="1">
       <c r="A167" s="35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B167" s="32">
         <v>4</v>
@@ -11606,7 +11613,7 @@
         <v>7</v>
       </c>
       <c r="G167" s="32" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H167" s="32"/>
       <c r="I167" s="32"/>
@@ -11631,16 +11638,16 @@
       </c>
       <c r="Q167" s="32"/>
       <c r="R167" s="32" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="S167" s="33" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="T167" s="32" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="U167" s="32" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="V167" s="32">
         <v>0</v>
@@ -11648,7 +11655,7 @@
     </row>
     <row r="168" spans="1:22" s="36" customFormat="1">
       <c r="A168" s="35" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B168" s="32">
         <v>4</v>
@@ -11664,7 +11671,7 @@
         <v>7</v>
       </c>
       <c r="G168" s="32" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H168" s="32"/>
       <c r="I168" s="32"/>
@@ -11689,16 +11696,16 @@
       </c>
       <c r="Q168" s="32"/>
       <c r="R168" s="32" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="S168" s="33" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="T168" s="32" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="U168" s="32" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="V168" s="32">
         <v>0</v>
@@ -11706,7 +11713,7 @@
     </row>
     <row r="169" spans="1:22" s="36" customFormat="1" ht="14.65" thickBot="1">
       <c r="A169" s="37" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B169" s="32">
         <v>4</v>
@@ -11722,7 +11729,7 @@
         <v>7</v>
       </c>
       <c r="G169" s="32" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H169" s="32"/>
       <c r="I169" s="32"/>
@@ -11747,16 +11754,16 @@
       </c>
       <c r="Q169" s="32"/>
       <c r="R169" s="32" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="S169" s="33" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="T169" s="32" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="U169" s="32" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="V169" s="32">
         <v>0</v>
@@ -11764,7 +11771,7 @@
     </row>
     <row r="170" spans="1:22" s="36" customFormat="1">
       <c r="A170" s="35" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B170" s="32">
         <v>4</v>
@@ -11780,7 +11787,7 @@
         <v>7</v>
       </c>
       <c r="G170" s="32" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H170" s="32"/>
       <c r="I170" s="32"/>
@@ -11805,16 +11812,16 @@
       </c>
       <c r="Q170" s="32"/>
       <c r="R170" s="32" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="S170" s="33" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="T170" s="32" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="U170" s="32" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="V170" s="32">
         <v>0</v>
@@ -11822,7 +11829,7 @@
     </row>
     <row r="171" spans="1:22" s="36" customFormat="1">
       <c r="A171" s="35" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B171" s="32">
         <v>4</v>
@@ -11838,7 +11845,7 @@
         <v>7</v>
       </c>
       <c r="G171" s="32" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H171" s="32"/>
       <c r="I171" s="32"/>
@@ -11863,16 +11870,16 @@
       </c>
       <c r="Q171" s="32"/>
       <c r="R171" s="32" t="s">
+        <v>419</v>
+      </c>
+      <c r="S171" s="33" t="s">
         <v>421</v>
       </c>
-      <c r="S171" s="33" t="s">
-        <v>423</v>
-      </c>
       <c r="T171" s="32" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="U171" s="32" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="V171" s="32">
         <v>0</v>
@@ -11880,7 +11887,7 @@
     </row>
     <row r="172" spans="1:22" s="36" customFormat="1" ht="14.65" thickBot="1">
       <c r="A172" s="37" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B172" s="32">
         <v>4</v>
@@ -11896,7 +11903,7 @@
         <v>7</v>
       </c>
       <c r="G172" s="32" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H172" s="32"/>
       <c r="I172" s="32"/>
@@ -11921,16 +11928,16 @@
       </c>
       <c r="Q172" s="32"/>
       <c r="R172" s="32" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="S172" s="33" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="T172" s="32" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="U172" s="32" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="V172" s="32">
         <v>0</v>

--- a/_Out/NFDataCfg/Excel/Item.xlsx
+++ b/_Out/NFDataCfg/Excel/Item.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="463">
   <si>
     <t>Id</t>
   </si>
@@ -1394,7 +1394,31 @@
     <t>HeroType</t>
   </si>
   <si>
-    <t>Item_HOLY_WATER_1,11;Item_HOLY_WATER_2,22;Item_HOLY_WATER_3,33;Item_HOLY_WATER_4,44;Item_HOLY_WATER_5,55;Item_MP1,11;Item_MP2,22;Item_MP3,33;Item_MP4,44;Item_MP5,55;Item_GEM_ATK_1,11;Item_GEM_ATK_2,22;Item_GEM_ATK_3,33;Item_GEM_ATK_4,44;Item_GEM_DEF_1,11;Item_GEM_DEF_2,22;Item_GEM_DEF_3,33;Item_GEM_DEF_4,44;Item_GEM_DEF_5,55;Item_GEM_FIRE_1,11;Item_GEM_FIRE_2,22;Item_GEM_FIRE_3,33;Item_GEM_WIND_1,11;Item_GEM_WIND_2,22;Item_GEM_WIND_3,33;Item_dragon_cannon_1,99;Item_dragon_cannon_2,99;Item_dragon_cannon_3,99;Item_gold_mine_1,99;Item_gold_mine_2,99;Item_gold_mine_3,99;Item_ballista_tower_1,99;Item_ballista_tower_2,99;Item_ballista_tower_3,99;Item_townhall_1,99;Item_townhall_2,99;Item_townhall_3,99;Item_camp_1,99;Item_camp_2,99;Item_camp_3,99;Item_gold_storage_1,99;Item_gold_storage_2,99;Item_gold_storage_3,99;Item_mana_storage_1,99;Item_mana_storage_2,99;Item_mana_storage_3,99;Item_barrack_1,99;Item_barrack_2,99;Item_barrack_3,99;Item_bomb_1,99;Item_bomb_2,99;Item_bomb_3,99;Item_worker_hut_1,99;Item_worker_hut_2,99;Item_worker_hut_3,99;Item_anti_air_tower_1,99;Item_anti_air_tower_2,99;Item_anti_air_tower_3,99;Item_mana_well_1,99;Item_mana_well_2,99;Item_mana_well_3,99;Item_HeroCard_Orc_Slinger,55;Item_HeroCard_Dwarf_Warrior,66;Item_HeroCard_Wererat_Soldier,77;Item_HeroCard_Samurai,88</t>
+    <t>Item_Gold_Item1</t>
+  </si>
+  <si>
+    <t>Item_Diamond_Item1</t>
+  </si>
+  <si>
+    <t>Item_Gold_Item1,400;Item_Diamond_Item1,200;Item_HOLY_WATER_1,11;Item_HOLY_WATER_2,22;Item_HOLY_WATER_3,33;Item_HOLY_WATER_4,44;Item_HOLY_WATER_5,55;Item_MP1,11;Item_MP2,22;Item_MP3,33;Item_MP4,44;Item_MP5,55;Item_GEM_ATK_1,11;Item_GEM_ATK_2,22;Item_GEM_ATK_3,33;Item_GEM_ATK_4,44;Item_GEM_DEF_1,11;Item_GEM_DEF_2,22;Item_GEM_DEF_3,33;Item_GEM_DEF_4,44;Item_GEM_DEF_5,55;Item_GEM_FIRE_1,11;Item_GEM_FIRE_2,22;Item_GEM_FIRE_3,33;Item_GEM_WIND_1,11;Item_GEM_WIND_2,22;Item_GEM_WIND_3,33;Item_dragon_cannon_1,99;Item_dragon_cannon_2,99;Item_dragon_cannon_3,99;Item_gold_mine_1,99;Item_gold_mine_2,99;Item_gold_mine_3,99;Item_ballista_tower_1,99;Item_ballista_tower_2,99;Item_ballista_tower_3,99;Item_townhall_1,99;Item_townhall_2,99;Item_townhall_3,99;Item_camp_1,99;Item_camp_2,99;Item_camp_3,99;Item_gold_storage_1,99;Item_gold_storage_2,99;Item_gold_storage_3,99;Item_mana_storage_1,99;Item_mana_storage_2,99;Item_mana_storage_3,99;Item_barrack_1,99;Item_barrack_2,99;Item_barrack_3,99;Item_bomb_1,99;Item_bomb_2,99;Item_bomb_3,99;Item_worker_hut_1,99;Item_worker_hut_2,99;Item_worker_hut_3,99;Item_anti_air_tower_1,99;Item_anti_air_tower_2,99;Item_anti_air_tower_3,99;Item_mana_well_1,99;Item_mana_well_2,99;Item_mana_well_3,99;Item_HeroCard_Orc_Slinger,55;Item_HeroCard_Dwarf_Warrior,66;Item_HeroCard_Wererat_Soldier,77;Item_HeroCard_Samurai,88</t>
+  </si>
+  <si>
+    <t>Desc_Gold_Item1</t>
+  </si>
+  <si>
+    <t>Desc_Diamond_Item1</t>
+  </si>
+  <si>
+    <t>NameID_Gold_Item1</t>
+  </si>
+  <si>
+    <t>NameID_Diamond_Item1</t>
+  </si>
+  <si>
+    <t>Gold_Item1</t>
+  </si>
+  <si>
+    <t>Diamond_Item1</t>
   </si>
 </sst>
 </file>
@@ -1637,7 +1661,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1771,6 +1795,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2066,13 +2096,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V172"/>
+  <dimension ref="A1:V174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="10" topLeftCell="H47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="10" topLeftCell="N11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J47" sqref="J47"/>
+      <selection pane="bottomRight" activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2779,125 +2809,123 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:22" s="4" customFormat="1">
-      <c r="A11" s="12" t="s">
+    <row r="11" spans="1:22" s="36" customFormat="1">
+      <c r="A11" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="B11" s="45">
+        <v>2</v>
+      </c>
+      <c r="C11" s="32">
+        <v>2</v>
+      </c>
+      <c r="D11" s="45">
+        <v>0</v>
+      </c>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45">
+        <v>0</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>457</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45">
+        <v>10000</v>
+      </c>
+      <c r="L11" s="45">
+        <v>1</v>
+      </c>
+      <c r="M11" s="45">
+        <v>999</v>
+      </c>
+      <c r="N11" s="45">
+        <v>0</v>
+      </c>
+      <c r="O11" s="45">
+        <v>100</v>
+      </c>
+      <c r="P11" s="45">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="45"/>
+      <c r="S11" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="T11" s="33" t="s">
+        <v>461</v>
+      </c>
+      <c r="U11" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="V11" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" s="36" customFormat="1">
+      <c r="A12" s="46" t="s">
+        <v>455</v>
+      </c>
+      <c r="B12" s="32">
+        <v>2</v>
+      </c>
+      <c r="C12" s="32">
+        <v>1</v>
+      </c>
+      <c r="D12" s="32">
+        <v>0</v>
+      </c>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32">
+        <v>0</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>458</v>
+      </c>
+      <c r="H12" s="46"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32">
+        <v>10000</v>
+      </c>
+      <c r="L12" s="32">
+        <v>1</v>
+      </c>
+      <c r="M12" s="32">
+        <v>999</v>
+      </c>
+      <c r="N12" s="32">
+        <v>0</v>
+      </c>
+      <c r="O12" s="32">
+        <v>100</v>
+      </c>
+      <c r="P12" s="45">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="32"/>
+      <c r="S12" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="T12" s="33" t="s">
+        <v>462</v>
+      </c>
+      <c r="U12" s="33" t="s">
+        <v>460</v>
+      </c>
+      <c r="V12" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" s="4" customFormat="1">
+      <c r="A13" s="12" t="s">
         <v>51</v>
-      </c>
-      <c r="B11" s="13">
-        <v>2</v>
-      </c>
-      <c r="C11" s="14">
-        <v>0</v>
-      </c>
-      <c r="D11" s="13">
-        <v>0</v>
-      </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13">
-        <v>0</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13">
-        <v>5</v>
-      </c>
-      <c r="L11" s="13">
-        <v>1</v>
-      </c>
-      <c r="M11" s="13">
-        <v>999</v>
-      </c>
-      <c r="N11" s="13">
-        <v>0</v>
-      </c>
-      <c r="O11" s="13">
-        <v>100</v>
-      </c>
-      <c r="P11" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="T11" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="U11" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="V11" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" s="4" customFormat="1">
-      <c r="A12" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="14">
-        <v>2</v>
-      </c>
-      <c r="C12" s="14">
-        <v>0</v>
-      </c>
-      <c r="D12" s="14">
-        <v>0</v>
-      </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14">
-        <v>0</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14">
-        <v>10</v>
-      </c>
-      <c r="L12" s="14">
-        <v>1</v>
-      </c>
-      <c r="M12" s="14">
-        <v>999</v>
-      </c>
-      <c r="N12" s="14">
-        <v>0</v>
-      </c>
-      <c r="O12" s="14">
-        <v>100</v>
-      </c>
-      <c r="P12" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="T12" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="U12" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="V12" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" s="4" customFormat="1">
-      <c r="A13" s="15" t="s">
-        <v>59</v>
       </c>
       <c r="B13" s="13">
         <v>2</v>
@@ -2905,57 +2933,57 @@
       <c r="C13" s="14">
         <v>0</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="13">
         <v>0</v>
       </c>
       <c r="E13" s="13"/>
-      <c r="F13" s="14">
+      <c r="F13" s="13">
         <v>0</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H13" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
+      <c r="H13" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
       <c r="K13" s="13">
-        <v>15</v>
-      </c>
-      <c r="L13" s="14">
-        <v>1</v>
-      </c>
-      <c r="M13" s="14">
+        <v>5</v>
+      </c>
+      <c r="L13" s="13">
+        <v>1</v>
+      </c>
+      <c r="M13" s="13">
         <v>999</v>
       </c>
-      <c r="N13" s="14">
-        <v>0</v>
-      </c>
-      <c r="O13" s="14">
+      <c r="N13" s="13">
+        <v>0</v>
+      </c>
+      <c r="O13" s="13">
         <v>100</v>
       </c>
       <c r="P13" s="13">
         <v>1</v>
       </c>
-      <c r="Q13" s="14"/>
+      <c r="Q13" s="13"/>
       <c r="R13" s="13"/>
       <c r="S13" s="12" t="s">
         <v>248</v>
       </c>
       <c r="T13" s="12" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="U13" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="V13" s="14">
+      <c r="V13" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:22" s="4" customFormat="1">
       <c r="A14" s="15" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B14" s="14">
         <v>2</v>
@@ -2974,12 +3002,12 @@
         <v>52</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
       <c r="K14" s="14">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L14" s="14">
         <v>1</v>
@@ -3002,7 +3030,7 @@
         <v>248</v>
       </c>
       <c r="T14" s="12" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="U14" s="12" t="s">
         <v>55</v>
@@ -3013,9 +3041,9 @@
     </row>
     <row r="15" spans="1:22" s="4" customFormat="1">
       <c r="A15" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="14">
+        <v>59</v>
+      </c>
+      <c r="B15" s="13">
         <v>2</v>
       </c>
       <c r="C15" s="14">
@@ -3024,7 +3052,7 @@
       <c r="D15" s="14">
         <v>0</v>
       </c>
-      <c r="E15" s="14"/>
+      <c r="E15" s="13"/>
       <c r="F15" s="14">
         <v>0</v>
       </c>
@@ -3032,12 +3060,12 @@
         <v>52</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
-      <c r="K15" s="14">
-        <v>20</v>
+      <c r="K15" s="13">
+        <v>15</v>
       </c>
       <c r="L15" s="14">
         <v>1</v>
@@ -3055,12 +3083,12 @@
         <v>1</v>
       </c>
       <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
+      <c r="R15" s="13"/>
       <c r="S15" s="12" t="s">
         <v>248</v>
       </c>
       <c r="T15" s="12" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="U15" s="12" t="s">
         <v>55</v>
@@ -3071,7 +3099,7 @@
     </row>
     <row r="16" spans="1:22" s="4" customFormat="1">
       <c r="A16" s="15" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B16" s="14">
         <v>2</v>
@@ -3089,7 +3117,9 @@
       <c r="G16" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H16" s="15"/>
+      <c r="H16" s="15" t="s">
+        <v>63</v>
+      </c>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
       <c r="K16" s="14">
@@ -3116,7 +3146,7 @@
         <v>248</v>
       </c>
       <c r="T16" s="12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="U16" s="12" t="s">
         <v>55</v>
@@ -3127,9 +3157,9 @@
     </row>
     <row r="17" spans="1:22" s="4" customFormat="1">
       <c r="A17" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" s="13">
+        <v>65</v>
+      </c>
+      <c r="B17" s="14">
         <v>2</v>
       </c>
       <c r="C17" s="14">
@@ -3138,18 +3168,20 @@
       <c r="D17" s="14">
         <v>0</v>
       </c>
-      <c r="E17" s="13"/>
+      <c r="E17" s="14"/>
       <c r="F17" s="14">
         <v>0</v>
       </c>
-      <c r="G17" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="H17" s="15"/>
+      <c r="G17" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>66</v>
+      </c>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
       <c r="K17" s="14">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="L17" s="14">
         <v>1</v>
@@ -3167,15 +3199,15 @@
         <v>1</v>
       </c>
       <c r="Q17" s="14"/>
-      <c r="R17" s="13"/>
+      <c r="R17" s="14"/>
       <c r="S17" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="T17" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="U17" s="15" t="s">
-        <v>73</v>
+      <c r="T17" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="U17" s="12" t="s">
+        <v>55</v>
       </c>
       <c r="V17" s="14">
         <v>0</v>
@@ -3183,7 +3215,7 @@
     </row>
     <row r="18" spans="1:22" s="4" customFormat="1">
       <c r="A18" s="15" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B18" s="14">
         <v>2</v>
@@ -3198,14 +3230,14 @@
       <c r="F18" s="14">
         <v>0</v>
       </c>
-      <c r="G18" s="15" t="s">
-        <v>71</v>
+      <c r="G18" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="H18" s="15"/>
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
       <c r="K18" s="14">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="L18" s="14">
         <v>1</v>
@@ -3227,11 +3259,11 @@
       <c r="S18" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="T18" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="U18" s="15" t="s">
-        <v>73</v>
+      <c r="T18" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="U18" s="12" t="s">
+        <v>55</v>
       </c>
       <c r="V18" s="14">
         <v>0</v>
@@ -3239,7 +3271,7 @@
     </row>
     <row r="19" spans="1:22" s="4" customFormat="1">
       <c r="A19" s="15" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B19" s="13">
         <v>2</v>
@@ -3261,7 +3293,7 @@
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
       <c r="K19" s="14">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="L19" s="14">
         <v>1</v>
@@ -3284,7 +3316,7 @@
         <v>248</v>
       </c>
       <c r="T19" s="15" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="U19" s="15" t="s">
         <v>73</v>
@@ -3295,7 +3327,7 @@
     </row>
     <row r="20" spans="1:22" s="4" customFormat="1">
       <c r="A20" s="15" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B20" s="14">
         <v>2</v>
@@ -3317,7 +3349,7 @@
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
       <c r="K20" s="14">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="L20" s="14">
         <v>1</v>
@@ -3340,7 +3372,7 @@
         <v>248</v>
       </c>
       <c r="T20" s="15" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="U20" s="15" t="s">
         <v>73</v>
@@ -3351,9 +3383,9 @@
     </row>
     <row r="21" spans="1:22" s="4" customFormat="1">
       <c r="A21" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B21" s="14">
+        <v>76</v>
+      </c>
+      <c r="B21" s="13">
         <v>2</v>
       </c>
       <c r="C21" s="14">
@@ -3362,7 +3394,7 @@
       <c r="D21" s="14">
         <v>0</v>
       </c>
-      <c r="E21" s="14"/>
+      <c r="E21" s="13"/>
       <c r="F21" s="14">
         <v>0</v>
       </c>
@@ -3373,7 +3405,7 @@
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
       <c r="K21" s="14">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L21" s="14">
         <v>1</v>
@@ -3391,12 +3423,12 @@
         <v>1</v>
       </c>
       <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
+      <c r="R21" s="13"/>
       <c r="S21" s="12" t="s">
         <v>248</v>
       </c>
       <c r="T21" s="15" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="U21" s="15" t="s">
         <v>73</v>
@@ -3407,7 +3439,7 @@
     </row>
     <row r="22" spans="1:22" s="4" customFormat="1">
       <c r="A22" s="15" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B22" s="14">
         <v>2</v>
@@ -3452,7 +3484,7 @@
         <v>248</v>
       </c>
       <c r="T22" s="15" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="U22" s="15" t="s">
         <v>73</v>
@@ -3463,9 +3495,9 @@
     </row>
     <row r="23" spans="1:22" s="4" customFormat="1">
       <c r="A23" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="B23" s="13">
+        <v>80</v>
+      </c>
+      <c r="B23" s="14">
         <v>2</v>
       </c>
       <c r="C23" s="14">
@@ -3474,18 +3506,18 @@
       <c r="D23" s="14">
         <v>0</v>
       </c>
-      <c r="E23" s="13"/>
+      <c r="E23" s="14"/>
       <c r="F23" s="14">
         <v>0</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="H23" s="15"/>
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
       <c r="K23" s="14">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="L23" s="14">
         <v>1</v>
@@ -3503,15 +3535,15 @@
         <v>1</v>
       </c>
       <c r="Q23" s="14"/>
-      <c r="R23" s="13"/>
+      <c r="R23" s="14"/>
       <c r="S23" s="12" t="s">
         <v>248</v>
       </c>
       <c r="T23" s="15" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="U23" s="15" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="V23" s="14">
         <v>0</v>
@@ -3519,7 +3551,7 @@
     </row>
     <row r="24" spans="1:22" s="4" customFormat="1">
       <c r="A24" s="15" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B24" s="14">
         <v>2</v>
@@ -3535,13 +3567,13 @@
         <v>0</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="H24" s="15"/>
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
       <c r="K24" s="14">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="L24" s="14">
         <v>1</v>
@@ -3564,10 +3596,10 @@
         <v>248</v>
       </c>
       <c r="T24" s="15" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="U24" s="15" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="V24" s="14">
         <v>0</v>
@@ -3575,7 +3607,7 @@
     </row>
     <row r="25" spans="1:22" s="4" customFormat="1">
       <c r="A25" s="15" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B25" s="13">
         <v>2</v>
@@ -3597,7 +3629,7 @@
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
       <c r="K25" s="14">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="L25" s="14">
         <v>1</v>
@@ -3620,7 +3652,7 @@
         <v>248</v>
       </c>
       <c r="T25" s="15" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="U25" s="15" t="s">
         <v>87</v>
@@ -3631,7 +3663,7 @@
     </row>
     <row r="26" spans="1:22" s="4" customFormat="1">
       <c r="A26" s="15" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B26" s="14">
         <v>2</v>
@@ -3653,7 +3685,7 @@
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
       <c r="K26" s="14">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="L26" s="14">
         <v>1</v>
@@ -3676,7 +3708,7 @@
         <v>248</v>
       </c>
       <c r="T26" s="15" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="U26" s="15" t="s">
         <v>87</v>
@@ -3687,9 +3719,9 @@
     </row>
     <row r="27" spans="1:22" s="4" customFormat="1">
       <c r="A27" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B27" s="14">
+        <v>90</v>
+      </c>
+      <c r="B27" s="13">
         <v>2</v>
       </c>
       <c r="C27" s="14">
@@ -3698,7 +3730,7 @@
       <c r="D27" s="14">
         <v>0</v>
       </c>
-      <c r="E27" s="14"/>
+      <c r="E27" s="13"/>
       <c r="F27" s="14">
         <v>0</v>
       </c>
@@ -3709,7 +3741,7 @@
       <c r="I27" s="14"/>
       <c r="J27" s="14"/>
       <c r="K27" s="14">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L27" s="14">
         <v>1</v>
@@ -3727,12 +3759,12 @@
         <v>1</v>
       </c>
       <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
+      <c r="R27" s="13"/>
       <c r="S27" s="12" t="s">
         <v>248</v>
       </c>
       <c r="T27" s="15" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="U27" s="15" t="s">
         <v>87</v>
@@ -3743,7 +3775,7 @@
     </row>
     <row r="28" spans="1:22" s="4" customFormat="1">
       <c r="A28" s="15" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B28" s="14">
         <v>2</v>
@@ -3788,7 +3820,7 @@
         <v>248</v>
       </c>
       <c r="T28" s="15" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="U28" s="15" t="s">
         <v>87</v>
@@ -3799,9 +3831,9 @@
     </row>
     <row r="29" spans="1:22" s="4" customFormat="1">
       <c r="A29" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="B29" s="13">
+        <v>94</v>
+      </c>
+      <c r="B29" s="14">
         <v>2</v>
       </c>
       <c r="C29" s="14">
@@ -3810,18 +3842,18 @@
       <c r="D29" s="14">
         <v>0</v>
       </c>
-      <c r="E29" s="13"/>
+      <c r="E29" s="14"/>
       <c r="F29" s="14">
         <v>0</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="H29" s="15"/>
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>
       <c r="K29" s="14">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="L29" s="14">
         <v>1</v>
@@ -3839,15 +3871,15 @@
         <v>1</v>
       </c>
       <c r="Q29" s="14"/>
-      <c r="R29" s="13"/>
+      <c r="R29" s="14"/>
       <c r="S29" s="12" t="s">
         <v>248</v>
       </c>
       <c r="T29" s="15" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="U29" s="15" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="V29" s="14">
         <v>0</v>
@@ -3855,7 +3887,7 @@
     </row>
     <row r="30" spans="1:22" s="4" customFormat="1">
       <c r="A30" s="15" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B30" s="14">
         <v>2</v>
@@ -3871,13 +3903,13 @@
         <v>0</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="H30" s="15"/>
       <c r="I30" s="14"/>
       <c r="J30" s="14"/>
       <c r="K30" s="14">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="L30" s="14">
         <v>1</v>
@@ -3900,10 +3932,10 @@
         <v>248</v>
       </c>
       <c r="T30" s="15" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="U30" s="15" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="V30" s="14">
         <v>0</v>
@@ -3911,7 +3943,7 @@
     </row>
     <row r="31" spans="1:22" s="4" customFormat="1">
       <c r="A31" s="15" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B31" s="13">
         <v>2</v>
@@ -3933,7 +3965,7 @@
       <c r="I31" s="14"/>
       <c r="J31" s="14"/>
       <c r="K31" s="14">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="L31" s="14">
         <v>1</v>
@@ -3956,7 +3988,7 @@
         <v>248</v>
       </c>
       <c r="T31" s="15" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="U31" s="15" t="s">
         <v>101</v>
@@ -3967,7 +3999,7 @@
     </row>
     <row r="32" spans="1:22" s="4" customFormat="1">
       <c r="A32" s="15" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B32" s="14">
         <v>2</v>
@@ -3989,7 +4021,7 @@
       <c r="I32" s="14"/>
       <c r="J32" s="14"/>
       <c r="K32" s="14">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="L32" s="14">
         <v>1</v>
@@ -4012,7 +4044,7 @@
         <v>248</v>
       </c>
       <c r="T32" s="15" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="U32" s="15" t="s">
         <v>101</v>
@@ -4023,7 +4055,7 @@
     </row>
     <row r="33" spans="1:22" s="4" customFormat="1">
       <c r="A33" s="15" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B33" s="13">
         <v>2</v>
@@ -4045,7 +4077,7 @@
       <c r="I33" s="14"/>
       <c r="J33" s="14"/>
       <c r="K33" s="14">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L33" s="14">
         <v>1</v>
@@ -4068,7 +4100,7 @@
         <v>248</v>
       </c>
       <c r="T33" s="15" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U33" s="15" t="s">
         <v>101</v>
@@ -4079,7 +4111,7 @@
     </row>
     <row r="34" spans="1:22" s="4" customFormat="1">
       <c r="A34" s="15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B34" s="14">
         <v>2</v>
@@ -4124,7 +4156,7 @@
         <v>248</v>
       </c>
       <c r="T34" s="15" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="U34" s="15" t="s">
         <v>101</v>
@@ -4134,8 +4166,8 @@
       </c>
     </row>
     <row r="35" spans="1:22" s="4" customFormat="1">
-      <c r="A35" s="14" t="s">
-        <v>112</v>
+      <c r="A35" s="15" t="s">
+        <v>108</v>
       </c>
       <c r="B35" s="13">
         <v>2</v>
@@ -4150,14 +4182,14 @@
       <c r="F35" s="14">
         <v>0</v>
       </c>
-      <c r="G35" s="14" t="s">
-        <v>113</v>
+      <c r="G35" s="15" t="s">
+        <v>99</v>
       </c>
       <c r="H35" s="15"/>
       <c r="I35" s="14"/>
       <c r="J35" s="14"/>
       <c r="K35" s="14">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="L35" s="14">
         <v>1</v>
@@ -4179,19 +4211,19 @@
       <c r="S35" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="T35" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="U35" s="14" t="s">
-        <v>115</v>
+      <c r="T35" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="U35" s="15" t="s">
+        <v>101</v>
       </c>
       <c r="V35" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:22" s="4" customFormat="1">
-      <c r="A36" s="14" t="s">
-        <v>116</v>
+      <c r="A36" s="15" t="s">
+        <v>110</v>
       </c>
       <c r="B36" s="14">
         <v>2</v>
@@ -4206,14 +4238,14 @@
       <c r="F36" s="14">
         <v>0</v>
       </c>
-      <c r="G36" s="14" t="s">
-        <v>113</v>
+      <c r="G36" s="15" t="s">
+        <v>99</v>
       </c>
       <c r="H36" s="15"/>
       <c r="I36" s="14"/>
       <c r="J36" s="14"/>
       <c r="K36" s="14">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="L36" s="14">
         <v>1</v>
@@ -4235,11 +4267,11 @@
       <c r="S36" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="T36" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="U36" s="14" t="s">
-        <v>115</v>
+      <c r="T36" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="U36" s="15" t="s">
+        <v>101</v>
       </c>
       <c r="V36" s="14">
         <v>0</v>
@@ -4247,7 +4279,7 @@
     </row>
     <row r="37" spans="1:22" s="4" customFormat="1">
       <c r="A37" s="14" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B37" s="13">
         <v>2</v>
@@ -4269,7 +4301,7 @@
       <c r="I37" s="14"/>
       <c r="J37" s="14"/>
       <c r="K37" s="14">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="L37" s="14">
         <v>1</v>
@@ -4303,7 +4335,7 @@
     </row>
     <row r="38" spans="1:22" s="4" customFormat="1">
       <c r="A38" s="14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B38" s="14">
         <v>2</v>
@@ -4325,7 +4357,7 @@
       <c r="I38" s="14"/>
       <c r="J38" s="14"/>
       <c r="K38" s="14">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="L38" s="14">
         <v>1</v>
@@ -4359,7 +4391,7 @@
     </row>
     <row r="39" spans="1:22" s="4" customFormat="1">
       <c r="A39" s="14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B39" s="13">
         <v>2</v>
@@ -4381,7 +4413,7 @@
       <c r="I39" s="14"/>
       <c r="J39" s="14"/>
       <c r="K39" s="14">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L39" s="14">
         <v>1</v>
@@ -4415,7 +4447,7 @@
     </row>
     <row r="40" spans="1:22" s="4" customFormat="1">
       <c r="A40" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B40" s="14">
         <v>2</v>
@@ -4470,10 +4502,10 @@
       </c>
     </row>
     <row r="41" spans="1:22" s="4" customFormat="1">
-      <c r="A41" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="B41" s="14">
+      <c r="A41" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B41" s="13">
         <v>2</v>
       </c>
       <c r="C41" s="14">
@@ -4482,18 +4514,18 @@
       <c r="D41" s="14">
         <v>0</v>
       </c>
-      <c r="E41" s="14"/>
+      <c r="E41" s="13"/>
       <c r="F41" s="14">
         <v>0</v>
       </c>
-      <c r="G41" s="15" t="s">
-        <v>122</v>
+      <c r="G41" s="14" t="s">
+        <v>113</v>
       </c>
       <c r="H41" s="15"/>
       <c r="I41" s="14"/>
       <c r="J41" s="14"/>
       <c r="K41" s="14">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="L41" s="14">
         <v>1</v>
@@ -4511,25 +4543,25 @@
         <v>1</v>
       </c>
       <c r="Q41" s="14"/>
-      <c r="R41" s="14"/>
+      <c r="R41" s="13"/>
       <c r="S41" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="T41" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="U41" s="15" t="s">
-        <v>124</v>
+      <c r="T41" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="U41" s="14" t="s">
+        <v>115</v>
       </c>
       <c r="V41" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:22" s="4" customFormat="1">
-      <c r="A42" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="B42" s="13">
+      <c r="A42" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B42" s="14">
         <v>2</v>
       </c>
       <c r="C42" s="14">
@@ -4538,18 +4570,18 @@
       <c r="D42" s="14">
         <v>0</v>
       </c>
-      <c r="E42" s="13"/>
+      <c r="E42" s="14"/>
       <c r="F42" s="14">
         <v>0</v>
       </c>
-      <c r="G42" s="15" t="s">
-        <v>122</v>
+      <c r="G42" s="14" t="s">
+        <v>113</v>
       </c>
       <c r="H42" s="15"/>
       <c r="I42" s="14"/>
       <c r="J42" s="14"/>
       <c r="K42" s="14">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="L42" s="14">
         <v>1</v>
@@ -4567,15 +4599,15 @@
         <v>1</v>
       </c>
       <c r="Q42" s="14"/>
-      <c r="R42" s="13"/>
+      <c r="R42" s="14"/>
       <c r="S42" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="T42" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="U42" s="15" t="s">
-        <v>124</v>
+      <c r="T42" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="U42" s="14" t="s">
+        <v>115</v>
       </c>
       <c r="V42" s="14">
         <v>0</v>
@@ -4583,7 +4615,7 @@
     </row>
     <row r="43" spans="1:22" s="4" customFormat="1">
       <c r="A43" s="15" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B43" s="14">
         <v>2</v>
@@ -4605,7 +4637,7 @@
       <c r="I43" s="14"/>
       <c r="J43" s="14"/>
       <c r="K43" s="14">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="L43" s="14">
         <v>1</v>
@@ -4628,7 +4660,7 @@
         <v>248</v>
       </c>
       <c r="T43" s="15" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="U43" s="15" t="s">
         <v>124</v>
@@ -4639,7 +4671,7 @@
     </row>
     <row r="44" spans="1:22" s="4" customFormat="1">
       <c r="A44" s="15" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B44" s="13">
         <v>2</v>
@@ -4661,7 +4693,7 @@
       <c r="I44" s="14"/>
       <c r="J44" s="14"/>
       <c r="K44" s="14">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="L44" s="14">
         <v>1</v>
@@ -4684,7 +4716,7 @@
         <v>248</v>
       </c>
       <c r="T44" s="15" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="U44" s="15" t="s">
         <v>124</v>
@@ -4695,7 +4727,7 @@
     </row>
     <row r="45" spans="1:22" s="4" customFormat="1">
       <c r="A45" s="15" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B45" s="14">
         <v>2</v>
@@ -4717,7 +4749,7 @@
       <c r="I45" s="14"/>
       <c r="J45" s="14"/>
       <c r="K45" s="14">
-        <v>1600</v>
+        <v>400</v>
       </c>
       <c r="L45" s="14">
         <v>1</v>
@@ -4740,7 +4772,7 @@
         <v>248</v>
       </c>
       <c r="T45" s="15" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="U45" s="15" t="s">
         <v>124</v>
@@ -4751,7 +4783,7 @@
     </row>
     <row r="46" spans="1:22" s="4" customFormat="1">
       <c r="A46" s="15" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B46" s="13">
         <v>2</v>
@@ -4773,7 +4805,7 @@
       <c r="I46" s="14"/>
       <c r="J46" s="14"/>
       <c r="K46" s="14">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="L46" s="14">
         <v>1</v>
@@ -4796,7 +4828,7 @@
         <v>248</v>
       </c>
       <c r="T46" s="15" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="U46" s="15" t="s">
         <v>124</v>
@@ -4805,123 +4837,121 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:22" s="5" customFormat="1" ht="299.25">
-      <c r="A47" s="16" t="s">
+    <row r="47" spans="1:22" s="4" customFormat="1">
+      <c r="A47" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B47" s="14">
+        <v>2</v>
+      </c>
+      <c r="C47" s="14">
+        <v>0</v>
+      </c>
+      <c r="D47" s="14">
+        <v>0</v>
+      </c>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14">
+        <v>0</v>
+      </c>
+      <c r="G47" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="H47" s="15"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14">
+        <v>1600</v>
+      </c>
+      <c r="L47" s="14">
+        <v>1</v>
+      </c>
+      <c r="M47" s="14">
+        <v>999</v>
+      </c>
+      <c r="N47" s="14">
+        <v>0</v>
+      </c>
+      <c r="O47" s="14">
+        <v>100</v>
+      </c>
+      <c r="P47" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="14"/>
+      <c r="R47" s="14"/>
+      <c r="S47" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="T47" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="U47" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="V47" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" s="4" customFormat="1">
+      <c r="A48" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B48" s="13">
+        <v>2</v>
+      </c>
+      <c r="C48" s="14">
+        <v>0</v>
+      </c>
+      <c r="D48" s="14">
+        <v>0</v>
+      </c>
+      <c r="E48" s="13"/>
+      <c r="F48" s="14">
+        <v>0</v>
+      </c>
+      <c r="G48" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="H48" s="15"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14">
+        <v>1600</v>
+      </c>
+      <c r="L48" s="14">
+        <v>1</v>
+      </c>
+      <c r="M48" s="14">
+        <v>999</v>
+      </c>
+      <c r="N48" s="14">
+        <v>0</v>
+      </c>
+      <c r="O48" s="14">
+        <v>100</v>
+      </c>
+      <c r="P48" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="14"/>
+      <c r="R48" s="13"/>
+      <c r="S48" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="T48" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="U48" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="V48" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" s="5" customFormat="1" ht="313.5">
+      <c r="A49" s="16" t="s">
         <v>135</v>
-      </c>
-      <c r="B47" s="17">
-        <v>2</v>
-      </c>
-      <c r="C47" s="17">
-        <v>7</v>
-      </c>
-      <c r="D47" s="17">
-        <v>1</v>
-      </c>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17">
-        <v>0</v>
-      </c>
-      <c r="G47" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="45" t="s">
-        <v>454</v>
-      </c>
-      <c r="K47" s="17">
-        <v>0</v>
-      </c>
-      <c r="L47" s="17">
-        <v>1</v>
-      </c>
-      <c r="M47" s="17">
-        <v>1</v>
-      </c>
-      <c r="N47" s="17">
-        <v>0</v>
-      </c>
-      <c r="O47" s="17">
-        <v>100</v>
-      </c>
-      <c r="P47" s="18">
-        <v>1</v>
-      </c>
-      <c r="Q47" s="17"/>
-      <c r="R47" s="17"/>
-      <c r="S47" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="T47" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="U47" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="V47" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" s="5" customFormat="1">
-      <c r="A48" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="B48" s="18">
-        <v>2</v>
-      </c>
-      <c r="C48" s="17">
-        <v>7</v>
-      </c>
-      <c r="D48" s="17">
-        <v>10</v>
-      </c>
-      <c r="E48" s="18"/>
-      <c r="F48" s="17">
-        <v>0</v>
-      </c>
-      <c r="G48" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
-      <c r="K48" s="17">
-        <v>0</v>
-      </c>
-      <c r="L48" s="17">
-        <v>1</v>
-      </c>
-      <c r="M48" s="17">
-        <v>1</v>
-      </c>
-      <c r="N48" s="17">
-        <v>0</v>
-      </c>
-      <c r="O48" s="17">
-        <v>100</v>
-      </c>
-      <c r="P48" s="18">
-        <v>1</v>
-      </c>
-      <c r="Q48" s="17"/>
-      <c r="R48" s="18"/>
-      <c r="S48" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="T48" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="U48" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="V48" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22" s="5" customFormat="1">
-      <c r="A49" s="16" t="s">
-        <v>140</v>
       </c>
       <c r="B49" s="17">
         <v>2</v>
@@ -4930,7 +4960,7 @@
         <v>7</v>
       </c>
       <c r="D49" s="17">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E49" s="17"/>
       <c r="F49" s="17">
@@ -4941,7 +4971,9 @@
       </c>
       <c r="H49" s="17"/>
       <c r="I49" s="17"/>
-      <c r="J49" s="17"/>
+      <c r="J49" s="47" t="s">
+        <v>456</v>
+      </c>
       <c r="K49" s="17">
         <v>0</v>
       </c>
@@ -4977,7 +5009,7 @@
     </row>
     <row r="50" spans="1:22" s="5" customFormat="1">
       <c r="A50" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B50" s="18">
         <v>2</v>
@@ -4986,7 +5018,7 @@
         <v>7</v>
       </c>
       <c r="D50" s="17">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E50" s="18"/>
       <c r="F50" s="17">
@@ -5033,7 +5065,7 @@
     </row>
     <row r="51" spans="1:22" s="5" customFormat="1">
       <c r="A51" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B51" s="17">
         <v>2</v>
@@ -5042,7 +5074,7 @@
         <v>7</v>
       </c>
       <c r="D51" s="17">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E51" s="17"/>
       <c r="F51" s="17">
@@ -5089,7 +5121,7 @@
     </row>
     <row r="52" spans="1:22" s="5" customFormat="1">
       <c r="A52" s="16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B52" s="18">
         <v>2</v>
@@ -5098,7 +5130,7 @@
         <v>7</v>
       </c>
       <c r="D52" s="17">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E52" s="18"/>
       <c r="F52" s="17">
@@ -5145,7 +5177,7 @@
     </row>
     <row r="53" spans="1:22" s="5" customFormat="1">
       <c r="A53" s="16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B53" s="17">
         <v>2</v>
@@ -5154,7 +5186,7 @@
         <v>7</v>
       </c>
       <c r="D53" s="17">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E53" s="17"/>
       <c r="F53" s="17">
@@ -5201,7 +5233,7 @@
     </row>
     <row r="54" spans="1:22" s="5" customFormat="1">
       <c r="A54" s="16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B54" s="18">
         <v>2</v>
@@ -5210,7 +5242,7 @@
         <v>7</v>
       </c>
       <c r="D54" s="17">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E54" s="18"/>
       <c r="F54" s="17">
@@ -5257,7 +5289,7 @@
     </row>
     <row r="55" spans="1:22" s="5" customFormat="1">
       <c r="A55" s="16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B55" s="17">
         <v>2</v>
@@ -5266,7 +5298,7 @@
         <v>7</v>
       </c>
       <c r="D55" s="17">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E55" s="17"/>
       <c r="F55" s="17">
@@ -5313,7 +5345,7 @@
     </row>
     <row r="56" spans="1:22" s="5" customFormat="1">
       <c r="A56" s="16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B56" s="18">
         <v>2</v>
@@ -5322,7 +5354,7 @@
         <v>7</v>
       </c>
       <c r="D56" s="17">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E56" s="18"/>
       <c r="F56" s="17">
@@ -5369,7 +5401,7 @@
     </row>
     <row r="57" spans="1:22" s="5" customFormat="1">
       <c r="A57" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B57" s="17">
         <v>2</v>
@@ -5378,14 +5410,14 @@
         <v>7</v>
       </c>
       <c r="D57" s="17">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="E57" s="17"/>
       <c r="F57" s="17">
         <v>0</v>
       </c>
       <c r="G57" s="16" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="H57" s="17"/>
       <c r="I57" s="17"/>
@@ -5414,10 +5446,10 @@
         <v>248</v>
       </c>
       <c r="T57" s="16" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="U57" s="16" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="V57" s="17">
         <v>0</v>
@@ -5425,7 +5457,7 @@
     </row>
     <row r="58" spans="1:22" s="5" customFormat="1">
       <c r="A58" s="16" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B58" s="18">
         <v>2</v>
@@ -5434,14 +5466,14 @@
         <v>7</v>
       </c>
       <c r="D58" s="17">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E58" s="18"/>
       <c r="F58" s="17">
         <v>0</v>
       </c>
       <c r="G58" s="16" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="H58" s="17"/>
       <c r="I58" s="17"/>
@@ -5470,10 +5502,10 @@
         <v>248</v>
       </c>
       <c r="T58" s="16" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="U58" s="16" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="V58" s="17">
         <v>0</v>
@@ -5481,7 +5513,7 @@
     </row>
     <row r="59" spans="1:22" s="5" customFormat="1">
       <c r="A59" s="16" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B59" s="17">
         <v>2</v>
@@ -5490,9 +5522,9 @@
         <v>7</v>
       </c>
       <c r="D59" s="17">
-        <v>30</v>
-      </c>
-      <c r="E59" s="18"/>
+        <v>10</v>
+      </c>
+      <c r="E59" s="17"/>
       <c r="F59" s="17">
         <v>0</v>
       </c>
@@ -5537,7 +5569,7 @@
     </row>
     <row r="60" spans="1:22" s="5" customFormat="1">
       <c r="A60" s="16" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B60" s="18">
         <v>2</v>
@@ -5546,7 +5578,7 @@
         <v>7</v>
       </c>
       <c r="D60" s="17">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E60" s="18"/>
       <c r="F60" s="17">
@@ -5592,8 +5624,8 @@
       </c>
     </row>
     <row r="61" spans="1:22" s="5" customFormat="1">
-      <c r="A61" s="19" t="s">
-        <v>155</v>
+      <c r="A61" s="16" t="s">
+        <v>153</v>
       </c>
       <c r="B61" s="17">
         <v>2</v>
@@ -5601,39 +5633,39 @@
       <c r="C61" s="17">
         <v>7</v>
       </c>
-      <c r="D61" s="20">
-        <v>50</v>
-      </c>
-      <c r="E61" s="21"/>
-      <c r="F61" s="20">
+      <c r="D61" s="17">
+        <v>30</v>
+      </c>
+      <c r="E61" s="18"/>
+      <c r="F61" s="17">
         <v>0</v>
       </c>
       <c r="G61" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="H61" s="20"/>
-      <c r="I61" s="20"/>
-      <c r="J61" s="20"/>
-      <c r="K61" s="20">
-        <v>0</v>
-      </c>
-      <c r="L61" s="20">
+      <c r="H61" s="17"/>
+      <c r="I61" s="17"/>
+      <c r="J61" s="17"/>
+      <c r="K61" s="17">
+        <v>0</v>
+      </c>
+      <c r="L61" s="17">
         <v>1</v>
       </c>
       <c r="M61" s="17">
         <v>1</v>
       </c>
-      <c r="N61" s="20">
-        <v>0</v>
-      </c>
-      <c r="O61" s="20">
+      <c r="N61" s="17">
+        <v>0</v>
+      </c>
+      <c r="O61" s="17">
         <v>100</v>
       </c>
-      <c r="P61" s="21">
-        <v>1</v>
-      </c>
-      <c r="Q61" s="20"/>
-      <c r="R61" s="20"/>
+      <c r="P61" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q61" s="17"/>
+      <c r="R61" s="17"/>
       <c r="S61" s="12" t="s">
         <v>248</v>
       </c>
@@ -5643,13 +5675,13 @@
       <c r="U61" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="V61" s="20">
+      <c r="V61" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:22" s="5" customFormat="1">
-      <c r="A62" s="19" t="s">
-        <v>156</v>
+      <c r="A62" s="16" t="s">
+        <v>154</v>
       </c>
       <c r="B62" s="18">
         <v>2</v>
@@ -5657,39 +5689,39 @@
       <c r="C62" s="17">
         <v>7</v>
       </c>
-      <c r="D62" s="20">
-        <v>60</v>
-      </c>
-      <c r="E62" s="21"/>
-      <c r="F62" s="20">
+      <c r="D62" s="17">
+        <v>40</v>
+      </c>
+      <c r="E62" s="18"/>
+      <c r="F62" s="17">
         <v>0</v>
       </c>
       <c r="G62" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="H62" s="20"/>
-      <c r="I62" s="20"/>
-      <c r="J62" s="20"/>
-      <c r="K62" s="20">
-        <v>0</v>
-      </c>
-      <c r="L62" s="20">
+      <c r="H62" s="17"/>
+      <c r="I62" s="17"/>
+      <c r="J62" s="17"/>
+      <c r="K62" s="17">
+        <v>0</v>
+      </c>
+      <c r="L62" s="17">
         <v>1</v>
       </c>
       <c r="M62" s="17">
         <v>1</v>
       </c>
-      <c r="N62" s="20">
-        <v>0</v>
-      </c>
-      <c r="O62" s="20">
+      <c r="N62" s="17">
+        <v>0</v>
+      </c>
+      <c r="O62" s="17">
         <v>100</v>
       </c>
-      <c r="P62" s="21">
-        <v>1</v>
-      </c>
-      <c r="Q62" s="20"/>
-      <c r="R62" s="20"/>
+      <c r="P62" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="17"/>
+      <c r="R62" s="18"/>
       <c r="S62" s="12" t="s">
         <v>248</v>
       </c>
@@ -5699,125 +5731,125 @@
       <c r="U62" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="V62" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:22" s="6" customFormat="1">
-      <c r="A63" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B63" s="22">
-        <v>1</v>
-      </c>
-      <c r="C63" s="22">
-        <v>0</v>
-      </c>
-      <c r="D63" s="22">
-        <v>0</v>
-      </c>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22">
-        <v>1</v>
-      </c>
-      <c r="G63" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="H63" s="22"/>
-      <c r="I63" s="22"/>
-      <c r="J63" s="22"/>
-      <c r="K63" s="22">
-        <v>20</v>
-      </c>
-      <c r="L63" s="22">
-        <v>0</v>
-      </c>
-      <c r="M63" s="22">
-        <v>1</v>
-      </c>
-      <c r="N63" s="22">
-        <v>0</v>
-      </c>
-      <c r="O63" s="22">
-        <v>20</v>
-      </c>
-      <c r="P63" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q63" s="22"/>
-      <c r="R63" s="22"/>
+      <c r="V62" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" s="5" customFormat="1">
+      <c r="A63" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="B63" s="17">
+        <v>2</v>
+      </c>
+      <c r="C63" s="17">
+        <v>7</v>
+      </c>
+      <c r="D63" s="20">
+        <v>50</v>
+      </c>
+      <c r="E63" s="21"/>
+      <c r="F63" s="20">
+        <v>0</v>
+      </c>
+      <c r="G63" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="20"/>
+      <c r="K63" s="20">
+        <v>0</v>
+      </c>
+      <c r="L63" s="20">
+        <v>1</v>
+      </c>
+      <c r="M63" s="17">
+        <v>1</v>
+      </c>
+      <c r="N63" s="20">
+        <v>0</v>
+      </c>
+      <c r="O63" s="20">
+        <v>100</v>
+      </c>
+      <c r="P63" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q63" s="20"/>
+      <c r="R63" s="20"/>
       <c r="S63" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="T63" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="U63" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="V63" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:22" s="6" customFormat="1">
-      <c r="A64" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="B64" s="22">
-        <v>1</v>
-      </c>
-      <c r="C64" s="22">
-        <v>0</v>
-      </c>
-      <c r="D64" s="22">
-        <v>0</v>
-      </c>
-      <c r="E64" s="22"/>
-      <c r="F64" s="22">
+      <c r="T63" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="U63" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="V63" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" s="5" customFormat="1">
+      <c r="A64" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="B64" s="18">
         <v>2</v>
       </c>
-      <c r="G64" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="H64" s="22"/>
-      <c r="I64" s="22"/>
-      <c r="J64" s="22"/>
-      <c r="K64" s="22">
-        <v>50</v>
-      </c>
-      <c r="L64" s="22">
-        <v>0</v>
-      </c>
-      <c r="M64" s="22">
-        <v>1</v>
-      </c>
-      <c r="N64" s="22">
-        <v>0</v>
-      </c>
-      <c r="O64" s="22">
-        <v>50</v>
-      </c>
-      <c r="P64" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q64" s="22"/>
-      <c r="R64" s="22"/>
+      <c r="C64" s="17">
+        <v>7</v>
+      </c>
+      <c r="D64" s="20">
+        <v>60</v>
+      </c>
+      <c r="E64" s="21"/>
+      <c r="F64" s="20">
+        <v>0</v>
+      </c>
+      <c r="G64" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="20"/>
+      <c r="K64" s="20">
+        <v>0</v>
+      </c>
+      <c r="L64" s="20">
+        <v>1</v>
+      </c>
+      <c r="M64" s="17">
+        <v>1</v>
+      </c>
+      <c r="N64" s="20">
+        <v>0</v>
+      </c>
+      <c r="O64" s="20">
+        <v>100</v>
+      </c>
+      <c r="P64" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q64" s="20"/>
+      <c r="R64" s="20"/>
       <c r="S64" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="T64" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="U64" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="V64" s="22">
+      <c r="T64" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="U64" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="V64" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:22" s="6" customFormat="1">
       <c r="A65" s="22" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B65" s="22">
         <v>1</v>
@@ -5830,7 +5862,7 @@
       </c>
       <c r="E65" s="22"/>
       <c r="F65" s="22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G65" s="22" t="s">
         <v>158</v>
@@ -5839,7 +5871,7 @@
       <c r="I65" s="22"/>
       <c r="J65" s="22"/>
       <c r="K65" s="22">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="L65" s="22">
         <v>0</v>
@@ -5851,7 +5883,7 @@
         <v>0</v>
       </c>
       <c r="O65" s="22">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="P65" s="22">
         <v>1</v>
@@ -5873,7 +5905,7 @@
     </row>
     <row r="66" spans="1:22" s="6" customFormat="1">
       <c r="A66" s="22" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B66" s="22">
         <v>1</v>
@@ -5886,7 +5918,7 @@
       </c>
       <c r="E66" s="22"/>
       <c r="F66" s="22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G66" s="22" t="s">
         <v>158</v>
@@ -5895,7 +5927,7 @@
       <c r="I66" s="22"/>
       <c r="J66" s="22"/>
       <c r="K66" s="22">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="L66" s="22">
         <v>0</v>
@@ -5907,7 +5939,7 @@
         <v>0</v>
       </c>
       <c r="O66" s="22">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="P66" s="22">
         <v>1</v>
@@ -5929,7 +5961,7 @@
     </row>
     <row r="67" spans="1:22" s="6" customFormat="1">
       <c r="A67" s="22" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B67" s="22">
         <v>1</v>
@@ -5942,7 +5974,7 @@
       </c>
       <c r="E67" s="22"/>
       <c r="F67" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G67" s="22" t="s">
         <v>158</v>
@@ -5951,7 +5983,7 @@
       <c r="I67" s="22"/>
       <c r="J67" s="22"/>
       <c r="K67" s="22">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="L67" s="22">
         <v>0</v>
@@ -5963,7 +5995,7 @@
         <v>0</v>
       </c>
       <c r="O67" s="22">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="P67" s="22">
         <v>1</v>
@@ -5985,7 +6017,7 @@
     </row>
     <row r="68" spans="1:22" s="6" customFormat="1">
       <c r="A68" s="22" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B68" s="22">
         <v>1</v>
@@ -5998,7 +6030,7 @@
       </c>
       <c r="E68" s="22"/>
       <c r="F68" s="22">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G68" s="22" t="s">
         <v>158</v>
@@ -6007,7 +6039,7 @@
       <c r="I68" s="22"/>
       <c r="J68" s="22"/>
       <c r="K68" s="22">
-        <v>270</v>
+        <v>140</v>
       </c>
       <c r="L68" s="22">
         <v>0</v>
@@ -6019,7 +6051,7 @@
         <v>0</v>
       </c>
       <c r="O68" s="22">
-        <v>270</v>
+        <v>140</v>
       </c>
       <c r="P68" s="22">
         <v>1</v>
@@ -6041,7 +6073,7 @@
     </row>
     <row r="69" spans="1:22" s="6" customFormat="1">
       <c r="A69" s="22" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B69" s="22">
         <v>1</v>
@@ -6054,7 +6086,7 @@
       </c>
       <c r="E69" s="22"/>
       <c r="F69" s="22">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G69" s="22" t="s">
         <v>158</v>
@@ -6063,7 +6095,7 @@
       <c r="I69" s="22"/>
       <c r="J69" s="22"/>
       <c r="K69" s="22">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="L69" s="22">
         <v>0</v>
@@ -6075,7 +6107,7 @@
         <v>0</v>
       </c>
       <c r="O69" s="22">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="P69" s="22">
         <v>1</v>
@@ -6097,7 +6129,7 @@
     </row>
     <row r="70" spans="1:22" s="6" customFormat="1">
       <c r="A70" s="22" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B70" s="22">
         <v>1</v>
@@ -6110,7 +6142,7 @@
       </c>
       <c r="E70" s="22"/>
       <c r="F70" s="22">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G70" s="22" t="s">
         <v>158</v>
@@ -6119,7 +6151,7 @@
       <c r="I70" s="22"/>
       <c r="J70" s="22"/>
       <c r="K70" s="22">
-        <v>450</v>
+        <v>270</v>
       </c>
       <c r="L70" s="22">
         <v>0</v>
@@ -6131,7 +6163,7 @@
         <v>0</v>
       </c>
       <c r="O70" s="22">
-        <v>450</v>
+        <v>270</v>
       </c>
       <c r="P70" s="22">
         <v>1</v>
@@ -6153,7 +6185,7 @@
     </row>
     <row r="71" spans="1:22" s="6" customFormat="1">
       <c r="A71" s="22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B71" s="22">
         <v>1</v>
@@ -6166,7 +6198,7 @@
       </c>
       <c r="E71" s="22"/>
       <c r="F71" s="22">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G71" s="22" t="s">
         <v>158</v>
@@ -6175,7 +6207,7 @@
       <c r="I71" s="22"/>
       <c r="J71" s="22"/>
       <c r="K71" s="22">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="L71" s="22">
         <v>0</v>
@@ -6187,7 +6219,7 @@
         <v>0</v>
       </c>
       <c r="O71" s="22">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="P71" s="22">
         <v>1</v>
@@ -6209,7 +6241,7 @@
     </row>
     <row r="72" spans="1:22" s="6" customFormat="1">
       <c r="A72" s="22" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B72" s="22">
         <v>1</v>
@@ -6222,7 +6254,7 @@
       </c>
       <c r="E72" s="22"/>
       <c r="F72" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G72" s="22" t="s">
         <v>158</v>
@@ -6231,7 +6263,7 @@
       <c r="I72" s="22"/>
       <c r="J72" s="22"/>
       <c r="K72" s="22">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="L72" s="22">
         <v>0</v>
@@ -6243,7 +6275,7 @@
         <v>0</v>
       </c>
       <c r="O72" s="22">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="P72" s="22">
         <v>1</v>
@@ -6265,29 +6297,29 @@
     </row>
     <row r="73" spans="1:22" s="6" customFormat="1">
       <c r="A73" s="22" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B73" s="22">
         <v>1</v>
       </c>
       <c r="C73" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D73" s="22">
         <v>0</v>
       </c>
       <c r="E73" s="22"/>
       <c r="F73" s="22">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G73" s="22" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="H73" s="22"/>
       <c r="I73" s="22"/>
       <c r="J73" s="22"/>
       <c r="K73" s="22">
-        <v>20</v>
+        <v>600</v>
       </c>
       <c r="L73" s="22">
         <v>0</v>
@@ -6299,7 +6331,7 @@
         <v>0</v>
       </c>
       <c r="O73" s="22">
-        <v>20</v>
+        <v>600</v>
       </c>
       <c r="P73" s="22">
         <v>1</v>
@@ -6310,10 +6342,10 @@
         <v>248</v>
       </c>
       <c r="T73" s="22" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="U73" s="22" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="V73" s="22">
         <v>0</v>
@@ -6321,29 +6353,29 @@
     </row>
     <row r="74" spans="1:22" s="6" customFormat="1">
       <c r="A74" s="22" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B74" s="22">
         <v>1</v>
       </c>
       <c r="C74" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D74" s="22">
         <v>0</v>
       </c>
       <c r="E74" s="22"/>
       <c r="F74" s="22">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G74" s="22" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="H74" s="22"/>
       <c r="I74" s="22"/>
       <c r="J74" s="22"/>
       <c r="K74" s="22">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="L74" s="22">
         <v>0</v>
@@ -6355,7 +6387,7 @@
         <v>0</v>
       </c>
       <c r="O74" s="22">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="P74" s="22">
         <v>1</v>
@@ -6366,10 +6398,10 @@
         <v>248</v>
       </c>
       <c r="T74" s="22" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="U74" s="22" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="V74" s="22">
         <v>0</v>
@@ -6377,7 +6409,7 @@
     </row>
     <row r="75" spans="1:22" s="6" customFormat="1">
       <c r="A75" s="22" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B75" s="22">
         <v>1</v>
@@ -6390,7 +6422,7 @@
       </c>
       <c r="E75" s="22"/>
       <c r="F75" s="22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G75" s="22" t="s">
         <v>171</v>
@@ -6399,7 +6431,7 @@
       <c r="I75" s="22"/>
       <c r="J75" s="22"/>
       <c r="K75" s="22">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="L75" s="22">
         <v>0</v>
@@ -6411,7 +6443,7 @@
         <v>0</v>
       </c>
       <c r="O75" s="22">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="P75" s="22">
         <v>1</v>
@@ -6433,7 +6465,7 @@
     </row>
     <row r="76" spans="1:22" s="6" customFormat="1">
       <c r="A76" s="22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B76" s="22">
         <v>1</v>
@@ -6446,7 +6478,7 @@
       </c>
       <c r="E76" s="22"/>
       <c r="F76" s="22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G76" s="22" t="s">
         <v>171</v>
@@ -6455,7 +6487,7 @@
       <c r="I76" s="22"/>
       <c r="J76" s="22"/>
       <c r="K76" s="22">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="L76" s="22">
         <v>0</v>
@@ -6467,7 +6499,7 @@
         <v>0</v>
       </c>
       <c r="O76" s="22">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="P76" s="22">
         <v>1</v>
@@ -6489,7 +6521,7 @@
     </row>
     <row r="77" spans="1:22" s="6" customFormat="1">
       <c r="A77" s="22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B77" s="22">
         <v>1</v>
@@ -6502,7 +6534,7 @@
       </c>
       <c r="E77" s="22"/>
       <c r="F77" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G77" s="22" t="s">
         <v>171</v>
@@ -6511,7 +6543,7 @@
       <c r="I77" s="22"/>
       <c r="J77" s="22"/>
       <c r="K77" s="22">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="L77" s="22">
         <v>0</v>
@@ -6523,7 +6555,7 @@
         <v>0</v>
       </c>
       <c r="O77" s="22">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="P77" s="22">
         <v>1</v>
@@ -6545,7 +6577,7 @@
     </row>
     <row r="78" spans="1:22" s="6" customFormat="1">
       <c r="A78" s="22" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B78" s="22">
         <v>1</v>
@@ -6558,7 +6590,7 @@
       </c>
       <c r="E78" s="22"/>
       <c r="F78" s="22">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G78" s="22" t="s">
         <v>171</v>
@@ -6567,7 +6599,7 @@
       <c r="I78" s="22"/>
       <c r="J78" s="22"/>
       <c r="K78" s="22">
-        <v>270</v>
+        <v>140</v>
       </c>
       <c r="L78" s="22">
         <v>0</v>
@@ -6579,7 +6611,7 @@
         <v>0</v>
       </c>
       <c r="O78" s="22">
-        <v>270</v>
+        <v>140</v>
       </c>
       <c r="P78" s="22">
         <v>1</v>
@@ -6601,7 +6633,7 @@
     </row>
     <row r="79" spans="1:22" s="6" customFormat="1">
       <c r="A79" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B79" s="22">
         <v>1</v>
@@ -6614,7 +6646,7 @@
       </c>
       <c r="E79" s="22"/>
       <c r="F79" s="22">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G79" s="22" t="s">
         <v>171</v>
@@ -6623,7 +6655,7 @@
       <c r="I79" s="22"/>
       <c r="J79" s="22"/>
       <c r="K79" s="22">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="L79" s="22">
         <v>0</v>
@@ -6635,7 +6667,7 @@
         <v>0</v>
       </c>
       <c r="O79" s="22">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="P79" s="22">
         <v>1</v>
@@ -6657,7 +6689,7 @@
     </row>
     <row r="80" spans="1:22" s="6" customFormat="1">
       <c r="A80" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B80" s="22">
         <v>1</v>
@@ -6670,7 +6702,7 @@
       </c>
       <c r="E80" s="22"/>
       <c r="F80" s="22">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G80" s="22" t="s">
         <v>171</v>
@@ -6679,7 +6711,7 @@
       <c r="I80" s="22"/>
       <c r="J80" s="22"/>
       <c r="K80" s="22">
-        <v>450</v>
+        <v>270</v>
       </c>
       <c r="L80" s="22">
         <v>0</v>
@@ -6691,7 +6723,7 @@
         <v>0</v>
       </c>
       <c r="O80" s="22">
-        <v>450</v>
+        <v>270</v>
       </c>
       <c r="P80" s="22">
         <v>1</v>
@@ -6713,7 +6745,7 @@
     </row>
     <row r="81" spans="1:22" s="6" customFormat="1">
       <c r="A81" s="22" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B81" s="22">
         <v>1</v>
@@ -6726,7 +6758,7 @@
       </c>
       <c r="E81" s="22"/>
       <c r="F81" s="22">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G81" s="22" t="s">
         <v>171</v>
@@ -6735,7 +6767,7 @@
       <c r="I81" s="22"/>
       <c r="J81" s="22"/>
       <c r="K81" s="22">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="L81" s="22">
         <v>0</v>
@@ -6747,7 +6779,7 @@
         <v>0</v>
       </c>
       <c r="O81" s="22">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="P81" s="22">
         <v>1</v>
@@ -6769,7 +6801,7 @@
     </row>
     <row r="82" spans="1:22" s="6" customFormat="1">
       <c r="A82" s="22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B82" s="22">
         <v>1</v>
@@ -6782,7 +6814,7 @@
       </c>
       <c r="E82" s="22"/>
       <c r="F82" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G82" s="22" t="s">
         <v>171</v>
@@ -6791,7 +6823,7 @@
       <c r="I82" s="22"/>
       <c r="J82" s="22"/>
       <c r="K82" s="22">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="L82" s="22">
         <v>0</v>
@@ -6803,7 +6835,7 @@
         <v>0</v>
       </c>
       <c r="O82" s="22">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="P82" s="22">
         <v>1</v>
@@ -6825,29 +6857,29 @@
     </row>
     <row r="83" spans="1:22" s="6" customFormat="1">
       <c r="A83" s="22" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B83" s="22">
         <v>1</v>
       </c>
       <c r="C83" s="22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D83" s="22">
         <v>0</v>
       </c>
       <c r="E83" s="22"/>
       <c r="F83" s="22">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G83" s="22" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="H83" s="22"/>
       <c r="I83" s="22"/>
       <c r="J83" s="22"/>
       <c r="K83" s="22">
-        <v>20</v>
+        <v>600</v>
       </c>
       <c r="L83" s="22">
         <v>0</v>
@@ -6859,7 +6891,7 @@
         <v>0</v>
       </c>
       <c r="O83" s="22">
-        <v>20</v>
+        <v>600</v>
       </c>
       <c r="P83" s="22">
         <v>1</v>
@@ -6870,10 +6902,10 @@
         <v>248</v>
       </c>
       <c r="T83" s="22" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="U83" s="22" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="V83" s="22">
         <v>0</v>
@@ -6881,29 +6913,29 @@
     </row>
     <row r="84" spans="1:22" s="6" customFormat="1">
       <c r="A84" s="22" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B84" s="22">
         <v>1</v>
       </c>
       <c r="C84" s="22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D84" s="22">
         <v>0</v>
       </c>
       <c r="E84" s="22"/>
       <c r="F84" s="22">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G84" s="22" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="H84" s="22"/>
       <c r="I84" s="22"/>
       <c r="J84" s="22"/>
       <c r="K84" s="22">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="L84" s="22">
         <v>0</v>
@@ -6915,7 +6947,7 @@
         <v>0</v>
       </c>
       <c r="O84" s="22">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="P84" s="22">
         <v>1</v>
@@ -6926,10 +6958,10 @@
         <v>248</v>
       </c>
       <c r="T84" s="22" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="U84" s="22" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="V84" s="22">
         <v>0</v>
@@ -6937,7 +6969,7 @@
     </row>
     <row r="85" spans="1:22" s="6" customFormat="1">
       <c r="A85" s="22" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B85" s="22">
         <v>1</v>
@@ -6950,7 +6982,7 @@
       </c>
       <c r="E85" s="22"/>
       <c r="F85" s="22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G85" s="22" t="s">
         <v>184</v>
@@ -6959,7 +6991,7 @@
       <c r="I85" s="22"/>
       <c r="J85" s="22"/>
       <c r="K85" s="22">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="L85" s="22">
         <v>0</v>
@@ -6971,7 +7003,7 @@
         <v>0</v>
       </c>
       <c r="O85" s="22">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="P85" s="22">
         <v>1</v>
@@ -6993,7 +7025,7 @@
     </row>
     <row r="86" spans="1:22" s="6" customFormat="1">
       <c r="A86" s="22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B86" s="22">
         <v>1</v>
@@ -7006,7 +7038,7 @@
       </c>
       <c r="E86" s="22"/>
       <c r="F86" s="22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G86" s="22" t="s">
         <v>184</v>
@@ -7015,7 +7047,7 @@
       <c r="I86" s="22"/>
       <c r="J86" s="22"/>
       <c r="K86" s="22">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="L86" s="22">
         <v>0</v>
@@ -7027,7 +7059,7 @@
         <v>0</v>
       </c>
       <c r="O86" s="22">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="P86" s="22">
         <v>1</v>
@@ -7049,7 +7081,7 @@
     </row>
     <row r="87" spans="1:22" s="6" customFormat="1">
       <c r="A87" s="22" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B87" s="22">
         <v>1</v>
@@ -7062,7 +7094,7 @@
       </c>
       <c r="E87" s="22"/>
       <c r="F87" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G87" s="22" t="s">
         <v>184</v>
@@ -7071,7 +7103,7 @@
       <c r="I87" s="22"/>
       <c r="J87" s="22"/>
       <c r="K87" s="22">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="L87" s="22">
         <v>0</v>
@@ -7083,7 +7115,7 @@
         <v>0</v>
       </c>
       <c r="O87" s="22">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="P87" s="22">
         <v>1</v>
@@ -7105,7 +7137,7 @@
     </row>
     <row r="88" spans="1:22" s="6" customFormat="1">
       <c r="A88" s="22" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B88" s="22">
         <v>1</v>
@@ -7118,7 +7150,7 @@
       </c>
       <c r="E88" s="22"/>
       <c r="F88" s="22">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G88" s="22" t="s">
         <v>184</v>
@@ -7127,7 +7159,7 @@
       <c r="I88" s="22"/>
       <c r="J88" s="22"/>
       <c r="K88" s="22">
-        <v>270</v>
+        <v>140</v>
       </c>
       <c r="L88" s="22">
         <v>0</v>
@@ -7139,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="O88" s="22">
-        <v>270</v>
+        <v>140</v>
       </c>
       <c r="P88" s="22">
         <v>1</v>
@@ -7161,7 +7193,7 @@
     </row>
     <row r="89" spans="1:22" s="6" customFormat="1">
       <c r="A89" s="22" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B89" s="22">
         <v>1</v>
@@ -7174,7 +7206,7 @@
       </c>
       <c r="E89" s="22"/>
       <c r="F89" s="22">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G89" s="22" t="s">
         <v>184</v>
@@ -7183,7 +7215,7 @@
       <c r="I89" s="22"/>
       <c r="J89" s="22"/>
       <c r="K89" s="22">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="L89" s="22">
         <v>0</v>
@@ -7195,7 +7227,7 @@
         <v>0</v>
       </c>
       <c r="O89" s="22">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="P89" s="22">
         <v>1</v>
@@ -7217,7 +7249,7 @@
     </row>
     <row r="90" spans="1:22" s="6" customFormat="1">
       <c r="A90" s="22" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B90" s="22">
         <v>1</v>
@@ -7230,7 +7262,7 @@
       </c>
       <c r="E90" s="22"/>
       <c r="F90" s="22">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G90" s="22" t="s">
         <v>184</v>
@@ -7239,7 +7271,7 @@
       <c r="I90" s="22"/>
       <c r="J90" s="22"/>
       <c r="K90" s="22">
-        <v>450</v>
+        <v>270</v>
       </c>
       <c r="L90" s="22">
         <v>0</v>
@@ -7251,7 +7283,7 @@
         <v>0</v>
       </c>
       <c r="O90" s="22">
-        <v>450</v>
+        <v>270</v>
       </c>
       <c r="P90" s="22">
         <v>1</v>
@@ -7273,7 +7305,7 @@
     </row>
     <row r="91" spans="1:22" s="6" customFormat="1">
       <c r="A91" s="22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B91" s="22">
         <v>1</v>
@@ -7286,7 +7318,7 @@
       </c>
       <c r="E91" s="22"/>
       <c r="F91" s="22">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G91" s="22" t="s">
         <v>184</v>
@@ -7295,7 +7327,7 @@
       <c r="I91" s="22"/>
       <c r="J91" s="22"/>
       <c r="K91" s="22">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="L91" s="22">
         <v>0</v>
@@ -7307,7 +7339,7 @@
         <v>0</v>
       </c>
       <c r="O91" s="22">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="P91" s="22">
         <v>1</v>
@@ -7329,7 +7361,7 @@
     </row>
     <row r="92" spans="1:22" s="6" customFormat="1">
       <c r="A92" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B92" s="22">
         <v>1</v>
@@ -7342,7 +7374,7 @@
       </c>
       <c r="E92" s="22"/>
       <c r="F92" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G92" s="22" t="s">
         <v>184</v>
@@ -7351,7 +7383,7 @@
       <c r="I92" s="22"/>
       <c r="J92" s="22"/>
       <c r="K92" s="22">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="L92" s="22">
         <v>0</v>
@@ -7363,7 +7395,7 @@
         <v>0</v>
       </c>
       <c r="O92" s="22">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="P92" s="22">
         <v>1</v>
@@ -7385,29 +7417,29 @@
     </row>
     <row r="93" spans="1:22" s="6" customFormat="1">
       <c r="A93" s="22" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B93" s="22">
         <v>1</v>
       </c>
       <c r="C93" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" s="22">
         <v>0</v>
       </c>
       <c r="E93" s="22"/>
       <c r="F93" s="22">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G93" s="22" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="H93" s="22"/>
       <c r="I93" s="22"/>
       <c r="J93" s="22"/>
       <c r="K93" s="22">
-        <v>20</v>
+        <v>600</v>
       </c>
       <c r="L93" s="22">
         <v>0</v>
@@ -7419,7 +7451,7 @@
         <v>0</v>
       </c>
       <c r="O93" s="22">
-        <v>20</v>
+        <v>600</v>
       </c>
       <c r="P93" s="22">
         <v>1</v>
@@ -7430,10 +7462,10 @@
         <v>248</v>
       </c>
       <c r="T93" s="22" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="U93" s="22" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="V93" s="22">
         <v>0</v>
@@ -7441,29 +7473,29 @@
     </row>
     <row r="94" spans="1:22" s="6" customFormat="1">
       <c r="A94" s="22" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B94" s="22">
         <v>1</v>
       </c>
       <c r="C94" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" s="22">
         <v>0</v>
       </c>
       <c r="E94" s="22"/>
       <c r="F94" s="22">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G94" s="22" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="H94" s="22"/>
       <c r="I94" s="22"/>
       <c r="J94" s="22"/>
       <c r="K94" s="22">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="L94" s="22">
         <v>0</v>
@@ -7475,7 +7507,7 @@
         <v>0</v>
       </c>
       <c r="O94" s="22">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="P94" s="22">
         <v>1</v>
@@ -7486,10 +7518,10 @@
         <v>248</v>
       </c>
       <c r="T94" s="22" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="U94" s="22" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="V94" s="22">
         <v>0</v>
@@ -7497,7 +7529,7 @@
     </row>
     <row r="95" spans="1:22" s="6" customFormat="1">
       <c r="A95" s="22" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B95" s="22">
         <v>1</v>
@@ -7510,7 +7542,7 @@
       </c>
       <c r="E95" s="22"/>
       <c r="F95" s="22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G95" s="22" t="s">
         <v>197</v>
@@ -7519,7 +7551,7 @@
       <c r="I95" s="22"/>
       <c r="J95" s="22"/>
       <c r="K95" s="22">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="L95" s="22">
         <v>0</v>
@@ -7531,7 +7563,7 @@
         <v>0</v>
       </c>
       <c r="O95" s="22">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="P95" s="22">
         <v>1</v>
@@ -7553,7 +7585,7 @@
     </row>
     <row r="96" spans="1:22" s="6" customFormat="1">
       <c r="A96" s="22" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B96" s="22">
         <v>1</v>
@@ -7566,7 +7598,7 @@
       </c>
       <c r="E96" s="22"/>
       <c r="F96" s="22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G96" s="22" t="s">
         <v>197</v>
@@ -7575,7 +7607,7 @@
       <c r="I96" s="22"/>
       <c r="J96" s="22"/>
       <c r="K96" s="22">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="L96" s="22">
         <v>0</v>
@@ -7587,7 +7619,7 @@
         <v>0</v>
       </c>
       <c r="O96" s="22">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="P96" s="22">
         <v>1</v>
@@ -7609,7 +7641,7 @@
     </row>
     <row r="97" spans="1:22" s="6" customFormat="1">
       <c r="A97" s="22" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B97" s="22">
         <v>1</v>
@@ -7622,7 +7654,7 @@
       </c>
       <c r="E97" s="22"/>
       <c r="F97" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G97" s="22" t="s">
         <v>197</v>
@@ -7631,7 +7663,7 @@
       <c r="I97" s="22"/>
       <c r="J97" s="22"/>
       <c r="K97" s="22">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="L97" s="22">
         <v>0</v>
@@ -7643,7 +7675,7 @@
         <v>0</v>
       </c>
       <c r="O97" s="22">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="P97" s="22">
         <v>1</v>
@@ -7665,7 +7697,7 @@
     </row>
     <row r="98" spans="1:22" s="6" customFormat="1">
       <c r="A98" s="22" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B98" s="22">
         <v>1</v>
@@ -7678,7 +7710,7 @@
       </c>
       <c r="E98" s="22"/>
       <c r="F98" s="22">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G98" s="22" t="s">
         <v>197</v>
@@ -7687,7 +7719,7 @@
       <c r="I98" s="22"/>
       <c r="J98" s="22"/>
       <c r="K98" s="22">
-        <v>270</v>
+        <v>140</v>
       </c>
       <c r="L98" s="22">
         <v>0</v>
@@ -7699,7 +7731,7 @@
         <v>0</v>
       </c>
       <c r="O98" s="22">
-        <v>270</v>
+        <v>140</v>
       </c>
       <c r="P98" s="22">
         <v>1</v>
@@ -7721,7 +7753,7 @@
     </row>
     <row r="99" spans="1:22" s="6" customFormat="1">
       <c r="A99" s="22" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B99" s="22">
         <v>1</v>
@@ -7734,7 +7766,7 @@
       </c>
       <c r="E99" s="22"/>
       <c r="F99" s="22">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G99" s="22" t="s">
         <v>197</v>
@@ -7743,7 +7775,7 @@
       <c r="I99" s="22"/>
       <c r="J99" s="22"/>
       <c r="K99" s="22">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="L99" s="22">
         <v>0</v>
@@ -7755,7 +7787,7 @@
         <v>0</v>
       </c>
       <c r="O99" s="22">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="P99" s="22">
         <v>1</v>
@@ -7777,7 +7809,7 @@
     </row>
     <row r="100" spans="1:22" s="6" customFormat="1">
       <c r="A100" s="22" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B100" s="22">
         <v>1</v>
@@ -7790,7 +7822,7 @@
       </c>
       <c r="E100" s="22"/>
       <c r="F100" s="22">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G100" s="22" t="s">
         <v>197</v>
@@ -7799,7 +7831,7 @@
       <c r="I100" s="22"/>
       <c r="J100" s="22"/>
       <c r="K100" s="22">
-        <v>450</v>
+        <v>270</v>
       </c>
       <c r="L100" s="22">
         <v>0</v>
@@ -7811,7 +7843,7 @@
         <v>0</v>
       </c>
       <c r="O100" s="22">
-        <v>450</v>
+        <v>270</v>
       </c>
       <c r="P100" s="22">
         <v>1</v>
@@ -7833,7 +7865,7 @@
     </row>
     <row r="101" spans="1:22" s="6" customFormat="1">
       <c r="A101" s="22" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B101" s="22">
         <v>1</v>
@@ -7846,7 +7878,7 @@
       </c>
       <c r="E101" s="22"/>
       <c r="F101" s="22">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G101" s="22" t="s">
         <v>197</v>
@@ -7855,7 +7887,7 @@
       <c r="I101" s="22"/>
       <c r="J101" s="22"/>
       <c r="K101" s="22">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="L101" s="22">
         <v>0</v>
@@ -7867,7 +7899,7 @@
         <v>0</v>
       </c>
       <c r="O101" s="22">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="P101" s="22">
         <v>1</v>
@@ -7889,7 +7921,7 @@
     </row>
     <row r="102" spans="1:22" s="6" customFormat="1">
       <c r="A102" s="22" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B102" s="22">
         <v>1</v>
@@ -7902,7 +7934,7 @@
       </c>
       <c r="E102" s="22"/>
       <c r="F102" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G102" s="22" t="s">
         <v>197</v>
@@ -7911,7 +7943,7 @@
       <c r="I102" s="22"/>
       <c r="J102" s="22"/>
       <c r="K102" s="22">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="L102" s="22">
         <v>0</v>
@@ -7923,7 +7955,7 @@
         <v>0</v>
       </c>
       <c r="O102" s="22">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="P102" s="22">
         <v>1</v>
@@ -7943,121 +7975,121 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:22" s="7" customFormat="1">
-      <c r="A103" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="B103" s="23">
+    <row r="103" spans="1:22" s="6" customFormat="1">
+      <c r="A103" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="B103" s="22">
         <v>1</v>
       </c>
       <c r="C103" s="22">
-        <v>5</v>
-      </c>
-      <c r="D103" s="23">
-        <v>0</v>
-      </c>
-      <c r="E103" s="23"/>
-      <c r="F103" s="23">
-        <v>1</v>
-      </c>
-      <c r="G103" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="H103" s="23"/>
-      <c r="I103" s="23"/>
-      <c r="J103" s="23"/>
+        <v>4</v>
+      </c>
+      <c r="D103" s="22">
+        <v>0</v>
+      </c>
+      <c r="E103" s="22"/>
+      <c r="F103" s="22">
+        <v>9</v>
+      </c>
+      <c r="G103" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="H103" s="22"/>
+      <c r="I103" s="22"/>
+      <c r="J103" s="22"/>
       <c r="K103" s="22">
-        <v>20</v>
-      </c>
-      <c r="L103" s="23">
+        <v>600</v>
+      </c>
+      <c r="L103" s="22">
         <v>0</v>
       </c>
       <c r="M103" s="22">
         <v>1</v>
       </c>
-      <c r="N103" s="23">
+      <c r="N103" s="22">
         <v>0</v>
       </c>
       <c r="O103" s="22">
-        <v>20</v>
+        <v>600</v>
       </c>
       <c r="P103" s="22">
         <v>1</v>
       </c>
-      <c r="Q103" s="23"/>
+      <c r="Q103" s="22"/>
       <c r="R103" s="22"/>
       <c r="S103" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="T103" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="U103" s="23" t="s">
-        <v>212</v>
-      </c>
-      <c r="V103" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:22" s="7" customFormat="1">
-      <c r="A104" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="B104" s="23">
+      <c r="T103" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="U103" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="V103" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22" s="6" customFormat="1">
+      <c r="A104" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="B104" s="22">
         <v>1</v>
       </c>
       <c r="C104" s="22">
-        <v>5</v>
-      </c>
-      <c r="D104" s="23">
-        <v>0</v>
-      </c>
-      <c r="E104" s="23"/>
-      <c r="F104" s="23">
-        <v>2</v>
-      </c>
-      <c r="G104" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="H104" s="23"/>
-      <c r="I104" s="23"/>
-      <c r="J104" s="23"/>
+        <v>4</v>
+      </c>
+      <c r="D104" s="22">
+        <v>0</v>
+      </c>
+      <c r="E104" s="22"/>
+      <c r="F104" s="22">
+        <v>10</v>
+      </c>
+      <c r="G104" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="H104" s="22"/>
+      <c r="I104" s="22"/>
+      <c r="J104" s="22"/>
       <c r="K104" s="22">
-        <v>50</v>
-      </c>
-      <c r="L104" s="23">
+        <v>1000</v>
+      </c>
+      <c r="L104" s="22">
         <v>0</v>
       </c>
       <c r="M104" s="22">
         <v>1</v>
       </c>
-      <c r="N104" s="23">
+      <c r="N104" s="22">
         <v>0</v>
       </c>
       <c r="O104" s="22">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="P104" s="22">
         <v>1</v>
       </c>
-      <c r="Q104" s="23"/>
+      <c r="Q104" s="22"/>
       <c r="R104" s="22"/>
       <c r="S104" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="T104" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="U104" s="23" t="s">
-        <v>212</v>
-      </c>
-      <c r="V104" s="23">
+      <c r="T104" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="U104" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="V104" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:22" s="7" customFormat="1">
       <c r="A105" s="23" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B105" s="23">
         <v>1</v>
@@ -8070,7 +8102,7 @@
       </c>
       <c r="E105" s="23"/>
       <c r="F105" s="23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G105" s="23" t="s">
         <v>210</v>
@@ -8079,7 +8111,7 @@
       <c r="I105" s="23"/>
       <c r="J105" s="23"/>
       <c r="K105" s="22">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="L105" s="23">
         <v>0</v>
@@ -8091,7 +8123,7 @@
         <v>0</v>
       </c>
       <c r="O105" s="22">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="P105" s="22">
         <v>1</v>
@@ -8113,7 +8145,7 @@
     </row>
     <row r="106" spans="1:22" s="7" customFormat="1">
       <c r="A106" s="23" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B106" s="23">
         <v>1</v>
@@ -8126,7 +8158,7 @@
       </c>
       <c r="E106" s="23"/>
       <c r="F106" s="23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G106" s="23" t="s">
         <v>210</v>
@@ -8135,7 +8167,7 @@
       <c r="I106" s="23"/>
       <c r="J106" s="23"/>
       <c r="K106" s="22">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="L106" s="23">
         <v>0</v>
@@ -8147,7 +8179,7 @@
         <v>0</v>
       </c>
       <c r="O106" s="22">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="P106" s="22">
         <v>1</v>
@@ -8169,7 +8201,7 @@
     </row>
     <row r="107" spans="1:22" s="7" customFormat="1">
       <c r="A107" s="23" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B107" s="23">
         <v>1</v>
@@ -8182,7 +8214,7 @@
       </c>
       <c r="E107" s="23"/>
       <c r="F107" s="23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G107" s="23" t="s">
         <v>210</v>
@@ -8191,7 +8223,7 @@
       <c r="I107" s="23"/>
       <c r="J107" s="23"/>
       <c r="K107" s="22">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="L107" s="23">
         <v>0</v>
@@ -8203,7 +8235,7 @@
         <v>0</v>
       </c>
       <c r="O107" s="22">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="P107" s="22">
         <v>1</v>
@@ -8225,7 +8257,7 @@
     </row>
     <row r="108" spans="1:22" s="7" customFormat="1">
       <c r="A108" s="23" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B108" s="23">
         <v>1</v>
@@ -8238,7 +8270,7 @@
       </c>
       <c r="E108" s="23"/>
       <c r="F108" s="23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G108" s="23" t="s">
         <v>210</v>
@@ -8247,7 +8279,7 @@
       <c r="I108" s="23"/>
       <c r="J108" s="23"/>
       <c r="K108" s="22">
-        <v>270</v>
+        <v>140</v>
       </c>
       <c r="L108" s="23">
         <v>0</v>
@@ -8259,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="O108" s="22">
-        <v>270</v>
+        <v>140</v>
       </c>
       <c r="P108" s="22">
         <v>1</v>
@@ -8281,7 +8313,7 @@
     </row>
     <row r="109" spans="1:22" s="7" customFormat="1">
       <c r="A109" s="23" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B109" s="23">
         <v>1</v>
@@ -8294,7 +8326,7 @@
       </c>
       <c r="E109" s="23"/>
       <c r="F109" s="23">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G109" s="23" t="s">
         <v>210</v>
@@ -8303,7 +8335,7 @@
       <c r="I109" s="23"/>
       <c r="J109" s="23"/>
       <c r="K109" s="22">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="L109" s="23">
         <v>0</v>
@@ -8315,7 +8347,7 @@
         <v>0</v>
       </c>
       <c r="O109" s="22">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="P109" s="22">
         <v>1</v>
@@ -8337,7 +8369,7 @@
     </row>
     <row r="110" spans="1:22" s="7" customFormat="1">
       <c r="A110" s="23" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B110" s="23">
         <v>1</v>
@@ -8350,7 +8382,7 @@
       </c>
       <c r="E110" s="23"/>
       <c r="F110" s="23">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G110" s="23" t="s">
         <v>210</v>
@@ -8359,7 +8391,7 @@
       <c r="I110" s="23"/>
       <c r="J110" s="23"/>
       <c r="K110" s="22">
-        <v>450</v>
+        <v>270</v>
       </c>
       <c r="L110" s="23">
         <v>0</v>
@@ -8371,7 +8403,7 @@
         <v>0</v>
       </c>
       <c r="O110" s="22">
-        <v>450</v>
+        <v>270</v>
       </c>
       <c r="P110" s="22">
         <v>1</v>
@@ -8393,7 +8425,7 @@
     </row>
     <row r="111" spans="1:22" s="7" customFormat="1">
       <c r="A111" s="23" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B111" s="23">
         <v>1</v>
@@ -8406,7 +8438,7 @@
       </c>
       <c r="E111" s="23"/>
       <c r="F111" s="23">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G111" s="23" t="s">
         <v>210</v>
@@ -8415,7 +8447,7 @@
       <c r="I111" s="23"/>
       <c r="J111" s="23"/>
       <c r="K111" s="22">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="L111" s="23">
         <v>0</v>
@@ -8427,7 +8459,7 @@
         <v>0</v>
       </c>
       <c r="O111" s="22">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="P111" s="22">
         <v>1</v>
@@ -8449,7 +8481,7 @@
     </row>
     <row r="112" spans="1:22" s="7" customFormat="1">
       <c r="A112" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B112" s="23">
         <v>1</v>
@@ -8462,7 +8494,7 @@
       </c>
       <c r="E112" s="23"/>
       <c r="F112" s="23">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G112" s="23" t="s">
         <v>210</v>
@@ -8471,7 +8503,7 @@
       <c r="I112" s="23"/>
       <c r="J112" s="23"/>
       <c r="K112" s="22">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="L112" s="23">
         <v>0</v>
@@ -8483,7 +8515,7 @@
         <v>0</v>
       </c>
       <c r="O112" s="22">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="P112" s="22">
         <v>1</v>
@@ -8503,121 +8535,121 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:22" s="6" customFormat="1">
-      <c r="A113" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="B113" s="22">
-        <v>1</v>
-      </c>
-      <c r="C113" s="23">
-        <v>6</v>
-      </c>
-      <c r="D113" s="22">
-        <v>0</v>
-      </c>
-      <c r="E113" s="22"/>
-      <c r="F113" s="22">
-        <v>1</v>
-      </c>
-      <c r="G113" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="H113" s="22"/>
-      <c r="I113" s="22"/>
-      <c r="J113" s="22"/>
+    <row r="113" spans="1:22" s="7" customFormat="1">
+      <c r="A113" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="B113" s="23">
+        <v>1</v>
+      </c>
+      <c r="C113" s="22">
+        <v>5</v>
+      </c>
+      <c r="D113" s="23">
+        <v>0</v>
+      </c>
+      <c r="E113" s="23"/>
+      <c r="F113" s="23">
+        <v>9</v>
+      </c>
+      <c r="G113" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="H113" s="23"/>
+      <c r="I113" s="23"/>
+      <c r="J113" s="23"/>
       <c r="K113" s="22">
-        <v>20</v>
-      </c>
-      <c r="L113" s="22">
+        <v>600</v>
+      </c>
+      <c r="L113" s="23">
         <v>0</v>
       </c>
       <c r="M113" s="22">
         <v>1</v>
       </c>
-      <c r="N113" s="22">
+      <c r="N113" s="23">
         <v>0</v>
       </c>
       <c r="O113" s="22">
-        <v>20</v>
+        <v>600</v>
       </c>
       <c r="P113" s="22">
         <v>1</v>
       </c>
-      <c r="Q113" s="22"/>
+      <c r="Q113" s="23"/>
       <c r="R113" s="22"/>
       <c r="S113" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="T113" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="U113" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="V113" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:22" s="6" customFormat="1">
-      <c r="A114" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="B114" s="22">
-        <v>1</v>
-      </c>
-      <c r="C114" s="23">
-        <v>6</v>
-      </c>
-      <c r="D114" s="22">
-        <v>0</v>
-      </c>
-      <c r="E114" s="22"/>
-      <c r="F114" s="22">
-        <v>2</v>
-      </c>
-      <c r="G114" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="H114" s="22"/>
-      <c r="I114" s="22"/>
-      <c r="J114" s="22"/>
+      <c r="T113" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="U113" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="V113" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:22" s="7" customFormat="1">
+      <c r="A114" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="B114" s="23">
+        <v>1</v>
+      </c>
+      <c r="C114" s="22">
+        <v>5</v>
+      </c>
+      <c r="D114" s="23">
+        <v>0</v>
+      </c>
+      <c r="E114" s="23"/>
+      <c r="F114" s="23">
+        <v>10</v>
+      </c>
+      <c r="G114" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="H114" s="23"/>
+      <c r="I114" s="23"/>
+      <c r="J114" s="23"/>
       <c r="K114" s="22">
-        <v>50</v>
-      </c>
-      <c r="L114" s="22">
+        <v>1000</v>
+      </c>
+      <c r="L114" s="23">
         <v>0</v>
       </c>
       <c r="M114" s="22">
         <v>1</v>
       </c>
-      <c r="N114" s="22">
+      <c r="N114" s="23">
         <v>0</v>
       </c>
       <c r="O114" s="22">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="P114" s="22">
         <v>1</v>
       </c>
-      <c r="Q114" s="22"/>
+      <c r="Q114" s="23"/>
       <c r="R114" s="22"/>
       <c r="S114" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="T114" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="U114" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="V114" s="22">
+      <c r="T114" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="U114" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="V114" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:22" s="6" customFormat="1">
       <c r="A115" s="22" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B115" s="22">
         <v>1</v>
@@ -8630,7 +8662,7 @@
       </c>
       <c r="E115" s="22"/>
       <c r="F115" s="22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G115" s="22" t="s">
         <v>223</v>
@@ -8639,7 +8671,7 @@
       <c r="I115" s="22"/>
       <c r="J115" s="22"/>
       <c r="K115" s="22">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="L115" s="22">
         <v>0</v>
@@ -8651,7 +8683,7 @@
         <v>0</v>
       </c>
       <c r="O115" s="22">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="P115" s="22">
         <v>1</v>
@@ -8673,7 +8705,7 @@
     </row>
     <row r="116" spans="1:22" s="6" customFormat="1">
       <c r="A116" s="22" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B116" s="22">
         <v>1</v>
@@ -8686,7 +8718,7 @@
       </c>
       <c r="E116" s="22"/>
       <c r="F116" s="22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G116" s="22" t="s">
         <v>223</v>
@@ -8695,7 +8727,7 @@
       <c r="I116" s="22"/>
       <c r="J116" s="22"/>
       <c r="K116" s="22">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="L116" s="22">
         <v>0</v>
@@ -8707,7 +8739,7 @@
         <v>0</v>
       </c>
       <c r="O116" s="22">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="P116" s="22">
         <v>1</v>
@@ -8729,7 +8761,7 @@
     </row>
     <row r="117" spans="1:22" s="6" customFormat="1">
       <c r="A117" s="22" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B117" s="22">
         <v>1</v>
@@ -8742,7 +8774,7 @@
       </c>
       <c r="E117" s="22"/>
       <c r="F117" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G117" s="22" t="s">
         <v>223</v>
@@ -8751,7 +8783,7 @@
       <c r="I117" s="22"/>
       <c r="J117" s="22"/>
       <c r="K117" s="22">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="L117" s="22">
         <v>0</v>
@@ -8763,7 +8795,7 @@
         <v>0</v>
       </c>
       <c r="O117" s="22">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="P117" s="22">
         <v>1</v>
@@ -8785,7 +8817,7 @@
     </row>
     <row r="118" spans="1:22" s="6" customFormat="1">
       <c r="A118" s="22" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B118" s="22">
         <v>1</v>
@@ -8798,7 +8830,7 @@
       </c>
       <c r="E118" s="22"/>
       <c r="F118" s="22">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G118" s="22" t="s">
         <v>223</v>
@@ -8807,7 +8839,7 @@
       <c r="I118" s="22"/>
       <c r="J118" s="22"/>
       <c r="K118" s="22">
-        <v>270</v>
+        <v>140</v>
       </c>
       <c r="L118" s="22">
         <v>0</v>
@@ -8819,7 +8851,7 @@
         <v>0</v>
       </c>
       <c r="O118" s="22">
-        <v>270</v>
+        <v>140</v>
       </c>
       <c r="P118" s="22">
         <v>1</v>
@@ -8841,7 +8873,7 @@
     </row>
     <row r="119" spans="1:22" s="6" customFormat="1">
       <c r="A119" s="22" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B119" s="22">
         <v>1</v>
@@ -8854,7 +8886,7 @@
       </c>
       <c r="E119" s="22"/>
       <c r="F119" s="22">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G119" s="22" t="s">
         <v>223</v>
@@ -8863,7 +8895,7 @@
       <c r="I119" s="22"/>
       <c r="J119" s="22"/>
       <c r="K119" s="22">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="L119" s="22">
         <v>0</v>
@@ -8875,7 +8907,7 @@
         <v>0</v>
       </c>
       <c r="O119" s="22">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="P119" s="22">
         <v>1</v>
@@ -8897,7 +8929,7 @@
     </row>
     <row r="120" spans="1:22" s="6" customFormat="1">
       <c r="A120" s="22" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B120" s="22">
         <v>1</v>
@@ -8910,7 +8942,7 @@
       </c>
       <c r="E120" s="22"/>
       <c r="F120" s="22">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G120" s="22" t="s">
         <v>223</v>
@@ -8919,7 +8951,7 @@
       <c r="I120" s="22"/>
       <c r="J120" s="22"/>
       <c r="K120" s="22">
-        <v>450</v>
+        <v>270</v>
       </c>
       <c r="L120" s="22">
         <v>0</v>
@@ -8931,7 +8963,7 @@
         <v>0</v>
       </c>
       <c r="O120" s="22">
-        <v>450</v>
+        <v>270</v>
       </c>
       <c r="P120" s="22">
         <v>1</v>
@@ -8953,7 +8985,7 @@
     </row>
     <row r="121" spans="1:22" s="6" customFormat="1">
       <c r="A121" s="22" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B121" s="22">
         <v>1</v>
@@ -8966,7 +8998,7 @@
       </c>
       <c r="E121" s="22"/>
       <c r="F121" s="22">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G121" s="22" t="s">
         <v>223</v>
@@ -8975,7 +9007,7 @@
       <c r="I121" s="22"/>
       <c r="J121" s="22"/>
       <c r="K121" s="22">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="L121" s="22">
         <v>0</v>
@@ -8987,7 +9019,7 @@
         <v>0</v>
       </c>
       <c r="O121" s="22">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="P121" s="22">
         <v>1</v>
@@ -9009,7 +9041,7 @@
     </row>
     <row r="122" spans="1:22" s="6" customFormat="1">
       <c r="A122" s="22" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B122" s="22">
         <v>1</v>
@@ -9022,7 +9054,7 @@
       </c>
       <c r="E122" s="22"/>
       <c r="F122" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G122" s="22" t="s">
         <v>223</v>
@@ -9031,7 +9063,7 @@
       <c r="I122" s="22"/>
       <c r="J122" s="22"/>
       <c r="K122" s="22">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="L122" s="22">
         <v>0</v>
@@ -9043,7 +9075,7 @@
         <v>0</v>
       </c>
       <c r="O122" s="22">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="P122" s="22">
         <v>1</v>
@@ -9065,29 +9097,29 @@
     </row>
     <row r="123" spans="1:22" s="6" customFormat="1">
       <c r="A123" s="22" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B123" s="22">
         <v>1</v>
       </c>
-      <c r="C123" s="22">
-        <v>7</v>
+      <c r="C123" s="23">
+        <v>6</v>
       </c>
       <c r="D123" s="22">
         <v>0</v>
       </c>
       <c r="E123" s="22"/>
       <c r="F123" s="22">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G123" s="22" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="H123" s="22"/>
       <c r="I123" s="22"/>
       <c r="J123" s="22"/>
       <c r="K123" s="22">
-        <v>20</v>
+        <v>600</v>
       </c>
       <c r="L123" s="22">
         <v>0</v>
@@ -9099,7 +9131,7 @@
         <v>0</v>
       </c>
       <c r="O123" s="22">
-        <v>20</v>
+        <v>600</v>
       </c>
       <c r="P123" s="22">
         <v>1</v>
@@ -9110,10 +9142,10 @@
         <v>248</v>
       </c>
       <c r="T123" s="22" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="U123" s="22" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="V123" s="22">
         <v>0</v>
@@ -9121,29 +9153,29 @@
     </row>
     <row r="124" spans="1:22" s="6" customFormat="1">
       <c r="A124" s="22" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B124" s="22">
         <v>1</v>
       </c>
-      <c r="C124" s="22">
-        <v>7</v>
+      <c r="C124" s="23">
+        <v>6</v>
       </c>
       <c r="D124" s="22">
         <v>0</v>
       </c>
       <c r="E124" s="22"/>
       <c r="F124" s="22">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G124" s="22" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="H124" s="22"/>
       <c r="I124" s="22"/>
       <c r="J124" s="22"/>
       <c r="K124" s="22">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="L124" s="22">
         <v>0</v>
@@ -9155,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="O124" s="22">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="P124" s="22">
         <v>1</v>
@@ -9166,10 +9198,10 @@
         <v>248</v>
       </c>
       <c r="T124" s="22" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="U124" s="22" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="V124" s="22">
         <v>0</v>
@@ -9177,7 +9209,7 @@
     </row>
     <row r="125" spans="1:22" s="6" customFormat="1">
       <c r="A125" s="22" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B125" s="22">
         <v>1</v>
@@ -9190,7 +9222,7 @@
       </c>
       <c r="E125" s="22"/>
       <c r="F125" s="22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G125" s="22" t="s">
         <v>236</v>
@@ -9199,7 +9231,7 @@
       <c r="I125" s="22"/>
       <c r="J125" s="22"/>
       <c r="K125" s="22">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="L125" s="22">
         <v>0</v>
@@ -9211,7 +9243,7 @@
         <v>0</v>
       </c>
       <c r="O125" s="22">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="P125" s="22">
         <v>1</v>
@@ -9233,7 +9265,7 @@
     </row>
     <row r="126" spans="1:22" s="6" customFormat="1">
       <c r="A126" s="22" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B126" s="22">
         <v>1</v>
@@ -9246,7 +9278,7 @@
       </c>
       <c r="E126" s="22"/>
       <c r="F126" s="22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G126" s="22" t="s">
         <v>236</v>
@@ -9255,7 +9287,7 @@
       <c r="I126" s="22"/>
       <c r="J126" s="22"/>
       <c r="K126" s="22">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="L126" s="22">
         <v>0</v>
@@ -9267,7 +9299,7 @@
         <v>0</v>
       </c>
       <c r="O126" s="22">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="P126" s="22">
         <v>1</v>
@@ -9289,7 +9321,7 @@
     </row>
     <row r="127" spans="1:22" s="6" customFormat="1">
       <c r="A127" s="22" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B127" s="22">
         <v>1</v>
@@ -9302,7 +9334,7 @@
       </c>
       <c r="E127" s="22"/>
       <c r="F127" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G127" s="22" t="s">
         <v>236</v>
@@ -9311,7 +9343,7 @@
       <c r="I127" s="22"/>
       <c r="J127" s="22"/>
       <c r="K127" s="22">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="L127" s="22">
         <v>0</v>
@@ -9323,7 +9355,7 @@
         <v>0</v>
       </c>
       <c r="O127" s="22">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="P127" s="22">
         <v>1</v>
@@ -9345,7 +9377,7 @@
     </row>
     <row r="128" spans="1:22" s="6" customFormat="1">
       <c r="A128" s="22" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B128" s="22">
         <v>1</v>
@@ -9358,7 +9390,7 @@
       </c>
       <c r="E128" s="22"/>
       <c r="F128" s="22">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G128" s="22" t="s">
         <v>236</v>
@@ -9367,7 +9399,7 @@
       <c r="I128" s="22"/>
       <c r="J128" s="22"/>
       <c r="K128" s="22">
-        <v>270</v>
+        <v>140</v>
       </c>
       <c r="L128" s="22">
         <v>0</v>
@@ -9379,7 +9411,7 @@
         <v>0</v>
       </c>
       <c r="O128" s="22">
-        <v>270</v>
+        <v>140</v>
       </c>
       <c r="P128" s="22">
         <v>1</v>
@@ -9401,7 +9433,7 @@
     </row>
     <row r="129" spans="1:22" s="6" customFormat="1">
       <c r="A129" s="22" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B129" s="22">
         <v>1</v>
@@ -9414,7 +9446,7 @@
       </c>
       <c r="E129" s="22"/>
       <c r="F129" s="22">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G129" s="22" t="s">
         <v>236</v>
@@ -9423,7 +9455,7 @@
       <c r="I129" s="22"/>
       <c r="J129" s="22"/>
       <c r="K129" s="22">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="L129" s="22">
         <v>0</v>
@@ -9435,7 +9467,7 @@
         <v>0</v>
       </c>
       <c r="O129" s="22">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="P129" s="22">
         <v>1</v>
@@ -9457,7 +9489,7 @@
     </row>
     <row r="130" spans="1:22" s="6" customFormat="1">
       <c r="A130" s="22" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B130" s="22">
         <v>1</v>
@@ -9470,7 +9502,7 @@
       </c>
       <c r="E130" s="22"/>
       <c r="F130" s="22">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G130" s="22" t="s">
         <v>236</v>
@@ -9479,7 +9511,7 @@
       <c r="I130" s="22"/>
       <c r="J130" s="22"/>
       <c r="K130" s="22">
-        <v>450</v>
+        <v>270</v>
       </c>
       <c r="L130" s="22">
         <v>0</v>
@@ -9491,7 +9523,7 @@
         <v>0</v>
       </c>
       <c r="O130" s="22">
-        <v>450</v>
+        <v>270</v>
       </c>
       <c r="P130" s="22">
         <v>1</v>
@@ -9513,7 +9545,7 @@
     </row>
     <row r="131" spans="1:22" s="6" customFormat="1">
       <c r="A131" s="22" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B131" s="22">
         <v>1</v>
@@ -9526,7 +9558,7 @@
       </c>
       <c r="E131" s="22"/>
       <c r="F131" s="22">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G131" s="22" t="s">
         <v>236</v>
@@ -9535,7 +9567,7 @@
       <c r="I131" s="22"/>
       <c r="J131" s="22"/>
       <c r="K131" s="22">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="L131" s="22">
         <v>0</v>
@@ -9547,7 +9579,7 @@
         <v>0</v>
       </c>
       <c r="O131" s="22">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="P131" s="22">
         <v>1</v>
@@ -9567,9 +9599,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:22" s="6" customFormat="1" ht="14.65" thickBot="1">
+    <row r="132" spans="1:22" s="6" customFormat="1">
       <c r="A132" s="22" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B132" s="22">
         <v>1</v>
@@ -9582,7 +9614,7 @@
       </c>
       <c r="E132" s="22"/>
       <c r="F132" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G132" s="22" t="s">
         <v>236</v>
@@ -9591,7 +9623,7 @@
       <c r="I132" s="22"/>
       <c r="J132" s="22"/>
       <c r="K132" s="22">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="L132" s="22">
         <v>0</v>
@@ -9603,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="O132" s="22">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="P132" s="22">
         <v>1</v>
@@ -9623,125 +9655,121 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:22" s="8" customFormat="1">
-      <c r="A133" s="39" t="s">
+    <row r="133" spans="1:22" s="6" customFormat="1">
+      <c r="A133" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="B133" s="22">
+        <v>1</v>
+      </c>
+      <c r="C133" s="22">
+        <v>7</v>
+      </c>
+      <c r="D133" s="22">
+        <v>0</v>
+      </c>
+      <c r="E133" s="22"/>
+      <c r="F133" s="22">
+        <v>9</v>
+      </c>
+      <c r="G133" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="H133" s="22"/>
+      <c r="I133" s="22"/>
+      <c r="J133" s="22"/>
+      <c r="K133" s="22">
+        <v>600</v>
+      </c>
+      <c r="L133" s="22">
+        <v>0</v>
+      </c>
+      <c r="M133" s="22">
+        <v>1</v>
+      </c>
+      <c r="N133" s="22">
+        <v>0</v>
+      </c>
+      <c r="O133" s="22">
+        <v>600</v>
+      </c>
+      <c r="P133" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q133" s="22"/>
+      <c r="R133" s="22"/>
+      <c r="S133" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="T133" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="U133" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="V133" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:22" s="6" customFormat="1" ht="14.65" thickBot="1">
+      <c r="A134" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="B134" s="22">
+        <v>1</v>
+      </c>
+      <c r="C134" s="22">
+        <v>7</v>
+      </c>
+      <c r="D134" s="22">
+        <v>0</v>
+      </c>
+      <c r="E134" s="22"/>
+      <c r="F134" s="22">
+        <v>10</v>
+      </c>
+      <c r="G134" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="H134" s="22"/>
+      <c r="I134" s="22"/>
+      <c r="J134" s="22"/>
+      <c r="K134" s="22">
+        <v>1000</v>
+      </c>
+      <c r="L134" s="22">
+        <v>0</v>
+      </c>
+      <c r="M134" s="22">
+        <v>1</v>
+      </c>
+      <c r="N134" s="22">
+        <v>0</v>
+      </c>
+      <c r="O134" s="22">
+        <v>1000</v>
+      </c>
+      <c r="P134" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q134" s="22"/>
+      <c r="R134" s="22"/>
+      <c r="S134" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="T134" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="U134" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="V134" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:22" s="8" customFormat="1">
+      <c r="A135" s="39" t="s">
         <v>442</v>
-      </c>
-      <c r="B133" s="25">
-        <v>3</v>
-      </c>
-      <c r="C133" s="25">
-        <v>0</v>
-      </c>
-      <c r="D133" s="25">
-        <v>1</v>
-      </c>
-      <c r="E133" s="25"/>
-      <c r="F133" s="25">
-        <v>0</v>
-      </c>
-      <c r="G133" s="40" t="s">
-        <v>443</v>
-      </c>
-      <c r="H133" s="25"/>
-      <c r="I133" s="25"/>
-      <c r="J133" s="28"/>
-      <c r="K133" s="25">
-        <v>0</v>
-      </c>
-      <c r="L133" s="25">
-        <v>0</v>
-      </c>
-      <c r="M133" s="25">
-        <v>1</v>
-      </c>
-      <c r="N133" s="25">
-        <v>0</v>
-      </c>
-      <c r="O133" s="25">
-        <v>1000</v>
-      </c>
-      <c r="P133" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q133" s="25"/>
-      <c r="R133" s="30" t="s">
-        <v>249</v>
-      </c>
-      <c r="S133" s="42" t="s">
-        <v>448</v>
-      </c>
-      <c r="T133" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="U133" s="43" t="s">
-        <v>449</v>
-      </c>
-      <c r="V133" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:22" s="8" customFormat="1">
-      <c r="A134" s="38" t="s">
-        <v>441</v>
-      </c>
-      <c r="B134" s="27">
-        <v>3</v>
-      </c>
-      <c r="C134" s="27">
-        <v>0</v>
-      </c>
-      <c r="D134" s="27">
-        <v>1</v>
-      </c>
-      <c r="E134" s="27"/>
-      <c r="F134" s="27">
-        <v>0</v>
-      </c>
-      <c r="G134" s="41" t="s">
-        <v>444</v>
-      </c>
-      <c r="H134" s="27"/>
-      <c r="I134" s="27"/>
-      <c r="J134" s="29"/>
-      <c r="K134" s="27">
-        <v>0</v>
-      </c>
-      <c r="L134" s="27">
-        <v>0</v>
-      </c>
-      <c r="M134" s="27">
-        <v>1</v>
-      </c>
-      <c r="N134" s="27">
-        <v>0</v>
-      </c>
-      <c r="O134" s="25">
-        <v>1000</v>
-      </c>
-      <c r="P134" s="27">
-        <v>1</v>
-      </c>
-      <c r="Q134" s="27"/>
-      <c r="R134" s="30" t="s">
-        <v>250</v>
-      </c>
-      <c r="S134" s="42" t="s">
-        <v>448</v>
-      </c>
-      <c r="T134" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="U134" s="44" t="s">
-        <v>450</v>
-      </c>
-      <c r="V134" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:22" s="8" customFormat="1">
-      <c r="A135" s="38" t="s">
-        <v>440</v>
       </c>
       <c r="B135" s="25">
         <v>3</v>
@@ -9749,57 +9777,57 @@
       <c r="C135" s="25">
         <v>0</v>
       </c>
-      <c r="D135" s="27">
-        <v>1</v>
-      </c>
-      <c r="E135" s="27"/>
-      <c r="F135" s="27">
-        <v>0</v>
-      </c>
-      <c r="G135" s="41" t="s">
-        <v>445</v>
-      </c>
-      <c r="H135" s="27"/>
-      <c r="I135" s="27"/>
-      <c r="J135" s="29"/>
-      <c r="K135" s="27">
-        <v>0</v>
-      </c>
-      <c r="L135" s="27">
-        <v>0</v>
-      </c>
-      <c r="M135" s="27">
-        <v>1</v>
-      </c>
-      <c r="N135" s="27">
+      <c r="D135" s="25">
+        <v>1</v>
+      </c>
+      <c r="E135" s="25"/>
+      <c r="F135" s="25">
+        <v>0</v>
+      </c>
+      <c r="G135" s="40" t="s">
+        <v>443</v>
+      </c>
+      <c r="H135" s="25"/>
+      <c r="I135" s="25"/>
+      <c r="J135" s="28"/>
+      <c r="K135" s="25">
+        <v>0</v>
+      </c>
+      <c r="L135" s="25">
+        <v>0</v>
+      </c>
+      <c r="M135" s="25">
+        <v>1</v>
+      </c>
+      <c r="N135" s="25">
         <v>0</v>
       </c>
       <c r="O135" s="25">
         <v>1000</v>
       </c>
-      <c r="P135" s="27">
-        <v>1</v>
-      </c>
-      <c r="Q135" s="27"/>
+      <c r="P135" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q135" s="25"/>
       <c r="R135" s="30" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="S135" s="42" t="s">
         <v>448</v>
       </c>
-      <c r="T135" s="26" t="s">
-        <v>254</v>
-      </c>
-      <c r="U135" s="44" t="s">
-        <v>451</v>
-      </c>
-      <c r="V135" s="27">
+      <c r="T135" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="U135" s="43" t="s">
+        <v>449</v>
+      </c>
+      <c r="V135" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:22" s="8" customFormat="1">
       <c r="A136" s="38" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B136" s="27">
         <v>3</v>
@@ -9815,7 +9843,7 @@
         <v>0</v>
       </c>
       <c r="G136" s="41" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H136" s="27"/>
       <c r="I136" s="27"/>
@@ -9840,140 +9868,140 @@
       </c>
       <c r="Q136" s="27"/>
       <c r="R136" s="30" t="s">
-        <v>447</v>
+        <v>250</v>
       </c>
       <c r="S136" s="42" t="s">
         <v>448</v>
       </c>
-      <c r="T136" s="38" t="s">
+      <c r="T136" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="U136" s="44" t="s">
+        <v>450</v>
+      </c>
+      <c r="V136" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:22" s="8" customFormat="1">
+      <c r="A137" s="38" t="s">
+        <v>440</v>
+      </c>
+      <c r="B137" s="25">
+        <v>3</v>
+      </c>
+      <c r="C137" s="25">
+        <v>0</v>
+      </c>
+      <c r="D137" s="27">
+        <v>1</v>
+      </c>
+      <c r="E137" s="27"/>
+      <c r="F137" s="27">
+        <v>0</v>
+      </c>
+      <c r="G137" s="41" t="s">
+        <v>445</v>
+      </c>
+      <c r="H137" s="27"/>
+      <c r="I137" s="27"/>
+      <c r="J137" s="29"/>
+      <c r="K137" s="27">
+        <v>0</v>
+      </c>
+      <c r="L137" s="27">
+        <v>0</v>
+      </c>
+      <c r="M137" s="27">
+        <v>1</v>
+      </c>
+      <c r="N137" s="27">
+        <v>0</v>
+      </c>
+      <c r="O137" s="25">
+        <v>1000</v>
+      </c>
+      <c r="P137" s="27">
+        <v>1</v>
+      </c>
+      <c r="Q137" s="27"/>
+      <c r="R137" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="S137" s="42" t="s">
+        <v>448</v>
+      </c>
+      <c r="T137" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="U137" s="44" t="s">
+        <v>451</v>
+      </c>
+      <c r="V137" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:22" s="8" customFormat="1">
+      <c r="A138" s="38" t="s">
+        <v>439</v>
+      </c>
+      <c r="B138" s="27">
+        <v>3</v>
+      </c>
+      <c r="C138" s="27">
+        <v>0</v>
+      </c>
+      <c r="D138" s="27">
+        <v>1</v>
+      </c>
+      <c r="E138" s="27"/>
+      <c r="F138" s="27">
+        <v>0</v>
+      </c>
+      <c r="G138" s="41" t="s">
+        <v>446</v>
+      </c>
+      <c r="H138" s="27"/>
+      <c r="I138" s="27"/>
+      <c r="J138" s="29"/>
+      <c r="K138" s="27">
+        <v>0</v>
+      </c>
+      <c r="L138" s="27">
+        <v>0</v>
+      </c>
+      <c r="M138" s="27">
+        <v>1</v>
+      </c>
+      <c r="N138" s="27">
+        <v>0</v>
+      </c>
+      <c r="O138" s="25">
+        <v>1000</v>
+      </c>
+      <c r="P138" s="27">
+        <v>1</v>
+      </c>
+      <c r="Q138" s="27"/>
+      <c r="R138" s="30" t="s">
+        <v>447</v>
+      </c>
+      <c r="S138" s="42" t="s">
+        <v>448</v>
+      </c>
+      <c r="T138" s="38" t="s">
         <v>438</v>
       </c>
-      <c r="U136" s="44" t="s">
+      <c r="U138" s="44" t="s">
         <v>452</v>
       </c>
-      <c r="V136" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:22" s="34" customFormat="1">
-      <c r="A137" s="31" t="s">
+      <c r="V138" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:22" s="34" customFormat="1">
+      <c r="A139" s="31" t="s">
         <v>255</v>
-      </c>
-      <c r="B137" s="32">
-        <v>4</v>
-      </c>
-      <c r="C137" s="32">
-        <v>4</v>
-      </c>
-      <c r="D137" s="32">
-        <v>0</v>
-      </c>
-      <c r="E137" s="32"/>
-      <c r="F137" s="32">
-        <v>1</v>
-      </c>
-      <c r="G137" s="32" t="s">
-        <v>289</v>
-      </c>
-      <c r="H137" s="32"/>
-      <c r="I137" s="32"/>
-      <c r="J137" s="32"/>
-      <c r="K137" s="32">
-        <v>20</v>
-      </c>
-      <c r="L137" s="32">
-        <v>0</v>
-      </c>
-      <c r="M137" s="32">
-        <v>1</v>
-      </c>
-      <c r="N137" s="32">
-        <v>0</v>
-      </c>
-      <c r="O137" s="32">
-        <v>20</v>
-      </c>
-      <c r="P137" s="32">
-        <v>1</v>
-      </c>
-      <c r="Q137" s="32"/>
-      <c r="R137" s="32" t="s">
-        <v>388</v>
-      </c>
-      <c r="S137" s="33" t="s">
-        <v>421</v>
-      </c>
-      <c r="T137" s="32" t="s">
-        <v>355</v>
-      </c>
-      <c r="U137" s="32" t="s">
-        <v>322</v>
-      </c>
-      <c r="V137" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:22" s="34" customFormat="1">
-      <c r="A138" s="35" t="s">
-        <v>256</v>
-      </c>
-      <c r="B138" s="32">
-        <v>4</v>
-      </c>
-      <c r="C138" s="32">
-        <v>4</v>
-      </c>
-      <c r="D138" s="32">
-        <v>0</v>
-      </c>
-      <c r="E138" s="32"/>
-      <c r="F138" s="32">
-        <v>2</v>
-      </c>
-      <c r="G138" s="32" t="s">
-        <v>290</v>
-      </c>
-      <c r="H138" s="32"/>
-      <c r="I138" s="32"/>
-      <c r="J138" s="32"/>
-      <c r="K138" s="32">
-        <v>50</v>
-      </c>
-      <c r="L138" s="32">
-        <v>0</v>
-      </c>
-      <c r="M138" s="32">
-        <v>1</v>
-      </c>
-      <c r="N138" s="32">
-        <v>0</v>
-      </c>
-      <c r="O138" s="32">
-        <v>50</v>
-      </c>
-      <c r="P138" s="32">
-        <v>1</v>
-      </c>
-      <c r="Q138" s="32"/>
-      <c r="R138" s="32" t="s">
-        <v>389</v>
-      </c>
-      <c r="S138" s="33" t="s">
-        <v>421</v>
-      </c>
-      <c r="T138" s="32" t="s">
-        <v>356</v>
-      </c>
-      <c r="U138" s="32" t="s">
-        <v>323</v>
-      </c>
-      <c r="V138" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:22" s="34" customFormat="1">
-      <c r="A139" s="35" t="s">
-        <v>257</v>
       </c>
       <c r="B139" s="32">
         <v>4</v>
@@ -9986,16 +10014,16 @@
       </c>
       <c r="E139" s="32"/>
       <c r="F139" s="32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G139" s="32" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H139" s="32"/>
       <c r="I139" s="32"/>
       <c r="J139" s="32"/>
       <c r="K139" s="32">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="L139" s="32">
         <v>0</v>
@@ -10007,23 +10035,23 @@
         <v>0</v>
       </c>
       <c r="O139" s="32">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="P139" s="32">
         <v>1</v>
       </c>
       <c r="Q139" s="32"/>
       <c r="R139" s="32" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="S139" s="33" t="s">
         <v>421</v>
       </c>
       <c r="T139" s="32" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="U139" s="32" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="V139" s="32">
         <v>0</v>
@@ -10031,7 +10059,7 @@
     </row>
     <row r="140" spans="1:22" s="34" customFormat="1">
       <c r="A140" s="35" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B140" s="32">
         <v>4</v>
@@ -10044,16 +10072,16 @@
       </c>
       <c r="E140" s="32"/>
       <c r="F140" s="32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G140" s="32" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H140" s="32"/>
       <c r="I140" s="32"/>
       <c r="J140" s="32"/>
       <c r="K140" s="32">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="L140" s="32">
         <v>0</v>
@@ -10065,23 +10093,23 @@
         <v>0</v>
       </c>
       <c r="O140" s="32">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="P140" s="32">
         <v>1</v>
       </c>
       <c r="Q140" s="32"/>
       <c r="R140" s="32" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="S140" s="33" t="s">
         <v>421</v>
       </c>
       <c r="T140" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="U140" s="32" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="V140" s="32">
         <v>0</v>
@@ -10089,7 +10117,7 @@
     </row>
     <row r="141" spans="1:22" s="34" customFormat="1">
       <c r="A141" s="35" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B141" s="32">
         <v>4</v>
@@ -10102,16 +10130,16 @@
       </c>
       <c r="E141" s="32"/>
       <c r="F141" s="32">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G141" s="32" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H141" s="32"/>
       <c r="I141" s="32"/>
       <c r="J141" s="32"/>
       <c r="K141" s="32">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="L141" s="32">
         <v>0</v>
@@ -10123,23 +10151,23 @@
         <v>0</v>
       </c>
       <c r="O141" s="32">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="P141" s="32">
         <v>1</v>
       </c>
       <c r="Q141" s="32"/>
       <c r="R141" s="32" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="S141" s="33" t="s">
         <v>421</v>
       </c>
       <c r="T141" s="32" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="U141" s="32" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="V141" s="32">
         <v>0</v>
@@ -10147,7 +10175,7 @@
     </row>
     <row r="142" spans="1:22" s="34" customFormat="1">
       <c r="A142" s="35" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B142" s="32">
         <v>4</v>
@@ -10160,16 +10188,16 @@
       </c>
       <c r="E142" s="32"/>
       <c r="F142" s="32">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G142" s="32" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H142" s="32"/>
       <c r="I142" s="32"/>
       <c r="J142" s="32"/>
       <c r="K142" s="32">
-        <v>270</v>
+        <v>140</v>
       </c>
       <c r="L142" s="32">
         <v>0</v>
@@ -10181,23 +10209,23 @@
         <v>0</v>
       </c>
       <c r="O142" s="32">
-        <v>270</v>
+        <v>140</v>
       </c>
       <c r="P142" s="32">
         <v>1</v>
       </c>
       <c r="Q142" s="32"/>
       <c r="R142" s="32" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="S142" s="33" t="s">
         <v>421</v>
       </c>
       <c r="T142" s="32" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="U142" s="32" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="V142" s="32">
         <v>0</v>
@@ -10205,7 +10233,7 @@
     </row>
     <row r="143" spans="1:22" s="34" customFormat="1">
       <c r="A143" s="35" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B143" s="32">
         <v>4</v>
@@ -10218,16 +10246,16 @@
       </c>
       <c r="E143" s="32"/>
       <c r="F143" s="32">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G143" s="32" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H143" s="32"/>
       <c r="I143" s="32"/>
       <c r="J143" s="32"/>
       <c r="K143" s="32">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="L143" s="32">
         <v>0</v>
@@ -10239,23 +10267,23 @@
         <v>0</v>
       </c>
       <c r="O143" s="32">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="P143" s="32">
         <v>1</v>
       </c>
       <c r="Q143" s="32"/>
       <c r="R143" s="32" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="S143" s="33" t="s">
         <v>421</v>
       </c>
       <c r="T143" s="32" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="U143" s="32" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="V143" s="32">
         <v>0</v>
@@ -10263,7 +10291,7 @@
     </row>
     <row r="144" spans="1:22" s="34" customFormat="1">
       <c r="A144" s="35" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B144" s="32">
         <v>4</v>
@@ -10276,16 +10304,16 @@
       </c>
       <c r="E144" s="32"/>
       <c r="F144" s="32">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G144" s="32" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H144" s="32"/>
       <c r="I144" s="32"/>
       <c r="J144" s="32"/>
       <c r="K144" s="32">
-        <v>20</v>
+        <v>270</v>
       </c>
       <c r="L144" s="32">
         <v>0</v>
@@ -10297,23 +10325,23 @@
         <v>0</v>
       </c>
       <c r="O144" s="32">
-        <v>20</v>
+        <v>270</v>
       </c>
       <c r="P144" s="32">
         <v>1</v>
       </c>
       <c r="Q144" s="32"/>
       <c r="R144" s="32" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="S144" s="33" t="s">
         <v>421</v>
       </c>
       <c r="T144" s="32" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="U144" s="32" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="V144" s="32">
         <v>0</v>
@@ -10321,7 +10349,7 @@
     </row>
     <row r="145" spans="1:22" s="34" customFormat="1">
       <c r="A145" s="35" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B145" s="32">
         <v>4</v>
@@ -10334,16 +10362,16 @@
       </c>
       <c r="E145" s="32"/>
       <c r="F145" s="32">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G145" s="32" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H145" s="32"/>
       <c r="I145" s="32"/>
       <c r="J145" s="32"/>
       <c r="K145" s="32">
-        <v>50</v>
+        <v>350</v>
       </c>
       <c r="L145" s="32">
         <v>0</v>
@@ -10355,23 +10383,23 @@
         <v>0</v>
       </c>
       <c r="O145" s="32">
-        <v>50</v>
+        <v>350</v>
       </c>
       <c r="P145" s="32">
         <v>1</v>
       </c>
       <c r="Q145" s="32"/>
       <c r="R145" s="32" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="S145" s="33" t="s">
         <v>421</v>
       </c>
       <c r="T145" s="32" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="U145" s="32" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="V145" s="32">
         <v>0</v>
@@ -10379,7 +10407,7 @@
     </row>
     <row r="146" spans="1:22" s="34" customFormat="1">
       <c r="A146" s="35" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B146" s="32">
         <v>4</v>
@@ -10392,16 +10420,16 @@
       </c>
       <c r="E146" s="32"/>
       <c r="F146" s="32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G146" s="32" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H146" s="32"/>
       <c r="I146" s="32"/>
       <c r="J146" s="32"/>
       <c r="K146" s="32">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="L146" s="32">
         <v>0</v>
@@ -10413,23 +10441,23 @@
         <v>0</v>
       </c>
       <c r="O146" s="32">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="P146" s="32">
         <v>1</v>
       </c>
       <c r="Q146" s="32"/>
       <c r="R146" s="32" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="S146" s="33" t="s">
         <v>421</v>
       </c>
       <c r="T146" s="32" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="U146" s="32" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="V146" s="32">
         <v>0</v>
@@ -10437,7 +10465,7 @@
     </row>
     <row r="147" spans="1:22" s="34" customFormat="1">
       <c r="A147" s="35" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B147" s="32">
         <v>4</v>
@@ -10450,16 +10478,16 @@
       </c>
       <c r="E147" s="32"/>
       <c r="F147" s="32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G147" s="32" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H147" s="32"/>
       <c r="I147" s="32"/>
       <c r="J147" s="32"/>
       <c r="K147" s="32">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="L147" s="32">
         <v>0</v>
@@ -10471,23 +10499,23 @@
         <v>0</v>
       </c>
       <c r="O147" s="32">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="P147" s="32">
         <v>1</v>
       </c>
       <c r="Q147" s="32"/>
       <c r="R147" s="32" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="S147" s="33" t="s">
         <v>421</v>
       </c>
       <c r="T147" s="32" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="U147" s="32" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="V147" s="32">
         <v>0</v>
@@ -10495,7 +10523,7 @@
     </row>
     <row r="148" spans="1:22" s="34" customFormat="1">
       <c r="A148" s="35" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B148" s="32">
         <v>4</v>
@@ -10508,16 +10536,16 @@
       </c>
       <c r="E148" s="32"/>
       <c r="F148" s="32">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G148" s="32" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H148" s="32"/>
       <c r="I148" s="32"/>
       <c r="J148" s="32"/>
       <c r="K148" s="32">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="L148" s="32">
         <v>0</v>
@@ -10529,23 +10557,23 @@
         <v>0</v>
       </c>
       <c r="O148" s="32">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="P148" s="32">
         <v>1</v>
       </c>
       <c r="Q148" s="32"/>
       <c r="R148" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="S148" s="33" t="s">
         <v>421</v>
       </c>
       <c r="T148" s="32" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="U148" s="32" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="V148" s="32">
         <v>0</v>
@@ -10553,7 +10581,7 @@
     </row>
     <row r="149" spans="1:22" s="34" customFormat="1">
       <c r="A149" s="35" t="s">
-        <v>423</v>
+        <v>265</v>
       </c>
       <c r="B149" s="32">
         <v>4</v>
@@ -10566,16 +10594,16 @@
       </c>
       <c r="E149" s="32"/>
       <c r="F149" s="32">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G149" s="32" t="s">
-        <v>435</v>
+        <v>299</v>
       </c>
       <c r="H149" s="32"/>
       <c r="I149" s="32"/>
       <c r="J149" s="32"/>
       <c r="K149" s="32">
-        <v>270</v>
+        <v>140</v>
       </c>
       <c r="L149" s="32">
         <v>0</v>
@@ -10587,23 +10615,23 @@
         <v>0</v>
       </c>
       <c r="O149" s="32">
-        <v>270</v>
+        <v>140</v>
       </c>
       <c r="P149" s="32">
         <v>1</v>
       </c>
       <c r="Q149" s="32"/>
       <c r="R149" s="32" t="s">
-        <v>426</v>
+        <v>398</v>
       </c>
       <c r="S149" s="33" t="s">
         <v>421</v>
       </c>
       <c r="T149" s="32" t="s">
-        <v>429</v>
+        <v>365</v>
       </c>
       <c r="U149" s="32" t="s">
-        <v>432</v>
+        <v>332</v>
       </c>
       <c r="V149" s="32">
         <v>0</v>
@@ -10611,7 +10639,7 @@
     </row>
     <row r="150" spans="1:22" s="34" customFormat="1">
       <c r="A150" s="35" t="s">
-        <v>424</v>
+        <v>266</v>
       </c>
       <c r="B150" s="32">
         <v>4</v>
@@ -10624,16 +10652,16 @@
       </c>
       <c r="E150" s="32"/>
       <c r="F150" s="32">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G150" s="32" t="s">
-        <v>436</v>
+        <v>300</v>
       </c>
       <c r="H150" s="32"/>
       <c r="I150" s="32"/>
       <c r="J150" s="32"/>
       <c r="K150" s="32">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="L150" s="32">
         <v>0</v>
@@ -10645,23 +10673,23 @@
         <v>0</v>
       </c>
       <c r="O150" s="32">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="P150" s="32">
         <v>1</v>
       </c>
       <c r="Q150" s="32"/>
       <c r="R150" s="32" t="s">
-        <v>427</v>
+        <v>399</v>
       </c>
       <c r="S150" s="33" t="s">
         <v>421</v>
       </c>
       <c r="T150" s="32" t="s">
-        <v>430</v>
+        <v>366</v>
       </c>
       <c r="U150" s="32" t="s">
-        <v>433</v>
+        <v>333</v>
       </c>
       <c r="V150" s="32">
         <v>0</v>
@@ -10669,7 +10697,7 @@
     </row>
     <row r="151" spans="1:22" s="34" customFormat="1">
       <c r="A151" s="35" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B151" s="32">
         <v>4</v>
@@ -10682,16 +10710,16 @@
       </c>
       <c r="E151" s="32"/>
       <c r="F151" s="32">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G151" s="32" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H151" s="32"/>
       <c r="I151" s="32"/>
       <c r="J151" s="32"/>
       <c r="K151" s="32">
-        <v>20</v>
+        <v>270</v>
       </c>
       <c r="L151" s="32">
         <v>0</v>
@@ -10703,23 +10731,23 @@
         <v>0</v>
       </c>
       <c r="O151" s="32">
-        <v>20</v>
+        <v>270</v>
       </c>
       <c r="P151" s="32">
         <v>1</v>
       </c>
       <c r="Q151" s="32"/>
       <c r="R151" s="32" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="S151" s="33" t="s">
         <v>421</v>
       </c>
       <c r="T151" s="32" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="U151" s="32" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="V151" s="32">
         <v>0</v>
@@ -10727,7 +10755,7 @@
     </row>
     <row r="152" spans="1:22" s="34" customFormat="1">
       <c r="A152" s="35" t="s">
-        <v>267</v>
+        <v>424</v>
       </c>
       <c r="B152" s="32">
         <v>4</v>
@@ -10740,16 +10768,16 @@
       </c>
       <c r="E152" s="32"/>
       <c r="F152" s="32">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G152" s="32" t="s">
-        <v>301</v>
+        <v>436</v>
       </c>
       <c r="H152" s="32"/>
       <c r="I152" s="32"/>
       <c r="J152" s="32"/>
       <c r="K152" s="32">
-        <v>50</v>
+        <v>350</v>
       </c>
       <c r="L152" s="32">
         <v>0</v>
@@ -10761,23 +10789,23 @@
         <v>0</v>
       </c>
       <c r="O152" s="32">
-        <v>50</v>
+        <v>350</v>
       </c>
       <c r="P152" s="32">
         <v>1</v>
       </c>
       <c r="Q152" s="32"/>
       <c r="R152" s="32" t="s">
-        <v>400</v>
+        <v>427</v>
       </c>
       <c r="S152" s="33" t="s">
         <v>421</v>
       </c>
       <c r="T152" s="32" t="s">
-        <v>367</v>
+        <v>430</v>
       </c>
       <c r="U152" s="32" t="s">
-        <v>334</v>
+        <v>433</v>
       </c>
       <c r="V152" s="32">
         <v>0</v>
@@ -10785,7 +10813,7 @@
     </row>
     <row r="153" spans="1:22" s="34" customFormat="1">
       <c r="A153" s="35" t="s">
-        <v>268</v>
+        <v>425</v>
       </c>
       <c r="B153" s="32">
         <v>4</v>
@@ -10798,16 +10826,16 @@
       </c>
       <c r="E153" s="32"/>
       <c r="F153" s="32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G153" s="32" t="s">
-        <v>302</v>
+        <v>437</v>
       </c>
       <c r="H153" s="32"/>
       <c r="I153" s="32"/>
       <c r="J153" s="32"/>
       <c r="K153" s="32">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="L153" s="32">
         <v>0</v>
@@ -10819,23 +10847,23 @@
         <v>0</v>
       </c>
       <c r="O153" s="32">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="P153" s="32">
         <v>1</v>
       </c>
       <c r="Q153" s="32"/>
       <c r="R153" s="32" t="s">
-        <v>401</v>
+        <v>428</v>
       </c>
       <c r="S153" s="33" t="s">
         <v>421</v>
       </c>
       <c r="T153" s="32" t="s">
-        <v>368</v>
+        <v>431</v>
       </c>
       <c r="U153" s="32" t="s">
-        <v>335</v>
+        <v>434</v>
       </c>
       <c r="V153" s="32">
         <v>0</v>
@@ -10843,7 +10871,7 @@
     </row>
     <row r="154" spans="1:22" s="34" customFormat="1">
       <c r="A154" s="35" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B154" s="32">
         <v>4</v>
@@ -10856,16 +10884,16 @@
       </c>
       <c r="E154" s="32"/>
       <c r="F154" s="32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G154" s="32" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H154" s="32"/>
       <c r="I154" s="32"/>
       <c r="J154" s="32"/>
       <c r="K154" s="32">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="L154" s="32">
         <v>0</v>
@@ -10877,23 +10905,23 @@
         <v>0</v>
       </c>
       <c r="O154" s="32">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="P154" s="32">
         <v>1</v>
       </c>
       <c r="Q154" s="32"/>
       <c r="R154" s="32" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="S154" s="33" t="s">
         <v>421</v>
       </c>
       <c r="T154" s="32" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="U154" s="32" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="V154" s="32">
         <v>0</v>
@@ -10901,7 +10929,7 @@
     </row>
     <row r="155" spans="1:22" s="34" customFormat="1">
       <c r="A155" s="35" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B155" s="32">
         <v>4</v>
@@ -10914,16 +10942,16 @@
       </c>
       <c r="E155" s="32"/>
       <c r="F155" s="32">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G155" s="32" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H155" s="32"/>
       <c r="I155" s="32"/>
       <c r="J155" s="32"/>
       <c r="K155" s="32">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="L155" s="32">
         <v>0</v>
@@ -10935,23 +10963,23 @@
         <v>0</v>
       </c>
       <c r="O155" s="32">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="P155" s="32">
         <v>1</v>
       </c>
       <c r="Q155" s="32"/>
       <c r="R155" s="32" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="S155" s="33" t="s">
         <v>421</v>
       </c>
       <c r="T155" s="32" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="U155" s="32" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="V155" s="32">
         <v>0</v>
@@ -10959,7 +10987,7 @@
     </row>
     <row r="156" spans="1:22" s="34" customFormat="1">
       <c r="A156" s="35" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B156" s="32">
         <v>4</v>
@@ -10972,16 +11000,16 @@
       </c>
       <c r="E156" s="32"/>
       <c r="F156" s="32">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G156" s="32" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H156" s="32"/>
       <c r="I156" s="32"/>
       <c r="J156" s="32"/>
       <c r="K156" s="32">
-        <v>270</v>
+        <v>140</v>
       </c>
       <c r="L156" s="32">
         <v>0</v>
@@ -10993,23 +11021,23 @@
         <v>0</v>
       </c>
       <c r="O156" s="32">
-        <v>270</v>
+        <v>140</v>
       </c>
       <c r="P156" s="32">
         <v>1</v>
       </c>
       <c r="Q156" s="32"/>
       <c r="R156" s="32" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="S156" s="33" t="s">
         <v>421</v>
       </c>
       <c r="T156" s="32" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="U156" s="32" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="V156" s="32">
         <v>0</v>
@@ -11017,7 +11045,7 @@
     </row>
     <row r="157" spans="1:22" s="34" customFormat="1">
       <c r="A157" s="35" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B157" s="32">
         <v>4</v>
@@ -11030,16 +11058,16 @@
       </c>
       <c r="E157" s="32"/>
       <c r="F157" s="32">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G157" s="32" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H157" s="32"/>
       <c r="I157" s="32"/>
       <c r="J157" s="32"/>
       <c r="K157" s="32">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="L157" s="32">
         <v>0</v>
@@ -11051,31 +11079,31 @@
         <v>0</v>
       </c>
       <c r="O157" s="32">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="P157" s="32">
         <v>1</v>
       </c>
       <c r="Q157" s="32"/>
       <c r="R157" s="32" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="S157" s="33" t="s">
         <v>421</v>
       </c>
       <c r="T157" s="32" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="U157" s="32" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="V157" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:22" s="36" customFormat="1">
+    <row r="158" spans="1:22" s="34" customFormat="1">
       <c r="A158" s="35" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B158" s="32">
         <v>4</v>
@@ -11088,16 +11116,16 @@
       </c>
       <c r="E158" s="32"/>
       <c r="F158" s="32">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G158" s="32" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H158" s="32"/>
       <c r="I158" s="32"/>
       <c r="J158" s="32"/>
       <c r="K158" s="32">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="L158" s="32">
         <v>0</v>
@@ -11109,31 +11137,31 @@
         <v>0</v>
       </c>
       <c r="O158" s="32">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="P158" s="32">
         <v>1</v>
       </c>
       <c r="Q158" s="32"/>
       <c r="R158" s="32" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="S158" s="33" t="s">
         <v>421</v>
       </c>
       <c r="T158" s="32" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="U158" s="32" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="V158" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:22" s="36" customFormat="1">
+    <row r="159" spans="1:22" s="34" customFormat="1">
       <c r="A159" s="35" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B159" s="32">
         <v>4</v>
@@ -11149,7 +11177,7 @@
         <v>7</v>
       </c>
       <c r="G159" s="32" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H159" s="32"/>
       <c r="I159" s="32"/>
@@ -11174,16 +11202,16 @@
       </c>
       <c r="Q159" s="32"/>
       <c r="R159" s="32" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="S159" s="33" t="s">
         <v>421</v>
       </c>
       <c r="T159" s="32" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U159" s="32" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="V159" s="32">
         <v>0</v>
@@ -11191,7 +11219,7 @@
     </row>
     <row r="160" spans="1:22" s="36" customFormat="1">
       <c r="A160" s="35" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B160" s="32">
         <v>4</v>
@@ -11207,7 +11235,7 @@
         <v>7</v>
       </c>
       <c r="G160" s="32" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H160" s="32"/>
       <c r="I160" s="32"/>
@@ -11232,16 +11260,16 @@
       </c>
       <c r="Q160" s="32"/>
       <c r="R160" s="32" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="S160" s="33" t="s">
         <v>421</v>
       </c>
       <c r="T160" s="32" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="U160" s="32" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="V160" s="32">
         <v>0</v>
@@ -11249,7 +11277,7 @@
     </row>
     <row r="161" spans="1:22" s="36" customFormat="1">
       <c r="A161" s="35" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B161" s="32">
         <v>4</v>
@@ -11265,7 +11293,7 @@
         <v>7</v>
       </c>
       <c r="G161" s="32" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H161" s="32"/>
       <c r="I161" s="32"/>
@@ -11290,16 +11318,16 @@
       </c>
       <c r="Q161" s="32"/>
       <c r="R161" s="32" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="S161" s="33" t="s">
         <v>421</v>
       </c>
       <c r="T161" s="32" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="U161" s="32" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="V161" s="32">
         <v>0</v>
@@ -11307,7 +11335,7 @@
     </row>
     <row r="162" spans="1:22" s="36" customFormat="1">
       <c r="A162" s="35" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B162" s="32">
         <v>4</v>
@@ -11323,7 +11351,7 @@
         <v>7</v>
       </c>
       <c r="G162" s="32" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H162" s="32"/>
       <c r="I162" s="32"/>
@@ -11348,16 +11376,16 @@
       </c>
       <c r="Q162" s="32"/>
       <c r="R162" s="32" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="S162" s="33" t="s">
         <v>421</v>
       </c>
       <c r="T162" s="32" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="U162" s="32" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="V162" s="32">
         <v>0</v>
@@ -11365,7 +11393,7 @@
     </row>
     <row r="163" spans="1:22" s="36" customFormat="1">
       <c r="A163" s="35" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B163" s="32">
         <v>4</v>
@@ -11381,7 +11409,7 @@
         <v>7</v>
       </c>
       <c r="G163" s="32" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H163" s="32"/>
       <c r="I163" s="32"/>
@@ -11406,16 +11434,16 @@
       </c>
       <c r="Q163" s="32"/>
       <c r="R163" s="32" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="S163" s="33" t="s">
         <v>421</v>
       </c>
       <c r="T163" s="32" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="U163" s="32" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="V163" s="32">
         <v>0</v>
@@ -11423,7 +11451,7 @@
     </row>
     <row r="164" spans="1:22" s="36" customFormat="1">
       <c r="A164" s="35" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B164" s="32">
         <v>4</v>
@@ -11439,7 +11467,7 @@
         <v>7</v>
       </c>
       <c r="G164" s="32" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H164" s="32"/>
       <c r="I164" s="32"/>
@@ -11464,16 +11492,16 @@
       </c>
       <c r="Q164" s="32"/>
       <c r="R164" s="32" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="S164" s="33" t="s">
         <v>421</v>
       </c>
       <c r="T164" s="32" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="U164" s="32" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="V164" s="32">
         <v>0</v>
@@ -11481,7 +11509,7 @@
     </row>
     <row r="165" spans="1:22" s="36" customFormat="1">
       <c r="A165" s="35" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B165" s="32">
         <v>4</v>
@@ -11497,7 +11525,7 @@
         <v>7</v>
       </c>
       <c r="G165" s="32" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H165" s="32"/>
       <c r="I165" s="32"/>
@@ -11522,16 +11550,16 @@
       </c>
       <c r="Q165" s="32"/>
       <c r="R165" s="32" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="S165" s="33" t="s">
         <v>421</v>
       </c>
       <c r="T165" s="32" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="U165" s="32" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="V165" s="32">
         <v>0</v>
@@ -11539,7 +11567,7 @@
     </row>
     <row r="166" spans="1:22" s="36" customFormat="1">
       <c r="A166" s="35" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B166" s="32">
         <v>4</v>
@@ -11555,7 +11583,7 @@
         <v>7</v>
       </c>
       <c r="G166" s="32" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H166" s="32"/>
       <c r="I166" s="32"/>
@@ -11580,16 +11608,16 @@
       </c>
       <c r="Q166" s="32"/>
       <c r="R166" s="32" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="S166" s="33" t="s">
         <v>421</v>
       </c>
       <c r="T166" s="32" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="U166" s="32" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="V166" s="32">
         <v>0</v>
@@ -11597,7 +11625,7 @@
     </row>
     <row r="167" spans="1:22" s="36" customFormat="1">
       <c r="A167" s="35" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B167" s="32">
         <v>4</v>
@@ -11613,7 +11641,7 @@
         <v>7</v>
       </c>
       <c r="G167" s="32" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H167" s="32"/>
       <c r="I167" s="32"/>
@@ -11638,16 +11666,16 @@
       </c>
       <c r="Q167" s="32"/>
       <c r="R167" s="32" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="S167" s="33" t="s">
         <v>421</v>
       </c>
       <c r="T167" s="32" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="U167" s="32" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="V167" s="32">
         <v>0</v>
@@ -11655,7 +11683,7 @@
     </row>
     <row r="168" spans="1:22" s="36" customFormat="1">
       <c r="A168" s="35" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B168" s="32">
         <v>4</v>
@@ -11671,7 +11699,7 @@
         <v>7</v>
       </c>
       <c r="G168" s="32" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H168" s="32"/>
       <c r="I168" s="32"/>
@@ -11696,24 +11724,24 @@
       </c>
       <c r="Q168" s="32"/>
       <c r="R168" s="32" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="S168" s="33" t="s">
         <v>421</v>
       </c>
       <c r="T168" s="32" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="U168" s="32" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="V168" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:22" s="36" customFormat="1" ht="14.65" thickBot="1">
-      <c r="A169" s="37" t="s">
-        <v>284</v>
+    <row r="169" spans="1:22" s="36" customFormat="1">
+      <c r="A169" s="35" t="s">
+        <v>282</v>
       </c>
       <c r="B169" s="32">
         <v>4</v>
@@ -11729,7 +11757,7 @@
         <v>7</v>
       </c>
       <c r="G169" s="32" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H169" s="32"/>
       <c r="I169" s="32"/>
@@ -11754,16 +11782,16 @@
       </c>
       <c r="Q169" s="32"/>
       <c r="R169" s="32" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="S169" s="33" t="s">
         <v>421</v>
       </c>
       <c r="T169" s="32" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="U169" s="32" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="V169" s="32">
         <v>0</v>
@@ -11771,7 +11799,7 @@
     </row>
     <row r="170" spans="1:22" s="36" customFormat="1">
       <c r="A170" s="35" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B170" s="32">
         <v>4</v>
@@ -11787,7 +11815,7 @@
         <v>7</v>
       </c>
       <c r="G170" s="32" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H170" s="32"/>
       <c r="I170" s="32"/>
@@ -11812,24 +11840,24 @@
       </c>
       <c r="Q170" s="32"/>
       <c r="R170" s="32" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="S170" s="33" t="s">
         <v>421</v>
       </c>
       <c r="T170" s="32" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="U170" s="32" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="V170" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:22" s="36" customFormat="1">
-      <c r="A171" s="35" t="s">
-        <v>286</v>
+    <row r="171" spans="1:22" s="36" customFormat="1" ht="14.65" thickBot="1">
+      <c r="A171" s="37" t="s">
+        <v>284</v>
       </c>
       <c r="B171" s="32">
         <v>4</v>
@@ -11845,7 +11873,7 @@
         <v>7</v>
       </c>
       <c r="G171" s="32" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H171" s="32"/>
       <c r="I171" s="32"/>
@@ -11870,24 +11898,24 @@
       </c>
       <c r="Q171" s="32"/>
       <c r="R171" s="32" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="S171" s="33" t="s">
         <v>421</v>
       </c>
       <c r="T171" s="32" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="U171" s="32" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="V171" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:22" s="36" customFormat="1" ht="14.65" thickBot="1">
-      <c r="A172" s="37" t="s">
-        <v>287</v>
+    <row r="172" spans="1:22" s="36" customFormat="1">
+      <c r="A172" s="35" t="s">
+        <v>285</v>
       </c>
       <c r="B172" s="32">
         <v>4</v>
@@ -11903,7 +11931,7 @@
         <v>7</v>
       </c>
       <c r="G172" s="32" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H172" s="32"/>
       <c r="I172" s="32"/>
@@ -11928,18 +11956,134 @@
       </c>
       <c r="Q172" s="32"/>
       <c r="R172" s="32" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="S172" s="33" t="s">
         <v>421</v>
       </c>
       <c r="T172" s="32" t="s">
+        <v>385</v>
+      </c>
+      <c r="U172" s="32" t="s">
+        <v>352</v>
+      </c>
+      <c r="V172" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:22" s="36" customFormat="1">
+      <c r="A173" s="35" t="s">
+        <v>286</v>
+      </c>
+      <c r="B173" s="32">
+        <v>4</v>
+      </c>
+      <c r="C173" s="32">
+        <v>4</v>
+      </c>
+      <c r="D173" s="32">
+        <v>0</v>
+      </c>
+      <c r="E173" s="32"/>
+      <c r="F173" s="32">
+        <v>7</v>
+      </c>
+      <c r="G173" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="H173" s="32"/>
+      <c r="I173" s="32"/>
+      <c r="J173" s="32"/>
+      <c r="K173" s="32">
+        <v>350</v>
+      </c>
+      <c r="L173" s="32">
+        <v>0</v>
+      </c>
+      <c r="M173" s="32">
+        <v>1</v>
+      </c>
+      <c r="N173" s="32">
+        <v>0</v>
+      </c>
+      <c r="O173" s="32">
+        <v>350</v>
+      </c>
+      <c r="P173" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q173" s="32"/>
+      <c r="R173" s="32" t="s">
+        <v>419</v>
+      </c>
+      <c r="S173" s="33" t="s">
+        <v>421</v>
+      </c>
+      <c r="T173" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="U173" s="32" t="s">
+        <v>353</v>
+      </c>
+      <c r="V173" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:22" s="36" customFormat="1" ht="14.65" thickBot="1">
+      <c r="A174" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="B174" s="32">
+        <v>4</v>
+      </c>
+      <c r="C174" s="32">
+        <v>4</v>
+      </c>
+      <c r="D174" s="32">
+        <v>0</v>
+      </c>
+      <c r="E174" s="32"/>
+      <c r="F174" s="32">
+        <v>7</v>
+      </c>
+      <c r="G174" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="H174" s="32"/>
+      <c r="I174" s="32"/>
+      <c r="J174" s="32"/>
+      <c r="K174" s="32">
+        <v>350</v>
+      </c>
+      <c r="L174" s="32">
+        <v>0</v>
+      </c>
+      <c r="M174" s="32">
+        <v>1</v>
+      </c>
+      <c r="N174" s="32">
+        <v>0</v>
+      </c>
+      <c r="O174" s="32">
+        <v>350</v>
+      </c>
+      <c r="P174" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q174" s="32"/>
+      <c r="R174" s="32" t="s">
+        <v>420</v>
+      </c>
+      <c r="S174" s="33" t="s">
+        <v>421</v>
+      </c>
+      <c r="T174" s="32" t="s">
         <v>387</v>
       </c>
-      <c r="U172" s="32" t="s">
+      <c r="U174" s="32" t="s">
         <v>354</v>
       </c>
-      <c r="V172" s="32">
+      <c r="V174" s="32">
         <v>0</v>
       </c>
     </row>

--- a/_Out/NFDataCfg/Excel/Item.xlsx
+++ b/_Out/NFDataCfg/Excel/Item.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="464">
   <si>
     <t>Id</t>
   </si>
@@ -128,9 +128,6 @@
     <t>Desc</t>
   </si>
   <si>
-    <t>物品类别EItemType</t>
-  </si>
-  <si>
     <t>等级限制</t>
   </si>
   <si>
@@ -1419,6 +1416,16 @@
   </si>
   <si>
     <t>Diamond_Item1</t>
+  </si>
+  <si>
+    <t>物品类别EItemType       EIT_EQUIP      = 0; 
+ EIT_GEM       = 1;
+ EIT_ITEM       = 2;
+ EIT_CARD       = 3;
+ EIT_TOKEN       = 4; //</t>
+  </si>
+  <si>
+    <t>Item_MemoryHeroPos_Water</t>
   </si>
 </sst>
 </file>
@@ -2096,13 +2103,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V174"/>
+  <dimension ref="A1:V175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="10" topLeftCell="N11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="10" topLeftCell="O38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S10" sqref="S10"/>
+      <selection pane="bottomRight" activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2194,7 +2201,7 @@
         <v>20</v>
       </c>
       <c r="V1" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="2" customFormat="1">
@@ -2607,7 +2614,7 @@
     </row>
     <row r="8" spans="1:22" s="3" customFormat="1" ht="13.5">
       <c r="A8" s="11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -2746,72 +2753,72 @@
         <v>31</v>
       </c>
       <c r="B10" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="D10" s="10" t="s">
+      <c r="E10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="F10" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="G10" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="H10" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="I10" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="J10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="K10" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="L10" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="L10" s="10" t="s">
+      <c r="M10" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="M10" s="10" t="s">
+      <c r="N10" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="N10" s="10" t="s">
+      <c r="O10" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="O10" s="10" t="s">
+      <c r="P10" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="P10" s="10" t="s">
+      <c r="Q10" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="Q10" s="10" t="s">
+      <c r="R10" s="10" t="s">
         <v>46</v>
-      </c>
-      <c r="R10" s="10" t="s">
-        <v>47</v>
       </c>
       <c r="S10" s="10" t="s">
         <v>18</v>
       </c>
       <c r="T10" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="U10" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="U10" s="10" t="s">
+      <c r="V10" s="10" t="s">
         <v>49</v>
-      </c>
-      <c r="V10" s="10" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:22" s="36" customFormat="1">
       <c r="A11" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B11" s="45">
         <v>2</v>
@@ -2827,10 +2834,10 @@
         <v>0</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H11" s="33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I11" s="45"/>
       <c r="J11" s="45"/>
@@ -2855,13 +2862,13 @@
       <c r="Q11" s="45"/>
       <c r="R11" s="45"/>
       <c r="S11" s="33" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T11" s="33" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="U11" s="33" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="V11" s="45">
         <v>0</v>
@@ -2869,7 +2876,7 @@
     </row>
     <row r="12" spans="1:22" s="36" customFormat="1">
       <c r="A12" s="46" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B12" s="32">
         <v>2</v>
@@ -2885,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H12" s="46"/>
       <c r="I12" s="32"/>
@@ -2911,13 +2918,13 @@
       <c r="Q12" s="32"/>
       <c r="R12" s="32"/>
       <c r="S12" s="33" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T12" s="33" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="U12" s="33" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="V12" s="32">
         <v>0</v>
@@ -2925,7 +2932,7 @@
     </row>
     <row r="13" spans="1:22" s="4" customFormat="1">
       <c r="A13" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" s="13">
         <v>2</v>
@@ -2941,10 +2948,10 @@
         <v>0</v>
       </c>
       <c r="G13" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="12" t="s">
         <v>52</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>53</v>
       </c>
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
@@ -2969,13 +2976,13 @@
       <c r="Q13" s="13"/>
       <c r="R13" s="13"/>
       <c r="S13" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T13" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="U13" s="12" t="s">
         <v>54</v>
-      </c>
-      <c r="U13" s="12" t="s">
-        <v>55</v>
       </c>
       <c r="V13" s="13">
         <v>0</v>
@@ -2983,7 +2990,7 @@
     </row>
     <row r="14" spans="1:22" s="4" customFormat="1">
       <c r="A14" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14" s="14">
         <v>2</v>
@@ -2999,10 +3006,10 @@
         <v>0</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
@@ -3027,13 +3034,13 @@
       <c r="Q14" s="14"/>
       <c r="R14" s="14"/>
       <c r="S14" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T14" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U14" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V14" s="14">
         <v>0</v>
@@ -3041,7 +3048,7 @@
     </row>
     <row r="15" spans="1:22" s="4" customFormat="1">
       <c r="A15" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15" s="13">
         <v>2</v>
@@ -3057,10 +3064,10 @@
         <v>0</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
@@ -3085,13 +3092,13 @@
       <c r="Q15" s="14"/>
       <c r="R15" s="13"/>
       <c r="S15" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T15" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U15" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V15" s="14">
         <v>0</v>
@@ -3099,7 +3106,7 @@
     </row>
     <row r="16" spans="1:22" s="4" customFormat="1">
       <c r="A16" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B16" s="14">
         <v>2</v>
@@ -3115,10 +3122,10 @@
         <v>0</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
@@ -3143,13 +3150,13 @@
       <c r="Q16" s="14"/>
       <c r="R16" s="14"/>
       <c r="S16" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T16" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U16" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V16" s="14">
         <v>0</v>
@@ -3157,7 +3164,7 @@
     </row>
     <row r="17" spans="1:22" s="4" customFormat="1">
       <c r="A17" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B17" s="14">
         <v>2</v>
@@ -3173,10 +3180,10 @@
         <v>0</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
@@ -3201,13 +3208,13 @@
       <c r="Q17" s="14"/>
       <c r="R17" s="14"/>
       <c r="S17" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T17" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="U17" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V17" s="14">
         <v>0</v>
@@ -3215,7 +3222,7 @@
     </row>
     <row r="18" spans="1:22" s="4" customFormat="1">
       <c r="A18" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B18" s="14">
         <v>2</v>
@@ -3231,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H18" s="15"/>
       <c r="I18" s="14"/>
@@ -3257,13 +3264,13 @@
       <c r="Q18" s="14"/>
       <c r="R18" s="14"/>
       <c r="S18" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T18" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="U18" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V18" s="14">
         <v>0</v>
@@ -3271,7 +3278,7 @@
     </row>
     <row r="19" spans="1:22" s="4" customFormat="1">
       <c r="A19" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B19" s="13">
         <v>2</v>
@@ -3287,7 +3294,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H19" s="15"/>
       <c r="I19" s="14"/>
@@ -3313,13 +3320,13 @@
       <c r="Q19" s="14"/>
       <c r="R19" s="13"/>
       <c r="S19" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T19" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="U19" s="15" t="s">
         <v>72</v>
-      </c>
-      <c r="U19" s="15" t="s">
-        <v>73</v>
       </c>
       <c r="V19" s="14">
         <v>0</v>
@@ -3327,7 +3334,7 @@
     </row>
     <row r="20" spans="1:22" s="4" customFormat="1">
       <c r="A20" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B20" s="14">
         <v>2</v>
@@ -3343,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H20" s="15"/>
       <c r="I20" s="14"/>
@@ -3369,13 +3376,13 @@
       <c r="Q20" s="14"/>
       <c r="R20" s="14"/>
       <c r="S20" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T20" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="U20" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="V20" s="14">
         <v>0</v>
@@ -3383,7 +3390,7 @@
     </row>
     <row r="21" spans="1:22" s="4" customFormat="1">
       <c r="A21" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B21" s="13">
         <v>2</v>
@@ -3399,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H21" s="15"/>
       <c r="I21" s="14"/>
@@ -3425,13 +3432,13 @@
       <c r="Q21" s="14"/>
       <c r="R21" s="13"/>
       <c r="S21" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T21" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U21" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="V21" s="14">
         <v>0</v>
@@ -3439,7 +3446,7 @@
     </row>
     <row r="22" spans="1:22" s="4" customFormat="1">
       <c r="A22" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B22" s="14">
         <v>2</v>
@@ -3455,7 +3462,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H22" s="15"/>
       <c r="I22" s="14"/>
@@ -3481,13 +3488,13 @@
       <c r="Q22" s="14"/>
       <c r="R22" s="14"/>
       <c r="S22" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T22" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U22" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="V22" s="14">
         <v>0</v>
@@ -3495,7 +3502,7 @@
     </row>
     <row r="23" spans="1:22" s="4" customFormat="1">
       <c r="A23" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B23" s="14">
         <v>2</v>
@@ -3511,7 +3518,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H23" s="15"/>
       <c r="I23" s="14"/>
@@ -3537,13 +3544,13 @@
       <c r="Q23" s="14"/>
       <c r="R23" s="14"/>
       <c r="S23" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T23" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U23" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="V23" s="14">
         <v>0</v>
@@ -3551,7 +3558,7 @@
     </row>
     <row r="24" spans="1:22" s="4" customFormat="1">
       <c r="A24" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B24" s="14">
         <v>2</v>
@@ -3567,7 +3574,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H24" s="15"/>
       <c r="I24" s="14"/>
@@ -3593,13 +3600,13 @@
       <c r="Q24" s="14"/>
       <c r="R24" s="14"/>
       <c r="S24" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T24" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U24" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="V24" s="14">
         <v>0</v>
@@ -3607,7 +3614,7 @@
     </row>
     <row r="25" spans="1:22" s="4" customFormat="1">
       <c r="A25" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B25" s="13">
         <v>2</v>
@@ -3623,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H25" s="15"/>
       <c r="I25" s="14"/>
@@ -3649,13 +3656,13 @@
       <c r="Q25" s="14"/>
       <c r="R25" s="13"/>
       <c r="S25" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T25" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="U25" s="15" t="s">
         <v>86</v>
-      </c>
-      <c r="U25" s="15" t="s">
-        <v>87</v>
       </c>
       <c r="V25" s="14">
         <v>0</v>
@@ -3663,7 +3670,7 @@
     </row>
     <row r="26" spans="1:22" s="4" customFormat="1">
       <c r="A26" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B26" s="14">
         <v>2</v>
@@ -3679,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H26" s="15"/>
       <c r="I26" s="14"/>
@@ -3705,13 +3712,13 @@
       <c r="Q26" s="14"/>
       <c r="R26" s="14"/>
       <c r="S26" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T26" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="U26" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V26" s="14">
         <v>0</v>
@@ -3719,7 +3726,7 @@
     </row>
     <row r="27" spans="1:22" s="4" customFormat="1">
       <c r="A27" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B27" s="13">
         <v>2</v>
@@ -3735,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H27" s="15"/>
       <c r="I27" s="14"/>
@@ -3761,13 +3768,13 @@
       <c r="Q27" s="14"/>
       <c r="R27" s="13"/>
       <c r="S27" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T27" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U27" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V27" s="14">
         <v>0</v>
@@ -3775,7 +3782,7 @@
     </row>
     <row r="28" spans="1:22" s="4" customFormat="1">
       <c r="A28" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B28" s="14">
         <v>2</v>
@@ -3791,7 +3798,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H28" s="15"/>
       <c r="I28" s="14"/>
@@ -3817,13 +3824,13 @@
       <c r="Q28" s="14"/>
       <c r="R28" s="14"/>
       <c r="S28" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T28" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U28" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V28" s="14">
         <v>0</v>
@@ -3831,7 +3838,7 @@
     </row>
     <row r="29" spans="1:22" s="4" customFormat="1">
       <c r="A29" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B29" s="14">
         <v>2</v>
@@ -3847,7 +3854,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H29" s="15"/>
       <c r="I29" s="14"/>
@@ -3873,13 +3880,13 @@
       <c r="Q29" s="14"/>
       <c r="R29" s="14"/>
       <c r="S29" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T29" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U29" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V29" s="14">
         <v>0</v>
@@ -3887,7 +3894,7 @@
     </row>
     <row r="30" spans="1:22" s="4" customFormat="1">
       <c r="A30" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B30" s="14">
         <v>2</v>
@@ -3903,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H30" s="15"/>
       <c r="I30" s="14"/>
@@ -3929,13 +3936,13 @@
       <c r="Q30" s="14"/>
       <c r="R30" s="14"/>
       <c r="S30" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T30" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U30" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V30" s="14">
         <v>0</v>
@@ -3943,7 +3950,7 @@
     </row>
     <row r="31" spans="1:22" s="4" customFormat="1">
       <c r="A31" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B31" s="13">
         <v>2</v>
@@ -3959,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H31" s="15"/>
       <c r="I31" s="14"/>
@@ -3985,13 +3992,13 @@
       <c r="Q31" s="14"/>
       <c r="R31" s="13"/>
       <c r="S31" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T31" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="U31" s="15" t="s">
         <v>100</v>
-      </c>
-      <c r="U31" s="15" t="s">
-        <v>101</v>
       </c>
       <c r="V31" s="14">
         <v>0</v>
@@ -3999,7 +4006,7 @@
     </row>
     <row r="32" spans="1:22" s="4" customFormat="1">
       <c r="A32" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B32" s="14">
         <v>2</v>
@@ -4015,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H32" s="15"/>
       <c r="I32" s="14"/>
@@ -4041,13 +4048,13 @@
       <c r="Q32" s="14"/>
       <c r="R32" s="14"/>
       <c r="S32" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T32" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="U32" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="V32" s="14">
         <v>0</v>
@@ -4055,7 +4062,7 @@
     </row>
     <row r="33" spans="1:22" s="4" customFormat="1">
       <c r="A33" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B33" s="13">
         <v>2</v>
@@ -4071,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H33" s="15"/>
       <c r="I33" s="14"/>
@@ -4097,13 +4104,13 @@
       <c r="Q33" s="14"/>
       <c r="R33" s="13"/>
       <c r="S33" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T33" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U33" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="V33" s="14">
         <v>0</v>
@@ -4111,7 +4118,7 @@
     </row>
     <row r="34" spans="1:22" s="4" customFormat="1">
       <c r="A34" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B34" s="14">
         <v>2</v>
@@ -4127,7 +4134,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H34" s="15"/>
       <c r="I34" s="14"/>
@@ -4153,13 +4160,13 @@
       <c r="Q34" s="14"/>
       <c r="R34" s="14"/>
       <c r="S34" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T34" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="U34" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="V34" s="14">
         <v>0</v>
@@ -4167,7 +4174,7 @@
     </row>
     <row r="35" spans="1:22" s="4" customFormat="1">
       <c r="A35" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B35" s="13">
         <v>2</v>
@@ -4183,7 +4190,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H35" s="15"/>
       <c r="I35" s="14"/>
@@ -4209,13 +4216,13 @@
       <c r="Q35" s="14"/>
       <c r="R35" s="13"/>
       <c r="S35" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T35" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="U35" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="V35" s="14">
         <v>0</v>
@@ -4223,7 +4230,7 @@
     </row>
     <row r="36" spans="1:22" s="4" customFormat="1">
       <c r="A36" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B36" s="14">
         <v>2</v>
@@ -4239,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H36" s="15"/>
       <c r="I36" s="14"/>
@@ -4265,13 +4272,13 @@
       <c r="Q36" s="14"/>
       <c r="R36" s="14"/>
       <c r="S36" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T36" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="U36" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="V36" s="14">
         <v>0</v>
@@ -4279,7 +4286,7 @@
     </row>
     <row r="37" spans="1:22" s="4" customFormat="1">
       <c r="A37" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B37" s="13">
         <v>2</v>
@@ -4295,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H37" s="15"/>
       <c r="I37" s="14"/>
@@ -4321,13 +4328,13 @@
       <c r="Q37" s="14"/>
       <c r="R37" s="13"/>
       <c r="S37" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T37" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="U37" s="14" t="s">
         <v>114</v>
-      </c>
-      <c r="U37" s="14" t="s">
-        <v>115</v>
       </c>
       <c r="V37" s="14">
         <v>0</v>
@@ -4335,7 +4342,7 @@
     </row>
     <row r="38" spans="1:22" s="4" customFormat="1">
       <c r="A38" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B38" s="14">
         <v>2</v>
@@ -4351,7 +4358,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H38" s="15"/>
       <c r="I38" s="14"/>
@@ -4377,13 +4384,13 @@
       <c r="Q38" s="14"/>
       <c r="R38" s="14"/>
       <c r="S38" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T38" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="U38" s="14" t="s">
         <v>114</v>
-      </c>
-      <c r="U38" s="14" t="s">
-        <v>115</v>
       </c>
       <c r="V38" s="14">
         <v>0</v>
@@ -4391,7 +4398,7 @@
     </row>
     <row r="39" spans="1:22" s="4" customFormat="1">
       <c r="A39" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B39" s="13">
         <v>2</v>
@@ -4407,7 +4414,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H39" s="15"/>
       <c r="I39" s="14"/>
@@ -4433,13 +4440,13 @@
       <c r="Q39" s="14"/>
       <c r="R39" s="13"/>
       <c r="S39" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T39" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="U39" s="14" t="s">
         <v>114</v>
-      </c>
-      <c r="U39" s="14" t="s">
-        <v>115</v>
       </c>
       <c r="V39" s="14">
         <v>0</v>
@@ -4447,7 +4454,7 @@
     </row>
     <row r="40" spans="1:22" s="4" customFormat="1">
       <c r="A40" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B40" s="14">
         <v>2</v>
@@ -4463,7 +4470,7 @@
         <v>0</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H40" s="15"/>
       <c r="I40" s="14"/>
@@ -4489,13 +4496,13 @@
       <c r="Q40" s="14"/>
       <c r="R40" s="14"/>
       <c r="S40" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T40" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="U40" s="14" t="s">
         <v>114</v>
-      </c>
-      <c r="U40" s="14" t="s">
-        <v>115</v>
       </c>
       <c r="V40" s="14">
         <v>0</v>
@@ -4503,7 +4510,7 @@
     </row>
     <row r="41" spans="1:22" s="4" customFormat="1">
       <c r="A41" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B41" s="13">
         <v>2</v>
@@ -4519,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H41" s="15"/>
       <c r="I41" s="14"/>
@@ -4545,13 +4552,13 @@
       <c r="Q41" s="14"/>
       <c r="R41" s="13"/>
       <c r="S41" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T41" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="U41" s="14" t="s">
         <v>114</v>
-      </c>
-      <c r="U41" s="14" t="s">
-        <v>115</v>
       </c>
       <c r="V41" s="14">
         <v>0</v>
@@ -4559,7 +4566,7 @@
     </row>
     <row r="42" spans="1:22" s="4" customFormat="1">
       <c r="A42" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B42" s="14">
         <v>2</v>
@@ -4575,7 +4582,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H42" s="15"/>
       <c r="I42" s="14"/>
@@ -4601,13 +4608,13 @@
       <c r="Q42" s="14"/>
       <c r="R42" s="14"/>
       <c r="S42" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T42" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="U42" s="14" t="s">
         <v>114</v>
-      </c>
-      <c r="U42" s="14" t="s">
-        <v>115</v>
       </c>
       <c r="V42" s="14">
         <v>0</v>
@@ -4615,7 +4622,7 @@
     </row>
     <row r="43" spans="1:22" s="4" customFormat="1">
       <c r="A43" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B43" s="14">
         <v>2</v>
@@ -4631,7 +4638,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H43" s="15"/>
       <c r="I43" s="14"/>
@@ -4657,13 +4664,13 @@
       <c r="Q43" s="14"/>
       <c r="R43" s="14"/>
       <c r="S43" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T43" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="U43" s="15" t="s">
         <v>123</v>
-      </c>
-      <c r="U43" s="15" t="s">
-        <v>124</v>
       </c>
       <c r="V43" s="14">
         <v>0</v>
@@ -4671,7 +4678,7 @@
     </row>
     <row r="44" spans="1:22" s="4" customFormat="1">
       <c r="A44" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B44" s="13">
         <v>2</v>
@@ -4687,7 +4694,7 @@
         <v>0</v>
       </c>
       <c r="G44" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H44" s="15"/>
       <c r="I44" s="14"/>
@@ -4713,13 +4720,13 @@
       <c r="Q44" s="14"/>
       <c r="R44" s="13"/>
       <c r="S44" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T44" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U44" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V44" s="14">
         <v>0</v>
@@ -4727,7 +4734,7 @@
     </row>
     <row r="45" spans="1:22" s="4" customFormat="1">
       <c r="A45" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B45" s="14">
         <v>2</v>
@@ -4743,7 +4750,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H45" s="15"/>
       <c r="I45" s="14"/>
@@ -4769,13 +4776,13 @@
       <c r="Q45" s="14"/>
       <c r="R45" s="14"/>
       <c r="S45" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T45" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="U45" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V45" s="14">
         <v>0</v>
@@ -4783,7 +4790,7 @@
     </row>
     <row r="46" spans="1:22" s="4" customFormat="1">
       <c r="A46" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B46" s="13">
         <v>2</v>
@@ -4799,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="G46" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H46" s="15"/>
       <c r="I46" s="14"/>
@@ -4825,13 +4832,13 @@
       <c r="Q46" s="14"/>
       <c r="R46" s="13"/>
       <c r="S46" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T46" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="U46" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V46" s="14">
         <v>0</v>
@@ -4839,7 +4846,7 @@
     </row>
     <row r="47" spans="1:22" s="4" customFormat="1">
       <c r="A47" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B47" s="14">
         <v>2</v>
@@ -4855,7 +4862,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H47" s="15"/>
       <c r="I47" s="14"/>
@@ -4881,13 +4888,13 @@
       <c r="Q47" s="14"/>
       <c r="R47" s="14"/>
       <c r="S47" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T47" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U47" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V47" s="14">
         <v>0</v>
@@ -4895,7 +4902,7 @@
     </row>
     <row r="48" spans="1:22" s="4" customFormat="1">
       <c r="A48" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B48" s="13">
         <v>2</v>
@@ -4911,7 +4918,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H48" s="15"/>
       <c r="I48" s="14"/>
@@ -4937,99 +4944,99 @@
       <c r="Q48" s="14"/>
       <c r="R48" s="13"/>
       <c r="S48" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T48" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="U48" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="V48" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" s="4" customFormat="1">
+      <c r="A49" s="15" t="s">
+        <v>463</v>
+      </c>
+      <c r="B49" s="13">
+        <v>2</v>
+      </c>
+      <c r="C49" s="14">
+        <v>8</v>
+      </c>
+      <c r="D49" s="14">
+        <v>0</v>
+      </c>
+      <c r="E49" s="13"/>
+      <c r="F49" s="14">
+        <v>0</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="H49" s="15"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14">
+        <v>1600</v>
+      </c>
+      <c r="L49" s="14">
+        <v>1</v>
+      </c>
+      <c r="M49" s="14">
+        <v>999</v>
+      </c>
+      <c r="N49" s="14">
+        <v>0</v>
+      </c>
+      <c r="O49" s="14">
+        <v>100</v>
+      </c>
+      <c r="P49" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="14"/>
+      <c r="R49" s="13"/>
+      <c r="S49" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="T49" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="U49" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="V49" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" s="5" customFormat="1" ht="313.5">
+      <c r="A50" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="U48" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="V48" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22" s="5" customFormat="1" ht="313.5">
-      <c r="A49" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="B49" s="17">
-        <v>2</v>
-      </c>
-      <c r="C49" s="17">
-        <v>7</v>
-      </c>
-      <c r="D49" s="17">
-        <v>1</v>
-      </c>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17">
-        <v>0</v>
-      </c>
-      <c r="G49" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="47" t="s">
-        <v>456</v>
-      </c>
-      <c r="K49" s="17">
-        <v>0</v>
-      </c>
-      <c r="L49" s="17">
-        <v>1</v>
-      </c>
-      <c r="M49" s="17">
-        <v>1</v>
-      </c>
-      <c r="N49" s="17">
-        <v>0</v>
-      </c>
-      <c r="O49" s="17">
-        <v>100</v>
-      </c>
-      <c r="P49" s="18">
-        <v>1</v>
-      </c>
-      <c r="Q49" s="17"/>
-      <c r="R49" s="17"/>
-      <c r="S49" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="T49" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="U49" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="V49" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22" s="5" customFormat="1">
-      <c r="A50" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="B50" s="18">
+      <c r="B50" s="17">
         <v>2</v>
       </c>
       <c r="C50" s="17">
         <v>7</v>
       </c>
       <c r="D50" s="17">
-        <v>10</v>
-      </c>
-      <c r="E50" s="18"/>
+        <v>1</v>
+      </c>
+      <c r="E50" s="17"/>
       <c r="F50" s="17">
         <v>0</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H50" s="17"/>
       <c r="I50" s="17"/>
-      <c r="J50" s="17"/>
+      <c r="J50" s="47" t="s">
+        <v>455</v>
+      </c>
       <c r="K50" s="17">
         <v>0</v>
       </c>
@@ -5049,15 +5056,15 @@
         <v>1</v>
       </c>
       <c r="Q50" s="17"/>
-      <c r="R50" s="18"/>
+      <c r="R50" s="17"/>
       <c r="S50" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T50" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="U50" s="16" t="s">
         <v>137</v>
-      </c>
-      <c r="U50" s="16" t="s">
-        <v>138</v>
       </c>
       <c r="V50" s="17">
         <v>0</v>
@@ -5065,23 +5072,23 @@
     </row>
     <row r="51" spans="1:22" s="5" customFormat="1">
       <c r="A51" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="B51" s="17">
+        <v>138</v>
+      </c>
+      <c r="B51" s="18">
         <v>2</v>
       </c>
       <c r="C51" s="17">
         <v>7</v>
       </c>
       <c r="D51" s="17">
-        <v>20</v>
-      </c>
-      <c r="E51" s="17"/>
+        <v>10</v>
+      </c>
+      <c r="E51" s="18"/>
       <c r="F51" s="17">
         <v>0</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
@@ -5105,15 +5112,15 @@
         <v>1</v>
       </c>
       <c r="Q51" s="17"/>
-      <c r="R51" s="17"/>
+      <c r="R51" s="18"/>
       <c r="S51" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T51" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="U51" s="16" t="s">
         <v>137</v>
-      </c>
-      <c r="U51" s="16" t="s">
-        <v>138</v>
       </c>
       <c r="V51" s="17">
         <v>0</v>
@@ -5121,23 +5128,23 @@
     </row>
     <row r="52" spans="1:22" s="5" customFormat="1">
       <c r="A52" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="B52" s="18">
+        <v>139</v>
+      </c>
+      <c r="B52" s="17">
         <v>2</v>
       </c>
       <c r="C52" s="17">
         <v>7</v>
       </c>
       <c r="D52" s="17">
-        <v>30</v>
-      </c>
-      <c r="E52" s="18"/>
+        <v>20</v>
+      </c>
+      <c r="E52" s="17"/>
       <c r="F52" s="17">
         <v>0</v>
       </c>
       <c r="G52" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
@@ -5161,15 +5168,15 @@
         <v>1</v>
       </c>
       <c r="Q52" s="17"/>
-      <c r="R52" s="18"/>
+      <c r="R52" s="17"/>
       <c r="S52" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T52" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="U52" s="16" t="s">
         <v>137</v>
-      </c>
-      <c r="U52" s="16" t="s">
-        <v>138</v>
       </c>
       <c r="V52" s="17">
         <v>0</v>
@@ -5177,23 +5184,23 @@
     </row>
     <row r="53" spans="1:22" s="5" customFormat="1">
       <c r="A53" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="B53" s="17">
+        <v>140</v>
+      </c>
+      <c r="B53" s="18">
         <v>2</v>
       </c>
       <c r="C53" s="17">
         <v>7</v>
       </c>
       <c r="D53" s="17">
-        <v>35</v>
-      </c>
-      <c r="E53" s="17"/>
+        <v>30</v>
+      </c>
+      <c r="E53" s="18"/>
       <c r="F53" s="17">
         <v>0</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H53" s="17"/>
       <c r="I53" s="17"/>
@@ -5217,15 +5224,15 @@
         <v>1</v>
       </c>
       <c r="Q53" s="17"/>
-      <c r="R53" s="17"/>
+      <c r="R53" s="18"/>
       <c r="S53" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T53" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="U53" s="16" t="s">
         <v>137</v>
-      </c>
-      <c r="U53" s="16" t="s">
-        <v>138</v>
       </c>
       <c r="V53" s="17">
         <v>0</v>
@@ -5233,23 +5240,23 @@
     </row>
     <row r="54" spans="1:22" s="5" customFormat="1">
       <c r="A54" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="B54" s="18">
+        <v>141</v>
+      </c>
+      <c r="B54" s="17">
         <v>2</v>
       </c>
       <c r="C54" s="17">
         <v>7</v>
       </c>
       <c r="D54" s="17">
-        <v>40</v>
-      </c>
-      <c r="E54" s="18"/>
+        <v>35</v>
+      </c>
+      <c r="E54" s="17"/>
       <c r="F54" s="17">
         <v>0</v>
       </c>
       <c r="G54" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H54" s="17"/>
       <c r="I54" s="17"/>
@@ -5273,15 +5280,15 @@
         <v>1</v>
       </c>
       <c r="Q54" s="17"/>
-      <c r="R54" s="18"/>
+      <c r="R54" s="17"/>
       <c r="S54" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T54" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="U54" s="16" t="s">
         <v>137</v>
-      </c>
-      <c r="U54" s="16" t="s">
-        <v>138</v>
       </c>
       <c r="V54" s="17">
         <v>0</v>
@@ -5289,23 +5296,23 @@
     </row>
     <row r="55" spans="1:22" s="5" customFormat="1">
       <c r="A55" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="B55" s="17">
+        <v>142</v>
+      </c>
+      <c r="B55" s="18">
         <v>2</v>
       </c>
       <c r="C55" s="17">
         <v>7</v>
       </c>
       <c r="D55" s="17">
-        <v>45</v>
-      </c>
-      <c r="E55" s="17"/>
+        <v>40</v>
+      </c>
+      <c r="E55" s="18"/>
       <c r="F55" s="17">
         <v>0</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H55" s="17"/>
       <c r="I55" s="17"/>
@@ -5329,15 +5336,15 @@
         <v>1</v>
       </c>
       <c r="Q55" s="17"/>
-      <c r="R55" s="17"/>
+      <c r="R55" s="18"/>
       <c r="S55" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T55" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="U55" s="16" t="s">
         <v>137</v>
-      </c>
-      <c r="U55" s="16" t="s">
-        <v>138</v>
       </c>
       <c r="V55" s="17">
         <v>0</v>
@@ -5345,23 +5352,23 @@
     </row>
     <row r="56" spans="1:22" s="5" customFormat="1">
       <c r="A56" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="B56" s="18">
+        <v>143</v>
+      </c>
+      <c r="B56" s="17">
         <v>2</v>
       </c>
       <c r="C56" s="17">
         <v>7</v>
       </c>
       <c r="D56" s="17">
-        <v>50</v>
-      </c>
-      <c r="E56" s="18"/>
+        <v>45</v>
+      </c>
+      <c r="E56" s="17"/>
       <c r="F56" s="17">
         <v>0</v>
       </c>
       <c r="G56" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H56" s="17"/>
       <c r="I56" s="17"/>
@@ -5385,15 +5392,15 @@
         <v>1</v>
       </c>
       <c r="Q56" s="17"/>
-      <c r="R56" s="18"/>
+      <c r="R56" s="17"/>
       <c r="S56" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T56" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="U56" s="16" t="s">
         <v>137</v>
-      </c>
-      <c r="U56" s="16" t="s">
-        <v>138</v>
       </c>
       <c r="V56" s="17">
         <v>0</v>
@@ -5401,23 +5408,23 @@
     </row>
     <row r="57" spans="1:22" s="5" customFormat="1">
       <c r="A57" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="B57" s="17">
+        <v>144</v>
+      </c>
+      <c r="B57" s="18">
         <v>2</v>
       </c>
       <c r="C57" s="17">
         <v>7</v>
       </c>
       <c r="D57" s="17">
-        <v>55</v>
-      </c>
-      <c r="E57" s="17"/>
+        <v>50</v>
+      </c>
+      <c r="E57" s="18"/>
       <c r="F57" s="17">
         <v>0</v>
       </c>
       <c r="G57" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H57" s="17"/>
       <c r="I57" s="17"/>
@@ -5441,15 +5448,15 @@
         <v>1</v>
       </c>
       <c r="Q57" s="17"/>
-      <c r="R57" s="17"/>
+      <c r="R57" s="18"/>
       <c r="S57" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T57" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="U57" s="16" t="s">
         <v>137</v>
-      </c>
-      <c r="U57" s="16" t="s">
-        <v>138</v>
       </c>
       <c r="V57" s="17">
         <v>0</v>
@@ -5457,23 +5464,23 @@
     </row>
     <row r="58" spans="1:22" s="5" customFormat="1">
       <c r="A58" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="B58" s="18">
+        <v>145</v>
+      </c>
+      <c r="B58" s="17">
         <v>2</v>
       </c>
       <c r="C58" s="17">
         <v>7</v>
       </c>
       <c r="D58" s="17">
-        <v>60</v>
-      </c>
-      <c r="E58" s="18"/>
+        <v>55</v>
+      </c>
+      <c r="E58" s="17"/>
       <c r="F58" s="17">
         <v>0</v>
       </c>
       <c r="G58" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H58" s="17"/>
       <c r="I58" s="17"/>
@@ -5497,15 +5504,15 @@
         <v>1</v>
       </c>
       <c r="Q58" s="17"/>
-      <c r="R58" s="18"/>
+      <c r="R58" s="17"/>
       <c r="S58" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T58" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="U58" s="16" t="s">
         <v>137</v>
-      </c>
-      <c r="U58" s="16" t="s">
-        <v>138</v>
       </c>
       <c r="V58" s="17">
         <v>0</v>
@@ -5513,23 +5520,23 @@
     </row>
     <row r="59" spans="1:22" s="5" customFormat="1">
       <c r="A59" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="B59" s="17">
+        <v>146</v>
+      </c>
+      <c r="B59" s="18">
         <v>2</v>
       </c>
       <c r="C59" s="17">
         <v>7</v>
       </c>
       <c r="D59" s="17">
-        <v>10</v>
-      </c>
-      <c r="E59" s="17"/>
+        <v>60</v>
+      </c>
+      <c r="E59" s="18"/>
       <c r="F59" s="17">
         <v>0</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="H59" s="17"/>
       <c r="I59" s="17"/>
@@ -5553,15 +5560,15 @@
         <v>1</v>
       </c>
       <c r="Q59" s="17"/>
-      <c r="R59" s="17"/>
+      <c r="R59" s="18"/>
       <c r="S59" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T59" s="16" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="U59" s="16" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="V59" s="17">
         <v>0</v>
@@ -5569,23 +5576,23 @@
     </row>
     <row r="60" spans="1:22" s="5" customFormat="1">
       <c r="A60" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="B60" s="18">
+        <v>147</v>
+      </c>
+      <c r="B60" s="17">
         <v>2</v>
       </c>
       <c r="C60" s="17">
         <v>7</v>
       </c>
       <c r="D60" s="17">
-        <v>20</v>
-      </c>
-      <c r="E60" s="18"/>
+        <v>10</v>
+      </c>
+      <c r="E60" s="17"/>
       <c r="F60" s="17">
         <v>0</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H60" s="17"/>
       <c r="I60" s="17"/>
@@ -5609,15 +5616,15 @@
         <v>1</v>
       </c>
       <c r="Q60" s="17"/>
-      <c r="R60" s="18"/>
+      <c r="R60" s="17"/>
       <c r="S60" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T60" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="U60" s="16" t="s">
         <v>150</v>
-      </c>
-      <c r="U60" s="16" t="s">
-        <v>151</v>
       </c>
       <c r="V60" s="17">
         <v>0</v>
@@ -5625,23 +5632,23 @@
     </row>
     <row r="61" spans="1:22" s="5" customFormat="1">
       <c r="A61" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="B61" s="17">
+        <v>151</v>
+      </c>
+      <c r="B61" s="18">
         <v>2</v>
       </c>
       <c r="C61" s="17">
         <v>7</v>
       </c>
       <c r="D61" s="17">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E61" s="18"/>
       <c r="F61" s="17">
         <v>0</v>
       </c>
       <c r="G61" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
@@ -5665,15 +5672,15 @@
         <v>1</v>
       </c>
       <c r="Q61" s="17"/>
-      <c r="R61" s="17"/>
+      <c r="R61" s="18"/>
       <c r="S61" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T61" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="U61" s="16" t="s">
         <v>150</v>
-      </c>
-      <c r="U61" s="16" t="s">
-        <v>151</v>
       </c>
       <c r="V61" s="17">
         <v>0</v>
@@ -5681,23 +5688,23 @@
     </row>
     <row r="62" spans="1:22" s="5" customFormat="1">
       <c r="A62" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="B62" s="18">
+        <v>152</v>
+      </c>
+      <c r="B62" s="17">
         <v>2</v>
       </c>
       <c r="C62" s="17">
         <v>7</v>
       </c>
       <c r="D62" s="17">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E62" s="18"/>
       <c r="F62" s="17">
         <v>0</v>
       </c>
       <c r="G62" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
@@ -5721,95 +5728,95 @@
         <v>1</v>
       </c>
       <c r="Q62" s="17"/>
-      <c r="R62" s="18"/>
+      <c r="R62" s="17"/>
       <c r="S62" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T62" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="U62" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="U62" s="16" t="s">
-        <v>151</v>
-      </c>
       <c r="V62" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:22" s="5" customFormat="1">
-      <c r="A63" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="B63" s="17">
+      <c r="A63" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="B63" s="18">
         <v>2</v>
       </c>
       <c r="C63" s="17">
         <v>7</v>
       </c>
-      <c r="D63" s="20">
-        <v>50</v>
-      </c>
-      <c r="E63" s="21"/>
-      <c r="F63" s="20">
+      <c r="D63" s="17">
+        <v>40</v>
+      </c>
+      <c r="E63" s="18"/>
+      <c r="F63" s="17">
         <v>0</v>
       </c>
       <c r="G63" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="H63" s="17"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="17"/>
+      <c r="K63" s="17">
+        <v>0</v>
+      </c>
+      <c r="L63" s="17">
+        <v>1</v>
+      </c>
+      <c r="M63" s="17">
+        <v>1</v>
+      </c>
+      <c r="N63" s="17">
+        <v>0</v>
+      </c>
+      <c r="O63" s="17">
+        <v>100</v>
+      </c>
+      <c r="P63" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q63" s="17"/>
+      <c r="R63" s="18"/>
+      <c r="S63" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="T63" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="H63" s="20"/>
-      <c r="I63" s="20"/>
-      <c r="J63" s="20"/>
-      <c r="K63" s="20">
-        <v>0</v>
-      </c>
-      <c r="L63" s="20">
-        <v>1</v>
-      </c>
-      <c r="M63" s="17">
-        <v>1</v>
-      </c>
-      <c r="N63" s="20">
-        <v>0</v>
-      </c>
-      <c r="O63" s="20">
-        <v>100</v>
-      </c>
-      <c r="P63" s="21">
-        <v>1</v>
-      </c>
-      <c r="Q63" s="20"/>
-      <c r="R63" s="20"/>
-      <c r="S63" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="T63" s="16" t="s">
+      <c r="U63" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="U63" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="V63" s="20">
+      <c r="V63" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:22" s="5" customFormat="1">
       <c r="A64" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="B64" s="18">
+        <v>154</v>
+      </c>
+      <c r="B64" s="17">
         <v>2</v>
       </c>
       <c r="C64" s="17">
         <v>7</v>
       </c>
       <c r="D64" s="20">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E64" s="21"/>
       <c r="F64" s="20">
         <v>0</v>
       </c>
       <c r="G64" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H64" s="20"/>
       <c r="I64" s="20"/>
@@ -5835,77 +5842,77 @@
       <c r="Q64" s="20"/>
       <c r="R64" s="20"/>
       <c r="S64" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T64" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="U64" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="U64" s="16" t="s">
-        <v>151</v>
-      </c>
       <c r="V64" s="20">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:22" s="6" customFormat="1">
-      <c r="A65" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B65" s="22">
-        <v>1</v>
-      </c>
-      <c r="C65" s="22">
-        <v>0</v>
-      </c>
-      <c r="D65" s="22">
-        <v>0</v>
-      </c>
-      <c r="E65" s="22"/>
-      <c r="F65" s="22">
-        <v>1</v>
-      </c>
-      <c r="G65" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="H65" s="22"/>
-      <c r="I65" s="22"/>
-      <c r="J65" s="22"/>
-      <c r="K65" s="22">
-        <v>20</v>
-      </c>
-      <c r="L65" s="22">
-        <v>0</v>
-      </c>
-      <c r="M65" s="22">
-        <v>1</v>
-      </c>
-      <c r="N65" s="22">
-        <v>0</v>
-      </c>
-      <c r="O65" s="22">
-        <v>20</v>
-      </c>
-      <c r="P65" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q65" s="22"/>
-      <c r="R65" s="22"/>
+    <row r="65" spans="1:22" s="5" customFormat="1">
+      <c r="A65" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="B65" s="18">
+        <v>2</v>
+      </c>
+      <c r="C65" s="17">
+        <v>7</v>
+      </c>
+      <c r="D65" s="20">
+        <v>60</v>
+      </c>
+      <c r="E65" s="21"/>
+      <c r="F65" s="20">
+        <v>0</v>
+      </c>
+      <c r="G65" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="20"/>
+      <c r="K65" s="20">
+        <v>0</v>
+      </c>
+      <c r="L65" s="20">
+        <v>1</v>
+      </c>
+      <c r="M65" s="17">
+        <v>1</v>
+      </c>
+      <c r="N65" s="20">
+        <v>0</v>
+      </c>
+      <c r="O65" s="20">
+        <v>100</v>
+      </c>
+      <c r="P65" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q65" s="20"/>
+      <c r="R65" s="20"/>
       <c r="S65" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="T65" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="U65" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="V65" s="22">
+        <v>247</v>
+      </c>
+      <c r="T65" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="U65" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="V65" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:22" s="6" customFormat="1">
       <c r="A66" s="22" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B66" s="22">
         <v>1</v>
@@ -5918,16 +5925,16 @@
       </c>
       <c r="E66" s="22"/>
       <c r="F66" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G66" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H66" s="22"/>
       <c r="I66" s="22"/>
       <c r="J66" s="22"/>
       <c r="K66" s="22">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L66" s="22">
         <v>0</v>
@@ -5939,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="O66" s="22">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="P66" s="22">
         <v>1</v>
@@ -5947,13 +5954,13 @@
       <c r="Q66" s="22"/>
       <c r="R66" s="22"/>
       <c r="S66" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T66" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="U66" s="22" t="s">
         <v>159</v>
-      </c>
-      <c r="U66" s="22" t="s">
-        <v>160</v>
       </c>
       <c r="V66" s="22">
         <v>0</v>
@@ -5961,7 +5968,7 @@
     </row>
     <row r="67" spans="1:22" s="6" customFormat="1">
       <c r="A67" s="22" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B67" s="22">
         <v>1</v>
@@ -5974,16 +5981,16 @@
       </c>
       <c r="E67" s="22"/>
       <c r="F67" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G67" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H67" s="22"/>
       <c r="I67" s="22"/>
       <c r="J67" s="22"/>
       <c r="K67" s="22">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="L67" s="22">
         <v>0</v>
@@ -5995,7 +6002,7 @@
         <v>0</v>
       </c>
       <c r="O67" s="22">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="P67" s="22">
         <v>1</v>
@@ -6003,13 +6010,13 @@
       <c r="Q67" s="22"/>
       <c r="R67" s="22"/>
       <c r="S67" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T67" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="U67" s="22" t="s">
         <v>159</v>
-      </c>
-      <c r="U67" s="22" t="s">
-        <v>160</v>
       </c>
       <c r="V67" s="22">
         <v>0</v>
@@ -6017,7 +6024,7 @@
     </row>
     <row r="68" spans="1:22" s="6" customFormat="1">
       <c r="A68" s="22" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B68" s="22">
         <v>1</v>
@@ -6030,16 +6037,16 @@
       </c>
       <c r="E68" s="22"/>
       <c r="F68" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G68" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H68" s="22"/>
       <c r="I68" s="22"/>
       <c r="J68" s="22"/>
       <c r="K68" s="22">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="L68" s="22">
         <v>0</v>
@@ -6051,7 +6058,7 @@
         <v>0</v>
       </c>
       <c r="O68" s="22">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="P68" s="22">
         <v>1</v>
@@ -6059,13 +6066,13 @@
       <c r="Q68" s="22"/>
       <c r="R68" s="22"/>
       <c r="S68" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T68" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="U68" s="22" t="s">
         <v>159</v>
-      </c>
-      <c r="U68" s="22" t="s">
-        <v>160</v>
       </c>
       <c r="V68" s="22">
         <v>0</v>
@@ -6073,7 +6080,7 @@
     </row>
     <row r="69" spans="1:22" s="6" customFormat="1">
       <c r="A69" s="22" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B69" s="22">
         <v>1</v>
@@ -6086,16 +6093,16 @@
       </c>
       <c r="E69" s="22"/>
       <c r="F69" s="22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G69" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H69" s="22"/>
       <c r="I69" s="22"/>
       <c r="J69" s="22"/>
       <c r="K69" s="22">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="L69" s="22">
         <v>0</v>
@@ -6107,7 +6114,7 @@
         <v>0</v>
       </c>
       <c r="O69" s="22">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="P69" s="22">
         <v>1</v>
@@ -6115,13 +6122,13 @@
       <c r="Q69" s="22"/>
       <c r="R69" s="22"/>
       <c r="S69" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T69" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="U69" s="22" t="s">
         <v>159</v>
-      </c>
-      <c r="U69" s="22" t="s">
-        <v>160</v>
       </c>
       <c r="V69" s="22">
         <v>0</v>
@@ -6129,7 +6136,7 @@
     </row>
     <row r="70" spans="1:22" s="6" customFormat="1">
       <c r="A70" s="22" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B70" s="22">
         <v>1</v>
@@ -6142,16 +6149,16 @@
       </c>
       <c r="E70" s="22"/>
       <c r="F70" s="22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G70" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H70" s="22"/>
       <c r="I70" s="22"/>
       <c r="J70" s="22"/>
       <c r="K70" s="22">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="L70" s="22">
         <v>0</v>
@@ -6163,7 +6170,7 @@
         <v>0</v>
       </c>
       <c r="O70" s="22">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="P70" s="22">
         <v>1</v>
@@ -6171,13 +6178,13 @@
       <c r="Q70" s="22"/>
       <c r="R70" s="22"/>
       <c r="S70" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T70" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="U70" s="22" t="s">
         <v>159</v>
-      </c>
-      <c r="U70" s="22" t="s">
-        <v>160</v>
       </c>
       <c r="V70" s="22">
         <v>0</v>
@@ -6185,7 +6192,7 @@
     </row>
     <row r="71" spans="1:22" s="6" customFormat="1">
       <c r="A71" s="22" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B71" s="22">
         <v>1</v>
@@ -6198,16 +6205,16 @@
       </c>
       <c r="E71" s="22"/>
       <c r="F71" s="22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G71" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H71" s="22"/>
       <c r="I71" s="22"/>
       <c r="J71" s="22"/>
       <c r="K71" s="22">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="L71" s="22">
         <v>0</v>
@@ -6219,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="O71" s="22">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="P71" s="22">
         <v>1</v>
@@ -6227,13 +6234,13 @@
       <c r="Q71" s="22"/>
       <c r="R71" s="22"/>
       <c r="S71" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T71" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="U71" s="22" t="s">
         <v>159</v>
-      </c>
-      <c r="U71" s="22" t="s">
-        <v>160</v>
       </c>
       <c r="V71" s="22">
         <v>0</v>
@@ -6241,7 +6248,7 @@
     </row>
     <row r="72" spans="1:22" s="6" customFormat="1">
       <c r="A72" s="22" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B72" s="22">
         <v>1</v>
@@ -6254,16 +6261,16 @@
       </c>
       <c r="E72" s="22"/>
       <c r="F72" s="22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G72" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H72" s="22"/>
       <c r="I72" s="22"/>
       <c r="J72" s="22"/>
       <c r="K72" s="22">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="L72" s="22">
         <v>0</v>
@@ -6275,7 +6282,7 @@
         <v>0</v>
       </c>
       <c r="O72" s="22">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="P72" s="22">
         <v>1</v>
@@ -6283,13 +6290,13 @@
       <c r="Q72" s="22"/>
       <c r="R72" s="22"/>
       <c r="S72" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T72" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="U72" s="22" t="s">
         <v>159</v>
-      </c>
-      <c r="U72" s="22" t="s">
-        <v>160</v>
       </c>
       <c r="V72" s="22">
         <v>0</v>
@@ -6297,7 +6304,7 @@
     </row>
     <row r="73" spans="1:22" s="6" customFormat="1">
       <c r="A73" s="22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B73" s="22">
         <v>1</v>
@@ -6310,16 +6317,16 @@
       </c>
       <c r="E73" s="22"/>
       <c r="F73" s="22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G73" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H73" s="22"/>
       <c r="I73" s="22"/>
       <c r="J73" s="22"/>
       <c r="K73" s="22">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L73" s="22">
         <v>0</v>
@@ -6331,7 +6338,7 @@
         <v>0</v>
       </c>
       <c r="O73" s="22">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="P73" s="22">
         <v>1</v>
@@ -6339,13 +6346,13 @@
       <c r="Q73" s="22"/>
       <c r="R73" s="22"/>
       <c r="S73" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T73" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="U73" s="22" t="s">
         <v>159</v>
-      </c>
-      <c r="U73" s="22" t="s">
-        <v>160</v>
       </c>
       <c r="V73" s="22">
         <v>0</v>
@@ -6353,7 +6360,7 @@
     </row>
     <row r="74" spans="1:22" s="6" customFormat="1">
       <c r="A74" s="22" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B74" s="22">
         <v>1</v>
@@ -6366,16 +6373,16 @@
       </c>
       <c r="E74" s="22"/>
       <c r="F74" s="22">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G74" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H74" s="22"/>
       <c r="I74" s="22"/>
       <c r="J74" s="22"/>
       <c r="K74" s="22">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="L74" s="22">
         <v>0</v>
@@ -6387,7 +6394,7 @@
         <v>0</v>
       </c>
       <c r="O74" s="22">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="P74" s="22">
         <v>1</v>
@@ -6395,13 +6402,13 @@
       <c r="Q74" s="22"/>
       <c r="R74" s="22"/>
       <c r="S74" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T74" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="U74" s="22" t="s">
         <v>159</v>
-      </c>
-      <c r="U74" s="22" t="s">
-        <v>160</v>
       </c>
       <c r="V74" s="22">
         <v>0</v>
@@ -6409,29 +6416,29 @@
     </row>
     <row r="75" spans="1:22" s="6" customFormat="1">
       <c r="A75" s="22" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B75" s="22">
         <v>1</v>
       </c>
       <c r="C75" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D75" s="22">
         <v>0</v>
       </c>
       <c r="E75" s="22"/>
       <c r="F75" s="22">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G75" s="22" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="H75" s="22"/>
       <c r="I75" s="22"/>
       <c r="J75" s="22"/>
       <c r="K75" s="22">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="L75" s="22">
         <v>0</v>
@@ -6443,7 +6450,7 @@
         <v>0</v>
       </c>
       <c r="O75" s="22">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="P75" s="22">
         <v>1</v>
@@ -6451,13 +6458,13 @@
       <c r="Q75" s="22"/>
       <c r="R75" s="22"/>
       <c r="S75" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T75" s="22" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="U75" s="22" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="V75" s="22">
         <v>0</v>
@@ -6465,7 +6472,7 @@
     </row>
     <row r="76" spans="1:22" s="6" customFormat="1">
       <c r="A76" s="22" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B76" s="22">
         <v>1</v>
@@ -6478,16 +6485,16 @@
       </c>
       <c r="E76" s="22"/>
       <c r="F76" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G76" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H76" s="22"/>
       <c r="I76" s="22"/>
       <c r="J76" s="22"/>
       <c r="K76" s="22">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L76" s="22">
         <v>0</v>
@@ -6499,7 +6506,7 @@
         <v>0</v>
       </c>
       <c r="O76" s="22">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="P76" s="22">
         <v>1</v>
@@ -6507,13 +6514,13 @@
       <c r="Q76" s="22"/>
       <c r="R76" s="22"/>
       <c r="S76" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T76" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="U76" s="22" t="s">
         <v>172</v>
-      </c>
-      <c r="U76" s="22" t="s">
-        <v>173</v>
       </c>
       <c r="V76" s="22">
         <v>0</v>
@@ -6521,7 +6528,7 @@
     </row>
     <row r="77" spans="1:22" s="6" customFormat="1">
       <c r="A77" s="22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B77" s="22">
         <v>1</v>
@@ -6534,16 +6541,16 @@
       </c>
       <c r="E77" s="22"/>
       <c r="F77" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G77" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H77" s="22"/>
       <c r="I77" s="22"/>
       <c r="J77" s="22"/>
       <c r="K77" s="22">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="L77" s="22">
         <v>0</v>
@@ -6555,7 +6562,7 @@
         <v>0</v>
       </c>
       <c r="O77" s="22">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="P77" s="22">
         <v>1</v>
@@ -6563,13 +6570,13 @@
       <c r="Q77" s="22"/>
       <c r="R77" s="22"/>
       <c r="S77" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T77" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="U77" s="22" t="s">
         <v>172</v>
-      </c>
-      <c r="U77" s="22" t="s">
-        <v>173</v>
       </c>
       <c r="V77" s="22">
         <v>0</v>
@@ -6577,7 +6584,7 @@
     </row>
     <row r="78" spans="1:22" s="6" customFormat="1">
       <c r="A78" s="22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B78" s="22">
         <v>1</v>
@@ -6590,16 +6597,16 @@
       </c>
       <c r="E78" s="22"/>
       <c r="F78" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G78" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H78" s="22"/>
       <c r="I78" s="22"/>
       <c r="J78" s="22"/>
       <c r="K78" s="22">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="L78" s="22">
         <v>0</v>
@@ -6611,7 +6618,7 @@
         <v>0</v>
       </c>
       <c r="O78" s="22">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="P78" s="22">
         <v>1</v>
@@ -6619,13 +6626,13 @@
       <c r="Q78" s="22"/>
       <c r="R78" s="22"/>
       <c r="S78" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T78" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="U78" s="22" t="s">
         <v>172</v>
-      </c>
-      <c r="U78" s="22" t="s">
-        <v>173</v>
       </c>
       <c r="V78" s="22">
         <v>0</v>
@@ -6633,7 +6640,7 @@
     </row>
     <row r="79" spans="1:22" s="6" customFormat="1">
       <c r="A79" s="22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B79" s="22">
         <v>1</v>
@@ -6646,16 +6653,16 @@
       </c>
       <c r="E79" s="22"/>
       <c r="F79" s="22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G79" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H79" s="22"/>
       <c r="I79" s="22"/>
       <c r="J79" s="22"/>
       <c r="K79" s="22">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="L79" s="22">
         <v>0</v>
@@ -6667,7 +6674,7 @@
         <v>0</v>
       </c>
       <c r="O79" s="22">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="P79" s="22">
         <v>1</v>
@@ -6675,13 +6682,13 @@
       <c r="Q79" s="22"/>
       <c r="R79" s="22"/>
       <c r="S79" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T79" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="U79" s="22" t="s">
         <v>172</v>
-      </c>
-      <c r="U79" s="22" t="s">
-        <v>173</v>
       </c>
       <c r="V79" s="22">
         <v>0</v>
@@ -6689,7 +6696,7 @@
     </row>
     <row r="80" spans="1:22" s="6" customFormat="1">
       <c r="A80" s="22" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B80" s="22">
         <v>1</v>
@@ -6702,16 +6709,16 @@
       </c>
       <c r="E80" s="22"/>
       <c r="F80" s="22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G80" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H80" s="22"/>
       <c r="I80" s="22"/>
       <c r="J80" s="22"/>
       <c r="K80" s="22">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="L80" s="22">
         <v>0</v>
@@ -6723,7 +6730,7 @@
         <v>0</v>
       </c>
       <c r="O80" s="22">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="P80" s="22">
         <v>1</v>
@@ -6731,13 +6738,13 @@
       <c r="Q80" s="22"/>
       <c r="R80" s="22"/>
       <c r="S80" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T80" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="U80" s="22" t="s">
         <v>172</v>
-      </c>
-      <c r="U80" s="22" t="s">
-        <v>173</v>
       </c>
       <c r="V80" s="22">
         <v>0</v>
@@ -6745,7 +6752,7 @@
     </row>
     <row r="81" spans="1:22" s="6" customFormat="1">
       <c r="A81" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B81" s="22">
         <v>1</v>
@@ -6758,16 +6765,16 @@
       </c>
       <c r="E81" s="22"/>
       <c r="F81" s="22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G81" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H81" s="22"/>
       <c r="I81" s="22"/>
       <c r="J81" s="22"/>
       <c r="K81" s="22">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="L81" s="22">
         <v>0</v>
@@ -6779,7 +6786,7 @@
         <v>0</v>
       </c>
       <c r="O81" s="22">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="P81" s="22">
         <v>1</v>
@@ -6787,13 +6794,13 @@
       <c r="Q81" s="22"/>
       <c r="R81" s="22"/>
       <c r="S81" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T81" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="U81" s="22" t="s">
         <v>172</v>
-      </c>
-      <c r="U81" s="22" t="s">
-        <v>173</v>
       </c>
       <c r="V81" s="22">
         <v>0</v>
@@ -6801,7 +6808,7 @@
     </row>
     <row r="82" spans="1:22" s="6" customFormat="1">
       <c r="A82" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B82" s="22">
         <v>1</v>
@@ -6814,16 +6821,16 @@
       </c>
       <c r="E82" s="22"/>
       <c r="F82" s="22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G82" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H82" s="22"/>
       <c r="I82" s="22"/>
       <c r="J82" s="22"/>
       <c r="K82" s="22">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="L82" s="22">
         <v>0</v>
@@ -6835,7 +6842,7 @@
         <v>0</v>
       </c>
       <c r="O82" s="22">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="P82" s="22">
         <v>1</v>
@@ -6843,13 +6850,13 @@
       <c r="Q82" s="22"/>
       <c r="R82" s="22"/>
       <c r="S82" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T82" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="U82" s="22" t="s">
         <v>172</v>
-      </c>
-      <c r="U82" s="22" t="s">
-        <v>173</v>
       </c>
       <c r="V82" s="22">
         <v>0</v>
@@ -6857,7 +6864,7 @@
     </row>
     <row r="83" spans="1:22" s="6" customFormat="1">
       <c r="A83" s="22" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B83" s="22">
         <v>1</v>
@@ -6870,16 +6877,16 @@
       </c>
       <c r="E83" s="22"/>
       <c r="F83" s="22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G83" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H83" s="22"/>
       <c r="I83" s="22"/>
       <c r="J83" s="22"/>
       <c r="K83" s="22">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L83" s="22">
         <v>0</v>
@@ -6891,7 +6898,7 @@
         <v>0</v>
       </c>
       <c r="O83" s="22">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="P83" s="22">
         <v>1</v>
@@ -6899,13 +6906,13 @@
       <c r="Q83" s="22"/>
       <c r="R83" s="22"/>
       <c r="S83" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T83" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="U83" s="22" t="s">
         <v>172</v>
-      </c>
-      <c r="U83" s="22" t="s">
-        <v>173</v>
       </c>
       <c r="V83" s="22">
         <v>0</v>
@@ -6913,7 +6920,7 @@
     </row>
     <row r="84" spans="1:22" s="6" customFormat="1">
       <c r="A84" s="22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B84" s="22">
         <v>1</v>
@@ -6926,16 +6933,16 @@
       </c>
       <c r="E84" s="22"/>
       <c r="F84" s="22">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G84" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H84" s="22"/>
       <c r="I84" s="22"/>
       <c r="J84" s="22"/>
       <c r="K84" s="22">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="L84" s="22">
         <v>0</v>
@@ -6947,7 +6954,7 @@
         <v>0</v>
       </c>
       <c r="O84" s="22">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="P84" s="22">
         <v>1</v>
@@ -6955,13 +6962,13 @@
       <c r="Q84" s="22"/>
       <c r="R84" s="22"/>
       <c r="S84" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T84" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="U84" s="22" t="s">
         <v>172</v>
-      </c>
-      <c r="U84" s="22" t="s">
-        <v>173</v>
       </c>
       <c r="V84" s="22">
         <v>0</v>
@@ -6969,29 +6976,29 @@
     </row>
     <row r="85" spans="1:22" s="6" customFormat="1">
       <c r="A85" s="22" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B85" s="22">
         <v>1</v>
       </c>
       <c r="C85" s="22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D85" s="22">
         <v>0</v>
       </c>
       <c r="E85" s="22"/>
       <c r="F85" s="22">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G85" s="22" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="H85" s="22"/>
       <c r="I85" s="22"/>
       <c r="J85" s="22"/>
       <c r="K85" s="22">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="L85" s="22">
         <v>0</v>
@@ -7003,7 +7010,7 @@
         <v>0</v>
       </c>
       <c r="O85" s="22">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="P85" s="22">
         <v>1</v>
@@ -7011,13 +7018,13 @@
       <c r="Q85" s="22"/>
       <c r="R85" s="22"/>
       <c r="S85" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T85" s="22" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="U85" s="22" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="V85" s="22">
         <v>0</v>
@@ -7025,7 +7032,7 @@
     </row>
     <row r="86" spans="1:22" s="6" customFormat="1">
       <c r="A86" s="22" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B86" s="22">
         <v>1</v>
@@ -7038,16 +7045,16 @@
       </c>
       <c r="E86" s="22"/>
       <c r="F86" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G86" s="22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H86" s="22"/>
       <c r="I86" s="22"/>
       <c r="J86" s="22"/>
       <c r="K86" s="22">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L86" s="22">
         <v>0</v>
@@ -7059,7 +7066,7 @@
         <v>0</v>
       </c>
       <c r="O86" s="22">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="P86" s="22">
         <v>1</v>
@@ -7067,13 +7074,13 @@
       <c r="Q86" s="22"/>
       <c r="R86" s="22"/>
       <c r="S86" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T86" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="U86" s="22" t="s">
         <v>185</v>
-      </c>
-      <c r="U86" s="22" t="s">
-        <v>186</v>
       </c>
       <c r="V86" s="22">
         <v>0</v>
@@ -7081,7 +7088,7 @@
     </row>
     <row r="87" spans="1:22" s="6" customFormat="1">
       <c r="A87" s="22" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B87" s="22">
         <v>1</v>
@@ -7094,16 +7101,16 @@
       </c>
       <c r="E87" s="22"/>
       <c r="F87" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G87" s="22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H87" s="22"/>
       <c r="I87" s="22"/>
       <c r="J87" s="22"/>
       <c r="K87" s="22">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="L87" s="22">
         <v>0</v>
@@ -7115,7 +7122,7 @@
         <v>0</v>
       </c>
       <c r="O87" s="22">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="P87" s="22">
         <v>1</v>
@@ -7123,13 +7130,13 @@
       <c r="Q87" s="22"/>
       <c r="R87" s="22"/>
       <c r="S87" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T87" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="U87" s="22" t="s">
         <v>185</v>
-      </c>
-      <c r="U87" s="22" t="s">
-        <v>186</v>
       </c>
       <c r="V87" s="22">
         <v>0</v>
@@ -7137,7 +7144,7 @@
     </row>
     <row r="88" spans="1:22" s="6" customFormat="1">
       <c r="A88" s="22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B88" s="22">
         <v>1</v>
@@ -7150,16 +7157,16 @@
       </c>
       <c r="E88" s="22"/>
       <c r="F88" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G88" s="22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H88" s="22"/>
       <c r="I88" s="22"/>
       <c r="J88" s="22"/>
       <c r="K88" s="22">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="L88" s="22">
         <v>0</v>
@@ -7171,7 +7178,7 @@
         <v>0</v>
       </c>
       <c r="O88" s="22">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="P88" s="22">
         <v>1</v>
@@ -7179,13 +7186,13 @@
       <c r="Q88" s="22"/>
       <c r="R88" s="22"/>
       <c r="S88" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T88" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="U88" s="22" t="s">
         <v>185</v>
-      </c>
-      <c r="U88" s="22" t="s">
-        <v>186</v>
       </c>
       <c r="V88" s="22">
         <v>0</v>
@@ -7193,7 +7200,7 @@
     </row>
     <row r="89" spans="1:22" s="6" customFormat="1">
       <c r="A89" s="22" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B89" s="22">
         <v>1</v>
@@ -7206,16 +7213,16 @@
       </c>
       <c r="E89" s="22"/>
       <c r="F89" s="22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G89" s="22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H89" s="22"/>
       <c r="I89" s="22"/>
       <c r="J89" s="22"/>
       <c r="K89" s="22">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="L89" s="22">
         <v>0</v>
@@ -7227,7 +7234,7 @@
         <v>0</v>
       </c>
       <c r="O89" s="22">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="P89" s="22">
         <v>1</v>
@@ -7235,13 +7242,13 @@
       <c r="Q89" s="22"/>
       <c r="R89" s="22"/>
       <c r="S89" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T89" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="U89" s="22" t="s">
         <v>185</v>
-      </c>
-      <c r="U89" s="22" t="s">
-        <v>186</v>
       </c>
       <c r="V89" s="22">
         <v>0</v>
@@ -7249,7 +7256,7 @@
     </row>
     <row r="90" spans="1:22" s="6" customFormat="1">
       <c r="A90" s="22" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B90" s="22">
         <v>1</v>
@@ -7262,16 +7269,16 @@
       </c>
       <c r="E90" s="22"/>
       <c r="F90" s="22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G90" s="22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H90" s="22"/>
       <c r="I90" s="22"/>
       <c r="J90" s="22"/>
       <c r="K90" s="22">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="L90" s="22">
         <v>0</v>
@@ -7283,7 +7290,7 @@
         <v>0</v>
       </c>
       <c r="O90" s="22">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="P90" s="22">
         <v>1</v>
@@ -7291,13 +7298,13 @@
       <c r="Q90" s="22"/>
       <c r="R90" s="22"/>
       <c r="S90" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T90" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="U90" s="22" t="s">
         <v>185</v>
-      </c>
-      <c r="U90" s="22" t="s">
-        <v>186</v>
       </c>
       <c r="V90" s="22">
         <v>0</v>
@@ -7305,7 +7312,7 @@
     </row>
     <row r="91" spans="1:22" s="6" customFormat="1">
       <c r="A91" s="22" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B91" s="22">
         <v>1</v>
@@ -7318,16 +7325,16 @@
       </c>
       <c r="E91" s="22"/>
       <c r="F91" s="22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G91" s="22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H91" s="22"/>
       <c r="I91" s="22"/>
       <c r="J91" s="22"/>
       <c r="K91" s="22">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="L91" s="22">
         <v>0</v>
@@ -7339,7 +7346,7 @@
         <v>0</v>
       </c>
       <c r="O91" s="22">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="P91" s="22">
         <v>1</v>
@@ -7347,13 +7354,13 @@
       <c r="Q91" s="22"/>
       <c r="R91" s="22"/>
       <c r="S91" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T91" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="U91" s="22" t="s">
         <v>185</v>
-      </c>
-      <c r="U91" s="22" t="s">
-        <v>186</v>
       </c>
       <c r="V91" s="22">
         <v>0</v>
@@ -7361,7 +7368,7 @@
     </row>
     <row r="92" spans="1:22" s="6" customFormat="1">
       <c r="A92" s="22" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B92" s="22">
         <v>1</v>
@@ -7374,16 +7381,16 @@
       </c>
       <c r="E92" s="22"/>
       <c r="F92" s="22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G92" s="22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H92" s="22"/>
       <c r="I92" s="22"/>
       <c r="J92" s="22"/>
       <c r="K92" s="22">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="L92" s="22">
         <v>0</v>
@@ -7395,7 +7402,7 @@
         <v>0</v>
       </c>
       <c r="O92" s="22">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="P92" s="22">
         <v>1</v>
@@ -7403,13 +7410,13 @@
       <c r="Q92" s="22"/>
       <c r="R92" s="22"/>
       <c r="S92" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T92" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="U92" s="22" t="s">
         <v>185</v>
-      </c>
-      <c r="U92" s="22" t="s">
-        <v>186</v>
       </c>
       <c r="V92" s="22">
         <v>0</v>
@@ -7417,7 +7424,7 @@
     </row>
     <row r="93" spans="1:22" s="6" customFormat="1">
       <c r="A93" s="22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B93" s="22">
         <v>1</v>
@@ -7430,16 +7437,16 @@
       </c>
       <c r="E93" s="22"/>
       <c r="F93" s="22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G93" s="22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H93" s="22"/>
       <c r="I93" s="22"/>
       <c r="J93" s="22"/>
       <c r="K93" s="22">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L93" s="22">
         <v>0</v>
@@ -7451,7 +7458,7 @@
         <v>0</v>
       </c>
       <c r="O93" s="22">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="P93" s="22">
         <v>1</v>
@@ -7459,13 +7466,13 @@
       <c r="Q93" s="22"/>
       <c r="R93" s="22"/>
       <c r="S93" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T93" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="U93" s="22" t="s">
         <v>185</v>
-      </c>
-      <c r="U93" s="22" t="s">
-        <v>186</v>
       </c>
       <c r="V93" s="22">
         <v>0</v>
@@ -7473,7 +7480,7 @@
     </row>
     <row r="94" spans="1:22" s="6" customFormat="1">
       <c r="A94" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B94" s="22">
         <v>1</v>
@@ -7486,16 +7493,16 @@
       </c>
       <c r="E94" s="22"/>
       <c r="F94" s="22">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G94" s="22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H94" s="22"/>
       <c r="I94" s="22"/>
       <c r="J94" s="22"/>
       <c r="K94" s="22">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="L94" s="22">
         <v>0</v>
@@ -7507,7 +7514,7 @@
         <v>0</v>
       </c>
       <c r="O94" s="22">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="P94" s="22">
         <v>1</v>
@@ -7515,13 +7522,13 @@
       <c r="Q94" s="22"/>
       <c r="R94" s="22"/>
       <c r="S94" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T94" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="U94" s="22" t="s">
         <v>185</v>
-      </c>
-      <c r="U94" s="22" t="s">
-        <v>186</v>
       </c>
       <c r="V94" s="22">
         <v>0</v>
@@ -7529,29 +7536,29 @@
     </row>
     <row r="95" spans="1:22" s="6" customFormat="1">
       <c r="A95" s="22" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B95" s="22">
         <v>1</v>
       </c>
       <c r="C95" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" s="22">
         <v>0</v>
       </c>
       <c r="E95" s="22"/>
       <c r="F95" s="22">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G95" s="22" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="H95" s="22"/>
       <c r="I95" s="22"/>
       <c r="J95" s="22"/>
       <c r="K95" s="22">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="L95" s="22">
         <v>0</v>
@@ -7563,7 +7570,7 @@
         <v>0</v>
       </c>
       <c r="O95" s="22">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="P95" s="22">
         <v>1</v>
@@ -7571,13 +7578,13 @@
       <c r="Q95" s="22"/>
       <c r="R95" s="22"/>
       <c r="S95" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T95" s="22" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="U95" s="22" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="V95" s="22">
         <v>0</v>
@@ -7585,7 +7592,7 @@
     </row>
     <row r="96" spans="1:22" s="6" customFormat="1">
       <c r="A96" s="22" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B96" s="22">
         <v>1</v>
@@ -7598,16 +7605,16 @@
       </c>
       <c r="E96" s="22"/>
       <c r="F96" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G96" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H96" s="22"/>
       <c r="I96" s="22"/>
       <c r="J96" s="22"/>
       <c r="K96" s="22">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L96" s="22">
         <v>0</v>
@@ -7619,7 +7626,7 @@
         <v>0</v>
       </c>
       <c r="O96" s="22">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="P96" s="22">
         <v>1</v>
@@ -7627,13 +7634,13 @@
       <c r="Q96" s="22"/>
       <c r="R96" s="22"/>
       <c r="S96" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T96" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="U96" s="22" t="s">
         <v>198</v>
-      </c>
-      <c r="U96" s="22" t="s">
-        <v>199</v>
       </c>
       <c r="V96" s="22">
         <v>0</v>
@@ -7641,7 +7648,7 @@
     </row>
     <row r="97" spans="1:22" s="6" customFormat="1">
       <c r="A97" s="22" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B97" s="22">
         <v>1</v>
@@ -7654,16 +7661,16 @@
       </c>
       <c r="E97" s="22"/>
       <c r="F97" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G97" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H97" s="22"/>
       <c r="I97" s="22"/>
       <c r="J97" s="22"/>
       <c r="K97" s="22">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="L97" s="22">
         <v>0</v>
@@ -7675,7 +7682,7 @@
         <v>0</v>
       </c>
       <c r="O97" s="22">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="P97" s="22">
         <v>1</v>
@@ -7683,13 +7690,13 @@
       <c r="Q97" s="22"/>
       <c r="R97" s="22"/>
       <c r="S97" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T97" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="U97" s="22" t="s">
         <v>198</v>
-      </c>
-      <c r="U97" s="22" t="s">
-        <v>199</v>
       </c>
       <c r="V97" s="22">
         <v>0</v>
@@ -7697,7 +7704,7 @@
     </row>
     <row r="98" spans="1:22" s="6" customFormat="1">
       <c r="A98" s="22" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B98" s="22">
         <v>1</v>
@@ -7710,16 +7717,16 @@
       </c>
       <c r="E98" s="22"/>
       <c r="F98" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G98" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H98" s="22"/>
       <c r="I98" s="22"/>
       <c r="J98" s="22"/>
       <c r="K98" s="22">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="L98" s="22">
         <v>0</v>
@@ -7731,7 +7738,7 @@
         <v>0</v>
       </c>
       <c r="O98" s="22">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="P98" s="22">
         <v>1</v>
@@ -7739,13 +7746,13 @@
       <c r="Q98" s="22"/>
       <c r="R98" s="22"/>
       <c r="S98" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T98" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="U98" s="22" t="s">
         <v>198</v>
-      </c>
-      <c r="U98" s="22" t="s">
-        <v>199</v>
       </c>
       <c r="V98" s="22">
         <v>0</v>
@@ -7753,7 +7760,7 @@
     </row>
     <row r="99" spans="1:22" s="6" customFormat="1">
       <c r="A99" s="22" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B99" s="22">
         <v>1</v>
@@ -7766,16 +7773,16 @@
       </c>
       <c r="E99" s="22"/>
       <c r="F99" s="22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G99" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H99" s="22"/>
       <c r="I99" s="22"/>
       <c r="J99" s="22"/>
       <c r="K99" s="22">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="L99" s="22">
         <v>0</v>
@@ -7787,7 +7794,7 @@
         <v>0</v>
       </c>
       <c r="O99" s="22">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="P99" s="22">
         <v>1</v>
@@ -7795,13 +7802,13 @@
       <c r="Q99" s="22"/>
       <c r="R99" s="22"/>
       <c r="S99" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T99" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="U99" s="22" t="s">
         <v>198</v>
-      </c>
-      <c r="U99" s="22" t="s">
-        <v>199</v>
       </c>
       <c r="V99" s="22">
         <v>0</v>
@@ -7809,7 +7816,7 @@
     </row>
     <row r="100" spans="1:22" s="6" customFormat="1">
       <c r="A100" s="22" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B100" s="22">
         <v>1</v>
@@ -7822,16 +7829,16 @@
       </c>
       <c r="E100" s="22"/>
       <c r="F100" s="22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G100" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H100" s="22"/>
       <c r="I100" s="22"/>
       <c r="J100" s="22"/>
       <c r="K100" s="22">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="L100" s="22">
         <v>0</v>
@@ -7843,7 +7850,7 @@
         <v>0</v>
       </c>
       <c r="O100" s="22">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="P100" s="22">
         <v>1</v>
@@ -7851,13 +7858,13 @@
       <c r="Q100" s="22"/>
       <c r="R100" s="22"/>
       <c r="S100" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T100" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="U100" s="22" t="s">
         <v>198</v>
-      </c>
-      <c r="U100" s="22" t="s">
-        <v>199</v>
       </c>
       <c r="V100" s="22">
         <v>0</v>
@@ -7865,7 +7872,7 @@
     </row>
     <row r="101" spans="1:22" s="6" customFormat="1">
       <c r="A101" s="22" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B101" s="22">
         <v>1</v>
@@ -7878,16 +7885,16 @@
       </c>
       <c r="E101" s="22"/>
       <c r="F101" s="22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G101" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H101" s="22"/>
       <c r="I101" s="22"/>
       <c r="J101" s="22"/>
       <c r="K101" s="22">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="L101" s="22">
         <v>0</v>
@@ -7899,7 +7906,7 @@
         <v>0</v>
       </c>
       <c r="O101" s="22">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="P101" s="22">
         <v>1</v>
@@ -7907,13 +7914,13 @@
       <c r="Q101" s="22"/>
       <c r="R101" s="22"/>
       <c r="S101" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T101" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="U101" s="22" t="s">
         <v>198</v>
-      </c>
-      <c r="U101" s="22" t="s">
-        <v>199</v>
       </c>
       <c r="V101" s="22">
         <v>0</v>
@@ -7921,7 +7928,7 @@
     </row>
     <row r="102" spans="1:22" s="6" customFormat="1">
       <c r="A102" s="22" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B102" s="22">
         <v>1</v>
@@ -7934,16 +7941,16 @@
       </c>
       <c r="E102" s="22"/>
       <c r="F102" s="22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G102" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H102" s="22"/>
       <c r="I102" s="22"/>
       <c r="J102" s="22"/>
       <c r="K102" s="22">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="L102" s="22">
         <v>0</v>
@@ -7955,7 +7962,7 @@
         <v>0</v>
       </c>
       <c r="O102" s="22">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="P102" s="22">
         <v>1</v>
@@ -7963,13 +7970,13 @@
       <c r="Q102" s="22"/>
       <c r="R102" s="22"/>
       <c r="S102" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T102" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="U102" s="22" t="s">
         <v>198</v>
-      </c>
-      <c r="U102" s="22" t="s">
-        <v>199</v>
       </c>
       <c r="V102" s="22">
         <v>0</v>
@@ -7977,7 +7984,7 @@
     </row>
     <row r="103" spans="1:22" s="6" customFormat="1">
       <c r="A103" s="22" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B103" s="22">
         <v>1</v>
@@ -7990,16 +7997,16 @@
       </c>
       <c r="E103" s="22"/>
       <c r="F103" s="22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G103" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H103" s="22"/>
       <c r="I103" s="22"/>
       <c r="J103" s="22"/>
       <c r="K103" s="22">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L103" s="22">
         <v>0</v>
@@ -8011,7 +8018,7 @@
         <v>0</v>
       </c>
       <c r="O103" s="22">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="P103" s="22">
         <v>1</v>
@@ -8019,13 +8026,13 @@
       <c r="Q103" s="22"/>
       <c r="R103" s="22"/>
       <c r="S103" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T103" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="U103" s="22" t="s">
         <v>198</v>
-      </c>
-      <c r="U103" s="22" t="s">
-        <v>199</v>
       </c>
       <c r="V103" s="22">
         <v>0</v>
@@ -8033,7 +8040,7 @@
     </row>
     <row r="104" spans="1:22" s="6" customFormat="1">
       <c r="A104" s="22" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B104" s="22">
         <v>1</v>
@@ -8046,16 +8053,16 @@
       </c>
       <c r="E104" s="22"/>
       <c r="F104" s="22">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G104" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H104" s="22"/>
       <c r="I104" s="22"/>
       <c r="J104" s="22"/>
       <c r="K104" s="22">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="L104" s="22">
         <v>0</v>
@@ -8067,7 +8074,7 @@
         <v>0</v>
       </c>
       <c r="O104" s="22">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="P104" s="22">
         <v>1</v>
@@ -8075,77 +8082,77 @@
       <c r="Q104" s="22"/>
       <c r="R104" s="22"/>
       <c r="S104" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T104" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="U104" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="U104" s="22" t="s">
-        <v>199</v>
-      </c>
       <c r="V104" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:22" s="7" customFormat="1">
-      <c r="A105" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="B105" s="23">
+    <row r="105" spans="1:22" s="6" customFormat="1">
+      <c r="A105" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="B105" s="22">
         <v>1</v>
       </c>
       <c r="C105" s="22">
-        <v>5</v>
-      </c>
-      <c r="D105" s="23">
-        <v>0</v>
-      </c>
-      <c r="E105" s="23"/>
-      <c r="F105" s="23">
-        <v>1</v>
-      </c>
-      <c r="G105" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="H105" s="23"/>
-      <c r="I105" s="23"/>
-      <c r="J105" s="23"/>
+        <v>4</v>
+      </c>
+      <c r="D105" s="22">
+        <v>0</v>
+      </c>
+      <c r="E105" s="22"/>
+      <c r="F105" s="22">
+        <v>10</v>
+      </c>
+      <c r="G105" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="H105" s="22"/>
+      <c r="I105" s="22"/>
+      <c r="J105" s="22"/>
       <c r="K105" s="22">
-        <v>20</v>
-      </c>
-      <c r="L105" s="23">
+        <v>1000</v>
+      </c>
+      <c r="L105" s="22">
         <v>0</v>
       </c>
       <c r="M105" s="22">
         <v>1</v>
       </c>
-      <c r="N105" s="23">
+      <c r="N105" s="22">
         <v>0</v>
       </c>
       <c r="O105" s="22">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="P105" s="22">
         <v>1</v>
       </c>
-      <c r="Q105" s="23"/>
+      <c r="Q105" s="22"/>
       <c r="R105" s="22"/>
       <c r="S105" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="T105" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="U105" s="23" t="s">
-        <v>212</v>
-      </c>
-      <c r="V105" s="23">
+        <v>247</v>
+      </c>
+      <c r="T105" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="U105" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="V105" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:22" s="7" customFormat="1">
       <c r="A106" s="23" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B106" s="23">
         <v>1</v>
@@ -8158,16 +8165,16 @@
       </c>
       <c r="E106" s="23"/>
       <c r="F106" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G106" s="23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H106" s="23"/>
       <c r="I106" s="23"/>
       <c r="J106" s="23"/>
       <c r="K106" s="22">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L106" s="23">
         <v>0</v>
@@ -8179,7 +8186,7 @@
         <v>0</v>
       </c>
       <c r="O106" s="22">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="P106" s="22">
         <v>1</v>
@@ -8187,13 +8194,13 @@
       <c r="Q106" s="23"/>
       <c r="R106" s="22"/>
       <c r="S106" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T106" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="U106" s="23" t="s">
         <v>211</v>
-      </c>
-      <c r="U106" s="23" t="s">
-        <v>212</v>
       </c>
       <c r="V106" s="23">
         <v>0</v>
@@ -8201,7 +8208,7 @@
     </row>
     <row r="107" spans="1:22" s="7" customFormat="1">
       <c r="A107" s="23" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B107" s="23">
         <v>1</v>
@@ -8214,16 +8221,16 @@
       </c>
       <c r="E107" s="23"/>
       <c r="F107" s="23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G107" s="23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H107" s="23"/>
       <c r="I107" s="23"/>
       <c r="J107" s="23"/>
       <c r="K107" s="22">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="L107" s="23">
         <v>0</v>
@@ -8235,7 +8242,7 @@
         <v>0</v>
       </c>
       <c r="O107" s="22">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="P107" s="22">
         <v>1</v>
@@ -8243,13 +8250,13 @@
       <c r="Q107" s="23"/>
       <c r="R107" s="22"/>
       <c r="S107" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T107" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="U107" s="23" t="s">
         <v>211</v>
-      </c>
-      <c r="U107" s="23" t="s">
-        <v>212</v>
       </c>
       <c r="V107" s="23">
         <v>0</v>
@@ -8257,7 +8264,7 @@
     </row>
     <row r="108" spans="1:22" s="7" customFormat="1">
       <c r="A108" s="23" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B108" s="23">
         <v>1</v>
@@ -8270,16 +8277,16 @@
       </c>
       <c r="E108" s="23"/>
       <c r="F108" s="23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G108" s="23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H108" s="23"/>
       <c r="I108" s="23"/>
       <c r="J108" s="23"/>
       <c r="K108" s="22">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="L108" s="23">
         <v>0</v>
@@ -8291,7 +8298,7 @@
         <v>0</v>
       </c>
       <c r="O108" s="22">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="P108" s="22">
         <v>1</v>
@@ -8299,13 +8306,13 @@
       <c r="Q108" s="23"/>
       <c r="R108" s="22"/>
       <c r="S108" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T108" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="U108" s="23" t="s">
         <v>211</v>
-      </c>
-      <c r="U108" s="23" t="s">
-        <v>212</v>
       </c>
       <c r="V108" s="23">
         <v>0</v>
@@ -8313,7 +8320,7 @@
     </row>
     <row r="109" spans="1:22" s="7" customFormat="1">
       <c r="A109" s="23" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B109" s="23">
         <v>1</v>
@@ -8326,16 +8333,16 @@
       </c>
       <c r="E109" s="23"/>
       <c r="F109" s="23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G109" s="23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H109" s="23"/>
       <c r="I109" s="23"/>
       <c r="J109" s="23"/>
       <c r="K109" s="22">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="L109" s="23">
         <v>0</v>
@@ -8347,7 +8354,7 @@
         <v>0</v>
       </c>
       <c r="O109" s="22">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="P109" s="22">
         <v>1</v>
@@ -8355,13 +8362,13 @@
       <c r="Q109" s="23"/>
       <c r="R109" s="22"/>
       <c r="S109" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T109" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="U109" s="23" t="s">
         <v>211</v>
-      </c>
-      <c r="U109" s="23" t="s">
-        <v>212</v>
       </c>
       <c r="V109" s="23">
         <v>0</v>
@@ -8369,7 +8376,7 @@
     </row>
     <row r="110" spans="1:22" s="7" customFormat="1">
       <c r="A110" s="23" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B110" s="23">
         <v>1</v>
@@ -8382,16 +8389,16 @@
       </c>
       <c r="E110" s="23"/>
       <c r="F110" s="23">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G110" s="23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H110" s="23"/>
       <c r="I110" s="23"/>
       <c r="J110" s="23"/>
       <c r="K110" s="22">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="L110" s="23">
         <v>0</v>
@@ -8403,7 +8410,7 @@
         <v>0</v>
       </c>
       <c r="O110" s="22">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="P110" s="22">
         <v>1</v>
@@ -8411,13 +8418,13 @@
       <c r="Q110" s="23"/>
       <c r="R110" s="22"/>
       <c r="S110" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T110" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="U110" s="23" t="s">
         <v>211</v>
-      </c>
-      <c r="U110" s="23" t="s">
-        <v>212</v>
       </c>
       <c r="V110" s="23">
         <v>0</v>
@@ -8425,7 +8432,7 @@
     </row>
     <row r="111" spans="1:22" s="7" customFormat="1">
       <c r="A111" s="23" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B111" s="23">
         <v>1</v>
@@ -8438,16 +8445,16 @@
       </c>
       <c r="E111" s="23"/>
       <c r="F111" s="23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G111" s="23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H111" s="23"/>
       <c r="I111" s="23"/>
       <c r="J111" s="23"/>
       <c r="K111" s="22">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="L111" s="23">
         <v>0</v>
@@ -8459,7 +8466,7 @@
         <v>0</v>
       </c>
       <c r="O111" s="22">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="P111" s="22">
         <v>1</v>
@@ -8467,13 +8474,13 @@
       <c r="Q111" s="23"/>
       <c r="R111" s="22"/>
       <c r="S111" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T111" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="U111" s="23" t="s">
         <v>211</v>
-      </c>
-      <c r="U111" s="23" t="s">
-        <v>212</v>
       </c>
       <c r="V111" s="23">
         <v>0</v>
@@ -8481,7 +8488,7 @@
     </row>
     <row r="112" spans="1:22" s="7" customFormat="1">
       <c r="A112" s="23" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B112" s="23">
         <v>1</v>
@@ -8494,16 +8501,16 @@
       </c>
       <c r="E112" s="23"/>
       <c r="F112" s="23">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G112" s="23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H112" s="23"/>
       <c r="I112" s="23"/>
       <c r="J112" s="23"/>
       <c r="K112" s="22">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="L112" s="23">
         <v>0</v>
@@ -8515,7 +8522,7 @@
         <v>0</v>
       </c>
       <c r="O112" s="22">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="P112" s="22">
         <v>1</v>
@@ -8523,13 +8530,13 @@
       <c r="Q112" s="23"/>
       <c r="R112" s="22"/>
       <c r="S112" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T112" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="U112" s="23" t="s">
         <v>211</v>
-      </c>
-      <c r="U112" s="23" t="s">
-        <v>212</v>
       </c>
       <c r="V112" s="23">
         <v>0</v>
@@ -8537,7 +8544,7 @@
     </row>
     <row r="113" spans="1:22" s="7" customFormat="1">
       <c r="A113" s="23" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B113" s="23">
         <v>1</v>
@@ -8550,16 +8557,16 @@
       </c>
       <c r="E113" s="23"/>
       <c r="F113" s="23">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G113" s="23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H113" s="23"/>
       <c r="I113" s="23"/>
       <c r="J113" s="23"/>
       <c r="K113" s="22">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L113" s="23">
         <v>0</v>
@@ -8571,7 +8578,7 @@
         <v>0</v>
       </c>
       <c r="O113" s="22">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="P113" s="22">
         <v>1</v>
@@ -8579,13 +8586,13 @@
       <c r="Q113" s="23"/>
       <c r="R113" s="22"/>
       <c r="S113" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T113" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="U113" s="23" t="s">
         <v>211</v>
-      </c>
-      <c r="U113" s="23" t="s">
-        <v>212</v>
       </c>
       <c r="V113" s="23">
         <v>0</v>
@@ -8593,7 +8600,7 @@
     </row>
     <row r="114" spans="1:22" s="7" customFormat="1">
       <c r="A114" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B114" s="23">
         <v>1</v>
@@ -8606,16 +8613,16 @@
       </c>
       <c r="E114" s="23"/>
       <c r="F114" s="23">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G114" s="23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H114" s="23"/>
       <c r="I114" s="23"/>
       <c r="J114" s="23"/>
       <c r="K114" s="22">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="L114" s="23">
         <v>0</v>
@@ -8627,7 +8634,7 @@
         <v>0</v>
       </c>
       <c r="O114" s="22">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="P114" s="22">
         <v>1</v>
@@ -8635,77 +8642,77 @@
       <c r="Q114" s="23"/>
       <c r="R114" s="22"/>
       <c r="S114" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T114" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="U114" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="U114" s="23" t="s">
-        <v>212</v>
-      </c>
       <c r="V114" s="23">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:22" s="6" customFormat="1">
-      <c r="A115" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="B115" s="22">
-        <v>1</v>
-      </c>
-      <c r="C115" s="23">
-        <v>6</v>
-      </c>
-      <c r="D115" s="22">
-        <v>0</v>
-      </c>
-      <c r="E115" s="22"/>
-      <c r="F115" s="22">
-        <v>1</v>
-      </c>
-      <c r="G115" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="H115" s="22"/>
-      <c r="I115" s="22"/>
-      <c r="J115" s="22"/>
+    <row r="115" spans="1:22" s="7" customFormat="1">
+      <c r="A115" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="B115" s="23">
+        <v>1</v>
+      </c>
+      <c r="C115" s="22">
+        <v>5</v>
+      </c>
+      <c r="D115" s="23">
+        <v>0</v>
+      </c>
+      <c r="E115" s="23"/>
+      <c r="F115" s="23">
+        <v>10</v>
+      </c>
+      <c r="G115" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="H115" s="23"/>
+      <c r="I115" s="23"/>
+      <c r="J115" s="23"/>
       <c r="K115" s="22">
-        <v>20</v>
-      </c>
-      <c r="L115" s="22">
+        <v>1000</v>
+      </c>
+      <c r="L115" s="23">
         <v>0</v>
       </c>
       <c r="M115" s="22">
         <v>1</v>
       </c>
-      <c r="N115" s="22">
+      <c r="N115" s="23">
         <v>0</v>
       </c>
       <c r="O115" s="22">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="P115" s="22">
         <v>1</v>
       </c>
-      <c r="Q115" s="22"/>
+      <c r="Q115" s="23"/>
       <c r="R115" s="22"/>
       <c r="S115" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="T115" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="U115" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="V115" s="22">
+        <v>247</v>
+      </c>
+      <c r="T115" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="U115" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="V115" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:22" s="6" customFormat="1">
       <c r="A116" s="22" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B116" s="22">
         <v>1</v>
@@ -8718,16 +8725,16 @@
       </c>
       <c r="E116" s="22"/>
       <c r="F116" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G116" s="22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H116" s="22"/>
       <c r="I116" s="22"/>
       <c r="J116" s="22"/>
       <c r="K116" s="22">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L116" s="22">
         <v>0</v>
@@ -8739,7 +8746,7 @@
         <v>0</v>
       </c>
       <c r="O116" s="22">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="P116" s="22">
         <v>1</v>
@@ -8747,13 +8754,13 @@
       <c r="Q116" s="22"/>
       <c r="R116" s="22"/>
       <c r="S116" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T116" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="U116" s="22" t="s">
         <v>224</v>
-      </c>
-      <c r="U116" s="22" t="s">
-        <v>225</v>
       </c>
       <c r="V116" s="22">
         <v>0</v>
@@ -8761,7 +8768,7 @@
     </row>
     <row r="117" spans="1:22" s="6" customFormat="1">
       <c r="A117" s="22" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B117" s="22">
         <v>1</v>
@@ -8774,16 +8781,16 @@
       </c>
       <c r="E117" s="22"/>
       <c r="F117" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G117" s="22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H117" s="22"/>
       <c r="I117" s="22"/>
       <c r="J117" s="22"/>
       <c r="K117" s="22">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="L117" s="22">
         <v>0</v>
@@ -8795,7 +8802,7 @@
         <v>0</v>
       </c>
       <c r="O117" s="22">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="P117" s="22">
         <v>1</v>
@@ -8803,13 +8810,13 @@
       <c r="Q117" s="22"/>
       <c r="R117" s="22"/>
       <c r="S117" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T117" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="U117" s="22" t="s">
         <v>224</v>
-      </c>
-      <c r="U117" s="22" t="s">
-        <v>225</v>
       </c>
       <c r="V117" s="22">
         <v>0</v>
@@ -8817,7 +8824,7 @@
     </row>
     <row r="118" spans="1:22" s="6" customFormat="1">
       <c r="A118" s="22" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B118" s="22">
         <v>1</v>
@@ -8830,16 +8837,16 @@
       </c>
       <c r="E118" s="22"/>
       <c r="F118" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G118" s="22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H118" s="22"/>
       <c r="I118" s="22"/>
       <c r="J118" s="22"/>
       <c r="K118" s="22">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="L118" s="22">
         <v>0</v>
@@ -8851,7 +8858,7 @@
         <v>0</v>
       </c>
       <c r="O118" s="22">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="P118" s="22">
         <v>1</v>
@@ -8859,13 +8866,13 @@
       <c r="Q118" s="22"/>
       <c r="R118" s="22"/>
       <c r="S118" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T118" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="U118" s="22" t="s">
         <v>224</v>
-      </c>
-      <c r="U118" s="22" t="s">
-        <v>225</v>
       </c>
       <c r="V118" s="22">
         <v>0</v>
@@ -8873,7 +8880,7 @@
     </row>
     <row r="119" spans="1:22" s="6" customFormat="1">
       <c r="A119" s="22" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B119" s="22">
         <v>1</v>
@@ -8886,16 +8893,16 @@
       </c>
       <c r="E119" s="22"/>
       <c r="F119" s="22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G119" s="22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H119" s="22"/>
       <c r="I119" s="22"/>
       <c r="J119" s="22"/>
       <c r="K119" s="22">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="L119" s="22">
         <v>0</v>
@@ -8907,7 +8914,7 @@
         <v>0</v>
       </c>
       <c r="O119" s="22">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="P119" s="22">
         <v>1</v>
@@ -8915,13 +8922,13 @@
       <c r="Q119" s="22"/>
       <c r="R119" s="22"/>
       <c r="S119" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T119" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="U119" s="22" t="s">
         <v>224</v>
-      </c>
-      <c r="U119" s="22" t="s">
-        <v>225</v>
       </c>
       <c r="V119" s="22">
         <v>0</v>
@@ -8929,7 +8936,7 @@
     </row>
     <row r="120" spans="1:22" s="6" customFormat="1">
       <c r="A120" s="22" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B120" s="22">
         <v>1</v>
@@ -8942,16 +8949,16 @@
       </c>
       <c r="E120" s="22"/>
       <c r="F120" s="22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G120" s="22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H120" s="22"/>
       <c r="I120" s="22"/>
       <c r="J120" s="22"/>
       <c r="K120" s="22">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="L120" s="22">
         <v>0</v>
@@ -8963,7 +8970,7 @@
         <v>0</v>
       </c>
       <c r="O120" s="22">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="P120" s="22">
         <v>1</v>
@@ -8971,13 +8978,13 @@
       <c r="Q120" s="22"/>
       <c r="R120" s="22"/>
       <c r="S120" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T120" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="U120" s="22" t="s">
         <v>224</v>
-      </c>
-      <c r="U120" s="22" t="s">
-        <v>225</v>
       </c>
       <c r="V120" s="22">
         <v>0</v>
@@ -8985,7 +8992,7 @@
     </row>
     <row r="121" spans="1:22" s="6" customFormat="1">
       <c r="A121" s="22" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B121" s="22">
         <v>1</v>
@@ -8998,16 +9005,16 @@
       </c>
       <c r="E121" s="22"/>
       <c r="F121" s="22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G121" s="22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H121" s="22"/>
       <c r="I121" s="22"/>
       <c r="J121" s="22"/>
       <c r="K121" s="22">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="L121" s="22">
         <v>0</v>
@@ -9019,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="O121" s="22">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="P121" s="22">
         <v>1</v>
@@ -9027,13 +9034,13 @@
       <c r="Q121" s="22"/>
       <c r="R121" s="22"/>
       <c r="S121" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T121" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="U121" s="22" t="s">
         <v>224</v>
-      </c>
-      <c r="U121" s="22" t="s">
-        <v>225</v>
       </c>
       <c r="V121" s="22">
         <v>0</v>
@@ -9041,7 +9048,7 @@
     </row>
     <row r="122" spans="1:22" s="6" customFormat="1">
       <c r="A122" s="22" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B122" s="22">
         <v>1</v>
@@ -9054,16 +9061,16 @@
       </c>
       <c r="E122" s="22"/>
       <c r="F122" s="22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G122" s="22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H122" s="22"/>
       <c r="I122" s="22"/>
       <c r="J122" s="22"/>
       <c r="K122" s="22">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="L122" s="22">
         <v>0</v>
@@ -9075,7 +9082,7 @@
         <v>0</v>
       </c>
       <c r="O122" s="22">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="P122" s="22">
         <v>1</v>
@@ -9083,13 +9090,13 @@
       <c r="Q122" s="22"/>
       <c r="R122" s="22"/>
       <c r="S122" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T122" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="U122" s="22" t="s">
         <v>224</v>
-      </c>
-      <c r="U122" s="22" t="s">
-        <v>225</v>
       </c>
       <c r="V122" s="22">
         <v>0</v>
@@ -9097,7 +9104,7 @@
     </row>
     <row r="123" spans="1:22" s="6" customFormat="1">
       <c r="A123" s="22" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B123" s="22">
         <v>1</v>
@@ -9110,16 +9117,16 @@
       </c>
       <c r="E123" s="22"/>
       <c r="F123" s="22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G123" s="22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H123" s="22"/>
       <c r="I123" s="22"/>
       <c r="J123" s="22"/>
       <c r="K123" s="22">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L123" s="22">
         <v>0</v>
@@ -9131,7 +9138,7 @@
         <v>0</v>
       </c>
       <c r="O123" s="22">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="P123" s="22">
         <v>1</v>
@@ -9139,13 +9146,13 @@
       <c r="Q123" s="22"/>
       <c r="R123" s="22"/>
       <c r="S123" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T123" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="U123" s="22" t="s">
         <v>224</v>
-      </c>
-      <c r="U123" s="22" t="s">
-        <v>225</v>
       </c>
       <c r="V123" s="22">
         <v>0</v>
@@ -9153,7 +9160,7 @@
     </row>
     <row r="124" spans="1:22" s="6" customFormat="1">
       <c r="A124" s="22" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B124" s="22">
         <v>1</v>
@@ -9166,16 +9173,16 @@
       </c>
       <c r="E124" s="22"/>
       <c r="F124" s="22">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G124" s="22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H124" s="22"/>
       <c r="I124" s="22"/>
       <c r="J124" s="22"/>
       <c r="K124" s="22">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="L124" s="22">
         <v>0</v>
@@ -9187,7 +9194,7 @@
         <v>0</v>
       </c>
       <c r="O124" s="22">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="P124" s="22">
         <v>1</v>
@@ -9195,13 +9202,13 @@
       <c r="Q124" s="22"/>
       <c r="R124" s="22"/>
       <c r="S124" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T124" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="U124" s="22" t="s">
         <v>224</v>
-      </c>
-      <c r="U124" s="22" t="s">
-        <v>225</v>
       </c>
       <c r="V124" s="22">
         <v>0</v>
@@ -9209,29 +9216,29 @@
     </row>
     <row r="125" spans="1:22" s="6" customFormat="1">
       <c r="A125" s="22" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B125" s="22">
         <v>1</v>
       </c>
-      <c r="C125" s="22">
-        <v>7</v>
+      <c r="C125" s="23">
+        <v>6</v>
       </c>
       <c r="D125" s="22">
         <v>0</v>
       </c>
       <c r="E125" s="22"/>
       <c r="F125" s="22">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G125" s="22" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="H125" s="22"/>
       <c r="I125" s="22"/>
       <c r="J125" s="22"/>
       <c r="K125" s="22">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="L125" s="22">
         <v>0</v>
@@ -9243,7 +9250,7 @@
         <v>0</v>
       </c>
       <c r="O125" s="22">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="P125" s="22">
         <v>1</v>
@@ -9251,13 +9258,13 @@
       <c r="Q125" s="22"/>
       <c r="R125" s="22"/>
       <c r="S125" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T125" s="22" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="U125" s="22" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="V125" s="22">
         <v>0</v>
@@ -9265,7 +9272,7 @@
     </row>
     <row r="126" spans="1:22" s="6" customFormat="1">
       <c r="A126" s="22" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B126" s="22">
         <v>1</v>
@@ -9278,16 +9285,16 @@
       </c>
       <c r="E126" s="22"/>
       <c r="F126" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G126" s="22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H126" s="22"/>
       <c r="I126" s="22"/>
       <c r="J126" s="22"/>
       <c r="K126" s="22">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L126" s="22">
         <v>0</v>
@@ -9299,7 +9306,7 @@
         <v>0</v>
       </c>
       <c r="O126" s="22">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="P126" s="22">
         <v>1</v>
@@ -9307,13 +9314,13 @@
       <c r="Q126" s="22"/>
       <c r="R126" s="22"/>
       <c r="S126" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T126" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="U126" s="22" t="s">
         <v>237</v>
-      </c>
-      <c r="U126" s="22" t="s">
-        <v>238</v>
       </c>
       <c r="V126" s="22">
         <v>0</v>
@@ -9321,7 +9328,7 @@
     </row>
     <row r="127" spans="1:22" s="6" customFormat="1">
       <c r="A127" s="22" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B127" s="22">
         <v>1</v>
@@ -9334,16 +9341,16 @@
       </c>
       <c r="E127" s="22"/>
       <c r="F127" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G127" s="22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H127" s="22"/>
       <c r="I127" s="22"/>
       <c r="J127" s="22"/>
       <c r="K127" s="22">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="L127" s="22">
         <v>0</v>
@@ -9355,7 +9362,7 @@
         <v>0</v>
       </c>
       <c r="O127" s="22">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="P127" s="22">
         <v>1</v>
@@ -9363,13 +9370,13 @@
       <c r="Q127" s="22"/>
       <c r="R127" s="22"/>
       <c r="S127" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T127" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="U127" s="22" t="s">
         <v>237</v>
-      </c>
-      <c r="U127" s="22" t="s">
-        <v>238</v>
       </c>
       <c r="V127" s="22">
         <v>0</v>
@@ -9377,7 +9384,7 @@
     </row>
     <row r="128" spans="1:22" s="6" customFormat="1">
       <c r="A128" s="22" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B128" s="22">
         <v>1</v>
@@ -9390,16 +9397,16 @@
       </c>
       <c r="E128" s="22"/>
       <c r="F128" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G128" s="22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H128" s="22"/>
       <c r="I128" s="22"/>
       <c r="J128" s="22"/>
       <c r="K128" s="22">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="L128" s="22">
         <v>0</v>
@@ -9411,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="O128" s="22">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="P128" s="22">
         <v>1</v>
@@ -9419,13 +9426,13 @@
       <c r="Q128" s="22"/>
       <c r="R128" s="22"/>
       <c r="S128" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T128" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="U128" s="22" t="s">
         <v>237</v>
-      </c>
-      <c r="U128" s="22" t="s">
-        <v>238</v>
       </c>
       <c r="V128" s="22">
         <v>0</v>
@@ -9433,7 +9440,7 @@
     </row>
     <row r="129" spans="1:22" s="6" customFormat="1">
       <c r="A129" s="22" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B129" s="22">
         <v>1</v>
@@ -9446,16 +9453,16 @@
       </c>
       <c r="E129" s="22"/>
       <c r="F129" s="22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G129" s="22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H129" s="22"/>
       <c r="I129" s="22"/>
       <c r="J129" s="22"/>
       <c r="K129" s="22">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="L129" s="22">
         <v>0</v>
@@ -9467,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="O129" s="22">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="P129" s="22">
         <v>1</v>
@@ -9475,13 +9482,13 @@
       <c r="Q129" s="22"/>
       <c r="R129" s="22"/>
       <c r="S129" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T129" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="U129" s="22" t="s">
         <v>237</v>
-      </c>
-      <c r="U129" s="22" t="s">
-        <v>238</v>
       </c>
       <c r="V129" s="22">
         <v>0</v>
@@ -9489,7 +9496,7 @@
     </row>
     <row r="130" spans="1:22" s="6" customFormat="1">
       <c r="A130" s="22" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B130" s="22">
         <v>1</v>
@@ -9502,16 +9509,16 @@
       </c>
       <c r="E130" s="22"/>
       <c r="F130" s="22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G130" s="22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H130" s="22"/>
       <c r="I130" s="22"/>
       <c r="J130" s="22"/>
       <c r="K130" s="22">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="L130" s="22">
         <v>0</v>
@@ -9523,7 +9530,7 @@
         <v>0</v>
       </c>
       <c r="O130" s="22">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="P130" s="22">
         <v>1</v>
@@ -9531,13 +9538,13 @@
       <c r="Q130" s="22"/>
       <c r="R130" s="22"/>
       <c r="S130" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T130" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="U130" s="22" t="s">
         <v>237</v>
-      </c>
-      <c r="U130" s="22" t="s">
-        <v>238</v>
       </c>
       <c r="V130" s="22">
         <v>0</v>
@@ -9545,7 +9552,7 @@
     </row>
     <row r="131" spans="1:22" s="6" customFormat="1">
       <c r="A131" s="22" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B131" s="22">
         <v>1</v>
@@ -9558,16 +9565,16 @@
       </c>
       <c r="E131" s="22"/>
       <c r="F131" s="22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G131" s="22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H131" s="22"/>
       <c r="I131" s="22"/>
       <c r="J131" s="22"/>
       <c r="K131" s="22">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="L131" s="22">
         <v>0</v>
@@ -9579,7 +9586,7 @@
         <v>0</v>
       </c>
       <c r="O131" s="22">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="P131" s="22">
         <v>1</v>
@@ -9587,13 +9594,13 @@
       <c r="Q131" s="22"/>
       <c r="R131" s="22"/>
       <c r="S131" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T131" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="U131" s="22" t="s">
         <v>237</v>
-      </c>
-      <c r="U131" s="22" t="s">
-        <v>238</v>
       </c>
       <c r="V131" s="22">
         <v>0</v>
@@ -9601,7 +9608,7 @@
     </row>
     <row r="132" spans="1:22" s="6" customFormat="1">
       <c r="A132" s="22" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B132" s="22">
         <v>1</v>
@@ -9614,16 +9621,16 @@
       </c>
       <c r="E132" s="22"/>
       <c r="F132" s="22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G132" s="22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H132" s="22"/>
       <c r="I132" s="22"/>
       <c r="J132" s="22"/>
       <c r="K132" s="22">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="L132" s="22">
         <v>0</v>
@@ -9635,7 +9642,7 @@
         <v>0</v>
       </c>
       <c r="O132" s="22">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="P132" s="22">
         <v>1</v>
@@ -9643,13 +9650,13 @@
       <c r="Q132" s="22"/>
       <c r="R132" s="22"/>
       <c r="S132" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T132" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="U132" s="22" t="s">
         <v>237</v>
-      </c>
-      <c r="U132" s="22" t="s">
-        <v>238</v>
       </c>
       <c r="V132" s="22">
         <v>0</v>
@@ -9657,7 +9664,7 @@
     </row>
     <row r="133" spans="1:22" s="6" customFormat="1">
       <c r="A133" s="22" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B133" s="22">
         <v>1</v>
@@ -9670,16 +9677,16 @@
       </c>
       <c r="E133" s="22"/>
       <c r="F133" s="22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G133" s="22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H133" s="22"/>
       <c r="I133" s="22"/>
       <c r="J133" s="22"/>
       <c r="K133" s="22">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L133" s="22">
         <v>0</v>
@@ -9691,7 +9698,7 @@
         <v>0</v>
       </c>
       <c r="O133" s="22">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="P133" s="22">
         <v>1</v>
@@ -9699,21 +9706,21 @@
       <c r="Q133" s="22"/>
       <c r="R133" s="22"/>
       <c r="S133" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T133" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="U133" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="U133" s="22" t="s">
-        <v>238</v>
-      </c>
       <c r="V133" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:22" s="6" customFormat="1" ht="14.65" thickBot="1">
+    <row r="134" spans="1:22" s="6" customFormat="1">
       <c r="A134" s="22" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B134" s="22">
         <v>1</v>
@@ -9726,16 +9733,16 @@
       </c>
       <c r="E134" s="22"/>
       <c r="F134" s="22">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G134" s="22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H134" s="22"/>
       <c r="I134" s="22"/>
       <c r="J134" s="22"/>
       <c r="K134" s="22">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="L134" s="22">
         <v>0</v>
@@ -9747,7 +9754,7 @@
         <v>0</v>
       </c>
       <c r="O134" s="22">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="P134" s="22">
         <v>1</v>
@@ -9755,131 +9762,129 @@
       <c r="Q134" s="22"/>
       <c r="R134" s="22"/>
       <c r="S134" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T134" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="U134" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="U134" s="22" t="s">
-        <v>238</v>
-      </c>
       <c r="V134" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:22" s="8" customFormat="1">
-      <c r="A135" s="39" t="s">
+    <row r="135" spans="1:22" s="6" customFormat="1" ht="14.65" thickBot="1">
+      <c r="A135" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="B135" s="22">
+        <v>1</v>
+      </c>
+      <c r="C135" s="22">
+        <v>7</v>
+      </c>
+      <c r="D135" s="22">
+        <v>0</v>
+      </c>
+      <c r="E135" s="22"/>
+      <c r="F135" s="22">
+        <v>10</v>
+      </c>
+      <c r="G135" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="H135" s="22"/>
+      <c r="I135" s="22"/>
+      <c r="J135" s="22"/>
+      <c r="K135" s="22">
+        <v>1000</v>
+      </c>
+      <c r="L135" s="22">
+        <v>0</v>
+      </c>
+      <c r="M135" s="22">
+        <v>1</v>
+      </c>
+      <c r="N135" s="22">
+        <v>0</v>
+      </c>
+      <c r="O135" s="22">
+        <v>1000</v>
+      </c>
+      <c r="P135" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q135" s="22"/>
+      <c r="R135" s="22"/>
+      <c r="S135" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="T135" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="U135" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="V135" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:22" s="8" customFormat="1">
+      <c r="A136" s="39" t="s">
+        <v>441</v>
+      </c>
+      <c r="B136" s="25">
+        <v>3</v>
+      </c>
+      <c r="C136" s="25">
+        <v>0</v>
+      </c>
+      <c r="D136" s="25">
+        <v>1</v>
+      </c>
+      <c r="E136" s="25"/>
+      <c r="F136" s="25">
+        <v>0</v>
+      </c>
+      <c r="G136" s="40" t="s">
         <v>442</v>
       </c>
-      <c r="B135" s="25">
-        <v>3</v>
-      </c>
-      <c r="C135" s="25">
-        <v>0</v>
-      </c>
-      <c r="D135" s="25">
-        <v>1</v>
-      </c>
-      <c r="E135" s="25"/>
-      <c r="F135" s="25">
-        <v>0</v>
-      </c>
-      <c r="G135" s="40" t="s">
-        <v>443</v>
-      </c>
-      <c r="H135" s="25"/>
-      <c r="I135" s="25"/>
-      <c r="J135" s="28"/>
-      <c r="K135" s="25">
-        <v>0</v>
-      </c>
-      <c r="L135" s="25">
-        <v>0</v>
-      </c>
-      <c r="M135" s="25">
-        <v>1</v>
-      </c>
-      <c r="N135" s="25">
-        <v>0</v>
-      </c>
-      <c r="O135" s="25">
-        <v>1000</v>
-      </c>
-      <c r="P135" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q135" s="25"/>
-      <c r="R135" s="30" t="s">
-        <v>249</v>
-      </c>
-      <c r="S135" s="42" t="s">
-        <v>448</v>
-      </c>
-      <c r="T135" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="U135" s="43" t="s">
-        <v>449</v>
-      </c>
-      <c r="V135" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:22" s="8" customFormat="1">
-      <c r="A136" s="38" t="s">
-        <v>441</v>
-      </c>
-      <c r="B136" s="27">
-        <v>3</v>
-      </c>
-      <c r="C136" s="27">
-        <v>0</v>
-      </c>
-      <c r="D136" s="27">
-        <v>1</v>
-      </c>
-      <c r="E136" s="27"/>
-      <c r="F136" s="27">
-        <v>0</v>
-      </c>
-      <c r="G136" s="41" t="s">
-        <v>444</v>
-      </c>
-      <c r="H136" s="27"/>
-      <c r="I136" s="27"/>
-      <c r="J136" s="29"/>
-      <c r="K136" s="27">
-        <v>0</v>
-      </c>
-      <c r="L136" s="27">
-        <v>0</v>
-      </c>
-      <c r="M136" s="27">
-        <v>1</v>
-      </c>
-      <c r="N136" s="27">
+      <c r="H136" s="25"/>
+      <c r="I136" s="25"/>
+      <c r="J136" s="28"/>
+      <c r="K136" s="25">
+        <v>0</v>
+      </c>
+      <c r="L136" s="25">
+        <v>0</v>
+      </c>
+      <c r="M136" s="25">
+        <v>1</v>
+      </c>
+      <c r="N136" s="25">
         <v>0</v>
       </c>
       <c r="O136" s="25">
         <v>1000</v>
       </c>
-      <c r="P136" s="27">
-        <v>1</v>
-      </c>
-      <c r="Q136" s="27"/>
+      <c r="P136" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q136" s="25"/>
       <c r="R136" s="30" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="S136" s="42" t="s">
+        <v>447</v>
+      </c>
+      <c r="T136" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="U136" s="43" t="s">
         <v>448</v>
       </c>
-      <c r="T136" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="U136" s="44" t="s">
-        <v>450</v>
-      </c>
-      <c r="V136" s="27">
+      <c r="V136" s="25">
         <v>1</v>
       </c>
     </row>
@@ -9887,10 +9892,10 @@
       <c r="A137" s="38" t="s">
         <v>440</v>
       </c>
-      <c r="B137" s="25">
+      <c r="B137" s="27">
         <v>3</v>
       </c>
-      <c r="C137" s="25">
+      <c r="C137" s="27">
         <v>0</v>
       </c>
       <c r="D137" s="27">
@@ -9901,7 +9906,7 @@
         <v>0</v>
       </c>
       <c r="G137" s="41" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H137" s="27"/>
       <c r="I137" s="27"/>
@@ -9926,16 +9931,16 @@
       </c>
       <c r="Q137" s="27"/>
       <c r="R137" s="30" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="S137" s="42" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="T137" s="26" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="U137" s="44" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="V137" s="27">
         <v>1</v>
@@ -9945,10 +9950,10 @@
       <c r="A138" s="38" t="s">
         <v>439</v>
       </c>
-      <c r="B138" s="27">
+      <c r="B138" s="25">
         <v>3</v>
       </c>
-      <c r="C138" s="27">
+      <c r="C138" s="25">
         <v>0</v>
       </c>
       <c r="D138" s="27">
@@ -9959,7 +9964,7 @@
         <v>0</v>
       </c>
       <c r="G138" s="41" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H138" s="27"/>
       <c r="I138" s="27"/>
@@ -9984,82 +9989,82 @@
       </c>
       <c r="Q138" s="27"/>
       <c r="R138" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="S138" s="42" t="s">
         <v>447</v>
       </c>
-      <c r="S138" s="42" t="s">
-        <v>448</v>
-      </c>
-      <c r="T138" s="38" t="s">
+      <c r="T138" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="U138" s="44" t="s">
+        <v>450</v>
+      </c>
+      <c r="V138" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:22" s="8" customFormat="1">
+      <c r="A139" s="38" t="s">
         <v>438</v>
       </c>
-      <c r="U138" s="44" t="s">
-        <v>452</v>
-      </c>
-      <c r="V138" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:22" s="34" customFormat="1">
-      <c r="A139" s="31" t="s">
-        <v>255</v>
-      </c>
-      <c r="B139" s="32">
-        <v>4</v>
-      </c>
-      <c r="C139" s="32">
-        <v>4</v>
-      </c>
-      <c r="D139" s="32">
-        <v>0</v>
-      </c>
-      <c r="E139" s="32"/>
-      <c r="F139" s="32">
-        <v>1</v>
-      </c>
-      <c r="G139" s="32" t="s">
-        <v>289</v>
-      </c>
-      <c r="H139" s="32"/>
-      <c r="I139" s="32"/>
-      <c r="J139" s="32"/>
-      <c r="K139" s="32">
-        <v>20</v>
-      </c>
-      <c r="L139" s="32">
-        <v>0</v>
-      </c>
-      <c r="M139" s="32">
-        <v>1</v>
-      </c>
-      <c r="N139" s="32">
-        <v>0</v>
-      </c>
-      <c r="O139" s="32">
-        <v>20</v>
-      </c>
-      <c r="P139" s="32">
-        <v>1</v>
-      </c>
-      <c r="Q139" s="32"/>
-      <c r="R139" s="32" t="s">
-        <v>388</v>
-      </c>
-      <c r="S139" s="33" t="s">
-        <v>421</v>
-      </c>
-      <c r="T139" s="32" t="s">
-        <v>355</v>
-      </c>
-      <c r="U139" s="32" t="s">
-        <v>322</v>
-      </c>
-      <c r="V139" s="32">
-        <v>0</v>
+      <c r="B139" s="27">
+        <v>3</v>
+      </c>
+      <c r="C139" s="27">
+        <v>0</v>
+      </c>
+      <c r="D139" s="27">
+        <v>1</v>
+      </c>
+      <c r="E139" s="27"/>
+      <c r="F139" s="27">
+        <v>0</v>
+      </c>
+      <c r="G139" s="41" t="s">
+        <v>445</v>
+      </c>
+      <c r="H139" s="27"/>
+      <c r="I139" s="27"/>
+      <c r="J139" s="29"/>
+      <c r="K139" s="27">
+        <v>0</v>
+      </c>
+      <c r="L139" s="27">
+        <v>0</v>
+      </c>
+      <c r="M139" s="27">
+        <v>1</v>
+      </c>
+      <c r="N139" s="27">
+        <v>0</v>
+      </c>
+      <c r="O139" s="25">
+        <v>1000</v>
+      </c>
+      <c r="P139" s="27">
+        <v>1</v>
+      </c>
+      <c r="Q139" s="27"/>
+      <c r="R139" s="30" t="s">
+        <v>446</v>
+      </c>
+      <c r="S139" s="42" t="s">
+        <v>447</v>
+      </c>
+      <c r="T139" s="38" t="s">
+        <v>437</v>
+      </c>
+      <c r="U139" s="44" t="s">
+        <v>451</v>
+      </c>
+      <c r="V139" s="27">
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:22" s="34" customFormat="1">
-      <c r="A140" s="35" t="s">
-        <v>256</v>
+      <c r="A140" s="31" t="s">
+        <v>254</v>
       </c>
       <c r="B140" s="32">
         <v>4</v>
@@ -10072,16 +10077,16 @@
       </c>
       <c r="E140" s="32"/>
       <c r="F140" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G140" s="32" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H140" s="32"/>
       <c r="I140" s="32"/>
       <c r="J140" s="32"/>
       <c r="K140" s="32">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L140" s="32">
         <v>0</v>
@@ -10093,23 +10098,23 @@
         <v>0</v>
       </c>
       <c r="O140" s="32">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="P140" s="32">
         <v>1</v>
       </c>
       <c r="Q140" s="32"/>
       <c r="R140" s="32" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="S140" s="33" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="T140" s="32" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U140" s="32" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="V140" s="32">
         <v>0</v>
@@ -10117,7 +10122,7 @@
     </row>
     <row r="141" spans="1:22" s="34" customFormat="1">
       <c r="A141" s="35" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B141" s="32">
         <v>4</v>
@@ -10130,16 +10135,16 @@
       </c>
       <c r="E141" s="32"/>
       <c r="F141" s="32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G141" s="32" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H141" s="32"/>
       <c r="I141" s="32"/>
       <c r="J141" s="32"/>
       <c r="K141" s="32">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="L141" s="32">
         <v>0</v>
@@ -10151,23 +10156,23 @@
         <v>0</v>
       </c>
       <c r="O141" s="32">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="P141" s="32">
         <v>1</v>
       </c>
       <c r="Q141" s="32"/>
       <c r="R141" s="32" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="S141" s="33" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="T141" s="32" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="U141" s="32" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="V141" s="32">
         <v>0</v>
@@ -10175,7 +10180,7 @@
     </row>
     <row r="142" spans="1:22" s="34" customFormat="1">
       <c r="A142" s="35" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B142" s="32">
         <v>4</v>
@@ -10188,16 +10193,16 @@
       </c>
       <c r="E142" s="32"/>
       <c r="F142" s="32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G142" s="32" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H142" s="32"/>
       <c r="I142" s="32"/>
       <c r="J142" s="32"/>
       <c r="K142" s="32">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="L142" s="32">
         <v>0</v>
@@ -10209,23 +10214,23 @@
         <v>0</v>
       </c>
       <c r="O142" s="32">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="P142" s="32">
         <v>1</v>
       </c>
       <c r="Q142" s="32"/>
       <c r="R142" s="32" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="S142" s="33" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="T142" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="U142" s="32" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="V142" s="32">
         <v>0</v>
@@ -10233,7 +10238,7 @@
     </row>
     <row r="143" spans="1:22" s="34" customFormat="1">
       <c r="A143" s="35" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B143" s="32">
         <v>4</v>
@@ -10246,16 +10251,16 @@
       </c>
       <c r="E143" s="32"/>
       <c r="F143" s="32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G143" s="32" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H143" s="32"/>
       <c r="I143" s="32"/>
       <c r="J143" s="32"/>
       <c r="K143" s="32">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="L143" s="32">
         <v>0</v>
@@ -10267,23 +10272,23 @@
         <v>0</v>
       </c>
       <c r="O143" s="32">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="P143" s="32">
         <v>1</v>
       </c>
       <c r="Q143" s="32"/>
       <c r="R143" s="32" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="S143" s="33" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="T143" s="32" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="U143" s="32" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="V143" s="32">
         <v>0</v>
@@ -10291,7 +10296,7 @@
     </row>
     <row r="144" spans="1:22" s="34" customFormat="1">
       <c r="A144" s="35" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B144" s="32">
         <v>4</v>
@@ -10304,16 +10309,16 @@
       </c>
       <c r="E144" s="32"/>
       <c r="F144" s="32">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G144" s="32" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H144" s="32"/>
       <c r="I144" s="32"/>
       <c r="J144" s="32"/>
       <c r="K144" s="32">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="L144" s="32">
         <v>0</v>
@@ -10325,23 +10330,23 @@
         <v>0</v>
       </c>
       <c r="O144" s="32">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="P144" s="32">
         <v>1</v>
       </c>
       <c r="Q144" s="32"/>
       <c r="R144" s="32" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="S144" s="33" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="T144" s="32" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="U144" s="32" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="V144" s="32">
         <v>0</v>
@@ -10349,7 +10354,7 @@
     </row>
     <row r="145" spans="1:22" s="34" customFormat="1">
       <c r="A145" s="35" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B145" s="32">
         <v>4</v>
@@ -10362,16 +10367,16 @@
       </c>
       <c r="E145" s="32"/>
       <c r="F145" s="32">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G145" s="32" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H145" s="32"/>
       <c r="I145" s="32"/>
       <c r="J145" s="32"/>
       <c r="K145" s="32">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="L145" s="32">
         <v>0</v>
@@ -10383,23 +10388,23 @@
         <v>0</v>
       </c>
       <c r="O145" s="32">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="P145" s="32">
         <v>1</v>
       </c>
       <c r="Q145" s="32"/>
       <c r="R145" s="32" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="S145" s="33" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="T145" s="32" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="U145" s="32" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="V145" s="32">
         <v>0</v>
@@ -10407,7 +10412,7 @@
     </row>
     <row r="146" spans="1:22" s="34" customFormat="1">
       <c r="A146" s="35" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B146" s="32">
         <v>4</v>
@@ -10420,16 +10425,16 @@
       </c>
       <c r="E146" s="32"/>
       <c r="F146" s="32">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G146" s="32" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H146" s="32"/>
       <c r="I146" s="32"/>
       <c r="J146" s="32"/>
       <c r="K146" s="32">
-        <v>20</v>
+        <v>350</v>
       </c>
       <c r="L146" s="32">
         <v>0</v>
@@ -10441,23 +10446,23 @@
         <v>0</v>
       </c>
       <c r="O146" s="32">
-        <v>20</v>
+        <v>350</v>
       </c>
       <c r="P146" s="32">
         <v>1</v>
       </c>
       <c r="Q146" s="32"/>
       <c r="R146" s="32" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="S146" s="33" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="T146" s="32" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="U146" s="32" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="V146" s="32">
         <v>0</v>
@@ -10465,7 +10470,7 @@
     </row>
     <row r="147" spans="1:22" s="34" customFormat="1">
       <c r="A147" s="35" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B147" s="32">
         <v>4</v>
@@ -10478,16 +10483,16 @@
       </c>
       <c r="E147" s="32"/>
       <c r="F147" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G147" s="32" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H147" s="32"/>
       <c r="I147" s="32"/>
       <c r="J147" s="32"/>
       <c r="K147" s="32">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L147" s="32">
         <v>0</v>
@@ -10499,23 +10504,23 @@
         <v>0</v>
       </c>
       <c r="O147" s="32">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="P147" s="32">
         <v>1</v>
       </c>
       <c r="Q147" s="32"/>
       <c r="R147" s="32" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="S147" s="33" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="T147" s="32" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="U147" s="32" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="V147" s="32">
         <v>0</v>
@@ -10523,7 +10528,7 @@
     </row>
     <row r="148" spans="1:22" s="34" customFormat="1">
       <c r="A148" s="35" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B148" s="32">
         <v>4</v>
@@ -10536,16 +10541,16 @@
       </c>
       <c r="E148" s="32"/>
       <c r="F148" s="32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G148" s="32" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H148" s="32"/>
       <c r="I148" s="32"/>
       <c r="J148" s="32"/>
       <c r="K148" s="32">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="L148" s="32">
         <v>0</v>
@@ -10557,23 +10562,23 @@
         <v>0</v>
       </c>
       <c r="O148" s="32">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="P148" s="32">
         <v>1</v>
       </c>
       <c r="Q148" s="32"/>
       <c r="R148" s="32" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="S148" s="33" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="T148" s="32" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="U148" s="32" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="V148" s="32">
         <v>0</v>
@@ -10581,7 +10586,7 @@
     </row>
     <row r="149" spans="1:22" s="34" customFormat="1">
       <c r="A149" s="35" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B149" s="32">
         <v>4</v>
@@ -10594,16 +10599,16 @@
       </c>
       <c r="E149" s="32"/>
       <c r="F149" s="32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G149" s="32" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H149" s="32"/>
       <c r="I149" s="32"/>
       <c r="J149" s="32"/>
       <c r="K149" s="32">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="L149" s="32">
         <v>0</v>
@@ -10615,23 +10620,23 @@
         <v>0</v>
       </c>
       <c r="O149" s="32">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="P149" s="32">
         <v>1</v>
       </c>
       <c r="Q149" s="32"/>
       <c r="R149" s="32" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="S149" s="33" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="T149" s="32" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="U149" s="32" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="V149" s="32">
         <v>0</v>
@@ -10639,7 +10644,7 @@
     </row>
     <row r="150" spans="1:22" s="34" customFormat="1">
       <c r="A150" s="35" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B150" s="32">
         <v>4</v>
@@ -10652,16 +10657,16 @@
       </c>
       <c r="E150" s="32"/>
       <c r="F150" s="32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G150" s="32" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H150" s="32"/>
       <c r="I150" s="32"/>
       <c r="J150" s="32"/>
       <c r="K150" s="32">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="L150" s="32">
         <v>0</v>
@@ -10673,23 +10678,23 @@
         <v>0</v>
       </c>
       <c r="O150" s="32">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="P150" s="32">
         <v>1</v>
       </c>
       <c r="Q150" s="32"/>
       <c r="R150" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="S150" s="33" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="T150" s="32" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="U150" s="32" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="V150" s="32">
         <v>0</v>
@@ -10697,7 +10702,7 @@
     </row>
     <row r="151" spans="1:22" s="34" customFormat="1">
       <c r="A151" s="35" t="s">
-        <v>423</v>
+        <v>265</v>
       </c>
       <c r="B151" s="32">
         <v>4</v>
@@ -10710,16 +10715,16 @@
       </c>
       <c r="E151" s="32"/>
       <c r="F151" s="32">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G151" s="32" t="s">
-        <v>435</v>
+        <v>299</v>
       </c>
       <c r="H151" s="32"/>
       <c r="I151" s="32"/>
       <c r="J151" s="32"/>
       <c r="K151" s="32">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="L151" s="32">
         <v>0</v>
@@ -10731,23 +10736,23 @@
         <v>0</v>
       </c>
       <c r="O151" s="32">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="P151" s="32">
         <v>1</v>
       </c>
       <c r="Q151" s="32"/>
       <c r="R151" s="32" t="s">
-        <v>426</v>
+        <v>398</v>
       </c>
       <c r="S151" s="33" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="T151" s="32" t="s">
-        <v>429</v>
+        <v>365</v>
       </c>
       <c r="U151" s="32" t="s">
-        <v>432</v>
+        <v>332</v>
       </c>
       <c r="V151" s="32">
         <v>0</v>
@@ -10755,7 +10760,7 @@
     </row>
     <row r="152" spans="1:22" s="34" customFormat="1">
       <c r="A152" s="35" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B152" s="32">
         <v>4</v>
@@ -10768,16 +10773,16 @@
       </c>
       <c r="E152" s="32"/>
       <c r="F152" s="32">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G152" s="32" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H152" s="32"/>
       <c r="I152" s="32"/>
       <c r="J152" s="32"/>
       <c r="K152" s="32">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="L152" s="32">
         <v>0</v>
@@ -10789,23 +10794,23 @@
         <v>0</v>
       </c>
       <c r="O152" s="32">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="P152" s="32">
         <v>1</v>
       </c>
       <c r="Q152" s="32"/>
       <c r="R152" s="32" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="S152" s="33" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="T152" s="32" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="U152" s="32" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="V152" s="32">
         <v>0</v>
@@ -10813,7 +10818,7 @@
     </row>
     <row r="153" spans="1:22" s="34" customFormat="1">
       <c r="A153" s="35" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B153" s="32">
         <v>4</v>
@@ -10826,16 +10831,16 @@
       </c>
       <c r="E153" s="32"/>
       <c r="F153" s="32">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G153" s="32" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H153" s="32"/>
       <c r="I153" s="32"/>
       <c r="J153" s="32"/>
       <c r="K153" s="32">
-        <v>20</v>
+        <v>350</v>
       </c>
       <c r="L153" s="32">
         <v>0</v>
@@ -10847,23 +10852,23 @@
         <v>0</v>
       </c>
       <c r="O153" s="32">
-        <v>20</v>
+        <v>350</v>
       </c>
       <c r="P153" s="32">
         <v>1</v>
       </c>
       <c r="Q153" s="32"/>
       <c r="R153" s="32" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="S153" s="33" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="T153" s="32" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="U153" s="32" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="V153" s="32">
         <v>0</v>
@@ -10871,7 +10876,7 @@
     </row>
     <row r="154" spans="1:22" s="34" customFormat="1">
       <c r="A154" s="35" t="s">
-        <v>267</v>
+        <v>424</v>
       </c>
       <c r="B154" s="32">
         <v>4</v>
@@ -10884,16 +10889,16 @@
       </c>
       <c r="E154" s="32"/>
       <c r="F154" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G154" s="32" t="s">
-        <v>301</v>
+        <v>436</v>
       </c>
       <c r="H154" s="32"/>
       <c r="I154" s="32"/>
       <c r="J154" s="32"/>
       <c r="K154" s="32">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L154" s="32">
         <v>0</v>
@@ -10905,23 +10910,23 @@
         <v>0</v>
       </c>
       <c r="O154" s="32">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="P154" s="32">
         <v>1</v>
       </c>
       <c r="Q154" s="32"/>
       <c r="R154" s="32" t="s">
-        <v>400</v>
+        <v>427</v>
       </c>
       <c r="S154" s="33" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="T154" s="32" t="s">
-        <v>367</v>
+        <v>430</v>
       </c>
       <c r="U154" s="32" t="s">
-        <v>334</v>
+        <v>433</v>
       </c>
       <c r="V154" s="32">
         <v>0</v>
@@ -10929,7 +10934,7 @@
     </row>
     <row r="155" spans="1:22" s="34" customFormat="1">
       <c r="A155" s="35" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B155" s="32">
         <v>4</v>
@@ -10942,16 +10947,16 @@
       </c>
       <c r="E155" s="32"/>
       <c r="F155" s="32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G155" s="32" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H155" s="32"/>
       <c r="I155" s="32"/>
       <c r="J155" s="32"/>
       <c r="K155" s="32">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="L155" s="32">
         <v>0</v>
@@ -10963,23 +10968,23 @@
         <v>0</v>
       </c>
       <c r="O155" s="32">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="P155" s="32">
         <v>1</v>
       </c>
       <c r="Q155" s="32"/>
       <c r="R155" s="32" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="S155" s="33" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="T155" s="32" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="U155" s="32" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="V155" s="32">
         <v>0</v>
@@ -10987,7 +10992,7 @@
     </row>
     <row r="156" spans="1:22" s="34" customFormat="1">
       <c r="A156" s="35" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B156" s="32">
         <v>4</v>
@@ -11000,16 +11005,16 @@
       </c>
       <c r="E156" s="32"/>
       <c r="F156" s="32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G156" s="32" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H156" s="32"/>
       <c r="I156" s="32"/>
       <c r="J156" s="32"/>
       <c r="K156" s="32">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="L156" s="32">
         <v>0</v>
@@ -11021,23 +11026,23 @@
         <v>0</v>
       </c>
       <c r="O156" s="32">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="P156" s="32">
         <v>1</v>
       </c>
       <c r="Q156" s="32"/>
       <c r="R156" s="32" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="S156" s="33" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="T156" s="32" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="U156" s="32" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="V156" s="32">
         <v>0</v>
@@ -11045,7 +11050,7 @@
     </row>
     <row r="157" spans="1:22" s="34" customFormat="1">
       <c r="A157" s="35" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B157" s="32">
         <v>4</v>
@@ -11058,16 +11063,16 @@
       </c>
       <c r="E157" s="32"/>
       <c r="F157" s="32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G157" s="32" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H157" s="32"/>
       <c r="I157" s="32"/>
       <c r="J157" s="32"/>
       <c r="K157" s="32">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="L157" s="32">
         <v>0</v>
@@ -11079,23 +11084,23 @@
         <v>0</v>
       </c>
       <c r="O157" s="32">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="P157" s="32">
         <v>1</v>
       </c>
       <c r="Q157" s="32"/>
       <c r="R157" s="32" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="S157" s="33" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="T157" s="32" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="U157" s="32" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="V157" s="32">
         <v>0</v>
@@ -11103,7 +11108,7 @@
     </row>
     <row r="158" spans="1:22" s="34" customFormat="1">
       <c r="A158" s="35" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B158" s="32">
         <v>4</v>
@@ -11116,16 +11121,16 @@
       </c>
       <c r="E158" s="32"/>
       <c r="F158" s="32">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G158" s="32" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H158" s="32"/>
       <c r="I158" s="32"/>
       <c r="J158" s="32"/>
       <c r="K158" s="32">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="L158" s="32">
         <v>0</v>
@@ -11137,23 +11142,23 @@
         <v>0</v>
       </c>
       <c r="O158" s="32">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="P158" s="32">
         <v>1</v>
       </c>
       <c r="Q158" s="32"/>
       <c r="R158" s="32" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="S158" s="33" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="T158" s="32" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="U158" s="32" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="V158" s="32">
         <v>0</v>
@@ -11161,7 +11166,7 @@
     </row>
     <row r="159" spans="1:22" s="34" customFormat="1">
       <c r="A159" s="35" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B159" s="32">
         <v>4</v>
@@ -11174,16 +11179,16 @@
       </c>
       <c r="E159" s="32"/>
       <c r="F159" s="32">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G159" s="32" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H159" s="32"/>
       <c r="I159" s="32"/>
       <c r="J159" s="32"/>
       <c r="K159" s="32">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="L159" s="32">
         <v>0</v>
@@ -11195,31 +11200,31 @@
         <v>0</v>
       </c>
       <c r="O159" s="32">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="P159" s="32">
         <v>1</v>
       </c>
       <c r="Q159" s="32"/>
       <c r="R159" s="32" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="S159" s="33" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="T159" s="32" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="U159" s="32" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="V159" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:22" s="36" customFormat="1">
+    <row r="160" spans="1:22" s="34" customFormat="1">
       <c r="A160" s="35" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B160" s="32">
         <v>4</v>
@@ -11235,7 +11240,7 @@
         <v>7</v>
       </c>
       <c r="G160" s="32" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H160" s="32"/>
       <c r="I160" s="32"/>
@@ -11260,16 +11265,16 @@
       </c>
       <c r="Q160" s="32"/>
       <c r="R160" s="32" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="S160" s="33" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="T160" s="32" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="U160" s="32" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="V160" s="32">
         <v>0</v>
@@ -11277,7 +11282,7 @@
     </row>
     <row r="161" spans="1:22" s="36" customFormat="1">
       <c r="A161" s="35" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B161" s="32">
         <v>4</v>
@@ -11293,7 +11298,7 @@
         <v>7</v>
       </c>
       <c r="G161" s="32" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H161" s="32"/>
       <c r="I161" s="32"/>
@@ -11318,16 +11323,16 @@
       </c>
       <c r="Q161" s="32"/>
       <c r="R161" s="32" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="S161" s="33" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="T161" s="32" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U161" s="32" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="V161" s="32">
         <v>0</v>
@@ -11335,7 +11340,7 @@
     </row>
     <row r="162" spans="1:22" s="36" customFormat="1">
       <c r="A162" s="35" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B162" s="32">
         <v>4</v>
@@ -11351,7 +11356,7 @@
         <v>7</v>
       </c>
       <c r="G162" s="32" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H162" s="32"/>
       <c r="I162" s="32"/>
@@ -11376,16 +11381,16 @@
       </c>
       <c r="Q162" s="32"/>
       <c r="R162" s="32" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="S162" s="33" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="T162" s="32" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="U162" s="32" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="V162" s="32">
         <v>0</v>
@@ -11393,7 +11398,7 @@
     </row>
     <row r="163" spans="1:22" s="36" customFormat="1">
       <c r="A163" s="35" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B163" s="32">
         <v>4</v>
@@ -11409,7 +11414,7 @@
         <v>7</v>
       </c>
       <c r="G163" s="32" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H163" s="32"/>
       <c r="I163" s="32"/>
@@ -11434,16 +11439,16 @@
       </c>
       <c r="Q163" s="32"/>
       <c r="R163" s="32" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="S163" s="33" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="T163" s="32" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="U163" s="32" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="V163" s="32">
         <v>0</v>
@@ -11451,7 +11456,7 @@
     </row>
     <row r="164" spans="1:22" s="36" customFormat="1">
       <c r="A164" s="35" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B164" s="32">
         <v>4</v>
@@ -11467,7 +11472,7 @@
         <v>7</v>
       </c>
       <c r="G164" s="32" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H164" s="32"/>
       <c r="I164" s="32"/>
@@ -11492,16 +11497,16 @@
       </c>
       <c r="Q164" s="32"/>
       <c r="R164" s="32" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="S164" s="33" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="T164" s="32" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="U164" s="32" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="V164" s="32">
         <v>0</v>
@@ -11509,7 +11514,7 @@
     </row>
     <row r="165" spans="1:22" s="36" customFormat="1">
       <c r="A165" s="35" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B165" s="32">
         <v>4</v>
@@ -11525,7 +11530,7 @@
         <v>7</v>
       </c>
       <c r="G165" s="32" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H165" s="32"/>
       <c r="I165" s="32"/>
@@ -11550,16 +11555,16 @@
       </c>
       <c r="Q165" s="32"/>
       <c r="R165" s="32" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="S165" s="33" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="T165" s="32" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="U165" s="32" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="V165" s="32">
         <v>0</v>
@@ -11567,7 +11572,7 @@
     </row>
     <row r="166" spans="1:22" s="36" customFormat="1">
       <c r="A166" s="35" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B166" s="32">
         <v>4</v>
@@ -11583,7 +11588,7 @@
         <v>7</v>
       </c>
       <c r="G166" s="32" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H166" s="32"/>
       <c r="I166" s="32"/>
@@ -11608,16 +11613,16 @@
       </c>
       <c r="Q166" s="32"/>
       <c r="R166" s="32" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="S166" s="33" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="T166" s="32" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="U166" s="32" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="V166" s="32">
         <v>0</v>
@@ -11625,7 +11630,7 @@
     </row>
     <row r="167" spans="1:22" s="36" customFormat="1">
       <c r="A167" s="35" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B167" s="32">
         <v>4</v>
@@ -11641,7 +11646,7 @@
         <v>7</v>
       </c>
       <c r="G167" s="32" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H167" s="32"/>
       <c r="I167" s="32"/>
@@ -11666,16 +11671,16 @@
       </c>
       <c r="Q167" s="32"/>
       <c r="R167" s="32" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="S167" s="33" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="T167" s="32" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="U167" s="32" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="V167" s="32">
         <v>0</v>
@@ -11683,7 +11688,7 @@
     </row>
     <row r="168" spans="1:22" s="36" customFormat="1">
       <c r="A168" s="35" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B168" s="32">
         <v>4</v>
@@ -11699,7 +11704,7 @@
         <v>7</v>
       </c>
       <c r="G168" s="32" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H168" s="32"/>
       <c r="I168" s="32"/>
@@ -11724,16 +11729,16 @@
       </c>
       <c r="Q168" s="32"/>
       <c r="R168" s="32" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="S168" s="33" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="T168" s="32" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="U168" s="32" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="V168" s="32">
         <v>0</v>
@@ -11741,7 +11746,7 @@
     </row>
     <row r="169" spans="1:22" s="36" customFormat="1">
       <c r="A169" s="35" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B169" s="32">
         <v>4</v>
@@ -11757,7 +11762,7 @@
         <v>7</v>
       </c>
       <c r="G169" s="32" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H169" s="32"/>
       <c r="I169" s="32"/>
@@ -11782,16 +11787,16 @@
       </c>
       <c r="Q169" s="32"/>
       <c r="R169" s="32" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="S169" s="33" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="T169" s="32" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="U169" s="32" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="V169" s="32">
         <v>0</v>
@@ -11799,7 +11804,7 @@
     </row>
     <row r="170" spans="1:22" s="36" customFormat="1">
       <c r="A170" s="35" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B170" s="32">
         <v>4</v>
@@ -11815,7 +11820,7 @@
         <v>7</v>
       </c>
       <c r="G170" s="32" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H170" s="32"/>
       <c r="I170" s="32"/>
@@ -11840,24 +11845,24 @@
       </c>
       <c r="Q170" s="32"/>
       <c r="R170" s="32" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="S170" s="33" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="T170" s="32" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="U170" s="32" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="V170" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:22" s="36" customFormat="1" ht="14.65" thickBot="1">
-      <c r="A171" s="37" t="s">
-        <v>284</v>
+    <row r="171" spans="1:22" s="36" customFormat="1">
+      <c r="A171" s="35" t="s">
+        <v>282</v>
       </c>
       <c r="B171" s="32">
         <v>4</v>
@@ -11873,7 +11878,7 @@
         <v>7</v>
       </c>
       <c r="G171" s="32" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H171" s="32"/>
       <c r="I171" s="32"/>
@@ -11898,24 +11903,24 @@
       </c>
       <c r="Q171" s="32"/>
       <c r="R171" s="32" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="S171" s="33" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="T171" s="32" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="U171" s="32" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="V171" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:22" s="36" customFormat="1">
-      <c r="A172" s="35" t="s">
-        <v>285</v>
+    <row r="172" spans="1:22" s="36" customFormat="1" ht="14.65" thickBot="1">
+      <c r="A172" s="37" t="s">
+        <v>283</v>
       </c>
       <c r="B172" s="32">
         <v>4</v>
@@ -11931,7 +11936,7 @@
         <v>7</v>
       </c>
       <c r="G172" s="32" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H172" s="32"/>
       <c r="I172" s="32"/>
@@ -11956,16 +11961,16 @@
       </c>
       <c r="Q172" s="32"/>
       <c r="R172" s="32" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="S172" s="33" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="T172" s="32" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="U172" s="32" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="V172" s="32">
         <v>0</v>
@@ -11973,7 +11978,7 @@
     </row>
     <row r="173" spans="1:22" s="36" customFormat="1">
       <c r="A173" s="35" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B173" s="32">
         <v>4</v>
@@ -11989,7 +11994,7 @@
         <v>7</v>
       </c>
       <c r="G173" s="32" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H173" s="32"/>
       <c r="I173" s="32"/>
@@ -12014,24 +12019,24 @@
       </c>
       <c r="Q173" s="32"/>
       <c r="R173" s="32" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="S173" s="33" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="T173" s="32" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="U173" s="32" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="V173" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:22" s="36" customFormat="1" ht="14.65" thickBot="1">
-      <c r="A174" s="37" t="s">
-        <v>287</v>
+    <row r="174" spans="1:22" s="36" customFormat="1">
+      <c r="A174" s="35" t="s">
+        <v>285</v>
       </c>
       <c r="B174" s="32">
         <v>4</v>
@@ -12047,7 +12052,7 @@
         <v>7</v>
       </c>
       <c r="G174" s="32" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H174" s="32"/>
       <c r="I174" s="32"/>
@@ -12072,18 +12077,76 @@
       </c>
       <c r="Q174" s="32"/>
       <c r="R174" s="32" t="s">
+        <v>418</v>
+      </c>
+      <c r="S174" s="33" t="s">
         <v>420</v>
       </c>
-      <c r="S174" s="33" t="s">
-        <v>421</v>
-      </c>
       <c r="T174" s="32" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="U174" s="32" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="V174" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:22" s="36" customFormat="1" ht="14.65" thickBot="1">
+      <c r="A175" s="37" t="s">
+        <v>286</v>
+      </c>
+      <c r="B175" s="32">
+        <v>4</v>
+      </c>
+      <c r="C175" s="32">
+        <v>4</v>
+      </c>
+      <c r="D175" s="32">
+        <v>0</v>
+      </c>
+      <c r="E175" s="32"/>
+      <c r="F175" s="32">
+        <v>7</v>
+      </c>
+      <c r="G175" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="H175" s="32"/>
+      <c r="I175" s="32"/>
+      <c r="J175" s="32"/>
+      <c r="K175" s="32">
+        <v>350</v>
+      </c>
+      <c r="L175" s="32">
+        <v>0</v>
+      </c>
+      <c r="M175" s="32">
+        <v>1</v>
+      </c>
+      <c r="N175" s="32">
+        <v>0</v>
+      </c>
+      <c r="O175" s="32">
+        <v>350</v>
+      </c>
+      <c r="P175" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q175" s="32"/>
+      <c r="R175" s="32" t="s">
+        <v>419</v>
+      </c>
+      <c r="S175" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="T175" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="U175" s="32" t="s">
+        <v>353</v>
+      </c>
+      <c r="V175" s="32">
         <v>0</v>
       </c>
     </row>

--- a/_Out/NFDataCfg/Excel/Item.xlsx
+++ b/_Out/NFDataCfg/Excel/Item.xlsx
@@ -9,16 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27980" windowHeight="17540"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27940" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Property_scrolls-3-building" sheetId="5" r:id="rId1"/>
     <sheet name="Property_scrolls-3" sheetId="2" r:id="rId2"/>
     <sheet name="Property_supplies-2" sheetId="3" r:id="rId3"/>
-    <sheet name="Property_gem-1" sheetId="4" r:id="rId4"/>
-    <sheet name="Property_equipment-0" sheetId="1" r:id="rId5"/>
+    <sheet name="Property_itempack" sheetId="6" r:id="rId4"/>
+    <sheet name="Property_gem-1" sheetId="4" r:id="rId5"/>
+    <sheet name="Property_equipment-0" sheetId="1" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="4" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="0" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1547" uniqueCount="659">
   <si>
     <t>Id</t>
   </si>
@@ -933,15 +935,6 @@
     <t>Item_eneger_store_3</t>
   </si>
   <si>
-    <t>Item_connon_1</t>
-  </si>
-  <si>
-    <t>Item_connon_2</t>
-  </si>
-  <si>
-    <t>Item_connon_3</t>
-  </si>
-  <si>
     <t>Item_acid_1</t>
   </si>
   <si>
@@ -1023,15 +1016,6 @@
     <t>Item_laser_3</t>
   </si>
   <si>
-    <t>Item_macginegun_1</t>
-  </si>
-  <si>
-    <t>Item_macginegun_2</t>
-  </si>
-  <si>
-    <t>Item_macginegun_3</t>
-  </si>
-  <si>
     <t>Item_mortar_1</t>
   </si>
   <si>
@@ -1068,15 +1052,6 @@
     <t>Item_rocket_3</t>
   </si>
   <si>
-    <t>Item_rcopter_1</t>
-  </si>
-  <si>
-    <t>Item_rcopter_2</t>
-  </si>
-  <si>
-    <t>Item_rcopter_3</t>
-  </si>
-  <si>
     <t>Item_airship_1</t>
   </si>
   <si>
@@ -1149,15 +1124,6 @@
     <t>Desc_Item_eneger_store_3</t>
   </si>
   <si>
-    <t>Desc_Item_connon_1</t>
-  </si>
-  <si>
-    <t>Desc_Item_connon_2</t>
-  </si>
-  <si>
-    <t>Desc_Item_connon_3</t>
-  </si>
-  <si>
     <t>Desc_Item_acid_1</t>
   </si>
   <si>
@@ -1239,15 +1205,6 @@
     <t>Desc_Item_laser_3</t>
   </si>
   <si>
-    <t>Desc_Item_macginegun_1</t>
-  </si>
-  <si>
-    <t>Desc_Item_macginegun_2</t>
-  </si>
-  <si>
-    <t>Desc_Item_macginegun_3</t>
-  </si>
-  <si>
     <t>Desc_Item_mortar_1</t>
   </si>
   <si>
@@ -1284,15 +1241,6 @@
     <t>Desc_Item_rocket_3</t>
   </si>
   <si>
-    <t>Desc_Item_rcopter_1</t>
-  </si>
-  <si>
-    <t>Desc_Item_rcopter_2</t>
-  </si>
-  <si>
-    <t>Desc_Item_rcopter_3</t>
-  </si>
-  <si>
     <t>Desc_Item_airship_1</t>
   </si>
   <si>
@@ -1374,15 +1322,6 @@
     <t>Icon_Item_eneger_store_3</t>
   </si>
   <si>
-    <t>Icon_Item_connon_1</t>
-  </si>
-  <si>
-    <t>Icon_Item_connon_2</t>
-  </si>
-  <si>
-    <t>Icon_Item_connon_3</t>
-  </si>
-  <si>
     <t>Icon_Item_acid_1</t>
   </si>
   <si>
@@ -1464,15 +1403,6 @@
     <t>Icon_Item_laser_3</t>
   </si>
   <si>
-    <t>Icon_Item_macginegun_1</t>
-  </si>
-  <si>
-    <t>Icon_Item_macginegun_2</t>
-  </si>
-  <si>
-    <t>Icon_Item_macginegun_3</t>
-  </si>
-  <si>
     <t>Icon_Item_mortar_1</t>
   </si>
   <si>
@@ -1509,15 +1439,6 @@
     <t>Icon_Item_rocket_3</t>
   </si>
   <si>
-    <t>Icon_Item_rcopter_1</t>
-  </si>
-  <si>
-    <t>Icon_Item_rcopter_2</t>
-  </si>
-  <si>
-    <t>Icon_Item_rcopter_3</t>
-  </si>
-  <si>
     <t>Icon_Item_airship_1</t>
   </si>
   <si>
@@ -1599,15 +1520,6 @@
     <t>Name_Item_eneger_store_3</t>
   </si>
   <si>
-    <t>Name_Item_connon_1</t>
-  </si>
-  <si>
-    <t>Name_Item_connon_2</t>
-  </si>
-  <si>
-    <t>Name_Item_connon_3</t>
-  </si>
-  <si>
     <t>Name_Item_acid_1</t>
   </si>
   <si>
@@ -1689,15 +1601,6 @@
     <t>Name_Item_laser_3</t>
   </si>
   <si>
-    <t>Name_Item_macginegun_1</t>
-  </si>
-  <si>
-    <t>Name_Item_macginegun_2</t>
-  </si>
-  <si>
-    <t>Name_Item_macginegun_3</t>
-  </si>
-  <si>
     <t>Name_Item_mortar_1</t>
   </si>
   <si>
@@ -1734,15 +1637,6 @@
     <t>Name_Item_rocket_3</t>
   </si>
   <si>
-    <t>Name_Item_rcopter_1</t>
-  </si>
-  <si>
-    <t>Name_Item_rcopter_2</t>
-  </si>
-  <si>
-    <t>Name_Item_rcopter_3</t>
-  </si>
-  <si>
     <t>Name_Item_airship_1</t>
   </si>
   <si>
@@ -1848,15 +1742,6 @@
     <t>Building_NPC_eneger_store_3</t>
   </si>
   <si>
-    <t>Building_NPC_connon_1</t>
-  </si>
-  <si>
-    <t>Building_NPC_connon_2</t>
-  </si>
-  <si>
-    <t>Building_NPC_connon_3</t>
-  </si>
-  <si>
     <t>Building_NPC_acid_1</t>
   </si>
   <si>
@@ -1938,15 +1823,6 @@
     <t>Building_NPC_laser_3</t>
   </si>
   <si>
-    <t>Building_NPC_macginegun_1</t>
-  </si>
-  <si>
-    <t>Building_NPC_macginegun_2</t>
-  </si>
-  <si>
-    <t>Building_NPC_macginegun_3</t>
-  </si>
-  <si>
     <t>Building_NPC_mortar_1</t>
   </si>
   <si>
@@ -1983,15 +1859,6 @@
     <t>Building_NPC_rocket_3</t>
   </si>
   <si>
-    <t>Building_NPC_rcopter_1</t>
-  </si>
-  <si>
-    <t>Building_NPC_rcopter_2</t>
-  </si>
-  <si>
-    <t>Building_NPC_rcopter_3</t>
-  </si>
-  <si>
     <t>Building_NPC_airship_1</t>
   </si>
   <si>
@@ -2026,6 +1893,141 @@
   </si>
   <si>
     <t>Building_NPC_spine_3</t>
+  </si>
+  <si>
+    <t>Item_machinegun_1</t>
+  </si>
+  <si>
+    <t>Item_machinegun_2</t>
+  </si>
+  <si>
+    <t>Item_machinegun_3</t>
+  </si>
+  <si>
+    <t>Building_NPC_machinegun_1</t>
+  </si>
+  <si>
+    <t>Building_NPC_machinegun_2</t>
+  </si>
+  <si>
+    <t>Building_NPC_machinegun_3</t>
+  </si>
+  <si>
+    <t>Icon_Item_machinegun_1</t>
+  </si>
+  <si>
+    <t>Icon_Item_machinegun_2</t>
+  </si>
+  <si>
+    <t>Icon_Item_machinegun_3</t>
+  </si>
+  <si>
+    <t>Name_Item_machinegun_3</t>
+  </si>
+  <si>
+    <t>Name_Item_machinegun_2</t>
+  </si>
+  <si>
+    <t>Name_Item_machinegun_1</t>
+  </si>
+  <si>
+    <t>Name_Item_copter_1</t>
+  </si>
+  <si>
+    <t>Name_Item_copter_2</t>
+  </si>
+  <si>
+    <t>Name_Item_copter_3</t>
+  </si>
+  <si>
+    <t>Icon_Item_copter_1</t>
+  </si>
+  <si>
+    <t>Icon_Item_copter_2</t>
+  </si>
+  <si>
+    <t>Icon_Item_copter_3</t>
+  </si>
+  <si>
+    <t>Building_NPC_copter_1</t>
+  </si>
+  <si>
+    <t>Building_NPC_copter_2</t>
+  </si>
+  <si>
+    <t>Building_NPC_copter_3</t>
+  </si>
+  <si>
+    <t>Desc_Item_copter_1</t>
+  </si>
+  <si>
+    <t>Desc_Item_copter_2</t>
+  </si>
+  <si>
+    <t>Desc_Item_copter_3</t>
+  </si>
+  <si>
+    <t>Item_copter_1</t>
+  </si>
+  <si>
+    <t>Item_copter_2</t>
+  </si>
+  <si>
+    <t>Item_copter_3</t>
+  </si>
+  <si>
+    <t>Item_cannon_1</t>
+  </si>
+  <si>
+    <t>Item_cannon_2</t>
+  </si>
+  <si>
+    <t>Item_cannon_3</t>
+  </si>
+  <si>
+    <t>Desc_Item_cannon_1</t>
+  </si>
+  <si>
+    <t>Desc_Item_cannon_2</t>
+  </si>
+  <si>
+    <t>Desc_Item_cannon_3</t>
+  </si>
+  <si>
+    <t>Name_Item_cannon_1</t>
+  </si>
+  <si>
+    <t>Name_Item_cannon_2</t>
+  </si>
+  <si>
+    <t>Name_Item_cannon_3</t>
+  </si>
+  <si>
+    <t>Icon_Item_cannon_1</t>
+  </si>
+  <si>
+    <t>Icon_Item_cannon_2</t>
+  </si>
+  <si>
+    <t>Icon_Item_cannon_3</t>
+  </si>
+  <si>
+    <t>Building_NPC_cannon_1</t>
+  </si>
+  <si>
+    <t>Building_NPC_cannon_2</t>
+  </si>
+  <si>
+    <t>Building_NPC_cannon_3</t>
+  </si>
+  <si>
+    <t>Desc_Item_machinegun_1</t>
+  </si>
+  <si>
+    <t>Desc_Item_machinegun_2</t>
+  </si>
+  <si>
+    <t>Desc_Item_machinegun_3</t>
   </si>
 </sst>
 </file>
@@ -2678,10 +2680,10 @@
   <dimension ref="A1:V88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="10" topLeftCell="L11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="10" topLeftCell="P44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R11" sqref="R11:R88"/>
+      <selection pane="bottomRight" activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3406,7 +3408,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
@@ -3431,16 +3433,16 @@
       </c>
       <c r="Q11" s="17"/>
       <c r="R11" s="17" t="s">
-        <v>584</v>
+        <v>548</v>
       </c>
       <c r="S11" s="15" t="s">
         <v>67</v>
       </c>
       <c r="T11" s="17" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="U11" s="17" t="s">
-        <v>501</v>
+        <v>474</v>
       </c>
       <c r="V11" s="17">
         <v>0</v>
@@ -3464,7 +3466,7 @@
         <v>2</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
@@ -3489,16 +3491,16 @@
       </c>
       <c r="Q12" s="17"/>
       <c r="R12" s="17" t="s">
-        <v>585</v>
+        <v>549</v>
       </c>
       <c r="S12" s="15" t="s">
         <v>67</v>
       </c>
       <c r="T12" s="17" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="U12" s="17" t="s">
-        <v>502</v>
+        <v>475</v>
       </c>
       <c r="V12" s="17">
         <v>0</v>
@@ -3522,7 +3524,7 @@
         <v>3</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
@@ -3547,16 +3549,16 @@
       </c>
       <c r="Q13" s="17"/>
       <c r="R13" s="17" t="s">
-        <v>586</v>
+        <v>550</v>
       </c>
       <c r="S13" s="15" t="s">
         <v>67</v>
       </c>
       <c r="T13" s="17" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="U13" s="17" t="s">
-        <v>503</v>
+        <v>476</v>
       </c>
       <c r="V13" s="17">
         <v>0</v>
@@ -3580,7 +3582,7 @@
         <v>4</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
@@ -3605,16 +3607,16 @@
       </c>
       <c r="Q14" s="17"/>
       <c r="R14" s="17" t="s">
-        <v>587</v>
+        <v>551</v>
       </c>
       <c r="S14" s="15" t="s">
         <v>67</v>
       </c>
       <c r="T14" s="17" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="U14" s="17" t="s">
-        <v>504</v>
+        <v>477</v>
       </c>
       <c r="V14" s="17">
         <v>0</v>
@@ -3638,7 +3640,7 @@
         <v>5</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
@@ -3663,16 +3665,16 @@
       </c>
       <c r="Q15" s="17"/>
       <c r="R15" s="17" t="s">
-        <v>588</v>
+        <v>552</v>
       </c>
       <c r="S15" s="15" t="s">
         <v>67</v>
       </c>
       <c r="T15" s="17" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="U15" s="17" t="s">
-        <v>505</v>
+        <v>478</v>
       </c>
       <c r="V15" s="17">
         <v>0</v>
@@ -3696,7 +3698,7 @@
         <v>6</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
@@ -3721,16 +3723,16 @@
       </c>
       <c r="Q16" s="17"/>
       <c r="R16" s="17" t="s">
-        <v>589</v>
+        <v>553</v>
       </c>
       <c r="S16" s="15" t="s">
         <v>67</v>
       </c>
       <c r="T16" s="17" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
       <c r="U16" s="17" t="s">
-        <v>506</v>
+        <v>479</v>
       </c>
       <c r="V16" s="17">
         <v>0</v>
@@ -3754,7 +3756,7 @@
         <v>7</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
@@ -3779,16 +3781,16 @@
       </c>
       <c r="Q17" s="17"/>
       <c r="R17" s="17" t="s">
-        <v>590</v>
+        <v>554</v>
       </c>
       <c r="S17" s="15" t="s">
         <v>67</v>
       </c>
       <c r="T17" s="17" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="U17" s="17" t="s">
-        <v>507</v>
+        <v>480</v>
       </c>
       <c r="V17" s="17">
         <v>0</v>
@@ -3812,7 +3814,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
@@ -3837,16 +3839,16 @@
       </c>
       <c r="Q18" s="17"/>
       <c r="R18" s="17" t="s">
-        <v>591</v>
+        <v>555</v>
       </c>
       <c r="S18" s="15" t="s">
         <v>67</v>
       </c>
       <c r="T18" s="17" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="U18" s="17" t="s">
-        <v>508</v>
+        <v>481</v>
       </c>
       <c r="V18" s="17">
         <v>0</v>
@@ -3870,7 +3872,7 @@
         <v>2</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
@@ -3895,16 +3897,16 @@
       </c>
       <c r="Q19" s="17"/>
       <c r="R19" s="17" t="s">
-        <v>592</v>
+        <v>556</v>
       </c>
       <c r="S19" s="15" t="s">
         <v>67</v>
       </c>
       <c r="T19" s="17" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="U19" s="17" t="s">
-        <v>509</v>
+        <v>482</v>
       </c>
       <c r="V19" s="17">
         <v>0</v>
@@ -3928,7 +3930,7 @@
         <v>3</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
@@ -3953,16 +3955,16 @@
       </c>
       <c r="Q20" s="17"/>
       <c r="R20" s="17" t="s">
-        <v>593</v>
+        <v>557</v>
       </c>
       <c r="S20" s="15" t="s">
         <v>67</v>
       </c>
       <c r="T20" s="17" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="U20" s="17" t="s">
-        <v>510</v>
+        <v>483</v>
       </c>
       <c r="V20" s="17">
         <v>0</v>
@@ -3986,7 +3988,7 @@
         <v>4</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
@@ -4011,16 +4013,16 @@
       </c>
       <c r="Q21" s="17"/>
       <c r="R21" s="17" t="s">
-        <v>594</v>
+        <v>558</v>
       </c>
       <c r="S21" s="15" t="s">
         <v>67</v>
       </c>
       <c r="T21" s="17" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="U21" s="17" t="s">
-        <v>511</v>
+        <v>484</v>
       </c>
       <c r="V21" s="17">
         <v>0</v>
@@ -4044,7 +4046,7 @@
         <v>5</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
@@ -4069,16 +4071,16 @@
       </c>
       <c r="Q22" s="17"/>
       <c r="R22" s="17" t="s">
-        <v>595</v>
+        <v>559</v>
       </c>
       <c r="S22" s="15" t="s">
         <v>67</v>
       </c>
       <c r="T22" s="17" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="U22" s="17" t="s">
-        <v>512</v>
+        <v>485</v>
       </c>
       <c r="V22" s="17">
         <v>0</v>
@@ -4102,7 +4104,7 @@
         <v>6</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
@@ -4127,16 +4129,16 @@
       </c>
       <c r="Q23" s="17"/>
       <c r="R23" s="17" t="s">
-        <v>596</v>
+        <v>560</v>
       </c>
       <c r="S23" s="15" t="s">
         <v>67</v>
       </c>
       <c r="T23" s="17" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="U23" s="17" t="s">
-        <v>513</v>
+        <v>486</v>
       </c>
       <c r="V23" s="17">
         <v>0</v>
@@ -4160,7 +4162,7 @@
         <v>7</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="H24" s="17"/>
       <c r="I24" s="17"/>
@@ -4185,16 +4187,16 @@
       </c>
       <c r="Q24" s="17"/>
       <c r="R24" s="17" t="s">
-        <v>597</v>
+        <v>561</v>
       </c>
       <c r="S24" s="15" t="s">
         <v>67</v>
       </c>
       <c r="T24" s="17" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="U24" s="17" t="s">
-        <v>514</v>
+        <v>487</v>
       </c>
       <c r="V24" s="17">
         <v>0</v>
@@ -4218,7 +4220,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="H25" s="17"/>
       <c r="I25" s="17"/>
@@ -4243,16 +4245,16 @@
       </c>
       <c r="Q25" s="17"/>
       <c r="R25" s="17" t="s">
-        <v>598</v>
+        <v>562</v>
       </c>
       <c r="S25" s="15" t="s">
         <v>67</v>
       </c>
       <c r="T25" s="17" t="s">
-        <v>440</v>
+        <v>422</v>
       </c>
       <c r="U25" s="17" t="s">
-        <v>515</v>
+        <v>488</v>
       </c>
       <c r="V25" s="17">
         <v>0</v>
@@ -4260,7 +4262,7 @@
     </row>
     <row r="26" spans="1:22" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="38" t="s">
-        <v>294</v>
+        <v>641</v>
       </c>
       <c r="B26" s="17">
         <v>3</v>
@@ -4276,7 +4278,7 @@
         <v>2</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>366</v>
+        <v>644</v>
       </c>
       <c r="H26" s="17"/>
       <c r="I26" s="17"/>
@@ -4301,16 +4303,16 @@
       </c>
       <c r="Q26" s="17"/>
       <c r="R26" s="17" t="s">
-        <v>599</v>
+        <v>653</v>
       </c>
       <c r="S26" s="15" t="s">
         <v>67</v>
       </c>
       <c r="T26" s="17" t="s">
-        <v>441</v>
+        <v>650</v>
       </c>
       <c r="U26" s="17" t="s">
-        <v>516</v>
+        <v>647</v>
       </c>
       <c r="V26" s="17">
         <v>0</v>
@@ -4318,7 +4320,7 @@
     </row>
     <row r="27" spans="1:22" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="38" t="s">
-        <v>295</v>
+        <v>642</v>
       </c>
       <c r="B27" s="17">
         <v>3</v>
@@ -4334,7 +4336,7 @@
         <v>3</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>367</v>
+        <v>645</v>
       </c>
       <c r="H27" s="17"/>
       <c r="I27" s="17"/>
@@ -4359,16 +4361,16 @@
       </c>
       <c r="Q27" s="17"/>
       <c r="R27" s="17" t="s">
-        <v>600</v>
+        <v>654</v>
       </c>
       <c r="S27" s="15" t="s">
         <v>67</v>
       </c>
       <c r="T27" s="17" t="s">
-        <v>442</v>
+        <v>651</v>
       </c>
       <c r="U27" s="17" t="s">
-        <v>517</v>
+        <v>648</v>
       </c>
       <c r="V27" s="17">
         <v>0</v>
@@ -4376,7 +4378,7 @@
     </row>
     <row r="28" spans="1:22" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="38" t="s">
-        <v>296</v>
+        <v>643</v>
       </c>
       <c r="B28" s="17">
         <v>3</v>
@@ -4392,7 +4394,7 @@
         <v>4</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>368</v>
+        <v>646</v>
       </c>
       <c r="H28" s="17"/>
       <c r="I28" s="17"/>
@@ -4417,16 +4419,16 @@
       </c>
       <c r="Q28" s="17"/>
       <c r="R28" s="17" t="s">
-        <v>601</v>
+        <v>655</v>
       </c>
       <c r="S28" s="15" t="s">
         <v>67</v>
       </c>
       <c r="T28" s="17" t="s">
-        <v>443</v>
+        <v>652</v>
       </c>
       <c r="U28" s="17" t="s">
-        <v>518</v>
+        <v>649</v>
       </c>
       <c r="V28" s="17">
         <v>0</v>
@@ -4434,7 +4436,7 @@
     </row>
     <row r="29" spans="1:22" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="38" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B29" s="17">
         <v>3</v>
@@ -4450,7 +4452,7 @@
         <v>5</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="H29" s="17"/>
       <c r="I29" s="17"/>
@@ -4475,16 +4477,16 @@
       </c>
       <c r="Q29" s="17"/>
       <c r="R29" s="17" t="s">
-        <v>602</v>
+        <v>563</v>
       </c>
       <c r="S29" s="15" t="s">
         <v>67</v>
       </c>
       <c r="T29" s="17" t="s">
-        <v>444</v>
+        <v>423</v>
       </c>
       <c r="U29" s="17" t="s">
-        <v>519</v>
+        <v>489</v>
       </c>
       <c r="V29" s="17">
         <v>0</v>
@@ -4492,7 +4494,7 @@
     </row>
     <row r="30" spans="1:22" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="38" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B30" s="17">
         <v>3</v>
@@ -4508,7 +4510,7 @@
         <v>6</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="H30" s="17"/>
       <c r="I30" s="17"/>
@@ -4533,16 +4535,16 @@
       </c>
       <c r="Q30" s="17"/>
       <c r="R30" s="17" t="s">
-        <v>603</v>
+        <v>564</v>
       </c>
       <c r="S30" s="15" t="s">
         <v>67</v>
       </c>
       <c r="T30" s="17" t="s">
-        <v>445</v>
+        <v>424</v>
       </c>
       <c r="U30" s="17" t="s">
-        <v>520</v>
+        <v>490</v>
       </c>
       <c r="V30" s="17">
         <v>0</v>
@@ -4550,7 +4552,7 @@
     </row>
     <row r="31" spans="1:22" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="38" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B31" s="17">
         <v>3</v>
@@ -4566,7 +4568,7 @@
         <v>7</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
@@ -4591,16 +4593,16 @@
       </c>
       <c r="Q31" s="17"/>
       <c r="R31" s="17" t="s">
-        <v>604</v>
+        <v>565</v>
       </c>
       <c r="S31" s="15" t="s">
         <v>67</v>
       </c>
       <c r="T31" s="17" t="s">
-        <v>446</v>
+        <v>425</v>
       </c>
       <c r="U31" s="17" t="s">
-        <v>521</v>
+        <v>491</v>
       </c>
       <c r="V31" s="17">
         <v>0</v>
@@ -4608,7 +4610,7 @@
     </row>
     <row r="32" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="38" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B32" s="17">
         <v>3</v>
@@ -4624,7 +4626,7 @@
         <v>7</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
@@ -4649,16 +4651,16 @@
       </c>
       <c r="Q32" s="17"/>
       <c r="R32" s="17" t="s">
-        <v>605</v>
+        <v>566</v>
       </c>
       <c r="S32" s="15" t="s">
         <v>67</v>
       </c>
       <c r="T32" s="17" t="s">
-        <v>447</v>
+        <v>426</v>
       </c>
       <c r="U32" s="17" t="s">
-        <v>522</v>
+        <v>492</v>
       </c>
       <c r="V32" s="17">
         <v>0</v>
@@ -4666,7 +4668,7 @@
     </row>
     <row r="33" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="38" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B33" s="17">
         <v>3</v>
@@ -4682,7 +4684,7 @@
         <v>7</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="H33" s="17"/>
       <c r="I33" s="17"/>
@@ -4707,16 +4709,16 @@
       </c>
       <c r="Q33" s="17"/>
       <c r="R33" s="17" t="s">
-        <v>606</v>
+        <v>567</v>
       </c>
       <c r="S33" s="15" t="s">
         <v>67</v>
       </c>
       <c r="T33" s="17" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
       <c r="U33" s="17" t="s">
-        <v>523</v>
+        <v>493</v>
       </c>
       <c r="V33" s="17">
         <v>0</v>
@@ -4724,7 +4726,7 @@
     </row>
     <row r="34" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="38" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B34" s="17">
         <v>3</v>
@@ -4740,7 +4742,7 @@
         <v>7</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="H34" s="17"/>
       <c r="I34" s="17"/>
@@ -4765,16 +4767,16 @@
       </c>
       <c r="Q34" s="17"/>
       <c r="R34" s="17" t="s">
-        <v>607</v>
+        <v>568</v>
       </c>
       <c r="S34" s="15" t="s">
         <v>67</v>
       </c>
       <c r="T34" s="17" t="s">
-        <v>449</v>
+        <v>428</v>
       </c>
       <c r="U34" s="17" t="s">
-        <v>524</v>
+        <v>494</v>
       </c>
       <c r="V34" s="17">
         <v>0</v>
@@ -4782,7 +4784,7 @@
     </row>
     <row r="35" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="38" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B35" s="17">
         <v>3</v>
@@ -4798,7 +4800,7 @@
         <v>7</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="H35" s="17"/>
       <c r="I35" s="17"/>
@@ -4823,16 +4825,16 @@
       </c>
       <c r="Q35" s="17"/>
       <c r="R35" s="17" t="s">
-        <v>608</v>
+        <v>569</v>
       </c>
       <c r="S35" s="15" t="s">
         <v>67</v>
       </c>
       <c r="T35" s="17" t="s">
-        <v>450</v>
+        <v>429</v>
       </c>
       <c r="U35" s="17" t="s">
-        <v>525</v>
+        <v>495</v>
       </c>
       <c r="V35" s="17">
         <v>0</v>
@@ -4840,7 +4842,7 @@
     </row>
     <row r="36" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="38" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B36" s="17">
         <v>3</v>
@@ -4856,7 +4858,7 @@
         <v>7</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="H36" s="17"/>
       <c r="I36" s="17"/>
@@ -4881,16 +4883,16 @@
       </c>
       <c r="Q36" s="17"/>
       <c r="R36" s="17" t="s">
-        <v>609</v>
+        <v>570</v>
       </c>
       <c r="S36" s="15" t="s">
         <v>67</v>
       </c>
       <c r="T36" s="17" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="U36" s="17" t="s">
-        <v>526</v>
+        <v>496</v>
       </c>
       <c r="V36" s="17">
         <v>0</v>
@@ -4898,7 +4900,7 @@
     </row>
     <row r="37" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="38" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B37" s="17">
         <v>3</v>
@@ -4914,7 +4916,7 @@
         <v>7</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="H37" s="17"/>
       <c r="I37" s="17"/>
@@ -4939,16 +4941,16 @@
       </c>
       <c r="Q37" s="17"/>
       <c r="R37" s="17" t="s">
-        <v>610</v>
+        <v>571</v>
       </c>
       <c r="S37" s="15" t="s">
         <v>67</v>
       </c>
       <c r="T37" s="17" t="s">
-        <v>452</v>
+        <v>431</v>
       </c>
       <c r="U37" s="17" t="s">
-        <v>527</v>
+        <v>497</v>
       </c>
       <c r="V37" s="17">
         <v>0</v>
@@ -4956,7 +4958,7 @@
     </row>
     <row r="38" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="38" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B38" s="17">
         <v>3</v>
@@ -4972,7 +4974,7 @@
         <v>7</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="H38" s="17"/>
       <c r="I38" s="17"/>
@@ -4997,16 +4999,16 @@
       </c>
       <c r="Q38" s="17"/>
       <c r="R38" s="17" t="s">
-        <v>611</v>
+        <v>572</v>
       </c>
       <c r="S38" s="15" t="s">
         <v>67</v>
       </c>
       <c r="T38" s="17" t="s">
-        <v>453</v>
+        <v>432</v>
       </c>
       <c r="U38" s="17" t="s">
-        <v>528</v>
+        <v>498</v>
       </c>
       <c r="V38" s="17">
         <v>0</v>
@@ -5014,7 +5016,7 @@
     </row>
     <row r="39" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="38" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B39" s="17">
         <v>3</v>
@@ -5030,7 +5032,7 @@
         <v>7</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="H39" s="17"/>
       <c r="I39" s="17"/>
@@ -5055,16 +5057,16 @@
       </c>
       <c r="Q39" s="17"/>
       <c r="R39" s="17" t="s">
-        <v>612</v>
+        <v>573</v>
       </c>
       <c r="S39" s="15" t="s">
         <v>67</v>
       </c>
       <c r="T39" s="17" t="s">
-        <v>454</v>
+        <v>433</v>
       </c>
       <c r="U39" s="17" t="s">
-        <v>529</v>
+        <v>499</v>
       </c>
       <c r="V39" s="17">
         <v>0</v>
@@ -5072,7 +5074,7 @@
     </row>
     <row r="40" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="38" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B40" s="17">
         <v>3</v>
@@ -5088,7 +5090,7 @@
         <v>7</v>
       </c>
       <c r="G40" s="17" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="H40" s="17"/>
       <c r="I40" s="17"/>
@@ -5113,16 +5115,16 @@
       </c>
       <c r="Q40" s="17"/>
       <c r="R40" s="17" t="s">
-        <v>613</v>
+        <v>574</v>
       </c>
       <c r="S40" s="15" t="s">
         <v>67</v>
       </c>
       <c r="T40" s="17" t="s">
-        <v>455</v>
+        <v>434</v>
       </c>
       <c r="U40" s="17" t="s">
-        <v>530</v>
+        <v>500</v>
       </c>
       <c r="V40" s="17">
         <v>0</v>
@@ -5130,7 +5132,7 @@
     </row>
     <row r="41" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="38" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B41" s="17">
         <v>3</v>
@@ -5146,7 +5148,7 @@
         <v>7</v>
       </c>
       <c r="G41" s="17" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
@@ -5171,16 +5173,16 @@
       </c>
       <c r="Q41" s="17"/>
       <c r="R41" s="17" t="s">
-        <v>614</v>
+        <v>575</v>
       </c>
       <c r="S41" s="15" t="s">
         <v>67</v>
       </c>
       <c r="T41" s="17" t="s">
-        <v>456</v>
+        <v>435</v>
       </c>
       <c r="U41" s="17" t="s">
-        <v>531</v>
+        <v>501</v>
       </c>
       <c r="V41" s="17">
         <v>0</v>
@@ -5188,7 +5190,7 @@
     </row>
     <row r="42" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="38" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B42" s="17">
         <v>3</v>
@@ -5204,7 +5206,7 @@
         <v>7</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
@@ -5229,16 +5231,16 @@
       </c>
       <c r="Q42" s="17"/>
       <c r="R42" s="17" t="s">
-        <v>615</v>
+        <v>576</v>
       </c>
       <c r="S42" s="15" t="s">
         <v>67</v>
       </c>
       <c r="T42" s="17" t="s">
-        <v>457</v>
+        <v>436</v>
       </c>
       <c r="U42" s="17" t="s">
-        <v>532</v>
+        <v>502</v>
       </c>
       <c r="V42" s="17">
         <v>0</v>
@@ -5246,7 +5248,7 @@
     </row>
     <row r="43" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="38" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B43" s="17">
         <v>3</v>
@@ -5262,7 +5264,7 @@
         <v>7</v>
       </c>
       <c r="G43" s="17" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="H43" s="17"/>
       <c r="I43" s="17"/>
@@ -5287,16 +5289,16 @@
       </c>
       <c r="Q43" s="17"/>
       <c r="R43" s="17" t="s">
-        <v>616</v>
+        <v>577</v>
       </c>
       <c r="S43" s="15" t="s">
         <v>67</v>
       </c>
       <c r="T43" s="17" t="s">
-        <v>458</v>
+        <v>437</v>
       </c>
       <c r="U43" s="17" t="s">
-        <v>533</v>
+        <v>503</v>
       </c>
       <c r="V43" s="17">
         <v>0</v>
@@ -5304,7 +5306,7 @@
     </row>
     <row r="44" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="38" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B44" s="17">
         <v>3</v>
@@ -5320,7 +5322,7 @@
         <v>7</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="H44" s="17"/>
       <c r="I44" s="17"/>
@@ -5345,16 +5347,16 @@
       </c>
       <c r="Q44" s="17"/>
       <c r="R44" s="17" t="s">
-        <v>617</v>
+        <v>578</v>
       </c>
       <c r="S44" s="15" t="s">
         <v>67</v>
       </c>
       <c r="T44" s="17" t="s">
-        <v>459</v>
+        <v>438</v>
       </c>
       <c r="U44" s="17" t="s">
-        <v>534</v>
+        <v>504</v>
       </c>
       <c r="V44" s="17">
         <v>0</v>
@@ -5362,7 +5364,7 @@
     </row>
     <row r="45" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="38" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B45" s="17">
         <v>3</v>
@@ -5378,7 +5380,7 @@
         <v>7</v>
       </c>
       <c r="G45" s="17" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="H45" s="17"/>
       <c r="I45" s="17"/>
@@ -5403,16 +5405,16 @@
       </c>
       <c r="Q45" s="17"/>
       <c r="R45" s="17" t="s">
-        <v>618</v>
+        <v>579</v>
       </c>
       <c r="S45" s="15" t="s">
         <v>67</v>
       </c>
       <c r="T45" s="17" t="s">
-        <v>460</v>
+        <v>439</v>
       </c>
       <c r="U45" s="17" t="s">
-        <v>535</v>
+        <v>505</v>
       </c>
       <c r="V45" s="17">
         <v>0</v>
@@ -5420,7 +5422,7 @@
     </row>
     <row r="46" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="38" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B46" s="17">
         <v>3</v>
@@ -5436,7 +5438,7 @@
         <v>7</v>
       </c>
       <c r="G46" s="17" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="H46" s="17"/>
       <c r="I46" s="17"/>
@@ -5461,16 +5463,16 @@
       </c>
       <c r="Q46" s="17"/>
       <c r="R46" s="17" t="s">
-        <v>619</v>
+        <v>580</v>
       </c>
       <c r="S46" s="15" t="s">
         <v>67</v>
       </c>
       <c r="T46" s="17" t="s">
-        <v>461</v>
+        <v>440</v>
       </c>
       <c r="U46" s="17" t="s">
-        <v>536</v>
+        <v>506</v>
       </c>
       <c r="V46" s="17">
         <v>0</v>
@@ -5478,7 +5480,7 @@
     </row>
     <row r="47" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="38" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B47" s="17">
         <v>3</v>
@@ -5494,7 +5496,7 @@
         <v>7</v>
       </c>
       <c r="G47" s="17" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="H47" s="17"/>
       <c r="I47" s="17"/>
@@ -5519,16 +5521,16 @@
       </c>
       <c r="Q47" s="17"/>
       <c r="R47" s="17" t="s">
-        <v>620</v>
+        <v>581</v>
       </c>
       <c r="S47" s="15" t="s">
         <v>67</v>
       </c>
       <c r="T47" s="17" t="s">
-        <v>462</v>
+        <v>441</v>
       </c>
       <c r="U47" s="17" t="s">
-        <v>537</v>
+        <v>507</v>
       </c>
       <c r="V47" s="17">
         <v>0</v>
@@ -5536,7 +5538,7 @@
     </row>
     <row r="48" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="38" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B48" s="17">
         <v>3</v>
@@ -5552,7 +5554,7 @@
         <v>7</v>
       </c>
       <c r="G48" s="17" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="H48" s="17"/>
       <c r="I48" s="17"/>
@@ -5577,16 +5579,16 @@
       </c>
       <c r="Q48" s="17"/>
       <c r="R48" s="17" t="s">
-        <v>621</v>
+        <v>582</v>
       </c>
       <c r="S48" s="15" t="s">
         <v>67</v>
       </c>
       <c r="T48" s="17" t="s">
-        <v>463</v>
+        <v>442</v>
       </c>
       <c r="U48" s="17" t="s">
-        <v>538</v>
+        <v>508</v>
       </c>
       <c r="V48" s="17">
         <v>0</v>
@@ -5594,7 +5596,7 @@
     </row>
     <row r="49" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="38" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B49" s="17">
         <v>3</v>
@@ -5610,7 +5612,7 @@
         <v>7</v>
       </c>
       <c r="G49" s="17" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="H49" s="17"/>
       <c r="I49" s="17"/>
@@ -5635,16 +5637,16 @@
       </c>
       <c r="Q49" s="17"/>
       <c r="R49" s="17" t="s">
-        <v>622</v>
+        <v>583</v>
       </c>
       <c r="S49" s="15" t="s">
         <v>67</v>
       </c>
       <c r="T49" s="17" t="s">
-        <v>464</v>
+        <v>443</v>
       </c>
       <c r="U49" s="17" t="s">
-        <v>539</v>
+        <v>509</v>
       </c>
       <c r="V49" s="17">
         <v>0</v>
@@ -5652,7 +5654,7 @@
     </row>
     <row r="50" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="38" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B50" s="17">
         <v>3</v>
@@ -5668,7 +5670,7 @@
         <v>7</v>
       </c>
       <c r="G50" s="17" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="H50" s="17"/>
       <c r="I50" s="17"/>
@@ -5693,16 +5695,16 @@
       </c>
       <c r="Q50" s="17"/>
       <c r="R50" s="17" t="s">
-        <v>623</v>
+        <v>584</v>
       </c>
       <c r="S50" s="15" t="s">
         <v>67</v>
       </c>
       <c r="T50" s="17" t="s">
-        <v>465</v>
+        <v>444</v>
       </c>
       <c r="U50" s="17" t="s">
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="V50" s="17">
         <v>0</v>
@@ -5710,7 +5712,7 @@
     </row>
     <row r="51" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="38" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B51" s="17">
         <v>3</v>
@@ -5726,7 +5728,7 @@
         <v>7</v>
       </c>
       <c r="G51" s="17" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
@@ -5751,16 +5753,16 @@
       </c>
       <c r="Q51" s="17"/>
       <c r="R51" s="17" t="s">
-        <v>624</v>
+        <v>585</v>
       </c>
       <c r="S51" s="15" t="s">
         <v>67</v>
       </c>
       <c r="T51" s="17" t="s">
-        <v>466</v>
+        <v>445</v>
       </c>
       <c r="U51" s="17" t="s">
-        <v>541</v>
+        <v>511</v>
       </c>
       <c r="V51" s="17">
         <v>0</v>
@@ -5768,7 +5770,7 @@
     </row>
     <row r="52" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="38" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B52" s="17">
         <v>3</v>
@@ -5784,7 +5786,7 @@
         <v>7</v>
       </c>
       <c r="G52" s="17" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
@@ -5809,16 +5811,16 @@
       </c>
       <c r="Q52" s="17"/>
       <c r="R52" s="17" t="s">
-        <v>625</v>
+        <v>586</v>
       </c>
       <c r="S52" s="15" t="s">
         <v>67</v>
       </c>
       <c r="T52" s="17" t="s">
-        <v>467</v>
+        <v>446</v>
       </c>
       <c r="U52" s="17" t="s">
-        <v>542</v>
+        <v>512</v>
       </c>
       <c r="V52" s="17">
         <v>0</v>
@@ -5826,7 +5828,7 @@
     </row>
     <row r="53" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="38" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B53" s="17">
         <v>3</v>
@@ -5842,7 +5844,7 @@
         <v>7</v>
       </c>
       <c r="G53" s="17" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="H53" s="17"/>
       <c r="I53" s="17"/>
@@ -5867,16 +5869,16 @@
       </c>
       <c r="Q53" s="17"/>
       <c r="R53" s="17" t="s">
-        <v>626</v>
+        <v>587</v>
       </c>
       <c r="S53" s="15" t="s">
         <v>67</v>
       </c>
       <c r="T53" s="17" t="s">
-        <v>468</v>
+        <v>447</v>
       </c>
       <c r="U53" s="17" t="s">
-        <v>543</v>
+        <v>513</v>
       </c>
       <c r="V53" s="17">
         <v>0</v>
@@ -5884,7 +5886,7 @@
     </row>
     <row r="54" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="38" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B54" s="17">
         <v>3</v>
@@ -5900,7 +5902,7 @@
         <v>7</v>
       </c>
       <c r="G54" s="17" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="H54" s="17"/>
       <c r="I54" s="17"/>
@@ -5925,16 +5927,16 @@
       </c>
       <c r="Q54" s="17"/>
       <c r="R54" s="17" t="s">
-        <v>627</v>
+        <v>588</v>
       </c>
       <c r="S54" s="15" t="s">
         <v>67</v>
       </c>
       <c r="T54" s="17" t="s">
-        <v>469</v>
+        <v>448</v>
       </c>
       <c r="U54" s="17" t="s">
-        <v>544</v>
+        <v>514</v>
       </c>
       <c r="V54" s="17">
         <v>0</v>
@@ -5942,7 +5944,7 @@
     </row>
     <row r="55" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="38" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B55" s="17">
         <v>3</v>
@@ -5958,7 +5960,7 @@
         <v>7</v>
       </c>
       <c r="G55" s="17" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="H55" s="17"/>
       <c r="I55" s="17"/>
@@ -5983,16 +5985,16 @@
       </c>
       <c r="Q55" s="17"/>
       <c r="R55" s="17" t="s">
-        <v>628</v>
+        <v>589</v>
       </c>
       <c r="S55" s="15" t="s">
         <v>67</v>
       </c>
       <c r="T55" s="17" t="s">
-        <v>470</v>
+        <v>449</v>
       </c>
       <c r="U55" s="17" t="s">
-        <v>545</v>
+        <v>515</v>
       </c>
       <c r="V55" s="17">
         <v>0</v>
@@ -6000,7 +6002,7 @@
     </row>
     <row r="56" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="38" t="s">
-        <v>324</v>
+        <v>614</v>
       </c>
       <c r="B56" s="17">
         <v>3</v>
@@ -6016,7 +6018,7 @@
         <v>7</v>
       </c>
       <c r="G56" s="17" t="s">
-        <v>396</v>
+        <v>656</v>
       </c>
       <c r="H56" s="17"/>
       <c r="I56" s="17"/>
@@ -6041,16 +6043,16 @@
       </c>
       <c r="Q56" s="17"/>
       <c r="R56" s="17" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="S56" s="15" t="s">
         <v>67</v>
       </c>
       <c r="T56" s="17" t="s">
-        <v>471</v>
+        <v>620</v>
       </c>
       <c r="U56" s="17" t="s">
-        <v>546</v>
+        <v>625</v>
       </c>
       <c r="V56" s="17">
         <v>0</v>
@@ -6058,7 +6060,7 @@
     </row>
     <row r="57" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="38" t="s">
-        <v>325</v>
+        <v>615</v>
       </c>
       <c r="B57" s="17">
         <v>3</v>
@@ -6074,7 +6076,7 @@
         <v>7</v>
       </c>
       <c r="G57" s="17" t="s">
-        <v>397</v>
+        <v>657</v>
       </c>
       <c r="H57" s="17"/>
       <c r="I57" s="17"/>
@@ -6099,16 +6101,16 @@
       </c>
       <c r="Q57" s="17"/>
       <c r="R57" s="17" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
       <c r="S57" s="15" t="s">
         <v>67</v>
       </c>
       <c r="T57" s="17" t="s">
-        <v>472</v>
+        <v>621</v>
       </c>
       <c r="U57" s="17" t="s">
-        <v>547</v>
+        <v>624</v>
       </c>
       <c r="V57" s="17">
         <v>0</v>
@@ -6116,7 +6118,7 @@
     </row>
     <row r="58" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="38" t="s">
-        <v>326</v>
+        <v>616</v>
       </c>
       <c r="B58" s="17">
         <v>3</v>
@@ -6132,7 +6134,7 @@
         <v>7</v>
       </c>
       <c r="G58" s="17" t="s">
-        <v>398</v>
+        <v>658</v>
       </c>
       <c r="H58" s="17"/>
       <c r="I58" s="17"/>
@@ -6157,16 +6159,16 @@
       </c>
       <c r="Q58" s="17"/>
       <c r="R58" s="17" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
       <c r="S58" s="15" t="s">
         <v>67</v>
       </c>
       <c r="T58" s="17" t="s">
-        <v>473</v>
+        <v>622</v>
       </c>
       <c r="U58" s="17" t="s">
-        <v>548</v>
+        <v>623</v>
       </c>
       <c r="V58" s="17">
         <v>0</v>
@@ -6174,7 +6176,7 @@
     </row>
     <row r="59" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="38" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B59" s="17">
         <v>3</v>
@@ -6190,7 +6192,7 @@
         <v>7</v>
       </c>
       <c r="G59" s="17" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="H59" s="17"/>
       <c r="I59" s="17"/>
@@ -6215,16 +6217,16 @@
       </c>
       <c r="Q59" s="17"/>
       <c r="R59" s="17" t="s">
-        <v>632</v>
+        <v>590</v>
       </c>
       <c r="S59" s="15" t="s">
         <v>67</v>
       </c>
       <c r="T59" s="17" t="s">
-        <v>474</v>
+        <v>450</v>
       </c>
       <c r="U59" s="17" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
       <c r="V59" s="17">
         <v>0</v>
@@ -6232,7 +6234,7 @@
     </row>
     <row r="60" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="38" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B60" s="17">
         <v>3</v>
@@ -6248,7 +6250,7 @@
         <v>7</v>
       </c>
       <c r="G60" s="17" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="H60" s="17"/>
       <c r="I60" s="17"/>
@@ -6273,16 +6275,16 @@
       </c>
       <c r="Q60" s="17"/>
       <c r="R60" s="17" t="s">
-        <v>633</v>
+        <v>591</v>
       </c>
       <c r="S60" s="15" t="s">
         <v>67</v>
       </c>
       <c r="T60" s="17" t="s">
-        <v>475</v>
+        <v>451</v>
       </c>
       <c r="U60" s="17" t="s">
-        <v>550</v>
+        <v>517</v>
       </c>
       <c r="V60" s="17">
         <v>0</v>
@@ -6290,7 +6292,7 @@
     </row>
     <row r="61" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="38" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="B61" s="17">
         <v>3</v>
@@ -6306,7 +6308,7 @@
         <v>7</v>
       </c>
       <c r="G61" s="17" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
@@ -6331,16 +6333,16 @@
       </c>
       <c r="Q61" s="17"/>
       <c r="R61" s="17" t="s">
-        <v>634</v>
+        <v>592</v>
       </c>
       <c r="S61" s="15" t="s">
         <v>67</v>
       </c>
       <c r="T61" s="17" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
       <c r="U61" s="17" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
       <c r="V61" s="17">
         <v>0</v>
@@ -6348,7 +6350,7 @@
     </row>
     <row r="62" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="38" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B62" s="17">
         <v>3</v>
@@ -6364,7 +6366,7 @@
         <v>7</v>
       </c>
       <c r="G62" s="17" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
@@ -6389,16 +6391,16 @@
       </c>
       <c r="Q62" s="17"/>
       <c r="R62" s="17" t="s">
-        <v>632</v>
+        <v>590</v>
       </c>
       <c r="S62" s="15" t="s">
         <v>67</v>
       </c>
       <c r="T62" s="17" t="s">
-        <v>477</v>
+        <v>453</v>
       </c>
       <c r="U62" s="17" t="s">
-        <v>552</v>
+        <v>519</v>
       </c>
       <c r="V62" s="17">
         <v>0</v>
@@ -6406,7 +6408,7 @@
     </row>
     <row r="63" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="38" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B63" s="17">
         <v>3</v>
@@ -6422,7 +6424,7 @@
         <v>7</v>
       </c>
       <c r="G63" s="17" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="H63" s="17"/>
       <c r="I63" s="17"/>
@@ -6447,16 +6449,16 @@
       </c>
       <c r="Q63" s="17"/>
       <c r="R63" s="17" t="s">
-        <v>633</v>
+        <v>591</v>
       </c>
       <c r="S63" s="15" t="s">
         <v>67</v>
       </c>
       <c r="T63" s="17" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="U63" s="17" t="s">
-        <v>553</v>
+        <v>520</v>
       </c>
       <c r="V63" s="17">
         <v>0</v>
@@ -6464,7 +6466,7 @@
     </row>
     <row r="64" spans="1:22" s="12" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="38" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B64" s="17">
         <v>3</v>
@@ -6480,7 +6482,7 @@
         <v>7</v>
       </c>
       <c r="G64" s="17" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="H64" s="17"/>
       <c r="I64" s="17"/>
@@ -6505,16 +6507,16 @@
       </c>
       <c r="Q64" s="17"/>
       <c r="R64" s="17" t="s">
-        <v>634</v>
+        <v>592</v>
       </c>
       <c r="S64" s="15" t="s">
         <v>67</v>
       </c>
       <c r="T64" s="17" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="U64" s="17" t="s">
-        <v>554</v>
+        <v>521</v>
       </c>
       <c r="V64" s="17">
         <v>0</v>
@@ -6522,7 +6524,7 @@
     </row>
     <row r="65" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="38" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B65" s="17">
         <v>3</v>
@@ -6538,7 +6540,7 @@
         <v>7</v>
       </c>
       <c r="G65" s="17" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="H65" s="17"/>
       <c r="I65" s="17"/>
@@ -6563,16 +6565,16 @@
       </c>
       <c r="Q65" s="17"/>
       <c r="R65" s="17" t="s">
-        <v>635</v>
+        <v>593</v>
       </c>
       <c r="S65" s="15" t="s">
         <v>67</v>
       </c>
       <c r="T65" s="17" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
       <c r="U65" s="17" t="s">
-        <v>555</v>
+        <v>522</v>
       </c>
       <c r="V65" s="17">
         <v>0</v>
@@ -6580,7 +6582,7 @@
     </row>
     <row r="66" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="38" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B66" s="17">
         <v>3</v>
@@ -6596,7 +6598,7 @@
         <v>7</v>
       </c>
       <c r="G66" s="17" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="H66" s="17"/>
       <c r="I66" s="17"/>
@@ -6621,16 +6623,16 @@
       </c>
       <c r="Q66" s="17"/>
       <c r="R66" s="17" t="s">
-        <v>636</v>
+        <v>594</v>
       </c>
       <c r="S66" s="15" t="s">
         <v>67</v>
       </c>
       <c r="T66" s="17" t="s">
-        <v>481</v>
+        <v>457</v>
       </c>
       <c r="U66" s="17" t="s">
-        <v>556</v>
+        <v>523</v>
       </c>
       <c r="V66" s="17">
         <v>0</v>
@@ -6638,7 +6640,7 @@
     </row>
     <row r="67" spans="1:22" s="12" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="38" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B67" s="17">
         <v>3</v>
@@ -6654,7 +6656,7 @@
         <v>7</v>
       </c>
       <c r="G67" s="17" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="H67" s="17"/>
       <c r="I67" s="17"/>
@@ -6679,16 +6681,16 @@
       </c>
       <c r="Q67" s="17"/>
       <c r="R67" s="17" t="s">
-        <v>637</v>
+        <v>595</v>
       </c>
       <c r="S67" s="15" t="s">
         <v>67</v>
       </c>
       <c r="T67" s="17" t="s">
-        <v>482</v>
+        <v>458</v>
       </c>
       <c r="U67" s="17" t="s">
-        <v>557</v>
+        <v>524</v>
       </c>
       <c r="V67" s="17">
         <v>0</v>
@@ -6696,7 +6698,7 @@
     </row>
     <row r="68" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="38" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B68" s="17">
         <v>3</v>
@@ -6712,7 +6714,7 @@
         <v>7</v>
       </c>
       <c r="G68" s="17" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="H68" s="17"/>
       <c r="I68" s="17"/>
@@ -6737,16 +6739,16 @@
       </c>
       <c r="Q68" s="17"/>
       <c r="R68" s="17" t="s">
-        <v>638</v>
+        <v>596</v>
       </c>
       <c r="S68" s="15" t="s">
         <v>67</v>
       </c>
       <c r="T68" s="17" t="s">
-        <v>483</v>
+        <v>459</v>
       </c>
       <c r="U68" s="17" t="s">
-        <v>558</v>
+        <v>525</v>
       </c>
       <c r="V68" s="17">
         <v>0</v>
@@ -6754,7 +6756,7 @@
     </row>
     <row r="69" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="38" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B69" s="17">
         <v>3</v>
@@ -6770,7 +6772,7 @@
         <v>7</v>
       </c>
       <c r="G69" s="17" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="H69" s="17"/>
       <c r="I69" s="17"/>
@@ -6795,16 +6797,16 @@
       </c>
       <c r="Q69" s="17"/>
       <c r="R69" s="17" t="s">
-        <v>639</v>
+        <v>597</v>
       </c>
       <c r="S69" s="15" t="s">
         <v>67</v>
       </c>
       <c r="T69" s="17" t="s">
-        <v>484</v>
+        <v>460</v>
       </c>
       <c r="U69" s="17" t="s">
-        <v>559</v>
+        <v>526</v>
       </c>
       <c r="V69" s="17">
         <v>0</v>
@@ -6812,7 +6814,7 @@
     </row>
     <row r="70" spans="1:22" s="12" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="38" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B70" s="17">
         <v>3</v>
@@ -6828,7 +6830,7 @@
         <v>7</v>
       </c>
       <c r="G70" s="17" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="H70" s="17"/>
       <c r="I70" s="17"/>
@@ -6853,16 +6855,16 @@
       </c>
       <c r="Q70" s="17"/>
       <c r="R70" s="17" t="s">
-        <v>640</v>
+        <v>598</v>
       </c>
       <c r="S70" s="15" t="s">
         <v>67</v>
       </c>
       <c r="T70" s="17" t="s">
-        <v>485</v>
+        <v>461</v>
       </c>
       <c r="U70" s="17" t="s">
-        <v>560</v>
+        <v>527</v>
       </c>
       <c r="V70" s="17">
         <v>0</v>
@@ -6870,7 +6872,7 @@
     </row>
     <row r="71" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="38" t="s">
-        <v>339</v>
+        <v>638</v>
       </c>
       <c r="B71" s="17">
         <v>3</v>
@@ -6886,7 +6888,7 @@
         <v>7</v>
       </c>
       <c r="G71" s="17" t="s">
-        <v>411</v>
+        <v>635</v>
       </c>
       <c r="H71" s="17"/>
       <c r="I71" s="17"/>
@@ -6911,16 +6913,16 @@
       </c>
       <c r="Q71" s="17"/>
       <c r="R71" s="17" t="s">
-        <v>641</v>
+        <v>599</v>
       </c>
       <c r="S71" s="15" t="s">
         <v>67</v>
       </c>
       <c r="T71" s="17" t="s">
-        <v>486</v>
+        <v>629</v>
       </c>
       <c r="U71" s="17" t="s">
-        <v>561</v>
+        <v>626</v>
       </c>
       <c r="V71" s="17">
         <v>0</v>
@@ -6928,7 +6930,7 @@
     </row>
     <row r="72" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="38" t="s">
-        <v>340</v>
+        <v>639</v>
       </c>
       <c r="B72" s="17">
         <v>3</v>
@@ -6944,7 +6946,7 @@
         <v>7</v>
       </c>
       <c r="G72" s="17" t="s">
-        <v>412</v>
+        <v>636</v>
       </c>
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
@@ -6969,16 +6971,16 @@
       </c>
       <c r="Q72" s="17"/>
       <c r="R72" s="17" t="s">
-        <v>642</v>
+        <v>600</v>
       </c>
       <c r="S72" s="15" t="s">
         <v>67</v>
       </c>
       <c r="T72" s="17" t="s">
-        <v>487</v>
+        <v>630</v>
       </c>
       <c r="U72" s="17" t="s">
-        <v>562</v>
+        <v>627</v>
       </c>
       <c r="V72" s="17">
         <v>0</v>
@@ -6986,7 +6988,7 @@
     </row>
     <row r="73" spans="1:22" s="12" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="38" t="s">
-        <v>341</v>
+        <v>640</v>
       </c>
       <c r="B73" s="17">
         <v>3</v>
@@ -7002,7 +7004,7 @@
         <v>7</v>
       </c>
       <c r="G73" s="17" t="s">
-        <v>413</v>
+        <v>637</v>
       </c>
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
@@ -7027,16 +7029,16 @@
       </c>
       <c r="Q73" s="17"/>
       <c r="R73" s="17" t="s">
-        <v>643</v>
+        <v>601</v>
       </c>
       <c r="S73" s="15" t="s">
         <v>67</v>
       </c>
       <c r="T73" s="17" t="s">
-        <v>488</v>
+        <v>631</v>
       </c>
       <c r="U73" s="17" t="s">
-        <v>563</v>
+        <v>628</v>
       </c>
       <c r="V73" s="17">
         <v>0</v>
@@ -7044,7 +7046,7 @@
     </row>
     <row r="74" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="38" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="B74" s="17">
         <v>3</v>
@@ -7060,7 +7062,7 @@
         <v>7</v>
       </c>
       <c r="G74" s="17" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="H74" s="17"/>
       <c r="I74" s="17"/>
@@ -7085,16 +7087,16 @@
       </c>
       <c r="Q74" s="17"/>
       <c r="R74" s="17" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="S74" s="15" t="s">
         <v>67</v>
       </c>
       <c r="T74" s="17" t="s">
-        <v>489</v>
+        <v>462</v>
       </c>
       <c r="U74" s="17" t="s">
-        <v>564</v>
+        <v>528</v>
       </c>
       <c r="V74" s="17">
         <v>0</v>
@@ -7102,7 +7104,7 @@
     </row>
     <row r="75" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="38" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="B75" s="17">
         <v>3</v>
@@ -7118,7 +7120,7 @@
         <v>7</v>
       </c>
       <c r="G75" s="17" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="H75" s="17"/>
       <c r="I75" s="17"/>
@@ -7143,16 +7145,16 @@
       </c>
       <c r="Q75" s="17"/>
       <c r="R75" s="17" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="S75" s="15" t="s">
         <v>67</v>
       </c>
       <c r="T75" s="17" t="s">
-        <v>490</v>
+        <v>463</v>
       </c>
       <c r="U75" s="17" t="s">
-        <v>565</v>
+        <v>529</v>
       </c>
       <c r="V75" s="17">
         <v>0</v>
@@ -7160,7 +7162,7 @@
     </row>
     <row r="76" spans="1:22" s="12" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="38" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="B76" s="17">
         <v>3</v>
@@ -7176,7 +7178,7 @@
         <v>7</v>
       </c>
       <c r="G76" s="17" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="H76" s="17"/>
       <c r="I76" s="17"/>
@@ -7201,16 +7203,16 @@
       </c>
       <c r="Q76" s="17"/>
       <c r="R76" s="17" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="S76" s="15" t="s">
         <v>67</v>
       </c>
       <c r="T76" s="17" t="s">
-        <v>491</v>
+        <v>464</v>
       </c>
       <c r="U76" s="17" t="s">
-        <v>566</v>
+        <v>530</v>
       </c>
       <c r="V76" s="17">
         <v>0</v>
@@ -7234,7 +7236,7 @@
         <v>7</v>
       </c>
       <c r="G77" s="17" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="H77" s="17"/>
       <c r="I77" s="17"/>
@@ -7259,16 +7261,16 @@
       </c>
       <c r="Q77" s="17"/>
       <c r="R77" s="17" t="s">
-        <v>647</v>
+        <v>602</v>
       </c>
       <c r="S77" s="15" t="s">
         <v>67</v>
       </c>
       <c r="T77" s="17" t="s">
-        <v>492</v>
+        <v>465</v>
       </c>
       <c r="U77" s="17" t="s">
-        <v>567</v>
+        <v>531</v>
       </c>
       <c r="V77" s="17">
         <v>0</v>
@@ -7292,7 +7294,7 @@
         <v>7</v>
       </c>
       <c r="G78" s="17" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="H78" s="17"/>
       <c r="I78" s="17"/>
@@ -7317,16 +7319,16 @@
       </c>
       <c r="Q78" s="17"/>
       <c r="R78" s="17" t="s">
-        <v>648</v>
+        <v>603</v>
       </c>
       <c r="S78" s="15" t="s">
         <v>67</v>
       </c>
       <c r="T78" s="17" t="s">
-        <v>493</v>
+        <v>466</v>
       </c>
       <c r="U78" s="17" t="s">
-        <v>568</v>
+        <v>532</v>
       </c>
       <c r="V78" s="17">
         <v>0</v>
@@ -7350,7 +7352,7 @@
         <v>7</v>
       </c>
       <c r="G79" s="17" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="H79" s="17"/>
       <c r="I79" s="17"/>
@@ -7375,16 +7377,16 @@
       </c>
       <c r="Q79" s="17"/>
       <c r="R79" s="17" t="s">
-        <v>649</v>
+        <v>604</v>
       </c>
       <c r="S79" s="15" t="s">
         <v>67</v>
       </c>
       <c r="T79" s="17" t="s">
-        <v>494</v>
+        <v>467</v>
       </c>
       <c r="U79" s="17" t="s">
-        <v>569</v>
+        <v>533</v>
       </c>
       <c r="V79" s="17">
         <v>0</v>
@@ -7392,7 +7394,7 @@
     </row>
     <row r="80" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="38" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="B80" s="17">
         <v>3</v>
@@ -7408,7 +7410,7 @@
         <v>7</v>
       </c>
       <c r="G80" s="17" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="H80" s="17"/>
       <c r="I80" s="17"/>
@@ -7433,16 +7435,16 @@
       </c>
       <c r="Q80" s="17"/>
       <c r="R80" s="17" t="s">
-        <v>650</v>
+        <v>605</v>
       </c>
       <c r="S80" s="15" t="s">
         <v>67</v>
       </c>
       <c r="T80" s="17" t="s">
-        <v>495</v>
+        <v>468</v>
       </c>
       <c r="U80" s="17" t="s">
-        <v>570</v>
+        <v>534</v>
       </c>
       <c r="V80" s="17">
         <v>0</v>
@@ -7450,7 +7452,7 @@
     </row>
     <row r="81" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="38" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B81" s="17">
         <v>3</v>
@@ -7466,7 +7468,7 @@
         <v>7</v>
       </c>
       <c r="G81" s="17" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="H81" s="17"/>
       <c r="I81" s="17"/>
@@ -7491,16 +7493,16 @@
       </c>
       <c r="Q81" s="17"/>
       <c r="R81" s="17" t="s">
-        <v>651</v>
+        <v>606</v>
       </c>
       <c r="S81" s="15" t="s">
         <v>67</v>
       </c>
       <c r="T81" s="17" t="s">
-        <v>496</v>
+        <v>469</v>
       </c>
       <c r="U81" s="17" t="s">
-        <v>571</v>
+        <v>535</v>
       </c>
       <c r="V81" s="17">
         <v>0</v>
@@ -7508,7 +7510,7 @@
     </row>
     <row r="82" spans="1:22" s="12" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="38" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="B82" s="17">
         <v>3</v>
@@ -7524,7 +7526,7 @@
         <v>7</v>
       </c>
       <c r="G82" s="17" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="H82" s="17"/>
       <c r="I82" s="17"/>
@@ -7549,16 +7551,16 @@
       </c>
       <c r="Q82" s="17"/>
       <c r="R82" s="17" t="s">
-        <v>652</v>
+        <v>607</v>
       </c>
       <c r="S82" s="15" t="s">
         <v>67</v>
       </c>
       <c r="T82" s="17" t="s">
-        <v>497</v>
+        <v>470</v>
       </c>
       <c r="U82" s="17" t="s">
-        <v>572</v>
+        <v>536</v>
       </c>
       <c r="V82" s="17">
         <v>0</v>
@@ -7566,7 +7568,7 @@
     </row>
     <row r="83" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="38" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="B83" s="17">
         <v>3</v>
@@ -7582,7 +7584,7 @@
         <v>7</v>
       </c>
       <c r="G83" s="17" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="H83" s="17"/>
       <c r="I83" s="17"/>
@@ -7607,16 +7609,16 @@
       </c>
       <c r="Q83" s="17"/>
       <c r="R83" s="17" t="s">
-        <v>653</v>
+        <v>608</v>
       </c>
       <c r="S83" s="15" t="s">
         <v>67</v>
       </c>
       <c r="T83" s="17" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="U83" s="17" t="s">
-        <v>573</v>
+        <v>537</v>
       </c>
       <c r="V83" s="17">
         <v>0</v>
@@ -7624,7 +7626,7 @@
     </row>
     <row r="84" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="38" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="B84" s="17">
         <v>3</v>
@@ -7640,7 +7642,7 @@
         <v>7</v>
       </c>
       <c r="G84" s="17" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="H84" s="17"/>
       <c r="I84" s="17"/>
@@ -7665,16 +7667,16 @@
       </c>
       <c r="Q84" s="17"/>
       <c r="R84" s="17" t="s">
-        <v>654</v>
+        <v>609</v>
       </c>
       <c r="S84" s="15" t="s">
         <v>67</v>
       </c>
       <c r="T84" s="17" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="U84" s="17" t="s">
-        <v>574</v>
+        <v>538</v>
       </c>
       <c r="V84" s="17">
         <v>0</v>
@@ -7682,7 +7684,7 @@
     </row>
     <row r="85" spans="1:22" s="12" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="38" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="B85" s="17">
         <v>3</v>
@@ -7698,7 +7700,7 @@
         <v>7</v>
       </c>
       <c r="G85" s="17" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="H85" s="17"/>
       <c r="I85" s="17"/>
@@ -7723,16 +7725,16 @@
       </c>
       <c r="Q85" s="17"/>
       <c r="R85" s="17" t="s">
-        <v>655</v>
+        <v>610</v>
       </c>
       <c r="S85" s="15" t="s">
         <v>67</v>
       </c>
       <c r="T85" s="17" t="s">
-        <v>500</v>
+        <v>473</v>
       </c>
       <c r="U85" s="17" t="s">
-        <v>575</v>
+        <v>539</v>
       </c>
       <c r="V85" s="17">
         <v>0</v>
@@ -7740,17 +7742,17 @@
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.2">
       <c r="R86" t="s">
-        <v>656</v>
+        <v>611</v>
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.2">
       <c r="R87" t="s">
-        <v>657</v>
+        <v>612</v>
       </c>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.2">
       <c r="R88" t="s">
-        <v>658</v>
+        <v>613</v>
       </c>
     </row>
   </sheetData>
@@ -8498,7 +8500,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>580</v>
+        <v>544</v>
       </c>
       <c r="H11" s="32"/>
       <c r="I11" s="32"/>
@@ -8532,7 +8534,7 @@
         <v>57</v>
       </c>
       <c r="U11" s="44" t="s">
-        <v>576</v>
+        <v>540</v>
       </c>
       <c r="V11" s="32">
         <v>1</v>
@@ -8556,7 +8558,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="36" t="s">
-        <v>581</v>
+        <v>545</v>
       </c>
       <c r="H12" s="35"/>
       <c r="I12" s="35"/>
@@ -8590,7 +8592,7 @@
         <v>60</v>
       </c>
       <c r="U12" s="46" t="s">
-        <v>577</v>
+        <v>541</v>
       </c>
       <c r="V12" s="35">
         <v>1</v>
@@ -8614,7 +8616,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="36" t="s">
-        <v>582</v>
+        <v>546</v>
       </c>
       <c r="H13" s="35"/>
       <c r="I13" s="35"/>
@@ -8648,7 +8650,7 @@
         <v>63</v>
       </c>
       <c r="U13" s="46" t="s">
-        <v>578</v>
+        <v>542</v>
       </c>
       <c r="V13" s="35">
         <v>1</v>
@@ -8672,7 +8674,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="36" t="s">
-        <v>583</v>
+        <v>547</v>
       </c>
       <c r="H14" s="35"/>
       <c r="I14" s="35"/>
@@ -8706,7 +8708,7 @@
         <v>66</v>
       </c>
       <c r="U14" s="46" t="s">
-        <v>579</v>
+        <v>543</v>
       </c>
       <c r="V14" s="35">
         <v>1</v>
@@ -8726,13 +8728,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V65"/>
+  <dimension ref="A1:V49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="10" topLeftCell="B46" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="A50" sqref="A50:XFD65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11635,904 +11637,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:22" s="14" customFormat="1" ht="315" x14ac:dyDescent="0.2">
-      <c r="A50" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="B50" s="23">
-        <v>2</v>
-      </c>
-      <c r="C50" s="23">
-        <v>7</v>
-      </c>
-      <c r="D50" s="23">
-        <v>1</v>
-      </c>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23">
-        <v>0</v>
-      </c>
-      <c r="G50" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="H50" s="23"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="K50" s="23">
-        <v>0</v>
-      </c>
-      <c r="L50" s="23">
-        <v>1</v>
-      </c>
-      <c r="M50" s="23">
-        <v>1</v>
-      </c>
-      <c r="N50" s="23">
-        <v>0</v>
-      </c>
-      <c r="O50" s="23">
-        <v>100</v>
-      </c>
-      <c r="P50" s="24">
-        <v>1</v>
-      </c>
-      <c r="Q50" s="23"/>
-      <c r="R50" s="23"/>
-      <c r="S50" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="T50" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="U50" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="V50" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="B51" s="24">
-        <v>2</v>
-      </c>
-      <c r="C51" s="23">
-        <v>7</v>
-      </c>
-      <c r="D51" s="23">
-        <v>10</v>
-      </c>
-      <c r="E51" s="24"/>
-      <c r="F51" s="23">
-        <v>0</v>
-      </c>
-      <c r="G51" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="H51" s="23"/>
-      <c r="I51" s="23"/>
-      <c r="J51" s="23"/>
-      <c r="K51" s="23">
-        <v>0</v>
-      </c>
-      <c r="L51" s="23">
-        <v>1</v>
-      </c>
-      <c r="M51" s="23">
-        <v>1</v>
-      </c>
-      <c r="N51" s="23">
-        <v>0</v>
-      </c>
-      <c r="O51" s="23">
-        <v>100</v>
-      </c>
-      <c r="P51" s="24">
-        <v>1</v>
-      </c>
-      <c r="Q51" s="23"/>
-      <c r="R51" s="24"/>
-      <c r="S51" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="T51" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="U51" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="V51" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="B52" s="23">
-        <v>2</v>
-      </c>
-      <c r="C52" s="23">
-        <v>7</v>
-      </c>
-      <c r="D52" s="23">
-        <v>20</v>
-      </c>
-      <c r="E52" s="23"/>
-      <c r="F52" s="23">
-        <v>0</v>
-      </c>
-      <c r="G52" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="H52" s="23"/>
-      <c r="I52" s="23"/>
-      <c r="J52" s="23"/>
-      <c r="K52" s="23">
-        <v>0</v>
-      </c>
-      <c r="L52" s="23">
-        <v>1</v>
-      </c>
-      <c r="M52" s="23">
-        <v>1</v>
-      </c>
-      <c r="N52" s="23">
-        <v>0</v>
-      </c>
-      <c r="O52" s="23">
-        <v>100</v>
-      </c>
-      <c r="P52" s="24">
-        <v>1</v>
-      </c>
-      <c r="Q52" s="23"/>
-      <c r="R52" s="23"/>
-      <c r="S52" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="T52" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="U52" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="V52" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="B53" s="24">
-        <v>2</v>
-      </c>
-      <c r="C53" s="23">
-        <v>7</v>
-      </c>
-      <c r="D53" s="23">
-        <v>30</v>
-      </c>
-      <c r="E53" s="24"/>
-      <c r="F53" s="23">
-        <v>0</v>
-      </c>
-      <c r="G53" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="H53" s="23"/>
-      <c r="I53" s="23"/>
-      <c r="J53" s="23"/>
-      <c r="K53" s="23">
-        <v>0</v>
-      </c>
-      <c r="L53" s="23">
-        <v>1</v>
-      </c>
-      <c r="M53" s="23">
-        <v>1</v>
-      </c>
-      <c r="N53" s="23">
-        <v>0</v>
-      </c>
-      <c r="O53" s="23">
-        <v>100</v>
-      </c>
-      <c r="P53" s="24">
-        <v>1</v>
-      </c>
-      <c r="Q53" s="23"/>
-      <c r="R53" s="24"/>
-      <c r="S53" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="T53" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="U53" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="V53" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="B54" s="23">
-        <v>2</v>
-      </c>
-      <c r="C54" s="23">
-        <v>7</v>
-      </c>
-      <c r="D54" s="23">
-        <v>35</v>
-      </c>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23">
-        <v>0</v>
-      </c>
-      <c r="G54" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="H54" s="23"/>
-      <c r="I54" s="23"/>
-      <c r="J54" s="23"/>
-      <c r="K54" s="23">
-        <v>0</v>
-      </c>
-      <c r="L54" s="23">
-        <v>1</v>
-      </c>
-      <c r="M54" s="23">
-        <v>1</v>
-      </c>
-      <c r="N54" s="23">
-        <v>0</v>
-      </c>
-      <c r="O54" s="23">
-        <v>100</v>
-      </c>
-      <c r="P54" s="24">
-        <v>1</v>
-      </c>
-      <c r="Q54" s="23"/>
-      <c r="R54" s="23"/>
-      <c r="S54" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="T54" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="U54" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="V54" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="B55" s="24">
-        <v>2</v>
-      </c>
-      <c r="C55" s="23">
-        <v>7</v>
-      </c>
-      <c r="D55" s="23">
-        <v>40</v>
-      </c>
-      <c r="E55" s="24"/>
-      <c r="F55" s="23">
-        <v>0</v>
-      </c>
-      <c r="G55" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="H55" s="23"/>
-      <c r="I55" s="23"/>
-      <c r="J55" s="23"/>
-      <c r="K55" s="23">
-        <v>0</v>
-      </c>
-      <c r="L55" s="23">
-        <v>1</v>
-      </c>
-      <c r="M55" s="23">
-        <v>1</v>
-      </c>
-      <c r="N55" s="23">
-        <v>0</v>
-      </c>
-      <c r="O55" s="23">
-        <v>100</v>
-      </c>
-      <c r="P55" s="24">
-        <v>1</v>
-      </c>
-      <c r="Q55" s="23"/>
-      <c r="R55" s="24"/>
-      <c r="S55" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="T55" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="U55" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="V55" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="B56" s="23">
-        <v>2</v>
-      </c>
-      <c r="C56" s="23">
-        <v>7</v>
-      </c>
-      <c r="D56" s="23">
-        <v>45</v>
-      </c>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23">
-        <v>0</v>
-      </c>
-      <c r="G56" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="H56" s="23"/>
-      <c r="I56" s="23"/>
-      <c r="J56" s="23"/>
-      <c r="K56" s="23">
-        <v>0</v>
-      </c>
-      <c r="L56" s="23">
-        <v>1</v>
-      </c>
-      <c r="M56" s="23">
-        <v>1</v>
-      </c>
-      <c r="N56" s="23">
-        <v>0</v>
-      </c>
-      <c r="O56" s="23">
-        <v>100</v>
-      </c>
-      <c r="P56" s="24">
-        <v>1</v>
-      </c>
-      <c r="Q56" s="23"/>
-      <c r="R56" s="23"/>
-      <c r="S56" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="T56" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="U56" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="V56" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="B57" s="24">
-        <v>2</v>
-      </c>
-      <c r="C57" s="23">
-        <v>7</v>
-      </c>
-      <c r="D57" s="23">
-        <v>50</v>
-      </c>
-      <c r="E57" s="24"/>
-      <c r="F57" s="23">
-        <v>0</v>
-      </c>
-      <c r="G57" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="H57" s="23"/>
-      <c r="I57" s="23"/>
-      <c r="J57" s="23"/>
-      <c r="K57" s="23">
-        <v>0</v>
-      </c>
-      <c r="L57" s="23">
-        <v>1</v>
-      </c>
-      <c r="M57" s="23">
-        <v>1</v>
-      </c>
-      <c r="N57" s="23">
-        <v>0</v>
-      </c>
-      <c r="O57" s="23">
-        <v>100</v>
-      </c>
-      <c r="P57" s="24">
-        <v>1</v>
-      </c>
-      <c r="Q57" s="23"/>
-      <c r="R57" s="24"/>
-      <c r="S57" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="T57" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="U57" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="V57" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="B58" s="23">
-        <v>2</v>
-      </c>
-      <c r="C58" s="23">
-        <v>7</v>
-      </c>
-      <c r="D58" s="23">
-        <v>55</v>
-      </c>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23">
-        <v>0</v>
-      </c>
-      <c r="G58" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="H58" s="23"/>
-      <c r="I58" s="23"/>
-      <c r="J58" s="23"/>
-      <c r="K58" s="23">
-        <v>0</v>
-      </c>
-      <c r="L58" s="23">
-        <v>1</v>
-      </c>
-      <c r="M58" s="23">
-        <v>1</v>
-      </c>
-      <c r="N58" s="23">
-        <v>0</v>
-      </c>
-      <c r="O58" s="23">
-        <v>100</v>
-      </c>
-      <c r="P58" s="24">
-        <v>1</v>
-      </c>
-      <c r="Q58" s="23"/>
-      <c r="R58" s="23"/>
-      <c r="S58" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="T58" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="U58" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="V58" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="B59" s="24">
-        <v>2</v>
-      </c>
-      <c r="C59" s="23">
-        <v>7</v>
-      </c>
-      <c r="D59" s="23">
-        <v>60</v>
-      </c>
-      <c r="E59" s="24"/>
-      <c r="F59" s="23">
-        <v>0</v>
-      </c>
-      <c r="G59" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="H59" s="23"/>
-      <c r="I59" s="23"/>
-      <c r="J59" s="23"/>
-      <c r="K59" s="23">
-        <v>0</v>
-      </c>
-      <c r="L59" s="23">
-        <v>1</v>
-      </c>
-      <c r="M59" s="23">
-        <v>1</v>
-      </c>
-      <c r="N59" s="23">
-        <v>0</v>
-      </c>
-      <c r="O59" s="23">
-        <v>100</v>
-      </c>
-      <c r="P59" s="24">
-        <v>1</v>
-      </c>
-      <c r="Q59" s="23"/>
-      <c r="R59" s="24"/>
-      <c r="S59" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="T59" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="U59" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="V59" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="B60" s="23">
-        <v>2</v>
-      </c>
-      <c r="C60" s="23">
-        <v>7</v>
-      </c>
-      <c r="D60" s="23">
-        <v>10</v>
-      </c>
-      <c r="E60" s="23"/>
-      <c r="F60" s="23">
-        <v>0</v>
-      </c>
-      <c r="G60" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="H60" s="23"/>
-      <c r="I60" s="23"/>
-      <c r="J60" s="23"/>
-      <c r="K60" s="23">
-        <v>0</v>
-      </c>
-      <c r="L60" s="23">
-        <v>1</v>
-      </c>
-      <c r="M60" s="23">
-        <v>1</v>
-      </c>
-      <c r="N60" s="23">
-        <v>0</v>
-      </c>
-      <c r="O60" s="23">
-        <v>100</v>
-      </c>
-      <c r="P60" s="24">
-        <v>1</v>
-      </c>
-      <c r="Q60" s="23"/>
-      <c r="R60" s="23"/>
-      <c r="S60" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="T60" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="U60" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="V60" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="B61" s="24">
-        <v>2</v>
-      </c>
-      <c r="C61" s="23">
-        <v>7</v>
-      </c>
-      <c r="D61" s="23">
-        <v>20</v>
-      </c>
-      <c r="E61" s="24"/>
-      <c r="F61" s="23">
-        <v>0</v>
-      </c>
-      <c r="G61" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="H61" s="23"/>
-      <c r="I61" s="23"/>
-      <c r="J61" s="23"/>
-      <c r="K61" s="23">
-        <v>0</v>
-      </c>
-      <c r="L61" s="23">
-        <v>1</v>
-      </c>
-      <c r="M61" s="23">
-        <v>1</v>
-      </c>
-      <c r="N61" s="23">
-        <v>0</v>
-      </c>
-      <c r="O61" s="23">
-        <v>100</v>
-      </c>
-      <c r="P61" s="24">
-        <v>1</v>
-      </c>
-      <c r="Q61" s="23"/>
-      <c r="R61" s="24"/>
-      <c r="S61" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="T61" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="U61" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="V61" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="B62" s="23">
-        <v>2</v>
-      </c>
-      <c r="C62" s="23">
-        <v>7</v>
-      </c>
-      <c r="D62" s="23">
-        <v>30</v>
-      </c>
-      <c r="E62" s="24"/>
-      <c r="F62" s="23">
-        <v>0</v>
-      </c>
-      <c r="G62" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="H62" s="23"/>
-      <c r="I62" s="23"/>
-      <c r="J62" s="23"/>
-      <c r="K62" s="23">
-        <v>0</v>
-      </c>
-      <c r="L62" s="23">
-        <v>1</v>
-      </c>
-      <c r="M62" s="23">
-        <v>1</v>
-      </c>
-      <c r="N62" s="23">
-        <v>0</v>
-      </c>
-      <c r="O62" s="23">
-        <v>100</v>
-      </c>
-      <c r="P62" s="24">
-        <v>1</v>
-      </c>
-      <c r="Q62" s="23"/>
-      <c r="R62" s="23"/>
-      <c r="S62" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="T62" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="U62" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="V62" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="B63" s="24">
-        <v>2</v>
-      </c>
-      <c r="C63" s="23">
-        <v>7</v>
-      </c>
-      <c r="D63" s="23">
-        <v>40</v>
-      </c>
-      <c r="E63" s="24"/>
-      <c r="F63" s="23">
-        <v>0</v>
-      </c>
-      <c r="G63" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="H63" s="23"/>
-      <c r="I63" s="23"/>
-      <c r="J63" s="23"/>
-      <c r="K63" s="23">
-        <v>0</v>
-      </c>
-      <c r="L63" s="23">
-        <v>1</v>
-      </c>
-      <c r="M63" s="23">
-        <v>1</v>
-      </c>
-      <c r="N63" s="23">
-        <v>0</v>
-      </c>
-      <c r="O63" s="23">
-        <v>100</v>
-      </c>
-      <c r="P63" s="24">
-        <v>1</v>
-      </c>
-      <c r="Q63" s="23"/>
-      <c r="R63" s="24"/>
-      <c r="S63" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="T63" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="U63" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="V63" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="B64" s="23">
-        <v>2</v>
-      </c>
-      <c r="C64" s="23">
-        <v>7</v>
-      </c>
-      <c r="D64" s="26">
-        <v>50</v>
-      </c>
-      <c r="E64" s="27"/>
-      <c r="F64" s="26">
-        <v>0</v>
-      </c>
-      <c r="G64" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="H64" s="26"/>
-      <c r="I64" s="26"/>
-      <c r="J64" s="26"/>
-      <c r="K64" s="26">
-        <v>0</v>
-      </c>
-      <c r="L64" s="26">
-        <v>1</v>
-      </c>
-      <c r="M64" s="23">
-        <v>1</v>
-      </c>
-      <c r="N64" s="26">
-        <v>0</v>
-      </c>
-      <c r="O64" s="26">
-        <v>100</v>
-      </c>
-      <c r="P64" s="27">
-        <v>1</v>
-      </c>
-      <c r="Q64" s="26"/>
-      <c r="R64" s="26"/>
-      <c r="S64" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="T64" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="U64" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="V64" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="B65" s="24">
-        <v>2</v>
-      </c>
-      <c r="C65" s="23">
-        <v>7</v>
-      </c>
-      <c r="D65" s="26">
-        <v>60</v>
-      </c>
-      <c r="E65" s="27"/>
-      <c r="F65" s="26">
-        <v>0</v>
-      </c>
-      <c r="G65" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="H65" s="26"/>
-      <c r="I65" s="26"/>
-      <c r="J65" s="26"/>
-      <c r="K65" s="26">
-        <v>0</v>
-      </c>
-      <c r="L65" s="26">
-        <v>1</v>
-      </c>
-      <c r="M65" s="23">
-        <v>1</v>
-      </c>
-      <c r="N65" s="26">
-        <v>0</v>
-      </c>
-      <c r="O65" s="26">
-        <v>100</v>
-      </c>
-      <c r="P65" s="27">
-        <v>1</v>
-      </c>
-      <c r="Q65" s="26"/>
-      <c r="R65" s="26"/>
-      <c r="S65" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="T65" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="U65" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="V65" s="26">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
@@ -12546,6 +11650,1631 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="10" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A30" sqref="A11:XFD30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" customWidth="1"/>
+    <col min="8" max="8" width="34" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" customWidth="1"/>
+    <col min="10" max="10" width="58.33203125" customWidth="1"/>
+    <col min="11" max="11" width="31.5" customWidth="1"/>
+    <col min="12" max="13" width="14.1640625" customWidth="1"/>
+    <col min="14" max="14" width="17.6640625" customWidth="1"/>
+    <col min="15" max="15" width="16.5" customWidth="1"/>
+    <col min="16" max="16" width="12.6640625" customWidth="1"/>
+    <col min="17" max="17" width="14" customWidth="1"/>
+    <col min="18" max="18" width="27.6640625" customWidth="1"/>
+    <col min="19" max="20" width="23.33203125" customWidth="1"/>
+    <col min="21" max="21" width="21.5" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0</v>
+      </c>
+      <c r="P3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>0</v>
+      </c>
+      <c r="R3" s="5">
+        <v>0</v>
+      </c>
+      <c r="S3" s="5">
+        <v>0</v>
+      </c>
+      <c r="T3" s="5">
+        <v>0</v>
+      </c>
+      <c r="U3" s="5">
+        <v>0</v>
+      </c>
+      <c r="V3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0</v>
+      </c>
+      <c r="P4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>0</v>
+      </c>
+      <c r="R4" s="5">
+        <v>0</v>
+      </c>
+      <c r="S4" s="5">
+        <v>0</v>
+      </c>
+      <c r="T4" s="5">
+        <v>0</v>
+      </c>
+      <c r="U4" s="5">
+        <v>0</v>
+      </c>
+      <c r="V4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>0</v>
+      </c>
+      <c r="R5" s="5">
+        <v>0</v>
+      </c>
+      <c r="S5" s="5">
+        <v>0</v>
+      </c>
+      <c r="T5" s="5">
+        <v>0</v>
+      </c>
+      <c r="U5" s="5">
+        <v>0</v>
+      </c>
+      <c r="V5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0</v>
+      </c>
+      <c r="P6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>0</v>
+      </c>
+      <c r="R6" s="5">
+        <v>0</v>
+      </c>
+      <c r="S6" s="5">
+        <v>0</v>
+      </c>
+      <c r="T6" s="5">
+        <v>0</v>
+      </c>
+      <c r="U6" s="5">
+        <v>0</v>
+      </c>
+      <c r="V6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0</v>
+      </c>
+      <c r="R7" s="3">
+        <v>0</v>
+      </c>
+      <c r="S7" s="3">
+        <v>0</v>
+      </c>
+      <c r="T7" s="3">
+        <v>0</v>
+      </c>
+      <c r="U7" s="3">
+        <v>1</v>
+      </c>
+      <c r="V7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" s="2" customFormat="1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" s="14" customFormat="1" ht="315" x14ac:dyDescent="0.2">
+      <c r="A11" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" s="23">
+        <v>2</v>
+      </c>
+      <c r="C11" s="23">
+        <v>7</v>
+      </c>
+      <c r="D11" s="23">
+        <v>1</v>
+      </c>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23">
+        <v>0</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="K11" s="23">
+        <v>0</v>
+      </c>
+      <c r="L11" s="23">
+        <v>1</v>
+      </c>
+      <c r="M11" s="23">
+        <v>1</v>
+      </c>
+      <c r="N11" s="23">
+        <v>0</v>
+      </c>
+      <c r="O11" s="23">
+        <v>100</v>
+      </c>
+      <c r="P11" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="T11" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="U11" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="V11" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="B12" s="24">
+        <v>2</v>
+      </c>
+      <c r="C12" s="23">
+        <v>7</v>
+      </c>
+      <c r="D12" s="23">
+        <v>10</v>
+      </c>
+      <c r="E12" s="24"/>
+      <c r="F12" s="23">
+        <v>0</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23">
+        <v>0</v>
+      </c>
+      <c r="L12" s="23">
+        <v>1</v>
+      </c>
+      <c r="M12" s="23">
+        <v>1</v>
+      </c>
+      <c r="N12" s="23">
+        <v>0</v>
+      </c>
+      <c r="O12" s="23">
+        <v>100</v>
+      </c>
+      <c r="P12" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="T12" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="U12" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="V12" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="B13" s="23">
+        <v>2</v>
+      </c>
+      <c r="C13" s="23">
+        <v>7</v>
+      </c>
+      <c r="D13" s="23">
+        <v>20</v>
+      </c>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23">
+        <v>0</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23">
+        <v>0</v>
+      </c>
+      <c r="L13" s="23">
+        <v>1</v>
+      </c>
+      <c r="M13" s="23">
+        <v>1</v>
+      </c>
+      <c r="N13" s="23">
+        <v>0</v>
+      </c>
+      <c r="O13" s="23">
+        <v>100</v>
+      </c>
+      <c r="P13" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="T13" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="U13" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="V13" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="B14" s="24">
+        <v>2</v>
+      </c>
+      <c r="C14" s="23">
+        <v>7</v>
+      </c>
+      <c r="D14" s="23">
+        <v>30</v>
+      </c>
+      <c r="E14" s="24"/>
+      <c r="F14" s="23">
+        <v>0</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23">
+        <v>0</v>
+      </c>
+      <c r="L14" s="23">
+        <v>1</v>
+      </c>
+      <c r="M14" s="23">
+        <v>1</v>
+      </c>
+      <c r="N14" s="23">
+        <v>0</v>
+      </c>
+      <c r="O14" s="23">
+        <v>100</v>
+      </c>
+      <c r="P14" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="T14" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="U14" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="V14" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="B15" s="23">
+        <v>2</v>
+      </c>
+      <c r="C15" s="23">
+        <v>7</v>
+      </c>
+      <c r="D15" s="23">
+        <v>35</v>
+      </c>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23">
+        <v>0</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23">
+        <v>0</v>
+      </c>
+      <c r="L15" s="23">
+        <v>1</v>
+      </c>
+      <c r="M15" s="23">
+        <v>1</v>
+      </c>
+      <c r="N15" s="23">
+        <v>0</v>
+      </c>
+      <c r="O15" s="23">
+        <v>100</v>
+      </c>
+      <c r="P15" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="T15" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="U15" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="V15" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="B16" s="24">
+        <v>2</v>
+      </c>
+      <c r="C16" s="23">
+        <v>7</v>
+      </c>
+      <c r="D16" s="23">
+        <v>40</v>
+      </c>
+      <c r="E16" s="24"/>
+      <c r="F16" s="23">
+        <v>0</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23">
+        <v>0</v>
+      </c>
+      <c r="L16" s="23">
+        <v>1</v>
+      </c>
+      <c r="M16" s="23">
+        <v>1</v>
+      </c>
+      <c r="N16" s="23">
+        <v>0</v>
+      </c>
+      <c r="O16" s="23">
+        <v>100</v>
+      </c>
+      <c r="P16" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="T16" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="U16" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="V16" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="B17" s="23">
+        <v>2</v>
+      </c>
+      <c r="C17" s="23">
+        <v>7</v>
+      </c>
+      <c r="D17" s="23">
+        <v>45</v>
+      </c>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23">
+        <v>0</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23">
+        <v>0</v>
+      </c>
+      <c r="L17" s="23">
+        <v>1</v>
+      </c>
+      <c r="M17" s="23">
+        <v>1</v>
+      </c>
+      <c r="N17" s="23">
+        <v>0</v>
+      </c>
+      <c r="O17" s="23">
+        <v>100</v>
+      </c>
+      <c r="P17" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="T17" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="U17" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="V17" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="B18" s="24">
+        <v>2</v>
+      </c>
+      <c r="C18" s="23">
+        <v>7</v>
+      </c>
+      <c r="D18" s="23">
+        <v>50</v>
+      </c>
+      <c r="E18" s="24"/>
+      <c r="F18" s="23">
+        <v>0</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23">
+        <v>0</v>
+      </c>
+      <c r="L18" s="23">
+        <v>1</v>
+      </c>
+      <c r="M18" s="23">
+        <v>1</v>
+      </c>
+      <c r="N18" s="23">
+        <v>0</v>
+      </c>
+      <c r="O18" s="23">
+        <v>100</v>
+      </c>
+      <c r="P18" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="T18" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="U18" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="V18" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="B19" s="23">
+        <v>2</v>
+      </c>
+      <c r="C19" s="23">
+        <v>7</v>
+      </c>
+      <c r="D19" s="23">
+        <v>55</v>
+      </c>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23">
+        <v>0</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23">
+        <v>0</v>
+      </c>
+      <c r="L19" s="23">
+        <v>1</v>
+      </c>
+      <c r="M19" s="23">
+        <v>1</v>
+      </c>
+      <c r="N19" s="23">
+        <v>0</v>
+      </c>
+      <c r="O19" s="23">
+        <v>100</v>
+      </c>
+      <c r="P19" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="T19" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="U19" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="V19" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="B20" s="24">
+        <v>2</v>
+      </c>
+      <c r="C20" s="23">
+        <v>7</v>
+      </c>
+      <c r="D20" s="23">
+        <v>60</v>
+      </c>
+      <c r="E20" s="24"/>
+      <c r="F20" s="23">
+        <v>0</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23">
+        <v>0</v>
+      </c>
+      <c r="L20" s="23">
+        <v>1</v>
+      </c>
+      <c r="M20" s="23">
+        <v>1</v>
+      </c>
+      <c r="N20" s="23">
+        <v>0</v>
+      </c>
+      <c r="O20" s="23">
+        <v>100</v>
+      </c>
+      <c r="P20" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="T20" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="U20" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="V20" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="B21" s="23">
+        <v>2</v>
+      </c>
+      <c r="C21" s="23">
+        <v>7</v>
+      </c>
+      <c r="D21" s="23">
+        <v>10</v>
+      </c>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23">
+        <v>0</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23">
+        <v>0</v>
+      </c>
+      <c r="L21" s="23">
+        <v>1</v>
+      </c>
+      <c r="M21" s="23">
+        <v>1</v>
+      </c>
+      <c r="N21" s="23">
+        <v>0</v>
+      </c>
+      <c r="O21" s="23">
+        <v>100</v>
+      </c>
+      <c r="P21" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="T21" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="U21" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="V21" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="B22" s="24">
+        <v>2</v>
+      </c>
+      <c r="C22" s="23">
+        <v>7</v>
+      </c>
+      <c r="D22" s="23">
+        <v>20</v>
+      </c>
+      <c r="E22" s="24"/>
+      <c r="F22" s="23">
+        <v>0</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23">
+        <v>0</v>
+      </c>
+      <c r="L22" s="23">
+        <v>1</v>
+      </c>
+      <c r="M22" s="23">
+        <v>1</v>
+      </c>
+      <c r="N22" s="23">
+        <v>0</v>
+      </c>
+      <c r="O22" s="23">
+        <v>100</v>
+      </c>
+      <c r="P22" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="T22" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="U22" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="V22" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="B23" s="23">
+        <v>2</v>
+      </c>
+      <c r="C23" s="23">
+        <v>7</v>
+      </c>
+      <c r="D23" s="23">
+        <v>30</v>
+      </c>
+      <c r="E23" s="24"/>
+      <c r="F23" s="23">
+        <v>0</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23">
+        <v>0</v>
+      </c>
+      <c r="L23" s="23">
+        <v>1</v>
+      </c>
+      <c r="M23" s="23">
+        <v>1</v>
+      </c>
+      <c r="N23" s="23">
+        <v>0</v>
+      </c>
+      <c r="O23" s="23">
+        <v>100</v>
+      </c>
+      <c r="P23" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="T23" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="U23" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="V23" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="B24" s="24">
+        <v>2</v>
+      </c>
+      <c r="C24" s="23">
+        <v>7</v>
+      </c>
+      <c r="D24" s="23">
+        <v>40</v>
+      </c>
+      <c r="E24" s="24"/>
+      <c r="F24" s="23">
+        <v>0</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23">
+        <v>0</v>
+      </c>
+      <c r="L24" s="23">
+        <v>1</v>
+      </c>
+      <c r="M24" s="23">
+        <v>1</v>
+      </c>
+      <c r="N24" s="23">
+        <v>0</v>
+      </c>
+      <c r="O24" s="23">
+        <v>100</v>
+      </c>
+      <c r="P24" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="T24" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="U24" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="V24" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="B25" s="23">
+        <v>2</v>
+      </c>
+      <c r="C25" s="23">
+        <v>7</v>
+      </c>
+      <c r="D25" s="26">
+        <v>50</v>
+      </c>
+      <c r="E25" s="27"/>
+      <c r="F25" s="26">
+        <v>0</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26">
+        <v>0</v>
+      </c>
+      <c r="L25" s="26">
+        <v>1</v>
+      </c>
+      <c r="M25" s="23">
+        <v>1</v>
+      </c>
+      <c r="N25" s="26">
+        <v>0</v>
+      </c>
+      <c r="O25" s="26">
+        <v>100</v>
+      </c>
+      <c r="P25" s="27">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="T25" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="U25" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="V25" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="B26" s="24">
+        <v>2</v>
+      </c>
+      <c r="C26" s="23">
+        <v>7</v>
+      </c>
+      <c r="D26" s="26">
+        <v>60</v>
+      </c>
+      <c r="E26" s="27"/>
+      <c r="F26" s="26">
+        <v>0</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26">
+        <v>0</v>
+      </c>
+      <c r="L26" s="26">
+        <v>1</v>
+      </c>
+      <c r="M26" s="23">
+        <v>1</v>
+      </c>
+      <c r="N26" s="26">
+        <v>0</v>
+      </c>
+      <c r="O26" s="26">
+        <v>100</v>
+      </c>
+      <c r="P26" s="27">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="26"/>
+      <c r="S26" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="T26" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="U26" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="V26" s="26">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:V9">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
+  </dataValidations>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V80"/>
   <sheetViews>
@@ -17192,7 +17921,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V10"/>
   <sheetViews>

--- a/_Out/NFDataCfg/Excel/Item.xlsx
+++ b/_Out/NFDataCfg/Excel/Item.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27940" windowHeight="17540"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27940" windowHeight="17540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Property_scrolls-3-building" sheetId="5" r:id="rId1"/>
-    <sheet name="Property_scrolls-3" sheetId="2" r:id="rId2"/>
-    <sheet name="Property_supplies-2" sheetId="3" r:id="rId3"/>
+    <sheet name="Property_supplies-2" sheetId="3" r:id="rId2"/>
+    <sheet name="Property_scrolls-3" sheetId="2" r:id="rId3"/>
     <sheet name="Property_itempack" sheetId="6" r:id="rId4"/>
     <sheet name="Property_gem-1" sheetId="4" r:id="rId5"/>
     <sheet name="Property_equipment-0" sheetId="1" r:id="rId6"/>
@@ -22,9 +22,9 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="4" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="2" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="0" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="0" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="2" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
@@ -2679,7 +2679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="P44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -7768,6 +7768,2929 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" customWidth="1"/>
+    <col min="8" max="8" width="34" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" customWidth="1"/>
+    <col min="10" max="10" width="58.33203125" customWidth="1"/>
+    <col min="11" max="11" width="31.5" customWidth="1"/>
+    <col min="12" max="13" width="14.1640625" customWidth="1"/>
+    <col min="14" max="14" width="17.6640625" customWidth="1"/>
+    <col min="15" max="15" width="16.5" customWidth="1"/>
+    <col min="16" max="16" width="12.6640625" customWidth="1"/>
+    <col min="17" max="17" width="14" customWidth="1"/>
+    <col min="18" max="18" width="27.6640625" customWidth="1"/>
+    <col min="19" max="20" width="23.33203125" customWidth="1"/>
+    <col min="21" max="21" width="21.5" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0</v>
+      </c>
+      <c r="P3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>0</v>
+      </c>
+      <c r="R3" s="5">
+        <v>0</v>
+      </c>
+      <c r="S3" s="5">
+        <v>0</v>
+      </c>
+      <c r="T3" s="5">
+        <v>0</v>
+      </c>
+      <c r="U3" s="5">
+        <v>0</v>
+      </c>
+      <c r="V3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0</v>
+      </c>
+      <c r="P4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>0</v>
+      </c>
+      <c r="R4" s="5">
+        <v>0</v>
+      </c>
+      <c r="S4" s="5">
+        <v>0</v>
+      </c>
+      <c r="T4" s="5">
+        <v>0</v>
+      </c>
+      <c r="U4" s="5">
+        <v>0</v>
+      </c>
+      <c r="V4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>0</v>
+      </c>
+      <c r="R5" s="5">
+        <v>0</v>
+      </c>
+      <c r="S5" s="5">
+        <v>0</v>
+      </c>
+      <c r="T5" s="5">
+        <v>0</v>
+      </c>
+      <c r="U5" s="5">
+        <v>0</v>
+      </c>
+      <c r="V5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0</v>
+      </c>
+      <c r="P6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>0</v>
+      </c>
+      <c r="R6" s="5">
+        <v>0</v>
+      </c>
+      <c r="S6" s="5">
+        <v>0</v>
+      </c>
+      <c r="T6" s="5">
+        <v>0</v>
+      </c>
+      <c r="U6" s="5">
+        <v>0</v>
+      </c>
+      <c r="V6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0</v>
+      </c>
+      <c r="R7" s="3">
+        <v>0</v>
+      </c>
+      <c r="S7" s="3">
+        <v>0</v>
+      </c>
+      <c r="T7" s="3">
+        <v>0</v>
+      </c>
+      <c r="U7" s="3">
+        <v>1</v>
+      </c>
+      <c r="V7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" s="2" customFormat="1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="16">
+        <v>2</v>
+      </c>
+      <c r="C11" s="17">
+        <v>2</v>
+      </c>
+      <c r="D11" s="16">
+        <v>0</v>
+      </c>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16">
+        <v>0</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16">
+        <v>10000</v>
+      </c>
+      <c r="L11" s="16">
+        <v>1</v>
+      </c>
+      <c r="M11" s="16">
+        <v>999</v>
+      </c>
+      <c r="N11" s="16">
+        <v>0</v>
+      </c>
+      <c r="O11" s="16">
+        <v>100</v>
+      </c>
+      <c r="P11" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="T11" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="U11" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="V11" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="17">
+        <v>2</v>
+      </c>
+      <c r="C12" s="17">
+        <v>1</v>
+      </c>
+      <c r="D12" s="17">
+        <v>0</v>
+      </c>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17">
+        <v>0</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="18"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17">
+        <v>10000</v>
+      </c>
+      <c r="L12" s="17">
+        <v>1</v>
+      </c>
+      <c r="M12" s="17">
+        <v>999</v>
+      </c>
+      <c r="N12" s="17">
+        <v>0</v>
+      </c>
+      <c r="O12" s="17">
+        <v>100</v>
+      </c>
+      <c r="P12" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="T12" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="U12" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="V12" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="19">
+        <v>2</v>
+      </c>
+      <c r="C13" s="20">
+        <v>0</v>
+      </c>
+      <c r="D13" s="19">
+        <v>0</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19">
+        <v>0</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19">
+        <v>5</v>
+      </c>
+      <c r="L13" s="19">
+        <v>1</v>
+      </c>
+      <c r="M13" s="19">
+        <v>999</v>
+      </c>
+      <c r="N13" s="19">
+        <v>0</v>
+      </c>
+      <c r="O13" s="19">
+        <v>100</v>
+      </c>
+      <c r="P13" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="T13" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="U13" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="V13" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="20">
+        <v>2</v>
+      </c>
+      <c r="C14" s="20">
+        <v>0</v>
+      </c>
+      <c r="D14" s="20">
+        <v>0</v>
+      </c>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20">
+        <v>0</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20">
+        <v>10</v>
+      </c>
+      <c r="L14" s="20">
+        <v>1</v>
+      </c>
+      <c r="M14" s="20">
+        <v>999</v>
+      </c>
+      <c r="N14" s="20">
+        <v>0</v>
+      </c>
+      <c r="O14" s="20">
+        <v>100</v>
+      </c>
+      <c r="P14" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="T14" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="U14" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="V14" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="19">
+        <v>2</v>
+      </c>
+      <c r="C15" s="20">
+        <v>0</v>
+      </c>
+      <c r="D15" s="20">
+        <v>0</v>
+      </c>
+      <c r="E15" s="19"/>
+      <c r="F15" s="20">
+        <v>0</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="19">
+        <v>15</v>
+      </c>
+      <c r="L15" s="20">
+        <v>1</v>
+      </c>
+      <c r="M15" s="20">
+        <v>999</v>
+      </c>
+      <c r="N15" s="20">
+        <v>0</v>
+      </c>
+      <c r="O15" s="20">
+        <v>100</v>
+      </c>
+      <c r="P15" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="T15" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="U15" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="V15" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="20">
+        <v>2</v>
+      </c>
+      <c r="C16" s="20">
+        <v>0</v>
+      </c>
+      <c r="D16" s="20">
+        <v>0</v>
+      </c>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20">
+        <v>0</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20">
+        <v>20</v>
+      </c>
+      <c r="L16" s="20">
+        <v>1</v>
+      </c>
+      <c r="M16" s="20">
+        <v>999</v>
+      </c>
+      <c r="N16" s="20">
+        <v>0</v>
+      </c>
+      <c r="O16" s="20">
+        <v>100</v>
+      </c>
+      <c r="P16" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="T16" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="U16" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="V16" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="20">
+        <v>2</v>
+      </c>
+      <c r="C17" s="20">
+        <v>0</v>
+      </c>
+      <c r="D17" s="20">
+        <v>0</v>
+      </c>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20">
+        <v>0</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20">
+        <v>20</v>
+      </c>
+      <c r="L17" s="20">
+        <v>1</v>
+      </c>
+      <c r="M17" s="20">
+        <v>999</v>
+      </c>
+      <c r="N17" s="20">
+        <v>0</v>
+      </c>
+      <c r="O17" s="20">
+        <v>100</v>
+      </c>
+      <c r="P17" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="T17" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="U17" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="V17" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" s="20">
+        <v>2</v>
+      </c>
+      <c r="C18" s="20">
+        <v>0</v>
+      </c>
+      <c r="D18" s="20">
+        <v>0</v>
+      </c>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20">
+        <v>0</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H18" s="21"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20">
+        <v>20</v>
+      </c>
+      <c r="L18" s="20">
+        <v>1</v>
+      </c>
+      <c r="M18" s="20">
+        <v>999</v>
+      </c>
+      <c r="N18" s="20">
+        <v>0</v>
+      </c>
+      <c r="O18" s="20">
+        <v>100</v>
+      </c>
+      <c r="P18" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="T18" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="U18" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="V18" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" s="19">
+        <v>2</v>
+      </c>
+      <c r="C19" s="20">
+        <v>5</v>
+      </c>
+      <c r="D19" s="20">
+        <v>0</v>
+      </c>
+      <c r="E19" s="19"/>
+      <c r="F19" s="20">
+        <v>0</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="H19" s="21"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20">
+        <v>100</v>
+      </c>
+      <c r="L19" s="20">
+        <v>1</v>
+      </c>
+      <c r="M19" s="20">
+        <v>999</v>
+      </c>
+      <c r="N19" s="20">
+        <v>0</v>
+      </c>
+      <c r="O19" s="20">
+        <v>100</v>
+      </c>
+      <c r="P19" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="T19" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="U19" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="V19" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" s="20">
+        <v>2</v>
+      </c>
+      <c r="C20" s="20">
+        <v>5</v>
+      </c>
+      <c r="D20" s="20">
+        <v>0</v>
+      </c>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20">
+        <v>0</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="H20" s="21"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20">
+        <v>200</v>
+      </c>
+      <c r="L20" s="20">
+        <v>1</v>
+      </c>
+      <c r="M20" s="20">
+        <v>999</v>
+      </c>
+      <c r="N20" s="20">
+        <v>0</v>
+      </c>
+      <c r="O20" s="20">
+        <v>100</v>
+      </c>
+      <c r="P20" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="T20" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="U20" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="V20" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="19">
+        <v>2</v>
+      </c>
+      <c r="C21" s="20">
+        <v>5</v>
+      </c>
+      <c r="D21" s="20">
+        <v>0</v>
+      </c>
+      <c r="E21" s="19"/>
+      <c r="F21" s="20">
+        <v>0</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="H21" s="21"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20">
+        <v>400</v>
+      </c>
+      <c r="L21" s="20">
+        <v>1</v>
+      </c>
+      <c r="M21" s="20">
+        <v>999</v>
+      </c>
+      <c r="N21" s="20">
+        <v>0</v>
+      </c>
+      <c r="O21" s="20">
+        <v>100</v>
+      </c>
+      <c r="P21" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="T21" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="U21" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="V21" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="B22" s="20">
+        <v>2</v>
+      </c>
+      <c r="C22" s="20">
+        <v>5</v>
+      </c>
+      <c r="D22" s="20">
+        <v>0</v>
+      </c>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20">
+        <v>0</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="H22" s="21"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20">
+        <v>800</v>
+      </c>
+      <c r="L22" s="20">
+        <v>1</v>
+      </c>
+      <c r="M22" s="20">
+        <v>999</v>
+      </c>
+      <c r="N22" s="20">
+        <v>0</v>
+      </c>
+      <c r="O22" s="20">
+        <v>100</v>
+      </c>
+      <c r="P22" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="T22" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="U22" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="V22" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23" s="20">
+        <v>2</v>
+      </c>
+      <c r="C23" s="20">
+        <v>5</v>
+      </c>
+      <c r="D23" s="20">
+        <v>0</v>
+      </c>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20">
+        <v>0</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="H23" s="21"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20">
+        <v>800</v>
+      </c>
+      <c r="L23" s="20">
+        <v>1</v>
+      </c>
+      <c r="M23" s="20">
+        <v>999</v>
+      </c>
+      <c r="N23" s="20">
+        <v>0</v>
+      </c>
+      <c r="O23" s="20">
+        <v>100</v>
+      </c>
+      <c r="P23" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="T23" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="U23" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="V23" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B24" s="20">
+        <v>2</v>
+      </c>
+      <c r="C24" s="20">
+        <v>5</v>
+      </c>
+      <c r="D24" s="20">
+        <v>0</v>
+      </c>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20">
+        <v>0</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="H24" s="21"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20">
+        <v>800</v>
+      </c>
+      <c r="L24" s="20">
+        <v>1</v>
+      </c>
+      <c r="M24" s="20">
+        <v>999</v>
+      </c>
+      <c r="N24" s="20">
+        <v>0</v>
+      </c>
+      <c r="O24" s="20">
+        <v>100</v>
+      </c>
+      <c r="P24" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="T24" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="U24" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="V24" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25" s="19">
+        <v>2</v>
+      </c>
+      <c r="C25" s="20">
+        <v>4</v>
+      </c>
+      <c r="D25" s="20">
+        <v>0</v>
+      </c>
+      <c r="E25" s="19"/>
+      <c r="F25" s="20">
+        <v>0</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="H25" s="21"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20">
+        <v>100</v>
+      </c>
+      <c r="L25" s="20">
+        <v>1</v>
+      </c>
+      <c r="M25" s="20">
+        <v>999</v>
+      </c>
+      <c r="N25" s="20">
+        <v>0</v>
+      </c>
+      <c r="O25" s="20">
+        <v>100</v>
+      </c>
+      <c r="P25" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="T25" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="U25" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="V25" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="20">
+        <v>2</v>
+      </c>
+      <c r="C26" s="20">
+        <v>4</v>
+      </c>
+      <c r="D26" s="20">
+        <v>0</v>
+      </c>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20">
+        <v>0</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="H26" s="21"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20">
+        <v>200</v>
+      </c>
+      <c r="L26" s="20">
+        <v>1</v>
+      </c>
+      <c r="M26" s="20">
+        <v>999</v>
+      </c>
+      <c r="N26" s="20">
+        <v>0</v>
+      </c>
+      <c r="O26" s="20">
+        <v>100</v>
+      </c>
+      <c r="P26" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="T26" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="U26" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="V26" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="B27" s="19">
+        <v>2</v>
+      </c>
+      <c r="C27" s="20">
+        <v>4</v>
+      </c>
+      <c r="D27" s="20">
+        <v>0</v>
+      </c>
+      <c r="E27" s="19"/>
+      <c r="F27" s="20">
+        <v>0</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="H27" s="21"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20">
+        <v>400</v>
+      </c>
+      <c r="L27" s="20">
+        <v>1</v>
+      </c>
+      <c r="M27" s="20">
+        <v>999</v>
+      </c>
+      <c r="N27" s="20">
+        <v>0</v>
+      </c>
+      <c r="O27" s="20">
+        <v>100</v>
+      </c>
+      <c r="P27" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="T27" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="U27" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="V27" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="B28" s="20">
+        <v>2</v>
+      </c>
+      <c r="C28" s="20">
+        <v>4</v>
+      </c>
+      <c r="D28" s="20">
+        <v>0</v>
+      </c>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20">
+        <v>0</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="H28" s="21"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20">
+        <v>800</v>
+      </c>
+      <c r="L28" s="20">
+        <v>1</v>
+      </c>
+      <c r="M28" s="20">
+        <v>999</v>
+      </c>
+      <c r="N28" s="20">
+        <v>0</v>
+      </c>
+      <c r="O28" s="20">
+        <v>100</v>
+      </c>
+      <c r="P28" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="T28" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="U28" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="V28" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="B29" s="20">
+        <v>2</v>
+      </c>
+      <c r="C29" s="20">
+        <v>4</v>
+      </c>
+      <c r="D29" s="20">
+        <v>0</v>
+      </c>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20">
+        <v>0</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="H29" s="21"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20">
+        <v>800</v>
+      </c>
+      <c r="L29" s="20">
+        <v>1</v>
+      </c>
+      <c r="M29" s="20">
+        <v>999</v>
+      </c>
+      <c r="N29" s="20">
+        <v>0</v>
+      </c>
+      <c r="O29" s="20">
+        <v>100</v>
+      </c>
+      <c r="P29" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="T29" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="U29" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="V29" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="B30" s="20">
+        <v>2</v>
+      </c>
+      <c r="C30" s="20">
+        <v>4</v>
+      </c>
+      <c r="D30" s="20">
+        <v>0</v>
+      </c>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20">
+        <v>0</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="H30" s="21"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20">
+        <v>800</v>
+      </c>
+      <c r="L30" s="20">
+        <v>1</v>
+      </c>
+      <c r="M30" s="20">
+        <v>999</v>
+      </c>
+      <c r="N30" s="20">
+        <v>0</v>
+      </c>
+      <c r="O30" s="20">
+        <v>100</v>
+      </c>
+      <c r="P30" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="20"/>
+      <c r="S30" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="T30" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="U30" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="V30" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="B31" s="19">
+        <v>2</v>
+      </c>
+      <c r="C31" s="20">
+        <v>0</v>
+      </c>
+      <c r="D31" s="20">
+        <v>0</v>
+      </c>
+      <c r="E31" s="19"/>
+      <c r="F31" s="20">
+        <v>0</v>
+      </c>
+      <c r="G31" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="H31" s="21"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20">
+        <v>100</v>
+      </c>
+      <c r="L31" s="20">
+        <v>1</v>
+      </c>
+      <c r="M31" s="20">
+        <v>999</v>
+      </c>
+      <c r="N31" s="20">
+        <v>0</v>
+      </c>
+      <c r="O31" s="20">
+        <v>100</v>
+      </c>
+      <c r="P31" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="T31" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="U31" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="V31" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="B32" s="20">
+        <v>2</v>
+      </c>
+      <c r="C32" s="20">
+        <v>0</v>
+      </c>
+      <c r="D32" s="20">
+        <v>0</v>
+      </c>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20">
+        <v>0</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="H32" s="21"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20">
+        <v>200</v>
+      </c>
+      <c r="L32" s="20">
+        <v>1</v>
+      </c>
+      <c r="M32" s="20">
+        <v>999</v>
+      </c>
+      <c r="N32" s="20">
+        <v>0</v>
+      </c>
+      <c r="O32" s="20">
+        <v>100</v>
+      </c>
+      <c r="P32" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="20"/>
+      <c r="S32" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="T32" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="U32" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="V32" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="B33" s="19">
+        <v>2</v>
+      </c>
+      <c r="C33" s="20">
+        <v>0</v>
+      </c>
+      <c r="D33" s="20">
+        <v>0</v>
+      </c>
+      <c r="E33" s="19"/>
+      <c r="F33" s="20">
+        <v>0</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="H33" s="21"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20">
+        <v>400</v>
+      </c>
+      <c r="L33" s="20">
+        <v>1</v>
+      </c>
+      <c r="M33" s="20">
+        <v>999</v>
+      </c>
+      <c r="N33" s="20">
+        <v>0</v>
+      </c>
+      <c r="O33" s="20">
+        <v>100</v>
+      </c>
+      <c r="P33" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="T33" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="U33" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="V33" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="B34" s="20">
+        <v>2</v>
+      </c>
+      <c r="C34" s="20">
+        <v>0</v>
+      </c>
+      <c r="D34" s="20">
+        <v>0</v>
+      </c>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20">
+        <v>0</v>
+      </c>
+      <c r="G34" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="H34" s="21"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20">
+        <v>800</v>
+      </c>
+      <c r="L34" s="20">
+        <v>1</v>
+      </c>
+      <c r="M34" s="20">
+        <v>999</v>
+      </c>
+      <c r="N34" s="20">
+        <v>0</v>
+      </c>
+      <c r="O34" s="20">
+        <v>100</v>
+      </c>
+      <c r="P34" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="20"/>
+      <c r="R34" s="20"/>
+      <c r="S34" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="T34" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="U34" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="V34" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="B35" s="19">
+        <v>2</v>
+      </c>
+      <c r="C35" s="20">
+        <v>0</v>
+      </c>
+      <c r="D35" s="20">
+        <v>0</v>
+      </c>
+      <c r="E35" s="19"/>
+      <c r="F35" s="20">
+        <v>0</v>
+      </c>
+      <c r="G35" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="H35" s="21"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20">
+        <v>800</v>
+      </c>
+      <c r="L35" s="20">
+        <v>1</v>
+      </c>
+      <c r="M35" s="20">
+        <v>999</v>
+      </c>
+      <c r="N35" s="20">
+        <v>0</v>
+      </c>
+      <c r="O35" s="20">
+        <v>100</v>
+      </c>
+      <c r="P35" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="20"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="T35" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="U35" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="V35" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B36" s="20">
+        <v>2</v>
+      </c>
+      <c r="C36" s="20">
+        <v>0</v>
+      </c>
+      <c r="D36" s="20">
+        <v>0</v>
+      </c>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20">
+        <v>0</v>
+      </c>
+      <c r="G36" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="H36" s="21"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20">
+        <v>800</v>
+      </c>
+      <c r="L36" s="20">
+        <v>1</v>
+      </c>
+      <c r="M36" s="20">
+        <v>999</v>
+      </c>
+      <c r="N36" s="20">
+        <v>0</v>
+      </c>
+      <c r="O36" s="20">
+        <v>100</v>
+      </c>
+      <c r="P36" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="20"/>
+      <c r="R36" s="20"/>
+      <c r="S36" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="T36" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="U36" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="V36" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="B37" s="19">
+        <v>2</v>
+      </c>
+      <c r="C37" s="20">
+        <v>0</v>
+      </c>
+      <c r="D37" s="20">
+        <v>0</v>
+      </c>
+      <c r="E37" s="19"/>
+      <c r="F37" s="20">
+        <v>0</v>
+      </c>
+      <c r="G37" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="H37" s="21"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20">
+        <v>100</v>
+      </c>
+      <c r="L37" s="20">
+        <v>1</v>
+      </c>
+      <c r="M37" s="20">
+        <v>999</v>
+      </c>
+      <c r="N37" s="20">
+        <v>0</v>
+      </c>
+      <c r="O37" s="20">
+        <v>100</v>
+      </c>
+      <c r="P37" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="20"/>
+      <c r="R37" s="19"/>
+      <c r="S37" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="T37" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="U37" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="V37" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="B38" s="20">
+        <v>2</v>
+      </c>
+      <c r="C38" s="20">
+        <v>0</v>
+      </c>
+      <c r="D38" s="20">
+        <v>0</v>
+      </c>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20">
+        <v>0</v>
+      </c>
+      <c r="G38" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="H38" s="21"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20">
+        <v>200</v>
+      </c>
+      <c r="L38" s="20">
+        <v>1</v>
+      </c>
+      <c r="M38" s="20">
+        <v>999</v>
+      </c>
+      <c r="N38" s="20">
+        <v>0</v>
+      </c>
+      <c r="O38" s="20">
+        <v>100</v>
+      </c>
+      <c r="P38" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="20"/>
+      <c r="R38" s="20"/>
+      <c r="S38" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="T38" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="U38" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="V38" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="B39" s="19">
+        <v>2</v>
+      </c>
+      <c r="C39" s="20">
+        <v>0</v>
+      </c>
+      <c r="D39" s="20">
+        <v>0</v>
+      </c>
+      <c r="E39" s="19"/>
+      <c r="F39" s="20">
+        <v>0</v>
+      </c>
+      <c r="G39" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="H39" s="21"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20">
+        <v>400</v>
+      </c>
+      <c r="L39" s="20">
+        <v>1</v>
+      </c>
+      <c r="M39" s="20">
+        <v>999</v>
+      </c>
+      <c r="N39" s="20">
+        <v>0</v>
+      </c>
+      <c r="O39" s="20">
+        <v>100</v>
+      </c>
+      <c r="P39" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="20"/>
+      <c r="R39" s="19"/>
+      <c r="S39" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="T39" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="U39" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="V39" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="B40" s="20">
+        <v>2</v>
+      </c>
+      <c r="C40" s="20">
+        <v>0</v>
+      </c>
+      <c r="D40" s="20">
+        <v>0</v>
+      </c>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20">
+        <v>0</v>
+      </c>
+      <c r="G40" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="H40" s="21"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20">
+        <v>800</v>
+      </c>
+      <c r="L40" s="20">
+        <v>1</v>
+      </c>
+      <c r="M40" s="20">
+        <v>999</v>
+      </c>
+      <c r="N40" s="20">
+        <v>0</v>
+      </c>
+      <c r="O40" s="20">
+        <v>100</v>
+      </c>
+      <c r="P40" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="20"/>
+      <c r="R40" s="20"/>
+      <c r="S40" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="T40" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="U40" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="V40" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="B41" s="19">
+        <v>2</v>
+      </c>
+      <c r="C41" s="20">
+        <v>0</v>
+      </c>
+      <c r="D41" s="20">
+        <v>0</v>
+      </c>
+      <c r="E41" s="19"/>
+      <c r="F41" s="20">
+        <v>0</v>
+      </c>
+      <c r="G41" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="H41" s="21"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20">
+        <v>800</v>
+      </c>
+      <c r="L41" s="20">
+        <v>1</v>
+      </c>
+      <c r="M41" s="20">
+        <v>999</v>
+      </c>
+      <c r="N41" s="20">
+        <v>0</v>
+      </c>
+      <c r="O41" s="20">
+        <v>100</v>
+      </c>
+      <c r="P41" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="20"/>
+      <c r="R41" s="19"/>
+      <c r="S41" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="T41" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="U41" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="V41" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="B42" s="20">
+        <v>2</v>
+      </c>
+      <c r="C42" s="20">
+        <v>0</v>
+      </c>
+      <c r="D42" s="20">
+        <v>0</v>
+      </c>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20">
+        <v>0</v>
+      </c>
+      <c r="G42" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="H42" s="21"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20">
+        <v>800</v>
+      </c>
+      <c r="L42" s="20">
+        <v>1</v>
+      </c>
+      <c r="M42" s="20">
+        <v>999</v>
+      </c>
+      <c r="N42" s="20">
+        <v>0</v>
+      </c>
+      <c r="O42" s="20">
+        <v>100</v>
+      </c>
+      <c r="P42" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="20"/>
+      <c r="R42" s="20"/>
+      <c r="S42" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="T42" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="U42" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="V42" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="B43" s="20">
+        <v>2</v>
+      </c>
+      <c r="C43" s="20">
+        <v>0</v>
+      </c>
+      <c r="D43" s="20">
+        <v>0</v>
+      </c>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20">
+        <v>0</v>
+      </c>
+      <c r="G43" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="H43" s="21"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="20">
+        <v>100</v>
+      </c>
+      <c r="L43" s="20">
+        <v>1</v>
+      </c>
+      <c r="M43" s="20">
+        <v>999</v>
+      </c>
+      <c r="N43" s="20">
+        <v>0</v>
+      </c>
+      <c r="O43" s="20">
+        <v>100</v>
+      </c>
+      <c r="P43" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="20"/>
+      <c r="R43" s="20"/>
+      <c r="S43" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="T43" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="U43" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="V43" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="B44" s="19">
+        <v>2</v>
+      </c>
+      <c r="C44" s="20">
+        <v>0</v>
+      </c>
+      <c r="D44" s="20">
+        <v>0</v>
+      </c>
+      <c r="E44" s="19"/>
+      <c r="F44" s="20">
+        <v>0</v>
+      </c>
+      <c r="G44" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="H44" s="21"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="20">
+        <v>200</v>
+      </c>
+      <c r="L44" s="20">
+        <v>1</v>
+      </c>
+      <c r="M44" s="20">
+        <v>999</v>
+      </c>
+      <c r="N44" s="20">
+        <v>0</v>
+      </c>
+      <c r="O44" s="20">
+        <v>100</v>
+      </c>
+      <c r="P44" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="20"/>
+      <c r="R44" s="19"/>
+      <c r="S44" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="T44" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="U44" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="V44" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="B45" s="20">
+        <v>2</v>
+      </c>
+      <c r="C45" s="20">
+        <v>0</v>
+      </c>
+      <c r="D45" s="20">
+        <v>0</v>
+      </c>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20">
+        <v>0</v>
+      </c>
+      <c r="G45" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="H45" s="21"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="20">
+        <v>400</v>
+      </c>
+      <c r="L45" s="20">
+        <v>1</v>
+      </c>
+      <c r="M45" s="20">
+        <v>999</v>
+      </c>
+      <c r="N45" s="20">
+        <v>0</v>
+      </c>
+      <c r="O45" s="20">
+        <v>100</v>
+      </c>
+      <c r="P45" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="20"/>
+      <c r="R45" s="20"/>
+      <c r="S45" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="T45" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="U45" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="V45" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="B46" s="19">
+        <v>2</v>
+      </c>
+      <c r="C46" s="20">
+        <v>0</v>
+      </c>
+      <c r="D46" s="20">
+        <v>0</v>
+      </c>
+      <c r="E46" s="19"/>
+      <c r="F46" s="20">
+        <v>0</v>
+      </c>
+      <c r="G46" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="H46" s="21"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="20">
+        <v>800</v>
+      </c>
+      <c r="L46" s="20">
+        <v>1</v>
+      </c>
+      <c r="M46" s="20">
+        <v>999</v>
+      </c>
+      <c r="N46" s="20">
+        <v>0</v>
+      </c>
+      <c r="O46" s="20">
+        <v>100</v>
+      </c>
+      <c r="P46" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="20"/>
+      <c r="R46" s="19"/>
+      <c r="S46" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="T46" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="U46" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="V46" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="B47" s="20">
+        <v>2</v>
+      </c>
+      <c r="C47" s="20">
+        <v>0</v>
+      </c>
+      <c r="D47" s="20">
+        <v>0</v>
+      </c>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20">
+        <v>0</v>
+      </c>
+      <c r="G47" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="H47" s="21"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="20">
+        <v>1600</v>
+      </c>
+      <c r="L47" s="20">
+        <v>1</v>
+      </c>
+      <c r="M47" s="20">
+        <v>999</v>
+      </c>
+      <c r="N47" s="20">
+        <v>0</v>
+      </c>
+      <c r="O47" s="20">
+        <v>100</v>
+      </c>
+      <c r="P47" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="20"/>
+      <c r="R47" s="20"/>
+      <c r="S47" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="T47" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="U47" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="V47" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="B48" s="19">
+        <v>2</v>
+      </c>
+      <c r="C48" s="20">
+        <v>0</v>
+      </c>
+      <c r="D48" s="20">
+        <v>0</v>
+      </c>
+      <c r="E48" s="19"/>
+      <c r="F48" s="20">
+        <v>0</v>
+      </c>
+      <c r="G48" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="H48" s="21"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="20">
+        <v>1600</v>
+      </c>
+      <c r="L48" s="20">
+        <v>1</v>
+      </c>
+      <c r="M48" s="20">
+        <v>999</v>
+      </c>
+      <c r="N48" s="20">
+        <v>0</v>
+      </c>
+      <c r="O48" s="20">
+        <v>100</v>
+      </c>
+      <c r="P48" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="20"/>
+      <c r="R48" s="19"/>
+      <c r="S48" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="T48" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="U48" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="V48" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="B49" s="19">
+        <v>2</v>
+      </c>
+      <c r="C49" s="20">
+        <v>8</v>
+      </c>
+      <c r="D49" s="20">
+        <v>0</v>
+      </c>
+      <c r="E49" s="19"/>
+      <c r="F49" s="20">
+        <v>0</v>
+      </c>
+      <c r="G49" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="H49" s="21"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20"/>
+      <c r="K49" s="20">
+        <v>1600</v>
+      </c>
+      <c r="L49" s="20">
+        <v>1</v>
+      </c>
+      <c r="M49" s="20">
+        <v>999</v>
+      </c>
+      <c r="N49" s="20">
+        <v>0</v>
+      </c>
+      <c r="O49" s="20">
+        <v>100</v>
+      </c>
+      <c r="P49" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="20"/>
+      <c r="R49" s="19"/>
+      <c r="S49" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="T49" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="U49" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="V49" s="20">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:V9">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V14"/>
   <sheetViews>
@@ -8712,2929 +11635,6 @@
       </c>
       <c r="V14" s="35">
         <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:V9">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V49"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A50" sqref="A50:XFD65"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" customWidth="1"/>
-    <col min="8" max="8" width="34" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" customWidth="1"/>
-    <col min="10" max="10" width="58.33203125" customWidth="1"/>
-    <col min="11" max="11" width="31.5" customWidth="1"/>
-    <col min="12" max="13" width="14.1640625" customWidth="1"/>
-    <col min="14" max="14" width="17.6640625" customWidth="1"/>
-    <col min="15" max="15" width="16.5" customWidth="1"/>
-    <col min="16" max="16" width="12.6640625" customWidth="1"/>
-    <col min="17" max="17" width="14" customWidth="1"/>
-    <col min="18" max="18" width="27.6640625" customWidth="1"/>
-    <col min="19" max="20" width="23.33203125" customWidth="1"/>
-    <col min="21" max="21" width="21.5" customWidth="1"/>
-    <col min="22" max="22" width="8.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="5">
-        <v>0</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5">
-        <v>0</v>
-      </c>
-      <c r="I3" s="5">
-        <v>0</v>
-      </c>
-      <c r="J3" s="5">
-        <v>0</v>
-      </c>
-      <c r="K3" s="5">
-        <v>0</v>
-      </c>
-      <c r="L3" s="5">
-        <v>0</v>
-      </c>
-      <c r="M3" s="5">
-        <v>0</v>
-      </c>
-      <c r="N3" s="5">
-        <v>0</v>
-      </c>
-      <c r="O3" s="5">
-        <v>0</v>
-      </c>
-      <c r="P3" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="5">
-        <v>0</v>
-      </c>
-      <c r="R3" s="5">
-        <v>0</v>
-      </c>
-      <c r="S3" s="5">
-        <v>0</v>
-      </c>
-      <c r="T3" s="5">
-        <v>0</v>
-      </c>
-      <c r="U3" s="5">
-        <v>0</v>
-      </c>
-      <c r="V3" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="5">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5">
-        <v>0</v>
-      </c>
-      <c r="I4" s="5">
-        <v>0</v>
-      </c>
-      <c r="J4" s="5">
-        <v>0</v>
-      </c>
-      <c r="K4" s="5">
-        <v>0</v>
-      </c>
-      <c r="L4" s="5">
-        <v>0</v>
-      </c>
-      <c r="M4" s="5">
-        <v>0</v>
-      </c>
-      <c r="N4" s="5">
-        <v>0</v>
-      </c>
-      <c r="O4" s="5">
-        <v>0</v>
-      </c>
-      <c r="P4" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>0</v>
-      </c>
-      <c r="R4" s="5">
-        <v>0</v>
-      </c>
-      <c r="S4" s="5">
-        <v>0</v>
-      </c>
-      <c r="T4" s="5">
-        <v>0</v>
-      </c>
-      <c r="U4" s="5">
-        <v>0</v>
-      </c>
-      <c r="V4" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="5">
-        <v>0</v>
-      </c>
-      <c r="K5" s="5">
-        <v>0</v>
-      </c>
-      <c r="L5" s="5">
-        <v>0</v>
-      </c>
-      <c r="M5" s="5">
-        <v>0</v>
-      </c>
-      <c r="N5" s="5">
-        <v>0</v>
-      </c>
-      <c r="O5" s="5">
-        <v>0</v>
-      </c>
-      <c r="P5" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="5">
-        <v>0</v>
-      </c>
-      <c r="R5" s="5">
-        <v>0</v>
-      </c>
-      <c r="S5" s="5">
-        <v>0</v>
-      </c>
-      <c r="T5" s="5">
-        <v>0</v>
-      </c>
-      <c r="U5" s="5">
-        <v>0</v>
-      </c>
-      <c r="V5" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="5">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0</v>
-      </c>
-      <c r="J6" s="5">
-        <v>0</v>
-      </c>
-      <c r="K6" s="5">
-        <v>0</v>
-      </c>
-      <c r="L6" s="5">
-        <v>0</v>
-      </c>
-      <c r="M6" s="5">
-        <v>0</v>
-      </c>
-      <c r="N6" s="5">
-        <v>0</v>
-      </c>
-      <c r="O6" s="5">
-        <v>0</v>
-      </c>
-      <c r="P6" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="5">
-        <v>0</v>
-      </c>
-      <c r="R6" s="5">
-        <v>0</v>
-      </c>
-      <c r="S6" s="5">
-        <v>0</v>
-      </c>
-      <c r="T6" s="5">
-        <v>0</v>
-      </c>
-      <c r="U6" s="5">
-        <v>0</v>
-      </c>
-      <c r="V6" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3">
-        <v>1</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3">
-        <v>0</v>
-      </c>
-      <c r="M7" s="3">
-        <v>0</v>
-      </c>
-      <c r="N7" s="3">
-        <v>0</v>
-      </c>
-      <c r="O7" s="3">
-        <v>0</v>
-      </c>
-      <c r="P7" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>0</v>
-      </c>
-      <c r="R7" s="3">
-        <v>0</v>
-      </c>
-      <c r="S7" s="3">
-        <v>0</v>
-      </c>
-      <c r="T7" s="3">
-        <v>0</v>
-      </c>
-      <c r="U7" s="3">
-        <v>1</v>
-      </c>
-      <c r="V7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
-      <c r="U8" s="3">
-        <v>0</v>
-      </c>
-      <c r="V8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>0</v>
-      </c>
-      <c r="R9" s="3">
-        <v>0</v>
-      </c>
-      <c r="S9" s="3">
-        <v>0</v>
-      </c>
-      <c r="T9" s="3">
-        <v>0</v>
-      </c>
-      <c r="U9" s="3">
-        <v>0</v>
-      </c>
-      <c r="V9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" s="2" customFormat="1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="P10" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q10" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="R10" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="S10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="T10" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="U10" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="V10" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" s="16">
-        <v>2</v>
-      </c>
-      <c r="C11" s="17">
-        <v>2</v>
-      </c>
-      <c r="D11" s="16">
-        <v>0</v>
-      </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16">
-        <v>0</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16">
-        <v>10000</v>
-      </c>
-      <c r="L11" s="16">
-        <v>1</v>
-      </c>
-      <c r="M11" s="16">
-        <v>999</v>
-      </c>
-      <c r="N11" s="16">
-        <v>0</v>
-      </c>
-      <c r="O11" s="16">
-        <v>100</v>
-      </c>
-      <c r="P11" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="T11" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="U11" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="V11" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" s="17">
-        <v>2</v>
-      </c>
-      <c r="C12" s="17">
-        <v>1</v>
-      </c>
-      <c r="D12" s="17">
-        <v>0</v>
-      </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17">
-        <v>0</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="H12" s="18"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17">
-        <v>10000</v>
-      </c>
-      <c r="L12" s="17">
-        <v>1</v>
-      </c>
-      <c r="M12" s="17">
-        <v>999</v>
-      </c>
-      <c r="N12" s="17">
-        <v>0</v>
-      </c>
-      <c r="O12" s="17">
-        <v>100</v>
-      </c>
-      <c r="P12" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="T12" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="U12" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="V12" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="B13" s="19">
-        <v>2</v>
-      </c>
-      <c r="C13" s="20">
-        <v>0</v>
-      </c>
-      <c r="D13" s="19">
-        <v>0</v>
-      </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19">
-        <v>0</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19">
-        <v>5</v>
-      </c>
-      <c r="L13" s="19">
-        <v>1</v>
-      </c>
-      <c r="M13" s="19">
-        <v>999</v>
-      </c>
-      <c r="N13" s="19">
-        <v>0</v>
-      </c>
-      <c r="O13" s="19">
-        <v>100</v>
-      </c>
-      <c r="P13" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="T13" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="U13" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="V13" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="B14" s="20">
-        <v>2</v>
-      </c>
-      <c r="C14" s="20">
-        <v>0</v>
-      </c>
-      <c r="D14" s="20">
-        <v>0</v>
-      </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20">
-        <v>0</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20">
-        <v>10</v>
-      </c>
-      <c r="L14" s="20">
-        <v>1</v>
-      </c>
-      <c r="M14" s="20">
-        <v>999</v>
-      </c>
-      <c r="N14" s="20">
-        <v>0</v>
-      </c>
-      <c r="O14" s="20">
-        <v>100</v>
-      </c>
-      <c r="P14" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="T14" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="U14" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="V14" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="B15" s="19">
-        <v>2</v>
-      </c>
-      <c r="C15" s="20">
-        <v>0</v>
-      </c>
-      <c r="D15" s="20">
-        <v>0</v>
-      </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="20">
-        <v>0</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="H15" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="19">
-        <v>15</v>
-      </c>
-      <c r="L15" s="20">
-        <v>1</v>
-      </c>
-      <c r="M15" s="20">
-        <v>999</v>
-      </c>
-      <c r="N15" s="20">
-        <v>0</v>
-      </c>
-      <c r="O15" s="20">
-        <v>100</v>
-      </c>
-      <c r="P15" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="T15" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="U15" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="V15" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="B16" s="20">
-        <v>2</v>
-      </c>
-      <c r="C16" s="20">
-        <v>0</v>
-      </c>
-      <c r="D16" s="20">
-        <v>0</v>
-      </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20">
-        <v>0</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="H16" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20">
-        <v>20</v>
-      </c>
-      <c r="L16" s="20">
-        <v>1</v>
-      </c>
-      <c r="M16" s="20">
-        <v>999</v>
-      </c>
-      <c r="N16" s="20">
-        <v>0</v>
-      </c>
-      <c r="O16" s="20">
-        <v>100</v>
-      </c>
-      <c r="P16" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="T16" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="U16" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="V16" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="B17" s="20">
-        <v>2</v>
-      </c>
-      <c r="C17" s="20">
-        <v>0</v>
-      </c>
-      <c r="D17" s="20">
-        <v>0</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20">
-        <v>0</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="H17" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20">
-        <v>20</v>
-      </c>
-      <c r="L17" s="20">
-        <v>1</v>
-      </c>
-      <c r="M17" s="20">
-        <v>999</v>
-      </c>
-      <c r="N17" s="20">
-        <v>0</v>
-      </c>
-      <c r="O17" s="20">
-        <v>100</v>
-      </c>
-      <c r="P17" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="T17" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="U17" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="V17" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="B18" s="20">
-        <v>2</v>
-      </c>
-      <c r="C18" s="20">
-        <v>0</v>
-      </c>
-      <c r="D18" s="20">
-        <v>0</v>
-      </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20">
-        <v>0</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="H18" s="21"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20">
-        <v>20</v>
-      </c>
-      <c r="L18" s="20">
-        <v>1</v>
-      </c>
-      <c r="M18" s="20">
-        <v>999</v>
-      </c>
-      <c r="N18" s="20">
-        <v>0</v>
-      </c>
-      <c r="O18" s="20">
-        <v>100</v>
-      </c>
-      <c r="P18" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="T18" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="U18" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="V18" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="B19" s="19">
-        <v>2</v>
-      </c>
-      <c r="C19" s="20">
-        <v>0</v>
-      </c>
-      <c r="D19" s="20">
-        <v>0</v>
-      </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="20">
-        <v>0</v>
-      </c>
-      <c r="G19" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="H19" s="21"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20">
-        <v>100</v>
-      </c>
-      <c r="L19" s="20">
-        <v>1</v>
-      </c>
-      <c r="M19" s="20">
-        <v>999</v>
-      </c>
-      <c r="N19" s="20">
-        <v>0</v>
-      </c>
-      <c r="O19" s="20">
-        <v>100</v>
-      </c>
-      <c r="P19" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="T19" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="U19" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="V19" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="B20" s="20">
-        <v>2</v>
-      </c>
-      <c r="C20" s="20">
-        <v>0</v>
-      </c>
-      <c r="D20" s="20">
-        <v>0</v>
-      </c>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20">
-        <v>0</v>
-      </c>
-      <c r="G20" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="H20" s="21"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20">
-        <v>200</v>
-      </c>
-      <c r="L20" s="20">
-        <v>1</v>
-      </c>
-      <c r="M20" s="20">
-        <v>999</v>
-      </c>
-      <c r="N20" s="20">
-        <v>0</v>
-      </c>
-      <c r="O20" s="20">
-        <v>100</v>
-      </c>
-      <c r="P20" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="T20" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="U20" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="V20" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="B21" s="19">
-        <v>2</v>
-      </c>
-      <c r="C21" s="20">
-        <v>0</v>
-      </c>
-      <c r="D21" s="20">
-        <v>0</v>
-      </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="20">
-        <v>0</v>
-      </c>
-      <c r="G21" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="H21" s="21"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20">
-        <v>400</v>
-      </c>
-      <c r="L21" s="20">
-        <v>1</v>
-      </c>
-      <c r="M21" s="20">
-        <v>999</v>
-      </c>
-      <c r="N21" s="20">
-        <v>0</v>
-      </c>
-      <c r="O21" s="20">
-        <v>100</v>
-      </c>
-      <c r="P21" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="T21" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="U21" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="V21" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="B22" s="20">
-        <v>2</v>
-      </c>
-      <c r="C22" s="20">
-        <v>0</v>
-      </c>
-      <c r="D22" s="20">
-        <v>0</v>
-      </c>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20">
-        <v>0</v>
-      </c>
-      <c r="G22" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="H22" s="21"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20">
-        <v>800</v>
-      </c>
-      <c r="L22" s="20">
-        <v>1</v>
-      </c>
-      <c r="M22" s="20">
-        <v>999</v>
-      </c>
-      <c r="N22" s="20">
-        <v>0</v>
-      </c>
-      <c r="O22" s="20">
-        <v>100</v>
-      </c>
-      <c r="P22" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="20"/>
-      <c r="S22" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="T22" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="U22" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="V22" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="B23" s="20">
-        <v>2</v>
-      </c>
-      <c r="C23" s="20">
-        <v>0</v>
-      </c>
-      <c r="D23" s="20">
-        <v>0</v>
-      </c>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20">
-        <v>0</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="H23" s="21"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20">
-        <v>800</v>
-      </c>
-      <c r="L23" s="20">
-        <v>1</v>
-      </c>
-      <c r="M23" s="20">
-        <v>999</v>
-      </c>
-      <c r="N23" s="20">
-        <v>0</v>
-      </c>
-      <c r="O23" s="20">
-        <v>100</v>
-      </c>
-      <c r="P23" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="20"/>
-      <c r="S23" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="T23" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="U23" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="V23" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="B24" s="20">
-        <v>2</v>
-      </c>
-      <c r="C24" s="20">
-        <v>0</v>
-      </c>
-      <c r="D24" s="20">
-        <v>0</v>
-      </c>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20">
-        <v>0</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="H24" s="21"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20">
-        <v>800</v>
-      </c>
-      <c r="L24" s="20">
-        <v>1</v>
-      </c>
-      <c r="M24" s="20">
-        <v>999</v>
-      </c>
-      <c r="N24" s="20">
-        <v>0</v>
-      </c>
-      <c r="O24" s="20">
-        <v>100</v>
-      </c>
-      <c r="P24" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="20"/>
-      <c r="S24" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="T24" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="U24" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="V24" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="B25" s="19">
-        <v>2</v>
-      </c>
-      <c r="C25" s="20">
-        <v>0</v>
-      </c>
-      <c r="D25" s="20">
-        <v>0</v>
-      </c>
-      <c r="E25" s="19"/>
-      <c r="F25" s="20">
-        <v>0</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="H25" s="21"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20">
-        <v>100</v>
-      </c>
-      <c r="L25" s="20">
-        <v>1</v>
-      </c>
-      <c r="M25" s="20">
-        <v>999</v>
-      </c>
-      <c r="N25" s="20">
-        <v>0</v>
-      </c>
-      <c r="O25" s="20">
-        <v>100</v>
-      </c>
-      <c r="P25" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="19"/>
-      <c r="S25" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="T25" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="U25" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="V25" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="B26" s="20">
-        <v>2</v>
-      </c>
-      <c r="C26" s="20">
-        <v>0</v>
-      </c>
-      <c r="D26" s="20">
-        <v>0</v>
-      </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20">
-        <v>0</v>
-      </c>
-      <c r="G26" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="H26" s="21"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20">
-        <v>200</v>
-      </c>
-      <c r="L26" s="20">
-        <v>1</v>
-      </c>
-      <c r="M26" s="20">
-        <v>999</v>
-      </c>
-      <c r="N26" s="20">
-        <v>0</v>
-      </c>
-      <c r="O26" s="20">
-        <v>100</v>
-      </c>
-      <c r="P26" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="20"/>
-      <c r="S26" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="T26" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="U26" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="V26" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="B27" s="19">
-        <v>2</v>
-      </c>
-      <c r="C27" s="20">
-        <v>0</v>
-      </c>
-      <c r="D27" s="20">
-        <v>0</v>
-      </c>
-      <c r="E27" s="19"/>
-      <c r="F27" s="20">
-        <v>0</v>
-      </c>
-      <c r="G27" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="H27" s="21"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20">
-        <v>400</v>
-      </c>
-      <c r="L27" s="20">
-        <v>1</v>
-      </c>
-      <c r="M27" s="20">
-        <v>999</v>
-      </c>
-      <c r="N27" s="20">
-        <v>0</v>
-      </c>
-      <c r="O27" s="20">
-        <v>100</v>
-      </c>
-      <c r="P27" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="19"/>
-      <c r="S27" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="T27" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="U27" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="V27" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="B28" s="20">
-        <v>2</v>
-      </c>
-      <c r="C28" s="20">
-        <v>0</v>
-      </c>
-      <c r="D28" s="20">
-        <v>0</v>
-      </c>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20">
-        <v>0</v>
-      </c>
-      <c r="G28" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="H28" s="21"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20">
-        <v>800</v>
-      </c>
-      <c r="L28" s="20">
-        <v>1</v>
-      </c>
-      <c r="M28" s="20">
-        <v>999</v>
-      </c>
-      <c r="N28" s="20">
-        <v>0</v>
-      </c>
-      <c r="O28" s="20">
-        <v>100</v>
-      </c>
-      <c r="P28" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="20"/>
-      <c r="S28" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="T28" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="U28" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="V28" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="B29" s="20">
-        <v>2</v>
-      </c>
-      <c r="C29" s="20">
-        <v>0</v>
-      </c>
-      <c r="D29" s="20">
-        <v>0</v>
-      </c>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20">
-        <v>0</v>
-      </c>
-      <c r="G29" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="H29" s="21"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20">
-        <v>800</v>
-      </c>
-      <c r="L29" s="20">
-        <v>1</v>
-      </c>
-      <c r="M29" s="20">
-        <v>999</v>
-      </c>
-      <c r="N29" s="20">
-        <v>0</v>
-      </c>
-      <c r="O29" s="20">
-        <v>100</v>
-      </c>
-      <c r="P29" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="20"/>
-      <c r="R29" s="20"/>
-      <c r="S29" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="T29" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="U29" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="V29" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="B30" s="20">
-        <v>2</v>
-      </c>
-      <c r="C30" s="20">
-        <v>0</v>
-      </c>
-      <c r="D30" s="20">
-        <v>0</v>
-      </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20">
-        <v>0</v>
-      </c>
-      <c r="G30" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="H30" s="21"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20">
-        <v>800</v>
-      </c>
-      <c r="L30" s="20">
-        <v>1</v>
-      </c>
-      <c r="M30" s="20">
-        <v>999</v>
-      </c>
-      <c r="N30" s="20">
-        <v>0</v>
-      </c>
-      <c r="O30" s="20">
-        <v>100</v>
-      </c>
-      <c r="P30" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q30" s="20"/>
-      <c r="R30" s="20"/>
-      <c r="S30" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="T30" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="U30" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="V30" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="B31" s="19">
-        <v>2</v>
-      </c>
-      <c r="C31" s="20">
-        <v>0</v>
-      </c>
-      <c r="D31" s="20">
-        <v>0</v>
-      </c>
-      <c r="E31" s="19"/>
-      <c r="F31" s="20">
-        <v>0</v>
-      </c>
-      <c r="G31" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="H31" s="21"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20">
-        <v>100</v>
-      </c>
-      <c r="L31" s="20">
-        <v>1</v>
-      </c>
-      <c r="M31" s="20">
-        <v>999</v>
-      </c>
-      <c r="N31" s="20">
-        <v>0</v>
-      </c>
-      <c r="O31" s="20">
-        <v>100</v>
-      </c>
-      <c r="P31" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="20"/>
-      <c r="R31" s="19"/>
-      <c r="S31" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="T31" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="U31" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="V31" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="B32" s="20">
-        <v>2</v>
-      </c>
-      <c r="C32" s="20">
-        <v>0</v>
-      </c>
-      <c r="D32" s="20">
-        <v>0</v>
-      </c>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20">
-        <v>0</v>
-      </c>
-      <c r="G32" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="H32" s="21"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20">
-        <v>200</v>
-      </c>
-      <c r="L32" s="20">
-        <v>1</v>
-      </c>
-      <c r="M32" s="20">
-        <v>999</v>
-      </c>
-      <c r="N32" s="20">
-        <v>0</v>
-      </c>
-      <c r="O32" s="20">
-        <v>100</v>
-      </c>
-      <c r="P32" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="20"/>
-      <c r="R32" s="20"/>
-      <c r="S32" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="T32" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="U32" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="V32" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="B33" s="19">
-        <v>2</v>
-      </c>
-      <c r="C33" s="20">
-        <v>0</v>
-      </c>
-      <c r="D33" s="20">
-        <v>0</v>
-      </c>
-      <c r="E33" s="19"/>
-      <c r="F33" s="20">
-        <v>0</v>
-      </c>
-      <c r="G33" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="H33" s="21"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20">
-        <v>400</v>
-      </c>
-      <c r="L33" s="20">
-        <v>1</v>
-      </c>
-      <c r="M33" s="20">
-        <v>999</v>
-      </c>
-      <c r="N33" s="20">
-        <v>0</v>
-      </c>
-      <c r="O33" s="20">
-        <v>100</v>
-      </c>
-      <c r="P33" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="20"/>
-      <c r="R33" s="19"/>
-      <c r="S33" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="T33" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="U33" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="V33" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="B34" s="20">
-        <v>2</v>
-      </c>
-      <c r="C34" s="20">
-        <v>0</v>
-      </c>
-      <c r="D34" s="20">
-        <v>0</v>
-      </c>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20">
-        <v>0</v>
-      </c>
-      <c r="G34" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="H34" s="21"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20">
-        <v>800</v>
-      </c>
-      <c r="L34" s="20">
-        <v>1</v>
-      </c>
-      <c r="M34" s="20">
-        <v>999</v>
-      </c>
-      <c r="N34" s="20">
-        <v>0</v>
-      </c>
-      <c r="O34" s="20">
-        <v>100</v>
-      </c>
-      <c r="P34" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="20"/>
-      <c r="R34" s="20"/>
-      <c r="S34" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="T34" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="U34" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="V34" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="B35" s="19">
-        <v>2</v>
-      </c>
-      <c r="C35" s="20">
-        <v>0</v>
-      </c>
-      <c r="D35" s="20">
-        <v>0</v>
-      </c>
-      <c r="E35" s="19"/>
-      <c r="F35" s="20">
-        <v>0</v>
-      </c>
-      <c r="G35" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="H35" s="21"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20">
-        <v>800</v>
-      </c>
-      <c r="L35" s="20">
-        <v>1</v>
-      </c>
-      <c r="M35" s="20">
-        <v>999</v>
-      </c>
-      <c r="N35" s="20">
-        <v>0</v>
-      </c>
-      <c r="O35" s="20">
-        <v>100</v>
-      </c>
-      <c r="P35" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="20"/>
-      <c r="R35" s="19"/>
-      <c r="S35" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="T35" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="U35" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="V35" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="B36" s="20">
-        <v>2</v>
-      </c>
-      <c r="C36" s="20">
-        <v>0</v>
-      </c>
-      <c r="D36" s="20">
-        <v>0</v>
-      </c>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20">
-        <v>0</v>
-      </c>
-      <c r="G36" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="H36" s="21"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20">
-        <v>800</v>
-      </c>
-      <c r="L36" s="20">
-        <v>1</v>
-      </c>
-      <c r="M36" s="20">
-        <v>999</v>
-      </c>
-      <c r="N36" s="20">
-        <v>0</v>
-      </c>
-      <c r="O36" s="20">
-        <v>100</v>
-      </c>
-      <c r="P36" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q36" s="20"/>
-      <c r="R36" s="20"/>
-      <c r="S36" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="T36" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="U36" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="V36" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="B37" s="19">
-        <v>2</v>
-      </c>
-      <c r="C37" s="20">
-        <v>0</v>
-      </c>
-      <c r="D37" s="20">
-        <v>0</v>
-      </c>
-      <c r="E37" s="19"/>
-      <c r="F37" s="20">
-        <v>0</v>
-      </c>
-      <c r="G37" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="H37" s="21"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20">
-        <v>100</v>
-      </c>
-      <c r="L37" s="20">
-        <v>1</v>
-      </c>
-      <c r="M37" s="20">
-        <v>999</v>
-      </c>
-      <c r="N37" s="20">
-        <v>0</v>
-      </c>
-      <c r="O37" s="20">
-        <v>100</v>
-      </c>
-      <c r="P37" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q37" s="20"/>
-      <c r="R37" s="19"/>
-      <c r="S37" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="T37" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="U37" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="V37" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="B38" s="20">
-        <v>2</v>
-      </c>
-      <c r="C38" s="20">
-        <v>0</v>
-      </c>
-      <c r="D38" s="20">
-        <v>0</v>
-      </c>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20">
-        <v>0</v>
-      </c>
-      <c r="G38" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="H38" s="21"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20">
-        <v>200</v>
-      </c>
-      <c r="L38" s="20">
-        <v>1</v>
-      </c>
-      <c r="M38" s="20">
-        <v>999</v>
-      </c>
-      <c r="N38" s="20">
-        <v>0</v>
-      </c>
-      <c r="O38" s="20">
-        <v>100</v>
-      </c>
-      <c r="P38" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q38" s="20"/>
-      <c r="R38" s="20"/>
-      <c r="S38" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="T38" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="U38" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="V38" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="B39" s="19">
-        <v>2</v>
-      </c>
-      <c r="C39" s="20">
-        <v>0</v>
-      </c>
-      <c r="D39" s="20">
-        <v>0</v>
-      </c>
-      <c r="E39" s="19"/>
-      <c r="F39" s="20">
-        <v>0</v>
-      </c>
-      <c r="G39" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="H39" s="21"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20">
-        <v>400</v>
-      </c>
-      <c r="L39" s="20">
-        <v>1</v>
-      </c>
-      <c r="M39" s="20">
-        <v>999</v>
-      </c>
-      <c r="N39" s="20">
-        <v>0</v>
-      </c>
-      <c r="O39" s="20">
-        <v>100</v>
-      </c>
-      <c r="P39" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q39" s="20"/>
-      <c r="R39" s="19"/>
-      <c r="S39" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="T39" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="U39" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="V39" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="B40" s="20">
-        <v>2</v>
-      </c>
-      <c r="C40" s="20">
-        <v>0</v>
-      </c>
-      <c r="D40" s="20">
-        <v>0</v>
-      </c>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20">
-        <v>0</v>
-      </c>
-      <c r="G40" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="H40" s="21"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="20">
-        <v>800</v>
-      </c>
-      <c r="L40" s="20">
-        <v>1</v>
-      </c>
-      <c r="M40" s="20">
-        <v>999</v>
-      </c>
-      <c r="N40" s="20">
-        <v>0</v>
-      </c>
-      <c r="O40" s="20">
-        <v>100</v>
-      </c>
-      <c r="P40" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q40" s="20"/>
-      <c r="R40" s="20"/>
-      <c r="S40" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="T40" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="U40" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="V40" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="B41" s="19">
-        <v>2</v>
-      </c>
-      <c r="C41" s="20">
-        <v>0</v>
-      </c>
-      <c r="D41" s="20">
-        <v>0</v>
-      </c>
-      <c r="E41" s="19"/>
-      <c r="F41" s="20">
-        <v>0</v>
-      </c>
-      <c r="G41" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="H41" s="21"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20">
-        <v>800</v>
-      </c>
-      <c r="L41" s="20">
-        <v>1</v>
-      </c>
-      <c r="M41" s="20">
-        <v>999</v>
-      </c>
-      <c r="N41" s="20">
-        <v>0</v>
-      </c>
-      <c r="O41" s="20">
-        <v>100</v>
-      </c>
-      <c r="P41" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q41" s="20"/>
-      <c r="R41" s="19"/>
-      <c r="S41" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="T41" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="U41" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="V41" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="B42" s="20">
-        <v>2</v>
-      </c>
-      <c r="C42" s="20">
-        <v>0</v>
-      </c>
-      <c r="D42" s="20">
-        <v>0</v>
-      </c>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20">
-        <v>0</v>
-      </c>
-      <c r="G42" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="H42" s="21"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20">
-        <v>800</v>
-      </c>
-      <c r="L42" s="20">
-        <v>1</v>
-      </c>
-      <c r="M42" s="20">
-        <v>999</v>
-      </c>
-      <c r="N42" s="20">
-        <v>0</v>
-      </c>
-      <c r="O42" s="20">
-        <v>100</v>
-      </c>
-      <c r="P42" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q42" s="20"/>
-      <c r="R42" s="20"/>
-      <c r="S42" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="T42" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="U42" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="V42" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="B43" s="20">
-        <v>2</v>
-      </c>
-      <c r="C43" s="20">
-        <v>0</v>
-      </c>
-      <c r="D43" s="20">
-        <v>0</v>
-      </c>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20">
-        <v>0</v>
-      </c>
-      <c r="G43" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="H43" s="21"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="20">
-        <v>100</v>
-      </c>
-      <c r="L43" s="20">
-        <v>1</v>
-      </c>
-      <c r="M43" s="20">
-        <v>999</v>
-      </c>
-      <c r="N43" s="20">
-        <v>0</v>
-      </c>
-      <c r="O43" s="20">
-        <v>100</v>
-      </c>
-      <c r="P43" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q43" s="20"/>
-      <c r="R43" s="20"/>
-      <c r="S43" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="T43" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="U43" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="V43" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="B44" s="19">
-        <v>2</v>
-      </c>
-      <c r="C44" s="20">
-        <v>0</v>
-      </c>
-      <c r="D44" s="20">
-        <v>0</v>
-      </c>
-      <c r="E44" s="19"/>
-      <c r="F44" s="20">
-        <v>0</v>
-      </c>
-      <c r="G44" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="H44" s="21"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="20">
-        <v>200</v>
-      </c>
-      <c r="L44" s="20">
-        <v>1</v>
-      </c>
-      <c r="M44" s="20">
-        <v>999</v>
-      </c>
-      <c r="N44" s="20">
-        <v>0</v>
-      </c>
-      <c r="O44" s="20">
-        <v>100</v>
-      </c>
-      <c r="P44" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q44" s="20"/>
-      <c r="R44" s="19"/>
-      <c r="S44" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="T44" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="U44" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="V44" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="B45" s="20">
-        <v>2</v>
-      </c>
-      <c r="C45" s="20">
-        <v>0</v>
-      </c>
-      <c r="D45" s="20">
-        <v>0</v>
-      </c>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20">
-        <v>0</v>
-      </c>
-      <c r="G45" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="H45" s="21"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="20">
-        <v>400</v>
-      </c>
-      <c r="L45" s="20">
-        <v>1</v>
-      </c>
-      <c r="M45" s="20">
-        <v>999</v>
-      </c>
-      <c r="N45" s="20">
-        <v>0</v>
-      </c>
-      <c r="O45" s="20">
-        <v>100</v>
-      </c>
-      <c r="P45" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q45" s="20"/>
-      <c r="R45" s="20"/>
-      <c r="S45" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="T45" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="U45" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="V45" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="B46" s="19">
-        <v>2</v>
-      </c>
-      <c r="C46" s="20">
-        <v>0</v>
-      </c>
-      <c r="D46" s="20">
-        <v>0</v>
-      </c>
-      <c r="E46" s="19"/>
-      <c r="F46" s="20">
-        <v>0</v>
-      </c>
-      <c r="G46" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="H46" s="21"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="20"/>
-      <c r="K46" s="20">
-        <v>800</v>
-      </c>
-      <c r="L46" s="20">
-        <v>1</v>
-      </c>
-      <c r="M46" s="20">
-        <v>999</v>
-      </c>
-      <c r="N46" s="20">
-        <v>0</v>
-      </c>
-      <c r="O46" s="20">
-        <v>100</v>
-      </c>
-      <c r="P46" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q46" s="20"/>
-      <c r="R46" s="19"/>
-      <c r="S46" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="T46" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="U46" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="V46" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="B47" s="20">
-        <v>2</v>
-      </c>
-      <c r="C47" s="20">
-        <v>0</v>
-      </c>
-      <c r="D47" s="20">
-        <v>0</v>
-      </c>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20">
-        <v>0</v>
-      </c>
-      <c r="G47" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="H47" s="21"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20"/>
-      <c r="K47" s="20">
-        <v>1600</v>
-      </c>
-      <c r="L47" s="20">
-        <v>1</v>
-      </c>
-      <c r="M47" s="20">
-        <v>999</v>
-      </c>
-      <c r="N47" s="20">
-        <v>0</v>
-      </c>
-      <c r="O47" s="20">
-        <v>100</v>
-      </c>
-      <c r="P47" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q47" s="20"/>
-      <c r="R47" s="20"/>
-      <c r="S47" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="T47" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="U47" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="V47" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="B48" s="19">
-        <v>2</v>
-      </c>
-      <c r="C48" s="20">
-        <v>0</v>
-      </c>
-      <c r="D48" s="20">
-        <v>0</v>
-      </c>
-      <c r="E48" s="19"/>
-      <c r="F48" s="20">
-        <v>0</v>
-      </c>
-      <c r="G48" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="H48" s="21"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="20">
-        <v>1600</v>
-      </c>
-      <c r="L48" s="20">
-        <v>1</v>
-      </c>
-      <c r="M48" s="20">
-        <v>999</v>
-      </c>
-      <c r="N48" s="20">
-        <v>0</v>
-      </c>
-      <c r="O48" s="20">
-        <v>100</v>
-      </c>
-      <c r="P48" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q48" s="20"/>
-      <c r="R48" s="19"/>
-      <c r="S48" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="T48" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="U48" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="V48" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="B49" s="19">
-        <v>2</v>
-      </c>
-      <c r="C49" s="20">
-        <v>8</v>
-      </c>
-      <c r="D49" s="20">
-        <v>0</v>
-      </c>
-      <c r="E49" s="19"/>
-      <c r="F49" s="20">
-        <v>0</v>
-      </c>
-      <c r="G49" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="H49" s="21"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="20"/>
-      <c r="K49" s="20">
-        <v>1600</v>
-      </c>
-      <c r="L49" s="20">
-        <v>1</v>
-      </c>
-      <c r="M49" s="20">
-        <v>999</v>
-      </c>
-      <c r="N49" s="20">
-        <v>0</v>
-      </c>
-      <c r="O49" s="20">
-        <v>100</v>
-      </c>
-      <c r="P49" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q49" s="20"/>
-      <c r="R49" s="19"/>
-      <c r="S49" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="T49" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="U49" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="V49" s="20">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/_Out/NFDataCfg/Excel/Item.xlsx
+++ b/_Out/NFDataCfg/Excel/Item.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="600">
   <si>
     <t>Id</t>
   </si>
@@ -1108,96 +1108,6 @@
     <t>Name_Item_rocket_3</t>
   </si>
   <si>
-    <t>Item_copter_1</t>
-  </si>
-  <si>
-    <t>Desc_Item_copter_1</t>
-  </si>
-  <si>
-    <t>Building_NPC_copter_1</t>
-  </si>
-  <si>
-    <t>Icon_Item_copter_1</t>
-  </si>
-  <si>
-    <t>Name_Item_copter_1</t>
-  </si>
-  <si>
-    <t>Item_copter_2</t>
-  </si>
-  <si>
-    <t>Desc_Item_copter_2</t>
-  </si>
-  <si>
-    <t>Building_NPC_copter_2</t>
-  </si>
-  <si>
-    <t>Icon_Item_copter_2</t>
-  </si>
-  <si>
-    <t>Name_Item_copter_2</t>
-  </si>
-  <si>
-    <t>Item_copter_3</t>
-  </si>
-  <si>
-    <t>Desc_Item_copter_3</t>
-  </si>
-  <si>
-    <t>Building_NPC_copter_3</t>
-  </si>
-  <si>
-    <t>Icon_Item_copter_3</t>
-  </si>
-  <si>
-    <t>Name_Item_copter_3</t>
-  </si>
-  <si>
-    <t>Item_airship_1</t>
-  </si>
-  <si>
-    <t>Desc_Item_airship_1</t>
-  </si>
-  <si>
-    <t>Building_NPC_airship_1</t>
-  </si>
-  <si>
-    <t>Icon_Item_airship_1</t>
-  </si>
-  <si>
-    <t>Name_Item_airship_1</t>
-  </si>
-  <si>
-    <t>Item_airship_2</t>
-  </si>
-  <si>
-    <t>Desc_Item_airship_2</t>
-  </si>
-  <si>
-    <t>Building_NPC_airship_2</t>
-  </si>
-  <si>
-    <t>Icon_Item_airship_2</t>
-  </si>
-  <si>
-    <t>Name_Item_airship_2</t>
-  </si>
-  <si>
-    <t>Item_airship_3</t>
-  </si>
-  <si>
-    <t>Desc_Item_airship_3</t>
-  </si>
-  <si>
-    <t>Building_NPC_airship_3</t>
-  </si>
-  <si>
-    <t>Icon_Item_airship_3</t>
-  </si>
-  <si>
-    <t>Name_Item_airship_3</t>
-  </si>
-  <si>
     <t>Item_bomb_1</t>
   </si>
   <si>
@@ -1241,96 +1151,6 @@
   </si>
   <si>
     <t>Name_Item_bomb_3</t>
-  </si>
-  <si>
-    <t>Item_trap_1</t>
-  </si>
-  <si>
-    <t>Desc_Item_trap_1</t>
-  </si>
-  <si>
-    <t>Building_NPC_trap_1</t>
-  </si>
-  <si>
-    <t>Icon_Item_trap_1</t>
-  </si>
-  <si>
-    <t>Name_Item_trap_1</t>
-  </si>
-  <si>
-    <t>Item_trap_2</t>
-  </si>
-  <si>
-    <t>Desc_Item_trap_2</t>
-  </si>
-  <si>
-    <t>Building_NPC_trap_2</t>
-  </si>
-  <si>
-    <t>Icon_Item_trap_2</t>
-  </si>
-  <si>
-    <t>Name_Item_trap_2</t>
-  </si>
-  <si>
-    <t>Item_trap_3</t>
-  </si>
-  <si>
-    <t>Desc_Item_trap_3</t>
-  </si>
-  <si>
-    <t>Building_NPC_trap_3</t>
-  </si>
-  <si>
-    <t>Icon_Item_trap_3</t>
-  </si>
-  <si>
-    <t>Name_Item_trap_3</t>
-  </si>
-  <si>
-    <t>Item_spine_1</t>
-  </si>
-  <si>
-    <t>Desc_Item_spine_1</t>
-  </si>
-  <si>
-    <t>Building_NPC_spine_1</t>
-  </si>
-  <si>
-    <t>Icon_Item_spine_1</t>
-  </si>
-  <si>
-    <t>Name_Item_spine_1</t>
-  </si>
-  <si>
-    <t>Item_spine_2</t>
-  </si>
-  <si>
-    <t>Desc_Item_spine_2</t>
-  </si>
-  <si>
-    <t>Building_NPC_spine_2</t>
-  </si>
-  <si>
-    <t>Icon_Item_spine_2</t>
-  </si>
-  <si>
-    <t>Name_Item_spine_2</t>
-  </si>
-  <si>
-    <t>Item_spine_3</t>
-  </si>
-  <si>
-    <t>Desc_Item_spine_3</t>
-  </si>
-  <si>
-    <t>Building_NPC_spine_3</t>
-  </si>
-  <si>
-    <t>Icon_Item_spine_3</t>
-  </si>
-  <si>
-    <t>Name_Item_spine_3</t>
   </si>
   <si>
     <t>Item_Gold_Item1</t>
@@ -2025,10 +1845,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -2066,19 +1886,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2101,9 +1922,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2114,6 +1942,37 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2133,31 +1992,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2172,7 +2008,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2180,36 +2016,20 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2260,7 +2080,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2272,31 +2188,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2308,43 +2218,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2356,37 +2230,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2398,19 +2242,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2422,25 +2254,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2564,6 +2378,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -2586,15 +2411,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2610,22 +2426,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2645,17 +2465,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2664,13 +2478,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2682,130 +2496,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3283,14 +3097,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V85"/>
+  <dimension ref="A1:V73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="10" topLeftCell="L78" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="10" topLeftCell="B71" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R90" sqref="R90"/>
+      <selection pane="bottomRight" activeCell="A74" sqref="$A74:$XFD79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -7594,7 +7408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" s="34" customFormat="1" ht="14" customHeight="1" spans="1:22">
+    <row r="73" s="34" customFormat="1" ht="13" customHeight="1" spans="1:22">
       <c r="A73" s="45" t="s">
         <v>366</v>
       </c>
@@ -7652,708 +7466,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" s="34" customFormat="1" spans="1:22">
-      <c r="A74" s="45" t="s">
-        <v>371</v>
-      </c>
-      <c r="B74" s="38">
-        <v>3</v>
-      </c>
-      <c r="C74" s="38">
-        <v>4</v>
-      </c>
-      <c r="D74" s="38">
-        <v>1</v>
-      </c>
-      <c r="E74" s="38"/>
-      <c r="F74" s="38">
-        <v>7</v>
-      </c>
-      <c r="G74" s="38" t="s">
-        <v>372</v>
-      </c>
-      <c r="H74" s="38"/>
-      <c r="I74" s="38"/>
-      <c r="J74" s="38"/>
-      <c r="K74" s="38">
-        <v>350</v>
-      </c>
-      <c r="L74" s="38">
-        <v>0</v>
-      </c>
-      <c r="M74" s="38">
-        <v>1</v>
-      </c>
-      <c r="N74" s="38">
-        <v>0</v>
-      </c>
-      <c r="O74" s="38">
-        <v>350</v>
-      </c>
-      <c r="P74" s="38">
-        <v>1</v>
-      </c>
-      <c r="Q74" s="38"/>
-      <c r="R74" s="38" t="s">
-        <v>373</v>
-      </c>
-      <c r="S74" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="T74" s="38" t="s">
-        <v>374</v>
-      </c>
-      <c r="U74" s="38" t="s">
-        <v>375</v>
-      </c>
-      <c r="V74" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" s="34" customFormat="1" spans="1:22">
-      <c r="A75" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="B75" s="38">
-        <v>3</v>
-      </c>
-      <c r="C75" s="38">
-        <v>4</v>
-      </c>
-      <c r="D75" s="38">
-        <v>1</v>
-      </c>
-      <c r="E75" s="38"/>
-      <c r="F75" s="38">
-        <v>7</v>
-      </c>
-      <c r="G75" s="38" t="s">
-        <v>377</v>
-      </c>
-      <c r="H75" s="38"/>
-      <c r="I75" s="38"/>
-      <c r="J75" s="38"/>
-      <c r="K75" s="38">
-        <v>350</v>
-      </c>
-      <c r="L75" s="38">
-        <v>0</v>
-      </c>
-      <c r="M75" s="38">
-        <v>1</v>
-      </c>
-      <c r="N75" s="38">
-        <v>0</v>
-      </c>
-      <c r="O75" s="38">
-        <v>350</v>
-      </c>
-      <c r="P75" s="38">
-        <v>1</v>
-      </c>
-      <c r="Q75" s="38"/>
-      <c r="R75" s="38" t="s">
-        <v>378</v>
-      </c>
-      <c r="S75" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="T75" s="38" t="s">
-        <v>379</v>
-      </c>
-      <c r="U75" s="38" t="s">
-        <v>380</v>
-      </c>
-      <c r="V75" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" s="34" customFormat="1" ht="13" customHeight="1" spans="1:22">
-      <c r="A76" s="45" t="s">
-        <v>381</v>
-      </c>
-      <c r="B76" s="38">
-        <v>3</v>
-      </c>
-      <c r="C76" s="38">
-        <v>4</v>
-      </c>
-      <c r="D76" s="38">
-        <v>1</v>
-      </c>
-      <c r="E76" s="38"/>
-      <c r="F76" s="38">
-        <v>7</v>
-      </c>
-      <c r="G76" s="38" t="s">
-        <v>382</v>
-      </c>
-      <c r="H76" s="38"/>
-      <c r="I76" s="38"/>
-      <c r="J76" s="38"/>
-      <c r="K76" s="38">
-        <v>350</v>
-      </c>
-      <c r="L76" s="38">
-        <v>0</v>
-      </c>
-      <c r="M76" s="38">
-        <v>1</v>
-      </c>
-      <c r="N76" s="38">
-        <v>0</v>
-      </c>
-      <c r="O76" s="38">
-        <v>350</v>
-      </c>
-      <c r="P76" s="38">
-        <v>1</v>
-      </c>
-      <c r="Q76" s="38"/>
-      <c r="R76" s="38" t="s">
-        <v>383</v>
-      </c>
-      <c r="S76" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="T76" s="38" t="s">
-        <v>384</v>
-      </c>
-      <c r="U76" s="38" t="s">
-        <v>385</v>
-      </c>
-      <c r="V76" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" s="34" customFormat="1" spans="1:22">
-      <c r="A77" s="45" t="s">
-        <v>386</v>
-      </c>
-      <c r="B77" s="38">
-        <v>3</v>
-      </c>
-      <c r="C77" s="38">
-        <v>4</v>
-      </c>
-      <c r="D77" s="38">
-        <v>1</v>
-      </c>
-      <c r="E77" s="38"/>
-      <c r="F77" s="38">
-        <v>7</v>
-      </c>
-      <c r="G77" s="38" t="s">
-        <v>387</v>
-      </c>
-      <c r="H77" s="38"/>
-      <c r="I77" s="38"/>
-      <c r="J77" s="38"/>
-      <c r="K77" s="38">
-        <v>350</v>
-      </c>
-      <c r="L77" s="38">
-        <v>0</v>
-      </c>
-      <c r="M77" s="38">
-        <v>1</v>
-      </c>
-      <c r="N77" s="38">
-        <v>0</v>
-      </c>
-      <c r="O77" s="38">
-        <v>350</v>
-      </c>
-      <c r="P77" s="38">
-        <v>1</v>
-      </c>
-      <c r="Q77" s="38"/>
-      <c r="R77" s="38" t="s">
-        <v>388</v>
-      </c>
-      <c r="S77" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="T77" s="38" t="s">
-        <v>389</v>
-      </c>
-      <c r="U77" s="38" t="s">
-        <v>390</v>
-      </c>
-      <c r="V77" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" s="34" customFormat="1" spans="1:22">
-      <c r="A78" s="45" t="s">
-        <v>391</v>
-      </c>
-      <c r="B78" s="38">
-        <v>3</v>
-      </c>
-      <c r="C78" s="38">
-        <v>4</v>
-      </c>
-      <c r="D78" s="38">
-        <v>1</v>
-      </c>
-      <c r="E78" s="38"/>
-      <c r="F78" s="38">
-        <v>7</v>
-      </c>
-      <c r="G78" s="38" t="s">
-        <v>392</v>
-      </c>
-      <c r="H78" s="38"/>
-      <c r="I78" s="38"/>
-      <c r="J78" s="38"/>
-      <c r="K78" s="38">
-        <v>350</v>
-      </c>
-      <c r="L78" s="38">
-        <v>0</v>
-      </c>
-      <c r="M78" s="38">
-        <v>1</v>
-      </c>
-      <c r="N78" s="38">
-        <v>0</v>
-      </c>
-      <c r="O78" s="38">
-        <v>350</v>
-      </c>
-      <c r="P78" s="38">
-        <v>1</v>
-      </c>
-      <c r="Q78" s="38"/>
-      <c r="R78" s="38" t="s">
-        <v>393</v>
-      </c>
-      <c r="S78" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="T78" s="38" t="s">
-        <v>394</v>
-      </c>
-      <c r="U78" s="38" t="s">
-        <v>395</v>
-      </c>
-      <c r="V78" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" s="34" customFormat="1" ht="13" customHeight="1" spans="1:22">
-      <c r="A79" s="45" t="s">
-        <v>396</v>
-      </c>
-      <c r="B79" s="38">
-        <v>3</v>
-      </c>
-      <c r="C79" s="38">
-        <v>4</v>
-      </c>
-      <c r="D79" s="38">
-        <v>1</v>
-      </c>
-      <c r="E79" s="38"/>
-      <c r="F79" s="38">
-        <v>7</v>
-      </c>
-      <c r="G79" s="38" t="s">
-        <v>397</v>
-      </c>
-      <c r="H79" s="38"/>
-      <c r="I79" s="38"/>
-      <c r="J79" s="38"/>
-      <c r="K79" s="38">
-        <v>350</v>
-      </c>
-      <c r="L79" s="38">
-        <v>0</v>
-      </c>
-      <c r="M79" s="38">
-        <v>1</v>
-      </c>
-      <c r="N79" s="38">
-        <v>0</v>
-      </c>
-      <c r="O79" s="38">
-        <v>350</v>
-      </c>
-      <c r="P79" s="38">
-        <v>1</v>
-      </c>
-      <c r="Q79" s="38"/>
-      <c r="R79" s="38" t="s">
-        <v>398</v>
-      </c>
-      <c r="S79" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="T79" s="38" t="s">
-        <v>399</v>
-      </c>
-      <c r="U79" s="38" t="s">
-        <v>400</v>
-      </c>
-      <c r="V79" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" s="34" customFormat="1" spans="1:22">
-      <c r="A80" s="45" t="s">
-        <v>401</v>
-      </c>
-      <c r="B80" s="38">
-        <v>3</v>
-      </c>
-      <c r="C80" s="38">
-        <v>4</v>
-      </c>
-      <c r="D80" s="38">
-        <v>1</v>
-      </c>
-      <c r="E80" s="38"/>
-      <c r="F80" s="38">
-        <v>7</v>
-      </c>
-      <c r="G80" s="38" t="s">
-        <v>402</v>
-      </c>
-      <c r="H80" s="38"/>
-      <c r="I80" s="38"/>
-      <c r="J80" s="38"/>
-      <c r="K80" s="38">
-        <v>350</v>
-      </c>
-      <c r="L80" s="38">
-        <v>0</v>
-      </c>
-      <c r="M80" s="38">
-        <v>1</v>
-      </c>
-      <c r="N80" s="38">
-        <v>0</v>
-      </c>
-      <c r="O80" s="38">
-        <v>350</v>
-      </c>
-      <c r="P80" s="38">
-        <v>1</v>
-      </c>
-      <c r="Q80" s="38"/>
-      <c r="R80" s="38" t="s">
-        <v>403</v>
-      </c>
-      <c r="S80" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="T80" s="38" t="s">
-        <v>404</v>
-      </c>
-      <c r="U80" s="38" t="s">
-        <v>405</v>
-      </c>
-      <c r="V80" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" s="34" customFormat="1" spans="1:22">
-      <c r="A81" s="45" t="s">
-        <v>406</v>
-      </c>
-      <c r="B81" s="38">
-        <v>3</v>
-      </c>
-      <c r="C81" s="38">
-        <v>4</v>
-      </c>
-      <c r="D81" s="38">
-        <v>1</v>
-      </c>
-      <c r="E81" s="38"/>
-      <c r="F81" s="38">
-        <v>7</v>
-      </c>
-      <c r="G81" s="38" t="s">
-        <v>407</v>
-      </c>
-      <c r="H81" s="38"/>
-      <c r="I81" s="38"/>
-      <c r="J81" s="38"/>
-      <c r="K81" s="38">
-        <v>350</v>
-      </c>
-      <c r="L81" s="38">
-        <v>0</v>
-      </c>
-      <c r="M81" s="38">
-        <v>1</v>
-      </c>
-      <c r="N81" s="38">
-        <v>0</v>
-      </c>
-      <c r="O81" s="38">
-        <v>350</v>
-      </c>
-      <c r="P81" s="38">
-        <v>1</v>
-      </c>
-      <c r="Q81" s="38"/>
-      <c r="R81" s="38" t="s">
-        <v>408</v>
-      </c>
-      <c r="S81" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="T81" s="38" t="s">
-        <v>409</v>
-      </c>
-      <c r="U81" s="38" t="s">
-        <v>410</v>
-      </c>
-      <c r="V81" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" s="34" customFormat="1" ht="13" customHeight="1" spans="1:22">
-      <c r="A82" s="45" t="s">
-        <v>411</v>
-      </c>
-      <c r="B82" s="38">
-        <v>3</v>
-      </c>
-      <c r="C82" s="38">
-        <v>4</v>
-      </c>
-      <c r="D82" s="38">
-        <v>1</v>
-      </c>
-      <c r="E82" s="38"/>
-      <c r="F82" s="38">
-        <v>7</v>
-      </c>
-      <c r="G82" s="38" t="s">
-        <v>412</v>
-      </c>
-      <c r="H82" s="38"/>
-      <c r="I82" s="38"/>
-      <c r="J82" s="38"/>
-      <c r="K82" s="38">
-        <v>350</v>
-      </c>
-      <c r="L82" s="38">
-        <v>0</v>
-      </c>
-      <c r="M82" s="38">
-        <v>1</v>
-      </c>
-      <c r="N82" s="38">
-        <v>0</v>
-      </c>
-      <c r="O82" s="38">
-        <v>350</v>
-      </c>
-      <c r="P82" s="38">
-        <v>1</v>
-      </c>
-      <c r="Q82" s="38"/>
-      <c r="R82" s="38" t="s">
-        <v>413</v>
-      </c>
-      <c r="S82" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="T82" s="38" t="s">
-        <v>414</v>
-      </c>
-      <c r="U82" s="38" t="s">
-        <v>415</v>
-      </c>
-      <c r="V82" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" s="34" customFormat="1" spans="1:22">
-      <c r="A83" s="45" t="s">
-        <v>416</v>
-      </c>
-      <c r="B83" s="38">
-        <v>3</v>
-      </c>
-      <c r="C83" s="38">
-        <v>4</v>
-      </c>
-      <c r="D83" s="38">
-        <v>1</v>
-      </c>
-      <c r="E83" s="38"/>
-      <c r="F83" s="38">
-        <v>7</v>
-      </c>
-      <c r="G83" s="38" t="s">
-        <v>417</v>
-      </c>
-      <c r="H83" s="38"/>
-      <c r="I83" s="38"/>
-      <c r="J83" s="38"/>
-      <c r="K83" s="38">
-        <v>350</v>
-      </c>
-      <c r="L83" s="38">
-        <v>0</v>
-      </c>
-      <c r="M83" s="38">
-        <v>1</v>
-      </c>
-      <c r="N83" s="38">
-        <v>0</v>
-      </c>
-      <c r="O83" s="38">
-        <v>350</v>
-      </c>
-      <c r="P83" s="38">
-        <v>1</v>
-      </c>
-      <c r="Q83" s="38"/>
-      <c r="R83" t="s">
-        <v>418</v>
-      </c>
-      <c r="S83" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="T83" s="38" t="s">
-        <v>419</v>
-      </c>
-      <c r="U83" s="38" t="s">
-        <v>420</v>
-      </c>
-      <c r="V83" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" s="34" customFormat="1" spans="1:22">
-      <c r="A84" s="45" t="s">
-        <v>421</v>
-      </c>
-      <c r="B84" s="38">
-        <v>3</v>
-      </c>
-      <c r="C84" s="38">
-        <v>4</v>
-      </c>
-      <c r="D84" s="38">
-        <v>1</v>
-      </c>
-      <c r="E84" s="38"/>
-      <c r="F84" s="38">
-        <v>7</v>
-      </c>
-      <c r="G84" s="38" t="s">
-        <v>422</v>
-      </c>
-      <c r="H84" s="38"/>
-      <c r="I84" s="38"/>
-      <c r="J84" s="38"/>
-      <c r="K84" s="38">
-        <v>350</v>
-      </c>
-      <c r="L84" s="38">
-        <v>0</v>
-      </c>
-      <c r="M84" s="38">
-        <v>1</v>
-      </c>
-      <c r="N84" s="38">
-        <v>0</v>
-      </c>
-      <c r="O84" s="38">
-        <v>350</v>
-      </c>
-      <c r="P84" s="38">
-        <v>1</v>
-      </c>
-      <c r="Q84" s="38"/>
-      <c r="R84" t="s">
-        <v>423</v>
-      </c>
-      <c r="S84" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="T84" s="38" t="s">
-        <v>424</v>
-      </c>
-      <c r="U84" s="38" t="s">
-        <v>425</v>
-      </c>
-      <c r="V84" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" s="34" customFormat="1" ht="13" customHeight="1" spans="1:22">
-      <c r="A85" s="45" t="s">
-        <v>426</v>
-      </c>
-      <c r="B85" s="38">
-        <v>3</v>
-      </c>
-      <c r="C85" s="38">
-        <v>4</v>
-      </c>
-      <c r="D85" s="38">
-        <v>1</v>
-      </c>
-      <c r="E85" s="38"/>
-      <c r="F85" s="38">
-        <v>7</v>
-      </c>
-      <c r="G85" s="38" t="s">
-        <v>427</v>
-      </c>
-      <c r="H85" s="38"/>
-      <c r="I85" s="38"/>
-      <c r="J85" s="38"/>
-      <c r="K85" s="38">
-        <v>350</v>
-      </c>
-      <c r="L85" s="38">
-        <v>0</v>
-      </c>
-      <c r="M85" s="38">
-        <v>1</v>
-      </c>
-      <c r="N85" s="38">
-        <v>0</v>
-      </c>
-      <c r="O85" s="38">
-        <v>350</v>
-      </c>
-      <c r="P85" s="38">
-        <v>1</v>
-      </c>
-      <c r="Q85" s="38"/>
-      <c r="R85" t="s">
-        <v>428</v>
-      </c>
-      <c r="S85" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="T85" s="38" t="s">
-        <v>429</v>
-      </c>
-      <c r="U85" s="38" t="s">
-        <v>430</v>
-      </c>
-      <c r="V85" s="38">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <dataValidations count="2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:V9">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -9080,7 +8198,7 @@
     </row>
     <row r="11" s="34" customFormat="1" spans="1:22">
       <c r="A11" s="36" t="s">
-        <v>431</v>
+        <v>371</v>
       </c>
       <c r="B11" s="37">
         <v>2</v>
@@ -9096,10 +8214,10 @@
         <v>0</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>432</v>
+        <v>372</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>433</v>
+        <v>373</v>
       </c>
       <c r="I11" s="37"/>
       <c r="J11" s="37"/>
@@ -9124,13 +8242,13 @@
       <c r="Q11" s="37"/>
       <c r="R11" s="37"/>
       <c r="S11" s="36" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T11" s="36" t="s">
-        <v>435</v>
+        <v>375</v>
       </c>
       <c r="U11" s="36" t="s">
-        <v>436</v>
+        <v>376</v>
       </c>
       <c r="V11" s="37">
         <v>0</v>
@@ -9138,7 +8256,7 @@
     </row>
     <row r="12" s="34" customFormat="1" spans="1:22">
       <c r="A12" s="39" t="s">
-        <v>437</v>
+        <v>377</v>
       </c>
       <c r="B12" s="38">
         <v>2</v>
@@ -9154,7 +8272,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="36" t="s">
-        <v>438</v>
+        <v>378</v>
       </c>
       <c r="H12" s="39"/>
       <c r="I12" s="38"/>
@@ -9180,13 +8298,13 @@
       <c r="Q12" s="38"/>
       <c r="R12" s="38"/>
       <c r="S12" s="36" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T12" s="36" t="s">
-        <v>439</v>
+        <v>379</v>
       </c>
       <c r="U12" s="36" t="s">
-        <v>440</v>
+        <v>380</v>
       </c>
       <c r="V12" s="38">
         <v>0</v>
@@ -9194,7 +8312,7 @@
     </row>
     <row r="13" s="35" customFormat="1" spans="1:22">
       <c r="A13" s="11" t="s">
-        <v>441</v>
+        <v>381</v>
       </c>
       <c r="B13" s="40">
         <v>2</v>
@@ -9210,10 +8328,10 @@
         <v>0</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>442</v>
+        <v>382</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>433</v>
+        <v>373</v>
       </c>
       <c r="I13" s="40"/>
       <c r="J13" s="40"/>
@@ -9238,13 +8356,13 @@
       <c r="Q13" s="40"/>
       <c r="R13" s="40"/>
       <c r="S13" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T13" s="11" t="s">
-        <v>443</v>
+        <v>383</v>
       </c>
       <c r="U13" s="11" t="s">
-        <v>444</v>
+        <v>384</v>
       </c>
       <c r="V13" s="40">
         <v>0</v>
@@ -9252,7 +8370,7 @@
     </row>
     <row r="14" s="35" customFormat="1" spans="1:22">
       <c r="A14" s="42" t="s">
-        <v>445</v>
+        <v>385</v>
       </c>
       <c r="B14" s="41">
         <v>2</v>
@@ -9268,10 +8386,10 @@
         <v>0</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>442</v>
+        <v>382</v>
       </c>
       <c r="H14" s="42" t="s">
-        <v>446</v>
+        <v>386</v>
       </c>
       <c r="I14" s="41"/>
       <c r="J14" s="41"/>
@@ -9296,13 +8414,13 @@
       <c r="Q14" s="41"/>
       <c r="R14" s="41"/>
       <c r="S14" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T14" s="11" t="s">
-        <v>447</v>
+        <v>387</v>
       </c>
       <c r="U14" s="11" t="s">
-        <v>444</v>
+        <v>384</v>
       </c>
       <c r="V14" s="41">
         <v>0</v>
@@ -9310,7 +8428,7 @@
     </row>
     <row r="15" s="35" customFormat="1" spans="1:22">
       <c r="A15" s="42" t="s">
-        <v>448</v>
+        <v>388</v>
       </c>
       <c r="B15" s="40">
         <v>2</v>
@@ -9326,10 +8444,10 @@
         <v>0</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>442</v>
+        <v>382</v>
       </c>
       <c r="H15" s="42" t="s">
-        <v>449</v>
+        <v>389</v>
       </c>
       <c r="I15" s="41"/>
       <c r="J15" s="41"/>
@@ -9354,13 +8472,13 @@
       <c r="Q15" s="41"/>
       <c r="R15" s="40"/>
       <c r="S15" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T15" s="11" t="s">
-        <v>450</v>
+        <v>390</v>
       </c>
       <c r="U15" s="11" t="s">
-        <v>444</v>
+        <v>384</v>
       </c>
       <c r="V15" s="41">
         <v>0</v>
@@ -9368,7 +8486,7 @@
     </row>
     <row r="16" s="35" customFormat="1" spans="1:22">
       <c r="A16" s="42" t="s">
-        <v>451</v>
+        <v>391</v>
       </c>
       <c r="B16" s="41">
         <v>2</v>
@@ -9384,10 +8502,10 @@
         <v>0</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>442</v>
+        <v>382</v>
       </c>
       <c r="H16" s="42" t="s">
-        <v>452</v>
+        <v>392</v>
       </c>
       <c r="I16" s="41"/>
       <c r="J16" s="41"/>
@@ -9412,13 +8530,13 @@
       <c r="Q16" s="41"/>
       <c r="R16" s="41"/>
       <c r="S16" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T16" s="11" t="s">
-        <v>453</v>
+        <v>393</v>
       </c>
       <c r="U16" s="11" t="s">
-        <v>444</v>
+        <v>384</v>
       </c>
       <c r="V16" s="41">
         <v>0</v>
@@ -9426,7 +8544,7 @@
     </row>
     <row r="17" s="35" customFormat="1" spans="1:22">
       <c r="A17" s="42" t="s">
-        <v>454</v>
+        <v>394</v>
       </c>
       <c r="B17" s="41">
         <v>2</v>
@@ -9442,10 +8560,10 @@
         <v>0</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>442</v>
+        <v>382</v>
       </c>
       <c r="H17" s="42" t="s">
-        <v>455</v>
+        <v>395</v>
       </c>
       <c r="I17" s="41"/>
       <c r="J17" s="41"/>
@@ -9470,13 +8588,13 @@
       <c r="Q17" s="41"/>
       <c r="R17" s="41"/>
       <c r="S17" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T17" s="11" t="s">
-        <v>456</v>
+        <v>396</v>
       </c>
       <c r="U17" s="11" t="s">
-        <v>444</v>
+        <v>384</v>
       </c>
       <c r="V17" s="41">
         <v>0</v>
@@ -9484,7 +8602,7 @@
     </row>
     <row r="18" s="35" customFormat="1" spans="1:22">
       <c r="A18" s="42" t="s">
-        <v>457</v>
+        <v>397</v>
       </c>
       <c r="B18" s="41">
         <v>2</v>
@@ -9500,7 +8618,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>442</v>
+        <v>382</v>
       </c>
       <c r="H18" s="42"/>
       <c r="I18" s="41"/>
@@ -9526,13 +8644,13 @@
       <c r="Q18" s="41"/>
       <c r="R18" s="41"/>
       <c r="S18" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T18" s="11" t="s">
-        <v>458</v>
+        <v>398</v>
       </c>
       <c r="U18" s="11" t="s">
-        <v>444</v>
+        <v>384</v>
       </c>
       <c r="V18" s="41">
         <v>0</v>
@@ -9540,7 +8658,7 @@
     </row>
     <row r="19" s="35" customFormat="1" spans="1:22">
       <c r="A19" s="42" t="s">
-        <v>459</v>
+        <v>399</v>
       </c>
       <c r="B19" s="40">
         <v>2</v>
@@ -9556,7 +8674,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="42" t="s">
-        <v>460</v>
+        <v>400</v>
       </c>
       <c r="H19" s="42"/>
       <c r="I19" s="41"/>
@@ -9582,13 +8700,13 @@
       <c r="Q19" s="41"/>
       <c r="R19" s="40"/>
       <c r="S19" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T19" s="42" t="s">
-        <v>461</v>
+        <v>401</v>
       </c>
       <c r="U19" s="42" t="s">
-        <v>462</v>
+        <v>402</v>
       </c>
       <c r="V19" s="41">
         <v>0</v>
@@ -9596,7 +8714,7 @@
     </row>
     <row r="20" s="35" customFormat="1" spans="1:22">
       <c r="A20" s="42" t="s">
-        <v>463</v>
+        <v>403</v>
       </c>
       <c r="B20" s="41">
         <v>2</v>
@@ -9612,7 +8730,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="42" t="s">
-        <v>460</v>
+        <v>400</v>
       </c>
       <c r="H20" s="42"/>
       <c r="I20" s="41"/>
@@ -9638,13 +8756,13 @@
       <c r="Q20" s="41"/>
       <c r="R20" s="41"/>
       <c r="S20" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T20" s="42" t="s">
-        <v>464</v>
+        <v>404</v>
       </c>
       <c r="U20" s="42" t="s">
-        <v>462</v>
+        <v>402</v>
       </c>
       <c r="V20" s="41">
         <v>0</v>
@@ -9652,7 +8770,7 @@
     </row>
     <row r="21" s="35" customFormat="1" spans="1:22">
       <c r="A21" s="42" t="s">
-        <v>465</v>
+        <v>405</v>
       </c>
       <c r="B21" s="40">
         <v>2</v>
@@ -9668,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="42" t="s">
-        <v>460</v>
+        <v>400</v>
       </c>
       <c r="H21" s="42"/>
       <c r="I21" s="41"/>
@@ -9694,13 +8812,13 @@
       <c r="Q21" s="41"/>
       <c r="R21" s="40"/>
       <c r="S21" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T21" s="42" t="s">
-        <v>466</v>
+        <v>406</v>
       </c>
       <c r="U21" s="42" t="s">
-        <v>462</v>
+        <v>402</v>
       </c>
       <c r="V21" s="41">
         <v>0</v>
@@ -9708,7 +8826,7 @@
     </row>
     <row r="22" s="35" customFormat="1" spans="1:22">
       <c r="A22" s="42" t="s">
-        <v>467</v>
+        <v>407</v>
       </c>
       <c r="B22" s="41">
         <v>2</v>
@@ -9724,7 +8842,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="42" t="s">
-        <v>460</v>
+        <v>400</v>
       </c>
       <c r="H22" s="42"/>
       <c r="I22" s="41"/>
@@ -9750,13 +8868,13 @@
       <c r="Q22" s="41"/>
       <c r="R22" s="41"/>
       <c r="S22" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T22" s="42" t="s">
-        <v>468</v>
+        <v>408</v>
       </c>
       <c r="U22" s="42" t="s">
-        <v>462</v>
+        <v>402</v>
       </c>
       <c r="V22" s="41">
         <v>0</v>
@@ -9764,7 +8882,7 @@
     </row>
     <row r="23" s="35" customFormat="1" spans="1:22">
       <c r="A23" s="42" t="s">
-        <v>469</v>
+        <v>409</v>
       </c>
       <c r="B23" s="41">
         <v>2</v>
@@ -9780,7 +8898,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="42" t="s">
-        <v>460</v>
+        <v>400</v>
       </c>
       <c r="H23" s="42"/>
       <c r="I23" s="41"/>
@@ -9806,13 +8924,13 @@
       <c r="Q23" s="41"/>
       <c r="R23" s="41"/>
       <c r="S23" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T23" s="42" t="s">
-        <v>470</v>
+        <v>410</v>
       </c>
       <c r="U23" s="42" t="s">
-        <v>462</v>
+        <v>402</v>
       </c>
       <c r="V23" s="41">
         <v>0</v>
@@ -9820,7 +8938,7 @@
     </row>
     <row r="24" s="35" customFormat="1" spans="1:22">
       <c r="A24" s="42" t="s">
-        <v>471</v>
+        <v>411</v>
       </c>
       <c r="B24" s="41">
         <v>2</v>
@@ -9836,7 +8954,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="42" t="s">
-        <v>460</v>
+        <v>400</v>
       </c>
       <c r="H24" s="42"/>
       <c r="I24" s="41"/>
@@ -9862,13 +8980,13 @@
       <c r="Q24" s="41"/>
       <c r="R24" s="41"/>
       <c r="S24" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T24" s="42" t="s">
-        <v>472</v>
+        <v>412</v>
       </c>
       <c r="U24" s="42" t="s">
-        <v>462</v>
+        <v>402</v>
       </c>
       <c r="V24" s="41">
         <v>0</v>
@@ -9876,7 +8994,7 @@
     </row>
     <row r="25" s="35" customFormat="1" spans="1:22">
       <c r="A25" s="42" t="s">
-        <v>473</v>
+        <v>413</v>
       </c>
       <c r="B25" s="40">
         <v>2</v>
@@ -9892,7 +9010,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="42" t="s">
-        <v>474</v>
+        <v>414</v>
       </c>
       <c r="H25" s="42"/>
       <c r="I25" s="41"/>
@@ -9918,13 +9036,13 @@
       <c r="Q25" s="41"/>
       <c r="R25" s="40"/>
       <c r="S25" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T25" s="42" t="s">
-        <v>475</v>
+        <v>415</v>
       </c>
       <c r="U25" s="42" t="s">
-        <v>476</v>
+        <v>416</v>
       </c>
       <c r="V25" s="41">
         <v>0</v>
@@ -9932,7 +9050,7 @@
     </row>
     <row r="26" s="35" customFormat="1" spans="1:22">
       <c r="A26" s="42" t="s">
-        <v>477</v>
+        <v>417</v>
       </c>
       <c r="B26" s="41">
         <v>2</v>
@@ -9948,7 +9066,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="42" t="s">
-        <v>474</v>
+        <v>414</v>
       </c>
       <c r="H26" s="42"/>
       <c r="I26" s="41"/>
@@ -9974,13 +9092,13 @@
       <c r="Q26" s="41"/>
       <c r="R26" s="41"/>
       <c r="S26" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T26" s="42" t="s">
-        <v>478</v>
+        <v>418</v>
       </c>
       <c r="U26" s="42" t="s">
-        <v>476</v>
+        <v>416</v>
       </c>
       <c r="V26" s="41">
         <v>0</v>
@@ -9988,7 +9106,7 @@
     </row>
     <row r="27" s="35" customFormat="1" spans="1:22">
       <c r="A27" s="42" t="s">
-        <v>479</v>
+        <v>419</v>
       </c>
       <c r="B27" s="40">
         <v>2</v>
@@ -10004,7 +9122,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="42" t="s">
-        <v>474</v>
+        <v>414</v>
       </c>
       <c r="H27" s="42"/>
       <c r="I27" s="41"/>
@@ -10030,13 +9148,13 @@
       <c r="Q27" s="41"/>
       <c r="R27" s="40"/>
       <c r="S27" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T27" s="42" t="s">
-        <v>480</v>
+        <v>420</v>
       </c>
       <c r="U27" s="42" t="s">
-        <v>476</v>
+        <v>416</v>
       </c>
       <c r="V27" s="41">
         <v>0</v>
@@ -10044,7 +9162,7 @@
     </row>
     <row r="28" s="35" customFormat="1" spans="1:22">
       <c r="A28" s="42" t="s">
-        <v>481</v>
+        <v>421</v>
       </c>
       <c r="B28" s="41">
         <v>2</v>
@@ -10060,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="42" t="s">
-        <v>474</v>
+        <v>414</v>
       </c>
       <c r="H28" s="42"/>
       <c r="I28" s="41"/>
@@ -10086,13 +9204,13 @@
       <c r="Q28" s="41"/>
       <c r="R28" s="41"/>
       <c r="S28" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T28" s="42" t="s">
-        <v>482</v>
+        <v>422</v>
       </c>
       <c r="U28" s="42" t="s">
-        <v>476</v>
+        <v>416</v>
       </c>
       <c r="V28" s="41">
         <v>0</v>
@@ -10100,7 +9218,7 @@
     </row>
     <row r="29" s="35" customFormat="1" spans="1:22">
       <c r="A29" s="42" t="s">
-        <v>483</v>
+        <v>423</v>
       </c>
       <c r="B29" s="41">
         <v>2</v>
@@ -10116,7 +9234,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="42" t="s">
-        <v>474</v>
+        <v>414</v>
       </c>
       <c r="H29" s="42"/>
       <c r="I29" s="41"/>
@@ -10142,13 +9260,13 @@
       <c r="Q29" s="41"/>
       <c r="R29" s="41"/>
       <c r="S29" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T29" s="42" t="s">
-        <v>484</v>
+        <v>424</v>
       </c>
       <c r="U29" s="42" t="s">
-        <v>476</v>
+        <v>416</v>
       </c>
       <c r="V29" s="41">
         <v>0</v>
@@ -10156,7 +9274,7 @@
     </row>
     <row r="30" s="35" customFormat="1" spans="1:22">
       <c r="A30" s="42" t="s">
-        <v>485</v>
+        <v>425</v>
       </c>
       <c r="B30" s="41">
         <v>2</v>
@@ -10172,7 +9290,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="42" t="s">
-        <v>474</v>
+        <v>414</v>
       </c>
       <c r="H30" s="42"/>
       <c r="I30" s="41"/>
@@ -10198,13 +9316,13 @@
       <c r="Q30" s="41"/>
       <c r="R30" s="41"/>
       <c r="S30" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T30" s="42" t="s">
-        <v>486</v>
+        <v>426</v>
       </c>
       <c r="U30" s="42" t="s">
-        <v>476</v>
+        <v>416</v>
       </c>
       <c r="V30" s="41">
         <v>0</v>
@@ -10212,7 +9330,7 @@
     </row>
     <row r="31" s="35" customFormat="1" spans="1:22">
       <c r="A31" s="42" t="s">
-        <v>487</v>
+        <v>427</v>
       </c>
       <c r="B31" s="40">
         <v>2</v>
@@ -10228,7 +9346,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="42" t="s">
-        <v>488</v>
+        <v>428</v>
       </c>
       <c r="H31" s="42"/>
       <c r="I31" s="41"/>
@@ -10254,13 +9372,13 @@
       <c r="Q31" s="41"/>
       <c r="R31" s="40"/>
       <c r="S31" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T31" s="42" t="s">
-        <v>489</v>
+        <v>429</v>
       </c>
       <c r="U31" s="42" t="s">
-        <v>490</v>
+        <v>430</v>
       </c>
       <c r="V31" s="41">
         <v>0</v>
@@ -10268,7 +9386,7 @@
     </row>
     <row r="32" s="35" customFormat="1" spans="1:22">
       <c r="A32" s="42" t="s">
-        <v>491</v>
+        <v>431</v>
       </c>
       <c r="B32" s="41">
         <v>2</v>
@@ -10284,7 +9402,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="42" t="s">
-        <v>488</v>
+        <v>428</v>
       </c>
       <c r="H32" s="42"/>
       <c r="I32" s="41"/>
@@ -10310,13 +9428,13 @@
       <c r="Q32" s="41"/>
       <c r="R32" s="41"/>
       <c r="S32" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T32" s="42" t="s">
-        <v>492</v>
+        <v>432</v>
       </c>
       <c r="U32" s="42" t="s">
-        <v>490</v>
+        <v>430</v>
       </c>
       <c r="V32" s="41">
         <v>0</v>
@@ -10324,7 +9442,7 @@
     </row>
     <row r="33" s="35" customFormat="1" spans="1:22">
       <c r="A33" s="42" t="s">
-        <v>493</v>
+        <v>433</v>
       </c>
       <c r="B33" s="40">
         <v>2</v>
@@ -10340,7 +9458,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="42" t="s">
-        <v>488</v>
+        <v>428</v>
       </c>
       <c r="H33" s="42"/>
       <c r="I33" s="41"/>
@@ -10366,13 +9484,13 @@
       <c r="Q33" s="41"/>
       <c r="R33" s="40"/>
       <c r="S33" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="T33" s="42" t="s">
         <v>434</v>
       </c>
-      <c r="T33" s="42" t="s">
-        <v>494</v>
-      </c>
       <c r="U33" s="42" t="s">
-        <v>490</v>
+        <v>430</v>
       </c>
       <c r="V33" s="41">
         <v>0</v>
@@ -10380,7 +9498,7 @@
     </row>
     <row r="34" s="35" customFormat="1" spans="1:22">
       <c r="A34" s="42" t="s">
-        <v>495</v>
+        <v>435</v>
       </c>
       <c r="B34" s="41">
         <v>2</v>
@@ -10396,7 +9514,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="42" t="s">
-        <v>488</v>
+        <v>428</v>
       </c>
       <c r="H34" s="42"/>
       <c r="I34" s="41"/>
@@ -10422,13 +9540,13 @@
       <c r="Q34" s="41"/>
       <c r="R34" s="41"/>
       <c r="S34" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T34" s="42" t="s">
-        <v>496</v>
+        <v>436</v>
       </c>
       <c r="U34" s="42" t="s">
-        <v>490</v>
+        <v>430</v>
       </c>
       <c r="V34" s="41">
         <v>0</v>
@@ -10436,7 +9554,7 @@
     </row>
     <row r="35" s="35" customFormat="1" spans="1:22">
       <c r="A35" s="42" t="s">
-        <v>497</v>
+        <v>437</v>
       </c>
       <c r="B35" s="40">
         <v>2</v>
@@ -10452,7 +9570,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="42" t="s">
-        <v>488</v>
+        <v>428</v>
       </c>
       <c r="H35" s="42"/>
       <c r="I35" s="41"/>
@@ -10478,13 +9596,13 @@
       <c r="Q35" s="41"/>
       <c r="R35" s="40"/>
       <c r="S35" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T35" s="42" t="s">
-        <v>498</v>
+        <v>438</v>
       </c>
       <c r="U35" s="42" t="s">
-        <v>490</v>
+        <v>430</v>
       </c>
       <c r="V35" s="41">
         <v>0</v>
@@ -10492,7 +9610,7 @@
     </row>
     <row r="36" s="35" customFormat="1" spans="1:22">
       <c r="A36" s="42" t="s">
-        <v>499</v>
+        <v>439</v>
       </c>
       <c r="B36" s="41">
         <v>2</v>
@@ -10508,7 +9626,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="42" t="s">
-        <v>488</v>
+        <v>428</v>
       </c>
       <c r="H36" s="42"/>
       <c r="I36" s="41"/>
@@ -10534,13 +9652,13 @@
       <c r="Q36" s="41"/>
       <c r="R36" s="41"/>
       <c r="S36" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T36" s="42" t="s">
-        <v>500</v>
+        <v>440</v>
       </c>
       <c r="U36" s="42" t="s">
-        <v>490</v>
+        <v>430</v>
       </c>
       <c r="V36" s="41">
         <v>0</v>
@@ -10548,7 +9666,7 @@
     </row>
     <row r="37" s="35" customFormat="1" spans="1:22">
       <c r="A37" s="41" t="s">
-        <v>501</v>
+        <v>441</v>
       </c>
       <c r="B37" s="40">
         <v>2</v>
@@ -10564,7 +9682,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="41" t="s">
-        <v>502</v>
+        <v>442</v>
       </c>
       <c r="H37" s="42"/>
       <c r="I37" s="41"/>
@@ -10590,13 +9708,13 @@
       <c r="Q37" s="41"/>
       <c r="R37" s="40"/>
       <c r="S37" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T37" s="41" t="s">
-        <v>503</v>
+        <v>443</v>
       </c>
       <c r="U37" s="41" t="s">
-        <v>504</v>
+        <v>444</v>
       </c>
       <c r="V37" s="41">
         <v>0</v>
@@ -10604,7 +9722,7 @@
     </row>
     <row r="38" s="35" customFormat="1" spans="1:22">
       <c r="A38" s="41" t="s">
-        <v>505</v>
+        <v>445</v>
       </c>
       <c r="B38" s="41">
         <v>2</v>
@@ -10620,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="41" t="s">
-        <v>502</v>
+        <v>442</v>
       </c>
       <c r="H38" s="42"/>
       <c r="I38" s="41"/>
@@ -10646,13 +9764,13 @@
       <c r="Q38" s="41"/>
       <c r="R38" s="41"/>
       <c r="S38" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T38" s="41" t="s">
-        <v>503</v>
+        <v>443</v>
       </c>
       <c r="U38" s="41" t="s">
-        <v>504</v>
+        <v>444</v>
       </c>
       <c r="V38" s="41">
         <v>0</v>
@@ -10660,7 +9778,7 @@
     </row>
     <row r="39" s="35" customFormat="1" spans="1:22">
       <c r="A39" s="41" t="s">
-        <v>506</v>
+        <v>446</v>
       </c>
       <c r="B39" s="40">
         <v>2</v>
@@ -10676,7 +9794,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="41" t="s">
-        <v>502</v>
+        <v>442</v>
       </c>
       <c r="H39" s="42"/>
       <c r="I39" s="41"/>
@@ -10702,13 +9820,13 @@
       <c r="Q39" s="41"/>
       <c r="R39" s="40"/>
       <c r="S39" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T39" s="41" t="s">
-        <v>503</v>
+        <v>443</v>
       </c>
       <c r="U39" s="41" t="s">
-        <v>504</v>
+        <v>444</v>
       </c>
       <c r="V39" s="41">
         <v>0</v>
@@ -10716,7 +9834,7 @@
     </row>
     <row r="40" s="35" customFormat="1" spans="1:22">
       <c r="A40" s="41" t="s">
-        <v>507</v>
+        <v>447</v>
       </c>
       <c r="B40" s="41">
         <v>2</v>
@@ -10732,7 +9850,7 @@
         <v>0</v>
       </c>
       <c r="G40" s="41" t="s">
-        <v>502</v>
+        <v>442</v>
       </c>
       <c r="H40" s="42"/>
       <c r="I40" s="41"/>
@@ -10758,13 +9876,13 @@
       <c r="Q40" s="41"/>
       <c r="R40" s="41"/>
       <c r="S40" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T40" s="41" t="s">
-        <v>503</v>
+        <v>443</v>
       </c>
       <c r="U40" s="41" t="s">
-        <v>504</v>
+        <v>444</v>
       </c>
       <c r="V40" s="41">
         <v>0</v>
@@ -10772,7 +9890,7 @@
     </row>
     <row r="41" s="35" customFormat="1" spans="1:22">
       <c r="A41" s="41" t="s">
-        <v>508</v>
+        <v>448</v>
       </c>
       <c r="B41" s="40">
         <v>2</v>
@@ -10788,7 +9906,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="41" t="s">
-        <v>502</v>
+        <v>442</v>
       </c>
       <c r="H41" s="42"/>
       <c r="I41" s="41"/>
@@ -10814,13 +9932,13 @@
       <c r="Q41" s="41"/>
       <c r="R41" s="40"/>
       <c r="S41" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T41" s="41" t="s">
-        <v>503</v>
+        <v>443</v>
       </c>
       <c r="U41" s="41" t="s">
-        <v>504</v>
+        <v>444</v>
       </c>
       <c r="V41" s="41">
         <v>0</v>
@@ -10828,7 +9946,7 @@
     </row>
     <row r="42" s="35" customFormat="1" spans="1:22">
       <c r="A42" s="41" t="s">
-        <v>509</v>
+        <v>449</v>
       </c>
       <c r="B42" s="41">
         <v>2</v>
@@ -10844,7 +9962,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="41" t="s">
-        <v>502</v>
+        <v>442</v>
       </c>
       <c r="H42" s="42"/>
       <c r="I42" s="41"/>
@@ -10870,13 +9988,13 @@
       <c r="Q42" s="41"/>
       <c r="R42" s="41"/>
       <c r="S42" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T42" s="41" t="s">
-        <v>503</v>
+        <v>443</v>
       </c>
       <c r="U42" s="41" t="s">
-        <v>504</v>
+        <v>444</v>
       </c>
       <c r="V42" s="41">
         <v>0</v>
@@ -10884,7 +10002,7 @@
     </row>
     <row r="43" s="35" customFormat="1" spans="1:22">
       <c r="A43" s="42" t="s">
-        <v>510</v>
+        <v>450</v>
       </c>
       <c r="B43" s="41">
         <v>2</v>
@@ -10900,7 +10018,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="42" t="s">
-        <v>511</v>
+        <v>451</v>
       </c>
       <c r="H43" s="42"/>
       <c r="I43" s="41"/>
@@ -10926,13 +10044,13 @@
       <c r="Q43" s="41"/>
       <c r="R43" s="41"/>
       <c r="S43" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T43" s="42" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
       <c r="U43" s="42" t="s">
-        <v>513</v>
+        <v>453</v>
       </c>
       <c r="V43" s="41">
         <v>0</v>
@@ -10940,7 +10058,7 @@
     </row>
     <row r="44" s="35" customFormat="1" spans="1:22">
       <c r="A44" s="42" t="s">
-        <v>514</v>
+        <v>454</v>
       </c>
       <c r="B44" s="40">
         <v>2</v>
@@ -10956,7 +10074,7 @@
         <v>0</v>
       </c>
       <c r="G44" s="42" t="s">
-        <v>511</v>
+        <v>451</v>
       </c>
       <c r="H44" s="42"/>
       <c r="I44" s="41"/>
@@ -10982,13 +10100,13 @@
       <c r="Q44" s="41"/>
       <c r="R44" s="40"/>
       <c r="S44" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T44" s="42" t="s">
-        <v>515</v>
+        <v>455</v>
       </c>
       <c r="U44" s="42" t="s">
-        <v>513</v>
+        <v>453</v>
       </c>
       <c r="V44" s="41">
         <v>0</v>
@@ -10996,7 +10114,7 @@
     </row>
     <row r="45" s="35" customFormat="1" spans="1:22">
       <c r="A45" s="42" t="s">
-        <v>516</v>
+        <v>456</v>
       </c>
       <c r="B45" s="41">
         <v>2</v>
@@ -11012,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="42" t="s">
-        <v>511</v>
+        <v>451</v>
       </c>
       <c r="H45" s="42"/>
       <c r="I45" s="41"/>
@@ -11038,13 +10156,13 @@
       <c r="Q45" s="41"/>
       <c r="R45" s="41"/>
       <c r="S45" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T45" s="42" t="s">
-        <v>517</v>
+        <v>457</v>
       </c>
       <c r="U45" s="42" t="s">
-        <v>513</v>
+        <v>453</v>
       </c>
       <c r="V45" s="41">
         <v>0</v>
@@ -11052,7 +10170,7 @@
     </row>
     <row r="46" s="35" customFormat="1" spans="1:22">
       <c r="A46" s="42" t="s">
-        <v>518</v>
+        <v>458</v>
       </c>
       <c r="B46" s="40">
         <v>2</v>
@@ -11068,7 +10186,7 @@
         <v>0</v>
       </c>
       <c r="G46" s="42" t="s">
-        <v>511</v>
+        <v>451</v>
       </c>
       <c r="H46" s="42"/>
       <c r="I46" s="41"/>
@@ -11094,13 +10212,13 @@
       <c r="Q46" s="41"/>
       <c r="R46" s="40"/>
       <c r="S46" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T46" s="42" t="s">
-        <v>519</v>
+        <v>459</v>
       </c>
       <c r="U46" s="42" t="s">
-        <v>513</v>
+        <v>453</v>
       </c>
       <c r="V46" s="41">
         <v>0</v>
@@ -11108,7 +10226,7 @@
     </row>
     <row r="47" s="35" customFormat="1" spans="1:22">
       <c r="A47" s="42" t="s">
-        <v>520</v>
+        <v>460</v>
       </c>
       <c r="B47" s="41">
         <v>2</v>
@@ -11124,7 +10242,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="42" t="s">
-        <v>511</v>
+        <v>451</v>
       </c>
       <c r="H47" s="42"/>
       <c r="I47" s="41"/>
@@ -11150,13 +10268,13 @@
       <c r="Q47" s="41"/>
       <c r="R47" s="41"/>
       <c r="S47" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T47" s="42" t="s">
-        <v>521</v>
+        <v>461</v>
       </c>
       <c r="U47" s="42" t="s">
-        <v>513</v>
+        <v>453</v>
       </c>
       <c r="V47" s="41">
         <v>0</v>
@@ -11164,7 +10282,7 @@
     </row>
     <row r="48" s="35" customFormat="1" spans="1:22">
       <c r="A48" s="42" t="s">
-        <v>522</v>
+        <v>462</v>
       </c>
       <c r="B48" s="40">
         <v>2</v>
@@ -11180,7 +10298,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="42" t="s">
-        <v>511</v>
+        <v>451</v>
       </c>
       <c r="H48" s="42"/>
       <c r="I48" s="41"/>
@@ -11206,13 +10324,13 @@
       <c r="Q48" s="41"/>
       <c r="R48" s="40"/>
       <c r="S48" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T48" s="42" t="s">
-        <v>523</v>
+        <v>463</v>
       </c>
       <c r="U48" s="42" t="s">
-        <v>513</v>
+        <v>453</v>
       </c>
       <c r="V48" s="41">
         <v>0</v>
@@ -11220,7 +10338,7 @@
     </row>
     <row r="49" s="35" customFormat="1" spans="1:22">
       <c r="A49" s="42" t="s">
-        <v>524</v>
+        <v>464</v>
       </c>
       <c r="B49" s="40">
         <v>2</v>
@@ -11236,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="G49" s="42" t="s">
-        <v>511</v>
+        <v>451</v>
       </c>
       <c r="H49" s="42"/>
       <c r="I49" s="41"/>
@@ -11262,13 +10380,13 @@
       <c r="Q49" s="41"/>
       <c r="R49" s="40"/>
       <c r="S49" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T49" s="42" t="s">
-        <v>523</v>
+        <v>463</v>
       </c>
       <c r="U49" s="42" t="s">
-        <v>513</v>
+        <v>453</v>
       </c>
       <c r="V49" s="41">
         <v>0</v>
@@ -11276,10 +10394,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:V9">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -12006,7 +11124,7 @@
     </row>
     <row r="11" s="20" customFormat="1" spans="1:22">
       <c r="A11" s="21" t="s">
-        <v>525</v>
+        <v>465</v>
       </c>
       <c r="B11" s="22">
         <v>3</v>
@@ -12022,7 +11140,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>526</v>
+        <v>466</v>
       </c>
       <c r="H11" s="22"/>
       <c r="I11" s="22"/>
@@ -12047,16 +11165,16 @@
       </c>
       <c r="Q11" s="22"/>
       <c r="R11" s="28" t="s">
-        <v>527</v>
+        <v>467</v>
       </c>
       <c r="S11" s="29" t="s">
-        <v>528</v>
+        <v>468</v>
       </c>
       <c r="T11" s="30" t="s">
-        <v>529</v>
+        <v>469</v>
       </c>
       <c r="U11" s="31" t="s">
-        <v>530</v>
+        <v>470</v>
       </c>
       <c r="V11" s="22">
         <v>1</v>
@@ -12064,7 +11182,7 @@
     </row>
     <row r="12" s="20" customFormat="1" spans="1:22">
       <c r="A12" s="24" t="s">
-        <v>531</v>
+        <v>471</v>
       </c>
       <c r="B12" s="25">
         <v>3</v>
@@ -12080,7 +11198,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>532</v>
+        <v>472</v>
       </c>
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
@@ -12105,16 +11223,16 @@
       </c>
       <c r="Q12" s="25"/>
       <c r="R12" s="28" t="s">
-        <v>533</v>
+        <v>473</v>
       </c>
       <c r="S12" s="29" t="s">
-        <v>528</v>
+        <v>468</v>
       </c>
       <c r="T12" s="32" t="s">
-        <v>534</v>
+        <v>474</v>
       </c>
       <c r="U12" s="33" t="s">
-        <v>535</v>
+        <v>475</v>
       </c>
       <c r="V12" s="25">
         <v>1</v>
@@ -12122,7 +11240,7 @@
     </row>
     <row r="13" s="20" customFormat="1" spans="1:22">
       <c r="A13" s="24" t="s">
-        <v>536</v>
+        <v>476</v>
       </c>
       <c r="B13" s="22">
         <v>3</v>
@@ -12138,7 +11256,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>537</v>
+        <v>477</v>
       </c>
       <c r="H13" s="25"/>
       <c r="I13" s="25"/>
@@ -12163,16 +11281,16 @@
       </c>
       <c r="Q13" s="25"/>
       <c r="R13" s="28" t="s">
-        <v>538</v>
+        <v>478</v>
       </c>
       <c r="S13" s="29" t="s">
-        <v>528</v>
+        <v>468</v>
       </c>
       <c r="T13" s="32" t="s">
-        <v>539</v>
+        <v>479</v>
       </c>
       <c r="U13" s="33" t="s">
-        <v>540</v>
+        <v>480</v>
       </c>
       <c r="V13" s="25">
         <v>1</v>
@@ -12180,7 +11298,7 @@
     </row>
     <row r="14" s="20" customFormat="1" spans="1:22">
       <c r="A14" s="24" t="s">
-        <v>541</v>
+        <v>481</v>
       </c>
       <c r="B14" s="25">
         <v>3</v>
@@ -12196,7 +11314,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>542</v>
+        <v>482</v>
       </c>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
@@ -12221,16 +11339,16 @@
       </c>
       <c r="Q14" s="25"/>
       <c r="R14" s="28" t="s">
-        <v>543</v>
+        <v>483</v>
       </c>
       <c r="S14" s="29" t="s">
-        <v>528</v>
+        <v>468</v>
       </c>
       <c r="T14" s="24" t="s">
-        <v>544</v>
+        <v>484</v>
       </c>
       <c r="U14" s="33" t="s">
-        <v>545</v>
+        <v>485</v>
       </c>
       <c r="V14" s="25">
         <v>1</v>
@@ -12238,10 +11356,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:V9">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -12968,7 +12086,7 @@
     </row>
     <row r="11" s="12" customFormat="1" ht="360" spans="1:22">
       <c r="A11" s="13" t="s">
-        <v>546</v>
+        <v>486</v>
       </c>
       <c r="B11" s="14">
         <v>2</v>
@@ -12984,12 +12102,12 @@
         <v>0</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>547</v>
+        <v>487</v>
       </c>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
       <c r="J11" s="19" t="s">
-        <v>548</v>
+        <v>488</v>
       </c>
       <c r="K11" s="14">
         <v>0</v>
@@ -13012,13 +12130,13 @@
       <c r="Q11" s="14"/>
       <c r="R11" s="14"/>
       <c r="S11" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T11" s="13" t="s">
-        <v>549</v>
+        <v>489</v>
       </c>
       <c r="U11" s="13" t="s">
-        <v>550</v>
+        <v>490</v>
       </c>
       <c r="V11" s="14">
         <v>0</v>
@@ -13026,7 +12144,7 @@
     </row>
     <row r="12" s="12" customFormat="1" spans="1:22">
       <c r="A12" s="13" t="s">
-        <v>551</v>
+        <v>491</v>
       </c>
       <c r="B12" s="15">
         <v>2</v>
@@ -13042,7 +12160,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>547</v>
+        <v>487</v>
       </c>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -13068,13 +12186,13 @@
       <c r="Q12" s="14"/>
       <c r="R12" s="15"/>
       <c r="S12" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T12" s="13" t="s">
-        <v>549</v>
+        <v>489</v>
       </c>
       <c r="U12" s="13" t="s">
-        <v>550</v>
+        <v>490</v>
       </c>
       <c r="V12" s="14">
         <v>0</v>
@@ -13082,7 +12200,7 @@
     </row>
     <row r="13" s="12" customFormat="1" spans="1:22">
       <c r="A13" s="13" t="s">
-        <v>552</v>
+        <v>492</v>
       </c>
       <c r="B13" s="14">
         <v>2</v>
@@ -13098,7 +12216,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>547</v>
+        <v>487</v>
       </c>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -13124,13 +12242,13 @@
       <c r="Q13" s="14"/>
       <c r="R13" s="14"/>
       <c r="S13" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T13" s="13" t="s">
-        <v>549</v>
+        <v>489</v>
       </c>
       <c r="U13" s="13" t="s">
-        <v>550</v>
+        <v>490</v>
       </c>
       <c r="V13" s="14">
         <v>0</v>
@@ -13138,7 +12256,7 @@
     </row>
     <row r="14" s="12" customFormat="1" spans="1:22">
       <c r="A14" s="13" t="s">
-        <v>553</v>
+        <v>493</v>
       </c>
       <c r="B14" s="15">
         <v>2</v>
@@ -13154,7 +12272,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>547</v>
+        <v>487</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -13180,13 +12298,13 @@
       <c r="Q14" s="14"/>
       <c r="R14" s="15"/>
       <c r="S14" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T14" s="13" t="s">
-        <v>549</v>
+        <v>489</v>
       </c>
       <c r="U14" s="13" t="s">
-        <v>550</v>
+        <v>490</v>
       </c>
       <c r="V14" s="14">
         <v>0</v>
@@ -13194,7 +12312,7 @@
     </row>
     <row r="15" s="12" customFormat="1" spans="1:22">
       <c r="A15" s="13" t="s">
-        <v>554</v>
+        <v>494</v>
       </c>
       <c r="B15" s="14">
         <v>2</v>
@@ -13210,7 +12328,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>547</v>
+        <v>487</v>
       </c>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -13236,13 +12354,13 @@
       <c r="Q15" s="14"/>
       <c r="R15" s="14"/>
       <c r="S15" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T15" s="13" t="s">
-        <v>549</v>
+        <v>489</v>
       </c>
       <c r="U15" s="13" t="s">
-        <v>550</v>
+        <v>490</v>
       </c>
       <c r="V15" s="14">
         <v>0</v>
@@ -13250,7 +12368,7 @@
     </row>
     <row r="16" s="12" customFormat="1" spans="1:22">
       <c r="A16" s="13" t="s">
-        <v>555</v>
+        <v>495</v>
       </c>
       <c r="B16" s="15">
         <v>2</v>
@@ -13266,7 +12384,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>547</v>
+        <v>487</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
@@ -13292,13 +12410,13 @@
       <c r="Q16" s="14"/>
       <c r="R16" s="15"/>
       <c r="S16" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T16" s="13" t="s">
-        <v>549</v>
+        <v>489</v>
       </c>
       <c r="U16" s="13" t="s">
-        <v>550</v>
+        <v>490</v>
       </c>
       <c r="V16" s="14">
         <v>0</v>
@@ -13306,7 +12424,7 @@
     </row>
     <row r="17" s="12" customFormat="1" spans="1:22">
       <c r="A17" s="13" t="s">
-        <v>556</v>
+        <v>496</v>
       </c>
       <c r="B17" s="14">
         <v>2</v>
@@ -13322,7 +12440,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>547</v>
+        <v>487</v>
       </c>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
@@ -13348,13 +12466,13 @@
       <c r="Q17" s="14"/>
       <c r="R17" s="14"/>
       <c r="S17" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T17" s="13" t="s">
-        <v>549</v>
+        <v>489</v>
       </c>
       <c r="U17" s="13" t="s">
-        <v>550</v>
+        <v>490</v>
       </c>
       <c r="V17" s="14">
         <v>0</v>
@@ -13362,7 +12480,7 @@
     </row>
     <row r="18" s="12" customFormat="1" spans="1:22">
       <c r="A18" s="13" t="s">
-        <v>557</v>
+        <v>497</v>
       </c>
       <c r="B18" s="15">
         <v>2</v>
@@ -13378,7 +12496,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>547</v>
+        <v>487</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -13404,13 +12522,13 @@
       <c r="Q18" s="14"/>
       <c r="R18" s="15"/>
       <c r="S18" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T18" s="13" t="s">
-        <v>549</v>
+        <v>489</v>
       </c>
       <c r="U18" s="13" t="s">
-        <v>550</v>
+        <v>490</v>
       </c>
       <c r="V18" s="14">
         <v>0</v>
@@ -13418,7 +12536,7 @@
     </row>
     <row r="19" s="12" customFormat="1" spans="1:22">
       <c r="A19" s="13" t="s">
-        <v>558</v>
+        <v>498</v>
       </c>
       <c r="B19" s="14">
         <v>2</v>
@@ -13434,7 +12552,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>547</v>
+        <v>487</v>
       </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
@@ -13460,13 +12578,13 @@
       <c r="Q19" s="14"/>
       <c r="R19" s="14"/>
       <c r="S19" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T19" s="13" t="s">
-        <v>549</v>
+        <v>489</v>
       </c>
       <c r="U19" s="13" t="s">
-        <v>550</v>
+        <v>490</v>
       </c>
       <c r="V19" s="14">
         <v>0</v>
@@ -13474,7 +12592,7 @@
     </row>
     <row r="20" s="12" customFormat="1" spans="1:22">
       <c r="A20" s="13" t="s">
-        <v>559</v>
+        <v>499</v>
       </c>
       <c r="B20" s="15">
         <v>2</v>
@@ -13490,7 +12608,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>547</v>
+        <v>487</v>
       </c>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -13516,13 +12634,13 @@
       <c r="Q20" s="14"/>
       <c r="R20" s="15"/>
       <c r="S20" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T20" s="13" t="s">
-        <v>549</v>
+        <v>489</v>
       </c>
       <c r="U20" s="13" t="s">
-        <v>550</v>
+        <v>490</v>
       </c>
       <c r="V20" s="14">
         <v>0</v>
@@ -13530,7 +12648,7 @@
     </row>
     <row r="21" s="12" customFormat="1" spans="1:22">
       <c r="A21" s="13" t="s">
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="B21" s="14">
         <v>2</v>
@@ -13546,7 +12664,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>561</v>
+        <v>501</v>
       </c>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
@@ -13572,13 +12690,13 @@
       <c r="Q21" s="14"/>
       <c r="R21" s="14"/>
       <c r="S21" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T21" s="13" t="s">
-        <v>562</v>
+        <v>502</v>
       </c>
       <c r="U21" s="13" t="s">
-        <v>563</v>
+        <v>503</v>
       </c>
       <c r="V21" s="14">
         <v>0</v>
@@ -13586,7 +12704,7 @@
     </row>
     <row r="22" s="12" customFormat="1" spans="1:22">
       <c r="A22" s="13" t="s">
-        <v>564</v>
+        <v>504</v>
       </c>
       <c r="B22" s="15">
         <v>2</v>
@@ -13602,7 +12720,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>561</v>
+        <v>501</v>
       </c>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
@@ -13628,13 +12746,13 @@
       <c r="Q22" s="14"/>
       <c r="R22" s="15"/>
       <c r="S22" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T22" s="13" t="s">
-        <v>562</v>
+        <v>502</v>
       </c>
       <c r="U22" s="13" t="s">
-        <v>563</v>
+        <v>503</v>
       </c>
       <c r="V22" s="14">
         <v>0</v>
@@ -13642,7 +12760,7 @@
     </row>
     <row r="23" s="12" customFormat="1" spans="1:22">
       <c r="A23" s="13" t="s">
-        <v>565</v>
+        <v>505</v>
       </c>
       <c r="B23" s="14">
         <v>2</v>
@@ -13658,7 +12776,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>561</v>
+        <v>501</v>
       </c>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
@@ -13684,13 +12802,13 @@
       <c r="Q23" s="14"/>
       <c r="R23" s="14"/>
       <c r="S23" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T23" s="13" t="s">
-        <v>562</v>
+        <v>502</v>
       </c>
       <c r="U23" s="13" t="s">
-        <v>563</v>
+        <v>503</v>
       </c>
       <c r="V23" s="14">
         <v>0</v>
@@ -13698,7 +12816,7 @@
     </row>
     <row r="24" s="12" customFormat="1" spans="1:22">
       <c r="A24" s="13" t="s">
-        <v>566</v>
+        <v>506</v>
       </c>
       <c r="B24" s="15">
         <v>2</v>
@@ -13714,7 +12832,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>561</v>
+        <v>501</v>
       </c>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
@@ -13740,13 +12858,13 @@
       <c r="Q24" s="14"/>
       <c r="R24" s="15"/>
       <c r="S24" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T24" s="13" t="s">
-        <v>562</v>
+        <v>502</v>
       </c>
       <c r="U24" s="13" t="s">
-        <v>563</v>
+        <v>503</v>
       </c>
       <c r="V24" s="14">
         <v>0</v>
@@ -13754,7 +12872,7 @@
     </row>
     <row r="25" s="12" customFormat="1" spans="1:22">
       <c r="A25" s="16" t="s">
-        <v>567</v>
+        <v>507</v>
       </c>
       <c r="B25" s="14">
         <v>2</v>
@@ -13770,7 +12888,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>561</v>
+        <v>501</v>
       </c>
       <c r="H25" s="17"/>
       <c r="I25" s="17"/>
@@ -13796,13 +12914,13 @@
       <c r="Q25" s="17"/>
       <c r="R25" s="17"/>
       <c r="S25" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T25" s="13" t="s">
-        <v>562</v>
+        <v>502</v>
       </c>
       <c r="U25" s="13" t="s">
-        <v>563</v>
+        <v>503</v>
       </c>
       <c r="V25" s="17">
         <v>0</v>
@@ -13810,7 +12928,7 @@
     </row>
     <row r="26" s="12" customFormat="1" spans="1:22">
       <c r="A26" s="16" t="s">
-        <v>568</v>
+        <v>508</v>
       </c>
       <c r="B26" s="15">
         <v>2</v>
@@ -13826,7 +12944,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>561</v>
+        <v>501</v>
       </c>
       <c r="H26" s="17"/>
       <c r="I26" s="17"/>
@@ -13852,13 +12970,13 @@
       <c r="Q26" s="17"/>
       <c r="R26" s="17"/>
       <c r="S26" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T26" s="13" t="s">
-        <v>562</v>
+        <v>502</v>
       </c>
       <c r="U26" s="13" t="s">
-        <v>563</v>
+        <v>503</v>
       </c>
       <c r="V26" s="17">
         <v>0</v>
@@ -13866,10 +12984,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:V9">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -14596,7 +13714,7 @@
     </row>
     <row r="11" s="7" customFormat="1" spans="1:22">
       <c r="A11" s="9" t="s">
-        <v>569</v>
+        <v>509</v>
       </c>
       <c r="B11" s="9">
         <v>1</v>
@@ -14612,7 +13730,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>570</v>
+        <v>510</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -14638,13 +13756,13 @@
       <c r="Q11" s="9"/>
       <c r="R11" s="9"/>
       <c r="S11" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T11" s="9" t="s">
-        <v>571</v>
+        <v>511</v>
       </c>
       <c r="U11" s="9" t="s">
-        <v>572</v>
+        <v>512</v>
       </c>
       <c r="V11" s="9">
         <v>0</v>
@@ -14652,7 +13770,7 @@
     </row>
     <row r="12" s="7" customFormat="1" spans="1:22">
       <c r="A12" s="9" t="s">
-        <v>573</v>
+        <v>513</v>
       </c>
       <c r="B12" s="9">
         <v>1</v>
@@ -14668,7 +13786,7 @@
         <v>2</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>570</v>
+        <v>510</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
@@ -14694,13 +13812,13 @@
       <c r="Q12" s="9"/>
       <c r="R12" s="9"/>
       <c r="S12" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T12" s="9" t="s">
-        <v>571</v>
+        <v>511</v>
       </c>
       <c r="U12" s="9" t="s">
-        <v>572</v>
+        <v>512</v>
       </c>
       <c r="V12" s="9">
         <v>0</v>
@@ -14708,7 +13826,7 @@
     </row>
     <row r="13" s="7" customFormat="1" spans="1:22">
       <c r="A13" s="9" t="s">
-        <v>574</v>
+        <v>514</v>
       </c>
       <c r="B13" s="9">
         <v>1</v>
@@ -14724,7 +13842,7 @@
         <v>3</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>570</v>
+        <v>510</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
@@ -14750,13 +13868,13 @@
       <c r="Q13" s="9"/>
       <c r="R13" s="9"/>
       <c r="S13" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T13" s="9" t="s">
-        <v>571</v>
+        <v>511</v>
       </c>
       <c r="U13" s="9" t="s">
-        <v>572</v>
+        <v>512</v>
       </c>
       <c r="V13" s="9">
         <v>0</v>
@@ -14764,7 +13882,7 @@
     </row>
     <row r="14" s="7" customFormat="1" spans="1:22">
       <c r="A14" s="9" t="s">
-        <v>575</v>
+        <v>515</v>
       </c>
       <c r="B14" s="9">
         <v>1</v>
@@ -14780,7 +13898,7 @@
         <v>4</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>570</v>
+        <v>510</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
@@ -14806,13 +13924,13 @@
       <c r="Q14" s="9"/>
       <c r="R14" s="9"/>
       <c r="S14" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T14" s="9" t="s">
-        <v>571</v>
+        <v>511</v>
       </c>
       <c r="U14" s="9" t="s">
-        <v>572</v>
+        <v>512</v>
       </c>
       <c r="V14" s="9">
         <v>0</v>
@@ -14820,7 +13938,7 @@
     </row>
     <row r="15" s="7" customFormat="1" spans="1:22">
       <c r="A15" s="9" t="s">
-        <v>576</v>
+        <v>516</v>
       </c>
       <c r="B15" s="9">
         <v>1</v>
@@ -14836,7 +13954,7 @@
         <v>5</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>570</v>
+        <v>510</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
@@ -14862,13 +13980,13 @@
       <c r="Q15" s="9"/>
       <c r="R15" s="9"/>
       <c r="S15" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T15" s="9" t="s">
-        <v>571</v>
+        <v>511</v>
       </c>
       <c r="U15" s="9" t="s">
-        <v>572</v>
+        <v>512</v>
       </c>
       <c r="V15" s="9">
         <v>0</v>
@@ -14876,7 +13994,7 @@
     </row>
     <row r="16" s="7" customFormat="1" spans="1:22">
       <c r="A16" s="9" t="s">
-        <v>577</v>
+        <v>517</v>
       </c>
       <c r="B16" s="9">
         <v>1</v>
@@ -14892,7 +14010,7 @@
         <v>6</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>570</v>
+        <v>510</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
@@ -14918,13 +14036,13 @@
       <c r="Q16" s="9"/>
       <c r="R16" s="9"/>
       <c r="S16" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T16" s="9" t="s">
-        <v>571</v>
+        <v>511</v>
       </c>
       <c r="U16" s="9" t="s">
-        <v>572</v>
+        <v>512</v>
       </c>
       <c r="V16" s="9">
         <v>0</v>
@@ -14932,7 +14050,7 @@
     </row>
     <row r="17" s="7" customFormat="1" spans="1:22">
       <c r="A17" s="9" t="s">
-        <v>578</v>
+        <v>518</v>
       </c>
       <c r="B17" s="9">
         <v>1</v>
@@ -14948,7 +14066,7 @@
         <v>7</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>570</v>
+        <v>510</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
@@ -14974,13 +14092,13 @@
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
       <c r="S17" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T17" s="9" t="s">
-        <v>571</v>
+        <v>511</v>
       </c>
       <c r="U17" s="9" t="s">
-        <v>572</v>
+        <v>512</v>
       </c>
       <c r="V17" s="9">
         <v>0</v>
@@ -14988,7 +14106,7 @@
     </row>
     <row r="18" s="7" customFormat="1" spans="1:22">
       <c r="A18" s="9" t="s">
-        <v>579</v>
+        <v>519</v>
       </c>
       <c r="B18" s="9">
         <v>1</v>
@@ -15004,7 +14122,7 @@
         <v>8</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>570</v>
+        <v>510</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
@@ -15030,13 +14148,13 @@
       <c r="Q18" s="9"/>
       <c r="R18" s="9"/>
       <c r="S18" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T18" s="9" t="s">
-        <v>571</v>
+        <v>511</v>
       </c>
       <c r="U18" s="9" t="s">
-        <v>572</v>
+        <v>512</v>
       </c>
       <c r="V18" s="9">
         <v>0</v>
@@ -15044,7 +14162,7 @@
     </row>
     <row r="19" s="7" customFormat="1" spans="1:22">
       <c r="A19" s="9" t="s">
-        <v>580</v>
+        <v>520</v>
       </c>
       <c r="B19" s="9">
         <v>1</v>
@@ -15060,7 +14178,7 @@
         <v>9</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>570</v>
+        <v>510</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
@@ -15086,13 +14204,13 @@
       <c r="Q19" s="9"/>
       <c r="R19" s="9"/>
       <c r="S19" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T19" s="9" t="s">
-        <v>571</v>
+        <v>511</v>
       </c>
       <c r="U19" s="9" t="s">
-        <v>572</v>
+        <v>512</v>
       </c>
       <c r="V19" s="9">
         <v>0</v>
@@ -15100,7 +14218,7 @@
     </row>
     <row r="20" s="7" customFormat="1" spans="1:22">
       <c r="A20" s="9" t="s">
-        <v>581</v>
+        <v>521</v>
       </c>
       <c r="B20" s="9">
         <v>1</v>
@@ -15116,7 +14234,7 @@
         <v>10</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>570</v>
+        <v>510</v>
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
@@ -15142,13 +14260,13 @@
       <c r="Q20" s="9"/>
       <c r="R20" s="9"/>
       <c r="S20" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T20" s="9" t="s">
-        <v>571</v>
+        <v>511</v>
       </c>
       <c r="U20" s="9" t="s">
-        <v>572</v>
+        <v>512</v>
       </c>
       <c r="V20" s="9">
         <v>0</v>
@@ -15156,7 +14274,7 @@
     </row>
     <row r="21" s="7" customFormat="1" spans="1:22">
       <c r="A21" s="9" t="s">
-        <v>582</v>
+        <v>522</v>
       </c>
       <c r="B21" s="9">
         <v>1</v>
@@ -15172,7 +14290,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>583</v>
+        <v>523</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
@@ -15198,13 +14316,13 @@
       <c r="Q21" s="9"/>
       <c r="R21" s="9"/>
       <c r="S21" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T21" s="9" t="s">
-        <v>584</v>
+        <v>524</v>
       </c>
       <c r="U21" s="9" t="s">
-        <v>585</v>
+        <v>525</v>
       </c>
       <c r="V21" s="9">
         <v>0</v>
@@ -15212,7 +14330,7 @@
     </row>
     <row r="22" s="7" customFormat="1" spans="1:22">
       <c r="A22" s="9" t="s">
-        <v>586</v>
+        <v>526</v>
       </c>
       <c r="B22" s="9">
         <v>1</v>
@@ -15228,7 +14346,7 @@
         <v>2</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>583</v>
+        <v>523</v>
       </c>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
@@ -15254,13 +14372,13 @@
       <c r="Q22" s="9"/>
       <c r="R22" s="9"/>
       <c r="S22" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T22" s="9" t="s">
-        <v>584</v>
+        <v>524</v>
       </c>
       <c r="U22" s="9" t="s">
-        <v>585</v>
+        <v>525</v>
       </c>
       <c r="V22" s="9">
         <v>0</v>
@@ -15268,7 +14386,7 @@
     </row>
     <row r="23" s="7" customFormat="1" spans="1:22">
       <c r="A23" s="9" t="s">
-        <v>587</v>
+        <v>527</v>
       </c>
       <c r="B23" s="9">
         <v>1</v>
@@ -15284,7 +14402,7 @@
         <v>3</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>583</v>
+        <v>523</v>
       </c>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
@@ -15310,13 +14428,13 @@
       <c r="Q23" s="9"/>
       <c r="R23" s="9"/>
       <c r="S23" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T23" s="9" t="s">
-        <v>584</v>
+        <v>524</v>
       </c>
       <c r="U23" s="9" t="s">
-        <v>585</v>
+        <v>525</v>
       </c>
       <c r="V23" s="9">
         <v>0</v>
@@ -15324,7 +14442,7 @@
     </row>
     <row r="24" s="7" customFormat="1" spans="1:22">
       <c r="A24" s="9" t="s">
-        <v>588</v>
+        <v>528</v>
       </c>
       <c r="B24" s="9">
         <v>1</v>
@@ -15340,7 +14458,7 @@
         <v>4</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>583</v>
+        <v>523</v>
       </c>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
@@ -15366,13 +14484,13 @@
       <c r="Q24" s="9"/>
       <c r="R24" s="9"/>
       <c r="S24" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T24" s="9" t="s">
-        <v>584</v>
+        <v>524</v>
       </c>
       <c r="U24" s="9" t="s">
-        <v>585</v>
+        <v>525</v>
       </c>
       <c r="V24" s="9">
         <v>0</v>
@@ -15380,7 +14498,7 @@
     </row>
     <row r="25" s="7" customFormat="1" spans="1:22">
       <c r="A25" s="9" t="s">
-        <v>589</v>
+        <v>529</v>
       </c>
       <c r="B25" s="9">
         <v>1</v>
@@ -15396,7 +14514,7 @@
         <v>5</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>583</v>
+        <v>523</v>
       </c>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
@@ -15422,13 +14540,13 @@
       <c r="Q25" s="9"/>
       <c r="R25" s="9"/>
       <c r="S25" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T25" s="9" t="s">
-        <v>584</v>
+        <v>524</v>
       </c>
       <c r="U25" s="9" t="s">
-        <v>585</v>
+        <v>525</v>
       </c>
       <c r="V25" s="9">
         <v>0</v>
@@ -15436,7 +14554,7 @@
     </row>
     <row r="26" s="7" customFormat="1" spans="1:22">
       <c r="A26" s="9" t="s">
-        <v>590</v>
+        <v>530</v>
       </c>
       <c r="B26" s="9">
         <v>1</v>
@@ -15452,7 +14570,7 @@
         <v>6</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>583</v>
+        <v>523</v>
       </c>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
@@ -15478,13 +14596,13 @@
       <c r="Q26" s="9"/>
       <c r="R26" s="9"/>
       <c r="S26" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T26" s="9" t="s">
-        <v>584</v>
+        <v>524</v>
       </c>
       <c r="U26" s="9" t="s">
-        <v>585</v>
+        <v>525</v>
       </c>
       <c r="V26" s="9">
         <v>0</v>
@@ -15492,7 +14610,7 @@
     </row>
     <row r="27" s="7" customFormat="1" spans="1:22">
       <c r="A27" s="9" t="s">
-        <v>591</v>
+        <v>531</v>
       </c>
       <c r="B27" s="9">
         <v>1</v>
@@ -15508,7 +14626,7 @@
         <v>7</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>583</v>
+        <v>523</v>
       </c>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
@@ -15534,13 +14652,13 @@
       <c r="Q27" s="9"/>
       <c r="R27" s="9"/>
       <c r="S27" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T27" s="9" t="s">
-        <v>584</v>
+        <v>524</v>
       </c>
       <c r="U27" s="9" t="s">
-        <v>585</v>
+        <v>525</v>
       </c>
       <c r="V27" s="9">
         <v>0</v>
@@ -15548,7 +14666,7 @@
     </row>
     <row r="28" s="7" customFormat="1" spans="1:22">
       <c r="A28" s="9" t="s">
-        <v>592</v>
+        <v>532</v>
       </c>
       <c r="B28" s="9">
         <v>1</v>
@@ -15564,7 +14682,7 @@
         <v>8</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>583</v>
+        <v>523</v>
       </c>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
@@ -15590,13 +14708,13 @@
       <c r="Q28" s="9"/>
       <c r="R28" s="9"/>
       <c r="S28" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T28" s="9" t="s">
-        <v>584</v>
+        <v>524</v>
       </c>
       <c r="U28" s="9" t="s">
-        <v>585</v>
+        <v>525</v>
       </c>
       <c r="V28" s="9">
         <v>0</v>
@@ -15604,7 +14722,7 @@
     </row>
     <row r="29" s="7" customFormat="1" spans="1:22">
       <c r="A29" s="9" t="s">
-        <v>593</v>
+        <v>533</v>
       </c>
       <c r="B29" s="9">
         <v>1</v>
@@ -15620,7 +14738,7 @@
         <v>9</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>583</v>
+        <v>523</v>
       </c>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
@@ -15646,13 +14764,13 @@
       <c r="Q29" s="9"/>
       <c r="R29" s="9"/>
       <c r="S29" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T29" s="9" t="s">
-        <v>584</v>
+        <v>524</v>
       </c>
       <c r="U29" s="9" t="s">
-        <v>585</v>
+        <v>525</v>
       </c>
       <c r="V29" s="9">
         <v>0</v>
@@ -15660,7 +14778,7 @@
     </row>
     <row r="30" s="7" customFormat="1" spans="1:22">
       <c r="A30" s="9" t="s">
-        <v>594</v>
+        <v>534</v>
       </c>
       <c r="B30" s="9">
         <v>1</v>
@@ -15676,7 +14794,7 @@
         <v>10</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>583</v>
+        <v>523</v>
       </c>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
@@ -15702,13 +14820,13 @@
       <c r="Q30" s="9"/>
       <c r="R30" s="9"/>
       <c r="S30" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T30" s="9" t="s">
-        <v>584</v>
+        <v>524</v>
       </c>
       <c r="U30" s="9" t="s">
-        <v>585</v>
+        <v>525</v>
       </c>
       <c r="V30" s="9">
         <v>0</v>
@@ -15716,7 +14834,7 @@
     </row>
     <row r="31" s="7" customFormat="1" spans="1:22">
       <c r="A31" s="9" t="s">
-        <v>595</v>
+        <v>535</v>
       </c>
       <c r="B31" s="9">
         <v>1</v>
@@ -15732,7 +14850,7 @@
         <v>1</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>596</v>
+        <v>536</v>
       </c>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
@@ -15758,13 +14876,13 @@
       <c r="Q31" s="9"/>
       <c r="R31" s="9"/>
       <c r="S31" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T31" s="9" t="s">
-        <v>597</v>
+        <v>537</v>
       </c>
       <c r="U31" s="9" t="s">
-        <v>598</v>
+        <v>538</v>
       </c>
       <c r="V31" s="9">
         <v>0</v>
@@ -15772,7 +14890,7 @@
     </row>
     <row r="32" s="7" customFormat="1" spans="1:22">
       <c r="A32" s="9" t="s">
-        <v>599</v>
+        <v>539</v>
       </c>
       <c r="B32" s="9">
         <v>1</v>
@@ -15788,7 +14906,7 @@
         <v>2</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>596</v>
+        <v>536</v>
       </c>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
@@ -15814,13 +14932,13 @@
       <c r="Q32" s="9"/>
       <c r="R32" s="9"/>
       <c r="S32" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T32" s="9" t="s">
-        <v>597</v>
+        <v>537</v>
       </c>
       <c r="U32" s="9" t="s">
-        <v>598</v>
+        <v>538</v>
       </c>
       <c r="V32" s="9">
         <v>0</v>
@@ -15828,7 +14946,7 @@
     </row>
     <row r="33" s="7" customFormat="1" spans="1:22">
       <c r="A33" s="9" t="s">
-        <v>600</v>
+        <v>540</v>
       </c>
       <c r="B33" s="9">
         <v>1</v>
@@ -15844,7 +14962,7 @@
         <v>3</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>596</v>
+        <v>536</v>
       </c>
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
@@ -15870,13 +14988,13 @@
       <c r="Q33" s="9"/>
       <c r="R33" s="9"/>
       <c r="S33" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T33" s="9" t="s">
-        <v>597</v>
+        <v>537</v>
       </c>
       <c r="U33" s="9" t="s">
-        <v>598</v>
+        <v>538</v>
       </c>
       <c r="V33" s="9">
         <v>0</v>
@@ -15884,7 +15002,7 @@
     </row>
     <row r="34" s="7" customFormat="1" spans="1:22">
       <c r="A34" s="9" t="s">
-        <v>601</v>
+        <v>541</v>
       </c>
       <c r="B34" s="9">
         <v>1</v>
@@ -15900,7 +15018,7 @@
         <v>4</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>596</v>
+        <v>536</v>
       </c>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
@@ -15926,13 +15044,13 @@
       <c r="Q34" s="9"/>
       <c r="R34" s="9"/>
       <c r="S34" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T34" s="9" t="s">
-        <v>597</v>
+        <v>537</v>
       </c>
       <c r="U34" s="9" t="s">
-        <v>598</v>
+        <v>538</v>
       </c>
       <c r="V34" s="9">
         <v>0</v>
@@ -15940,7 +15058,7 @@
     </row>
     <row r="35" s="7" customFormat="1" spans="1:22">
       <c r="A35" s="9" t="s">
-        <v>602</v>
+        <v>542</v>
       </c>
       <c r="B35" s="9">
         <v>1</v>
@@ -15956,7 +15074,7 @@
         <v>5</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>596</v>
+        <v>536</v>
       </c>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
@@ -15982,13 +15100,13 @@
       <c r="Q35" s="9"/>
       <c r="R35" s="9"/>
       <c r="S35" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T35" s="9" t="s">
-        <v>597</v>
+        <v>537</v>
       </c>
       <c r="U35" s="9" t="s">
-        <v>598</v>
+        <v>538</v>
       </c>
       <c r="V35" s="9">
         <v>0</v>
@@ -15996,7 +15114,7 @@
     </row>
     <row r="36" s="7" customFormat="1" spans="1:22">
       <c r="A36" s="9" t="s">
-        <v>603</v>
+        <v>543</v>
       </c>
       <c r="B36" s="9">
         <v>1</v>
@@ -16012,7 +15130,7 @@
         <v>6</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>596</v>
+        <v>536</v>
       </c>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
@@ -16038,13 +15156,13 @@
       <c r="Q36" s="9"/>
       <c r="R36" s="9"/>
       <c r="S36" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T36" s="9" t="s">
-        <v>597</v>
+        <v>537</v>
       </c>
       <c r="U36" s="9" t="s">
-        <v>598</v>
+        <v>538</v>
       </c>
       <c r="V36" s="9">
         <v>0</v>
@@ -16052,7 +15170,7 @@
     </row>
     <row r="37" s="7" customFormat="1" spans="1:22">
       <c r="A37" s="9" t="s">
-        <v>604</v>
+        <v>544</v>
       </c>
       <c r="B37" s="9">
         <v>1</v>
@@ -16068,7 +15186,7 @@
         <v>7</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>596</v>
+        <v>536</v>
       </c>
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
@@ -16094,13 +15212,13 @@
       <c r="Q37" s="9"/>
       <c r="R37" s="9"/>
       <c r="S37" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T37" s="9" t="s">
-        <v>597</v>
+        <v>537</v>
       </c>
       <c r="U37" s="9" t="s">
-        <v>598</v>
+        <v>538</v>
       </c>
       <c r="V37" s="9">
         <v>0</v>
@@ -16108,7 +15226,7 @@
     </row>
     <row r="38" s="7" customFormat="1" spans="1:22">
       <c r="A38" s="9" t="s">
-        <v>605</v>
+        <v>545</v>
       </c>
       <c r="B38" s="9">
         <v>1</v>
@@ -16124,7 +15242,7 @@
         <v>8</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>596</v>
+        <v>536</v>
       </c>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
@@ -16150,13 +15268,13 @@
       <c r="Q38" s="9"/>
       <c r="R38" s="9"/>
       <c r="S38" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T38" s="9" t="s">
-        <v>597</v>
+        <v>537</v>
       </c>
       <c r="U38" s="9" t="s">
-        <v>598</v>
+        <v>538</v>
       </c>
       <c r="V38" s="9">
         <v>0</v>
@@ -16164,7 +15282,7 @@
     </row>
     <row r="39" s="7" customFormat="1" spans="1:22">
       <c r="A39" s="9" t="s">
-        <v>606</v>
+        <v>546</v>
       </c>
       <c r="B39" s="9">
         <v>1</v>
@@ -16180,7 +15298,7 @@
         <v>9</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>596</v>
+        <v>536</v>
       </c>
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
@@ -16206,13 +15324,13 @@
       <c r="Q39" s="9"/>
       <c r="R39" s="9"/>
       <c r="S39" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T39" s="9" t="s">
-        <v>597</v>
+        <v>537</v>
       </c>
       <c r="U39" s="9" t="s">
-        <v>598</v>
+        <v>538</v>
       </c>
       <c r="V39" s="9">
         <v>0</v>
@@ -16220,7 +15338,7 @@
     </row>
     <row r="40" s="7" customFormat="1" spans="1:22">
       <c r="A40" s="9" t="s">
-        <v>607</v>
+        <v>547</v>
       </c>
       <c r="B40" s="9">
         <v>1</v>
@@ -16236,7 +15354,7 @@
         <v>10</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>596</v>
+        <v>536</v>
       </c>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
@@ -16262,13 +15380,13 @@
       <c r="Q40" s="9"/>
       <c r="R40" s="9"/>
       <c r="S40" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T40" s="9" t="s">
-        <v>597</v>
+        <v>537</v>
       </c>
       <c r="U40" s="9" t="s">
-        <v>598</v>
+        <v>538</v>
       </c>
       <c r="V40" s="9">
         <v>0</v>
@@ -16276,7 +15394,7 @@
     </row>
     <row r="41" s="7" customFormat="1" spans="1:22">
       <c r="A41" s="9" t="s">
-        <v>608</v>
+        <v>548</v>
       </c>
       <c r="B41" s="9">
         <v>1</v>
@@ -16292,7 +15410,7 @@
         <v>1</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>609</v>
+        <v>549</v>
       </c>
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
@@ -16318,13 +15436,13 @@
       <c r="Q41" s="9"/>
       <c r="R41" s="9"/>
       <c r="S41" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T41" s="9" t="s">
-        <v>610</v>
+        <v>550</v>
       </c>
       <c r="U41" s="9" t="s">
-        <v>611</v>
+        <v>551</v>
       </c>
       <c r="V41" s="9">
         <v>0</v>
@@ -16332,7 +15450,7 @@
     </row>
     <row r="42" s="7" customFormat="1" spans="1:22">
       <c r="A42" s="9" t="s">
-        <v>612</v>
+        <v>552</v>
       </c>
       <c r="B42" s="9">
         <v>1</v>
@@ -16348,7 +15466,7 @@
         <v>2</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>609</v>
+        <v>549</v>
       </c>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
@@ -16374,13 +15492,13 @@
       <c r="Q42" s="9"/>
       <c r="R42" s="9"/>
       <c r="S42" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T42" s="9" t="s">
-        <v>610</v>
+        <v>550</v>
       </c>
       <c r="U42" s="9" t="s">
-        <v>611</v>
+        <v>551</v>
       </c>
       <c r="V42" s="9">
         <v>0</v>
@@ -16388,7 +15506,7 @@
     </row>
     <row r="43" s="7" customFormat="1" spans="1:22">
       <c r="A43" s="9" t="s">
-        <v>613</v>
+        <v>553</v>
       </c>
       <c r="B43" s="9">
         <v>1</v>
@@ -16404,7 +15522,7 @@
         <v>3</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>609</v>
+        <v>549</v>
       </c>
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
@@ -16430,13 +15548,13 @@
       <c r="Q43" s="9"/>
       <c r="R43" s="9"/>
       <c r="S43" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T43" s="9" t="s">
-        <v>610</v>
+        <v>550</v>
       </c>
       <c r="U43" s="9" t="s">
-        <v>611</v>
+        <v>551</v>
       </c>
       <c r="V43" s="9">
         <v>0</v>
@@ -16444,7 +15562,7 @@
     </row>
     <row r="44" s="7" customFormat="1" spans="1:22">
       <c r="A44" s="9" t="s">
-        <v>614</v>
+        <v>554</v>
       </c>
       <c r="B44" s="9">
         <v>1</v>
@@ -16460,7 +15578,7 @@
         <v>4</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>609</v>
+        <v>549</v>
       </c>
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
@@ -16486,13 +15604,13 @@
       <c r="Q44" s="9"/>
       <c r="R44" s="9"/>
       <c r="S44" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T44" s="9" t="s">
-        <v>610</v>
+        <v>550</v>
       </c>
       <c r="U44" s="9" t="s">
-        <v>611</v>
+        <v>551</v>
       </c>
       <c r="V44" s="9">
         <v>0</v>
@@ -16500,7 +15618,7 @@
     </row>
     <row r="45" s="7" customFormat="1" spans="1:22">
       <c r="A45" s="9" t="s">
-        <v>615</v>
+        <v>555</v>
       </c>
       <c r="B45" s="9">
         <v>1</v>
@@ -16516,7 +15634,7 @@
         <v>5</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>609</v>
+        <v>549</v>
       </c>
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
@@ -16542,13 +15660,13 @@
       <c r="Q45" s="9"/>
       <c r="R45" s="9"/>
       <c r="S45" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T45" s="9" t="s">
-        <v>610</v>
+        <v>550</v>
       </c>
       <c r="U45" s="9" t="s">
-        <v>611</v>
+        <v>551</v>
       </c>
       <c r="V45" s="9">
         <v>0</v>
@@ -16556,7 +15674,7 @@
     </row>
     <row r="46" s="7" customFormat="1" spans="1:22">
       <c r="A46" s="9" t="s">
-        <v>616</v>
+        <v>556</v>
       </c>
       <c r="B46" s="9">
         <v>1</v>
@@ -16572,7 +15690,7 @@
         <v>6</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>609</v>
+        <v>549</v>
       </c>
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
@@ -16598,13 +15716,13 @@
       <c r="Q46" s="9"/>
       <c r="R46" s="9"/>
       <c r="S46" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T46" s="9" t="s">
-        <v>610</v>
+        <v>550</v>
       </c>
       <c r="U46" s="9" t="s">
-        <v>611</v>
+        <v>551</v>
       </c>
       <c r="V46" s="9">
         <v>0</v>
@@ -16612,7 +15730,7 @@
     </row>
     <row r="47" s="7" customFormat="1" spans="1:22">
       <c r="A47" s="9" t="s">
-        <v>617</v>
+        <v>557</v>
       </c>
       <c r="B47" s="9">
         <v>1</v>
@@ -16628,7 +15746,7 @@
         <v>7</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>609</v>
+        <v>549</v>
       </c>
       <c r="H47" s="9"/>
       <c r="I47" s="9"/>
@@ -16654,13 +15772,13 @@
       <c r="Q47" s="9"/>
       <c r="R47" s="9"/>
       <c r="S47" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T47" s="9" t="s">
-        <v>610</v>
+        <v>550</v>
       </c>
       <c r="U47" s="9" t="s">
-        <v>611</v>
+        <v>551</v>
       </c>
       <c r="V47" s="9">
         <v>0</v>
@@ -16668,7 +15786,7 @@
     </row>
     <row r="48" s="7" customFormat="1" spans="1:22">
       <c r="A48" s="9" t="s">
-        <v>618</v>
+        <v>558</v>
       </c>
       <c r="B48" s="9">
         <v>1</v>
@@ -16684,7 +15802,7 @@
         <v>8</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>609</v>
+        <v>549</v>
       </c>
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
@@ -16710,13 +15828,13 @@
       <c r="Q48" s="9"/>
       <c r="R48" s="9"/>
       <c r="S48" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T48" s="9" t="s">
-        <v>610</v>
+        <v>550</v>
       </c>
       <c r="U48" s="9" t="s">
-        <v>611</v>
+        <v>551</v>
       </c>
       <c r="V48" s="9">
         <v>0</v>
@@ -16724,7 +15842,7 @@
     </row>
     <row r="49" s="7" customFormat="1" spans="1:22">
       <c r="A49" s="9" t="s">
-        <v>619</v>
+        <v>559</v>
       </c>
       <c r="B49" s="9">
         <v>1</v>
@@ -16740,7 +15858,7 @@
         <v>9</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>609</v>
+        <v>549</v>
       </c>
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>
@@ -16766,13 +15884,13 @@
       <c r="Q49" s="9"/>
       <c r="R49" s="9"/>
       <c r="S49" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T49" s="9" t="s">
-        <v>610</v>
+        <v>550</v>
       </c>
       <c r="U49" s="9" t="s">
-        <v>611</v>
+        <v>551</v>
       </c>
       <c r="V49" s="9">
         <v>0</v>
@@ -16780,7 +15898,7 @@
     </row>
     <row r="50" s="7" customFormat="1" spans="1:22">
       <c r="A50" s="9" t="s">
-        <v>620</v>
+        <v>560</v>
       </c>
       <c r="B50" s="9">
         <v>1</v>
@@ -16796,7 +15914,7 @@
         <v>10</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>609</v>
+        <v>549</v>
       </c>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
@@ -16822,13 +15940,13 @@
       <c r="Q50" s="9"/>
       <c r="R50" s="9"/>
       <c r="S50" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T50" s="9" t="s">
-        <v>610</v>
+        <v>550</v>
       </c>
       <c r="U50" s="9" t="s">
-        <v>611</v>
+        <v>551</v>
       </c>
       <c r="V50" s="9">
         <v>0</v>
@@ -16836,7 +15954,7 @@
     </row>
     <row r="51" s="8" customFormat="1" spans="1:22">
       <c r="A51" s="10" t="s">
-        <v>621</v>
+        <v>561</v>
       </c>
       <c r="B51" s="10">
         <v>1</v>
@@ -16852,7 +15970,7 @@
         <v>1</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>622</v>
+        <v>562</v>
       </c>
       <c r="H51" s="10"/>
       <c r="I51" s="10"/>
@@ -16878,13 +15996,13 @@
       <c r="Q51" s="10"/>
       <c r="R51" s="9"/>
       <c r="S51" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T51" s="10" t="s">
-        <v>623</v>
+        <v>563</v>
       </c>
       <c r="U51" s="10" t="s">
-        <v>624</v>
+        <v>564</v>
       </c>
       <c r="V51" s="10">
         <v>0</v>
@@ -16892,7 +16010,7 @@
     </row>
     <row r="52" s="8" customFormat="1" spans="1:22">
       <c r="A52" s="10" t="s">
-        <v>625</v>
+        <v>565</v>
       </c>
       <c r="B52" s="10">
         <v>1</v>
@@ -16908,7 +16026,7 @@
         <v>2</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>622</v>
+        <v>562</v>
       </c>
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
@@ -16934,13 +16052,13 @@
       <c r="Q52" s="10"/>
       <c r="R52" s="9"/>
       <c r="S52" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T52" s="10" t="s">
-        <v>623</v>
+        <v>563</v>
       </c>
       <c r="U52" s="10" t="s">
-        <v>624</v>
+        <v>564</v>
       </c>
       <c r="V52" s="10">
         <v>0</v>
@@ -16948,7 +16066,7 @@
     </row>
     <row r="53" s="8" customFormat="1" spans="1:22">
       <c r="A53" s="10" t="s">
-        <v>626</v>
+        <v>566</v>
       </c>
       <c r="B53" s="10">
         <v>1</v>
@@ -16964,7 +16082,7 @@
         <v>3</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>622</v>
+        <v>562</v>
       </c>
       <c r="H53" s="10"/>
       <c r="I53" s="10"/>
@@ -16990,13 +16108,13 @@
       <c r="Q53" s="10"/>
       <c r="R53" s="9"/>
       <c r="S53" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T53" s="10" t="s">
-        <v>623</v>
+        <v>563</v>
       </c>
       <c r="U53" s="10" t="s">
-        <v>624</v>
+        <v>564</v>
       </c>
       <c r="V53" s="10">
         <v>0</v>
@@ -17004,7 +16122,7 @@
     </row>
     <row r="54" s="8" customFormat="1" spans="1:22">
       <c r="A54" s="10" t="s">
-        <v>627</v>
+        <v>567</v>
       </c>
       <c r="B54" s="10">
         <v>1</v>
@@ -17020,7 +16138,7 @@
         <v>4</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>622</v>
+        <v>562</v>
       </c>
       <c r="H54" s="10"/>
       <c r="I54" s="10"/>
@@ -17046,13 +16164,13 @@
       <c r="Q54" s="10"/>
       <c r="R54" s="9"/>
       <c r="S54" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T54" s="10" t="s">
-        <v>623</v>
+        <v>563</v>
       </c>
       <c r="U54" s="10" t="s">
-        <v>624</v>
+        <v>564</v>
       </c>
       <c r="V54" s="10">
         <v>0</v>
@@ -17060,7 +16178,7 @@
     </row>
     <row r="55" s="8" customFormat="1" spans="1:22">
       <c r="A55" s="10" t="s">
-        <v>628</v>
+        <v>568</v>
       </c>
       <c r="B55" s="10">
         <v>1</v>
@@ -17076,7 +16194,7 @@
         <v>5</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>622</v>
+        <v>562</v>
       </c>
       <c r="H55" s="10"/>
       <c r="I55" s="10"/>
@@ -17102,13 +16220,13 @@
       <c r="Q55" s="10"/>
       <c r="R55" s="9"/>
       <c r="S55" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T55" s="10" t="s">
-        <v>623</v>
+        <v>563</v>
       </c>
       <c r="U55" s="10" t="s">
-        <v>624</v>
+        <v>564</v>
       </c>
       <c r="V55" s="10">
         <v>0</v>
@@ -17116,7 +16234,7 @@
     </row>
     <row r="56" s="8" customFormat="1" spans="1:22">
       <c r="A56" s="10" t="s">
-        <v>629</v>
+        <v>569</v>
       </c>
       <c r="B56" s="10">
         <v>1</v>
@@ -17132,7 +16250,7 @@
         <v>6</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>622</v>
+        <v>562</v>
       </c>
       <c r="H56" s="10"/>
       <c r="I56" s="10"/>
@@ -17158,13 +16276,13 @@
       <c r="Q56" s="10"/>
       <c r="R56" s="9"/>
       <c r="S56" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T56" s="10" t="s">
-        <v>623</v>
+        <v>563</v>
       </c>
       <c r="U56" s="10" t="s">
-        <v>624</v>
+        <v>564</v>
       </c>
       <c r="V56" s="10">
         <v>0</v>
@@ -17172,7 +16290,7 @@
     </row>
     <row r="57" s="8" customFormat="1" spans="1:22">
       <c r="A57" s="10" t="s">
-        <v>630</v>
+        <v>570</v>
       </c>
       <c r="B57" s="10">
         <v>1</v>
@@ -17188,7 +16306,7 @@
         <v>7</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>622</v>
+        <v>562</v>
       </c>
       <c r="H57" s="10"/>
       <c r="I57" s="10"/>
@@ -17214,13 +16332,13 @@
       <c r="Q57" s="10"/>
       <c r="R57" s="9"/>
       <c r="S57" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T57" s="10" t="s">
-        <v>623</v>
+        <v>563</v>
       </c>
       <c r="U57" s="10" t="s">
-        <v>624</v>
+        <v>564</v>
       </c>
       <c r="V57" s="10">
         <v>0</v>
@@ -17228,7 +16346,7 @@
     </row>
     <row r="58" s="8" customFormat="1" spans="1:22">
       <c r="A58" s="10" t="s">
-        <v>631</v>
+        <v>571</v>
       </c>
       <c r="B58" s="10">
         <v>1</v>
@@ -17244,7 +16362,7 @@
         <v>8</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>622</v>
+        <v>562</v>
       </c>
       <c r="H58" s="10"/>
       <c r="I58" s="10"/>
@@ -17270,13 +16388,13 @@
       <c r="Q58" s="10"/>
       <c r="R58" s="9"/>
       <c r="S58" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T58" s="10" t="s">
-        <v>623</v>
+        <v>563</v>
       </c>
       <c r="U58" s="10" t="s">
-        <v>624</v>
+        <v>564</v>
       </c>
       <c r="V58" s="10">
         <v>0</v>
@@ -17284,7 +16402,7 @@
     </row>
     <row r="59" s="8" customFormat="1" spans="1:22">
       <c r="A59" s="10" t="s">
-        <v>632</v>
+        <v>572</v>
       </c>
       <c r="B59" s="10">
         <v>1</v>
@@ -17300,7 +16418,7 @@
         <v>9</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>622</v>
+        <v>562</v>
       </c>
       <c r="H59" s="10"/>
       <c r="I59" s="10"/>
@@ -17326,13 +16444,13 @@
       <c r="Q59" s="10"/>
       <c r="R59" s="9"/>
       <c r="S59" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T59" s="10" t="s">
-        <v>623</v>
+        <v>563</v>
       </c>
       <c r="U59" s="10" t="s">
-        <v>624</v>
+        <v>564</v>
       </c>
       <c r="V59" s="10">
         <v>0</v>
@@ -17340,7 +16458,7 @@
     </row>
     <row r="60" s="8" customFormat="1" spans="1:22">
       <c r="A60" s="10" t="s">
-        <v>633</v>
+        <v>573</v>
       </c>
       <c r="B60" s="10">
         <v>1</v>
@@ -17356,7 +16474,7 @@
         <v>10</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>622</v>
+        <v>562</v>
       </c>
       <c r="H60" s="10"/>
       <c r="I60" s="10"/>
@@ -17382,13 +16500,13 @@
       <c r="Q60" s="10"/>
       <c r="R60" s="9"/>
       <c r="S60" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T60" s="10" t="s">
-        <v>623</v>
+        <v>563</v>
       </c>
       <c r="U60" s="10" t="s">
-        <v>624</v>
+        <v>564</v>
       </c>
       <c r="V60" s="10">
         <v>0</v>
@@ -17396,7 +16514,7 @@
     </row>
     <row r="61" s="7" customFormat="1" spans="1:22">
       <c r="A61" s="9" t="s">
-        <v>634</v>
+        <v>574</v>
       </c>
       <c r="B61" s="9">
         <v>1</v>
@@ -17412,7 +16530,7 @@
         <v>1</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>635</v>
+        <v>575</v>
       </c>
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
@@ -17438,13 +16556,13 @@
       <c r="Q61" s="9"/>
       <c r="R61" s="9"/>
       <c r="S61" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T61" s="9" t="s">
-        <v>636</v>
+        <v>576</v>
       </c>
       <c r="U61" s="9" t="s">
-        <v>637</v>
+        <v>577</v>
       </c>
       <c r="V61" s="9">
         <v>0</v>
@@ -17452,7 +16570,7 @@
     </row>
     <row r="62" s="7" customFormat="1" spans="1:22">
       <c r="A62" s="9" t="s">
-        <v>638</v>
+        <v>578</v>
       </c>
       <c r="B62" s="9">
         <v>1</v>
@@ -17468,7 +16586,7 @@
         <v>2</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>635</v>
+        <v>575</v>
       </c>
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
@@ -17494,13 +16612,13 @@
       <c r="Q62" s="9"/>
       <c r="R62" s="9"/>
       <c r="S62" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T62" s="9" t="s">
-        <v>636</v>
+        <v>576</v>
       </c>
       <c r="U62" s="9" t="s">
-        <v>637</v>
+        <v>577</v>
       </c>
       <c r="V62" s="9">
         <v>0</v>
@@ -17508,7 +16626,7 @@
     </row>
     <row r="63" s="7" customFormat="1" spans="1:22">
       <c r="A63" s="9" t="s">
-        <v>639</v>
+        <v>579</v>
       </c>
       <c r="B63" s="9">
         <v>1</v>
@@ -17524,7 +16642,7 @@
         <v>3</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>635</v>
+        <v>575</v>
       </c>
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
@@ -17550,13 +16668,13 @@
       <c r="Q63" s="9"/>
       <c r="R63" s="9"/>
       <c r="S63" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T63" s="9" t="s">
-        <v>636</v>
+        <v>576</v>
       </c>
       <c r="U63" s="9" t="s">
-        <v>637</v>
+        <v>577</v>
       </c>
       <c r="V63" s="9">
         <v>0</v>
@@ -17564,7 +16682,7 @@
     </row>
     <row r="64" s="7" customFormat="1" spans="1:22">
       <c r="A64" s="9" t="s">
-        <v>640</v>
+        <v>580</v>
       </c>
       <c r="B64" s="9">
         <v>1</v>
@@ -17580,7 +16698,7 @@
         <v>4</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>635</v>
+        <v>575</v>
       </c>
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
@@ -17606,13 +16724,13 @@
       <c r="Q64" s="9"/>
       <c r="R64" s="9"/>
       <c r="S64" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T64" s="9" t="s">
-        <v>636</v>
+        <v>576</v>
       </c>
       <c r="U64" s="9" t="s">
-        <v>637</v>
+        <v>577</v>
       </c>
       <c r="V64" s="9">
         <v>0</v>
@@ -17620,7 +16738,7 @@
     </row>
     <row r="65" s="7" customFormat="1" spans="1:22">
       <c r="A65" s="9" t="s">
-        <v>641</v>
+        <v>581</v>
       </c>
       <c r="B65" s="9">
         <v>1</v>
@@ -17636,7 +16754,7 @@
         <v>5</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>635</v>
+        <v>575</v>
       </c>
       <c r="H65" s="9"/>
       <c r="I65" s="9"/>
@@ -17662,13 +16780,13 @@
       <c r="Q65" s="9"/>
       <c r="R65" s="9"/>
       <c r="S65" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T65" s="9" t="s">
-        <v>636</v>
+        <v>576</v>
       </c>
       <c r="U65" s="9" t="s">
-        <v>637</v>
+        <v>577</v>
       </c>
       <c r="V65" s="9">
         <v>0</v>
@@ -17676,7 +16794,7 @@
     </row>
     <row r="66" s="7" customFormat="1" spans="1:22">
       <c r="A66" s="9" t="s">
-        <v>642</v>
+        <v>582</v>
       </c>
       <c r="B66" s="9">
         <v>1</v>
@@ -17692,7 +16810,7 @@
         <v>6</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>635</v>
+        <v>575</v>
       </c>
       <c r="H66" s="9"/>
       <c r="I66" s="9"/>
@@ -17718,13 +16836,13 @@
       <c r="Q66" s="9"/>
       <c r="R66" s="9"/>
       <c r="S66" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T66" s="9" t="s">
-        <v>636</v>
+        <v>576</v>
       </c>
       <c r="U66" s="9" t="s">
-        <v>637</v>
+        <v>577</v>
       </c>
       <c r="V66" s="9">
         <v>0</v>
@@ -17732,7 +16850,7 @@
     </row>
     <row r="67" s="7" customFormat="1" spans="1:22">
       <c r="A67" s="9" t="s">
-        <v>643</v>
+        <v>583</v>
       </c>
       <c r="B67" s="9">
         <v>1</v>
@@ -17748,7 +16866,7 @@
         <v>7</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>635</v>
+        <v>575</v>
       </c>
       <c r="H67" s="9"/>
       <c r="I67" s="9"/>
@@ -17774,13 +16892,13 @@
       <c r="Q67" s="9"/>
       <c r="R67" s="9"/>
       <c r="S67" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T67" s="9" t="s">
-        <v>636</v>
+        <v>576</v>
       </c>
       <c r="U67" s="9" t="s">
-        <v>637</v>
+        <v>577</v>
       </c>
       <c r="V67" s="9">
         <v>0</v>
@@ -17788,7 +16906,7 @@
     </row>
     <row r="68" s="7" customFormat="1" spans="1:22">
       <c r="A68" s="9" t="s">
-        <v>644</v>
+        <v>584</v>
       </c>
       <c r="B68" s="9">
         <v>1</v>
@@ -17804,7 +16922,7 @@
         <v>8</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>635</v>
+        <v>575</v>
       </c>
       <c r="H68" s="9"/>
       <c r="I68" s="9"/>
@@ -17830,13 +16948,13 @@
       <c r="Q68" s="9"/>
       <c r="R68" s="9"/>
       <c r="S68" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T68" s="9" t="s">
-        <v>636</v>
+        <v>576</v>
       </c>
       <c r="U68" s="9" t="s">
-        <v>637</v>
+        <v>577</v>
       </c>
       <c r="V68" s="9">
         <v>0</v>
@@ -17844,7 +16962,7 @@
     </row>
     <row r="69" s="7" customFormat="1" spans="1:22">
       <c r="A69" s="9" t="s">
-        <v>645</v>
+        <v>585</v>
       </c>
       <c r="B69" s="9">
         <v>1</v>
@@ -17860,7 +16978,7 @@
         <v>9</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>635</v>
+        <v>575</v>
       </c>
       <c r="H69" s="9"/>
       <c r="I69" s="9"/>
@@ -17886,13 +17004,13 @@
       <c r="Q69" s="9"/>
       <c r="R69" s="9"/>
       <c r="S69" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T69" s="9" t="s">
-        <v>636</v>
+        <v>576</v>
       </c>
       <c r="U69" s="9" t="s">
-        <v>637</v>
+        <v>577</v>
       </c>
       <c r="V69" s="9">
         <v>0</v>
@@ -17900,7 +17018,7 @@
     </row>
     <row r="70" s="7" customFormat="1" spans="1:22">
       <c r="A70" s="9" t="s">
-        <v>646</v>
+        <v>586</v>
       </c>
       <c r="B70" s="9">
         <v>1</v>
@@ -17916,7 +17034,7 @@
         <v>10</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>635</v>
+        <v>575</v>
       </c>
       <c r="H70" s="9"/>
       <c r="I70" s="9"/>
@@ -17942,13 +17060,13 @@
       <c r="Q70" s="9"/>
       <c r="R70" s="9"/>
       <c r="S70" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T70" s="9" t="s">
-        <v>636</v>
+        <v>576</v>
       </c>
       <c r="U70" s="9" t="s">
-        <v>637</v>
+        <v>577</v>
       </c>
       <c r="V70" s="9">
         <v>0</v>
@@ -17956,7 +17074,7 @@
     </row>
     <row r="71" s="7" customFormat="1" spans="1:22">
       <c r="A71" s="9" t="s">
-        <v>647</v>
+        <v>587</v>
       </c>
       <c r="B71" s="9">
         <v>1</v>
@@ -17972,7 +17090,7 @@
         <v>1</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>648</v>
+        <v>588</v>
       </c>
       <c r="H71" s="9"/>
       <c r="I71" s="9"/>
@@ -17998,13 +17116,13 @@
       <c r="Q71" s="9"/>
       <c r="R71" s="9"/>
       <c r="S71" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T71" s="9" t="s">
-        <v>649</v>
+        <v>589</v>
       </c>
       <c r="U71" s="9" t="s">
-        <v>650</v>
+        <v>590</v>
       </c>
       <c r="V71" s="9">
         <v>0</v>
@@ -18012,7 +17130,7 @@
     </row>
     <row r="72" s="7" customFormat="1" spans="1:22">
       <c r="A72" s="9" t="s">
-        <v>651</v>
+        <v>591</v>
       </c>
       <c r="B72" s="9">
         <v>1</v>
@@ -18028,7 +17146,7 @@
         <v>2</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>648</v>
+        <v>588</v>
       </c>
       <c r="H72" s="9"/>
       <c r="I72" s="9"/>
@@ -18054,13 +17172,13 @@
       <c r="Q72" s="9"/>
       <c r="R72" s="9"/>
       <c r="S72" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T72" s="9" t="s">
-        <v>649</v>
+        <v>589</v>
       </c>
       <c r="U72" s="9" t="s">
-        <v>650</v>
+        <v>590</v>
       </c>
       <c r="V72" s="9">
         <v>0</v>
@@ -18068,7 +17186,7 @@
     </row>
     <row r="73" s="7" customFormat="1" spans="1:22">
       <c r="A73" s="9" t="s">
-        <v>652</v>
+        <v>592</v>
       </c>
       <c r="B73" s="9">
         <v>1</v>
@@ -18084,7 +17202,7 @@
         <v>3</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>648</v>
+        <v>588</v>
       </c>
       <c r="H73" s="9"/>
       <c r="I73" s="9"/>
@@ -18110,13 +17228,13 @@
       <c r="Q73" s="9"/>
       <c r="R73" s="9"/>
       <c r="S73" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T73" s="9" t="s">
-        <v>649</v>
+        <v>589</v>
       </c>
       <c r="U73" s="9" t="s">
-        <v>650</v>
+        <v>590</v>
       </c>
       <c r="V73" s="9">
         <v>0</v>
@@ -18124,7 +17242,7 @@
     </row>
     <row r="74" s="7" customFormat="1" spans="1:22">
       <c r="A74" s="9" t="s">
-        <v>653</v>
+        <v>593</v>
       </c>
       <c r="B74" s="9">
         <v>1</v>
@@ -18140,7 +17258,7 @@
         <v>4</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>648</v>
+        <v>588</v>
       </c>
       <c r="H74" s="9"/>
       <c r="I74" s="9"/>
@@ -18166,13 +17284,13 @@
       <c r="Q74" s="9"/>
       <c r="R74" s="9"/>
       <c r="S74" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T74" s="9" t="s">
-        <v>649</v>
+        <v>589</v>
       </c>
       <c r="U74" s="9" t="s">
-        <v>650</v>
+        <v>590</v>
       </c>
       <c r="V74" s="9">
         <v>0</v>
@@ -18180,7 +17298,7 @@
     </row>
     <row r="75" s="7" customFormat="1" spans="1:22">
       <c r="A75" s="9" t="s">
-        <v>654</v>
+        <v>594</v>
       </c>
       <c r="B75" s="9">
         <v>1</v>
@@ -18196,7 +17314,7 @@
         <v>5</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>648</v>
+        <v>588</v>
       </c>
       <c r="H75" s="9"/>
       <c r="I75" s="9"/>
@@ -18222,13 +17340,13 @@
       <c r="Q75" s="9"/>
       <c r="R75" s="9"/>
       <c r="S75" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T75" s="9" t="s">
-        <v>649</v>
+        <v>589</v>
       </c>
       <c r="U75" s="9" t="s">
-        <v>650</v>
+        <v>590</v>
       </c>
       <c r="V75" s="9">
         <v>0</v>
@@ -18236,7 +17354,7 @@
     </row>
     <row r="76" s="7" customFormat="1" spans="1:22">
       <c r="A76" s="9" t="s">
-        <v>655</v>
+        <v>595</v>
       </c>
       <c r="B76" s="9">
         <v>1</v>
@@ -18252,7 +17370,7 @@
         <v>6</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>648</v>
+        <v>588</v>
       </c>
       <c r="H76" s="9"/>
       <c r="I76" s="9"/>
@@ -18278,13 +17396,13 @@
       <c r="Q76" s="9"/>
       <c r="R76" s="9"/>
       <c r="S76" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T76" s="9" t="s">
-        <v>649</v>
+        <v>589</v>
       </c>
       <c r="U76" s="9" t="s">
-        <v>650</v>
+        <v>590</v>
       </c>
       <c r="V76" s="9">
         <v>0</v>
@@ -18292,7 +17410,7 @@
     </row>
     <row r="77" s="7" customFormat="1" spans="1:22">
       <c r="A77" s="9" t="s">
-        <v>656</v>
+        <v>596</v>
       </c>
       <c r="B77" s="9">
         <v>1</v>
@@ -18308,7 +17426,7 @@
         <v>7</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>648</v>
+        <v>588</v>
       </c>
       <c r="H77" s="9"/>
       <c r="I77" s="9"/>
@@ -18334,13 +17452,13 @@
       <c r="Q77" s="9"/>
       <c r="R77" s="9"/>
       <c r="S77" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T77" s="9" t="s">
-        <v>649</v>
+        <v>589</v>
       </c>
       <c r="U77" s="9" t="s">
-        <v>650</v>
+        <v>590</v>
       </c>
       <c r="V77" s="9">
         <v>0</v>
@@ -18348,7 +17466,7 @@
     </row>
     <row r="78" s="7" customFormat="1" spans="1:22">
       <c r="A78" s="9" t="s">
-        <v>657</v>
+        <v>597</v>
       </c>
       <c r="B78" s="9">
         <v>1</v>
@@ -18364,7 +17482,7 @@
         <v>8</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>648</v>
+        <v>588</v>
       </c>
       <c r="H78" s="9"/>
       <c r="I78" s="9"/>
@@ -18390,13 +17508,13 @@
       <c r="Q78" s="9"/>
       <c r="R78" s="9"/>
       <c r="S78" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T78" s="9" t="s">
-        <v>649</v>
+        <v>589</v>
       </c>
       <c r="U78" s="9" t="s">
-        <v>650</v>
+        <v>590</v>
       </c>
       <c r="V78" s="9">
         <v>0</v>
@@ -18404,7 +17522,7 @@
     </row>
     <row r="79" s="7" customFormat="1" spans="1:22">
       <c r="A79" s="9" t="s">
-        <v>658</v>
+        <v>598</v>
       </c>
       <c r="B79" s="9">
         <v>1</v>
@@ -18420,7 +17538,7 @@
         <v>9</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>648</v>
+        <v>588</v>
       </c>
       <c r="H79" s="9"/>
       <c r="I79" s="9"/>
@@ -18446,13 +17564,13 @@
       <c r="Q79" s="9"/>
       <c r="R79" s="9"/>
       <c r="S79" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T79" s="9" t="s">
-        <v>649</v>
+        <v>589</v>
       </c>
       <c r="U79" s="9" t="s">
-        <v>650</v>
+        <v>590</v>
       </c>
       <c r="V79" s="9">
         <v>0</v>
@@ -18460,7 +17578,7 @@
     </row>
     <row r="80" s="7" customFormat="1" spans="1:22">
       <c r="A80" s="9" t="s">
-        <v>659</v>
+        <v>599</v>
       </c>
       <c r="B80" s="9">
         <v>1</v>
@@ -18476,7 +17594,7 @@
         <v>10</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>648</v>
+        <v>588</v>
       </c>
       <c r="H80" s="9"/>
       <c r="I80" s="9"/>
@@ -18502,13 +17620,13 @@
       <c r="Q80" s="9"/>
       <c r="R80" s="9"/>
       <c r="S80" s="11" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="T80" s="9" t="s">
-        <v>649</v>
+        <v>589</v>
       </c>
       <c r="U80" s="9" t="s">
-        <v>650</v>
+        <v>590</v>
       </c>
       <c r="V80" s="9">
         <v>0</v>
@@ -18516,10 +17634,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:V9">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -19246,10 +18364,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:V9">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/_Out/NFDataCfg/Excel/Item.xlsx
+++ b/_Out/NFDataCfg/Excel/Item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="23360"/>
+    <workbookView windowWidth="18405" windowHeight="8115"/>
   </bookViews>
   <sheets>
     <sheet name="Property_scrolls-3-building" sheetId="5" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="592">
   <si>
     <t>Id</t>
   </si>
@@ -206,7 +206,7 @@
     <t>UIResources/BuilderSprite</t>
   </si>
   <si>
-    <t>NameID_Item_Building000</t>
+    <t>NameID_Building000</t>
   </si>
   <si>
     <t>Item_Building001</t>
@@ -218,7 +218,7 @@
     <t>Building001</t>
   </si>
   <si>
-    <t>NameID_Item_Building001</t>
+    <t>NameID_Building001</t>
   </si>
   <si>
     <t>Item_Building002</t>
@@ -230,7 +230,7 @@
     <t>Building002</t>
   </si>
   <si>
-    <t>NameID_Item_Building002</t>
+    <t>NameID_Building002</t>
   </si>
   <si>
     <t>Item_Building010</t>
@@ -242,7 +242,7 @@
     <t>Building010</t>
   </si>
   <si>
-    <t>NameID_Item_Building010</t>
+    <t>NameID_Building010</t>
   </si>
   <si>
     <t>Item_Building011</t>
@@ -254,7 +254,7 @@
     <t>Building011</t>
   </si>
   <si>
-    <t>NameID_Item_Building011</t>
+    <t>NameID_Building011</t>
   </si>
   <si>
     <t>Item_Building012</t>
@@ -266,7 +266,7 @@
     <t>Building012</t>
   </si>
   <si>
-    <t>NameID_Item_Building012</t>
+    <t>NameID_Building012</t>
   </si>
   <si>
     <t>Item_Building020</t>
@@ -278,7 +278,7 @@
     <t>Building020</t>
   </si>
   <si>
-    <t>NameID_Item_Building020</t>
+    <t>NameID_Building020</t>
   </si>
   <si>
     <t>Item_Building021</t>
@@ -290,7 +290,7 @@
     <t>Building021</t>
   </si>
   <si>
-    <t>NameID_Item_Building021</t>
+    <t>NameID_Building021</t>
   </si>
   <si>
     <t>Item_Building022</t>
@@ -302,7 +302,7 @@
     <t>Building022</t>
   </si>
   <si>
-    <t>NameID_Item_Building022</t>
+    <t>NameID_Building022</t>
   </si>
   <si>
     <t>Item_Building030</t>
@@ -314,7 +314,7 @@
     <t>Building030</t>
   </si>
   <si>
-    <t>NameID_Item_Building030</t>
+    <t>NameID_Building030</t>
   </si>
   <si>
     <t>Item_Building031</t>
@@ -326,7 +326,7 @@
     <t>Building031</t>
   </si>
   <si>
-    <t>NameID_Item_Building031</t>
+    <t>NameID_Building031</t>
   </si>
   <si>
     <t>Item_Building032</t>
@@ -338,7 +338,7 @@
     <t>Building032</t>
   </si>
   <si>
-    <t>NameID_Item_Building032</t>
+    <t>NameID_Building032</t>
   </si>
   <si>
     <t>Item_Building040</t>
@@ -350,7 +350,7 @@
     <t>Building040</t>
   </si>
   <si>
-    <t>NameID_Item_Building040</t>
+    <t>NameID_Building040</t>
   </si>
   <si>
     <t>Item_Building041</t>
@@ -362,7 +362,7 @@
     <t>Building041</t>
   </si>
   <si>
-    <t>NameID_Item_Building041</t>
+    <t>NameID_Building041</t>
   </si>
   <si>
     <t>Item_Building042</t>
@@ -374,7 +374,7 @@
     <t>Building042</t>
   </si>
   <si>
-    <t>NameID_Item_Building042</t>
+    <t>NameID_Building042</t>
   </si>
   <si>
     <t>Item_Building050</t>
@@ -386,7 +386,7 @@
     <t>Building050</t>
   </si>
   <si>
-    <t>NameID_Item_Building050</t>
+    <t>NameID_Building050</t>
   </si>
   <si>
     <t>Item_Building051</t>
@@ -398,7 +398,7 @@
     <t>Building051</t>
   </si>
   <si>
-    <t>NameID_Item_Building051</t>
+    <t>NameID_Building051</t>
   </si>
   <si>
     <t>Item_Building052</t>
@@ -410,7 +410,7 @@
     <t>Building052</t>
   </si>
   <si>
-    <t>NameID_Item_Building052</t>
+    <t>NameID_Building052</t>
   </si>
   <si>
     <t>Item_Building060</t>
@@ -422,7 +422,7 @@
     <t>Building060</t>
   </si>
   <si>
-    <t>NameID_Item_Building060</t>
+    <t>NameID_Building060</t>
   </si>
   <si>
     <t>Item_Building061</t>
@@ -434,7 +434,7 @@
     <t>Building061</t>
   </si>
   <si>
-    <t>NameID_Item_Building061</t>
+    <t>NameID_Building061</t>
   </si>
   <si>
     <t>Item_Building062</t>
@@ -446,7 +446,7 @@
     <t>Building062</t>
   </si>
   <si>
-    <t>NameID_Item_Building062</t>
+    <t>NameID_Building062</t>
   </si>
   <si>
     <t>Item_Building070</t>
@@ -458,7 +458,7 @@
     <t>Building070</t>
   </si>
   <si>
-    <t>NameID_Item_Building070</t>
+    <t>NameID_Building070</t>
   </si>
   <si>
     <t>Item_Building071</t>
@@ -470,7 +470,7 @@
     <t>Building071</t>
   </si>
   <si>
-    <t>NameID_Item_Building071</t>
+    <t>NameID_Building071</t>
   </si>
   <si>
     <t>Item_Building072</t>
@@ -482,7 +482,7 @@
     <t>Building072</t>
   </si>
   <si>
-    <t>NameID_Item_Building072</t>
+    <t>NameID_Building072</t>
   </si>
   <si>
     <t>Item_Building080</t>
@@ -494,7 +494,7 @@
     <t>Building080</t>
   </si>
   <si>
-    <t>NameID_Item_Building080</t>
+    <t>NameID_Building080</t>
   </si>
   <si>
     <t>Item_Building081</t>
@@ -506,7 +506,7 @@
     <t>Building081</t>
   </si>
   <si>
-    <t>NameID_Item_Building081</t>
+    <t>NameID_Building081</t>
   </si>
   <si>
     <t>Item_Building082</t>
@@ -518,7 +518,7 @@
     <t>Building082</t>
   </si>
   <si>
-    <t>NameID_Item_Building082</t>
+    <t>NameID_Building082</t>
   </si>
   <si>
     <t>Item_Building090</t>
@@ -530,7 +530,7 @@
     <t>Building090</t>
   </si>
   <si>
-    <t>NameID_Item_Building090</t>
+    <t>NameID_Building090</t>
   </si>
   <si>
     <t>Item_Building091</t>
@@ -542,7 +542,7 @@
     <t>Building091</t>
   </si>
   <si>
-    <t>NameID_Item_Building091</t>
+    <t>NameID_Building091</t>
   </si>
   <si>
     <t>Item_Building092</t>
@@ -554,7 +554,7 @@
     <t>Building092</t>
   </si>
   <si>
-    <t>NameID_Item_Building092</t>
+    <t>NameID_Building092</t>
   </si>
   <si>
     <t>Item_Building100</t>
@@ -566,7 +566,7 @@
     <t>Building100</t>
   </si>
   <si>
-    <t>NameID_Item_Building100</t>
+    <t>NameID_Building100</t>
   </si>
   <si>
     <t>Item_Building101</t>
@@ -578,7 +578,7 @@
     <t>Building101</t>
   </si>
   <si>
-    <t>NameID_Item_Building101</t>
+    <t>NameID_Building101</t>
   </si>
   <si>
     <t>Item_Building102</t>
@@ -590,7 +590,7 @@
     <t>Building102</t>
   </si>
   <si>
-    <t>NameID_Item_Building102</t>
+    <t>NameID_Building102</t>
   </si>
   <si>
     <t>Item_Building110</t>
@@ -605,7 +605,7 @@
     <t>UIResources/BuildingSprite</t>
   </si>
   <si>
-    <t>NameID_Item_Building110</t>
+    <t>NameID_Building110</t>
   </si>
   <si>
     <t>Item_Building111</t>
@@ -617,7 +617,7 @@
     <t>Building111</t>
   </si>
   <si>
-    <t>NameID_Item_Building111</t>
+    <t>NameID_Building111</t>
   </si>
   <si>
     <t>Item_Building112</t>
@@ -629,7 +629,7 @@
     <t>Building112</t>
   </si>
   <si>
-    <t>NameID_Item_Building112</t>
+    <t>NameID_Building112</t>
   </si>
   <si>
     <t>Item_Building120</t>
@@ -641,7 +641,7 @@
     <t>Building120</t>
   </si>
   <si>
-    <t>NameID_Item_Building120</t>
+    <t>NameID_Building120</t>
   </si>
   <si>
     <t>Item_Building121</t>
@@ -653,7 +653,7 @@
     <t>Building121</t>
   </si>
   <si>
-    <t>NameID_Item_Building121</t>
+    <t>NameID_Building121</t>
   </si>
   <si>
     <t>Item_Building122</t>
@@ -665,7 +665,7 @@
     <t>Building122</t>
   </si>
   <si>
-    <t>NameID_Item_Building122</t>
+    <t>NameID_Building122</t>
   </si>
   <si>
     <t>Item_Building130</t>
@@ -677,7 +677,7 @@
     <t>Building130</t>
   </si>
   <si>
-    <t>NameID_Item_Building130</t>
+    <t>NameID_Building130</t>
   </si>
   <si>
     <t>Item_Building131</t>
@@ -689,7 +689,7 @@
     <t>Building131</t>
   </si>
   <si>
-    <t>NameID_Item_Building131</t>
+    <t>NameID_Building131</t>
   </si>
   <si>
     <t>Item_Building132</t>
@@ -701,7 +701,7 @@
     <t>Building132</t>
   </si>
   <si>
-    <t>NameID_Item_Building132</t>
+    <t>NameID_Building132</t>
   </si>
   <si>
     <t>Item_Building140</t>
@@ -713,7 +713,7 @@
     <t>Building140</t>
   </si>
   <si>
-    <t>NameID_Item_Building140</t>
+    <t>NameID_Building140</t>
   </si>
   <si>
     <t>Item_Building141</t>
@@ -725,7 +725,7 @@
     <t>Building141</t>
   </si>
   <si>
-    <t>NameID_Item_Building141</t>
+    <t>NameID_Building141</t>
   </si>
   <si>
     <t>Item_Building142</t>
@@ -737,7 +737,7 @@
     <t>Building142</t>
   </si>
   <si>
-    <t>NameID_Item_Building142</t>
+    <t>NameID_Building142</t>
   </si>
   <si>
     <t>Item_Building150</t>
@@ -749,7 +749,7 @@
     <t>Building150</t>
   </si>
   <si>
-    <t>NameID_Item_Building150</t>
+    <t>NameID_Building150</t>
   </si>
   <si>
     <t>Item_Building151</t>
@@ -761,7 +761,7 @@
     <t>Building151</t>
   </si>
   <si>
-    <t>NameID_Item_Building151</t>
+    <t>NameID_Building151</t>
   </si>
   <si>
     <t>Item_Building152</t>
@@ -773,7 +773,7 @@
     <t>Building152</t>
   </si>
   <si>
-    <t>NameID_Item_Building152</t>
+    <t>NameID_Building152</t>
   </si>
   <si>
     <t>Item_Building160</t>
@@ -785,7 +785,7 @@
     <t>Building160</t>
   </si>
   <si>
-    <t>NameID_Item_Building160</t>
+    <t>NameID_Building160</t>
   </si>
   <si>
     <t>Item_Building161</t>
@@ -797,7 +797,7 @@
     <t>Building161</t>
   </si>
   <si>
-    <t>NameID_Item_Building161</t>
+    <t>NameID_Building161</t>
   </si>
   <si>
     <t>Item_Building162</t>
@@ -809,7 +809,7 @@
     <t>Building162</t>
   </si>
   <si>
-    <t>NameID_Item_Building162</t>
+    <t>NameID_Building162</t>
   </si>
   <si>
     <t>Item_Building170</t>
@@ -821,7 +821,7 @@
     <t>Building170</t>
   </si>
   <si>
-    <t>NameID_Item_Building170</t>
+    <t>NameID_Building170</t>
   </si>
   <si>
     <t>Item_Building171</t>
@@ -833,7 +833,7 @@
     <t>Building171</t>
   </si>
   <si>
-    <t>NameID_Item_Building171</t>
+    <t>NameID_Building171</t>
   </si>
   <si>
     <t>Item_Building172</t>
@@ -845,7 +845,7 @@
     <t>Building172</t>
   </si>
   <si>
-    <t>NameID_Item_Building172</t>
+    <t>NameID_Building172</t>
   </si>
   <si>
     <t>Item_Building180</t>
@@ -857,7 +857,7 @@
     <t>Building180</t>
   </si>
   <si>
-    <t>NameID_Item_Building180</t>
+    <t>NameID_Building180</t>
   </si>
   <si>
     <t>Item_Building181</t>
@@ -869,7 +869,7 @@
     <t>Building181</t>
   </si>
   <si>
-    <t>NameID_Item_Building181</t>
+    <t>NameID_Building181</t>
   </si>
   <si>
     <t>Item_Building182</t>
@@ -881,7 +881,7 @@
     <t>Building182</t>
   </si>
   <si>
-    <t>NameID_Item_Building182</t>
+    <t>NameID_Building182</t>
   </si>
   <si>
     <t>Item_Building190</t>
@@ -893,7 +893,7 @@
     <t>Building190</t>
   </si>
   <si>
-    <t>NameID_Item_Building190</t>
+    <t>NameID_Building190</t>
   </si>
   <si>
     <t>Item_Building191</t>
@@ -905,7 +905,7 @@
     <t>Building191</t>
   </si>
   <si>
-    <t>NameID_Item_Building191</t>
+    <t>NameID_Building191</t>
   </si>
   <si>
     <t>Item_Building192</t>
@@ -917,7 +917,7 @@
     <t>Building192</t>
   </si>
   <si>
-    <t>NameID_Item_Building192</t>
+    <t>NameID_Building192</t>
   </si>
   <si>
     <t>Item_Building200</t>
@@ -929,7 +929,7 @@
     <t>Building200</t>
   </si>
   <si>
-    <t>NameID_Item_Building200</t>
+    <t>NameID_Building200</t>
   </si>
   <si>
     <t>Item_Building201</t>
@@ -941,7 +941,7 @@
     <t>Building201</t>
   </si>
   <si>
-    <t>NameID_Item_Building201</t>
+    <t>NameID_Building201</t>
   </si>
   <si>
     <t>Item_Building202</t>
@@ -953,7 +953,7 @@
     <t>Building202</t>
   </si>
   <si>
-    <t>NameID_Item_Building202</t>
+    <t>NameID_Building202</t>
   </si>
   <si>
     <t>Item_Gold_Item1</t>
@@ -1813,16 +1813,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1830,7 +1830,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1859,10 +1859,84 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1870,46 +1944,45 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1917,88 +1990,15 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -2060,25 +2060,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2090,7 +2102,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2108,7 +2150,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2120,7 +2162,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2132,13 +2186,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2150,37 +2216,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2192,49 +2228,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2399,6 +2399,44 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2414,11 +2452,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2452,197 +2496,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2716,10 +2716,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -2787,55 +2787,55 @@
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -3118,44 +3118,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:V73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="10" topLeftCell="Q11" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G11" sqref="G11:G73"/>
+      <selection pane="bottomRight" activeCell="U11" sqref="U11:U73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" customWidth="1"/>
-    <col min="4" max="4" width="9.3359375" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="26.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="12.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="20.1666666666667" customWidth="1"/>
+    <col min="4" max="4" width="9.33333333333333" customWidth="1"/>
+    <col min="5" max="5" width="12.6666666666667" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" customWidth="1"/>
+    <col min="7" max="7" width="22.6666666666667" customWidth="1"/>
     <col min="8" max="8" width="34" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" customWidth="1"/>
-    <col min="10" max="10" width="58.3359375" customWidth="1"/>
-    <col min="11" max="11" width="31.5078125" customWidth="1"/>
-    <col min="12" max="13" width="14.1640625" customWidth="1"/>
-    <col min="14" max="14" width="17.6640625" customWidth="1"/>
-    <col min="15" max="15" width="16.5078125" customWidth="1"/>
-    <col min="16" max="16" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="18.6666666666667" customWidth="1"/>
+    <col min="10" max="10" width="58.3333333333333" customWidth="1"/>
+    <col min="11" max="11" width="31.5083333333333" customWidth="1"/>
+    <col min="12" max="13" width="14.1666666666667" customWidth="1"/>
+    <col min="14" max="14" width="17.6666666666667" customWidth="1"/>
+    <col min="15" max="15" width="16.5083333333333" customWidth="1"/>
+    <col min="16" max="16" width="12.6666666666667" customWidth="1"/>
     <col min="17" max="17" width="14" customWidth="1"/>
-    <col min="18" max="18" width="27.6640625" customWidth="1"/>
-    <col min="19" max="19" width="33.4296875" customWidth="1"/>
-    <col min="20" max="20" width="23.3359375" customWidth="1"/>
-    <col min="21" max="21" width="21.5078125" customWidth="1"/>
-    <col min="22" max="22" width="8.6640625" customWidth="1"/>
+    <col min="18" max="18" width="27.6666666666667" customWidth="1"/>
+    <col min="19" max="19" width="33.4333333333333" customWidth="1"/>
+    <col min="20" max="20" width="23.3333333333333" customWidth="1"/>
+    <col min="21" max="21" width="29.25" customWidth="1"/>
+    <col min="22" max="22" width="8.66666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:22">
+    <row r="1" s="1" customFormat="1" ht="27" spans="1:22">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" ht="17" spans="1:22">
+    <row r="7" s="3" customFormat="1" spans="1:22">
       <c r="A7" s="6" t="s">
         <v>30</v>
       </c>
@@ -3631,7 +3631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" ht="17" spans="1:22">
+    <row r="8" s="3" customFormat="1" spans="1:22">
       <c r="A8" s="6" t="s">
         <v>31</v>
       </c>
@@ -3699,7 +3699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" ht="17" spans="1:22">
+    <row r="9" s="3" customFormat="1" spans="1:22">
       <c r="A9" s="6" t="s">
         <v>32</v>
       </c>
@@ -3835,7 +3835,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" s="40" customFormat="1" ht="17" spans="1:22">
+    <row r="11" s="40" customFormat="1" spans="1:22">
       <c r="A11" s="41" t="s">
         <v>54</v>
       </c>
@@ -3893,7 +3893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" s="40" customFormat="1" ht="17" spans="1:22">
+    <row r="12" s="40" customFormat="1" spans="1:22">
       <c r="A12" s="41" t="s">
         <v>59</v>
       </c>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" s="40" customFormat="1" ht="17" spans="1:22">
+    <row r="13" s="40" customFormat="1" spans="1:22">
       <c r="A13" s="41" t="s">
         <v>63</v>
       </c>
@@ -4009,7 +4009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" s="40" customFormat="1" ht="17" spans="1:22">
+    <row r="14" s="40" customFormat="1" spans="1:22">
       <c r="A14" s="42" t="s">
         <v>67</v>
       </c>
@@ -4067,7 +4067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" s="40" customFormat="1" ht="17" spans="1:22">
+    <row r="15" s="40" customFormat="1" spans="1:22">
       <c r="A15" s="42" t="s">
         <v>71</v>
       </c>
@@ -4125,7 +4125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" s="40" customFormat="1" ht="17" spans="1:22">
+    <row r="16" s="40" customFormat="1" spans="1:22">
       <c r="A16" s="42" t="s">
         <v>75</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" s="40" customFormat="1" ht="17" spans="1:22">
+    <row r="17" s="40" customFormat="1" spans="1:22">
       <c r="A17" s="42" t="s">
         <v>79</v>
       </c>
@@ -4241,7 +4241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" s="40" customFormat="1" ht="17" spans="1:22">
+    <row r="18" s="40" customFormat="1" spans="1:22">
       <c r="A18" s="42" t="s">
         <v>83</v>
       </c>
@@ -4299,7 +4299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" s="40" customFormat="1" ht="17" spans="1:22">
+    <row r="19" s="40" customFormat="1" spans="1:22">
       <c r="A19" s="42" t="s">
         <v>87</v>
       </c>
@@ -4357,7 +4357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" s="40" customFormat="1" ht="17" spans="1:22">
+    <row r="20" s="40" customFormat="1" spans="1:22">
       <c r="A20" s="42" t="s">
         <v>91</v>
       </c>
@@ -4415,7 +4415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" s="40" customFormat="1" ht="17" spans="1:22">
+    <row r="21" s="40" customFormat="1" spans="1:22">
       <c r="A21" s="42" t="s">
         <v>95</v>
       </c>
@@ -4473,7 +4473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" s="40" customFormat="1" ht="17" spans="1:22">
+    <row r="22" s="40" customFormat="1" spans="1:22">
       <c r="A22" s="42" t="s">
         <v>99</v>
       </c>
@@ -4531,7 +4531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" s="40" customFormat="1" ht="17" spans="1:22">
+    <row r="23" s="40" customFormat="1" spans="1:22">
       <c r="A23" s="42" t="s">
         <v>103</v>
       </c>
@@ -4589,7 +4589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" s="40" customFormat="1" ht="17" spans="1:22">
+    <row r="24" s="40" customFormat="1" spans="1:22">
       <c r="A24" s="42" t="s">
         <v>107</v>
       </c>
@@ -4647,7 +4647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" s="40" customFormat="1" ht="17" spans="1:22">
+    <row r="25" s="40" customFormat="1" spans="1:22">
       <c r="A25" s="42" t="s">
         <v>111</v>
       </c>
@@ -4705,7 +4705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" s="40" customFormat="1" ht="17" spans="1:22">
+    <row r="26" s="40" customFormat="1" spans="1:22">
       <c r="A26" s="42" t="s">
         <v>115</v>
       </c>
@@ -4763,7 +4763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" s="40" customFormat="1" ht="17" spans="1:22">
+    <row r="27" s="40" customFormat="1" spans="1:22">
       <c r="A27" s="42" t="s">
         <v>119</v>
       </c>
@@ -4821,7 +4821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" s="40" customFormat="1" ht="17" spans="1:22">
+    <row r="28" s="40" customFormat="1" spans="1:22">
       <c r="A28" s="42" t="s">
         <v>123</v>
       </c>
@@ -4879,7 +4879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" s="40" customFormat="1" ht="17" spans="1:22">
+    <row r="29" s="40" customFormat="1" spans="1:22">
       <c r="A29" s="42" t="s">
         <v>127</v>
       </c>
@@ -4937,7 +4937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" s="40" customFormat="1" ht="17" spans="1:22">
+    <row r="30" s="40" customFormat="1" spans="1:22">
       <c r="A30" s="42" t="s">
         <v>131</v>
       </c>
@@ -4995,7 +4995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" s="40" customFormat="1" ht="17" spans="1:22">
+    <row r="31" s="40" customFormat="1" spans="1:22">
       <c r="A31" s="42" t="s">
         <v>135</v>
       </c>
@@ -5053,7 +5053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" s="31" customFormat="1" ht="17" spans="1:22">
+    <row r="32" s="31" customFormat="1" spans="1:22">
       <c r="A32" s="42" t="s">
         <v>139</v>
       </c>
@@ -5111,7 +5111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" s="31" customFormat="1" ht="17" spans="1:22">
+    <row r="33" s="31" customFormat="1" spans="1:22">
       <c r="A33" s="42" t="s">
         <v>143</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" s="31" customFormat="1" ht="17" spans="1:22">
+    <row r="34" s="31" customFormat="1" spans="1:22">
       <c r="A34" s="42" t="s">
         <v>147</v>
       </c>
@@ -5227,7 +5227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" s="31" customFormat="1" ht="17" spans="1:22">
+    <row r="35" s="31" customFormat="1" spans="1:22">
       <c r="A35" s="42" t="s">
         <v>151</v>
       </c>
@@ -5285,7 +5285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" s="31" customFormat="1" ht="17" spans="1:22">
+    <row r="36" s="31" customFormat="1" spans="1:22">
       <c r="A36" s="42" t="s">
         <v>155</v>
       </c>
@@ -5343,7 +5343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" s="31" customFormat="1" ht="17" spans="1:22">
+    <row r="37" s="31" customFormat="1" spans="1:22">
       <c r="A37" s="42" t="s">
         <v>159</v>
       </c>
@@ -5401,7 +5401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" s="31" customFormat="1" ht="17" spans="1:22">
+    <row r="38" s="31" customFormat="1" spans="1:22">
       <c r="A38" s="42" t="s">
         <v>163</v>
       </c>
@@ -5459,7 +5459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" s="31" customFormat="1" ht="17" spans="1:22">
+    <row r="39" s="31" customFormat="1" spans="1:22">
       <c r="A39" s="42" t="s">
         <v>167</v>
       </c>
@@ -5517,7 +5517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" s="31" customFormat="1" ht="17" spans="1:22">
+    <row r="40" s="31" customFormat="1" spans="1:22">
       <c r="A40" s="42" t="s">
         <v>171</v>
       </c>
@@ -5575,7 +5575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" s="31" customFormat="1" ht="17" spans="1:22">
+    <row r="41" s="31" customFormat="1" spans="1:22">
       <c r="A41" s="42" t="s">
         <v>175</v>
       </c>
@@ -5633,7 +5633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" s="31" customFormat="1" ht="17" spans="1:22">
+    <row r="42" s="31" customFormat="1" spans="1:22">
       <c r="A42" s="42" t="s">
         <v>179</v>
       </c>
@@ -5691,7 +5691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" s="31" customFormat="1" ht="17" spans="1:22">
+    <row r="43" s="31" customFormat="1" spans="1:22">
       <c r="A43" s="42" t="s">
         <v>183</v>
       </c>
@@ -5749,7 +5749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" s="31" customFormat="1" ht="17" spans="1:22">
+    <row r="44" s="31" customFormat="1" spans="1:22">
       <c r="A44" s="42" t="s">
         <v>187</v>
       </c>
@@ -5807,7 +5807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" s="31" customFormat="1" ht="17" spans="1:22">
+    <row r="45" s="31" customFormat="1" spans="1:22">
       <c r="A45" s="42" t="s">
         <v>192</v>
       </c>
@@ -5865,7 +5865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" s="31" customFormat="1" ht="17" spans="1:22">
+    <row r="46" s="31" customFormat="1" spans="1:22">
       <c r="A46" s="42" t="s">
         <v>196</v>
       </c>
@@ -5923,7 +5923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" s="31" customFormat="1" ht="17" spans="1:22">
+    <row r="47" s="31" customFormat="1" spans="1:22">
       <c r="A47" s="42" t="s">
         <v>200</v>
       </c>
@@ -5981,7 +5981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" s="31" customFormat="1" ht="17" spans="1:22">
+    <row r="48" s="31" customFormat="1" spans="1:22">
       <c r="A48" s="42" t="s">
         <v>204</v>
       </c>
@@ -6039,7 +6039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" s="31" customFormat="1" ht="17" spans="1:22">
+    <row r="49" s="31" customFormat="1" spans="1:22">
       <c r="A49" s="42" t="s">
         <v>208</v>
       </c>
@@ -6097,7 +6097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" s="31" customFormat="1" ht="17" spans="1:22">
+    <row r="50" s="31" customFormat="1" spans="1:22">
       <c r="A50" s="42" t="s">
         <v>212</v>
       </c>
@@ -6155,7 +6155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" s="31" customFormat="1" ht="17" spans="1:22">
+    <row r="51" s="31" customFormat="1" spans="1:22">
       <c r="A51" s="42" t="s">
         <v>216</v>
       </c>
@@ -6213,7 +6213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" s="31" customFormat="1" ht="17" spans="1:22">
+    <row r="52" s="31" customFormat="1" spans="1:22">
       <c r="A52" s="42" t="s">
         <v>220</v>
       </c>
@@ -6271,7 +6271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" s="31" customFormat="1" ht="17" spans="1:22">
+    <row r="53" s="31" customFormat="1" spans="1:22">
       <c r="A53" s="42" t="s">
         <v>224</v>
       </c>
@@ -6329,7 +6329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" s="31" customFormat="1" ht="17" spans="1:22">
+    <row r="54" s="31" customFormat="1" spans="1:22">
       <c r="A54" s="42" t="s">
         <v>228</v>
       </c>
@@ -6387,7 +6387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" s="31" customFormat="1" ht="17" spans="1:22">
+    <row r="55" s="31" customFormat="1" spans="1:22">
       <c r="A55" s="42" t="s">
         <v>232</v>
       </c>
@@ -6445,7 +6445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" s="31" customFormat="1" ht="17" spans="1:22">
+    <row r="56" s="31" customFormat="1" spans="1:22">
       <c r="A56" s="42" t="s">
         <v>236</v>
       </c>
@@ -6503,7 +6503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" s="31" customFormat="1" ht="17" spans="1:22">
+    <row r="57" s="31" customFormat="1" spans="1:22">
       <c r="A57" s="42" t="s">
         <v>240</v>
       </c>
@@ -6561,7 +6561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" s="31" customFormat="1" ht="17" spans="1:22">
+    <row r="58" s="31" customFormat="1" spans="1:22">
       <c r="A58" s="42" t="s">
         <v>244</v>
       </c>
@@ -6619,7 +6619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" s="31" customFormat="1" ht="17" spans="1:22">
+    <row r="59" s="31" customFormat="1" spans="1:22">
       <c r="A59" s="42" t="s">
         <v>248</v>
       </c>
@@ -6677,7 +6677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" s="31" customFormat="1" ht="17" spans="1:22">
+    <row r="60" s="31" customFormat="1" spans="1:22">
       <c r="A60" s="42" t="s">
         <v>252</v>
       </c>
@@ -6735,7 +6735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" s="31" customFormat="1" ht="17" spans="1:22">
+    <row r="61" s="31" customFormat="1" spans="1:22">
       <c r="A61" s="42" t="s">
         <v>256</v>
       </c>
@@ -6793,7 +6793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" s="31" customFormat="1" ht="17" spans="1:22">
+    <row r="62" s="31" customFormat="1" spans="1:22">
       <c r="A62" s="42" t="s">
         <v>260</v>
       </c>
@@ -6851,7 +6851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" s="31" customFormat="1" ht="17" spans="1:22">
+    <row r="63" s="31" customFormat="1" spans="1:22">
       <c r="A63" s="42" t="s">
         <v>264</v>
       </c>
@@ -6909,7 +6909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" s="31" customFormat="1" customHeight="1" spans="1:22">
+    <row r="64" s="31" customFormat="1" ht="14" customHeight="1" spans="1:22">
       <c r="A64" s="42" t="s">
         <v>268</v>
       </c>
@@ -6967,7 +6967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" s="31" customFormat="1" ht="17" spans="1:22">
+    <row r="65" s="31" customFormat="1" spans="1:22">
       <c r="A65" s="42" t="s">
         <v>272</v>
       </c>
@@ -7025,7 +7025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" s="31" customFormat="1" ht="17" spans="1:22">
+    <row r="66" s="31" customFormat="1" spans="1:22">
       <c r="A66" s="42" t="s">
         <v>276</v>
       </c>
@@ -7083,7 +7083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" s="31" customFormat="1" customHeight="1" spans="1:22">
+    <row r="67" s="31" customFormat="1" ht="14" customHeight="1" spans="1:22">
       <c r="A67" s="42" t="s">
         <v>280</v>
       </c>
@@ -7141,7 +7141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" s="31" customFormat="1" ht="17" spans="1:22">
+    <row r="68" s="31" customFormat="1" spans="1:22">
       <c r="A68" s="42" t="s">
         <v>284</v>
       </c>
@@ -7199,7 +7199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" s="31" customFormat="1" ht="17" spans="1:22">
+    <row r="69" s="31" customFormat="1" spans="1:22">
       <c r="A69" s="42" t="s">
         <v>288</v>
       </c>
@@ -7257,7 +7257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" s="31" customFormat="1" customHeight="1" spans="1:22">
+    <row r="70" s="31" customFormat="1" ht="14" customHeight="1" spans="1:22">
       <c r="A70" s="42" t="s">
         <v>292</v>
       </c>
@@ -7315,7 +7315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" s="31" customFormat="1" ht="17" spans="1:22">
+    <row r="71" s="31" customFormat="1" spans="1:22">
       <c r="A71" s="42" t="s">
         <v>296</v>
       </c>
@@ -7373,7 +7373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" s="31" customFormat="1" ht="17" spans="1:22">
+    <row r="72" s="31" customFormat="1" spans="1:22">
       <c r="A72" s="42" t="s">
         <v>300</v>
       </c>
@@ -7503,7 +7503,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:V49"/>
   <sheetViews>
@@ -7515,31 +7515,31 @@
       <selection pane="bottomRight" activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="30.2890625" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" customWidth="1"/>
-    <col min="4" max="4" width="9.3359375" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="30.2916666666667" customWidth="1"/>
+    <col min="2" max="2" width="12.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="20.1666666666667" customWidth="1"/>
+    <col min="4" max="4" width="9.33333333333333" customWidth="1"/>
+    <col min="5" max="5" width="12.6666666666667" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" customWidth="1"/>
+    <col min="7" max="7" width="22.6666666666667" customWidth="1"/>
     <col min="8" max="8" width="34" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" customWidth="1"/>
-    <col min="10" max="10" width="58.3359375" customWidth="1"/>
-    <col min="11" max="11" width="31.5078125" customWidth="1"/>
-    <col min="12" max="13" width="14.1640625" customWidth="1"/>
-    <col min="14" max="14" width="17.6640625" customWidth="1"/>
-    <col min="15" max="15" width="16.5078125" customWidth="1"/>
-    <col min="16" max="16" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="18.6666666666667" customWidth="1"/>
+    <col min="10" max="10" width="58.3333333333333" customWidth="1"/>
+    <col min="11" max="11" width="31.5083333333333" customWidth="1"/>
+    <col min="12" max="13" width="14.1666666666667" customWidth="1"/>
+    <col min="14" max="14" width="17.6666666666667" customWidth="1"/>
+    <col min="15" max="15" width="16.5083333333333" customWidth="1"/>
+    <col min="16" max="16" width="12.6666666666667" customWidth="1"/>
     <col min="17" max="17" width="14" customWidth="1"/>
-    <col min="18" max="18" width="27.6640625" customWidth="1"/>
-    <col min="19" max="20" width="23.3359375" customWidth="1"/>
-    <col min="21" max="21" width="21.5078125" customWidth="1"/>
-    <col min="22" max="22" width="8.6640625" customWidth="1"/>
+    <col min="18" max="18" width="27.6666666666667" customWidth="1"/>
+    <col min="19" max="20" width="23.3333333333333" customWidth="1"/>
+    <col min="21" max="21" width="21.5083333333333" customWidth="1"/>
+    <col min="22" max="22" width="8.66666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:22">
+    <row r="1" s="1" customFormat="1" ht="27" spans="1:22">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -7947,7 +7947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" ht="17" spans="1:22">
+    <row r="7" s="3" customFormat="1" spans="1:22">
       <c r="A7" s="6" t="s">
         <v>30</v>
       </c>
@@ -8015,7 +8015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" ht="17" spans="1:22">
+    <row r="8" s="3" customFormat="1" spans="1:22">
       <c r="A8" s="6" t="s">
         <v>31</v>
       </c>
@@ -8083,7 +8083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" ht="17" spans="1:22">
+    <row r="9" s="3" customFormat="1" spans="1:22">
       <c r="A9" s="6" t="s">
         <v>32</v>
       </c>
@@ -10429,7 +10429,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:V29"/>
   <sheetViews>
@@ -10441,28 +10441,28 @@
       <selection pane="bottomRight" activeCell="U11" sqref="U11:U29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" customWidth="1"/>
-    <col min="4" max="4" width="9.3359375" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="26.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="12.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="20.1666666666667" customWidth="1"/>
+    <col min="4" max="4" width="9.33333333333333" customWidth="1"/>
+    <col min="5" max="5" width="12.6666666666667" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" customWidth="1"/>
+    <col min="7" max="7" width="22.6666666666667" customWidth="1"/>
     <col min="8" max="8" width="34" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" customWidth="1"/>
-    <col min="10" max="10" width="58.3359375" customWidth="1"/>
-    <col min="11" max="11" width="31.5078125" customWidth="1"/>
-    <col min="12" max="13" width="14.1640625" customWidth="1"/>
-    <col min="14" max="14" width="17.6640625" customWidth="1"/>
-    <col min="15" max="15" width="16.5078125" customWidth="1"/>
-    <col min="16" max="16" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="18.6666666666667" customWidth="1"/>
+    <col min="10" max="10" width="58.3333333333333" customWidth="1"/>
+    <col min="11" max="11" width="31.5083333333333" customWidth="1"/>
+    <col min="12" max="13" width="14.1666666666667" customWidth="1"/>
+    <col min="14" max="14" width="17.6666666666667" customWidth="1"/>
+    <col min="15" max="15" width="16.5083333333333" customWidth="1"/>
+    <col min="16" max="16" width="12.6666666666667" customWidth="1"/>
     <col min="17" max="17" width="14" customWidth="1"/>
-    <col min="18" max="18" width="27.6640625" customWidth="1"/>
-    <col min="19" max="20" width="23.3359375" customWidth="1"/>
-    <col min="21" max="21" width="21.5078125" customWidth="1"/>
-    <col min="22" max="22" width="10.5703125" customWidth="1"/>
+    <col min="18" max="18" width="27.6666666666667" customWidth="1"/>
+    <col min="19" max="20" width="23.3333333333333" customWidth="1"/>
+    <col min="21" max="21" width="21.5083333333333" customWidth="1"/>
+    <col min="22" max="22" width="10.5666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:22">
@@ -10873,7 +10873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" ht="17" spans="1:22">
+    <row r="7" s="3" customFormat="1" spans="1:22">
       <c r="A7" s="6" t="s">
         <v>30</v>
       </c>
@@ -10941,7 +10941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" ht="17" spans="1:22">
+    <row r="8" s="3" customFormat="1" spans="1:22">
       <c r="A8" s="6" t="s">
         <v>31</v>
       </c>
@@ -11009,7 +11009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" ht="17" spans="1:22">
+    <row r="9" s="3" customFormat="1" spans="1:22">
       <c r="A9" s="6" t="s">
         <v>32</v>
       </c>
@@ -11145,7 +11145,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" s="20" customFormat="1" ht="17.55" spans="1:22">
+    <row r="11" s="20" customFormat="1" ht="14.25" spans="1:22">
       <c r="A11" s="21" t="s">
         <v>402</v>
       </c>
@@ -11162,7 +11162,7 @@
       <c r="F11" s="22">
         <v>0</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="23" t="s">
         <v>403</v>
       </c>
       <c r="H11" s="22"/>
@@ -11203,48 +11203,48 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" s="20" customFormat="1" ht="17.55" spans="1:22">
+    <row r="12" s="20" customFormat="1" ht="14.25" spans="1:22">
       <c r="A12" s="21" t="s">
         <v>407</v>
       </c>
-      <c r="B12" s="23">
+      <c r="B12" s="24">
         <v>3</v>
       </c>
-      <c r="C12" s="23">
-        <v>0</v>
-      </c>
-      <c r="D12" s="23">
-        <v>0</v>
-      </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23">
-        <v>0</v>
-      </c>
-      <c r="G12" s="24" t="s">
+      <c r="C12" s="24">
+        <v>0</v>
+      </c>
+      <c r="D12" s="24">
+        <v>0</v>
+      </c>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24">
+        <v>0</v>
+      </c>
+      <c r="G12" s="23" t="s">
         <v>408</v>
       </c>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
       <c r="J12" s="26"/>
-      <c r="K12" s="23">
-        <v>0</v>
-      </c>
-      <c r="L12" s="23">
-        <v>0</v>
-      </c>
-      <c r="M12" s="23">
-        <v>1</v>
-      </c>
-      <c r="N12" s="23">
+      <c r="K12" s="24">
+        <v>0</v>
+      </c>
+      <c r="L12" s="24">
+        <v>0</v>
+      </c>
+      <c r="M12" s="24">
+        <v>1</v>
+      </c>
+      <c r="N12" s="24">
         <v>0</v>
       </c>
       <c r="O12" s="22">
         <v>1000</v>
       </c>
-      <c r="P12" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="23"/>
+      <c r="P12" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="24"/>
       <c r="R12" s="27" t="s">
         <v>409</v>
       </c>
@@ -11257,11 +11257,11 @@
       <c r="U12" s="30" t="s">
         <v>410</v>
       </c>
-      <c r="V12" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" s="20" customFormat="1" ht="17.55" spans="1:22">
+      <c r="V12" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" s="20" customFormat="1" ht="14.25" spans="1:22">
       <c r="A13" s="21" t="s">
         <v>411</v>
       </c>
@@ -11271,38 +11271,38 @@
       <c r="C13" s="22">
         <v>0</v>
       </c>
-      <c r="D13" s="23">
-        <v>0</v>
-      </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23">
-        <v>0</v>
-      </c>
-      <c r="G13" s="24" t="s">
+      <c r="D13" s="24">
+        <v>0</v>
+      </c>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24">
+        <v>0</v>
+      </c>
+      <c r="G13" s="23" t="s">
         <v>412</v>
       </c>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
       <c r="J13" s="26"/>
-      <c r="K13" s="23">
-        <v>0</v>
-      </c>
-      <c r="L13" s="23">
-        <v>0</v>
-      </c>
-      <c r="M13" s="23">
-        <v>1</v>
-      </c>
-      <c r="N13" s="23">
+      <c r="K13" s="24">
+        <v>0</v>
+      </c>
+      <c r="L13" s="24">
+        <v>0</v>
+      </c>
+      <c r="M13" s="24">
+        <v>1</v>
+      </c>
+      <c r="N13" s="24">
         <v>0</v>
       </c>
       <c r="O13" s="22">
         <v>1000</v>
       </c>
-      <c r="P13" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="23"/>
+      <c r="P13" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="24"/>
       <c r="R13" s="27" t="s">
         <v>413</v>
       </c>
@@ -11315,52 +11315,52 @@
       <c r="U13" s="30" t="s">
         <v>414</v>
       </c>
-      <c r="V13" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" s="20" customFormat="1" ht="17.55" spans="1:22">
+      <c r="V13" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" s="20" customFormat="1" ht="14.25" spans="1:22">
       <c r="A14" s="21" t="s">
         <v>415</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B14" s="24">
         <v>3</v>
       </c>
-      <c r="C14" s="23">
-        <v>0</v>
-      </c>
-      <c r="D14" s="23">
-        <v>0</v>
-      </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23">
-        <v>0</v>
-      </c>
-      <c r="G14" s="24" t="s">
+      <c r="C14" s="24">
+        <v>0</v>
+      </c>
+      <c r="D14" s="24">
+        <v>0</v>
+      </c>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24">
+        <v>0</v>
+      </c>
+      <c r="G14" s="23" t="s">
         <v>416</v>
       </c>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
       <c r="J14" s="26"/>
-      <c r="K14" s="23">
-        <v>0</v>
-      </c>
-      <c r="L14" s="23">
-        <v>0</v>
-      </c>
-      <c r="M14" s="23">
-        <v>1</v>
-      </c>
-      <c r="N14" s="23">
+      <c r="K14" s="24">
+        <v>0</v>
+      </c>
+      <c r="L14" s="24">
+        <v>0</v>
+      </c>
+      <c r="M14" s="24">
+        <v>1</v>
+      </c>
+      <c r="N14" s="24">
         <v>0</v>
       </c>
       <c r="O14" s="22">
         <v>1000</v>
       </c>
-      <c r="P14" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="23"/>
+      <c r="P14" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="24"/>
       <c r="R14" s="27" t="s">
         <v>417</v>
       </c>
@@ -11373,11 +11373,11 @@
       <c r="U14" s="30" t="s">
         <v>418</v>
       </c>
-      <c r="V14" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" ht="17.55" spans="1:22">
+      <c r="V14" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" spans="1:22">
       <c r="A15" s="21" t="s">
         <v>419</v>
       </c>
@@ -11394,7 +11394,7 @@
       <c r="F15" s="22">
         <v>0</v>
       </c>
-      <c r="G15" s="24" t="s">
+      <c r="G15" s="23" t="s">
         <v>420</v>
       </c>
       <c r="H15" s="22"/>
@@ -11435,48 +11435,48 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" ht="17.55" spans="1:22">
+    <row r="16" ht="14.25" spans="1:22">
       <c r="A16" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="B16" s="23">
+      <c r="B16" s="24">
         <v>3</v>
       </c>
-      <c r="C16" s="23">
-        <v>0</v>
-      </c>
-      <c r="D16" s="23">
-        <v>0</v>
-      </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23">
-        <v>0</v>
-      </c>
-      <c r="G16" s="24" t="s">
+      <c r="C16" s="24">
+        <v>0</v>
+      </c>
+      <c r="D16" s="24">
+        <v>0</v>
+      </c>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24">
+        <v>0</v>
+      </c>
+      <c r="G16" s="23" t="s">
         <v>424</v>
       </c>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
       <c r="J16" s="26"/>
-      <c r="K16" s="23">
-        <v>0</v>
-      </c>
-      <c r="L16" s="23">
-        <v>0</v>
-      </c>
-      <c r="M16" s="23">
-        <v>1</v>
-      </c>
-      <c r="N16" s="23">
+      <c r="K16" s="24">
+        <v>0</v>
+      </c>
+      <c r="L16" s="24">
+        <v>0</v>
+      </c>
+      <c r="M16" s="24">
+        <v>1</v>
+      </c>
+      <c r="N16" s="24">
         <v>0</v>
       </c>
       <c r="O16" s="22">
         <v>1000</v>
       </c>
-      <c r="P16" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="23"/>
+      <c r="P16" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="24"/>
       <c r="R16" s="27" t="s">
         <v>425</v>
       </c>
@@ -11489,11 +11489,11 @@
       <c r="U16" s="30" t="s">
         <v>426</v>
       </c>
-      <c r="V16" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" ht="17.55" spans="1:22">
+      <c r="V16" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" spans="1:22">
       <c r="A17" s="21" t="s">
         <v>427</v>
       </c>
@@ -11503,38 +11503,38 @@
       <c r="C17" s="22">
         <v>0</v>
       </c>
-      <c r="D17" s="23">
-        <v>0</v>
-      </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23">
-        <v>0</v>
-      </c>
-      <c r="G17" s="24" t="s">
+      <c r="D17" s="24">
+        <v>0</v>
+      </c>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24">
+        <v>0</v>
+      </c>
+      <c r="G17" s="23" t="s">
         <v>428</v>
       </c>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
       <c r="J17" s="26"/>
-      <c r="K17" s="23">
-        <v>0</v>
-      </c>
-      <c r="L17" s="23">
-        <v>0</v>
-      </c>
-      <c r="M17" s="23">
-        <v>1</v>
-      </c>
-      <c r="N17" s="23">
+      <c r="K17" s="24">
+        <v>0</v>
+      </c>
+      <c r="L17" s="24">
+        <v>0</v>
+      </c>
+      <c r="M17" s="24">
+        <v>1</v>
+      </c>
+      <c r="N17" s="24">
         <v>0</v>
       </c>
       <c r="O17" s="22">
         <v>1000</v>
       </c>
-      <c r="P17" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="23"/>
+      <c r="P17" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="24"/>
       <c r="R17" s="27" t="s">
         <v>429</v>
       </c>
@@ -11547,52 +11547,52 @@
       <c r="U17" s="30" t="s">
         <v>430</v>
       </c>
-      <c r="V17" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" ht="17.55" spans="1:22">
+      <c r="V17" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" spans="1:22">
       <c r="A18" s="21" t="s">
         <v>431</v>
       </c>
-      <c r="B18" s="23">
+      <c r="B18" s="24">
         <v>3</v>
       </c>
-      <c r="C18" s="23">
-        <v>0</v>
-      </c>
-      <c r="D18" s="23">
-        <v>0</v>
-      </c>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23">
-        <v>0</v>
-      </c>
-      <c r="G18" s="24" t="s">
+      <c r="C18" s="24">
+        <v>0</v>
+      </c>
+      <c r="D18" s="24">
+        <v>0</v>
+      </c>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24">
+        <v>0</v>
+      </c>
+      <c r="G18" s="23" t="s">
         <v>432</v>
       </c>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
       <c r="J18" s="26"/>
-      <c r="K18" s="23">
-        <v>0</v>
-      </c>
-      <c r="L18" s="23">
-        <v>0</v>
-      </c>
-      <c r="M18" s="23">
-        <v>1</v>
-      </c>
-      <c r="N18" s="23">
+      <c r="K18" s="24">
+        <v>0</v>
+      </c>
+      <c r="L18" s="24">
+        <v>0</v>
+      </c>
+      <c r="M18" s="24">
+        <v>1</v>
+      </c>
+      <c r="N18" s="24">
         <v>0</v>
       </c>
       <c r="O18" s="22">
         <v>1000</v>
       </c>
-      <c r="P18" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="23"/>
+      <c r="P18" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="24"/>
       <c r="R18" s="27" t="s">
         <v>433</v>
       </c>
@@ -11605,11 +11605,11 @@
       <c r="U18" s="30" t="s">
         <v>434</v>
       </c>
-      <c r="V18" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" ht="17.55" spans="1:22">
+      <c r="V18" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" spans="1:22">
       <c r="A19" s="21" t="s">
         <v>435</v>
       </c>
@@ -11626,7 +11626,7 @@
       <c r="F19" s="22">
         <v>0</v>
       </c>
-      <c r="G19" s="24" t="s">
+      <c r="G19" s="23" t="s">
         <v>436</v>
       </c>
       <c r="H19" s="22"/>
@@ -11667,48 +11667,48 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" ht="17.55" spans="1:22">
+    <row r="20" ht="14.25" spans="1:22">
       <c r="A20" s="21" t="s">
         <v>439</v>
       </c>
-      <c r="B20" s="23">
+      <c r="B20" s="24">
         <v>3</v>
       </c>
-      <c r="C20" s="23">
-        <v>0</v>
-      </c>
-      <c r="D20" s="23">
-        <v>0</v>
-      </c>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23">
-        <v>0</v>
-      </c>
-      <c r="G20" s="24" t="s">
+      <c r="C20" s="24">
+        <v>0</v>
+      </c>
+      <c r="D20" s="24">
+        <v>0</v>
+      </c>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24">
+        <v>0</v>
+      </c>
+      <c r="G20" s="23" t="s">
         <v>440</v>
       </c>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
       <c r="J20" s="26"/>
-      <c r="K20" s="23">
-        <v>0</v>
-      </c>
-      <c r="L20" s="23">
-        <v>0</v>
-      </c>
-      <c r="M20" s="23">
-        <v>1</v>
-      </c>
-      <c r="N20" s="23">
+      <c r="K20" s="24">
+        <v>0</v>
+      </c>
+      <c r="L20" s="24">
+        <v>0</v>
+      </c>
+      <c r="M20" s="24">
+        <v>1</v>
+      </c>
+      <c r="N20" s="24">
         <v>0</v>
       </c>
       <c r="O20" s="22">
         <v>1000</v>
       </c>
-      <c r="P20" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="23"/>
+      <c r="P20" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="24"/>
       <c r="R20" s="27" t="s">
         <v>441</v>
       </c>
@@ -11721,11 +11721,11 @@
       <c r="U20" s="30" t="s">
         <v>442</v>
       </c>
-      <c r="V20" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" ht="17.55" spans="1:22">
+      <c r="V20" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25" spans="1:22">
       <c r="A21" s="21" t="s">
         <v>443</v>
       </c>
@@ -11735,38 +11735,38 @@
       <c r="C21" s="22">
         <v>0</v>
       </c>
-      <c r="D21" s="23">
-        <v>0</v>
-      </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23">
-        <v>0</v>
-      </c>
-      <c r="G21" s="24" t="s">
+      <c r="D21" s="24">
+        <v>0</v>
+      </c>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24">
+        <v>0</v>
+      </c>
+      <c r="G21" s="23" t="s">
         <v>444</v>
       </c>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
       <c r="J21" s="26"/>
-      <c r="K21" s="23">
-        <v>0</v>
-      </c>
-      <c r="L21" s="23">
-        <v>0</v>
-      </c>
-      <c r="M21" s="23">
-        <v>1</v>
-      </c>
-      <c r="N21" s="23">
+      <c r="K21" s="24">
+        <v>0</v>
+      </c>
+      <c r="L21" s="24">
+        <v>0</v>
+      </c>
+      <c r="M21" s="24">
+        <v>1</v>
+      </c>
+      <c r="N21" s="24">
         <v>0</v>
       </c>
       <c r="O21" s="22">
         <v>1000</v>
       </c>
-      <c r="P21" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="23"/>
+      <c r="P21" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="24"/>
       <c r="R21" s="27" t="s">
         <v>445</v>
       </c>
@@ -11779,52 +11779,52 @@
       <c r="U21" s="30" t="s">
         <v>446</v>
       </c>
-      <c r="V21" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" ht="17.55" spans="1:22">
+      <c r="V21" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" spans="1:22">
       <c r="A22" s="21" t="s">
         <v>447</v>
       </c>
-      <c r="B22" s="23">
+      <c r="B22" s="24">
         <v>3</v>
       </c>
-      <c r="C22" s="23">
-        <v>0</v>
-      </c>
-      <c r="D22" s="23">
-        <v>0</v>
-      </c>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23">
-        <v>0</v>
-      </c>
-      <c r="G22" s="24" t="s">
+      <c r="C22" s="24">
+        <v>0</v>
+      </c>
+      <c r="D22" s="24">
+        <v>0</v>
+      </c>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24">
+        <v>0</v>
+      </c>
+      <c r="G22" s="23" t="s">
         <v>448</v>
       </c>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
       <c r="J22" s="26"/>
-      <c r="K22" s="23">
-        <v>0</v>
-      </c>
-      <c r="L22" s="23">
-        <v>0</v>
-      </c>
-      <c r="M22" s="23">
-        <v>1</v>
-      </c>
-      <c r="N22" s="23">
+      <c r="K22" s="24">
+        <v>0</v>
+      </c>
+      <c r="L22" s="24">
+        <v>0</v>
+      </c>
+      <c r="M22" s="24">
+        <v>1</v>
+      </c>
+      <c r="N22" s="24">
         <v>0</v>
       </c>
       <c r="O22" s="22">
         <v>1000</v>
       </c>
-      <c r="P22" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="23"/>
+      <c r="P22" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="24"/>
       <c r="R22" s="27" t="s">
         <v>449</v>
       </c>
@@ -11837,11 +11837,11 @@
       <c r="U22" s="30" t="s">
         <v>450</v>
       </c>
-      <c r="V22" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" ht="17.55" spans="1:22">
+      <c r="V22" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" spans="1:22">
       <c r="A23" s="21" t="s">
         <v>451</v>
       </c>
@@ -11858,7 +11858,7 @@
       <c r="F23" s="22">
         <v>0</v>
       </c>
-      <c r="G23" s="24" t="s">
+      <c r="G23" s="23" t="s">
         <v>452</v>
       </c>
       <c r="H23" s="22"/>
@@ -11899,48 +11899,48 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" ht="17.55" spans="1:22">
+    <row r="24" ht="14.25" spans="1:22">
       <c r="A24" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="B24" s="23">
+      <c r="B24" s="24">
         <v>3</v>
       </c>
-      <c r="C24" s="23">
-        <v>0</v>
-      </c>
-      <c r="D24" s="23">
-        <v>0</v>
-      </c>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23">
-        <v>0</v>
-      </c>
-      <c r="G24" s="24" t="s">
+      <c r="C24" s="24">
+        <v>0</v>
+      </c>
+      <c r="D24" s="24">
+        <v>0</v>
+      </c>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24">
+        <v>0</v>
+      </c>
+      <c r="G24" s="23" t="s">
         <v>456</v>
       </c>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
       <c r="J24" s="26"/>
-      <c r="K24" s="23">
-        <v>0</v>
-      </c>
-      <c r="L24" s="23">
-        <v>0</v>
-      </c>
-      <c r="M24" s="23">
-        <v>1</v>
-      </c>
-      <c r="N24" s="23">
+      <c r="K24" s="24">
+        <v>0</v>
+      </c>
+      <c r="L24" s="24">
+        <v>0</v>
+      </c>
+      <c r="M24" s="24">
+        <v>1</v>
+      </c>
+      <c r="N24" s="24">
         <v>0</v>
       </c>
       <c r="O24" s="22">
         <v>1000</v>
       </c>
-      <c r="P24" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="23"/>
+      <c r="P24" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="24"/>
       <c r="R24" s="27" t="s">
         <v>457</v>
       </c>
@@ -11953,11 +11953,11 @@
       <c r="U24" s="30" t="s">
         <v>458</v>
       </c>
-      <c r="V24" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" ht="17.55" spans="1:22">
+      <c r="V24" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25" spans="1:22">
       <c r="A25" s="21" t="s">
         <v>459</v>
       </c>
@@ -11967,38 +11967,38 @@
       <c r="C25" s="22">
         <v>0</v>
       </c>
-      <c r="D25" s="23">
-        <v>0</v>
-      </c>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23">
-        <v>0</v>
-      </c>
-      <c r="G25" s="24" t="s">
+      <c r="D25" s="24">
+        <v>0</v>
+      </c>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24">
+        <v>0</v>
+      </c>
+      <c r="G25" s="23" t="s">
         <v>460</v>
       </c>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
       <c r="J25" s="26"/>
-      <c r="K25" s="23">
-        <v>0</v>
-      </c>
-      <c r="L25" s="23">
-        <v>0</v>
-      </c>
-      <c r="M25" s="23">
-        <v>1</v>
-      </c>
-      <c r="N25" s="23">
+      <c r="K25" s="24">
+        <v>0</v>
+      </c>
+      <c r="L25" s="24">
+        <v>0</v>
+      </c>
+      <c r="M25" s="24">
+        <v>1</v>
+      </c>
+      <c r="N25" s="24">
         <v>0</v>
       </c>
       <c r="O25" s="22">
         <v>1000</v>
       </c>
-      <c r="P25" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="23"/>
+      <c r="P25" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="24"/>
       <c r="R25" s="27" t="s">
         <v>461</v>
       </c>
@@ -12011,52 +12011,52 @@
       <c r="U25" s="30" t="s">
         <v>462</v>
       </c>
-      <c r="V25" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" ht="17.55" spans="1:22">
+      <c r="V25" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25" spans="1:22">
       <c r="A26" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="B26" s="23">
+      <c r="B26" s="24">
         <v>3</v>
       </c>
-      <c r="C26" s="23">
-        <v>0</v>
-      </c>
-      <c r="D26" s="23">
-        <v>0</v>
-      </c>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23">
-        <v>0</v>
-      </c>
-      <c r="G26" s="24" t="s">
+      <c r="C26" s="24">
+        <v>0</v>
+      </c>
+      <c r="D26" s="24">
+        <v>0</v>
+      </c>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24">
+        <v>0</v>
+      </c>
+      <c r="G26" s="23" t="s">
         <v>464</v>
       </c>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
       <c r="J26" s="26"/>
-      <c r="K26" s="23">
-        <v>0</v>
-      </c>
-      <c r="L26" s="23">
-        <v>0</v>
-      </c>
-      <c r="M26" s="23">
-        <v>1</v>
-      </c>
-      <c r="N26" s="23">
+      <c r="K26" s="24">
+        <v>0</v>
+      </c>
+      <c r="L26" s="24">
+        <v>0</v>
+      </c>
+      <c r="M26" s="24">
+        <v>1</v>
+      </c>
+      <c r="N26" s="24">
         <v>0</v>
       </c>
       <c r="O26" s="22">
         <v>1000</v>
       </c>
-      <c r="P26" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="23"/>
+      <c r="P26" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="24"/>
       <c r="R26" s="27" t="s">
         <v>465</v>
       </c>
@@ -12069,11 +12069,11 @@
       <c r="U26" s="30" t="s">
         <v>466</v>
       </c>
-      <c r="V26" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" ht="17.55" spans="1:22">
+      <c r="V26" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25" spans="1:22">
       <c r="A27" s="21" t="s">
         <v>467</v>
       </c>
@@ -12090,7 +12090,7 @@
       <c r="F27" s="22">
         <v>0</v>
       </c>
-      <c r="G27" s="24" t="s">
+      <c r="G27" s="23" t="s">
         <v>468</v>
       </c>
       <c r="H27" s="22"/>
@@ -12131,48 +12131,48 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" ht="17.55" spans="1:22">
+    <row r="28" ht="14.25" spans="1:22">
       <c r="A28" s="21" t="s">
         <v>471</v>
       </c>
-      <c r="B28" s="23">
+      <c r="B28" s="24">
         <v>3</v>
       </c>
-      <c r="C28" s="23">
-        <v>0</v>
-      </c>
-      <c r="D28" s="23">
-        <v>0</v>
-      </c>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23">
-        <v>0</v>
-      </c>
-      <c r="G28" s="24" t="s">
+      <c r="C28" s="24">
+        <v>0</v>
+      </c>
+      <c r="D28" s="24">
+        <v>0</v>
+      </c>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24">
+        <v>0</v>
+      </c>
+      <c r="G28" s="23" t="s">
         <v>472</v>
       </c>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
       <c r="J28" s="26"/>
-      <c r="K28" s="23">
-        <v>0</v>
-      </c>
-      <c r="L28" s="23">
-        <v>0</v>
-      </c>
-      <c r="M28" s="23">
-        <v>1</v>
-      </c>
-      <c r="N28" s="23">
+      <c r="K28" s="24">
+        <v>0</v>
+      </c>
+      <c r="L28" s="24">
+        <v>0</v>
+      </c>
+      <c r="M28" s="24">
+        <v>1</v>
+      </c>
+      <c r="N28" s="24">
         <v>0</v>
       </c>
       <c r="O28" s="22">
         <v>1000</v>
       </c>
-      <c r="P28" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="23"/>
+      <c r="P28" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="24"/>
       <c r="R28" s="27" t="s">
         <v>473</v>
       </c>
@@ -12185,11 +12185,11 @@
       <c r="U28" s="30" t="s">
         <v>474</v>
       </c>
-      <c r="V28" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" ht="16.8" spans="1:22">
+      <c r="V28" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
       <c r="A29" s="21" t="s">
         <v>475</v>
       </c>
@@ -12199,38 +12199,38 @@
       <c r="C29" s="22">
         <v>0</v>
       </c>
-      <c r="D29" s="23">
-        <v>0</v>
-      </c>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23">
-        <v>0</v>
-      </c>
-      <c r="G29" s="24" t="s">
+      <c r="D29" s="24">
+        <v>0</v>
+      </c>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24">
+        <v>0</v>
+      </c>
+      <c r="G29" s="23" t="s">
         <v>476</v>
       </c>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
       <c r="J29" s="26"/>
-      <c r="K29" s="23">
-        <v>0</v>
-      </c>
-      <c r="L29" s="23">
-        <v>0</v>
-      </c>
-      <c r="M29" s="23">
-        <v>1</v>
-      </c>
-      <c r="N29" s="23">
+      <c r="K29" s="24">
+        <v>0</v>
+      </c>
+      <c r="L29" s="24">
+        <v>0</v>
+      </c>
+      <c r="M29" s="24">
+        <v>1</v>
+      </c>
+      <c r="N29" s="24">
         <v>0</v>
       </c>
       <c r="O29" s="22">
         <v>1000</v>
       </c>
-      <c r="P29" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="23"/>
+      <c r="P29" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="24"/>
       <c r="R29" s="27" t="s">
         <v>477</v>
       </c>
@@ -12243,7 +12243,7 @@
       <c r="U29" s="30" t="s">
         <v>478</v>
       </c>
-      <c r="V29" s="23">
+      <c r="V29" s="24">
         <v>1</v>
       </c>
     </row>
@@ -12261,7 +12261,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:V26"/>
   <sheetViews>
@@ -12273,31 +12273,31 @@
       <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" customWidth="1"/>
-    <col min="4" max="4" width="9.3359375" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="26.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="12.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="20.1666666666667" customWidth="1"/>
+    <col min="4" max="4" width="9.33333333333333" customWidth="1"/>
+    <col min="5" max="5" width="12.6666666666667" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" customWidth="1"/>
+    <col min="7" max="7" width="22.6666666666667" customWidth="1"/>
     <col min="8" max="8" width="34" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" customWidth="1"/>
-    <col min="10" max="10" width="58.3359375" customWidth="1"/>
-    <col min="11" max="11" width="31.5078125" customWidth="1"/>
-    <col min="12" max="13" width="14.1640625" customWidth="1"/>
-    <col min="14" max="14" width="17.6640625" customWidth="1"/>
-    <col min="15" max="15" width="16.5078125" customWidth="1"/>
-    <col min="16" max="16" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="18.6666666666667" customWidth="1"/>
+    <col min="10" max="10" width="58.3333333333333" customWidth="1"/>
+    <col min="11" max="11" width="31.5083333333333" customWidth="1"/>
+    <col min="12" max="13" width="14.1666666666667" customWidth="1"/>
+    <col min="14" max="14" width="17.6666666666667" customWidth="1"/>
+    <col min="15" max="15" width="16.5083333333333" customWidth="1"/>
+    <col min="16" max="16" width="12.6666666666667" customWidth="1"/>
     <col min="17" max="17" width="14" customWidth="1"/>
-    <col min="18" max="18" width="27.6640625" customWidth="1"/>
-    <col min="19" max="20" width="23.3359375" customWidth="1"/>
-    <col min="21" max="21" width="21.5078125" customWidth="1"/>
-    <col min="22" max="22" width="8.6640625" customWidth="1"/>
+    <col min="18" max="18" width="27.6666666666667" customWidth="1"/>
+    <col min="19" max="20" width="23.3333333333333" customWidth="1"/>
+    <col min="21" max="21" width="21.5083333333333" customWidth="1"/>
+    <col min="22" max="22" width="8.66666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:22">
+    <row r="1" s="1" customFormat="1" ht="27" spans="1:22">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -12705,7 +12705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" ht="17" spans="1:22">
+    <row r="7" s="3" customFormat="1" spans="1:22">
       <c r="A7" s="6" t="s">
         <v>30</v>
       </c>
@@ -12773,7 +12773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" ht="17" spans="1:22">
+    <row r="8" s="3" customFormat="1" spans="1:22">
       <c r="A8" s="6" t="s">
         <v>31</v>
       </c>
@@ -12841,7 +12841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" ht="17" spans="1:22">
+    <row r="9" s="3" customFormat="1" spans="1:22">
       <c r="A9" s="6" t="s">
         <v>32</v>
       </c>
@@ -13887,7 +13887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:V80"/>
   <sheetViews>
@@ -13899,31 +13899,31 @@
       <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" customWidth="1"/>
-    <col min="4" max="4" width="9.3359375" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="26.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="12.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="20.1666666666667" customWidth="1"/>
+    <col min="4" max="4" width="9.33333333333333" customWidth="1"/>
+    <col min="5" max="5" width="12.6666666666667" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" customWidth="1"/>
+    <col min="7" max="7" width="22.6666666666667" customWidth="1"/>
     <col min="8" max="8" width="34" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" customWidth="1"/>
-    <col min="10" max="10" width="58.3359375" customWidth="1"/>
-    <col min="11" max="11" width="31.5078125" customWidth="1"/>
-    <col min="12" max="13" width="14.1640625" customWidth="1"/>
-    <col min="14" max="14" width="17.6640625" customWidth="1"/>
-    <col min="15" max="15" width="16.5078125" customWidth="1"/>
-    <col min="16" max="16" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="18.6666666666667" customWidth="1"/>
+    <col min="10" max="10" width="58.3333333333333" customWidth="1"/>
+    <col min="11" max="11" width="31.5083333333333" customWidth="1"/>
+    <col min="12" max="13" width="14.1666666666667" customWidth="1"/>
+    <col min="14" max="14" width="17.6666666666667" customWidth="1"/>
+    <col min="15" max="15" width="16.5083333333333" customWidth="1"/>
+    <col min="16" max="16" width="12.6666666666667" customWidth="1"/>
     <col min="17" max="17" width="14" customWidth="1"/>
-    <col min="18" max="18" width="27.6640625" customWidth="1"/>
-    <col min="19" max="20" width="23.3359375" customWidth="1"/>
-    <col min="21" max="21" width="21.5078125" customWidth="1"/>
-    <col min="22" max="22" width="8.6640625" customWidth="1"/>
+    <col min="18" max="18" width="27.6666666666667" customWidth="1"/>
+    <col min="19" max="20" width="23.3333333333333" customWidth="1"/>
+    <col min="21" max="21" width="21.5083333333333" customWidth="1"/>
+    <col min="22" max="22" width="8.66666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:22">
+    <row r="1" s="1" customFormat="1" ht="27" spans="1:22">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -14331,7 +14331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" ht="17" spans="1:22">
+    <row r="7" s="3" customFormat="1" spans="1:22">
       <c r="A7" s="6" t="s">
         <v>30</v>
       </c>
@@ -14399,7 +14399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" ht="17" spans="1:22">
+    <row r="8" s="3" customFormat="1" spans="1:22">
       <c r="A8" s="6" t="s">
         <v>31</v>
       </c>
@@ -14467,7 +14467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" ht="17" spans="1:22">
+    <row r="9" s="3" customFormat="1" spans="1:22">
       <c r="A9" s="6" t="s">
         <v>32</v>
       </c>
@@ -18537,7 +18537,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:V10"/>
   <sheetViews>
@@ -18549,31 +18549,31 @@
       <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" customWidth="1"/>
-    <col min="4" max="4" width="9.3359375" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="26.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="12.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="20.1666666666667" customWidth="1"/>
+    <col min="4" max="4" width="9.33333333333333" customWidth="1"/>
+    <col min="5" max="5" width="12.6666666666667" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" customWidth="1"/>
+    <col min="7" max="7" width="22.6666666666667" customWidth="1"/>
     <col min="8" max="8" width="34" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" customWidth="1"/>
-    <col min="10" max="10" width="58.3359375" customWidth="1"/>
-    <col min="11" max="11" width="31.5078125" customWidth="1"/>
-    <col min="12" max="13" width="14.1640625" customWidth="1"/>
-    <col min="14" max="14" width="17.6640625" customWidth="1"/>
-    <col min="15" max="15" width="16.5078125" customWidth="1"/>
-    <col min="16" max="16" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="18.6666666666667" customWidth="1"/>
+    <col min="10" max="10" width="58.3333333333333" customWidth="1"/>
+    <col min="11" max="11" width="31.5083333333333" customWidth="1"/>
+    <col min="12" max="13" width="14.1666666666667" customWidth="1"/>
+    <col min="14" max="14" width="17.6666666666667" customWidth="1"/>
+    <col min="15" max="15" width="16.5083333333333" customWidth="1"/>
+    <col min="16" max="16" width="12.6666666666667" customWidth="1"/>
     <col min="17" max="17" width="14" customWidth="1"/>
-    <col min="18" max="18" width="27.6640625" customWidth="1"/>
-    <col min="19" max="20" width="23.3359375" customWidth="1"/>
-    <col min="21" max="21" width="21.5078125" customWidth="1"/>
-    <col min="22" max="22" width="8.6640625" customWidth="1"/>
+    <col min="18" max="18" width="27.6666666666667" customWidth="1"/>
+    <col min="19" max="20" width="23.3333333333333" customWidth="1"/>
+    <col min="21" max="21" width="21.5083333333333" customWidth="1"/>
+    <col min="22" max="22" width="8.66666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:22">
+    <row r="1" s="1" customFormat="1" ht="27" spans="1:22">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -18981,7 +18981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" ht="17" spans="1:22">
+    <row r="7" s="3" customFormat="1" spans="1:22">
       <c r="A7" s="6" t="s">
         <v>30</v>
       </c>
@@ -19049,7 +19049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" ht="17" spans="1:22">
+    <row r="8" s="3" customFormat="1" spans="1:22">
       <c r="A8" s="6" t="s">
         <v>31</v>
       </c>
@@ -19117,7 +19117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" ht="17" spans="1:22">
+    <row r="9" s="3" customFormat="1" spans="1:22">
       <c r="A9" s="6" t="s">
         <v>32</v>
       </c>

--- a/_Out/NFDataCfg/Excel/Item.xlsx
+++ b/_Out/NFDataCfg/Excel/Item.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="591">
   <si>
     <t>Id</t>
   </si>
@@ -203,7 +203,7 @@
     <t>Building000</t>
   </si>
   <si>
-    <t>UIResources/BuilderSprite</t>
+    <t>UIResources/BuildingSprite</t>
   </si>
   <si>
     <t>NameID_Building000</t>
@@ -600,9 +600,6 @@
   </si>
   <si>
     <t>Building110</t>
-  </si>
-  <si>
-    <t>UIResources/BuildingSprite</t>
   </si>
   <si>
     <t>NameID_Building110</t>
@@ -1860,13 +1857,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1874,7 +1864,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1897,16 +1895,17 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1934,22 +1933,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -1964,9 +1947,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1979,7 +1961,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1998,6 +1979,22 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2060,67 +2057,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2138,13 +2081,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2156,31 +2189,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2192,13 +2213,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2210,31 +2225,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2399,20 +2396,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2421,7 +2415,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2437,17 +2431,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2482,6 +2470,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2504,10 +2501,10 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2516,7 +2513,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2525,7 +2522,7 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2534,16 +2531,16 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2552,97 +2549,97 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3123,11 +3120,11 @@
   <dimension ref="A1:V73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="10" topLeftCell="Q11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="10" topLeftCell="S11" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U11" sqref="U11:U73"/>
+      <selection pane="bottomRight" activeCell="S11" sqref="S11:S73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5795,13 +5792,13 @@
         <v>189</v>
       </c>
       <c r="S44" s="33" t="s">
-        <v>190</v>
+        <v>57</v>
       </c>
       <c r="T44" s="44" t="s">
         <v>189</v>
       </c>
       <c r="U44" s="35" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="V44" s="35">
         <v>0</v>
@@ -5809,7 +5806,7 @@
     </row>
     <row r="45" s="31" customFormat="1" spans="1:22">
       <c r="A45" s="42" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B45" s="35">
         <v>3</v>
@@ -5825,7 +5822,7 @@
         <v>7</v>
       </c>
       <c r="G45" s="35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H45" s="35"/>
       <c r="I45" s="35"/>
@@ -5850,16 +5847,16 @@
       </c>
       <c r="Q45" s="35"/>
       <c r="R45" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="S45" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="T45" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="U45" s="35" t="s">
         <v>194</v>
-      </c>
-      <c r="S45" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="T45" s="44" t="s">
-        <v>194</v>
-      </c>
-      <c r="U45" s="35" t="s">
-        <v>195</v>
       </c>
       <c r="V45" s="35">
         <v>0</v>
@@ -5867,7 +5864,7 @@
     </row>
     <row r="46" s="31" customFormat="1" spans="1:22">
       <c r="A46" s="42" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B46" s="35">
         <v>3</v>
@@ -5883,7 +5880,7 @@
         <v>7</v>
       </c>
       <c r="G46" s="35" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H46" s="35"/>
       <c r="I46" s="35"/>
@@ -5908,16 +5905,16 @@
       </c>
       <c r="Q46" s="35"/>
       <c r="R46" s="44" t="s">
+        <v>197</v>
+      </c>
+      <c r="S46" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="T46" s="44" t="s">
+        <v>197</v>
+      </c>
+      <c r="U46" s="35" t="s">
         <v>198</v>
-      </c>
-      <c r="S46" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="T46" s="44" t="s">
-        <v>198</v>
-      </c>
-      <c r="U46" s="35" t="s">
-        <v>199</v>
       </c>
       <c r="V46" s="35">
         <v>0</v>
@@ -5925,7 +5922,7 @@
     </row>
     <row r="47" s="31" customFormat="1" spans="1:22">
       <c r="A47" s="42" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B47" s="35">
         <v>3</v>
@@ -5941,7 +5938,7 @@
         <v>7</v>
       </c>
       <c r="G47" s="35" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H47" s="35"/>
       <c r="I47" s="35"/>
@@ -5966,16 +5963,16 @@
       </c>
       <c r="Q47" s="35"/>
       <c r="R47" s="45" t="s">
+        <v>201</v>
+      </c>
+      <c r="S47" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="T47" s="45" t="s">
+        <v>201</v>
+      </c>
+      <c r="U47" s="35" t="s">
         <v>202</v>
-      </c>
-      <c r="S47" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="T47" s="45" t="s">
-        <v>202</v>
-      </c>
-      <c r="U47" s="35" t="s">
-        <v>203</v>
       </c>
       <c r="V47" s="35">
         <v>0</v>
@@ -5983,7 +5980,7 @@
     </row>
     <row r="48" s="31" customFormat="1" spans="1:22">
       <c r="A48" s="42" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B48" s="35">
         <v>3</v>
@@ -5999,7 +5996,7 @@
         <v>7</v>
       </c>
       <c r="G48" s="35" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H48" s="35"/>
       <c r="I48" s="35"/>
@@ -6024,16 +6021,16 @@
       </c>
       <c r="Q48" s="35"/>
       <c r="R48" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="S48" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="T48" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="U48" s="35" t="s">
         <v>206</v>
-      </c>
-      <c r="S48" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="T48" s="45" t="s">
-        <v>206</v>
-      </c>
-      <c r="U48" s="35" t="s">
-        <v>207</v>
       </c>
       <c r="V48" s="35">
         <v>0</v>
@@ -6041,7 +6038,7 @@
     </row>
     <row r="49" s="31" customFormat="1" spans="1:22">
       <c r="A49" s="42" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B49" s="35">
         <v>3</v>
@@ -6057,7 +6054,7 @@
         <v>7</v>
       </c>
       <c r="G49" s="35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H49" s="35"/>
       <c r="I49" s="35"/>
@@ -6082,16 +6079,16 @@
       </c>
       <c r="Q49" s="35"/>
       <c r="R49" s="45" t="s">
+        <v>209</v>
+      </c>
+      <c r="S49" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="T49" s="45" t="s">
+        <v>209</v>
+      </c>
+      <c r="U49" s="35" t="s">
         <v>210</v>
-      </c>
-      <c r="S49" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="T49" s="45" t="s">
-        <v>210</v>
-      </c>
-      <c r="U49" s="35" t="s">
-        <v>211</v>
       </c>
       <c r="V49" s="35">
         <v>0</v>
@@ -6099,7 +6096,7 @@
     </row>
     <row r="50" s="31" customFormat="1" spans="1:22">
       <c r="A50" s="42" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B50" s="35">
         <v>3</v>
@@ -6115,7 +6112,7 @@
         <v>7</v>
       </c>
       <c r="G50" s="35" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H50" s="35"/>
       <c r="I50" s="35"/>
@@ -6140,16 +6137,16 @@
       </c>
       <c r="Q50" s="35"/>
       <c r="R50" s="45" t="s">
+        <v>213</v>
+      </c>
+      <c r="S50" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="T50" s="45" t="s">
+        <v>213</v>
+      </c>
+      <c r="U50" s="35" t="s">
         <v>214</v>
-      </c>
-      <c r="S50" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="T50" s="45" t="s">
-        <v>214</v>
-      </c>
-      <c r="U50" s="35" t="s">
-        <v>215</v>
       </c>
       <c r="V50" s="35">
         <v>0</v>
@@ -6157,7 +6154,7 @@
     </row>
     <row r="51" s="31" customFormat="1" spans="1:22">
       <c r="A51" s="42" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B51" s="35">
         <v>3</v>
@@ -6173,7 +6170,7 @@
         <v>7</v>
       </c>
       <c r="G51" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H51" s="35"/>
       <c r="I51" s="35"/>
@@ -6198,16 +6195,16 @@
       </c>
       <c r="Q51" s="35"/>
       <c r="R51" s="45" t="s">
+        <v>217</v>
+      </c>
+      <c r="S51" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="T51" s="45" t="s">
+        <v>217</v>
+      </c>
+      <c r="U51" s="35" t="s">
         <v>218</v>
-      </c>
-      <c r="S51" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="T51" s="45" t="s">
-        <v>218</v>
-      </c>
-      <c r="U51" s="35" t="s">
-        <v>219</v>
       </c>
       <c r="V51" s="35">
         <v>0</v>
@@ -6215,7 +6212,7 @@
     </row>
     <row r="52" s="31" customFormat="1" spans="1:22">
       <c r="A52" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B52" s="35">
         <v>3</v>
@@ -6231,7 +6228,7 @@
         <v>7</v>
       </c>
       <c r="G52" s="35" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H52" s="35"/>
       <c r="I52" s="35"/>
@@ -6256,16 +6253,16 @@
       </c>
       <c r="Q52" s="35"/>
       <c r="R52" s="45" t="s">
+        <v>221</v>
+      </c>
+      <c r="S52" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="T52" s="45" t="s">
+        <v>221</v>
+      </c>
+      <c r="U52" s="35" t="s">
         <v>222</v>
-      </c>
-      <c r="S52" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="T52" s="45" t="s">
-        <v>222</v>
-      </c>
-      <c r="U52" s="35" t="s">
-        <v>223</v>
       </c>
       <c r="V52" s="35">
         <v>0</v>
@@ -6273,7 +6270,7 @@
     </row>
     <row r="53" s="31" customFormat="1" spans="1:22">
       <c r="A53" s="42" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B53" s="35">
         <v>3</v>
@@ -6289,7 +6286,7 @@
         <v>7</v>
       </c>
       <c r="G53" s="35" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H53" s="35"/>
       <c r="I53" s="35"/>
@@ -6314,16 +6311,16 @@
       </c>
       <c r="Q53" s="35"/>
       <c r="R53" s="45" t="s">
+        <v>225</v>
+      </c>
+      <c r="S53" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="T53" s="45" t="s">
+        <v>225</v>
+      </c>
+      <c r="U53" s="35" t="s">
         <v>226</v>
-      </c>
-      <c r="S53" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="T53" s="45" t="s">
-        <v>226</v>
-      </c>
-      <c r="U53" s="35" t="s">
-        <v>227</v>
       </c>
       <c r="V53" s="35">
         <v>0</v>
@@ -6331,7 +6328,7 @@
     </row>
     <row r="54" s="31" customFormat="1" spans="1:22">
       <c r="A54" s="42" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B54" s="35">
         <v>3</v>
@@ -6347,7 +6344,7 @@
         <v>7</v>
       </c>
       <c r="G54" s="35" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H54" s="35"/>
       <c r="I54" s="35"/>
@@ -6372,16 +6369,16 @@
       </c>
       <c r="Q54" s="35"/>
       <c r="R54" s="45" t="s">
+        <v>229</v>
+      </c>
+      <c r="S54" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="T54" s="45" t="s">
+        <v>229</v>
+      </c>
+      <c r="U54" s="35" t="s">
         <v>230</v>
-      </c>
-      <c r="S54" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="T54" s="45" t="s">
-        <v>230</v>
-      </c>
-      <c r="U54" s="35" t="s">
-        <v>231</v>
       </c>
       <c r="V54" s="35">
         <v>0</v>
@@ -6389,7 +6386,7 @@
     </row>
     <row r="55" s="31" customFormat="1" spans="1:22">
       <c r="A55" s="42" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B55" s="35">
         <v>3</v>
@@ -6405,7 +6402,7 @@
         <v>7</v>
       </c>
       <c r="G55" s="35" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H55" s="35"/>
       <c r="I55" s="35"/>
@@ -6430,16 +6427,16 @@
       </c>
       <c r="Q55" s="35"/>
       <c r="R55" s="45" t="s">
+        <v>233</v>
+      </c>
+      <c r="S55" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="T55" s="45" t="s">
+        <v>233</v>
+      </c>
+      <c r="U55" s="35" t="s">
         <v>234</v>
-      </c>
-      <c r="S55" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="T55" s="45" t="s">
-        <v>234</v>
-      </c>
-      <c r="U55" s="35" t="s">
-        <v>235</v>
       </c>
       <c r="V55" s="35">
         <v>0</v>
@@ -6447,7 +6444,7 @@
     </row>
     <row r="56" s="31" customFormat="1" spans="1:22">
       <c r="A56" s="42" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B56" s="35">
         <v>3</v>
@@ -6463,7 +6460,7 @@
         <v>7</v>
       </c>
       <c r="G56" s="35" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H56" s="35"/>
       <c r="I56" s="35"/>
@@ -6488,16 +6485,16 @@
       </c>
       <c r="Q56" s="35"/>
       <c r="R56" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="S56" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="T56" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="U56" s="35" t="s">
         <v>238</v>
-      </c>
-      <c r="S56" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="T56" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="U56" s="35" t="s">
-        <v>239</v>
       </c>
       <c r="V56" s="35">
         <v>0</v>
@@ -6505,7 +6502,7 @@
     </row>
     <row r="57" s="31" customFormat="1" spans="1:22">
       <c r="A57" s="42" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B57" s="35">
         <v>3</v>
@@ -6521,7 +6518,7 @@
         <v>7</v>
       </c>
       <c r="G57" s="35" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H57" s="35"/>
       <c r="I57" s="35"/>
@@ -6546,16 +6543,16 @@
       </c>
       <c r="Q57" s="35"/>
       <c r="R57" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="S57" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="T57" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="U57" s="35" t="s">
         <v>242</v>
-      </c>
-      <c r="S57" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="T57" s="45" t="s">
-        <v>242</v>
-      </c>
-      <c r="U57" s="35" t="s">
-        <v>243</v>
       </c>
       <c r="V57" s="35">
         <v>0</v>
@@ -6563,7 +6560,7 @@
     </row>
     <row r="58" s="31" customFormat="1" spans="1:22">
       <c r="A58" s="42" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B58" s="35">
         <v>3</v>
@@ -6579,7 +6576,7 @@
         <v>7</v>
       </c>
       <c r="G58" s="35" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H58" s="35"/>
       <c r="I58" s="35"/>
@@ -6604,16 +6601,16 @@
       </c>
       <c r="Q58" s="35"/>
       <c r="R58" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="S58" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="T58" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="U58" s="35" t="s">
         <v>246</v>
-      </c>
-      <c r="S58" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="T58" s="45" t="s">
-        <v>246</v>
-      </c>
-      <c r="U58" s="35" t="s">
-        <v>247</v>
       </c>
       <c r="V58" s="35">
         <v>0</v>
@@ -6621,7 +6618,7 @@
     </row>
     <row r="59" s="31" customFormat="1" spans="1:22">
       <c r="A59" s="42" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B59" s="35">
         <v>3</v>
@@ -6637,7 +6634,7 @@
         <v>7</v>
       </c>
       <c r="G59" s="35" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H59" s="35"/>
       <c r="I59" s="35"/>
@@ -6662,16 +6659,16 @@
       </c>
       <c r="Q59" s="35"/>
       <c r="R59" s="45" t="s">
+        <v>249</v>
+      </c>
+      <c r="S59" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="T59" s="45" t="s">
+        <v>249</v>
+      </c>
+      <c r="U59" s="35" t="s">
         <v>250</v>
-      </c>
-      <c r="S59" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="T59" s="45" t="s">
-        <v>250</v>
-      </c>
-      <c r="U59" s="35" t="s">
-        <v>251</v>
       </c>
       <c r="V59" s="35">
         <v>0</v>
@@ -6679,7 +6676,7 @@
     </row>
     <row r="60" s="31" customFormat="1" spans="1:22">
       <c r="A60" s="42" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B60" s="35">
         <v>3</v>
@@ -6695,7 +6692,7 @@
         <v>7</v>
       </c>
       <c r="G60" s="35" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H60" s="35"/>
       <c r="I60" s="35"/>
@@ -6720,16 +6717,16 @@
       </c>
       <c r="Q60" s="35"/>
       <c r="R60" s="45" t="s">
+        <v>253</v>
+      </c>
+      <c r="S60" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="T60" s="45" t="s">
+        <v>253</v>
+      </c>
+      <c r="U60" s="35" t="s">
         <v>254</v>
-      </c>
-      <c r="S60" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="T60" s="45" t="s">
-        <v>254</v>
-      </c>
-      <c r="U60" s="35" t="s">
-        <v>255</v>
       </c>
       <c r="V60" s="35">
         <v>0</v>
@@ -6737,7 +6734,7 @@
     </row>
     <row r="61" s="31" customFormat="1" spans="1:22">
       <c r="A61" s="42" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B61" s="35">
         <v>3</v>
@@ -6753,7 +6750,7 @@
         <v>7</v>
       </c>
       <c r="G61" s="35" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H61" s="35"/>
       <c r="I61" s="35"/>
@@ -6778,16 +6775,16 @@
       </c>
       <c r="Q61" s="35"/>
       <c r="R61" s="45" t="s">
+        <v>257</v>
+      </c>
+      <c r="S61" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="T61" s="45" t="s">
+        <v>257</v>
+      </c>
+      <c r="U61" s="35" t="s">
         <v>258</v>
-      </c>
-      <c r="S61" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="T61" s="45" t="s">
-        <v>258</v>
-      </c>
-      <c r="U61" s="35" t="s">
-        <v>259</v>
       </c>
       <c r="V61" s="35">
         <v>0</v>
@@ -6795,7 +6792,7 @@
     </row>
     <row r="62" s="31" customFormat="1" spans="1:22">
       <c r="A62" s="42" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B62" s="35">
         <v>3</v>
@@ -6811,7 +6808,7 @@
         <v>7</v>
       </c>
       <c r="G62" s="35" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H62" s="35"/>
       <c r="I62" s="35"/>
@@ -6836,16 +6833,16 @@
       </c>
       <c r="Q62" s="35"/>
       <c r="R62" s="45" t="s">
+        <v>261</v>
+      </c>
+      <c r="S62" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="T62" s="45" t="s">
+        <v>261</v>
+      </c>
+      <c r="U62" s="35" t="s">
         <v>262</v>
-      </c>
-      <c r="S62" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="T62" s="45" t="s">
-        <v>262</v>
-      </c>
-      <c r="U62" s="35" t="s">
-        <v>263</v>
       </c>
       <c r="V62" s="35">
         <v>0</v>
@@ -6853,7 +6850,7 @@
     </row>
     <row r="63" s="31" customFormat="1" spans="1:22">
       <c r="A63" s="42" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B63" s="35">
         <v>3</v>
@@ -6869,7 +6866,7 @@
         <v>7</v>
       </c>
       <c r="G63" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H63" s="35"/>
       <c r="I63" s="35"/>
@@ -6894,16 +6891,16 @@
       </c>
       <c r="Q63" s="35"/>
       <c r="R63" s="45" t="s">
+        <v>265</v>
+      </c>
+      <c r="S63" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="T63" s="45" t="s">
+        <v>265</v>
+      </c>
+      <c r="U63" s="35" t="s">
         <v>266</v>
-      </c>
-      <c r="S63" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="T63" s="45" t="s">
-        <v>266</v>
-      </c>
-      <c r="U63" s="35" t="s">
-        <v>267</v>
       </c>
       <c r="V63" s="35">
         <v>0</v>
@@ -6911,7 +6908,7 @@
     </row>
     <row r="64" s="31" customFormat="1" ht="14" customHeight="1" spans="1:22">
       <c r="A64" s="42" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B64" s="35">
         <v>3</v>
@@ -6927,7 +6924,7 @@
         <v>7</v>
       </c>
       <c r="G64" s="35" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H64" s="35"/>
       <c r="I64" s="35"/>
@@ -6952,16 +6949,16 @@
       </c>
       <c r="Q64" s="35"/>
       <c r="R64" s="45" t="s">
+        <v>269</v>
+      </c>
+      <c r="S64" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="T64" s="45" t="s">
+        <v>269</v>
+      </c>
+      <c r="U64" s="35" t="s">
         <v>270</v>
-      </c>
-      <c r="S64" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="T64" s="45" t="s">
-        <v>270</v>
-      </c>
-      <c r="U64" s="35" t="s">
-        <v>271</v>
       </c>
       <c r="V64" s="35">
         <v>0</v>
@@ -6969,7 +6966,7 @@
     </row>
     <row r="65" s="31" customFormat="1" spans="1:22">
       <c r="A65" s="42" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B65" s="35">
         <v>3</v>
@@ -6985,7 +6982,7 @@
         <v>7</v>
       </c>
       <c r="G65" s="35" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H65" s="35"/>
       <c r="I65" s="35"/>
@@ -7010,16 +7007,16 @@
       </c>
       <c r="Q65" s="35"/>
       <c r="R65" s="45" t="s">
+        <v>273</v>
+      </c>
+      <c r="S65" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="T65" s="45" t="s">
+        <v>273</v>
+      </c>
+      <c r="U65" s="35" t="s">
         <v>274</v>
-      </c>
-      <c r="S65" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="T65" s="45" t="s">
-        <v>274</v>
-      </c>
-      <c r="U65" s="35" t="s">
-        <v>275</v>
       </c>
       <c r="V65" s="35">
         <v>0</v>
@@ -7027,7 +7024,7 @@
     </row>
     <row r="66" s="31" customFormat="1" spans="1:22">
       <c r="A66" s="42" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B66" s="35">
         <v>3</v>
@@ -7043,7 +7040,7 @@
         <v>7</v>
       </c>
       <c r="G66" s="35" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H66" s="35"/>
       <c r="I66" s="35"/>
@@ -7068,16 +7065,16 @@
       </c>
       <c r="Q66" s="35"/>
       <c r="R66" s="45" t="s">
+        <v>277</v>
+      </c>
+      <c r="S66" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="T66" s="45" t="s">
+        <v>277</v>
+      </c>
+      <c r="U66" s="35" t="s">
         <v>278</v>
-      </c>
-      <c r="S66" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="T66" s="45" t="s">
-        <v>278</v>
-      </c>
-      <c r="U66" s="35" t="s">
-        <v>279</v>
       </c>
       <c r="V66" s="35">
         <v>0</v>
@@ -7085,7 +7082,7 @@
     </row>
     <row r="67" s="31" customFormat="1" ht="14" customHeight="1" spans="1:22">
       <c r="A67" s="42" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B67" s="35">
         <v>3</v>
@@ -7101,7 +7098,7 @@
         <v>7</v>
       </c>
       <c r="G67" s="35" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H67" s="35"/>
       <c r="I67" s="35"/>
@@ -7126,16 +7123,16 @@
       </c>
       <c r="Q67" s="35"/>
       <c r="R67" s="45" t="s">
+        <v>281</v>
+      </c>
+      <c r="S67" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="T67" s="45" t="s">
+        <v>281</v>
+      </c>
+      <c r="U67" s="35" t="s">
         <v>282</v>
-      </c>
-      <c r="S67" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="T67" s="45" t="s">
-        <v>282</v>
-      </c>
-      <c r="U67" s="35" t="s">
-        <v>283</v>
       </c>
       <c r="V67" s="35">
         <v>0</v>
@@ -7143,7 +7140,7 @@
     </row>
     <row r="68" s="31" customFormat="1" spans="1:22">
       <c r="A68" s="42" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B68" s="35">
         <v>3</v>
@@ -7159,7 +7156,7 @@
         <v>7</v>
       </c>
       <c r="G68" s="35" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H68" s="35"/>
       <c r="I68" s="35"/>
@@ -7184,16 +7181,16 @@
       </c>
       <c r="Q68" s="35"/>
       <c r="R68" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="S68" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="T68" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="U68" s="35" t="s">
         <v>286</v>
-      </c>
-      <c r="S68" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="T68" s="45" t="s">
-        <v>286</v>
-      </c>
-      <c r="U68" s="35" t="s">
-        <v>287</v>
       </c>
       <c r="V68" s="35">
         <v>0</v>
@@ -7201,7 +7198,7 @@
     </row>
     <row r="69" s="31" customFormat="1" spans="1:22">
       <c r="A69" s="42" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B69" s="35">
         <v>3</v>
@@ -7217,7 +7214,7 @@
         <v>7</v>
       </c>
       <c r="G69" s="35" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H69" s="35"/>
       <c r="I69" s="35"/>
@@ -7242,16 +7239,16 @@
       </c>
       <c r="Q69" s="35"/>
       <c r="R69" s="45" t="s">
+        <v>289</v>
+      </c>
+      <c r="S69" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="T69" s="45" t="s">
+        <v>289</v>
+      </c>
+      <c r="U69" s="35" t="s">
         <v>290</v>
-      </c>
-      <c r="S69" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="T69" s="45" t="s">
-        <v>290</v>
-      </c>
-      <c r="U69" s="35" t="s">
-        <v>291</v>
       </c>
       <c r="V69" s="35">
         <v>0</v>
@@ -7259,7 +7256,7 @@
     </row>
     <row r="70" s="31" customFormat="1" ht="14" customHeight="1" spans="1:22">
       <c r="A70" s="42" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B70" s="35">
         <v>3</v>
@@ -7275,7 +7272,7 @@
         <v>7</v>
       </c>
       <c r="G70" s="35" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H70" s="35"/>
       <c r="I70" s="35"/>
@@ -7300,16 +7297,16 @@
       </c>
       <c r="Q70" s="35"/>
       <c r="R70" s="45" t="s">
+        <v>293</v>
+      </c>
+      <c r="S70" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="T70" s="45" t="s">
+        <v>293</v>
+      </c>
+      <c r="U70" s="35" t="s">
         <v>294</v>
-      </c>
-      <c r="S70" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="T70" s="45" t="s">
-        <v>294</v>
-      </c>
-      <c r="U70" s="35" t="s">
-        <v>295</v>
       </c>
       <c r="V70" s="35">
         <v>0</v>
@@ -7317,7 +7314,7 @@
     </row>
     <row r="71" s="31" customFormat="1" spans="1:22">
       <c r="A71" s="42" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B71" s="35">
         <v>3</v>
@@ -7333,7 +7330,7 @@
         <v>7</v>
       </c>
       <c r="G71" s="35" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H71" s="35"/>
       <c r="I71" s="35"/>
@@ -7358,16 +7355,16 @@
       </c>
       <c r="Q71" s="35"/>
       <c r="R71" s="45" t="s">
+        <v>297</v>
+      </c>
+      <c r="S71" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="T71" s="45" t="s">
+        <v>297</v>
+      </c>
+      <c r="U71" s="35" t="s">
         <v>298</v>
-      </c>
-      <c r="S71" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="T71" s="45" t="s">
-        <v>298</v>
-      </c>
-      <c r="U71" s="35" t="s">
-        <v>299</v>
       </c>
       <c r="V71" s="35">
         <v>0</v>
@@ -7375,7 +7372,7 @@
     </row>
     <row r="72" s="31" customFormat="1" spans="1:22">
       <c r="A72" s="42" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B72" s="35">
         <v>3</v>
@@ -7391,7 +7388,7 @@
         <v>7</v>
       </c>
       <c r="G72" s="35" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H72" s="35"/>
       <c r="I72" s="35"/>
@@ -7416,16 +7413,16 @@
       </c>
       <c r="Q72" s="35"/>
       <c r="R72" s="45" t="s">
+        <v>301</v>
+      </c>
+      <c r="S72" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="T72" s="45" t="s">
+        <v>301</v>
+      </c>
+      <c r="U72" s="35" t="s">
         <v>302</v>
-      </c>
-      <c r="S72" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="T72" s="45" t="s">
-        <v>302</v>
-      </c>
-      <c r="U72" s="35" t="s">
-        <v>303</v>
       </c>
       <c r="V72" s="35">
         <v>0</v>
@@ -7433,7 +7430,7 @@
     </row>
     <row r="73" s="31" customFormat="1" ht="13" customHeight="1" spans="1:22">
       <c r="A73" s="42" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B73" s="35">
         <v>3</v>
@@ -7449,7 +7446,7 @@
         <v>7</v>
       </c>
       <c r="G73" s="35" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H73" s="35"/>
       <c r="I73" s="35"/>
@@ -7474,16 +7471,16 @@
       </c>
       <c r="Q73" s="35"/>
       <c r="R73" s="45" t="s">
+        <v>305</v>
+      </c>
+      <c r="S73" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="T73" s="45" t="s">
+        <v>305</v>
+      </c>
+      <c r="U73" s="35" t="s">
         <v>306</v>
-      </c>
-      <c r="S73" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="T73" s="45" t="s">
-        <v>306</v>
-      </c>
-      <c r="U73" s="35" t="s">
-        <v>307</v>
       </c>
       <c r="V73" s="35">
         <v>0</v>
@@ -8221,7 +8218,7 @@
     </row>
     <row r="11" s="31" customFormat="1" spans="1:22">
       <c r="A11" s="33" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B11" s="34">
         <v>2</v>
@@ -8237,10 +8234,10 @@
         <v>0</v>
       </c>
       <c r="G11" s="33" t="s">
+        <v>308</v>
+      </c>
+      <c r="H11" s="33" t="s">
         <v>309</v>
-      </c>
-      <c r="H11" s="33" t="s">
-        <v>310</v>
       </c>
       <c r="I11" s="34"/>
       <c r="J11" s="34"/>
@@ -8265,13 +8262,13 @@
       <c r="Q11" s="34"/>
       <c r="R11" s="34"/>
       <c r="S11" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="T11" s="33" t="s">
         <v>311</v>
       </c>
-      <c r="T11" s="33" t="s">
+      <c r="U11" s="33" t="s">
         <v>312</v>
-      </c>
-      <c r="U11" s="33" t="s">
-        <v>313</v>
       </c>
       <c r="V11" s="34">
         <v>0</v>
@@ -8279,7 +8276,7 @@
     </row>
     <row r="12" s="31" customFormat="1" spans="1:22">
       <c r="A12" s="36" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B12" s="35">
         <v>2</v>
@@ -8295,7 +8292,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H12" s="36"/>
       <c r="I12" s="35"/>
@@ -8321,13 +8318,13 @@
       <c r="Q12" s="35"/>
       <c r="R12" s="35"/>
       <c r="S12" s="33" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T12" s="33" t="s">
+        <v>315</v>
+      </c>
+      <c r="U12" s="33" t="s">
         <v>316</v>
-      </c>
-      <c r="U12" s="33" t="s">
-        <v>317</v>
       </c>
       <c r="V12" s="35">
         <v>0</v>
@@ -8335,7 +8332,7 @@
     </row>
     <row r="13" s="32" customFormat="1" spans="1:22">
       <c r="A13" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B13" s="37">
         <v>2</v>
@@ -8351,10 +8348,10 @@
         <v>0</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I13" s="37"/>
       <c r="J13" s="37"/>
@@ -8379,13 +8376,13 @@
       <c r="Q13" s="37"/>
       <c r="R13" s="37"/>
       <c r="S13" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T13" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="U13" s="11" t="s">
         <v>320</v>
-      </c>
-      <c r="U13" s="11" t="s">
-        <v>321</v>
       </c>
       <c r="V13" s="37">
         <v>0</v>
@@ -8393,7 +8390,7 @@
     </row>
     <row r="14" s="32" customFormat="1" spans="1:22">
       <c r="A14" s="39" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B14" s="38">
         <v>2</v>
@@ -8409,10 +8406,10 @@
         <v>0</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H14" s="39" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I14" s="38"/>
       <c r="J14" s="38"/>
@@ -8437,13 +8434,13 @@
       <c r="Q14" s="38"/>
       <c r="R14" s="38"/>
       <c r="S14" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T14" s="11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="U14" s="11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="V14" s="38">
         <v>0</v>
@@ -8451,7 +8448,7 @@
     </row>
     <row r="15" s="32" customFormat="1" spans="1:22">
       <c r="A15" s="39" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B15" s="37">
         <v>2</v>
@@ -8467,10 +8464,10 @@
         <v>0</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H15" s="39" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I15" s="38"/>
       <c r="J15" s="38"/>
@@ -8495,13 +8492,13 @@
       <c r="Q15" s="38"/>
       <c r="R15" s="37"/>
       <c r="S15" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T15" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="U15" s="11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="V15" s="38">
         <v>0</v>
@@ -8509,7 +8506,7 @@
     </row>
     <row r="16" s="32" customFormat="1" spans="1:22">
       <c r="A16" s="39" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B16" s="38">
         <v>2</v>
@@ -8525,10 +8522,10 @@
         <v>0</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H16" s="39" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I16" s="38"/>
       <c r="J16" s="38"/>
@@ -8553,13 +8550,13 @@
       <c r="Q16" s="38"/>
       <c r="R16" s="38"/>
       <c r="S16" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T16" s="11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U16" s="11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="V16" s="38">
         <v>0</v>
@@ -8567,7 +8564,7 @@
     </row>
     <row r="17" s="32" customFormat="1" spans="1:22">
       <c r="A17" s="39" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B17" s="38">
         <v>2</v>
@@ -8583,10 +8580,10 @@
         <v>0</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H17" s="39" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I17" s="38"/>
       <c r="J17" s="38"/>
@@ -8611,13 +8608,13 @@
       <c r="Q17" s="38"/>
       <c r="R17" s="38"/>
       <c r="S17" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T17" s="11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="U17" s="11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="V17" s="38">
         <v>0</v>
@@ -8625,7 +8622,7 @@
     </row>
     <row r="18" s="32" customFormat="1" spans="1:22">
       <c r="A18" s="39" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B18" s="38">
         <v>2</v>
@@ -8641,7 +8638,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H18" s="39"/>
       <c r="I18" s="38"/>
@@ -8667,13 +8664,13 @@
       <c r="Q18" s="38"/>
       <c r="R18" s="38"/>
       <c r="S18" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T18" s="11" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="U18" s="11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="V18" s="38">
         <v>0</v>
@@ -8681,7 +8678,7 @@
     </row>
     <row r="19" s="32" customFormat="1" spans="1:22">
       <c r="A19" s="39" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B19" s="37">
         <v>2</v>
@@ -8697,7 +8694,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="39" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H19" s="39"/>
       <c r="I19" s="38"/>
@@ -8723,13 +8720,13 @@
       <c r="Q19" s="38"/>
       <c r="R19" s="37"/>
       <c r="S19" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T19" s="39" t="s">
+        <v>337</v>
+      </c>
+      <c r="U19" s="39" t="s">
         <v>338</v>
-      </c>
-      <c r="U19" s="39" t="s">
-        <v>339</v>
       </c>
       <c r="V19" s="38">
         <v>0</v>
@@ -8737,7 +8734,7 @@
     </row>
     <row r="20" s="32" customFormat="1" spans="1:22">
       <c r="A20" s="39" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B20" s="38">
         <v>2</v>
@@ -8753,7 +8750,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="39" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H20" s="39"/>
       <c r="I20" s="38"/>
@@ -8779,13 +8776,13 @@
       <c r="Q20" s="38"/>
       <c r="R20" s="38"/>
       <c r="S20" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T20" s="39" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="U20" s="39" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="V20" s="38">
         <v>0</v>
@@ -8793,7 +8790,7 @@
     </row>
     <row r="21" s="32" customFormat="1" spans="1:22">
       <c r="A21" s="39" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B21" s="37">
         <v>2</v>
@@ -8809,7 +8806,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="39" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H21" s="39"/>
       <c r="I21" s="38"/>
@@ -8835,13 +8832,13 @@
       <c r="Q21" s="38"/>
       <c r="R21" s="37"/>
       <c r="S21" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T21" s="39" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="U21" s="39" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="V21" s="38">
         <v>0</v>
@@ -8849,7 +8846,7 @@
     </row>
     <row r="22" s="32" customFormat="1" spans="1:22">
       <c r="A22" s="39" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B22" s="38">
         <v>2</v>
@@ -8865,7 +8862,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="39" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H22" s="39"/>
       <c r="I22" s="38"/>
@@ -8891,13 +8888,13 @@
       <c r="Q22" s="38"/>
       <c r="R22" s="38"/>
       <c r="S22" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T22" s="39" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="U22" s="39" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="V22" s="38">
         <v>0</v>
@@ -8905,7 +8902,7 @@
     </row>
     <row r="23" s="32" customFormat="1" spans="1:22">
       <c r="A23" s="39" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B23" s="38">
         <v>2</v>
@@ -8921,7 +8918,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="39" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H23" s="39"/>
       <c r="I23" s="38"/>
@@ -8947,13 +8944,13 @@
       <c r="Q23" s="38"/>
       <c r="R23" s="38"/>
       <c r="S23" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T23" s="39" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="U23" s="39" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="V23" s="38">
         <v>0</v>
@@ -8961,7 +8958,7 @@
     </row>
     <row r="24" s="32" customFormat="1" spans="1:22">
       <c r="A24" s="39" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B24" s="38">
         <v>2</v>
@@ -8977,7 +8974,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="39" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H24" s="39"/>
       <c r="I24" s="38"/>
@@ -9003,13 +9000,13 @@
       <c r="Q24" s="38"/>
       <c r="R24" s="38"/>
       <c r="S24" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T24" s="39" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="U24" s="39" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="V24" s="38">
         <v>0</v>
@@ -9017,7 +9014,7 @@
     </row>
     <row r="25" s="32" customFormat="1" spans="1:22">
       <c r="A25" s="39" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B25" s="37">
         <v>2</v>
@@ -9033,7 +9030,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="39" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H25" s="39"/>
       <c r="I25" s="38"/>
@@ -9059,13 +9056,13 @@
       <c r="Q25" s="38"/>
       <c r="R25" s="37"/>
       <c r="S25" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T25" s="39" t="s">
+        <v>351</v>
+      </c>
+      <c r="U25" s="39" t="s">
         <v>352</v>
-      </c>
-      <c r="U25" s="39" t="s">
-        <v>353</v>
       </c>
       <c r="V25" s="38">
         <v>0</v>
@@ -9073,7 +9070,7 @@
     </row>
     <row r="26" s="32" customFormat="1" spans="1:22">
       <c r="A26" s="39" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B26" s="38">
         <v>2</v>
@@ -9089,7 +9086,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="39" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H26" s="39"/>
       <c r="I26" s="38"/>
@@ -9115,13 +9112,13 @@
       <c r="Q26" s="38"/>
       <c r="R26" s="38"/>
       <c r="S26" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T26" s="39" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="U26" s="39" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="V26" s="38">
         <v>0</v>
@@ -9129,7 +9126,7 @@
     </row>
     <row r="27" s="32" customFormat="1" spans="1:22">
       <c r="A27" s="39" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B27" s="37">
         <v>2</v>
@@ -9145,7 +9142,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="39" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H27" s="39"/>
       <c r="I27" s="38"/>
@@ -9171,13 +9168,13 @@
       <c r="Q27" s="38"/>
       <c r="R27" s="37"/>
       <c r="S27" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T27" s="39" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="U27" s="39" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="V27" s="38">
         <v>0</v>
@@ -9185,7 +9182,7 @@
     </row>
     <row r="28" s="32" customFormat="1" spans="1:22">
       <c r="A28" s="39" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B28" s="38">
         <v>2</v>
@@ -9201,7 +9198,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="39" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H28" s="39"/>
       <c r="I28" s="38"/>
@@ -9227,13 +9224,13 @@
       <c r="Q28" s="38"/>
       <c r="R28" s="38"/>
       <c r="S28" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T28" s="39" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="U28" s="39" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="V28" s="38">
         <v>0</v>
@@ -9241,7 +9238,7 @@
     </row>
     <row r="29" s="32" customFormat="1" spans="1:22">
       <c r="A29" s="39" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B29" s="38">
         <v>2</v>
@@ -9257,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="39" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H29" s="39"/>
       <c r="I29" s="38"/>
@@ -9283,13 +9280,13 @@
       <c r="Q29" s="38"/>
       <c r="R29" s="38"/>
       <c r="S29" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T29" s="39" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="U29" s="39" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="V29" s="38">
         <v>0</v>
@@ -9297,7 +9294,7 @@
     </row>
     <row r="30" s="32" customFormat="1" spans="1:22">
       <c r="A30" s="39" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B30" s="38">
         <v>2</v>
@@ -9313,7 +9310,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="39" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H30" s="39"/>
       <c r="I30" s="38"/>
@@ -9339,13 +9336,13 @@
       <c r="Q30" s="38"/>
       <c r="R30" s="38"/>
       <c r="S30" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T30" s="39" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="U30" s="39" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="V30" s="38">
         <v>0</v>
@@ -9353,7 +9350,7 @@
     </row>
     <row r="31" s="32" customFormat="1" spans="1:22">
       <c r="A31" s="39" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B31" s="37">
         <v>2</v>
@@ -9369,7 +9366,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="39" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H31" s="39"/>
       <c r="I31" s="38"/>
@@ -9395,13 +9392,13 @@
       <c r="Q31" s="38"/>
       <c r="R31" s="37"/>
       <c r="S31" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T31" s="39" t="s">
+        <v>365</v>
+      </c>
+      <c r="U31" s="39" t="s">
         <v>366</v>
-      </c>
-      <c r="U31" s="39" t="s">
-        <v>367</v>
       </c>
       <c r="V31" s="38">
         <v>0</v>
@@ -9409,7 +9406,7 @@
     </row>
     <row r="32" s="32" customFormat="1" spans="1:22">
       <c r="A32" s="39" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B32" s="38">
         <v>2</v>
@@ -9425,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="39" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H32" s="39"/>
       <c r="I32" s="38"/>
@@ -9451,13 +9448,13 @@
       <c r="Q32" s="38"/>
       <c r="R32" s="38"/>
       <c r="S32" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T32" s="39" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U32" s="39" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="V32" s="38">
         <v>0</v>
@@ -9465,7 +9462,7 @@
     </row>
     <row r="33" s="32" customFormat="1" spans="1:22">
       <c r="A33" s="39" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B33" s="37">
         <v>2</v>
@@ -9481,7 +9478,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="39" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H33" s="39"/>
       <c r="I33" s="38"/>
@@ -9507,13 +9504,13 @@
       <c r="Q33" s="38"/>
       <c r="R33" s="37"/>
       <c r="S33" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T33" s="39" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="U33" s="39" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="V33" s="38">
         <v>0</v>
@@ -9521,7 +9518,7 @@
     </row>
     <row r="34" s="32" customFormat="1" spans="1:22">
       <c r="A34" s="39" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B34" s="38">
         <v>2</v>
@@ -9537,7 +9534,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="39" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H34" s="39"/>
       <c r="I34" s="38"/>
@@ -9563,13 +9560,13 @@
       <c r="Q34" s="38"/>
       <c r="R34" s="38"/>
       <c r="S34" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T34" s="39" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="U34" s="39" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="V34" s="38">
         <v>0</v>
@@ -9577,7 +9574,7 @@
     </row>
     <row r="35" s="32" customFormat="1" spans="1:22">
       <c r="A35" s="39" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B35" s="37">
         <v>2</v>
@@ -9593,7 +9590,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="39" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H35" s="39"/>
       <c r="I35" s="38"/>
@@ -9619,13 +9616,13 @@
       <c r="Q35" s="38"/>
       <c r="R35" s="37"/>
       <c r="S35" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T35" s="39" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="U35" s="39" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="V35" s="38">
         <v>0</v>
@@ -9633,7 +9630,7 @@
     </row>
     <row r="36" s="32" customFormat="1" spans="1:22">
       <c r="A36" s="39" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B36" s="38">
         <v>2</v>
@@ -9649,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="39" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H36" s="39"/>
       <c r="I36" s="38"/>
@@ -9675,13 +9672,13 @@
       <c r="Q36" s="38"/>
       <c r="R36" s="38"/>
       <c r="S36" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T36" s="39" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U36" s="39" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="V36" s="38">
         <v>0</v>
@@ -9689,7 +9686,7 @@
     </row>
     <row r="37" s="32" customFormat="1" spans="1:22">
       <c r="A37" s="38" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B37" s="37">
         <v>2</v>
@@ -9705,7 +9702,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="38" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H37" s="39"/>
       <c r="I37" s="38"/>
@@ -9731,13 +9728,13 @@
       <c r="Q37" s="38"/>
       <c r="R37" s="37"/>
       <c r="S37" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T37" s="38" t="s">
+        <v>379</v>
+      </c>
+      <c r="U37" s="38" t="s">
         <v>380</v>
-      </c>
-      <c r="U37" s="38" t="s">
-        <v>381</v>
       </c>
       <c r="V37" s="38">
         <v>0</v>
@@ -9745,7 +9742,7 @@
     </row>
     <row r="38" s="32" customFormat="1" spans="1:22">
       <c r="A38" s="38" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B38" s="38">
         <v>2</v>
@@ -9761,7 +9758,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="38" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H38" s="39"/>
       <c r="I38" s="38"/>
@@ -9787,13 +9784,13 @@
       <c r="Q38" s="38"/>
       <c r="R38" s="38"/>
       <c r="S38" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T38" s="38" t="s">
+        <v>379</v>
+      </c>
+      <c r="U38" s="38" t="s">
         <v>380</v>
-      </c>
-      <c r="U38" s="38" t="s">
-        <v>381</v>
       </c>
       <c r="V38" s="38">
         <v>0</v>
@@ -9801,7 +9798,7 @@
     </row>
     <row r="39" s="32" customFormat="1" spans="1:22">
       <c r="A39" s="38" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B39" s="37">
         <v>2</v>
@@ -9817,7 +9814,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="38" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H39" s="39"/>
       <c r="I39" s="38"/>
@@ -9843,13 +9840,13 @@
       <c r="Q39" s="38"/>
       <c r="R39" s="37"/>
       <c r="S39" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T39" s="38" t="s">
+        <v>379</v>
+      </c>
+      <c r="U39" s="38" t="s">
         <v>380</v>
-      </c>
-      <c r="U39" s="38" t="s">
-        <v>381</v>
       </c>
       <c r="V39" s="38">
         <v>0</v>
@@ -9857,7 +9854,7 @@
     </row>
     <row r="40" s="32" customFormat="1" spans="1:22">
       <c r="A40" s="38" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B40" s="38">
         <v>2</v>
@@ -9873,7 +9870,7 @@
         <v>0</v>
       </c>
       <c r="G40" s="38" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H40" s="39"/>
       <c r="I40" s="38"/>
@@ -9899,13 +9896,13 @@
       <c r="Q40" s="38"/>
       <c r="R40" s="38"/>
       <c r="S40" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T40" s="38" t="s">
+        <v>379</v>
+      </c>
+      <c r="U40" s="38" t="s">
         <v>380</v>
-      </c>
-      <c r="U40" s="38" t="s">
-        <v>381</v>
       </c>
       <c r="V40" s="38">
         <v>0</v>
@@ -9913,7 +9910,7 @@
     </row>
     <row r="41" s="32" customFormat="1" spans="1:22">
       <c r="A41" s="38" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B41" s="37">
         <v>2</v>
@@ -9929,7 +9926,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="38" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H41" s="39"/>
       <c r="I41" s="38"/>
@@ -9955,13 +9952,13 @@
       <c r="Q41" s="38"/>
       <c r="R41" s="37"/>
       <c r="S41" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T41" s="38" t="s">
+        <v>379</v>
+      </c>
+      <c r="U41" s="38" t="s">
         <v>380</v>
-      </c>
-      <c r="U41" s="38" t="s">
-        <v>381</v>
       </c>
       <c r="V41" s="38">
         <v>0</v>
@@ -9969,7 +9966,7 @@
     </row>
     <row r="42" s="32" customFormat="1" spans="1:22">
       <c r="A42" s="38" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B42" s="38">
         <v>2</v>
@@ -9985,7 +9982,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="38" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H42" s="39"/>
       <c r="I42" s="38"/>
@@ -10011,13 +10008,13 @@
       <c r="Q42" s="38"/>
       <c r="R42" s="38"/>
       <c r="S42" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T42" s="38" t="s">
+        <v>379</v>
+      </c>
+      <c r="U42" s="38" t="s">
         <v>380</v>
-      </c>
-      <c r="U42" s="38" t="s">
-        <v>381</v>
       </c>
       <c r="V42" s="38">
         <v>0</v>
@@ -10025,7 +10022,7 @@
     </row>
     <row r="43" s="32" customFormat="1" spans="1:22">
       <c r="A43" s="39" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B43" s="38">
         <v>2</v>
@@ -10041,7 +10038,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="39" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H43" s="39"/>
       <c r="I43" s="38"/>
@@ -10067,13 +10064,13 @@
       <c r="Q43" s="38"/>
       <c r="R43" s="38"/>
       <c r="S43" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T43" s="39" t="s">
+        <v>388</v>
+      </c>
+      <c r="U43" s="39" t="s">
         <v>389</v>
-      </c>
-      <c r="U43" s="39" t="s">
-        <v>390</v>
       </c>
       <c r="V43" s="38">
         <v>0</v>
@@ -10081,7 +10078,7 @@
     </row>
     <row r="44" s="32" customFormat="1" spans="1:22">
       <c r="A44" s="39" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B44" s="37">
         <v>2</v>
@@ -10097,7 +10094,7 @@
         <v>0</v>
       </c>
       <c r="G44" s="39" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H44" s="39"/>
       <c r="I44" s="38"/>
@@ -10123,13 +10120,13 @@
       <c r="Q44" s="38"/>
       <c r="R44" s="37"/>
       <c r="S44" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T44" s="39" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="U44" s="39" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="V44" s="38">
         <v>0</v>
@@ -10137,7 +10134,7 @@
     </row>
     <row r="45" s="32" customFormat="1" spans="1:22">
       <c r="A45" s="39" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B45" s="38">
         <v>2</v>
@@ -10153,7 +10150,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="39" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H45" s="39"/>
       <c r="I45" s="38"/>
@@ -10179,13 +10176,13 @@
       <c r="Q45" s="38"/>
       <c r="R45" s="38"/>
       <c r="S45" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T45" s="39" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="U45" s="39" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="V45" s="38">
         <v>0</v>
@@ -10193,7 +10190,7 @@
     </row>
     <row r="46" s="32" customFormat="1" spans="1:22">
       <c r="A46" s="39" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B46" s="37">
         <v>2</v>
@@ -10209,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="G46" s="39" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H46" s="39"/>
       <c r="I46" s="38"/>
@@ -10235,13 +10232,13 @@
       <c r="Q46" s="38"/>
       <c r="R46" s="37"/>
       <c r="S46" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T46" s="39" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="U46" s="39" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="V46" s="38">
         <v>0</v>
@@ -10249,7 +10246,7 @@
     </row>
     <row r="47" s="32" customFormat="1" spans="1:22">
       <c r="A47" s="39" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B47" s="38">
         <v>2</v>
@@ -10265,7 +10262,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="39" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H47" s="39"/>
       <c r="I47" s="38"/>
@@ -10291,13 +10288,13 @@
       <c r="Q47" s="38"/>
       <c r="R47" s="38"/>
       <c r="S47" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T47" s="39" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="U47" s="39" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="V47" s="38">
         <v>0</v>
@@ -10305,7 +10302,7 @@
     </row>
     <row r="48" s="32" customFormat="1" spans="1:22">
       <c r="A48" s="39" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B48" s="37">
         <v>2</v>
@@ -10321,7 +10318,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="39" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H48" s="39"/>
       <c r="I48" s="38"/>
@@ -10347,13 +10344,13 @@
       <c r="Q48" s="38"/>
       <c r="R48" s="37"/>
       <c r="S48" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T48" s="39" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="U48" s="39" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="V48" s="38">
         <v>0</v>
@@ -10361,7 +10358,7 @@
     </row>
     <row r="49" s="32" customFormat="1" spans="1:22">
       <c r="A49" s="39" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B49" s="37">
         <v>2</v>
@@ -10377,7 +10374,7 @@
         <v>0</v>
       </c>
       <c r="G49" s="39" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H49" s="39"/>
       <c r="I49" s="38"/>
@@ -10403,13 +10400,13 @@
       <c r="Q49" s="38"/>
       <c r="R49" s="37"/>
       <c r="S49" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T49" s="39" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="U49" s="39" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="V49" s="38">
         <v>0</v>
@@ -11147,7 +11144,7 @@
     </row>
     <row r="11" s="20" customFormat="1" ht="14.25" spans="1:22">
       <c r="A11" s="21" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B11" s="22">
         <v>3</v>
@@ -11163,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H11" s="22"/>
       <c r="I11" s="22"/>
@@ -11188,16 +11185,16 @@
       </c>
       <c r="Q11" s="22"/>
       <c r="R11" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="S11" s="28" t="s">
         <v>404</v>
       </c>
-      <c r="S11" s="28" t="s">
+      <c r="T11" s="29" t="s">
+        <v>403</v>
+      </c>
+      <c r="U11" s="30" t="s">
         <v>405</v>
-      </c>
-      <c r="T11" s="29" t="s">
-        <v>404</v>
-      </c>
-      <c r="U11" s="30" t="s">
-        <v>406</v>
       </c>
       <c r="V11" s="22">
         <v>1</v>
@@ -11205,7 +11202,7 @@
     </row>
     <row r="12" s="20" customFormat="1" ht="14.25" spans="1:22">
       <c r="A12" s="21" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B12" s="24">
         <v>3</v>
@@ -11221,7 +11218,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H12" s="24"/>
       <c r="I12" s="24"/>
@@ -11246,16 +11243,16 @@
       </c>
       <c r="Q12" s="24"/>
       <c r="R12" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="S12" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="T12" s="29" t="s">
+        <v>408</v>
+      </c>
+      <c r="U12" s="30" t="s">
         <v>409</v>
-      </c>
-      <c r="S12" s="28" t="s">
-        <v>405</v>
-      </c>
-      <c r="T12" s="29" t="s">
-        <v>409</v>
-      </c>
-      <c r="U12" s="30" t="s">
-        <v>410</v>
       </c>
       <c r="V12" s="24">
         <v>1</v>
@@ -11263,7 +11260,7 @@
     </row>
     <row r="13" s="20" customFormat="1" ht="14.25" spans="1:22">
       <c r="A13" s="21" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B13" s="22">
         <v>3</v>
@@ -11279,7 +11276,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
@@ -11304,16 +11301,16 @@
       </c>
       <c r="Q13" s="24"/>
       <c r="R13" s="27" t="s">
+        <v>412</v>
+      </c>
+      <c r="S13" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="T13" s="29" t="s">
+        <v>412</v>
+      </c>
+      <c r="U13" s="30" t="s">
         <v>413</v>
-      </c>
-      <c r="S13" s="28" t="s">
-        <v>405</v>
-      </c>
-      <c r="T13" s="29" t="s">
-        <v>413</v>
-      </c>
-      <c r="U13" s="30" t="s">
-        <v>414</v>
       </c>
       <c r="V13" s="24">
         <v>1</v>
@@ -11321,7 +11318,7 @@
     </row>
     <row r="14" s="20" customFormat="1" ht="14.25" spans="1:22">
       <c r="A14" s="21" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B14" s="24">
         <v>3</v>
@@ -11337,7 +11334,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H14" s="24"/>
       <c r="I14" s="24"/>
@@ -11362,16 +11359,16 @@
       </c>
       <c r="Q14" s="24"/>
       <c r="R14" s="27" t="s">
+        <v>416</v>
+      </c>
+      <c r="S14" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="T14" s="29" t="s">
+        <v>416</v>
+      </c>
+      <c r="U14" s="30" t="s">
         <v>417</v>
-      </c>
-      <c r="S14" s="28" t="s">
-        <v>405</v>
-      </c>
-      <c r="T14" s="29" t="s">
-        <v>417</v>
-      </c>
-      <c r="U14" s="30" t="s">
-        <v>418</v>
       </c>
       <c r="V14" s="24">
         <v>1</v>
@@ -11379,7 +11376,7 @@
     </row>
     <row r="15" ht="14.25" spans="1:22">
       <c r="A15" s="21" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B15" s="22">
         <v>3</v>
@@ -11395,7 +11392,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H15" s="22"/>
       <c r="I15" s="22"/>
@@ -11420,16 +11417,16 @@
       </c>
       <c r="Q15" s="22"/>
       <c r="R15" s="27" t="s">
+        <v>420</v>
+      </c>
+      <c r="S15" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="T15" s="29" t="s">
+        <v>420</v>
+      </c>
+      <c r="U15" s="30" t="s">
         <v>421</v>
-      </c>
-      <c r="S15" s="28" t="s">
-        <v>405</v>
-      </c>
-      <c r="T15" s="29" t="s">
-        <v>421</v>
-      </c>
-      <c r="U15" s="30" t="s">
-        <v>422</v>
       </c>
       <c r="V15" s="22">
         <v>1</v>
@@ -11437,7 +11434,7 @@
     </row>
     <row r="16" ht="14.25" spans="1:22">
       <c r="A16" s="21" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B16" s="24">
         <v>3</v>
@@ -11453,7 +11450,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H16" s="24"/>
       <c r="I16" s="24"/>
@@ -11478,16 +11475,16 @@
       </c>
       <c r="Q16" s="24"/>
       <c r="R16" s="27" t="s">
+        <v>424</v>
+      </c>
+      <c r="S16" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="T16" s="29" t="s">
+        <v>424</v>
+      </c>
+      <c r="U16" s="30" t="s">
         <v>425</v>
-      </c>
-      <c r="S16" s="28" t="s">
-        <v>405</v>
-      </c>
-      <c r="T16" s="29" t="s">
-        <v>425</v>
-      </c>
-      <c r="U16" s="30" t="s">
-        <v>426</v>
       </c>
       <c r="V16" s="24">
         <v>1</v>
@@ -11495,7 +11492,7 @@
     </row>
     <row r="17" ht="14.25" spans="1:22">
       <c r="A17" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B17" s="22">
         <v>3</v>
@@ -11511,7 +11508,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
@@ -11536,16 +11533,16 @@
       </c>
       <c r="Q17" s="24"/>
       <c r="R17" s="27" t="s">
+        <v>428</v>
+      </c>
+      <c r="S17" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="T17" s="29" t="s">
+        <v>428</v>
+      </c>
+      <c r="U17" s="30" t="s">
         <v>429</v>
-      </c>
-      <c r="S17" s="28" t="s">
-        <v>405</v>
-      </c>
-      <c r="T17" s="29" t="s">
-        <v>429</v>
-      </c>
-      <c r="U17" s="30" t="s">
-        <v>430</v>
       </c>
       <c r="V17" s="24">
         <v>1</v>
@@ -11553,7 +11550,7 @@
     </row>
     <row r="18" ht="14.25" spans="1:22">
       <c r="A18" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B18" s="24">
         <v>3</v>
@@ -11569,7 +11566,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
@@ -11594,16 +11591,16 @@
       </c>
       <c r="Q18" s="24"/>
       <c r="R18" s="27" t="s">
+        <v>432</v>
+      </c>
+      <c r="S18" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="T18" s="29" t="s">
+        <v>432</v>
+      </c>
+      <c r="U18" s="30" t="s">
         <v>433</v>
-      </c>
-      <c r="S18" s="28" t="s">
-        <v>405</v>
-      </c>
-      <c r="T18" s="29" t="s">
-        <v>433</v>
-      </c>
-      <c r="U18" s="30" t="s">
-        <v>434</v>
       </c>
       <c r="V18" s="24">
         <v>1</v>
@@ -11611,7 +11608,7 @@
     </row>
     <row r="19" ht="14.25" spans="1:22">
       <c r="A19" s="21" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B19" s="22">
         <v>3</v>
@@ -11627,7 +11624,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H19" s="22"/>
       <c r="I19" s="22"/>
@@ -11652,16 +11649,16 @@
       </c>
       <c r="Q19" s="22"/>
       <c r="R19" s="27" t="s">
+        <v>436</v>
+      </c>
+      <c r="S19" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="T19" s="29" t="s">
+        <v>436</v>
+      </c>
+      <c r="U19" s="30" t="s">
         <v>437</v>
-      </c>
-      <c r="S19" s="28" t="s">
-        <v>405</v>
-      </c>
-      <c r="T19" s="29" t="s">
-        <v>437</v>
-      </c>
-      <c r="U19" s="30" t="s">
-        <v>438</v>
       </c>
       <c r="V19" s="22">
         <v>1</v>
@@ -11669,7 +11666,7 @@
     </row>
     <row r="20" ht="14.25" spans="1:22">
       <c r="A20" s="21" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B20" s="24">
         <v>3</v>
@@ -11685,7 +11682,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="23" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H20" s="24"/>
       <c r="I20" s="24"/>
@@ -11710,16 +11707,16 @@
       </c>
       <c r="Q20" s="24"/>
       <c r="R20" s="27" t="s">
+        <v>440</v>
+      </c>
+      <c r="S20" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="T20" s="29" t="s">
+        <v>440</v>
+      </c>
+      <c r="U20" s="30" t="s">
         <v>441</v>
-      </c>
-      <c r="S20" s="28" t="s">
-        <v>405</v>
-      </c>
-      <c r="T20" s="29" t="s">
-        <v>441</v>
-      </c>
-      <c r="U20" s="30" t="s">
-        <v>442</v>
       </c>
       <c r="V20" s="24">
         <v>1</v>
@@ -11727,7 +11724,7 @@
     </row>
     <row r="21" ht="14.25" spans="1:22">
       <c r="A21" s="21" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B21" s="22">
         <v>3</v>
@@ -11743,7 +11740,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
@@ -11768,16 +11765,16 @@
       </c>
       <c r="Q21" s="24"/>
       <c r="R21" s="27" t="s">
+        <v>444</v>
+      </c>
+      <c r="S21" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="T21" s="29" t="s">
+        <v>444</v>
+      </c>
+      <c r="U21" s="30" t="s">
         <v>445</v>
-      </c>
-      <c r="S21" s="28" t="s">
-        <v>405</v>
-      </c>
-      <c r="T21" s="29" t="s">
-        <v>445</v>
-      </c>
-      <c r="U21" s="30" t="s">
-        <v>446</v>
       </c>
       <c r="V21" s="24">
         <v>1</v>
@@ -11785,7 +11782,7 @@
     </row>
     <row r="22" ht="14.25" spans="1:22">
       <c r="A22" s="21" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B22" s="24">
         <v>3</v>
@@ -11801,7 +11798,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
@@ -11826,16 +11823,16 @@
       </c>
       <c r="Q22" s="24"/>
       <c r="R22" s="27" t="s">
+        <v>448</v>
+      </c>
+      <c r="S22" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="T22" s="29" t="s">
+        <v>448</v>
+      </c>
+      <c r="U22" s="30" t="s">
         <v>449</v>
-      </c>
-      <c r="S22" s="28" t="s">
-        <v>405</v>
-      </c>
-      <c r="T22" s="29" t="s">
-        <v>449</v>
-      </c>
-      <c r="U22" s="30" t="s">
-        <v>450</v>
       </c>
       <c r="V22" s="24">
         <v>1</v>
@@ -11843,7 +11840,7 @@
     </row>
     <row r="23" ht="14.25" spans="1:22">
       <c r="A23" s="21" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B23" s="22">
         <v>3</v>
@@ -11859,7 +11856,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="23" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H23" s="22"/>
       <c r="I23" s="22"/>
@@ -11884,16 +11881,16 @@
       </c>
       <c r="Q23" s="22"/>
       <c r="R23" s="27" t="s">
+        <v>452</v>
+      </c>
+      <c r="S23" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="T23" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="U23" s="30" t="s">
         <v>453</v>
-      </c>
-      <c r="S23" s="28" t="s">
-        <v>405</v>
-      </c>
-      <c r="T23" s="29" t="s">
-        <v>453</v>
-      </c>
-      <c r="U23" s="30" t="s">
-        <v>454</v>
       </c>
       <c r="V23" s="22">
         <v>1</v>
@@ -11901,7 +11898,7 @@
     </row>
     <row r="24" ht="14.25" spans="1:22">
       <c r="A24" s="21" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B24" s="24">
         <v>3</v>
@@ -11917,7 +11914,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="23" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
@@ -11942,16 +11939,16 @@
       </c>
       <c r="Q24" s="24"/>
       <c r="R24" s="27" t="s">
+        <v>456</v>
+      </c>
+      <c r="S24" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="T24" s="29" t="s">
+        <v>456</v>
+      </c>
+      <c r="U24" s="30" t="s">
         <v>457</v>
-      </c>
-      <c r="S24" s="28" t="s">
-        <v>405</v>
-      </c>
-      <c r="T24" s="29" t="s">
-        <v>457</v>
-      </c>
-      <c r="U24" s="30" t="s">
-        <v>458</v>
       </c>
       <c r="V24" s="24">
         <v>1</v>
@@ -11959,7 +11956,7 @@
     </row>
     <row r="25" ht="14.25" spans="1:22">
       <c r="A25" s="21" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B25" s="22">
         <v>3</v>
@@ -11975,7 +11972,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="23" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H25" s="24"/>
       <c r="I25" s="24"/>
@@ -12000,16 +11997,16 @@
       </c>
       <c r="Q25" s="24"/>
       <c r="R25" s="27" t="s">
+        <v>460</v>
+      </c>
+      <c r="S25" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="T25" s="29" t="s">
+        <v>460</v>
+      </c>
+      <c r="U25" s="30" t="s">
         <v>461</v>
-      </c>
-      <c r="S25" s="28" t="s">
-        <v>405</v>
-      </c>
-      <c r="T25" s="29" t="s">
-        <v>461</v>
-      </c>
-      <c r="U25" s="30" t="s">
-        <v>462</v>
       </c>
       <c r="V25" s="24">
         <v>1</v>
@@ -12017,7 +12014,7 @@
     </row>
     <row r="26" ht="14.25" spans="1:22">
       <c r="A26" s="21" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B26" s="24">
         <v>3</v>
@@ -12033,7 +12030,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="23" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H26" s="24"/>
       <c r="I26" s="24"/>
@@ -12058,16 +12055,16 @@
       </c>
       <c r="Q26" s="24"/>
       <c r="R26" s="27" t="s">
+        <v>464</v>
+      </c>
+      <c r="S26" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="T26" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="U26" s="30" t="s">
         <v>465</v>
-      </c>
-      <c r="S26" s="28" t="s">
-        <v>405</v>
-      </c>
-      <c r="T26" s="29" t="s">
-        <v>465</v>
-      </c>
-      <c r="U26" s="30" t="s">
-        <v>466</v>
       </c>
       <c r="V26" s="24">
         <v>1</v>
@@ -12075,7 +12072,7 @@
     </row>
     <row r="27" ht="14.25" spans="1:22">
       <c r="A27" s="21" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B27" s="22">
         <v>3</v>
@@ -12091,7 +12088,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H27" s="22"/>
       <c r="I27" s="22"/>
@@ -12116,16 +12113,16 @@
       </c>
       <c r="Q27" s="22"/>
       <c r="R27" s="27" t="s">
+        <v>468</v>
+      </c>
+      <c r="S27" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="T27" s="29" t="s">
+        <v>468</v>
+      </c>
+      <c r="U27" s="30" t="s">
         <v>469</v>
-      </c>
-      <c r="S27" s="28" t="s">
-        <v>405</v>
-      </c>
-      <c r="T27" s="29" t="s">
-        <v>469</v>
-      </c>
-      <c r="U27" s="30" t="s">
-        <v>470</v>
       </c>
       <c r="V27" s="22">
         <v>1</v>
@@ -12133,7 +12130,7 @@
     </row>
     <row r="28" ht="14.25" spans="1:22">
       <c r="A28" s="21" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B28" s="24">
         <v>3</v>
@@ -12149,7 +12146,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="23" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H28" s="24"/>
       <c r="I28" s="24"/>
@@ -12174,16 +12171,16 @@
       </c>
       <c r="Q28" s="24"/>
       <c r="R28" s="27" t="s">
+        <v>472</v>
+      </c>
+      <c r="S28" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="T28" s="29" t="s">
+        <v>472</v>
+      </c>
+      <c r="U28" s="30" t="s">
         <v>473</v>
-      </c>
-      <c r="S28" s="28" t="s">
-        <v>405</v>
-      </c>
-      <c r="T28" s="29" t="s">
-        <v>473</v>
-      </c>
-      <c r="U28" s="30" t="s">
-        <v>474</v>
       </c>
       <c r="V28" s="24">
         <v>1</v>
@@ -12191,7 +12188,7 @@
     </row>
     <row r="29" spans="1:22">
       <c r="A29" s="21" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B29" s="22">
         <v>3</v>
@@ -12207,7 +12204,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="23" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H29" s="24"/>
       <c r="I29" s="24"/>
@@ -12232,16 +12229,16 @@
       </c>
       <c r="Q29" s="24"/>
       <c r="R29" s="27" t="s">
+        <v>476</v>
+      </c>
+      <c r="S29" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="T29" s="29" t="s">
+        <v>476</v>
+      </c>
+      <c r="U29" s="30" t="s">
         <v>477</v>
-      </c>
-      <c r="S29" s="28" t="s">
-        <v>405</v>
-      </c>
-      <c r="T29" s="29" t="s">
-        <v>477</v>
-      </c>
-      <c r="U29" s="30" t="s">
-        <v>478</v>
       </c>
       <c r="V29" s="24">
         <v>1</v>
@@ -12979,7 +12976,7 @@
     </row>
     <row r="11" s="12" customFormat="1" spans="1:22">
       <c r="A11" s="13" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B11" s="14">
         <v>2</v>
@@ -12995,7 +12992,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
@@ -13021,13 +13018,13 @@
       <c r="Q11" s="14"/>
       <c r="R11" s="14"/>
       <c r="S11" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T11" s="13" t="s">
+        <v>480</v>
+      </c>
+      <c r="U11" s="13" t="s">
         <v>481</v>
-      </c>
-      <c r="U11" s="13" t="s">
-        <v>482</v>
       </c>
       <c r="V11" s="14">
         <v>0</v>
@@ -13035,7 +13032,7 @@
     </row>
     <row r="12" s="12" customFormat="1" spans="1:22">
       <c r="A12" s="13" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B12" s="15">
         <v>2</v>
@@ -13051,7 +13048,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -13077,13 +13074,13 @@
       <c r="Q12" s="14"/>
       <c r="R12" s="15"/>
       <c r="S12" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T12" s="13" t="s">
+        <v>480</v>
+      </c>
+      <c r="U12" s="13" t="s">
         <v>481</v>
-      </c>
-      <c r="U12" s="13" t="s">
-        <v>482</v>
       </c>
       <c r="V12" s="14">
         <v>0</v>
@@ -13091,7 +13088,7 @@
     </row>
     <row r="13" s="12" customFormat="1" spans="1:22">
       <c r="A13" s="13" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B13" s="14">
         <v>2</v>
@@ -13107,7 +13104,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -13133,13 +13130,13 @@
       <c r="Q13" s="14"/>
       <c r="R13" s="14"/>
       <c r="S13" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T13" s="13" t="s">
+        <v>480</v>
+      </c>
+      <c r="U13" s="13" t="s">
         <v>481</v>
-      </c>
-      <c r="U13" s="13" t="s">
-        <v>482</v>
       </c>
       <c r="V13" s="14">
         <v>0</v>
@@ -13147,7 +13144,7 @@
     </row>
     <row r="14" s="12" customFormat="1" spans="1:22">
       <c r="A14" s="13" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B14" s="15">
         <v>2</v>
@@ -13163,7 +13160,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -13189,13 +13186,13 @@
       <c r="Q14" s="14"/>
       <c r="R14" s="15"/>
       <c r="S14" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T14" s="13" t="s">
+        <v>480</v>
+      </c>
+      <c r="U14" s="13" t="s">
         <v>481</v>
-      </c>
-      <c r="U14" s="13" t="s">
-        <v>482</v>
       </c>
       <c r="V14" s="14">
         <v>0</v>
@@ -13203,7 +13200,7 @@
     </row>
     <row r="15" s="12" customFormat="1" spans="1:22">
       <c r="A15" s="13" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B15" s="14">
         <v>2</v>
@@ -13219,7 +13216,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -13245,13 +13242,13 @@
       <c r="Q15" s="14"/>
       <c r="R15" s="14"/>
       <c r="S15" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T15" s="13" t="s">
+        <v>480</v>
+      </c>
+      <c r="U15" s="13" t="s">
         <v>481</v>
-      </c>
-      <c r="U15" s="13" t="s">
-        <v>482</v>
       </c>
       <c r="V15" s="14">
         <v>0</v>
@@ -13259,7 +13256,7 @@
     </row>
     <row r="16" s="12" customFormat="1" spans="1:22">
       <c r="A16" s="13" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B16" s="15">
         <v>2</v>
@@ -13275,7 +13272,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
@@ -13301,13 +13298,13 @@
       <c r="Q16" s="14"/>
       <c r="R16" s="15"/>
       <c r="S16" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T16" s="13" t="s">
+        <v>480</v>
+      </c>
+      <c r="U16" s="13" t="s">
         <v>481</v>
-      </c>
-      <c r="U16" s="13" t="s">
-        <v>482</v>
       </c>
       <c r="V16" s="14">
         <v>0</v>
@@ -13315,7 +13312,7 @@
     </row>
     <row r="17" s="12" customFormat="1" spans="1:22">
       <c r="A17" s="13" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B17" s="14">
         <v>2</v>
@@ -13331,7 +13328,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
@@ -13357,13 +13354,13 @@
       <c r="Q17" s="14"/>
       <c r="R17" s="14"/>
       <c r="S17" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T17" s="13" t="s">
+        <v>480</v>
+      </c>
+      <c r="U17" s="13" t="s">
         <v>481</v>
-      </c>
-      <c r="U17" s="13" t="s">
-        <v>482</v>
       </c>
       <c r="V17" s="14">
         <v>0</v>
@@ -13371,7 +13368,7 @@
     </row>
     <row r="18" s="12" customFormat="1" spans="1:22">
       <c r="A18" s="13" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B18" s="15">
         <v>2</v>
@@ -13387,7 +13384,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -13413,13 +13410,13 @@
       <c r="Q18" s="14"/>
       <c r="R18" s="15"/>
       <c r="S18" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T18" s="13" t="s">
+        <v>480</v>
+      </c>
+      <c r="U18" s="13" t="s">
         <v>481</v>
-      </c>
-      <c r="U18" s="13" t="s">
-        <v>482</v>
       </c>
       <c r="V18" s="14">
         <v>0</v>
@@ -13427,7 +13424,7 @@
     </row>
     <row r="19" s="12" customFormat="1" spans="1:22">
       <c r="A19" s="13" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B19" s="14">
         <v>2</v>
@@ -13443,7 +13440,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
@@ -13469,13 +13466,13 @@
       <c r="Q19" s="14"/>
       <c r="R19" s="14"/>
       <c r="S19" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T19" s="13" t="s">
+        <v>480</v>
+      </c>
+      <c r="U19" s="13" t="s">
         <v>481</v>
-      </c>
-      <c r="U19" s="13" t="s">
-        <v>482</v>
       </c>
       <c r="V19" s="14">
         <v>0</v>
@@ -13483,7 +13480,7 @@
     </row>
     <row r="20" s="12" customFormat="1" spans="1:22">
       <c r="A20" s="13" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B20" s="15">
         <v>2</v>
@@ -13499,7 +13496,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -13525,13 +13522,13 @@
       <c r="Q20" s="14"/>
       <c r="R20" s="15"/>
       <c r="S20" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T20" s="13" t="s">
+        <v>480</v>
+      </c>
+      <c r="U20" s="13" t="s">
         <v>481</v>
-      </c>
-      <c r="U20" s="13" t="s">
-        <v>482</v>
       </c>
       <c r="V20" s="14">
         <v>0</v>
@@ -13539,7 +13536,7 @@
     </row>
     <row r="21" s="12" customFormat="1" spans="1:22">
       <c r="A21" s="13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B21" s="14">
         <v>2</v>
@@ -13555,7 +13552,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
@@ -13581,13 +13578,13 @@
       <c r="Q21" s="14"/>
       <c r="R21" s="14"/>
       <c r="S21" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T21" s="13" t="s">
+        <v>493</v>
+      </c>
+      <c r="U21" s="13" t="s">
         <v>494</v>
-      </c>
-      <c r="U21" s="13" t="s">
-        <v>495</v>
       </c>
       <c r="V21" s="14">
         <v>0</v>
@@ -13595,7 +13592,7 @@
     </row>
     <row r="22" s="12" customFormat="1" spans="1:22">
       <c r="A22" s="13" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B22" s="15">
         <v>2</v>
@@ -13611,7 +13608,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
@@ -13637,13 +13634,13 @@
       <c r="Q22" s="14"/>
       <c r="R22" s="15"/>
       <c r="S22" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T22" s="13" t="s">
+        <v>493</v>
+      </c>
+      <c r="U22" s="13" t="s">
         <v>494</v>
-      </c>
-      <c r="U22" s="13" t="s">
-        <v>495</v>
       </c>
       <c r="V22" s="14">
         <v>0</v>
@@ -13651,7 +13648,7 @@
     </row>
     <row r="23" s="12" customFormat="1" spans="1:22">
       <c r="A23" s="13" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B23" s="14">
         <v>2</v>
@@ -13667,7 +13664,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
@@ -13693,13 +13690,13 @@
       <c r="Q23" s="14"/>
       <c r="R23" s="14"/>
       <c r="S23" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T23" s="13" t="s">
+        <v>493</v>
+      </c>
+      <c r="U23" s="13" t="s">
         <v>494</v>
-      </c>
-      <c r="U23" s="13" t="s">
-        <v>495</v>
       </c>
       <c r="V23" s="14">
         <v>0</v>
@@ -13707,7 +13704,7 @@
     </row>
     <row r="24" s="12" customFormat="1" spans="1:22">
       <c r="A24" s="13" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B24" s="15">
         <v>2</v>
@@ -13723,7 +13720,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
@@ -13749,13 +13746,13 @@
       <c r="Q24" s="14"/>
       <c r="R24" s="15"/>
       <c r="S24" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T24" s="13" t="s">
+        <v>493</v>
+      </c>
+      <c r="U24" s="13" t="s">
         <v>494</v>
-      </c>
-      <c r="U24" s="13" t="s">
-        <v>495</v>
       </c>
       <c r="V24" s="14">
         <v>0</v>
@@ -13763,7 +13760,7 @@
     </row>
     <row r="25" s="12" customFormat="1" spans="1:22">
       <c r="A25" s="16" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B25" s="14">
         <v>2</v>
@@ -13779,7 +13776,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H25" s="17"/>
       <c r="I25" s="17"/>
@@ -13805,13 +13802,13 @@
       <c r="Q25" s="17"/>
       <c r="R25" s="17"/>
       <c r="S25" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T25" s="13" t="s">
+        <v>493</v>
+      </c>
+      <c r="U25" s="13" t="s">
         <v>494</v>
-      </c>
-      <c r="U25" s="13" t="s">
-        <v>495</v>
       </c>
       <c r="V25" s="17">
         <v>0</v>
@@ -13819,7 +13816,7 @@
     </row>
     <row r="26" s="12" customFormat="1" spans="1:22">
       <c r="A26" s="16" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B26" s="15">
         <v>2</v>
@@ -13835,7 +13832,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H26" s="17"/>
       <c r="I26" s="17"/>
@@ -13861,13 +13858,13 @@
       <c r="Q26" s="17"/>
       <c r="R26" s="17"/>
       <c r="S26" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T26" s="13" t="s">
+        <v>493</v>
+      </c>
+      <c r="U26" s="13" t="s">
         <v>494</v>
-      </c>
-      <c r="U26" s="13" t="s">
-        <v>495</v>
       </c>
       <c r="V26" s="17">
         <v>0</v>
@@ -14605,7 +14602,7 @@
     </row>
     <row r="11" s="7" customFormat="1" spans="1:22">
       <c r="A11" s="9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B11" s="9">
         <v>1</v>
@@ -14621,7 +14618,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -14647,13 +14644,13 @@
       <c r="Q11" s="9"/>
       <c r="R11" s="9"/>
       <c r="S11" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T11" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="U11" s="9" t="s">
         <v>503</v>
-      </c>
-      <c r="U11" s="9" t="s">
-        <v>504</v>
       </c>
       <c r="V11" s="9">
         <v>0</v>
@@ -14661,7 +14658,7 @@
     </row>
     <row r="12" s="7" customFormat="1" spans="1:22">
       <c r="A12" s="9" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B12" s="9">
         <v>1</v>
@@ -14677,7 +14674,7 @@
         <v>2</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
@@ -14703,13 +14700,13 @@
       <c r="Q12" s="9"/>
       <c r="R12" s="9"/>
       <c r="S12" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T12" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="U12" s="9" t="s">
         <v>503</v>
-      </c>
-      <c r="U12" s="9" t="s">
-        <v>504</v>
       </c>
       <c r="V12" s="9">
         <v>0</v>
@@ -14717,7 +14714,7 @@
     </row>
     <row r="13" s="7" customFormat="1" spans="1:22">
       <c r="A13" s="9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B13" s="9">
         <v>1</v>
@@ -14733,7 +14730,7 @@
         <v>3</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
@@ -14759,13 +14756,13 @@
       <c r="Q13" s="9"/>
       <c r="R13" s="9"/>
       <c r="S13" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T13" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="U13" s="9" t="s">
         <v>503</v>
-      </c>
-      <c r="U13" s="9" t="s">
-        <v>504</v>
       </c>
       <c r="V13" s="9">
         <v>0</v>
@@ -14773,7 +14770,7 @@
     </row>
     <row r="14" s="7" customFormat="1" spans="1:22">
       <c r="A14" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B14" s="9">
         <v>1</v>
@@ -14789,7 +14786,7 @@
         <v>4</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
@@ -14815,13 +14812,13 @@
       <c r="Q14" s="9"/>
       <c r="R14" s="9"/>
       <c r="S14" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T14" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="U14" s="9" t="s">
         <v>503</v>
-      </c>
-      <c r="U14" s="9" t="s">
-        <v>504</v>
       </c>
       <c r="V14" s="9">
         <v>0</v>
@@ -14829,7 +14826,7 @@
     </row>
     <row r="15" s="7" customFormat="1" spans="1:22">
       <c r="A15" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B15" s="9">
         <v>1</v>
@@ -14845,7 +14842,7 @@
         <v>5</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
@@ -14871,13 +14868,13 @@
       <c r="Q15" s="9"/>
       <c r="R15" s="9"/>
       <c r="S15" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T15" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="U15" s="9" t="s">
         <v>503</v>
-      </c>
-      <c r="U15" s="9" t="s">
-        <v>504</v>
       </c>
       <c r="V15" s="9">
         <v>0</v>
@@ -14885,7 +14882,7 @@
     </row>
     <row r="16" s="7" customFormat="1" spans="1:22">
       <c r="A16" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B16" s="9">
         <v>1</v>
@@ -14901,7 +14898,7 @@
         <v>6</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
@@ -14927,13 +14924,13 @@
       <c r="Q16" s="9"/>
       <c r="R16" s="9"/>
       <c r="S16" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T16" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="U16" s="9" t="s">
         <v>503</v>
-      </c>
-      <c r="U16" s="9" t="s">
-        <v>504</v>
       </c>
       <c r="V16" s="9">
         <v>0</v>
@@ -14941,7 +14938,7 @@
     </row>
     <row r="17" s="7" customFormat="1" spans="1:22">
       <c r="A17" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B17" s="9">
         <v>1</v>
@@ -14957,7 +14954,7 @@
         <v>7</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
@@ -14983,13 +14980,13 @@
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
       <c r="S17" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T17" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="U17" s="9" t="s">
         <v>503</v>
-      </c>
-      <c r="U17" s="9" t="s">
-        <v>504</v>
       </c>
       <c r="V17" s="9">
         <v>0</v>
@@ -14997,7 +14994,7 @@
     </row>
     <row r="18" s="7" customFormat="1" spans="1:22">
       <c r="A18" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B18" s="9">
         <v>1</v>
@@ -15013,7 +15010,7 @@
         <v>8</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
@@ -15039,13 +15036,13 @@
       <c r="Q18" s="9"/>
       <c r="R18" s="9"/>
       <c r="S18" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T18" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="U18" s="9" t="s">
         <v>503</v>
-      </c>
-      <c r="U18" s="9" t="s">
-        <v>504</v>
       </c>
       <c r="V18" s="9">
         <v>0</v>
@@ -15053,7 +15050,7 @@
     </row>
     <row r="19" s="7" customFormat="1" spans="1:22">
       <c r="A19" s="9" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B19" s="9">
         <v>1</v>
@@ -15069,7 +15066,7 @@
         <v>9</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
@@ -15095,13 +15092,13 @@
       <c r="Q19" s="9"/>
       <c r="R19" s="9"/>
       <c r="S19" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T19" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="U19" s="9" t="s">
         <v>503</v>
-      </c>
-      <c r="U19" s="9" t="s">
-        <v>504</v>
       </c>
       <c r="V19" s="9">
         <v>0</v>
@@ -15109,7 +15106,7 @@
     </row>
     <row r="20" s="7" customFormat="1" spans="1:22">
       <c r="A20" s="9" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B20" s="9">
         <v>1</v>
@@ -15125,7 +15122,7 @@
         <v>10</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
@@ -15151,13 +15148,13 @@
       <c r="Q20" s="9"/>
       <c r="R20" s="9"/>
       <c r="S20" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T20" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="U20" s="9" t="s">
         <v>503</v>
-      </c>
-      <c r="U20" s="9" t="s">
-        <v>504</v>
       </c>
       <c r="V20" s="9">
         <v>0</v>
@@ -15165,7 +15162,7 @@
     </row>
     <row r="21" s="7" customFormat="1" spans="1:22">
       <c r="A21" s="9" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B21" s="9">
         <v>1</v>
@@ -15181,7 +15178,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
@@ -15207,13 +15204,13 @@
       <c r="Q21" s="9"/>
       <c r="R21" s="9"/>
       <c r="S21" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T21" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="U21" s="9" t="s">
         <v>516</v>
-      </c>
-      <c r="U21" s="9" t="s">
-        <v>517</v>
       </c>
       <c r="V21" s="9">
         <v>0</v>
@@ -15221,7 +15218,7 @@
     </row>
     <row r="22" s="7" customFormat="1" spans="1:22">
       <c r="A22" s="9" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B22" s="9">
         <v>1</v>
@@ -15237,7 +15234,7 @@
         <v>2</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
@@ -15263,13 +15260,13 @@
       <c r="Q22" s="9"/>
       <c r="R22" s="9"/>
       <c r="S22" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T22" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="U22" s="9" t="s">
         <v>516</v>
-      </c>
-      <c r="U22" s="9" t="s">
-        <v>517</v>
       </c>
       <c r="V22" s="9">
         <v>0</v>
@@ -15277,7 +15274,7 @@
     </row>
     <row r="23" s="7" customFormat="1" spans="1:22">
       <c r="A23" s="9" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B23" s="9">
         <v>1</v>
@@ -15293,7 +15290,7 @@
         <v>3</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
@@ -15319,13 +15316,13 @@
       <c r="Q23" s="9"/>
       <c r="R23" s="9"/>
       <c r="S23" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T23" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="U23" s="9" t="s">
         <v>516</v>
-      </c>
-      <c r="U23" s="9" t="s">
-        <v>517</v>
       </c>
       <c r="V23" s="9">
         <v>0</v>
@@ -15333,7 +15330,7 @@
     </row>
     <row r="24" s="7" customFormat="1" spans="1:22">
       <c r="A24" s="9" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B24" s="9">
         <v>1</v>
@@ -15349,7 +15346,7 @@
         <v>4</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
@@ -15375,13 +15372,13 @@
       <c r="Q24" s="9"/>
       <c r="R24" s="9"/>
       <c r="S24" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T24" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="U24" s="9" t="s">
         <v>516</v>
-      </c>
-      <c r="U24" s="9" t="s">
-        <v>517</v>
       </c>
       <c r="V24" s="9">
         <v>0</v>
@@ -15389,7 +15386,7 @@
     </row>
     <row r="25" s="7" customFormat="1" spans="1:22">
       <c r="A25" s="9" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B25" s="9">
         <v>1</v>
@@ -15405,7 +15402,7 @@
         <v>5</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
@@ -15431,13 +15428,13 @@
       <c r="Q25" s="9"/>
       <c r="R25" s="9"/>
       <c r="S25" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T25" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="U25" s="9" t="s">
         <v>516</v>
-      </c>
-      <c r="U25" s="9" t="s">
-        <v>517</v>
       </c>
       <c r="V25" s="9">
         <v>0</v>
@@ -15445,7 +15442,7 @@
     </row>
     <row r="26" s="7" customFormat="1" spans="1:22">
       <c r="A26" s="9" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B26" s="9">
         <v>1</v>
@@ -15461,7 +15458,7 @@
         <v>6</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
@@ -15487,13 +15484,13 @@
       <c r="Q26" s="9"/>
       <c r="R26" s="9"/>
       <c r="S26" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T26" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="U26" s="9" t="s">
         <v>516</v>
-      </c>
-      <c r="U26" s="9" t="s">
-        <v>517</v>
       </c>
       <c r="V26" s="9">
         <v>0</v>
@@ -15501,7 +15498,7 @@
     </row>
     <row r="27" s="7" customFormat="1" spans="1:22">
       <c r="A27" s="9" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B27" s="9">
         <v>1</v>
@@ -15517,7 +15514,7 @@
         <v>7</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
@@ -15543,13 +15540,13 @@
       <c r="Q27" s="9"/>
       <c r="R27" s="9"/>
       <c r="S27" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T27" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="U27" s="9" t="s">
         <v>516</v>
-      </c>
-      <c r="U27" s="9" t="s">
-        <v>517</v>
       </c>
       <c r="V27" s="9">
         <v>0</v>
@@ -15557,7 +15554,7 @@
     </row>
     <row r="28" s="7" customFormat="1" spans="1:22">
       <c r="A28" s="9" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B28" s="9">
         <v>1</v>
@@ -15573,7 +15570,7 @@
         <v>8</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
@@ -15599,13 +15596,13 @@
       <c r="Q28" s="9"/>
       <c r="R28" s="9"/>
       <c r="S28" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T28" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="U28" s="9" t="s">
         <v>516</v>
-      </c>
-      <c r="U28" s="9" t="s">
-        <v>517</v>
       </c>
       <c r="V28" s="9">
         <v>0</v>
@@ -15613,7 +15610,7 @@
     </row>
     <row r="29" s="7" customFormat="1" spans="1:22">
       <c r="A29" s="9" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B29" s="9">
         <v>1</v>
@@ -15629,7 +15626,7 @@
         <v>9</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
@@ -15655,13 +15652,13 @@
       <c r="Q29" s="9"/>
       <c r="R29" s="9"/>
       <c r="S29" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T29" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="U29" s="9" t="s">
         <v>516</v>
-      </c>
-      <c r="U29" s="9" t="s">
-        <v>517</v>
       </c>
       <c r="V29" s="9">
         <v>0</v>
@@ -15669,7 +15666,7 @@
     </row>
     <row r="30" s="7" customFormat="1" spans="1:22">
       <c r="A30" s="9" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B30" s="9">
         <v>1</v>
@@ -15685,7 +15682,7 @@
         <v>10</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
@@ -15711,13 +15708,13 @@
       <c r="Q30" s="9"/>
       <c r="R30" s="9"/>
       <c r="S30" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T30" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="U30" s="9" t="s">
         <v>516</v>
-      </c>
-      <c r="U30" s="9" t="s">
-        <v>517</v>
       </c>
       <c r="V30" s="9">
         <v>0</v>
@@ -15725,7 +15722,7 @@
     </row>
     <row r="31" s="7" customFormat="1" spans="1:22">
       <c r="A31" s="9" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B31" s="9">
         <v>1</v>
@@ -15741,7 +15738,7 @@
         <v>1</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
@@ -15767,13 +15764,13 @@
       <c r="Q31" s="9"/>
       <c r="R31" s="9"/>
       <c r="S31" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T31" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="U31" s="9" t="s">
         <v>529</v>
-      </c>
-      <c r="U31" s="9" t="s">
-        <v>530</v>
       </c>
       <c r="V31" s="9">
         <v>0</v>
@@ -15781,7 +15778,7 @@
     </row>
     <row r="32" s="7" customFormat="1" spans="1:22">
       <c r="A32" s="9" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B32" s="9">
         <v>1</v>
@@ -15797,7 +15794,7 @@
         <v>2</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
@@ -15823,13 +15820,13 @@
       <c r="Q32" s="9"/>
       <c r="R32" s="9"/>
       <c r="S32" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T32" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="U32" s="9" t="s">
         <v>529</v>
-      </c>
-      <c r="U32" s="9" t="s">
-        <v>530</v>
       </c>
       <c r="V32" s="9">
         <v>0</v>
@@ -15837,7 +15834,7 @@
     </row>
     <row r="33" s="7" customFormat="1" spans="1:22">
       <c r="A33" s="9" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B33" s="9">
         <v>1</v>
@@ -15853,7 +15850,7 @@
         <v>3</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
@@ -15879,13 +15876,13 @@
       <c r="Q33" s="9"/>
       <c r="R33" s="9"/>
       <c r="S33" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T33" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="U33" s="9" t="s">
         <v>529</v>
-      </c>
-      <c r="U33" s="9" t="s">
-        <v>530</v>
       </c>
       <c r="V33" s="9">
         <v>0</v>
@@ -15893,7 +15890,7 @@
     </row>
     <row r="34" s="7" customFormat="1" spans="1:22">
       <c r="A34" s="9" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B34" s="9">
         <v>1</v>
@@ -15909,7 +15906,7 @@
         <v>4</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
@@ -15935,13 +15932,13 @@
       <c r="Q34" s="9"/>
       <c r="R34" s="9"/>
       <c r="S34" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T34" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="U34" s="9" t="s">
         <v>529</v>
-      </c>
-      <c r="U34" s="9" t="s">
-        <v>530</v>
       </c>
       <c r="V34" s="9">
         <v>0</v>
@@ -15949,7 +15946,7 @@
     </row>
     <row r="35" s="7" customFormat="1" spans="1:22">
       <c r="A35" s="9" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B35" s="9">
         <v>1</v>
@@ -15965,7 +15962,7 @@
         <v>5</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
@@ -15991,13 +15988,13 @@
       <c r="Q35" s="9"/>
       <c r="R35" s="9"/>
       <c r="S35" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T35" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="U35" s="9" t="s">
         <v>529</v>
-      </c>
-      <c r="U35" s="9" t="s">
-        <v>530</v>
       </c>
       <c r="V35" s="9">
         <v>0</v>
@@ -16005,7 +16002,7 @@
     </row>
     <row r="36" s="7" customFormat="1" spans="1:22">
       <c r="A36" s="9" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B36" s="9">
         <v>1</v>
@@ -16021,7 +16018,7 @@
         <v>6</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
@@ -16047,13 +16044,13 @@
       <c r="Q36" s="9"/>
       <c r="R36" s="9"/>
       <c r="S36" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T36" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="U36" s="9" t="s">
         <v>529</v>
-      </c>
-      <c r="U36" s="9" t="s">
-        <v>530</v>
       </c>
       <c r="V36" s="9">
         <v>0</v>
@@ -16061,7 +16058,7 @@
     </row>
     <row r="37" s="7" customFormat="1" spans="1:22">
       <c r="A37" s="9" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B37" s="9">
         <v>1</v>
@@ -16077,7 +16074,7 @@
         <v>7</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
@@ -16103,13 +16100,13 @@
       <c r="Q37" s="9"/>
       <c r="R37" s="9"/>
       <c r="S37" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T37" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="U37" s="9" t="s">
         <v>529</v>
-      </c>
-      <c r="U37" s="9" t="s">
-        <v>530</v>
       </c>
       <c r="V37" s="9">
         <v>0</v>
@@ -16117,7 +16114,7 @@
     </row>
     <row r="38" s="7" customFormat="1" spans="1:22">
       <c r="A38" s="9" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B38" s="9">
         <v>1</v>
@@ -16133,7 +16130,7 @@
         <v>8</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
@@ -16159,13 +16156,13 @@
       <c r="Q38" s="9"/>
       <c r="R38" s="9"/>
       <c r="S38" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T38" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="U38" s="9" t="s">
         <v>529</v>
-      </c>
-      <c r="U38" s="9" t="s">
-        <v>530</v>
       </c>
       <c r="V38" s="9">
         <v>0</v>
@@ -16173,7 +16170,7 @@
     </row>
     <row r="39" s="7" customFormat="1" spans="1:22">
       <c r="A39" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B39" s="9">
         <v>1</v>
@@ -16189,7 +16186,7 @@
         <v>9</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
@@ -16215,13 +16212,13 @@
       <c r="Q39" s="9"/>
       <c r="R39" s="9"/>
       <c r="S39" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T39" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="U39" s="9" t="s">
         <v>529</v>
-      </c>
-      <c r="U39" s="9" t="s">
-        <v>530</v>
       </c>
       <c r="V39" s="9">
         <v>0</v>
@@ -16229,7 +16226,7 @@
     </row>
     <row r="40" s="7" customFormat="1" spans="1:22">
       <c r="A40" s="9" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B40" s="9">
         <v>1</v>
@@ -16245,7 +16242,7 @@
         <v>10</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
@@ -16271,13 +16268,13 @@
       <c r="Q40" s="9"/>
       <c r="R40" s="9"/>
       <c r="S40" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T40" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="U40" s="9" t="s">
         <v>529</v>
-      </c>
-      <c r="U40" s="9" t="s">
-        <v>530</v>
       </c>
       <c r="V40" s="9">
         <v>0</v>
@@ -16285,7 +16282,7 @@
     </row>
     <row r="41" s="7" customFormat="1" spans="1:22">
       <c r="A41" s="9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B41" s="9">
         <v>1</v>
@@ -16301,7 +16298,7 @@
         <v>1</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
@@ -16327,13 +16324,13 @@
       <c r="Q41" s="9"/>
       <c r="R41" s="9"/>
       <c r="S41" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T41" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="U41" s="9" t="s">
         <v>542</v>
-      </c>
-      <c r="U41" s="9" t="s">
-        <v>543</v>
       </c>
       <c r="V41" s="9">
         <v>0</v>
@@ -16341,7 +16338,7 @@
     </row>
     <row r="42" s="7" customFormat="1" spans="1:22">
       <c r="A42" s="9" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B42" s="9">
         <v>1</v>
@@ -16357,7 +16354,7 @@
         <v>2</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
@@ -16383,13 +16380,13 @@
       <c r="Q42" s="9"/>
       <c r="R42" s="9"/>
       <c r="S42" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T42" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="U42" s="9" t="s">
         <v>542</v>
-      </c>
-      <c r="U42" s="9" t="s">
-        <v>543</v>
       </c>
       <c r="V42" s="9">
         <v>0</v>
@@ -16397,7 +16394,7 @@
     </row>
     <row r="43" s="7" customFormat="1" spans="1:22">
       <c r="A43" s="9" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B43" s="9">
         <v>1</v>
@@ -16413,7 +16410,7 @@
         <v>3</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
@@ -16439,13 +16436,13 @@
       <c r="Q43" s="9"/>
       <c r="R43" s="9"/>
       <c r="S43" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T43" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="U43" s="9" t="s">
         <v>542</v>
-      </c>
-      <c r="U43" s="9" t="s">
-        <v>543</v>
       </c>
       <c r="V43" s="9">
         <v>0</v>
@@ -16453,7 +16450,7 @@
     </row>
     <row r="44" s="7" customFormat="1" spans="1:22">
       <c r="A44" s="9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B44" s="9">
         <v>1</v>
@@ -16469,7 +16466,7 @@
         <v>4</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
@@ -16495,13 +16492,13 @@
       <c r="Q44" s="9"/>
       <c r="R44" s="9"/>
       <c r="S44" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T44" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="U44" s="9" t="s">
         <v>542</v>
-      </c>
-      <c r="U44" s="9" t="s">
-        <v>543</v>
       </c>
       <c r="V44" s="9">
         <v>0</v>
@@ -16509,7 +16506,7 @@
     </row>
     <row r="45" s="7" customFormat="1" spans="1:22">
       <c r="A45" s="9" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B45" s="9">
         <v>1</v>
@@ -16525,7 +16522,7 @@
         <v>5</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
@@ -16551,13 +16548,13 @@
       <c r="Q45" s="9"/>
       <c r="R45" s="9"/>
       <c r="S45" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T45" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="U45" s="9" t="s">
         <v>542</v>
-      </c>
-      <c r="U45" s="9" t="s">
-        <v>543</v>
       </c>
       <c r="V45" s="9">
         <v>0</v>
@@ -16565,7 +16562,7 @@
     </row>
     <row r="46" s="7" customFormat="1" spans="1:22">
       <c r="A46" s="9" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B46" s="9">
         <v>1</v>
@@ -16581,7 +16578,7 @@
         <v>6</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
@@ -16607,13 +16604,13 @@
       <c r="Q46" s="9"/>
       <c r="R46" s="9"/>
       <c r="S46" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T46" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="U46" s="9" t="s">
         <v>542</v>
-      </c>
-      <c r="U46" s="9" t="s">
-        <v>543</v>
       </c>
       <c r="V46" s="9">
         <v>0</v>
@@ -16621,7 +16618,7 @@
     </row>
     <row r="47" s="7" customFormat="1" spans="1:22">
       <c r="A47" s="9" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B47" s="9">
         <v>1</v>
@@ -16637,7 +16634,7 @@
         <v>7</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H47" s="9"/>
       <c r="I47" s="9"/>
@@ -16663,13 +16660,13 @@
       <c r="Q47" s="9"/>
       <c r="R47" s="9"/>
       <c r="S47" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T47" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="U47" s="9" t="s">
         <v>542</v>
-      </c>
-      <c r="U47" s="9" t="s">
-        <v>543</v>
       </c>
       <c r="V47" s="9">
         <v>0</v>
@@ -16677,7 +16674,7 @@
     </row>
     <row r="48" s="7" customFormat="1" spans="1:22">
       <c r="A48" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B48" s="9">
         <v>1</v>
@@ -16693,7 +16690,7 @@
         <v>8</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
@@ -16719,13 +16716,13 @@
       <c r="Q48" s="9"/>
       <c r="R48" s="9"/>
       <c r="S48" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T48" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="U48" s="9" t="s">
         <v>542</v>
-      </c>
-      <c r="U48" s="9" t="s">
-        <v>543</v>
       </c>
       <c r="V48" s="9">
         <v>0</v>
@@ -16733,7 +16730,7 @@
     </row>
     <row r="49" s="7" customFormat="1" spans="1:22">
       <c r="A49" s="9" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B49" s="9">
         <v>1</v>
@@ -16749,7 +16746,7 @@
         <v>9</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>
@@ -16775,13 +16772,13 @@
       <c r="Q49" s="9"/>
       <c r="R49" s="9"/>
       <c r="S49" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T49" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="U49" s="9" t="s">
         <v>542</v>
-      </c>
-      <c r="U49" s="9" t="s">
-        <v>543</v>
       </c>
       <c r="V49" s="9">
         <v>0</v>
@@ -16789,7 +16786,7 @@
     </row>
     <row r="50" s="7" customFormat="1" spans="1:22">
       <c r="A50" s="9" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B50" s="9">
         <v>1</v>
@@ -16805,7 +16802,7 @@
         <v>10</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
@@ -16831,13 +16828,13 @@
       <c r="Q50" s="9"/>
       <c r="R50" s="9"/>
       <c r="S50" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T50" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="U50" s="9" t="s">
         <v>542</v>
-      </c>
-      <c r="U50" s="9" t="s">
-        <v>543</v>
       </c>
       <c r="V50" s="9">
         <v>0</v>
@@ -16845,7 +16842,7 @@
     </row>
     <row r="51" s="8" customFormat="1" spans="1:22">
       <c r="A51" s="10" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B51" s="10">
         <v>1</v>
@@ -16861,7 +16858,7 @@
         <v>1</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H51" s="10"/>
       <c r="I51" s="10"/>
@@ -16887,13 +16884,13 @@
       <c r="Q51" s="10"/>
       <c r="R51" s="9"/>
       <c r="S51" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T51" s="10" t="s">
+        <v>554</v>
+      </c>
+      <c r="U51" s="10" t="s">
         <v>555</v>
-      </c>
-      <c r="U51" s="10" t="s">
-        <v>556</v>
       </c>
       <c r="V51" s="10">
         <v>0</v>
@@ -16901,7 +16898,7 @@
     </row>
     <row r="52" s="8" customFormat="1" spans="1:22">
       <c r="A52" s="10" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B52" s="10">
         <v>1</v>
@@ -16917,7 +16914,7 @@
         <v>2</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
@@ -16943,13 +16940,13 @@
       <c r="Q52" s="10"/>
       <c r="R52" s="9"/>
       <c r="S52" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T52" s="10" t="s">
+        <v>554</v>
+      </c>
+      <c r="U52" s="10" t="s">
         <v>555</v>
-      </c>
-      <c r="U52" s="10" t="s">
-        <v>556</v>
       </c>
       <c r="V52" s="10">
         <v>0</v>
@@ -16957,7 +16954,7 @@
     </row>
     <row r="53" s="8" customFormat="1" spans="1:22">
       <c r="A53" s="10" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B53" s="10">
         <v>1</v>
@@ -16973,7 +16970,7 @@
         <v>3</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H53" s="10"/>
       <c r="I53" s="10"/>
@@ -16999,13 +16996,13 @@
       <c r="Q53" s="10"/>
       <c r="R53" s="9"/>
       <c r="S53" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T53" s="10" t="s">
+        <v>554</v>
+      </c>
+      <c r="U53" s="10" t="s">
         <v>555</v>
-      </c>
-      <c r="U53" s="10" t="s">
-        <v>556</v>
       </c>
       <c r="V53" s="10">
         <v>0</v>
@@ -17013,7 +17010,7 @@
     </row>
     <row r="54" s="8" customFormat="1" spans="1:22">
       <c r="A54" s="10" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B54" s="10">
         <v>1</v>
@@ -17029,7 +17026,7 @@
         <v>4</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H54" s="10"/>
       <c r="I54" s="10"/>
@@ -17055,13 +17052,13 @@
       <c r="Q54" s="10"/>
       <c r="R54" s="9"/>
       <c r="S54" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T54" s="10" t="s">
+        <v>554</v>
+      </c>
+      <c r="U54" s="10" t="s">
         <v>555</v>
-      </c>
-      <c r="U54" s="10" t="s">
-        <v>556</v>
       </c>
       <c r="V54" s="10">
         <v>0</v>
@@ -17069,7 +17066,7 @@
     </row>
     <row r="55" s="8" customFormat="1" spans="1:22">
       <c r="A55" s="10" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B55" s="10">
         <v>1</v>
@@ -17085,7 +17082,7 @@
         <v>5</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H55" s="10"/>
       <c r="I55" s="10"/>
@@ -17111,13 +17108,13 @@
       <c r="Q55" s="10"/>
       <c r="R55" s="9"/>
       <c r="S55" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T55" s="10" t="s">
+        <v>554</v>
+      </c>
+      <c r="U55" s="10" t="s">
         <v>555</v>
-      </c>
-      <c r="U55" s="10" t="s">
-        <v>556</v>
       </c>
       <c r="V55" s="10">
         <v>0</v>
@@ -17125,7 +17122,7 @@
     </row>
     <row r="56" s="8" customFormat="1" spans="1:22">
       <c r="A56" s="10" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B56" s="10">
         <v>1</v>
@@ -17141,7 +17138,7 @@
         <v>6</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H56" s="10"/>
       <c r="I56" s="10"/>
@@ -17167,13 +17164,13 @@
       <c r="Q56" s="10"/>
       <c r="R56" s="9"/>
       <c r="S56" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T56" s="10" t="s">
+        <v>554</v>
+      </c>
+      <c r="U56" s="10" t="s">
         <v>555</v>
-      </c>
-      <c r="U56" s="10" t="s">
-        <v>556</v>
       </c>
       <c r="V56" s="10">
         <v>0</v>
@@ -17181,7 +17178,7 @@
     </row>
     <row r="57" s="8" customFormat="1" spans="1:22">
       <c r="A57" s="10" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B57" s="10">
         <v>1</v>
@@ -17197,7 +17194,7 @@
         <v>7</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H57" s="10"/>
       <c r="I57" s="10"/>
@@ -17223,13 +17220,13 @@
       <c r="Q57" s="10"/>
       <c r="R57" s="9"/>
       <c r="S57" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T57" s="10" t="s">
+        <v>554</v>
+      </c>
+      <c r="U57" s="10" t="s">
         <v>555</v>
-      </c>
-      <c r="U57" s="10" t="s">
-        <v>556</v>
       </c>
       <c r="V57" s="10">
         <v>0</v>
@@ -17237,7 +17234,7 @@
     </row>
     <row r="58" s="8" customFormat="1" spans="1:22">
       <c r="A58" s="10" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B58" s="10">
         <v>1</v>
@@ -17253,7 +17250,7 @@
         <v>8</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H58" s="10"/>
       <c r="I58" s="10"/>
@@ -17279,13 +17276,13 @@
       <c r="Q58" s="10"/>
       <c r="R58" s="9"/>
       <c r="S58" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T58" s="10" t="s">
+        <v>554</v>
+      </c>
+      <c r="U58" s="10" t="s">
         <v>555</v>
-      </c>
-      <c r="U58" s="10" t="s">
-        <v>556</v>
       </c>
       <c r="V58" s="10">
         <v>0</v>
@@ -17293,7 +17290,7 @@
     </row>
     <row r="59" s="8" customFormat="1" spans="1:22">
       <c r="A59" s="10" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B59" s="10">
         <v>1</v>
@@ -17309,7 +17306,7 @@
         <v>9</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H59" s="10"/>
       <c r="I59" s="10"/>
@@ -17335,13 +17332,13 @@
       <c r="Q59" s="10"/>
       <c r="R59" s="9"/>
       <c r="S59" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T59" s="10" t="s">
+        <v>554</v>
+      </c>
+      <c r="U59" s="10" t="s">
         <v>555</v>
-      </c>
-      <c r="U59" s="10" t="s">
-        <v>556</v>
       </c>
       <c r="V59" s="10">
         <v>0</v>
@@ -17349,7 +17346,7 @@
     </row>
     <row r="60" s="8" customFormat="1" spans="1:22">
       <c r="A60" s="10" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B60" s="10">
         <v>1</v>
@@ -17365,7 +17362,7 @@
         <v>10</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H60" s="10"/>
       <c r="I60" s="10"/>
@@ -17391,13 +17388,13 @@
       <c r="Q60" s="10"/>
       <c r="R60" s="9"/>
       <c r="S60" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T60" s="10" t="s">
+        <v>554</v>
+      </c>
+      <c r="U60" s="10" t="s">
         <v>555</v>
-      </c>
-      <c r="U60" s="10" t="s">
-        <v>556</v>
       </c>
       <c r="V60" s="10">
         <v>0</v>
@@ -17405,7 +17402,7 @@
     </row>
     <row r="61" s="7" customFormat="1" spans="1:22">
       <c r="A61" s="9" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B61" s="9">
         <v>1</v>
@@ -17421,7 +17418,7 @@
         <v>1</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
@@ -17447,13 +17444,13 @@
       <c r="Q61" s="9"/>
       <c r="R61" s="9"/>
       <c r="S61" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T61" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="U61" s="9" t="s">
         <v>568</v>
-      </c>
-      <c r="U61" s="9" t="s">
-        <v>569</v>
       </c>
       <c r="V61" s="9">
         <v>0</v>
@@ -17461,7 +17458,7 @@
     </row>
     <row r="62" s="7" customFormat="1" spans="1:22">
       <c r="A62" s="9" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B62" s="9">
         <v>1</v>
@@ -17477,7 +17474,7 @@
         <v>2</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
@@ -17503,13 +17500,13 @@
       <c r="Q62" s="9"/>
       <c r="R62" s="9"/>
       <c r="S62" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T62" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="U62" s="9" t="s">
         <v>568</v>
-      </c>
-      <c r="U62" s="9" t="s">
-        <v>569</v>
       </c>
       <c r="V62" s="9">
         <v>0</v>
@@ -17517,7 +17514,7 @@
     </row>
     <row r="63" s="7" customFormat="1" spans="1:22">
       <c r="A63" s="9" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B63" s="9">
         <v>1</v>
@@ -17533,7 +17530,7 @@
         <v>3</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
@@ -17559,13 +17556,13 @@
       <c r="Q63" s="9"/>
       <c r="R63" s="9"/>
       <c r="S63" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T63" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="U63" s="9" t="s">
         <v>568</v>
-      </c>
-      <c r="U63" s="9" t="s">
-        <v>569</v>
       </c>
       <c r="V63" s="9">
         <v>0</v>
@@ -17573,7 +17570,7 @@
     </row>
     <row r="64" s="7" customFormat="1" spans="1:22">
       <c r="A64" s="9" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B64" s="9">
         <v>1</v>
@@ -17589,7 +17586,7 @@
         <v>4</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
@@ -17615,13 +17612,13 @@
       <c r="Q64" s="9"/>
       <c r="R64" s="9"/>
       <c r="S64" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T64" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="U64" s="9" t="s">
         <v>568</v>
-      </c>
-      <c r="U64" s="9" t="s">
-        <v>569</v>
       </c>
       <c r="V64" s="9">
         <v>0</v>
@@ -17629,7 +17626,7 @@
     </row>
     <row r="65" s="7" customFormat="1" spans="1:22">
       <c r="A65" s="9" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B65" s="9">
         <v>1</v>
@@ -17645,7 +17642,7 @@
         <v>5</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H65" s="9"/>
       <c r="I65" s="9"/>
@@ -17671,13 +17668,13 @@
       <c r="Q65" s="9"/>
       <c r="R65" s="9"/>
       <c r="S65" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T65" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="U65" s="9" t="s">
         <v>568</v>
-      </c>
-      <c r="U65" s="9" t="s">
-        <v>569</v>
       </c>
       <c r="V65" s="9">
         <v>0</v>
@@ -17685,7 +17682,7 @@
     </row>
     <row r="66" s="7" customFormat="1" spans="1:22">
       <c r="A66" s="9" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B66" s="9">
         <v>1</v>
@@ -17701,7 +17698,7 @@
         <v>6</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H66" s="9"/>
       <c r="I66" s="9"/>
@@ -17727,13 +17724,13 @@
       <c r="Q66" s="9"/>
       <c r="R66" s="9"/>
       <c r="S66" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T66" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="U66" s="9" t="s">
         <v>568</v>
-      </c>
-      <c r="U66" s="9" t="s">
-        <v>569</v>
       </c>
       <c r="V66" s="9">
         <v>0</v>
@@ -17741,7 +17738,7 @@
     </row>
     <row r="67" s="7" customFormat="1" spans="1:22">
       <c r="A67" s="9" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B67" s="9">
         <v>1</v>
@@ -17757,7 +17754,7 @@
         <v>7</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H67" s="9"/>
       <c r="I67" s="9"/>
@@ -17783,13 +17780,13 @@
       <c r="Q67" s="9"/>
       <c r="R67" s="9"/>
       <c r="S67" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T67" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="U67" s="9" t="s">
         <v>568</v>
-      </c>
-      <c r="U67" s="9" t="s">
-        <v>569</v>
       </c>
       <c r="V67" s="9">
         <v>0</v>
@@ -17797,7 +17794,7 @@
     </row>
     <row r="68" s="7" customFormat="1" spans="1:22">
       <c r="A68" s="9" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B68" s="9">
         <v>1</v>
@@ -17813,7 +17810,7 @@
         <v>8</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H68" s="9"/>
       <c r="I68" s="9"/>
@@ -17839,13 +17836,13 @@
       <c r="Q68" s="9"/>
       <c r="R68" s="9"/>
       <c r="S68" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T68" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="U68" s="9" t="s">
         <v>568</v>
-      </c>
-      <c r="U68" s="9" t="s">
-        <v>569</v>
       </c>
       <c r="V68" s="9">
         <v>0</v>
@@ -17853,7 +17850,7 @@
     </row>
     <row r="69" s="7" customFormat="1" spans="1:22">
       <c r="A69" s="9" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B69" s="9">
         <v>1</v>
@@ -17869,7 +17866,7 @@
         <v>9</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H69" s="9"/>
       <c r="I69" s="9"/>
@@ -17895,13 +17892,13 @@
       <c r="Q69" s="9"/>
       <c r="R69" s="9"/>
       <c r="S69" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T69" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="U69" s="9" t="s">
         <v>568</v>
-      </c>
-      <c r="U69" s="9" t="s">
-        <v>569</v>
       </c>
       <c r="V69" s="9">
         <v>0</v>
@@ -17909,7 +17906,7 @@
     </row>
     <row r="70" s="7" customFormat="1" spans="1:22">
       <c r="A70" s="9" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B70" s="9">
         <v>1</v>
@@ -17925,7 +17922,7 @@
         <v>10</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H70" s="9"/>
       <c r="I70" s="9"/>
@@ -17951,13 +17948,13 @@
       <c r="Q70" s="9"/>
       <c r="R70" s="9"/>
       <c r="S70" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T70" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="U70" s="9" t="s">
         <v>568</v>
-      </c>
-      <c r="U70" s="9" t="s">
-        <v>569</v>
       </c>
       <c r="V70" s="9">
         <v>0</v>
@@ -17965,7 +17962,7 @@
     </row>
     <row r="71" s="7" customFormat="1" spans="1:22">
       <c r="A71" s="9" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B71" s="9">
         <v>1</v>
@@ -17981,7 +17978,7 @@
         <v>1</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H71" s="9"/>
       <c r="I71" s="9"/>
@@ -18007,13 +18004,13 @@
       <c r="Q71" s="9"/>
       <c r="R71" s="9"/>
       <c r="S71" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T71" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="U71" s="9" t="s">
         <v>581</v>
-      </c>
-      <c r="U71" s="9" t="s">
-        <v>582</v>
       </c>
       <c r="V71" s="9">
         <v>0</v>
@@ -18021,7 +18018,7 @@
     </row>
     <row r="72" s="7" customFormat="1" spans="1:22">
       <c r="A72" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B72" s="9">
         <v>1</v>
@@ -18037,7 +18034,7 @@
         <v>2</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H72" s="9"/>
       <c r="I72" s="9"/>
@@ -18063,13 +18060,13 @@
       <c r="Q72" s="9"/>
       <c r="R72" s="9"/>
       <c r="S72" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T72" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="U72" s="9" t="s">
         <v>581</v>
-      </c>
-      <c r="U72" s="9" t="s">
-        <v>582</v>
       </c>
       <c r="V72" s="9">
         <v>0</v>
@@ -18077,7 +18074,7 @@
     </row>
     <row r="73" s="7" customFormat="1" spans="1:22">
       <c r="A73" s="9" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B73" s="9">
         <v>1</v>
@@ -18093,7 +18090,7 @@
         <v>3</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H73" s="9"/>
       <c r="I73" s="9"/>
@@ -18119,13 +18116,13 @@
       <c r="Q73" s="9"/>
       <c r="R73" s="9"/>
       <c r="S73" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T73" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="U73" s="9" t="s">
         <v>581</v>
-      </c>
-      <c r="U73" s="9" t="s">
-        <v>582</v>
       </c>
       <c r="V73" s="9">
         <v>0</v>
@@ -18133,7 +18130,7 @@
     </row>
     <row r="74" s="7" customFormat="1" spans="1:22">
       <c r="A74" s="9" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B74" s="9">
         <v>1</v>
@@ -18149,7 +18146,7 @@
         <v>4</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H74" s="9"/>
       <c r="I74" s="9"/>
@@ -18175,13 +18172,13 @@
       <c r="Q74" s="9"/>
       <c r="R74" s="9"/>
       <c r="S74" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T74" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="U74" s="9" t="s">
         <v>581</v>
-      </c>
-      <c r="U74" s="9" t="s">
-        <v>582</v>
       </c>
       <c r="V74" s="9">
         <v>0</v>
@@ -18189,7 +18186,7 @@
     </row>
     <row r="75" s="7" customFormat="1" spans="1:22">
       <c r="A75" s="9" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B75" s="9">
         <v>1</v>
@@ -18205,7 +18202,7 @@
         <v>5</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H75" s="9"/>
       <c r="I75" s="9"/>
@@ -18231,13 +18228,13 @@
       <c r="Q75" s="9"/>
       <c r="R75" s="9"/>
       <c r="S75" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T75" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="U75" s="9" t="s">
         <v>581</v>
-      </c>
-      <c r="U75" s="9" t="s">
-        <v>582</v>
       </c>
       <c r="V75" s="9">
         <v>0</v>
@@ -18245,7 +18242,7 @@
     </row>
     <row r="76" s="7" customFormat="1" spans="1:22">
       <c r="A76" s="9" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B76" s="9">
         <v>1</v>
@@ -18261,7 +18258,7 @@
         <v>6</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H76" s="9"/>
       <c r="I76" s="9"/>
@@ -18287,13 +18284,13 @@
       <c r="Q76" s="9"/>
       <c r="R76" s="9"/>
       <c r="S76" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T76" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="U76" s="9" t="s">
         <v>581</v>
-      </c>
-      <c r="U76" s="9" t="s">
-        <v>582</v>
       </c>
       <c r="V76" s="9">
         <v>0</v>
@@ -18301,7 +18298,7 @@
     </row>
     <row r="77" s="7" customFormat="1" spans="1:22">
       <c r="A77" s="9" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B77" s="9">
         <v>1</v>
@@ -18317,7 +18314,7 @@
         <v>7</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H77" s="9"/>
       <c r="I77" s="9"/>
@@ -18343,13 +18340,13 @@
       <c r="Q77" s="9"/>
       <c r="R77" s="9"/>
       <c r="S77" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T77" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="U77" s="9" t="s">
         <v>581</v>
-      </c>
-      <c r="U77" s="9" t="s">
-        <v>582</v>
       </c>
       <c r="V77" s="9">
         <v>0</v>
@@ -18357,7 +18354,7 @@
     </row>
     <row r="78" s="7" customFormat="1" spans="1:22">
       <c r="A78" s="9" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B78" s="9">
         <v>1</v>
@@ -18373,7 +18370,7 @@
         <v>8</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H78" s="9"/>
       <c r="I78" s="9"/>
@@ -18399,13 +18396,13 @@
       <c r="Q78" s="9"/>
       <c r="R78" s="9"/>
       <c r="S78" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T78" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="U78" s="9" t="s">
         <v>581</v>
-      </c>
-      <c r="U78" s="9" t="s">
-        <v>582</v>
       </c>
       <c r="V78" s="9">
         <v>0</v>
@@ -18413,7 +18410,7 @@
     </row>
     <row r="79" s="7" customFormat="1" spans="1:22">
       <c r="A79" s="9" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B79" s="9">
         <v>1</v>
@@ -18429,7 +18426,7 @@
         <v>9</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H79" s="9"/>
       <c r="I79" s="9"/>
@@ -18455,13 +18452,13 @@
       <c r="Q79" s="9"/>
       <c r="R79" s="9"/>
       <c r="S79" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T79" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="U79" s="9" t="s">
         <v>581</v>
-      </c>
-      <c r="U79" s="9" t="s">
-        <v>582</v>
       </c>
       <c r="V79" s="9">
         <v>0</v>
@@ -18469,7 +18466,7 @@
     </row>
     <row r="80" s="7" customFormat="1" spans="1:22">
       <c r="A80" s="9" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B80" s="9">
         <v>1</v>
@@ -18485,7 +18482,7 @@
         <v>10</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H80" s="9"/>
       <c r="I80" s="9"/>
@@ -18511,13 +18508,13 @@
       <c r="Q80" s="9"/>
       <c r="R80" s="9"/>
       <c r="S80" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T80" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="U80" s="9" t="s">
         <v>581</v>
-      </c>
-      <c r="U80" s="9" t="s">
-        <v>582</v>
       </c>
       <c r="V80" s="9">
         <v>0</v>

--- a/_Out/NFDataCfg/Excel/Item.xlsx
+++ b/_Out/NFDataCfg/Excel/Item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18405" windowHeight="8115"/>
+    <workbookView windowHeight="23360"/>
   </bookViews>
   <sheets>
     <sheet name="Property_scrolls-3-building" sheetId="5" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591">
   <si>
     <t>Id</t>
   </si>
@@ -1810,16 +1810,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1827,7 +1827,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1856,24 +1856,32 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1881,14 +1889,52 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1896,38 +1942,52 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1935,68 +1995,8 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2057,7 +2057,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2069,7 +2147,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2081,19 +2189,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2111,127 +2231,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2411,21 +2411,25 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2456,30 +2460,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -2493,153 +2473,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2713,10 +2713,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -2784,55 +2784,55 @@
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -3115,44 +3115,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:V73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="10" topLeftCell="S11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="10" topLeftCell="O11" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S11" sqref="S11:S73"/>
+      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="26.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="12.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="20.1666666666667" customWidth="1"/>
-    <col min="4" max="4" width="9.33333333333333" customWidth="1"/>
-    <col min="5" max="5" width="12.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" customWidth="1"/>
+    <col min="4" max="4" width="9.3359375" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="22.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" customWidth="1"/>
     <col min="8" max="8" width="34" customWidth="1"/>
-    <col min="9" max="9" width="18.6666666666667" customWidth="1"/>
-    <col min="10" max="10" width="58.3333333333333" customWidth="1"/>
-    <col min="11" max="11" width="31.5083333333333" customWidth="1"/>
-    <col min="12" max="13" width="14.1666666666667" customWidth="1"/>
-    <col min="14" max="14" width="17.6666666666667" customWidth="1"/>
-    <col min="15" max="15" width="16.5083333333333" customWidth="1"/>
-    <col min="16" max="16" width="12.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" customWidth="1"/>
+    <col min="10" max="10" width="58.3359375" customWidth="1"/>
+    <col min="11" max="11" width="31.5078125" customWidth="1"/>
+    <col min="12" max="13" width="14.1640625" customWidth="1"/>
+    <col min="14" max="14" width="17.6640625" customWidth="1"/>
+    <col min="15" max="15" width="16.5078125" customWidth="1"/>
+    <col min="16" max="16" width="12.6640625" customWidth="1"/>
     <col min="17" max="17" width="14" customWidth="1"/>
-    <col min="18" max="18" width="27.6666666666667" customWidth="1"/>
-    <col min="19" max="19" width="33.4333333333333" customWidth="1"/>
-    <col min="20" max="20" width="23.3333333333333" customWidth="1"/>
+    <col min="18" max="18" width="27.6640625" customWidth="1"/>
+    <col min="19" max="19" width="33.4296875" customWidth="1"/>
+    <col min="20" max="20" width="23.3359375" customWidth="1"/>
     <col min="21" max="21" width="29.25" customWidth="1"/>
-    <col min="22" max="22" width="8.66666666666667" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="27" spans="1:22">
+    <row r="1" s="1" customFormat="1" spans="1:22">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:22">
+    <row r="7" s="3" customFormat="1" ht="17" spans="1:22">
       <c r="A7" s="6" t="s">
         <v>30</v>
       </c>
@@ -3628,7 +3628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="1:22">
+    <row r="8" s="3" customFormat="1" ht="17" spans="1:22">
       <c r="A8" s="6" t="s">
         <v>31</v>
       </c>
@@ -3696,7 +3696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" spans="1:22">
+    <row r="9" s="3" customFormat="1" ht="17" spans="1:22">
       <c r="A9" s="6" t="s">
         <v>32</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" s="40" customFormat="1" spans="1:22">
+    <row r="11" s="40" customFormat="1" ht="17" spans="1:22">
       <c r="A11" s="41" t="s">
         <v>54</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" s="40" customFormat="1" spans="1:22">
+    <row r="12" s="40" customFormat="1" ht="17" spans="1:22">
       <c r="A12" s="41" t="s">
         <v>59</v>
       </c>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" s="40" customFormat="1" spans="1:22">
+    <row r="13" s="40" customFormat="1" ht="17" spans="1:22">
       <c r="A13" s="41" t="s">
         <v>63</v>
       </c>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" s="40" customFormat="1" spans="1:22">
+    <row r="14" s="40" customFormat="1" ht="17" spans="1:22">
       <c r="A14" s="42" t="s">
         <v>67</v>
       </c>
@@ -4064,7 +4064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" s="40" customFormat="1" spans="1:22">
+    <row r="15" s="40" customFormat="1" ht="17" spans="1:22">
       <c r="A15" s="42" t="s">
         <v>71</v>
       </c>
@@ -4122,7 +4122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" s="40" customFormat="1" spans="1:22">
+    <row r="16" s="40" customFormat="1" ht="17" spans="1:22">
       <c r="A16" s="42" t="s">
         <v>75</v>
       </c>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" s="40" customFormat="1" spans="1:22">
+    <row r="17" s="40" customFormat="1" ht="17" spans="1:22">
       <c r="A17" s="42" t="s">
         <v>79</v>
       </c>
@@ -4238,7 +4238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" s="40" customFormat="1" spans="1:22">
+    <row r="18" s="40" customFormat="1" ht="17" spans="1:22">
       <c r="A18" s="42" t="s">
         <v>83</v>
       </c>
@@ -4296,7 +4296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" s="40" customFormat="1" spans="1:22">
+    <row r="19" s="40" customFormat="1" ht="17" spans="1:22">
       <c r="A19" s="42" t="s">
         <v>87</v>
       </c>
@@ -4354,7 +4354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" s="40" customFormat="1" spans="1:22">
+    <row r="20" s="40" customFormat="1" ht="17" spans="1:22">
       <c r="A20" s="42" t="s">
         <v>91</v>
       </c>
@@ -4412,7 +4412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" s="40" customFormat="1" spans="1:22">
+    <row r="21" s="40" customFormat="1" ht="17" spans="1:22">
       <c r="A21" s="42" t="s">
         <v>95</v>
       </c>
@@ -4470,7 +4470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" s="40" customFormat="1" spans="1:22">
+    <row r="22" s="40" customFormat="1" ht="17" spans="1:22">
       <c r="A22" s="42" t="s">
         <v>99</v>
       </c>
@@ -4528,7 +4528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" s="40" customFormat="1" spans="1:22">
+    <row r="23" s="40" customFormat="1" ht="17" spans="1:22">
       <c r="A23" s="42" t="s">
         <v>103</v>
       </c>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" s="40" customFormat="1" spans="1:22">
+    <row r="24" s="40" customFormat="1" ht="17" spans="1:22">
       <c r="A24" s="42" t="s">
         <v>107</v>
       </c>
@@ -4644,7 +4644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" s="40" customFormat="1" spans="1:22">
+    <row r="25" s="40" customFormat="1" ht="17" spans="1:22">
       <c r="A25" s="42" t="s">
         <v>111</v>
       </c>
@@ -4702,7 +4702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" s="40" customFormat="1" spans="1:22">
+    <row r="26" s="40" customFormat="1" ht="17" spans="1:22">
       <c r="A26" s="42" t="s">
         <v>115</v>
       </c>
@@ -4760,7 +4760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" s="40" customFormat="1" spans="1:22">
+    <row r="27" s="40" customFormat="1" ht="17" spans="1:22">
       <c r="A27" s="42" t="s">
         <v>119</v>
       </c>
@@ -4818,7 +4818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" s="40" customFormat="1" spans="1:22">
+    <row r="28" s="40" customFormat="1" ht="17" spans="1:22">
       <c r="A28" s="42" t="s">
         <v>123</v>
       </c>
@@ -4876,7 +4876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" s="40" customFormat="1" spans="1:22">
+    <row r="29" s="40" customFormat="1" ht="17" spans="1:22">
       <c r="A29" s="42" t="s">
         <v>127</v>
       </c>
@@ -4934,7 +4934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" s="40" customFormat="1" spans="1:22">
+    <row r="30" s="40" customFormat="1" ht="17" spans="1:22">
       <c r="A30" s="42" t="s">
         <v>131</v>
       </c>
@@ -4992,7 +4992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" s="40" customFormat="1" spans="1:22">
+    <row r="31" s="40" customFormat="1" ht="17" spans="1:22">
       <c r="A31" s="42" t="s">
         <v>135</v>
       </c>
@@ -5050,7 +5050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" s="31" customFormat="1" spans="1:22">
+    <row r="32" s="31" customFormat="1" ht="17" spans="1:22">
       <c r="A32" s="42" t="s">
         <v>139</v>
       </c>
@@ -5108,7 +5108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" s="31" customFormat="1" spans="1:22">
+    <row r="33" s="31" customFormat="1" ht="17" spans="1:22">
       <c r="A33" s="42" t="s">
         <v>143</v>
       </c>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" s="31" customFormat="1" spans="1:22">
+    <row r="34" s="31" customFormat="1" ht="17" spans="1:22">
       <c r="A34" s="42" t="s">
         <v>147</v>
       </c>
@@ -5224,7 +5224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" s="31" customFormat="1" spans="1:22">
+    <row r="35" s="31" customFormat="1" ht="17" spans="1:22">
       <c r="A35" s="42" t="s">
         <v>151</v>
       </c>
@@ -5282,7 +5282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" s="31" customFormat="1" spans="1:22">
+    <row r="36" s="31" customFormat="1" ht="17" spans="1:22">
       <c r="A36" s="42" t="s">
         <v>155</v>
       </c>
@@ -5340,7 +5340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" s="31" customFormat="1" spans="1:22">
+    <row r="37" s="31" customFormat="1" ht="17" spans="1:22">
       <c r="A37" s="42" t="s">
         <v>159</v>
       </c>
@@ -5398,7 +5398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" s="31" customFormat="1" spans="1:22">
+    <row r="38" s="31" customFormat="1" ht="17" spans="1:22">
       <c r="A38" s="42" t="s">
         <v>163</v>
       </c>
@@ -5456,7 +5456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" s="31" customFormat="1" spans="1:22">
+    <row r="39" s="31" customFormat="1" ht="17" spans="1:22">
       <c r="A39" s="42" t="s">
         <v>167</v>
       </c>
@@ -5514,7 +5514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" s="31" customFormat="1" spans="1:22">
+    <row r="40" s="31" customFormat="1" ht="17" spans="1:22">
       <c r="A40" s="42" t="s">
         <v>171</v>
       </c>
@@ -5572,7 +5572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" s="31" customFormat="1" spans="1:22">
+    <row r="41" s="31" customFormat="1" ht="17" spans="1:22">
       <c r="A41" s="42" t="s">
         <v>175</v>
       </c>
@@ -5630,7 +5630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" s="31" customFormat="1" spans="1:22">
+    <row r="42" s="31" customFormat="1" ht="17" spans="1:22">
       <c r="A42" s="42" t="s">
         <v>179</v>
       </c>
@@ -5688,7 +5688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" s="31" customFormat="1" spans="1:22">
+    <row r="43" s="31" customFormat="1" ht="17" spans="1:22">
       <c r="A43" s="42" t="s">
         <v>183</v>
       </c>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" s="31" customFormat="1" spans="1:22">
+    <row r="44" s="31" customFormat="1" ht="17" spans="1:22">
       <c r="A44" s="42" t="s">
         <v>187</v>
       </c>
@@ -5804,7 +5804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" s="31" customFormat="1" spans="1:22">
+    <row r="45" s="31" customFormat="1" ht="17" spans="1:22">
       <c r="A45" s="42" t="s">
         <v>191</v>
       </c>
@@ -5862,7 +5862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" s="31" customFormat="1" spans="1:22">
+    <row r="46" s="31" customFormat="1" ht="17" spans="1:22">
       <c r="A46" s="42" t="s">
         <v>195</v>
       </c>
@@ -5920,7 +5920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" s="31" customFormat="1" spans="1:22">
+    <row r="47" s="31" customFormat="1" ht="17" spans="1:22">
       <c r="A47" s="42" t="s">
         <v>199</v>
       </c>
@@ -5978,7 +5978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" s="31" customFormat="1" spans="1:22">
+    <row r="48" s="31" customFormat="1" ht="17" spans="1:22">
       <c r="A48" s="42" t="s">
         <v>203</v>
       </c>
@@ -6036,7 +6036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" s="31" customFormat="1" spans="1:22">
+    <row r="49" s="31" customFormat="1" ht="17" spans="1:22">
       <c r="A49" s="42" t="s">
         <v>207</v>
       </c>
@@ -6094,7 +6094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" s="31" customFormat="1" spans="1:22">
+    <row r="50" s="31" customFormat="1" ht="17" spans="1:22">
       <c r="A50" s="42" t="s">
         <v>211</v>
       </c>
@@ -6152,7 +6152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" s="31" customFormat="1" spans="1:22">
+    <row r="51" s="31" customFormat="1" ht="17" spans="1:22">
       <c r="A51" s="42" t="s">
         <v>215</v>
       </c>
@@ -6210,7 +6210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" s="31" customFormat="1" spans="1:22">
+    <row r="52" s="31" customFormat="1" ht="17" spans="1:22">
       <c r="A52" s="42" t="s">
         <v>219</v>
       </c>
@@ -6268,7 +6268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" s="31" customFormat="1" spans="1:22">
+    <row r="53" s="31" customFormat="1" ht="17" spans="1:22">
       <c r="A53" s="42" t="s">
         <v>223</v>
       </c>
@@ -6326,7 +6326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" s="31" customFormat="1" spans="1:22">
+    <row r="54" s="31" customFormat="1" ht="17" spans="1:22">
       <c r="A54" s="42" t="s">
         <v>227</v>
       </c>
@@ -6384,7 +6384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" s="31" customFormat="1" spans="1:22">
+    <row r="55" s="31" customFormat="1" ht="17" spans="1:22">
       <c r="A55" s="42" t="s">
         <v>231</v>
       </c>
@@ -6442,7 +6442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" s="31" customFormat="1" spans="1:22">
+    <row r="56" s="31" customFormat="1" ht="17" spans="1:22">
       <c r="A56" s="42" t="s">
         <v>235</v>
       </c>
@@ -6500,7 +6500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" s="31" customFormat="1" spans="1:22">
+    <row r="57" s="31" customFormat="1" ht="17" spans="1:22">
       <c r="A57" s="42" t="s">
         <v>239</v>
       </c>
@@ -6558,7 +6558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" s="31" customFormat="1" spans="1:22">
+    <row r="58" s="31" customFormat="1" ht="17" spans="1:22">
       <c r="A58" s="42" t="s">
         <v>243</v>
       </c>
@@ -6616,7 +6616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" s="31" customFormat="1" spans="1:22">
+    <row r="59" s="31" customFormat="1" ht="17" spans="1:22">
       <c r="A59" s="42" t="s">
         <v>247</v>
       </c>
@@ -6674,7 +6674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" s="31" customFormat="1" spans="1:22">
+    <row r="60" s="31" customFormat="1" ht="17" spans="1:22">
       <c r="A60" s="42" t="s">
         <v>251</v>
       </c>
@@ -6732,7 +6732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" s="31" customFormat="1" spans="1:22">
+    <row r="61" s="31" customFormat="1" ht="17" spans="1:22">
       <c r="A61" s="42" t="s">
         <v>255</v>
       </c>
@@ -6790,7 +6790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" s="31" customFormat="1" spans="1:22">
+    <row r="62" s="31" customFormat="1" ht="17" spans="1:22">
       <c r="A62" s="42" t="s">
         <v>259</v>
       </c>
@@ -6848,7 +6848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" s="31" customFormat="1" spans="1:22">
+    <row r="63" s="31" customFormat="1" ht="17" spans="1:22">
       <c r="A63" s="42" t="s">
         <v>263</v>
       </c>
@@ -6906,7 +6906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" s="31" customFormat="1" ht="14" customHeight="1" spans="1:22">
+    <row r="64" s="31" customFormat="1" customHeight="1" spans="1:22">
       <c r="A64" s="42" t="s">
         <v>267</v>
       </c>
@@ -6964,7 +6964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" s="31" customFormat="1" spans="1:22">
+    <row r="65" s="31" customFormat="1" ht="17" spans="1:22">
       <c r="A65" s="42" t="s">
         <v>271</v>
       </c>
@@ -7022,7 +7022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" s="31" customFormat="1" spans="1:22">
+    <row r="66" s="31" customFormat="1" ht="17" spans="1:22">
       <c r="A66" s="42" t="s">
         <v>275</v>
       </c>
@@ -7080,7 +7080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" s="31" customFormat="1" ht="14" customHeight="1" spans="1:22">
+    <row r="67" s="31" customFormat="1" customHeight="1" spans="1:22">
       <c r="A67" s="42" t="s">
         <v>279</v>
       </c>
@@ -7138,7 +7138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" s="31" customFormat="1" spans="1:22">
+    <row r="68" s="31" customFormat="1" ht="17" spans="1:22">
       <c r="A68" s="42" t="s">
         <v>283</v>
       </c>
@@ -7196,7 +7196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" s="31" customFormat="1" spans="1:22">
+    <row r="69" s="31" customFormat="1" ht="17" spans="1:22">
       <c r="A69" s="42" t="s">
         <v>287</v>
       </c>
@@ -7254,7 +7254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" s="31" customFormat="1" ht="14" customHeight="1" spans="1:22">
+    <row r="70" s="31" customFormat="1" customHeight="1" spans="1:22">
       <c r="A70" s="42" t="s">
         <v>291</v>
       </c>
@@ -7312,7 +7312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" s="31" customFormat="1" spans="1:22">
+    <row r="71" s="31" customFormat="1" ht="17" spans="1:22">
       <c r="A71" s="42" t="s">
         <v>295</v>
       </c>
@@ -7370,7 +7370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" s="31" customFormat="1" spans="1:22">
+    <row r="72" s="31" customFormat="1" ht="17" spans="1:22">
       <c r="A72" s="42" t="s">
         <v>299</v>
       </c>
@@ -7500,7 +7500,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:V49"/>
   <sheetViews>
@@ -7512,31 +7512,31 @@
       <selection pane="bottomRight" activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="30.2916666666667" customWidth="1"/>
-    <col min="2" max="2" width="12.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="20.1666666666667" customWidth="1"/>
-    <col min="4" max="4" width="9.33333333333333" customWidth="1"/>
-    <col min="5" max="5" width="12.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="30.2890625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" customWidth="1"/>
+    <col min="4" max="4" width="9.3359375" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="22.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" customWidth="1"/>
     <col min="8" max="8" width="34" customWidth="1"/>
-    <col min="9" max="9" width="18.6666666666667" customWidth="1"/>
-    <col min="10" max="10" width="58.3333333333333" customWidth="1"/>
-    <col min="11" max="11" width="31.5083333333333" customWidth="1"/>
-    <col min="12" max="13" width="14.1666666666667" customWidth="1"/>
-    <col min="14" max="14" width="17.6666666666667" customWidth="1"/>
-    <col min="15" max="15" width="16.5083333333333" customWidth="1"/>
-    <col min="16" max="16" width="12.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" customWidth="1"/>
+    <col min="10" max="10" width="58.3359375" customWidth="1"/>
+    <col min="11" max="11" width="31.5078125" customWidth="1"/>
+    <col min="12" max="13" width="14.1640625" customWidth="1"/>
+    <col min="14" max="14" width="17.6640625" customWidth="1"/>
+    <col min="15" max="15" width="16.5078125" customWidth="1"/>
+    <col min="16" max="16" width="12.6640625" customWidth="1"/>
     <col min="17" max="17" width="14" customWidth="1"/>
-    <col min="18" max="18" width="27.6666666666667" customWidth="1"/>
-    <col min="19" max="20" width="23.3333333333333" customWidth="1"/>
-    <col min="21" max="21" width="21.5083333333333" customWidth="1"/>
-    <col min="22" max="22" width="8.66666666666667" customWidth="1"/>
+    <col min="18" max="18" width="27.6640625" customWidth="1"/>
+    <col min="19" max="20" width="23.3359375" customWidth="1"/>
+    <col min="21" max="21" width="21.5078125" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="27" spans="1:22">
+    <row r="1" s="1" customFormat="1" spans="1:22">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -7944,7 +7944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:22">
+    <row r="7" s="3" customFormat="1" ht="17" spans="1:22">
       <c r="A7" s="6" t="s">
         <v>30</v>
       </c>
@@ -8012,7 +8012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="1:22">
+    <row r="8" s="3" customFormat="1" ht="17" spans="1:22">
       <c r="A8" s="6" t="s">
         <v>31</v>
       </c>
@@ -8080,7 +8080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" spans="1:22">
+    <row r="9" s="3" customFormat="1" ht="17" spans="1:22">
       <c r="A9" s="6" t="s">
         <v>32</v>
       </c>
@@ -10426,7 +10426,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:V29"/>
   <sheetViews>
@@ -10435,31 +10435,31 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U11" sqref="U11:U29"/>
+      <selection pane="bottomRight" activeCell="S35" sqref="S34:S35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="26.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="12.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="20.1666666666667" customWidth="1"/>
-    <col min="4" max="4" width="9.33333333333333" customWidth="1"/>
-    <col min="5" max="5" width="12.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" customWidth="1"/>
+    <col min="4" max="4" width="9.3359375" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="22.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" customWidth="1"/>
     <col min="8" max="8" width="34" customWidth="1"/>
-    <col min="9" max="9" width="18.6666666666667" customWidth="1"/>
-    <col min="10" max="10" width="58.3333333333333" customWidth="1"/>
-    <col min="11" max="11" width="31.5083333333333" customWidth="1"/>
-    <col min="12" max="13" width="14.1666666666667" customWidth="1"/>
-    <col min="14" max="14" width="17.6666666666667" customWidth="1"/>
-    <col min="15" max="15" width="16.5083333333333" customWidth="1"/>
-    <col min="16" max="16" width="12.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" customWidth="1"/>
+    <col min="10" max="10" width="58.3359375" customWidth="1"/>
+    <col min="11" max="11" width="31.5078125" customWidth="1"/>
+    <col min="12" max="13" width="14.1640625" customWidth="1"/>
+    <col min="14" max="14" width="17.6640625" customWidth="1"/>
+    <col min="15" max="15" width="16.5078125" customWidth="1"/>
+    <col min="16" max="16" width="12.6640625" customWidth="1"/>
     <col min="17" max="17" width="14" customWidth="1"/>
-    <col min="18" max="18" width="27.6666666666667" customWidth="1"/>
-    <col min="19" max="20" width="23.3333333333333" customWidth="1"/>
-    <col min="21" max="21" width="21.5083333333333" customWidth="1"/>
-    <col min="22" max="22" width="10.5666666666667" customWidth="1"/>
+    <col min="18" max="18" width="27.6640625" customWidth="1"/>
+    <col min="19" max="20" width="23.3359375" customWidth="1"/>
+    <col min="21" max="21" width="21.5078125" customWidth="1"/>
+    <col min="22" max="22" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:22">
@@ -10870,7 +10870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:22">
+    <row r="7" s="3" customFormat="1" ht="17" spans="1:22">
       <c r="A7" s="6" t="s">
         <v>30</v>
       </c>
@@ -10938,7 +10938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="1:22">
+    <row r="8" s="3" customFormat="1" ht="17" spans="1:22">
       <c r="A8" s="6" t="s">
         <v>31</v>
       </c>
@@ -11006,7 +11006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" spans="1:22">
+    <row r="9" s="3" customFormat="1" ht="17" spans="1:22">
       <c r="A9" s="6" t="s">
         <v>32</v>
       </c>
@@ -11142,7 +11142,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" s="20" customFormat="1" ht="14.25" spans="1:22">
+    <row r="11" s="20" customFormat="1" ht="17.55" spans="1:22">
       <c r="A11" s="21" t="s">
         <v>401</v>
       </c>
@@ -11159,7 +11159,7 @@
       <c r="F11" s="22">
         <v>0</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="24" t="s">
         <v>402</v>
       </c>
       <c r="H11" s="22"/>
@@ -11200,48 +11200,48 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" s="20" customFormat="1" ht="14.25" spans="1:22">
+    <row r="12" s="20" customFormat="1" ht="17.55" spans="1:22">
       <c r="A12" s="21" t="s">
         <v>406</v>
       </c>
-      <c r="B12" s="24">
+      <c r="B12" s="23">
         <v>3</v>
       </c>
-      <c r="C12" s="24">
-        <v>0</v>
-      </c>
-      <c r="D12" s="24">
-        <v>0</v>
-      </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24">
-        <v>0</v>
-      </c>
-      <c r="G12" s="23" t="s">
+      <c r="C12" s="23">
+        <v>0</v>
+      </c>
+      <c r="D12" s="23">
+        <v>0</v>
+      </c>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23">
+        <v>0</v>
+      </c>
+      <c r="G12" s="24" t="s">
         <v>407</v>
       </c>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
       <c r="J12" s="26"/>
-      <c r="K12" s="24">
-        <v>0</v>
-      </c>
-      <c r="L12" s="24">
-        <v>0</v>
-      </c>
-      <c r="M12" s="24">
-        <v>1</v>
-      </c>
-      <c r="N12" s="24">
+      <c r="K12" s="23">
+        <v>0</v>
+      </c>
+      <c r="L12" s="23">
+        <v>0</v>
+      </c>
+      <c r="M12" s="23">
+        <v>1</v>
+      </c>
+      <c r="N12" s="23">
         <v>0</v>
       </c>
       <c r="O12" s="22">
         <v>1000</v>
       </c>
-      <c r="P12" s="24">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="24"/>
+      <c r="P12" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="23"/>
       <c r="R12" s="27" t="s">
         <v>408</v>
       </c>
@@ -11254,11 +11254,11 @@
       <c r="U12" s="30" t="s">
         <v>409</v>
       </c>
-      <c r="V12" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" s="20" customFormat="1" ht="14.25" spans="1:22">
+      <c r="V12" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" s="20" customFormat="1" ht="17.55" spans="1:22">
       <c r="A13" s="21" t="s">
         <v>410</v>
       </c>
@@ -11268,38 +11268,38 @@
       <c r="C13" s="22">
         <v>0</v>
       </c>
-      <c r="D13" s="24">
-        <v>0</v>
-      </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24">
-        <v>0</v>
-      </c>
-      <c r="G13" s="23" t="s">
+      <c r="D13" s="23">
+        <v>0</v>
+      </c>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23">
+        <v>0</v>
+      </c>
+      <c r="G13" s="24" t="s">
         <v>411</v>
       </c>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
       <c r="J13" s="26"/>
-      <c r="K13" s="24">
-        <v>0</v>
-      </c>
-      <c r="L13" s="24">
-        <v>0</v>
-      </c>
-      <c r="M13" s="24">
-        <v>1</v>
-      </c>
-      <c r="N13" s="24">
+      <c r="K13" s="23">
+        <v>0</v>
+      </c>
+      <c r="L13" s="23">
+        <v>0</v>
+      </c>
+      <c r="M13" s="23">
+        <v>1</v>
+      </c>
+      <c r="N13" s="23">
         <v>0</v>
       </c>
       <c r="O13" s="22">
         <v>1000</v>
       </c>
-      <c r="P13" s="24">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="24"/>
+      <c r="P13" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="23"/>
       <c r="R13" s="27" t="s">
         <v>412</v>
       </c>
@@ -11312,52 +11312,52 @@
       <c r="U13" s="30" t="s">
         <v>413</v>
       </c>
-      <c r="V13" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" s="20" customFormat="1" ht="14.25" spans="1:22">
+      <c r="V13" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" s="20" customFormat="1" ht="17.55" spans="1:22">
       <c r="A14" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="23">
         <v>3</v>
       </c>
-      <c r="C14" s="24">
-        <v>0</v>
-      </c>
-      <c r="D14" s="24">
-        <v>0</v>
-      </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24">
-        <v>0</v>
-      </c>
-      <c r="G14" s="23" t="s">
+      <c r="C14" s="23">
+        <v>0</v>
+      </c>
+      <c r="D14" s="23">
+        <v>0</v>
+      </c>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23">
+        <v>0</v>
+      </c>
+      <c r="G14" s="24" t="s">
         <v>415</v>
       </c>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
       <c r="J14" s="26"/>
-      <c r="K14" s="24">
-        <v>0</v>
-      </c>
-      <c r="L14" s="24">
-        <v>0</v>
-      </c>
-      <c r="M14" s="24">
-        <v>1</v>
-      </c>
-      <c r="N14" s="24">
+      <c r="K14" s="23">
+        <v>0</v>
+      </c>
+      <c r="L14" s="23">
+        <v>0</v>
+      </c>
+      <c r="M14" s="23">
+        <v>1</v>
+      </c>
+      <c r="N14" s="23">
         <v>0</v>
       </c>
       <c r="O14" s="22">
         <v>1000</v>
       </c>
-      <c r="P14" s="24">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="24"/>
+      <c r="P14" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="23"/>
       <c r="R14" s="27" t="s">
         <v>416</v>
       </c>
@@ -11370,11 +11370,11 @@
       <c r="U14" s="30" t="s">
         <v>417</v>
       </c>
-      <c r="V14" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" spans="1:22">
+      <c r="V14" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" ht="17.55" spans="1:22">
       <c r="A15" s="21" t="s">
         <v>418</v>
       </c>
@@ -11391,7 +11391,7 @@
       <c r="F15" s="22">
         <v>0</v>
       </c>
-      <c r="G15" s="23" t="s">
+      <c r="G15" s="24" t="s">
         <v>419</v>
       </c>
       <c r="H15" s="22"/>
@@ -11432,48 +11432,48 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" ht="14.25" spans="1:22">
+    <row r="16" ht="17.55" spans="1:22">
       <c r="A16" s="21" t="s">
         <v>422</v>
       </c>
-      <c r="B16" s="24">
+      <c r="B16" s="23">
         <v>3</v>
       </c>
-      <c r="C16" s="24">
-        <v>0</v>
-      </c>
-      <c r="D16" s="24">
-        <v>0</v>
-      </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24">
-        <v>0</v>
-      </c>
-      <c r="G16" s="23" t="s">
+      <c r="C16" s="23">
+        <v>0</v>
+      </c>
+      <c r="D16" s="23">
+        <v>0</v>
+      </c>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23">
+        <v>0</v>
+      </c>
+      <c r="G16" s="24" t="s">
         <v>423</v>
       </c>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
       <c r="J16" s="26"/>
-      <c r="K16" s="24">
-        <v>0</v>
-      </c>
-      <c r="L16" s="24">
-        <v>0</v>
-      </c>
-      <c r="M16" s="24">
-        <v>1</v>
-      </c>
-      <c r="N16" s="24">
+      <c r="K16" s="23">
+        <v>0</v>
+      </c>
+      <c r="L16" s="23">
+        <v>0</v>
+      </c>
+      <c r="M16" s="23">
+        <v>1</v>
+      </c>
+      <c r="N16" s="23">
         <v>0</v>
       </c>
       <c r="O16" s="22">
         <v>1000</v>
       </c>
-      <c r="P16" s="24">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="24"/>
+      <c r="P16" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="23"/>
       <c r="R16" s="27" t="s">
         <v>424</v>
       </c>
@@ -11486,11 +11486,11 @@
       <c r="U16" s="30" t="s">
         <v>425</v>
       </c>
-      <c r="V16" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25" spans="1:22">
+      <c r="V16" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" ht="17.55" spans="1:22">
       <c r="A17" s="21" t="s">
         <v>426</v>
       </c>
@@ -11500,38 +11500,38 @@
       <c r="C17" s="22">
         <v>0</v>
       </c>
-      <c r="D17" s="24">
-        <v>0</v>
-      </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24">
-        <v>0</v>
-      </c>
-      <c r="G17" s="23" t="s">
+      <c r="D17" s="23">
+        <v>0</v>
+      </c>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23">
+        <v>0</v>
+      </c>
+      <c r="G17" s="24" t="s">
         <v>427</v>
       </c>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
       <c r="J17" s="26"/>
-      <c r="K17" s="24">
-        <v>0</v>
-      </c>
-      <c r="L17" s="24">
-        <v>0</v>
-      </c>
-      <c r="M17" s="24">
-        <v>1</v>
-      </c>
-      <c r="N17" s="24">
+      <c r="K17" s="23">
+        <v>0</v>
+      </c>
+      <c r="L17" s="23">
+        <v>0</v>
+      </c>
+      <c r="M17" s="23">
+        <v>1</v>
+      </c>
+      <c r="N17" s="23">
         <v>0</v>
       </c>
       <c r="O17" s="22">
         <v>1000</v>
       </c>
-      <c r="P17" s="24">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="24"/>
+      <c r="P17" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="23"/>
       <c r="R17" s="27" t="s">
         <v>428</v>
       </c>
@@ -11544,52 +11544,52 @@
       <c r="U17" s="30" t="s">
         <v>429</v>
       </c>
-      <c r="V17" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25" spans="1:22">
+      <c r="V17" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" ht="17.55" spans="1:22">
       <c r="A18" s="21" t="s">
         <v>430</v>
       </c>
-      <c r="B18" s="24">
+      <c r="B18" s="23">
         <v>3</v>
       </c>
-      <c r="C18" s="24">
-        <v>0</v>
-      </c>
-      <c r="D18" s="24">
-        <v>0</v>
-      </c>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24">
-        <v>0</v>
-      </c>
-      <c r="G18" s="23" t="s">
+      <c r="C18" s="23">
+        <v>0</v>
+      </c>
+      <c r="D18" s="23">
+        <v>0</v>
+      </c>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23">
+        <v>0</v>
+      </c>
+      <c r="G18" s="24" t="s">
         <v>431</v>
       </c>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
       <c r="J18" s="26"/>
-      <c r="K18" s="24">
-        <v>0</v>
-      </c>
-      <c r="L18" s="24">
-        <v>0</v>
-      </c>
-      <c r="M18" s="24">
-        <v>1</v>
-      </c>
-      <c r="N18" s="24">
+      <c r="K18" s="23">
+        <v>0</v>
+      </c>
+      <c r="L18" s="23">
+        <v>0</v>
+      </c>
+      <c r="M18" s="23">
+        <v>1</v>
+      </c>
+      <c r="N18" s="23">
         <v>0</v>
       </c>
       <c r="O18" s="22">
         <v>1000</v>
       </c>
-      <c r="P18" s="24">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="24"/>
+      <c r="P18" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="23"/>
       <c r="R18" s="27" t="s">
         <v>432</v>
       </c>
@@ -11602,11 +11602,11 @@
       <c r="U18" s="30" t="s">
         <v>433</v>
       </c>
-      <c r="V18" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" ht="14.25" spans="1:22">
+      <c r="V18" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" ht="17.55" spans="1:22">
       <c r="A19" s="21" t="s">
         <v>434</v>
       </c>
@@ -11623,7 +11623,7 @@
       <c r="F19" s="22">
         <v>0</v>
       </c>
-      <c r="G19" s="23" t="s">
+      <c r="G19" s="24" t="s">
         <v>435</v>
       </c>
       <c r="H19" s="22"/>
@@ -11664,48 +11664,48 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" ht="14.25" spans="1:22">
+    <row r="20" ht="17.55" spans="1:22">
       <c r="A20" s="21" t="s">
         <v>438</v>
       </c>
-      <c r="B20" s="24">
+      <c r="B20" s="23">
         <v>3</v>
       </c>
-      <c r="C20" s="24">
-        <v>0</v>
-      </c>
-      <c r="D20" s="24">
-        <v>0</v>
-      </c>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24">
-        <v>0</v>
-      </c>
-      <c r="G20" s="23" t="s">
+      <c r="C20" s="23">
+        <v>0</v>
+      </c>
+      <c r="D20" s="23">
+        <v>0</v>
+      </c>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23">
+        <v>0</v>
+      </c>
+      <c r="G20" s="24" t="s">
         <v>439</v>
       </c>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
       <c r="J20" s="26"/>
-      <c r="K20" s="24">
-        <v>0</v>
-      </c>
-      <c r="L20" s="24">
-        <v>0</v>
-      </c>
-      <c r="M20" s="24">
-        <v>1</v>
-      </c>
-      <c r="N20" s="24">
+      <c r="K20" s="23">
+        <v>0</v>
+      </c>
+      <c r="L20" s="23">
+        <v>0</v>
+      </c>
+      <c r="M20" s="23">
+        <v>1</v>
+      </c>
+      <c r="N20" s="23">
         <v>0</v>
       </c>
       <c r="O20" s="22">
         <v>1000</v>
       </c>
-      <c r="P20" s="24">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="24"/>
+      <c r="P20" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="23"/>
       <c r="R20" s="27" t="s">
         <v>440</v>
       </c>
@@ -11718,11 +11718,11 @@
       <c r="U20" s="30" t="s">
         <v>441</v>
       </c>
-      <c r="V20" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" ht="14.25" spans="1:22">
+      <c r="V20" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" ht="17.55" spans="1:22">
       <c r="A21" s="21" t="s">
         <v>442</v>
       </c>
@@ -11732,38 +11732,38 @@
       <c r="C21" s="22">
         <v>0</v>
       </c>
-      <c r="D21" s="24">
-        <v>0</v>
-      </c>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24">
-        <v>0</v>
-      </c>
-      <c r="G21" s="23" t="s">
+      <c r="D21" s="23">
+        <v>0</v>
+      </c>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23">
+        <v>0</v>
+      </c>
+      <c r="G21" s="24" t="s">
         <v>443</v>
       </c>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
       <c r="J21" s="26"/>
-      <c r="K21" s="24">
-        <v>0</v>
-      </c>
-      <c r="L21" s="24">
-        <v>0</v>
-      </c>
-      <c r="M21" s="24">
-        <v>1</v>
-      </c>
-      <c r="N21" s="24">
+      <c r="K21" s="23">
+        <v>0</v>
+      </c>
+      <c r="L21" s="23">
+        <v>0</v>
+      </c>
+      <c r="M21" s="23">
+        <v>1</v>
+      </c>
+      <c r="N21" s="23">
         <v>0</v>
       </c>
       <c r="O21" s="22">
         <v>1000</v>
       </c>
-      <c r="P21" s="24">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="24"/>
+      <c r="P21" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="23"/>
       <c r="R21" s="27" t="s">
         <v>444</v>
       </c>
@@ -11776,52 +11776,52 @@
       <c r="U21" s="30" t="s">
         <v>445</v>
       </c>
-      <c r="V21" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25" spans="1:22">
+      <c r="V21" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" ht="17.55" spans="1:22">
       <c r="A22" s="21" t="s">
         <v>446</v>
       </c>
-      <c r="B22" s="24">
+      <c r="B22" s="23">
         <v>3</v>
       </c>
-      <c r="C22" s="24">
-        <v>0</v>
-      </c>
-      <c r="D22" s="24">
-        <v>0</v>
-      </c>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24">
-        <v>0</v>
-      </c>
-      <c r="G22" s="23" t="s">
+      <c r="C22" s="23">
+        <v>0</v>
+      </c>
+      <c r="D22" s="23">
+        <v>0</v>
+      </c>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23">
+        <v>0</v>
+      </c>
+      <c r="G22" s="24" t="s">
         <v>447</v>
       </c>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
       <c r="J22" s="26"/>
-      <c r="K22" s="24">
-        <v>0</v>
-      </c>
-      <c r="L22" s="24">
-        <v>0</v>
-      </c>
-      <c r="M22" s="24">
-        <v>1</v>
-      </c>
-      <c r="N22" s="24">
+      <c r="K22" s="23">
+        <v>0</v>
+      </c>
+      <c r="L22" s="23">
+        <v>0</v>
+      </c>
+      <c r="M22" s="23">
+        <v>1</v>
+      </c>
+      <c r="N22" s="23">
         <v>0</v>
       </c>
       <c r="O22" s="22">
         <v>1000</v>
       </c>
-      <c r="P22" s="24">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="24"/>
+      <c r="P22" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="23"/>
       <c r="R22" s="27" t="s">
         <v>448</v>
       </c>
@@ -11834,11 +11834,11 @@
       <c r="U22" s="30" t="s">
         <v>449</v>
       </c>
-      <c r="V22" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" ht="14.25" spans="1:22">
+      <c r="V22" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" ht="17.55" spans="1:22">
       <c r="A23" s="21" t="s">
         <v>450</v>
       </c>
@@ -11855,7 +11855,7 @@
       <c r="F23" s="22">
         <v>0</v>
       </c>
-      <c r="G23" s="23" t="s">
+      <c r="G23" s="24" t="s">
         <v>451</v>
       </c>
       <c r="H23" s="22"/>
@@ -11896,48 +11896,48 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" ht="14.25" spans="1:22">
+    <row r="24" ht="17.55" spans="1:22">
       <c r="A24" s="21" t="s">
         <v>454</v>
       </c>
-      <c r="B24" s="24">
+      <c r="B24" s="23">
         <v>3</v>
       </c>
-      <c r="C24" s="24">
-        <v>0</v>
-      </c>
-      <c r="D24" s="24">
-        <v>0</v>
-      </c>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24">
-        <v>0</v>
-      </c>
-      <c r="G24" s="23" t="s">
+      <c r="C24" s="23">
+        <v>0</v>
+      </c>
+      <c r="D24" s="23">
+        <v>0</v>
+      </c>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23">
+        <v>0</v>
+      </c>
+      <c r="G24" s="24" t="s">
         <v>455</v>
       </c>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
       <c r="J24" s="26"/>
-      <c r="K24" s="24">
-        <v>0</v>
-      </c>
-      <c r="L24" s="24">
-        <v>0</v>
-      </c>
-      <c r="M24" s="24">
-        <v>1</v>
-      </c>
-      <c r="N24" s="24">
+      <c r="K24" s="23">
+        <v>0</v>
+      </c>
+      <c r="L24" s="23">
+        <v>0</v>
+      </c>
+      <c r="M24" s="23">
+        <v>1</v>
+      </c>
+      <c r="N24" s="23">
         <v>0</v>
       </c>
       <c r="O24" s="22">
         <v>1000</v>
       </c>
-      <c r="P24" s="24">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="24"/>
+      <c r="P24" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="23"/>
       <c r="R24" s="27" t="s">
         <v>456</v>
       </c>
@@ -11950,11 +11950,11 @@
       <c r="U24" s="30" t="s">
         <v>457</v>
       </c>
-      <c r="V24" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" ht="14.25" spans="1:22">
+      <c r="V24" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" ht="17.55" spans="1:22">
       <c r="A25" s="21" t="s">
         <v>458</v>
       </c>
@@ -11964,38 +11964,38 @@
       <c r="C25" s="22">
         <v>0</v>
       </c>
-      <c r="D25" s="24">
-        <v>0</v>
-      </c>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24">
-        <v>0</v>
-      </c>
-      <c r="G25" s="23" t="s">
+      <c r="D25" s="23">
+        <v>0</v>
+      </c>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23">
+        <v>0</v>
+      </c>
+      <c r="G25" s="24" t="s">
         <v>459</v>
       </c>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
       <c r="J25" s="26"/>
-      <c r="K25" s="24">
-        <v>0</v>
-      </c>
-      <c r="L25" s="24">
-        <v>0</v>
-      </c>
-      <c r="M25" s="24">
-        <v>1</v>
-      </c>
-      <c r="N25" s="24">
+      <c r="K25" s="23">
+        <v>0</v>
+      </c>
+      <c r="L25" s="23">
+        <v>0</v>
+      </c>
+      <c r="M25" s="23">
+        <v>1</v>
+      </c>
+      <c r="N25" s="23">
         <v>0</v>
       </c>
       <c r="O25" s="22">
         <v>1000</v>
       </c>
-      <c r="P25" s="24">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="24"/>
+      <c r="P25" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="23"/>
       <c r="R25" s="27" t="s">
         <v>460</v>
       </c>
@@ -12008,52 +12008,52 @@
       <c r="U25" s="30" t="s">
         <v>461</v>
       </c>
-      <c r="V25" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" ht="14.25" spans="1:22">
+      <c r="V25" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" ht="17.55" spans="1:22">
       <c r="A26" s="21" t="s">
         <v>462</v>
       </c>
-      <c r="B26" s="24">
+      <c r="B26" s="23">
         <v>3</v>
       </c>
-      <c r="C26" s="24">
-        <v>0</v>
-      </c>
-      <c r="D26" s="24">
-        <v>0</v>
-      </c>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24">
-        <v>0</v>
-      </c>
-      <c r="G26" s="23" t="s">
+      <c r="C26" s="23">
+        <v>0</v>
+      </c>
+      <c r="D26" s="23">
+        <v>0</v>
+      </c>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23">
+        <v>0</v>
+      </c>
+      <c r="G26" s="24" t="s">
         <v>463</v>
       </c>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
       <c r="J26" s="26"/>
-      <c r="K26" s="24">
-        <v>0</v>
-      </c>
-      <c r="L26" s="24">
-        <v>0</v>
-      </c>
-      <c r="M26" s="24">
-        <v>1</v>
-      </c>
-      <c r="N26" s="24">
+      <c r="K26" s="23">
+        <v>0</v>
+      </c>
+      <c r="L26" s="23">
+        <v>0</v>
+      </c>
+      <c r="M26" s="23">
+        <v>1</v>
+      </c>
+      <c r="N26" s="23">
         <v>0</v>
       </c>
       <c r="O26" s="22">
         <v>1000</v>
       </c>
-      <c r="P26" s="24">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="24"/>
+      <c r="P26" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="23"/>
       <c r="R26" s="27" t="s">
         <v>464</v>
       </c>
@@ -12066,11 +12066,11 @@
       <c r="U26" s="30" t="s">
         <v>465</v>
       </c>
-      <c r="V26" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" ht="14.25" spans="1:22">
+      <c r="V26" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" ht="17.55" spans="1:22">
       <c r="A27" s="21" t="s">
         <v>466</v>
       </c>
@@ -12087,7 +12087,7 @@
       <c r="F27" s="22">
         <v>0</v>
       </c>
-      <c r="G27" s="23" t="s">
+      <c r="G27" s="24" t="s">
         <v>467</v>
       </c>
       <c r="H27" s="22"/>
@@ -12128,48 +12128,48 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" ht="14.25" spans="1:22">
+    <row r="28" ht="17.55" spans="1:22">
       <c r="A28" s="21" t="s">
         <v>470</v>
       </c>
-      <c r="B28" s="24">
+      <c r="B28" s="23">
         <v>3</v>
       </c>
-      <c r="C28" s="24">
-        <v>0</v>
-      </c>
-      <c r="D28" s="24">
-        <v>0</v>
-      </c>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24">
-        <v>0</v>
-      </c>
-      <c r="G28" s="23" t="s">
+      <c r="C28" s="23">
+        <v>0</v>
+      </c>
+      <c r="D28" s="23">
+        <v>0</v>
+      </c>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23">
+        <v>0</v>
+      </c>
+      <c r="G28" s="24" t="s">
         <v>471</v>
       </c>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
       <c r="J28" s="26"/>
-      <c r="K28" s="24">
-        <v>0</v>
-      </c>
-      <c r="L28" s="24">
-        <v>0</v>
-      </c>
-      <c r="M28" s="24">
-        <v>1</v>
-      </c>
-      <c r="N28" s="24">
+      <c r="K28" s="23">
+        <v>0</v>
+      </c>
+      <c r="L28" s="23">
+        <v>0</v>
+      </c>
+      <c r="M28" s="23">
+        <v>1</v>
+      </c>
+      <c r="N28" s="23">
         <v>0</v>
       </c>
       <c r="O28" s="22">
         <v>1000</v>
       </c>
-      <c r="P28" s="24">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="24"/>
+      <c r="P28" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="23"/>
       <c r="R28" s="27" t="s">
         <v>472</v>
       </c>
@@ -12182,11 +12182,11 @@
       <c r="U28" s="30" t="s">
         <v>473</v>
       </c>
-      <c r="V28" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22">
+      <c r="V28" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" ht="16.8" spans="1:22">
       <c r="A29" s="21" t="s">
         <v>474</v>
       </c>
@@ -12196,38 +12196,38 @@
       <c r="C29" s="22">
         <v>0</v>
       </c>
-      <c r="D29" s="24">
-        <v>0</v>
-      </c>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24">
-        <v>0</v>
-      </c>
-      <c r="G29" s="23" t="s">
+      <c r="D29" s="23">
+        <v>0</v>
+      </c>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23">
+        <v>0</v>
+      </c>
+      <c r="G29" s="24" t="s">
         <v>475</v>
       </c>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
       <c r="J29" s="26"/>
-      <c r="K29" s="24">
-        <v>0</v>
-      </c>
-      <c r="L29" s="24">
-        <v>0</v>
-      </c>
-      <c r="M29" s="24">
-        <v>1</v>
-      </c>
-      <c r="N29" s="24">
+      <c r="K29" s="23">
+        <v>0</v>
+      </c>
+      <c r="L29" s="23">
+        <v>0</v>
+      </c>
+      <c r="M29" s="23">
+        <v>1</v>
+      </c>
+      <c r="N29" s="23">
         <v>0</v>
       </c>
       <c r="O29" s="22">
         <v>1000</v>
       </c>
-      <c r="P29" s="24">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="24"/>
+      <c r="P29" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="23"/>
       <c r="R29" s="27" t="s">
         <v>476</v>
       </c>
@@ -12240,7 +12240,7 @@
       <c r="U29" s="30" t="s">
         <v>477</v>
       </c>
-      <c r="V29" s="24">
+      <c r="V29" s="23">
         <v>1</v>
       </c>
     </row>
@@ -12258,7 +12258,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:V26"/>
   <sheetViews>
@@ -12270,31 +12270,31 @@
       <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="26.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="12.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="20.1666666666667" customWidth="1"/>
-    <col min="4" max="4" width="9.33333333333333" customWidth="1"/>
-    <col min="5" max="5" width="12.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" customWidth="1"/>
+    <col min="4" max="4" width="9.3359375" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="22.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" customWidth="1"/>
     <col min="8" max="8" width="34" customWidth="1"/>
-    <col min="9" max="9" width="18.6666666666667" customWidth="1"/>
-    <col min="10" max="10" width="58.3333333333333" customWidth="1"/>
-    <col min="11" max="11" width="31.5083333333333" customWidth="1"/>
-    <col min="12" max="13" width="14.1666666666667" customWidth="1"/>
-    <col min="14" max="14" width="17.6666666666667" customWidth="1"/>
-    <col min="15" max="15" width="16.5083333333333" customWidth="1"/>
-    <col min="16" max="16" width="12.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" customWidth="1"/>
+    <col min="10" max="10" width="58.3359375" customWidth="1"/>
+    <col min="11" max="11" width="31.5078125" customWidth="1"/>
+    <col min="12" max="13" width="14.1640625" customWidth="1"/>
+    <col min="14" max="14" width="17.6640625" customWidth="1"/>
+    <col min="15" max="15" width="16.5078125" customWidth="1"/>
+    <col min="16" max="16" width="12.6640625" customWidth="1"/>
     <col min="17" max="17" width="14" customWidth="1"/>
-    <col min="18" max="18" width="27.6666666666667" customWidth="1"/>
-    <col min="19" max="20" width="23.3333333333333" customWidth="1"/>
-    <col min="21" max="21" width="21.5083333333333" customWidth="1"/>
-    <col min="22" max="22" width="8.66666666666667" customWidth="1"/>
+    <col min="18" max="18" width="27.6640625" customWidth="1"/>
+    <col min="19" max="20" width="23.3359375" customWidth="1"/>
+    <col min="21" max="21" width="21.5078125" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="27" spans="1:22">
+    <row r="1" s="1" customFormat="1" spans="1:22">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -12702,7 +12702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:22">
+    <row r="7" s="3" customFormat="1" ht="17" spans="1:22">
       <c r="A7" s="6" t="s">
         <v>30</v>
       </c>
@@ -12770,7 +12770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="1:22">
+    <row r="8" s="3" customFormat="1" ht="17" spans="1:22">
       <c r="A8" s="6" t="s">
         <v>31</v>
       </c>
@@ -12838,7 +12838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" spans="1:22">
+    <row r="9" s="3" customFormat="1" ht="17" spans="1:22">
       <c r="A9" s="6" t="s">
         <v>32</v>
       </c>
@@ -13884,7 +13884,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:V80"/>
   <sheetViews>
@@ -13893,34 +13893,34 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="26.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="12.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="20.1666666666667" customWidth="1"/>
-    <col min="4" max="4" width="9.33333333333333" customWidth="1"/>
-    <col min="5" max="5" width="12.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" customWidth="1"/>
+    <col min="4" max="4" width="9.3359375" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="22.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" customWidth="1"/>
     <col min="8" max="8" width="34" customWidth="1"/>
-    <col min="9" max="9" width="18.6666666666667" customWidth="1"/>
-    <col min="10" max="10" width="58.3333333333333" customWidth="1"/>
-    <col min="11" max="11" width="31.5083333333333" customWidth="1"/>
-    <col min="12" max="13" width="14.1666666666667" customWidth="1"/>
-    <col min="14" max="14" width="17.6666666666667" customWidth="1"/>
-    <col min="15" max="15" width="16.5083333333333" customWidth="1"/>
-    <col min="16" max="16" width="12.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" customWidth="1"/>
+    <col min="10" max="10" width="58.3359375" customWidth="1"/>
+    <col min="11" max="11" width="31.5078125" customWidth="1"/>
+    <col min="12" max="13" width="14.1640625" customWidth="1"/>
+    <col min="14" max="14" width="17.6640625" customWidth="1"/>
+    <col min="15" max="15" width="16.5078125" customWidth="1"/>
+    <col min="16" max="16" width="12.6640625" customWidth="1"/>
     <col min="17" max="17" width="14" customWidth="1"/>
-    <col min="18" max="18" width="27.6666666666667" customWidth="1"/>
-    <col min="19" max="20" width="23.3333333333333" customWidth="1"/>
-    <col min="21" max="21" width="21.5083333333333" customWidth="1"/>
-    <col min="22" max="22" width="8.66666666666667" customWidth="1"/>
+    <col min="18" max="18" width="27.6640625" customWidth="1"/>
+    <col min="19" max="20" width="23.3359375" customWidth="1"/>
+    <col min="21" max="21" width="21.5078125" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="27" spans="1:22">
+    <row r="1" s="1" customFormat="1" spans="1:22">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -14328,7 +14328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:22">
+    <row r="7" s="3" customFormat="1" ht="17" spans="1:22">
       <c r="A7" s="6" t="s">
         <v>30</v>
       </c>
@@ -14396,7 +14396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="1:22">
+    <row r="8" s="3" customFormat="1" ht="17" spans="1:22">
       <c r="A8" s="6" t="s">
         <v>31</v>
       </c>
@@ -14464,7 +14464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" spans="1:22">
+    <row r="9" s="3" customFormat="1" ht="17" spans="1:22">
       <c r="A9" s="6" t="s">
         <v>32</v>
       </c>
@@ -18534,7 +18534,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:V10"/>
   <sheetViews>
@@ -18546,31 +18546,31 @@
       <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="26.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="12.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="20.1666666666667" customWidth="1"/>
-    <col min="4" max="4" width="9.33333333333333" customWidth="1"/>
-    <col min="5" max="5" width="12.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" customWidth="1"/>
+    <col min="4" max="4" width="9.3359375" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="22.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" customWidth="1"/>
     <col min="8" max="8" width="34" customWidth="1"/>
-    <col min="9" max="9" width="18.6666666666667" customWidth="1"/>
-    <col min="10" max="10" width="58.3333333333333" customWidth="1"/>
-    <col min="11" max="11" width="31.5083333333333" customWidth="1"/>
-    <col min="12" max="13" width="14.1666666666667" customWidth="1"/>
-    <col min="14" max="14" width="17.6666666666667" customWidth="1"/>
-    <col min="15" max="15" width="16.5083333333333" customWidth="1"/>
-    <col min="16" max="16" width="12.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" customWidth="1"/>
+    <col min="10" max="10" width="58.3359375" customWidth="1"/>
+    <col min="11" max="11" width="31.5078125" customWidth="1"/>
+    <col min="12" max="13" width="14.1640625" customWidth="1"/>
+    <col min="14" max="14" width="17.6640625" customWidth="1"/>
+    <col min="15" max="15" width="16.5078125" customWidth="1"/>
+    <col min="16" max="16" width="12.6640625" customWidth="1"/>
     <col min="17" max="17" width="14" customWidth="1"/>
-    <col min="18" max="18" width="27.6666666666667" customWidth="1"/>
-    <col min="19" max="20" width="23.3333333333333" customWidth="1"/>
-    <col min="21" max="21" width="21.5083333333333" customWidth="1"/>
-    <col min="22" max="22" width="8.66666666666667" customWidth="1"/>
+    <col min="18" max="18" width="27.6640625" customWidth="1"/>
+    <col min="19" max="20" width="23.3359375" customWidth="1"/>
+    <col min="21" max="21" width="21.5078125" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="27" spans="1:22">
+    <row r="1" s="1" customFormat="1" spans="1:22">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -18978,7 +18978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:22">
+    <row r="7" s="3" customFormat="1" ht="17" spans="1:22">
       <c r="A7" s="6" t="s">
         <v>30</v>
       </c>
@@ -19046,7 +19046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="1:22">
+    <row r="8" s="3" customFormat="1" ht="17" spans="1:22">
       <c r="A8" s="6" t="s">
         <v>31</v>
       </c>
@@ -19114,7 +19114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" spans="1:22">
+    <row r="9" s="3" customFormat="1" ht="17" spans="1:22">
       <c r="A9" s="6" t="s">
         <v>32</v>
       </c>

--- a/_Out/NFDataCfg/Excel/Item.xlsx
+++ b/_Out/NFDataCfg/Excel/Item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="23360"/>
+    <workbookView windowHeight="21120"/>
   </bookViews>
   <sheets>
     <sheet name="Property_scrolls-3-building" sheetId="5" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615">
   <si>
     <t>Id</t>
   </si>
@@ -951,6 +951,78 @@
   </si>
   <si>
     <t>NameID_Building202</t>
+  </si>
+  <si>
+    <t>Item_Building210</t>
+  </si>
+  <si>
+    <t>DescID_Building210</t>
+  </si>
+  <si>
+    <t>Building210</t>
+  </si>
+  <si>
+    <t>NameID_Building210</t>
+  </si>
+  <si>
+    <t>Item_Building211</t>
+  </si>
+  <si>
+    <t>DescID_Building211</t>
+  </si>
+  <si>
+    <t>Building211</t>
+  </si>
+  <si>
+    <t>NameID_Building211</t>
+  </si>
+  <si>
+    <t>Item_Building212</t>
+  </si>
+  <si>
+    <t>DescID_Building212</t>
+  </si>
+  <si>
+    <t>Building212</t>
+  </si>
+  <si>
+    <t>NameID_Building212</t>
+  </si>
+  <si>
+    <t>Item_Building220</t>
+  </si>
+  <si>
+    <t>DescID_Building220</t>
+  </si>
+  <si>
+    <t>Building220</t>
+  </si>
+  <si>
+    <t>NameID_Building220</t>
+  </si>
+  <si>
+    <t>Item_Building221</t>
+  </si>
+  <si>
+    <t>DescID_Building221</t>
+  </si>
+  <si>
+    <t>Building221</t>
+  </si>
+  <si>
+    <t>NameID_Building221</t>
+  </si>
+  <si>
+    <t>Item_Building222</t>
+  </si>
+  <si>
+    <t>DescID_Building222</t>
+  </si>
+  <si>
+    <t>Building222</t>
+  </si>
+  <si>
+    <t>NameID_Building222</t>
   </si>
   <si>
     <t>Item_Gold_Item1</t>
@@ -1811,9 +1883,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1856,22 +1928,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -1879,8 +1935,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1894,23 +1951,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1925,7 +1991,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1947,9 +2021,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1963,17 +2036,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1984,19 +2057,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2057,13 +2129,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2075,7 +2153,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2087,25 +2165,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2123,19 +2207,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2153,7 +2225,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2165,7 +2249,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2183,31 +2279,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2219,19 +2297,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2411,6 +2483,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2422,39 +2503,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2476,11 +2524,35 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2498,148 +2570,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3117,14 +3189,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:V73"/>
+  <dimension ref="A1:V79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="10" topLeftCell="O11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="10" topLeftCell="L47" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomRight" activeCell="U74" sqref="U74:U76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -7483,6 +7555,354 @@
         <v>306</v>
       </c>
       <c r="V73" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" s="31" customFormat="1" ht="17" spans="1:22">
+      <c r="A74" s="42" t="s">
+        <v>307</v>
+      </c>
+      <c r="B74" s="35">
+        <v>3</v>
+      </c>
+      <c r="C74" s="35">
+        <v>4</v>
+      </c>
+      <c r="D74" s="35">
+        <v>1</v>
+      </c>
+      <c r="E74" s="35"/>
+      <c r="F74" s="35">
+        <v>7</v>
+      </c>
+      <c r="G74" s="35" t="s">
+        <v>308</v>
+      </c>
+      <c r="H74" s="35"/>
+      <c r="I74" s="35"/>
+      <c r="J74" s="35"/>
+      <c r="K74" s="35">
+        <v>350</v>
+      </c>
+      <c r="L74" s="35">
+        <v>0</v>
+      </c>
+      <c r="M74" s="35">
+        <v>1</v>
+      </c>
+      <c r="N74" s="35">
+        <v>0</v>
+      </c>
+      <c r="O74" s="35">
+        <v>350</v>
+      </c>
+      <c r="P74" s="35">
+        <v>1</v>
+      </c>
+      <c r="Q74" s="35"/>
+      <c r="R74" s="45" t="s">
+        <v>309</v>
+      </c>
+      <c r="S74" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="T74" s="45" t="s">
+        <v>309</v>
+      </c>
+      <c r="U74" s="35" t="s">
+        <v>310</v>
+      </c>
+      <c r="V74" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" s="31" customFormat="1" ht="17" spans="1:22">
+      <c r="A75" s="42" t="s">
+        <v>311</v>
+      </c>
+      <c r="B75" s="35">
+        <v>3</v>
+      </c>
+      <c r="C75" s="35">
+        <v>4</v>
+      </c>
+      <c r="D75" s="35">
+        <v>1</v>
+      </c>
+      <c r="E75" s="35"/>
+      <c r="F75" s="35">
+        <v>7</v>
+      </c>
+      <c r="G75" s="35" t="s">
+        <v>312</v>
+      </c>
+      <c r="H75" s="35"/>
+      <c r="I75" s="35"/>
+      <c r="J75" s="35"/>
+      <c r="K75" s="35">
+        <v>350</v>
+      </c>
+      <c r="L75" s="35">
+        <v>0</v>
+      </c>
+      <c r="M75" s="35">
+        <v>1</v>
+      </c>
+      <c r="N75" s="35">
+        <v>0</v>
+      </c>
+      <c r="O75" s="35">
+        <v>350</v>
+      </c>
+      <c r="P75" s="35">
+        <v>1</v>
+      </c>
+      <c r="Q75" s="35"/>
+      <c r="R75" s="45" t="s">
+        <v>313</v>
+      </c>
+      <c r="S75" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="T75" s="45" t="s">
+        <v>313</v>
+      </c>
+      <c r="U75" s="35" t="s">
+        <v>314</v>
+      </c>
+      <c r="V75" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" s="31" customFormat="1" ht="13" customHeight="1" spans="1:22">
+      <c r="A76" s="42" t="s">
+        <v>315</v>
+      </c>
+      <c r="B76" s="35">
+        <v>3</v>
+      </c>
+      <c r="C76" s="35">
+        <v>4</v>
+      </c>
+      <c r="D76" s="35">
+        <v>1</v>
+      </c>
+      <c r="E76" s="35"/>
+      <c r="F76" s="35">
+        <v>7</v>
+      </c>
+      <c r="G76" s="35" t="s">
+        <v>316</v>
+      </c>
+      <c r="H76" s="35"/>
+      <c r="I76" s="35"/>
+      <c r="J76" s="35"/>
+      <c r="K76" s="35">
+        <v>350</v>
+      </c>
+      <c r="L76" s="35">
+        <v>0</v>
+      </c>
+      <c r="M76" s="35">
+        <v>1</v>
+      </c>
+      <c r="N76" s="35">
+        <v>0</v>
+      </c>
+      <c r="O76" s="35">
+        <v>350</v>
+      </c>
+      <c r="P76" s="35">
+        <v>1</v>
+      </c>
+      <c r="Q76" s="35"/>
+      <c r="R76" s="45" t="s">
+        <v>317</v>
+      </c>
+      <c r="S76" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="T76" s="45" t="s">
+        <v>317</v>
+      </c>
+      <c r="U76" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="V76" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" s="31" customFormat="1" ht="17" spans="1:22">
+      <c r="A77" s="42" t="s">
+        <v>319</v>
+      </c>
+      <c r="B77" s="35">
+        <v>3</v>
+      </c>
+      <c r="C77" s="35">
+        <v>4</v>
+      </c>
+      <c r="D77" s="35">
+        <v>1</v>
+      </c>
+      <c r="E77" s="35"/>
+      <c r="F77" s="35">
+        <v>7</v>
+      </c>
+      <c r="G77" s="35" t="s">
+        <v>320</v>
+      </c>
+      <c r="H77" s="35"/>
+      <c r="I77" s="35"/>
+      <c r="J77" s="35"/>
+      <c r="K77" s="35">
+        <v>350</v>
+      </c>
+      <c r="L77" s="35">
+        <v>0</v>
+      </c>
+      <c r="M77" s="35">
+        <v>1</v>
+      </c>
+      <c r="N77" s="35">
+        <v>0</v>
+      </c>
+      <c r="O77" s="35">
+        <v>350</v>
+      </c>
+      <c r="P77" s="35">
+        <v>1</v>
+      </c>
+      <c r="Q77" s="35"/>
+      <c r="R77" s="45" t="s">
+        <v>321</v>
+      </c>
+      <c r="S77" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="T77" s="45" t="s">
+        <v>321</v>
+      </c>
+      <c r="U77" s="35" t="s">
+        <v>322</v>
+      </c>
+      <c r="V77" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" s="31" customFormat="1" ht="17" spans="1:22">
+      <c r="A78" s="42" t="s">
+        <v>323</v>
+      </c>
+      <c r="B78" s="35">
+        <v>3</v>
+      </c>
+      <c r="C78" s="35">
+        <v>4</v>
+      </c>
+      <c r="D78" s="35">
+        <v>1</v>
+      </c>
+      <c r="E78" s="35"/>
+      <c r="F78" s="35">
+        <v>7</v>
+      </c>
+      <c r="G78" s="35" t="s">
+        <v>324</v>
+      </c>
+      <c r="H78" s="35"/>
+      <c r="I78" s="35"/>
+      <c r="J78" s="35"/>
+      <c r="K78" s="35">
+        <v>350</v>
+      </c>
+      <c r="L78" s="35">
+        <v>0</v>
+      </c>
+      <c r="M78" s="35">
+        <v>1</v>
+      </c>
+      <c r="N78" s="35">
+        <v>0</v>
+      </c>
+      <c r="O78" s="35">
+        <v>350</v>
+      </c>
+      <c r="P78" s="35">
+        <v>1</v>
+      </c>
+      <c r="Q78" s="35"/>
+      <c r="R78" s="45" t="s">
+        <v>325</v>
+      </c>
+      <c r="S78" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="T78" s="45" t="s">
+        <v>325</v>
+      </c>
+      <c r="U78" s="35" t="s">
+        <v>326</v>
+      </c>
+      <c r="V78" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" s="31" customFormat="1" ht="13" customHeight="1" spans="1:22">
+      <c r="A79" s="42" t="s">
+        <v>327</v>
+      </c>
+      <c r="B79" s="35">
+        <v>3</v>
+      </c>
+      <c r="C79" s="35">
+        <v>4</v>
+      </c>
+      <c r="D79" s="35">
+        <v>1</v>
+      </c>
+      <c r="E79" s="35"/>
+      <c r="F79" s="35">
+        <v>7</v>
+      </c>
+      <c r="G79" s="35" t="s">
+        <v>328</v>
+      </c>
+      <c r="H79" s="35"/>
+      <c r="I79" s="35"/>
+      <c r="J79" s="35"/>
+      <c r="K79" s="35">
+        <v>350</v>
+      </c>
+      <c r="L79" s="35">
+        <v>0</v>
+      </c>
+      <c r="M79" s="35">
+        <v>1</v>
+      </c>
+      <c r="N79" s="35">
+        <v>0</v>
+      </c>
+      <c r="O79" s="35">
+        <v>350</v>
+      </c>
+      <c r="P79" s="35">
+        <v>1</v>
+      </c>
+      <c r="Q79" s="35"/>
+      <c r="R79" s="45" t="s">
+        <v>329</v>
+      </c>
+      <c r="S79" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="T79" s="45" t="s">
+        <v>329</v>
+      </c>
+      <c r="U79" s="35" t="s">
+        <v>330</v>
+      </c>
+      <c r="V79" s="35">
         <v>0</v>
       </c>
     </row>
@@ -8218,7 +8638,7 @@
     </row>
     <row r="11" s="31" customFormat="1" spans="1:22">
       <c r="A11" s="33" t="s">
-        <v>307</v>
+        <v>331</v>
       </c>
       <c r="B11" s="34">
         <v>2</v>
@@ -8234,10 +8654,10 @@
         <v>0</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>308</v>
+        <v>332</v>
       </c>
       <c r="H11" s="33" t="s">
-        <v>309</v>
+        <v>333</v>
       </c>
       <c r="I11" s="34"/>
       <c r="J11" s="34"/>
@@ -8262,13 +8682,13 @@
       <c r="Q11" s="34"/>
       <c r="R11" s="34"/>
       <c r="S11" s="33" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T11" s="33" t="s">
-        <v>311</v>
+        <v>335</v>
       </c>
       <c r="U11" s="33" t="s">
-        <v>312</v>
+        <v>336</v>
       </c>
       <c r="V11" s="34">
         <v>0</v>
@@ -8276,7 +8696,7 @@
     </row>
     <row r="12" s="31" customFormat="1" spans="1:22">
       <c r="A12" s="36" t="s">
-        <v>313</v>
+        <v>337</v>
       </c>
       <c r="B12" s="35">
         <v>2</v>
@@ -8292,7 +8712,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>314</v>
+        <v>338</v>
       </c>
       <c r="H12" s="36"/>
       <c r="I12" s="35"/>
@@ -8318,13 +8738,13 @@
       <c r="Q12" s="35"/>
       <c r="R12" s="35"/>
       <c r="S12" s="33" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T12" s="33" t="s">
-        <v>315</v>
+        <v>339</v>
       </c>
       <c r="U12" s="33" t="s">
-        <v>316</v>
+        <v>340</v>
       </c>
       <c r="V12" s="35">
         <v>0</v>
@@ -8332,7 +8752,7 @@
     </row>
     <row r="13" s="32" customFormat="1" spans="1:22">
       <c r="A13" s="11" t="s">
-        <v>317</v>
+        <v>341</v>
       </c>
       <c r="B13" s="37">
         <v>2</v>
@@ -8348,10 +8768,10 @@
         <v>0</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>318</v>
+        <v>342</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>309</v>
+        <v>333</v>
       </c>
       <c r="I13" s="37"/>
       <c r="J13" s="37"/>
@@ -8376,13 +8796,13 @@
       <c r="Q13" s="37"/>
       <c r="R13" s="37"/>
       <c r="S13" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T13" s="11" t="s">
-        <v>319</v>
+        <v>343</v>
       </c>
       <c r="U13" s="11" t="s">
-        <v>320</v>
+        <v>344</v>
       </c>
       <c r="V13" s="37">
         <v>0</v>
@@ -8390,7 +8810,7 @@
     </row>
     <row r="14" s="32" customFormat="1" spans="1:22">
       <c r="A14" s="39" t="s">
-        <v>321</v>
+        <v>345</v>
       </c>
       <c r="B14" s="38">
         <v>2</v>
@@ -8406,10 +8826,10 @@
         <v>0</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>318</v>
+        <v>342</v>
       </c>
       <c r="H14" s="39" t="s">
-        <v>322</v>
+        <v>346</v>
       </c>
       <c r="I14" s="38"/>
       <c r="J14" s="38"/>
@@ -8434,13 +8854,13 @@
       <c r="Q14" s="38"/>
       <c r="R14" s="38"/>
       <c r="S14" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T14" s="11" t="s">
-        <v>323</v>
+        <v>347</v>
       </c>
       <c r="U14" s="11" t="s">
-        <v>320</v>
+        <v>344</v>
       </c>
       <c r="V14" s="38">
         <v>0</v>
@@ -8448,7 +8868,7 @@
     </row>
     <row r="15" s="32" customFormat="1" spans="1:22">
       <c r="A15" s="39" t="s">
-        <v>324</v>
+        <v>348</v>
       </c>
       <c r="B15" s="37">
         <v>2</v>
@@ -8464,10 +8884,10 @@
         <v>0</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>318</v>
+        <v>342</v>
       </c>
       <c r="H15" s="39" t="s">
-        <v>325</v>
+        <v>349</v>
       </c>
       <c r="I15" s="38"/>
       <c r="J15" s="38"/>
@@ -8492,13 +8912,13 @@
       <c r="Q15" s="38"/>
       <c r="R15" s="37"/>
       <c r="S15" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T15" s="11" t="s">
-        <v>326</v>
+        <v>350</v>
       </c>
       <c r="U15" s="11" t="s">
-        <v>320</v>
+        <v>344</v>
       </c>
       <c r="V15" s="38">
         <v>0</v>
@@ -8506,7 +8926,7 @@
     </row>
     <row r="16" s="32" customFormat="1" spans="1:22">
       <c r="A16" s="39" t="s">
-        <v>327</v>
+        <v>351</v>
       </c>
       <c r="B16" s="38">
         <v>2</v>
@@ -8522,10 +8942,10 @@
         <v>0</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>318</v>
+        <v>342</v>
       </c>
       <c r="H16" s="39" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="I16" s="38"/>
       <c r="J16" s="38"/>
@@ -8550,13 +8970,13 @@
       <c r="Q16" s="38"/>
       <c r="R16" s="38"/>
       <c r="S16" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T16" s="11" t="s">
-        <v>329</v>
+        <v>353</v>
       </c>
       <c r="U16" s="11" t="s">
-        <v>320</v>
+        <v>344</v>
       </c>
       <c r="V16" s="38">
         <v>0</v>
@@ -8564,7 +8984,7 @@
     </row>
     <row r="17" s="32" customFormat="1" spans="1:22">
       <c r="A17" s="39" t="s">
-        <v>330</v>
+        <v>354</v>
       </c>
       <c r="B17" s="38">
         <v>2</v>
@@ -8580,10 +9000,10 @@
         <v>0</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>318</v>
+        <v>342</v>
       </c>
       <c r="H17" s="39" t="s">
-        <v>331</v>
+        <v>355</v>
       </c>
       <c r="I17" s="38"/>
       <c r="J17" s="38"/>
@@ -8608,13 +9028,13 @@
       <c r="Q17" s="38"/>
       <c r="R17" s="38"/>
       <c r="S17" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T17" s="11" t="s">
-        <v>332</v>
+        <v>356</v>
       </c>
       <c r="U17" s="11" t="s">
-        <v>320</v>
+        <v>344</v>
       </c>
       <c r="V17" s="38">
         <v>0</v>
@@ -8622,7 +9042,7 @@
     </row>
     <row r="18" s="32" customFormat="1" spans="1:22">
       <c r="A18" s="39" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
       <c r="B18" s="38">
         <v>2</v>
@@ -8638,7 +9058,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>318</v>
+        <v>342</v>
       </c>
       <c r="H18" s="39"/>
       <c r="I18" s="38"/>
@@ -8664,13 +9084,13 @@
       <c r="Q18" s="38"/>
       <c r="R18" s="38"/>
       <c r="S18" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T18" s="11" t="s">
-        <v>334</v>
+        <v>358</v>
       </c>
       <c r="U18" s="11" t="s">
-        <v>320</v>
+        <v>344</v>
       </c>
       <c r="V18" s="38">
         <v>0</v>
@@ -8678,7 +9098,7 @@
     </row>
     <row r="19" s="32" customFormat="1" spans="1:22">
       <c r="A19" s="39" t="s">
-        <v>335</v>
+        <v>359</v>
       </c>
       <c r="B19" s="37">
         <v>2</v>
@@ -8694,7 +9114,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="39" t="s">
-        <v>336</v>
+        <v>360</v>
       </c>
       <c r="H19" s="39"/>
       <c r="I19" s="38"/>
@@ -8720,13 +9140,13 @@
       <c r="Q19" s="38"/>
       <c r="R19" s="37"/>
       <c r="S19" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T19" s="39" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="U19" s="39" t="s">
-        <v>338</v>
+        <v>362</v>
       </c>
       <c r="V19" s="38">
         <v>0</v>
@@ -8734,7 +9154,7 @@
     </row>
     <row r="20" s="32" customFormat="1" spans="1:22">
       <c r="A20" s="39" t="s">
-        <v>339</v>
+        <v>363</v>
       </c>
       <c r="B20" s="38">
         <v>2</v>
@@ -8750,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="39" t="s">
-        <v>336</v>
+        <v>360</v>
       </c>
       <c r="H20" s="39"/>
       <c r="I20" s="38"/>
@@ -8776,13 +9196,13 @@
       <c r="Q20" s="38"/>
       <c r="R20" s="38"/>
       <c r="S20" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T20" s="39" t="s">
-        <v>340</v>
+        <v>364</v>
       </c>
       <c r="U20" s="39" t="s">
-        <v>338</v>
+        <v>362</v>
       </c>
       <c r="V20" s="38">
         <v>0</v>
@@ -8790,7 +9210,7 @@
     </row>
     <row r="21" s="32" customFormat="1" spans="1:22">
       <c r="A21" s="39" t="s">
-        <v>341</v>
+        <v>365</v>
       </c>
       <c r="B21" s="37">
         <v>2</v>
@@ -8806,7 +9226,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="39" t="s">
-        <v>336</v>
+        <v>360</v>
       </c>
       <c r="H21" s="39"/>
       <c r="I21" s="38"/>
@@ -8832,13 +9252,13 @@
       <c r="Q21" s="38"/>
       <c r="R21" s="37"/>
       <c r="S21" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T21" s="39" t="s">
-        <v>342</v>
+        <v>366</v>
       </c>
       <c r="U21" s="39" t="s">
-        <v>338</v>
+        <v>362</v>
       </c>
       <c r="V21" s="38">
         <v>0</v>
@@ -8846,7 +9266,7 @@
     </row>
     <row r="22" s="32" customFormat="1" spans="1:22">
       <c r="A22" s="39" t="s">
-        <v>343</v>
+        <v>367</v>
       </c>
       <c r="B22" s="38">
         <v>2</v>
@@ -8862,7 +9282,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="39" t="s">
-        <v>336</v>
+        <v>360</v>
       </c>
       <c r="H22" s="39"/>
       <c r="I22" s="38"/>
@@ -8888,13 +9308,13 @@
       <c r="Q22" s="38"/>
       <c r="R22" s="38"/>
       <c r="S22" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T22" s="39" t="s">
-        <v>344</v>
+        <v>368</v>
       </c>
       <c r="U22" s="39" t="s">
-        <v>338</v>
+        <v>362</v>
       </c>
       <c r="V22" s="38">
         <v>0</v>
@@ -8902,7 +9322,7 @@
     </row>
     <row r="23" s="32" customFormat="1" spans="1:22">
       <c r="A23" s="39" t="s">
-        <v>345</v>
+        <v>369</v>
       </c>
       <c r="B23" s="38">
         <v>2</v>
@@ -8918,7 +9338,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="39" t="s">
-        <v>336</v>
+        <v>360</v>
       </c>
       <c r="H23" s="39"/>
       <c r="I23" s="38"/>
@@ -8944,13 +9364,13 @@
       <c r="Q23" s="38"/>
       <c r="R23" s="38"/>
       <c r="S23" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T23" s="39" t="s">
-        <v>346</v>
+        <v>370</v>
       </c>
       <c r="U23" s="39" t="s">
-        <v>338</v>
+        <v>362</v>
       </c>
       <c r="V23" s="38">
         <v>0</v>
@@ -8958,7 +9378,7 @@
     </row>
     <row r="24" s="32" customFormat="1" spans="1:22">
       <c r="A24" s="39" t="s">
-        <v>347</v>
+        <v>371</v>
       </c>
       <c r="B24" s="38">
         <v>2</v>
@@ -8974,7 +9394,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="39" t="s">
-        <v>336</v>
+        <v>360</v>
       </c>
       <c r="H24" s="39"/>
       <c r="I24" s="38"/>
@@ -9000,13 +9420,13 @@
       <c r="Q24" s="38"/>
       <c r="R24" s="38"/>
       <c r="S24" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T24" s="39" t="s">
-        <v>348</v>
+        <v>372</v>
       </c>
       <c r="U24" s="39" t="s">
-        <v>338</v>
+        <v>362</v>
       </c>
       <c r="V24" s="38">
         <v>0</v>
@@ -9014,7 +9434,7 @@
     </row>
     <row r="25" s="32" customFormat="1" spans="1:22">
       <c r="A25" s="39" t="s">
-        <v>349</v>
+        <v>373</v>
       </c>
       <c r="B25" s="37">
         <v>2</v>
@@ -9030,7 +9450,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="39" t="s">
-        <v>350</v>
+        <v>374</v>
       </c>
       <c r="H25" s="39"/>
       <c r="I25" s="38"/>
@@ -9056,13 +9476,13 @@
       <c r="Q25" s="38"/>
       <c r="R25" s="37"/>
       <c r="S25" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T25" s="39" t="s">
-        <v>351</v>
+        <v>375</v>
       </c>
       <c r="U25" s="39" t="s">
-        <v>352</v>
+        <v>376</v>
       </c>
       <c r="V25" s="38">
         <v>0</v>
@@ -9070,7 +9490,7 @@
     </row>
     <row r="26" s="32" customFormat="1" spans="1:22">
       <c r="A26" s="39" t="s">
-        <v>353</v>
+        <v>377</v>
       </c>
       <c r="B26" s="38">
         <v>2</v>
@@ -9086,7 +9506,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="39" t="s">
-        <v>350</v>
+        <v>374</v>
       </c>
       <c r="H26" s="39"/>
       <c r="I26" s="38"/>
@@ -9112,13 +9532,13 @@
       <c r="Q26" s="38"/>
       <c r="R26" s="38"/>
       <c r="S26" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T26" s="39" t="s">
-        <v>354</v>
+        <v>378</v>
       </c>
       <c r="U26" s="39" t="s">
-        <v>352</v>
+        <v>376</v>
       </c>
       <c r="V26" s="38">
         <v>0</v>
@@ -9126,7 +9546,7 @@
     </row>
     <row r="27" s="32" customFormat="1" spans="1:22">
       <c r="A27" s="39" t="s">
-        <v>355</v>
+        <v>379</v>
       </c>
       <c r="B27" s="37">
         <v>2</v>
@@ -9142,7 +9562,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="39" t="s">
-        <v>350</v>
+        <v>374</v>
       </c>
       <c r="H27" s="39"/>
       <c r="I27" s="38"/>
@@ -9168,13 +9588,13 @@
       <c r="Q27" s="38"/>
       <c r="R27" s="37"/>
       <c r="S27" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T27" s="39" t="s">
-        <v>356</v>
+        <v>380</v>
       </c>
       <c r="U27" s="39" t="s">
-        <v>352</v>
+        <v>376</v>
       </c>
       <c r="V27" s="38">
         <v>0</v>
@@ -9182,7 +9602,7 @@
     </row>
     <row r="28" s="32" customFormat="1" spans="1:22">
       <c r="A28" s="39" t="s">
-        <v>357</v>
+        <v>381</v>
       </c>
       <c r="B28" s="38">
         <v>2</v>
@@ -9198,7 +9618,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="39" t="s">
-        <v>350</v>
+        <v>374</v>
       </c>
       <c r="H28" s="39"/>
       <c r="I28" s="38"/>
@@ -9224,13 +9644,13 @@
       <c r="Q28" s="38"/>
       <c r="R28" s="38"/>
       <c r="S28" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T28" s="39" t="s">
-        <v>358</v>
+        <v>382</v>
       </c>
       <c r="U28" s="39" t="s">
-        <v>352</v>
+        <v>376</v>
       </c>
       <c r="V28" s="38">
         <v>0</v>
@@ -9238,7 +9658,7 @@
     </row>
     <row r="29" s="32" customFormat="1" spans="1:22">
       <c r="A29" s="39" t="s">
-        <v>359</v>
+        <v>383</v>
       </c>
       <c r="B29" s="38">
         <v>2</v>
@@ -9254,7 +9674,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="39" t="s">
-        <v>350</v>
+        <v>374</v>
       </c>
       <c r="H29" s="39"/>
       <c r="I29" s="38"/>
@@ -9280,13 +9700,13 @@
       <c r="Q29" s="38"/>
       <c r="R29" s="38"/>
       <c r="S29" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T29" s="39" t="s">
-        <v>360</v>
+        <v>384</v>
       </c>
       <c r="U29" s="39" t="s">
-        <v>352</v>
+        <v>376</v>
       </c>
       <c r="V29" s="38">
         <v>0</v>
@@ -9294,7 +9714,7 @@
     </row>
     <row r="30" s="32" customFormat="1" spans="1:22">
       <c r="A30" s="39" t="s">
-        <v>361</v>
+        <v>385</v>
       </c>
       <c r="B30" s="38">
         <v>2</v>
@@ -9310,7 +9730,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="39" t="s">
-        <v>350</v>
+        <v>374</v>
       </c>
       <c r="H30" s="39"/>
       <c r="I30" s="38"/>
@@ -9336,13 +9756,13 @@
       <c r="Q30" s="38"/>
       <c r="R30" s="38"/>
       <c r="S30" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T30" s="39" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="U30" s="39" t="s">
-        <v>352</v>
+        <v>376</v>
       </c>
       <c r="V30" s="38">
         <v>0</v>
@@ -9350,7 +9770,7 @@
     </row>
     <row r="31" s="32" customFormat="1" spans="1:22">
       <c r="A31" s="39" t="s">
-        <v>363</v>
+        <v>387</v>
       </c>
       <c r="B31" s="37">
         <v>2</v>
@@ -9366,7 +9786,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="39" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="H31" s="39"/>
       <c r="I31" s="38"/>
@@ -9392,13 +9812,13 @@
       <c r="Q31" s="38"/>
       <c r="R31" s="37"/>
       <c r="S31" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T31" s="39" t="s">
-        <v>365</v>
+        <v>389</v>
       </c>
       <c r="U31" s="39" t="s">
-        <v>366</v>
+        <v>390</v>
       </c>
       <c r="V31" s="38">
         <v>0</v>
@@ -9406,7 +9826,7 @@
     </row>
     <row r="32" s="32" customFormat="1" spans="1:22">
       <c r="A32" s="39" t="s">
-        <v>367</v>
+        <v>391</v>
       </c>
       <c r="B32" s="38">
         <v>2</v>
@@ -9422,7 +9842,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="39" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="H32" s="39"/>
       <c r="I32" s="38"/>
@@ -9448,13 +9868,13 @@
       <c r="Q32" s="38"/>
       <c r="R32" s="38"/>
       <c r="S32" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T32" s="39" t="s">
-        <v>368</v>
+        <v>392</v>
       </c>
       <c r="U32" s="39" t="s">
-        <v>366</v>
+        <v>390</v>
       </c>
       <c r="V32" s="38">
         <v>0</v>
@@ -9462,7 +9882,7 @@
     </row>
     <row r="33" s="32" customFormat="1" spans="1:22">
       <c r="A33" s="39" t="s">
-        <v>369</v>
+        <v>393</v>
       </c>
       <c r="B33" s="37">
         <v>2</v>
@@ -9478,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="39" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="H33" s="39"/>
       <c r="I33" s="38"/>
@@ -9504,13 +9924,13 @@
       <c r="Q33" s="38"/>
       <c r="R33" s="37"/>
       <c r="S33" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T33" s="39" t="s">
-        <v>370</v>
+        <v>394</v>
       </c>
       <c r="U33" s="39" t="s">
-        <v>366</v>
+        <v>390</v>
       </c>
       <c r="V33" s="38">
         <v>0</v>
@@ -9518,7 +9938,7 @@
     </row>
     <row r="34" s="32" customFormat="1" spans="1:22">
       <c r="A34" s="39" t="s">
-        <v>371</v>
+        <v>395</v>
       </c>
       <c r="B34" s="38">
         <v>2</v>
@@ -9534,7 +9954,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="39" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="H34" s="39"/>
       <c r="I34" s="38"/>
@@ -9560,13 +9980,13 @@
       <c r="Q34" s="38"/>
       <c r="R34" s="38"/>
       <c r="S34" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T34" s="39" t="s">
-        <v>372</v>
+        <v>396</v>
       </c>
       <c r="U34" s="39" t="s">
-        <v>366</v>
+        <v>390</v>
       </c>
       <c r="V34" s="38">
         <v>0</v>
@@ -9574,7 +9994,7 @@
     </row>
     <row r="35" s="32" customFormat="1" spans="1:22">
       <c r="A35" s="39" t="s">
-        <v>373</v>
+        <v>397</v>
       </c>
       <c r="B35" s="37">
         <v>2</v>
@@ -9590,7 +10010,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="39" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="H35" s="39"/>
       <c r="I35" s="38"/>
@@ -9616,13 +10036,13 @@
       <c r="Q35" s="38"/>
       <c r="R35" s="37"/>
       <c r="S35" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T35" s="39" t="s">
-        <v>374</v>
+        <v>398</v>
       </c>
       <c r="U35" s="39" t="s">
-        <v>366</v>
+        <v>390</v>
       </c>
       <c r="V35" s="38">
         <v>0</v>
@@ -9630,7 +10050,7 @@
     </row>
     <row r="36" s="32" customFormat="1" spans="1:22">
       <c r="A36" s="39" t="s">
-        <v>375</v>
+        <v>399</v>
       </c>
       <c r="B36" s="38">
         <v>2</v>
@@ -9646,7 +10066,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="39" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="H36" s="39"/>
       <c r="I36" s="38"/>
@@ -9672,13 +10092,13 @@
       <c r="Q36" s="38"/>
       <c r="R36" s="38"/>
       <c r="S36" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T36" s="39" t="s">
-        <v>376</v>
+        <v>400</v>
       </c>
       <c r="U36" s="39" t="s">
-        <v>366</v>
+        <v>390</v>
       </c>
       <c r="V36" s="38">
         <v>0</v>
@@ -9686,7 +10106,7 @@
     </row>
     <row r="37" s="32" customFormat="1" spans="1:22">
       <c r="A37" s="38" t="s">
-        <v>377</v>
+        <v>401</v>
       </c>
       <c r="B37" s="37">
         <v>2</v>
@@ -9702,7 +10122,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="38" t="s">
-        <v>378</v>
+        <v>402</v>
       </c>
       <c r="H37" s="39"/>
       <c r="I37" s="38"/>
@@ -9728,13 +10148,13 @@
       <c r="Q37" s="38"/>
       <c r="R37" s="37"/>
       <c r="S37" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T37" s="38" t="s">
-        <v>379</v>
+        <v>403</v>
       </c>
       <c r="U37" s="38" t="s">
-        <v>380</v>
+        <v>404</v>
       </c>
       <c r="V37" s="38">
         <v>0</v>
@@ -9742,7 +10162,7 @@
     </row>
     <row r="38" s="32" customFormat="1" spans="1:22">
       <c r="A38" s="38" t="s">
-        <v>381</v>
+        <v>405</v>
       </c>
       <c r="B38" s="38">
         <v>2</v>
@@ -9758,7 +10178,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="38" t="s">
-        <v>378</v>
+        <v>402</v>
       </c>
       <c r="H38" s="39"/>
       <c r="I38" s="38"/>
@@ -9784,13 +10204,13 @@
       <c r="Q38" s="38"/>
       <c r="R38" s="38"/>
       <c r="S38" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T38" s="38" t="s">
-        <v>379</v>
+        <v>403</v>
       </c>
       <c r="U38" s="38" t="s">
-        <v>380</v>
+        <v>404</v>
       </c>
       <c r="V38" s="38">
         <v>0</v>
@@ -9798,7 +10218,7 @@
     </row>
     <row r="39" s="32" customFormat="1" spans="1:22">
       <c r="A39" s="38" t="s">
-        <v>382</v>
+        <v>406</v>
       </c>
       <c r="B39" s="37">
         <v>2</v>
@@ -9814,7 +10234,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="38" t="s">
-        <v>378</v>
+        <v>402</v>
       </c>
       <c r="H39" s="39"/>
       <c r="I39" s="38"/>
@@ -9840,13 +10260,13 @@
       <c r="Q39" s="38"/>
       <c r="R39" s="37"/>
       <c r="S39" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T39" s="38" t="s">
-        <v>379</v>
+        <v>403</v>
       </c>
       <c r="U39" s="38" t="s">
-        <v>380</v>
+        <v>404</v>
       </c>
       <c r="V39" s="38">
         <v>0</v>
@@ -9854,7 +10274,7 @@
     </row>
     <row r="40" s="32" customFormat="1" spans="1:22">
       <c r="A40" s="38" t="s">
-        <v>383</v>
+        <v>407</v>
       </c>
       <c r="B40" s="38">
         <v>2</v>
@@ -9870,7 +10290,7 @@
         <v>0</v>
       </c>
       <c r="G40" s="38" t="s">
-        <v>378</v>
+        <v>402</v>
       </c>
       <c r="H40" s="39"/>
       <c r="I40" s="38"/>
@@ -9896,13 +10316,13 @@
       <c r="Q40" s="38"/>
       <c r="R40" s="38"/>
       <c r="S40" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T40" s="38" t="s">
-        <v>379</v>
+        <v>403</v>
       </c>
       <c r="U40" s="38" t="s">
-        <v>380</v>
+        <v>404</v>
       </c>
       <c r="V40" s="38">
         <v>0</v>
@@ -9910,7 +10330,7 @@
     </row>
     <row r="41" s="32" customFormat="1" spans="1:22">
       <c r="A41" s="38" t="s">
-        <v>384</v>
+        <v>408</v>
       </c>
       <c r="B41" s="37">
         <v>2</v>
@@ -9926,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="38" t="s">
-        <v>378</v>
+        <v>402</v>
       </c>
       <c r="H41" s="39"/>
       <c r="I41" s="38"/>
@@ -9952,13 +10372,13 @@
       <c r="Q41" s="38"/>
       <c r="R41" s="37"/>
       <c r="S41" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T41" s="38" t="s">
-        <v>379</v>
+        <v>403</v>
       </c>
       <c r="U41" s="38" t="s">
-        <v>380</v>
+        <v>404</v>
       </c>
       <c r="V41" s="38">
         <v>0</v>
@@ -9966,7 +10386,7 @@
     </row>
     <row r="42" s="32" customFormat="1" spans="1:22">
       <c r="A42" s="38" t="s">
-        <v>385</v>
+        <v>409</v>
       </c>
       <c r="B42" s="38">
         <v>2</v>
@@ -9982,7 +10402,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="38" t="s">
-        <v>378</v>
+        <v>402</v>
       </c>
       <c r="H42" s="39"/>
       <c r="I42" s="38"/>
@@ -10008,13 +10428,13 @@
       <c r="Q42" s="38"/>
       <c r="R42" s="38"/>
       <c r="S42" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T42" s="38" t="s">
-        <v>379</v>
+        <v>403</v>
       </c>
       <c r="U42" s="38" t="s">
-        <v>380</v>
+        <v>404</v>
       </c>
       <c r="V42" s="38">
         <v>0</v>
@@ -10022,7 +10442,7 @@
     </row>
     <row r="43" s="32" customFormat="1" spans="1:22">
       <c r="A43" s="39" t="s">
-        <v>386</v>
+        <v>410</v>
       </c>
       <c r="B43" s="38">
         <v>2</v>
@@ -10038,7 +10458,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="39" t="s">
-        <v>387</v>
+        <v>411</v>
       </c>
       <c r="H43" s="39"/>
       <c r="I43" s="38"/>
@@ -10064,13 +10484,13 @@
       <c r="Q43" s="38"/>
       <c r="R43" s="38"/>
       <c r="S43" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T43" s="39" t="s">
-        <v>388</v>
+        <v>412</v>
       </c>
       <c r="U43" s="39" t="s">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="V43" s="38">
         <v>0</v>
@@ -10078,7 +10498,7 @@
     </row>
     <row r="44" s="32" customFormat="1" spans="1:22">
       <c r="A44" s="39" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="B44" s="37">
         <v>2</v>
@@ -10094,7 +10514,7 @@
         <v>0</v>
       </c>
       <c r="G44" s="39" t="s">
-        <v>387</v>
+        <v>411</v>
       </c>
       <c r="H44" s="39"/>
       <c r="I44" s="38"/>
@@ -10120,13 +10540,13 @@
       <c r="Q44" s="38"/>
       <c r="R44" s="37"/>
       <c r="S44" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T44" s="39" t="s">
-        <v>391</v>
+        <v>415</v>
       </c>
       <c r="U44" s="39" t="s">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="V44" s="38">
         <v>0</v>
@@ -10134,7 +10554,7 @@
     </row>
     <row r="45" s="32" customFormat="1" spans="1:22">
       <c r="A45" s="39" t="s">
-        <v>392</v>
+        <v>416</v>
       </c>
       <c r="B45" s="38">
         <v>2</v>
@@ -10150,7 +10570,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="39" t="s">
-        <v>387</v>
+        <v>411</v>
       </c>
       <c r="H45" s="39"/>
       <c r="I45" s="38"/>
@@ -10176,13 +10596,13 @@
       <c r="Q45" s="38"/>
       <c r="R45" s="38"/>
       <c r="S45" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T45" s="39" t="s">
-        <v>393</v>
+        <v>417</v>
       </c>
       <c r="U45" s="39" t="s">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="V45" s="38">
         <v>0</v>
@@ -10190,7 +10610,7 @@
     </row>
     <row r="46" s="32" customFormat="1" spans="1:22">
       <c r="A46" s="39" t="s">
-        <v>394</v>
+        <v>418</v>
       </c>
       <c r="B46" s="37">
         <v>2</v>
@@ -10206,7 +10626,7 @@
         <v>0</v>
       </c>
       <c r="G46" s="39" t="s">
-        <v>387</v>
+        <v>411</v>
       </c>
       <c r="H46" s="39"/>
       <c r="I46" s="38"/>
@@ -10232,13 +10652,13 @@
       <c r="Q46" s="38"/>
       <c r="R46" s="37"/>
       <c r="S46" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T46" s="39" t="s">
-        <v>395</v>
+        <v>419</v>
       </c>
       <c r="U46" s="39" t="s">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="V46" s="38">
         <v>0</v>
@@ -10246,7 +10666,7 @@
     </row>
     <row r="47" s="32" customFormat="1" spans="1:22">
       <c r="A47" s="39" t="s">
-        <v>396</v>
+        <v>420</v>
       </c>
       <c r="B47" s="38">
         <v>2</v>
@@ -10262,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="39" t="s">
-        <v>387</v>
+        <v>411</v>
       </c>
       <c r="H47" s="39"/>
       <c r="I47" s="38"/>
@@ -10288,13 +10708,13 @@
       <c r="Q47" s="38"/>
       <c r="R47" s="38"/>
       <c r="S47" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T47" s="39" t="s">
-        <v>397</v>
+        <v>421</v>
       </c>
       <c r="U47" s="39" t="s">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="V47" s="38">
         <v>0</v>
@@ -10302,7 +10722,7 @@
     </row>
     <row r="48" s="32" customFormat="1" spans="1:22">
       <c r="A48" s="39" t="s">
-        <v>398</v>
+        <v>422</v>
       </c>
       <c r="B48" s="37">
         <v>2</v>
@@ -10318,7 +10738,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="39" t="s">
-        <v>387</v>
+        <v>411</v>
       </c>
       <c r="H48" s="39"/>
       <c r="I48" s="38"/>
@@ -10344,13 +10764,13 @@
       <c r="Q48" s="38"/>
       <c r="R48" s="37"/>
       <c r="S48" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T48" s="39" t="s">
-        <v>399</v>
+        <v>423</v>
       </c>
       <c r="U48" s="39" t="s">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="V48" s="38">
         <v>0</v>
@@ -10358,7 +10778,7 @@
     </row>
     <row r="49" s="32" customFormat="1" spans="1:22">
       <c r="A49" s="39" t="s">
-        <v>400</v>
+        <v>424</v>
       </c>
       <c r="B49" s="37">
         <v>2</v>
@@ -10374,7 +10794,7 @@
         <v>0</v>
       </c>
       <c r="G49" s="39" t="s">
-        <v>387</v>
+        <v>411</v>
       </c>
       <c r="H49" s="39"/>
       <c r="I49" s="38"/>
@@ -10400,13 +10820,13 @@
       <c r="Q49" s="38"/>
       <c r="R49" s="37"/>
       <c r="S49" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T49" s="39" t="s">
-        <v>399</v>
+        <v>423</v>
       </c>
       <c r="U49" s="39" t="s">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="V49" s="38">
         <v>0</v>
@@ -11144,7 +11564,7 @@
     </row>
     <row r="11" s="20" customFormat="1" ht="17.55" spans="1:22">
       <c r="A11" s="21" t="s">
-        <v>401</v>
+        <v>425</v>
       </c>
       <c r="B11" s="22">
         <v>3</v>
@@ -11160,7 +11580,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>402</v>
+        <v>426</v>
       </c>
       <c r="H11" s="22"/>
       <c r="I11" s="22"/>
@@ -11185,16 +11605,16 @@
       </c>
       <c r="Q11" s="22"/>
       <c r="R11" s="27" t="s">
-        <v>403</v>
+        <v>427</v>
       </c>
       <c r="S11" s="28" t="s">
-        <v>404</v>
+        <v>428</v>
       </c>
       <c r="T11" s="29" t="s">
-        <v>403</v>
+        <v>427</v>
       </c>
       <c r="U11" s="30" t="s">
-        <v>405</v>
+        <v>429</v>
       </c>
       <c r="V11" s="22">
         <v>1</v>
@@ -11202,7 +11622,7 @@
     </row>
     <row r="12" s="20" customFormat="1" ht="17.55" spans="1:22">
       <c r="A12" s="21" t="s">
-        <v>406</v>
+        <v>430</v>
       </c>
       <c r="B12" s="23">
         <v>3</v>
@@ -11218,7 +11638,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>407</v>
+        <v>431</v>
       </c>
       <c r="H12" s="23"/>
       <c r="I12" s="23"/>
@@ -11243,16 +11663,16 @@
       </c>
       <c r="Q12" s="23"/>
       <c r="R12" s="27" t="s">
-        <v>408</v>
+        <v>432</v>
       </c>
       <c r="S12" s="28" t="s">
-        <v>404</v>
+        <v>428</v>
       </c>
       <c r="T12" s="29" t="s">
-        <v>408</v>
+        <v>432</v>
       </c>
       <c r="U12" s="30" t="s">
-        <v>409</v>
+        <v>433</v>
       </c>
       <c r="V12" s="23">
         <v>1</v>
@@ -11260,7 +11680,7 @@
     </row>
     <row r="13" s="20" customFormat="1" ht="17.55" spans="1:22">
       <c r="A13" s="21" t="s">
-        <v>410</v>
+        <v>434</v>
       </c>
       <c r="B13" s="22">
         <v>3</v>
@@ -11276,7 +11696,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>411</v>
+        <v>435</v>
       </c>
       <c r="H13" s="23"/>
       <c r="I13" s="23"/>
@@ -11301,16 +11721,16 @@
       </c>
       <c r="Q13" s="23"/>
       <c r="R13" s="27" t="s">
-        <v>412</v>
+        <v>436</v>
       </c>
       <c r="S13" s="28" t="s">
-        <v>404</v>
+        <v>428</v>
       </c>
       <c r="T13" s="29" t="s">
-        <v>412</v>
+        <v>436</v>
       </c>
       <c r="U13" s="30" t="s">
-        <v>413</v>
+        <v>437</v>
       </c>
       <c r="V13" s="23">
         <v>1</v>
@@ -11318,7 +11738,7 @@
     </row>
     <row r="14" s="20" customFormat="1" ht="17.55" spans="1:22">
       <c r="A14" s="21" t="s">
-        <v>414</v>
+        <v>438</v>
       </c>
       <c r="B14" s="23">
         <v>3</v>
@@ -11334,7 +11754,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>415</v>
+        <v>439</v>
       </c>
       <c r="H14" s="23"/>
       <c r="I14" s="23"/>
@@ -11359,16 +11779,16 @@
       </c>
       <c r="Q14" s="23"/>
       <c r="R14" s="27" t="s">
-        <v>416</v>
+        <v>440</v>
       </c>
       <c r="S14" s="28" t="s">
-        <v>404</v>
+        <v>428</v>
       </c>
       <c r="T14" s="29" t="s">
-        <v>416</v>
+        <v>440</v>
       </c>
       <c r="U14" s="30" t="s">
-        <v>417</v>
+        <v>441</v>
       </c>
       <c r="V14" s="23">
         <v>1</v>
@@ -11376,7 +11796,7 @@
     </row>
     <row r="15" ht="17.55" spans="1:22">
       <c r="A15" s="21" t="s">
-        <v>418</v>
+        <v>442</v>
       </c>
       <c r="B15" s="22">
         <v>3</v>
@@ -11392,7 +11812,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>419</v>
+        <v>443</v>
       </c>
       <c r="H15" s="22"/>
       <c r="I15" s="22"/>
@@ -11417,16 +11837,16 @@
       </c>
       <c r="Q15" s="22"/>
       <c r="R15" s="27" t="s">
-        <v>420</v>
+        <v>444</v>
       </c>
       <c r="S15" s="28" t="s">
-        <v>404</v>
+        <v>428</v>
       </c>
       <c r="T15" s="29" t="s">
-        <v>420</v>
+        <v>444</v>
       </c>
       <c r="U15" s="30" t="s">
-        <v>421</v>
+        <v>445</v>
       </c>
       <c r="V15" s="22">
         <v>1</v>
@@ -11434,7 +11854,7 @@
     </row>
     <row r="16" ht="17.55" spans="1:22">
       <c r="A16" s="21" t="s">
-        <v>422</v>
+        <v>446</v>
       </c>
       <c r="B16" s="23">
         <v>3</v>
@@ -11450,7 +11870,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>423</v>
+        <v>447</v>
       </c>
       <c r="H16" s="23"/>
       <c r="I16" s="23"/>
@@ -11475,16 +11895,16 @@
       </c>
       <c r="Q16" s="23"/>
       <c r="R16" s="27" t="s">
-        <v>424</v>
+        <v>448</v>
       </c>
       <c r="S16" s="28" t="s">
-        <v>404</v>
+        <v>428</v>
       </c>
       <c r="T16" s="29" t="s">
-        <v>424</v>
+        <v>448</v>
       </c>
       <c r="U16" s="30" t="s">
-        <v>425</v>
+        <v>449</v>
       </c>
       <c r="V16" s="23">
         <v>1</v>
@@ -11492,7 +11912,7 @@
     </row>
     <row r="17" ht="17.55" spans="1:22">
       <c r="A17" s="21" t="s">
-        <v>426</v>
+        <v>450</v>
       </c>
       <c r="B17" s="22">
         <v>3</v>
@@ -11508,7 +11928,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>427</v>
+        <v>451</v>
       </c>
       <c r="H17" s="23"/>
       <c r="I17" s="23"/>
@@ -11533,16 +11953,16 @@
       </c>
       <c r="Q17" s="23"/>
       <c r="R17" s="27" t="s">
+        <v>452</v>
+      </c>
+      <c r="S17" s="28" t="s">
         <v>428</v>
       </c>
-      <c r="S17" s="28" t="s">
-        <v>404</v>
-      </c>
       <c r="T17" s="29" t="s">
-        <v>428</v>
+        <v>452</v>
       </c>
       <c r="U17" s="30" t="s">
-        <v>429</v>
+        <v>453</v>
       </c>
       <c r="V17" s="23">
         <v>1</v>
@@ -11550,7 +11970,7 @@
     </row>
     <row r="18" ht="17.55" spans="1:22">
       <c r="A18" s="21" t="s">
-        <v>430</v>
+        <v>454</v>
       </c>
       <c r="B18" s="23">
         <v>3</v>
@@ -11566,7 +11986,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>431</v>
+        <v>455</v>
       </c>
       <c r="H18" s="23"/>
       <c r="I18" s="23"/>
@@ -11591,16 +12011,16 @@
       </c>
       <c r="Q18" s="23"/>
       <c r="R18" s="27" t="s">
-        <v>432</v>
+        <v>456</v>
       </c>
       <c r="S18" s="28" t="s">
-        <v>404</v>
+        <v>428</v>
       </c>
       <c r="T18" s="29" t="s">
-        <v>432</v>
+        <v>456</v>
       </c>
       <c r="U18" s="30" t="s">
-        <v>433</v>
+        <v>457</v>
       </c>
       <c r="V18" s="23">
         <v>1</v>
@@ -11608,7 +12028,7 @@
     </row>
     <row r="19" ht="17.55" spans="1:22">
       <c r="A19" s="21" t="s">
-        <v>434</v>
+        <v>458</v>
       </c>
       <c r="B19" s="22">
         <v>3</v>
@@ -11624,7 +12044,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>435</v>
+        <v>459</v>
       </c>
       <c r="H19" s="22"/>
       <c r="I19" s="22"/>
@@ -11649,16 +12069,16 @@
       </c>
       <c r="Q19" s="22"/>
       <c r="R19" s="27" t="s">
-        <v>436</v>
+        <v>460</v>
       </c>
       <c r="S19" s="28" t="s">
-        <v>404</v>
+        <v>428</v>
       </c>
       <c r="T19" s="29" t="s">
-        <v>436</v>
+        <v>460</v>
       </c>
       <c r="U19" s="30" t="s">
-        <v>437</v>
+        <v>461</v>
       </c>
       <c r="V19" s="22">
         <v>1</v>
@@ -11666,7 +12086,7 @@
     </row>
     <row r="20" ht="17.55" spans="1:22">
       <c r="A20" s="21" t="s">
-        <v>438</v>
+        <v>462</v>
       </c>
       <c r="B20" s="23">
         <v>3</v>
@@ -11682,7 +12102,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>439</v>
+        <v>463</v>
       </c>
       <c r="H20" s="23"/>
       <c r="I20" s="23"/>
@@ -11707,16 +12127,16 @@
       </c>
       <c r="Q20" s="23"/>
       <c r="R20" s="27" t="s">
-        <v>440</v>
+        <v>464</v>
       </c>
       <c r="S20" s="28" t="s">
-        <v>404</v>
+        <v>428</v>
       </c>
       <c r="T20" s="29" t="s">
-        <v>440</v>
+        <v>464</v>
       </c>
       <c r="U20" s="30" t="s">
-        <v>441</v>
+        <v>465</v>
       </c>
       <c r="V20" s="23">
         <v>1</v>
@@ -11724,7 +12144,7 @@
     </row>
     <row r="21" ht="17.55" spans="1:22">
       <c r="A21" s="21" t="s">
-        <v>442</v>
+        <v>466</v>
       </c>
       <c r="B21" s="22">
         <v>3</v>
@@ -11740,7 +12160,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>443</v>
+        <v>467</v>
       </c>
       <c r="H21" s="23"/>
       <c r="I21" s="23"/>
@@ -11765,16 +12185,16 @@
       </c>
       <c r="Q21" s="23"/>
       <c r="R21" s="27" t="s">
-        <v>444</v>
+        <v>468</v>
       </c>
       <c r="S21" s="28" t="s">
-        <v>404</v>
+        <v>428</v>
       </c>
       <c r="T21" s="29" t="s">
-        <v>444</v>
+        <v>468</v>
       </c>
       <c r="U21" s="30" t="s">
-        <v>445</v>
+        <v>469</v>
       </c>
       <c r="V21" s="23">
         <v>1</v>
@@ -11782,7 +12202,7 @@
     </row>
     <row r="22" ht="17.55" spans="1:22">
       <c r="A22" s="21" t="s">
-        <v>446</v>
+        <v>470</v>
       </c>
       <c r="B22" s="23">
         <v>3</v>
@@ -11798,7 +12218,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>447</v>
+        <v>471</v>
       </c>
       <c r="H22" s="23"/>
       <c r="I22" s="23"/>
@@ -11823,16 +12243,16 @@
       </c>
       <c r="Q22" s="23"/>
       <c r="R22" s="27" t="s">
-        <v>448</v>
+        <v>472</v>
       </c>
       <c r="S22" s="28" t="s">
-        <v>404</v>
+        <v>428</v>
       </c>
       <c r="T22" s="29" t="s">
-        <v>448</v>
+        <v>472</v>
       </c>
       <c r="U22" s="30" t="s">
-        <v>449</v>
+        <v>473</v>
       </c>
       <c r="V22" s="23">
         <v>1</v>
@@ -11840,7 +12260,7 @@
     </row>
     <row r="23" ht="17.55" spans="1:22">
       <c r="A23" s="21" t="s">
-        <v>450</v>
+        <v>474</v>
       </c>
       <c r="B23" s="22">
         <v>3</v>
@@ -11856,7 +12276,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>451</v>
+        <v>475</v>
       </c>
       <c r="H23" s="22"/>
       <c r="I23" s="22"/>
@@ -11881,16 +12301,16 @@
       </c>
       <c r="Q23" s="22"/>
       <c r="R23" s="27" t="s">
-        <v>452</v>
+        <v>476</v>
       </c>
       <c r="S23" s="28" t="s">
-        <v>404</v>
+        <v>428</v>
       </c>
       <c r="T23" s="29" t="s">
-        <v>452</v>
+        <v>476</v>
       </c>
       <c r="U23" s="30" t="s">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="V23" s="22">
         <v>1</v>
@@ -11898,7 +12318,7 @@
     </row>
     <row r="24" ht="17.55" spans="1:22">
       <c r="A24" s="21" t="s">
-        <v>454</v>
+        <v>478</v>
       </c>
       <c r="B24" s="23">
         <v>3</v>
@@ -11914,7 +12334,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="24" t="s">
-        <v>455</v>
+        <v>479</v>
       </c>
       <c r="H24" s="23"/>
       <c r="I24" s="23"/>
@@ -11939,16 +12359,16 @@
       </c>
       <c r="Q24" s="23"/>
       <c r="R24" s="27" t="s">
-        <v>456</v>
+        <v>480</v>
       </c>
       <c r="S24" s="28" t="s">
-        <v>404</v>
+        <v>428</v>
       </c>
       <c r="T24" s="29" t="s">
-        <v>456</v>
+        <v>480</v>
       </c>
       <c r="U24" s="30" t="s">
-        <v>457</v>
+        <v>481</v>
       </c>
       <c r="V24" s="23">
         <v>1</v>
@@ -11956,7 +12376,7 @@
     </row>
     <row r="25" ht="17.55" spans="1:22">
       <c r="A25" s="21" t="s">
-        <v>458</v>
+        <v>482</v>
       </c>
       <c r="B25" s="22">
         <v>3</v>
@@ -11972,7 +12392,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="24" t="s">
-        <v>459</v>
+        <v>483</v>
       </c>
       <c r="H25" s="23"/>
       <c r="I25" s="23"/>
@@ -11997,16 +12417,16 @@
       </c>
       <c r="Q25" s="23"/>
       <c r="R25" s="27" t="s">
-        <v>460</v>
+        <v>484</v>
       </c>
       <c r="S25" s="28" t="s">
-        <v>404</v>
+        <v>428</v>
       </c>
       <c r="T25" s="29" t="s">
-        <v>460</v>
+        <v>484</v>
       </c>
       <c r="U25" s="30" t="s">
-        <v>461</v>
+        <v>485</v>
       </c>
       <c r="V25" s="23">
         <v>1</v>
@@ -12014,7 +12434,7 @@
     </row>
     <row r="26" ht="17.55" spans="1:22">
       <c r="A26" s="21" t="s">
-        <v>462</v>
+        <v>486</v>
       </c>
       <c r="B26" s="23">
         <v>3</v>
@@ -12030,7 +12450,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>463</v>
+        <v>487</v>
       </c>
       <c r="H26" s="23"/>
       <c r="I26" s="23"/>
@@ -12055,16 +12475,16 @@
       </c>
       <c r="Q26" s="23"/>
       <c r="R26" s="27" t="s">
-        <v>464</v>
+        <v>488</v>
       </c>
       <c r="S26" s="28" t="s">
-        <v>404</v>
+        <v>428</v>
       </c>
       <c r="T26" s="29" t="s">
-        <v>464</v>
+        <v>488</v>
       </c>
       <c r="U26" s="30" t="s">
-        <v>465</v>
+        <v>489</v>
       </c>
       <c r="V26" s="23">
         <v>1</v>
@@ -12072,7 +12492,7 @@
     </row>
     <row r="27" ht="17.55" spans="1:22">
       <c r="A27" s="21" t="s">
-        <v>466</v>
+        <v>490</v>
       </c>
       <c r="B27" s="22">
         <v>3</v>
@@ -12088,7 +12508,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>467</v>
+        <v>491</v>
       </c>
       <c r="H27" s="22"/>
       <c r="I27" s="22"/>
@@ -12113,16 +12533,16 @@
       </c>
       <c r="Q27" s="22"/>
       <c r="R27" s="27" t="s">
-        <v>468</v>
+        <v>492</v>
       </c>
       <c r="S27" s="28" t="s">
-        <v>404</v>
+        <v>428</v>
       </c>
       <c r="T27" s="29" t="s">
-        <v>468</v>
+        <v>492</v>
       </c>
       <c r="U27" s="30" t="s">
-        <v>469</v>
+        <v>493</v>
       </c>
       <c r="V27" s="22">
         <v>1</v>
@@ -12130,7 +12550,7 @@
     </row>
     <row r="28" ht="17.55" spans="1:22">
       <c r="A28" s="21" t="s">
-        <v>470</v>
+        <v>494</v>
       </c>
       <c r="B28" s="23">
         <v>3</v>
@@ -12146,7 +12566,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>471</v>
+        <v>495</v>
       </c>
       <c r="H28" s="23"/>
       <c r="I28" s="23"/>
@@ -12171,16 +12591,16 @@
       </c>
       <c r="Q28" s="23"/>
       <c r="R28" s="27" t="s">
-        <v>472</v>
+        <v>496</v>
       </c>
       <c r="S28" s="28" t="s">
-        <v>404</v>
+        <v>428</v>
       </c>
       <c r="T28" s="29" t="s">
-        <v>472</v>
+        <v>496</v>
       </c>
       <c r="U28" s="30" t="s">
-        <v>473</v>
+        <v>497</v>
       </c>
       <c r="V28" s="23">
         <v>1</v>
@@ -12188,7 +12608,7 @@
     </row>
     <row r="29" ht="16.8" spans="1:22">
       <c r="A29" s="21" t="s">
-        <v>474</v>
+        <v>498</v>
       </c>
       <c r="B29" s="22">
         <v>3</v>
@@ -12204,7 +12624,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>475</v>
+        <v>499</v>
       </c>
       <c r="H29" s="23"/>
       <c r="I29" s="23"/>
@@ -12229,16 +12649,16 @@
       </c>
       <c r="Q29" s="23"/>
       <c r="R29" s="27" t="s">
-        <v>476</v>
+        <v>500</v>
       </c>
       <c r="S29" s="28" t="s">
-        <v>404</v>
+        <v>428</v>
       </c>
       <c r="T29" s="29" t="s">
-        <v>476</v>
+        <v>500</v>
       </c>
       <c r="U29" s="30" t="s">
-        <v>477</v>
+        <v>501</v>
       </c>
       <c r="V29" s="23">
         <v>1</v>
@@ -12976,7 +13396,7 @@
     </row>
     <row r="11" s="12" customFormat="1" spans="1:22">
       <c r="A11" s="13" t="s">
-        <v>478</v>
+        <v>502</v>
       </c>
       <c r="B11" s="14">
         <v>2</v>
@@ -12992,7 +13412,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>479</v>
+        <v>503</v>
       </c>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
@@ -13018,13 +13438,13 @@
       <c r="Q11" s="14"/>
       <c r="R11" s="14"/>
       <c r="S11" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T11" s="13" t="s">
-        <v>480</v>
+        <v>504</v>
       </c>
       <c r="U11" s="13" t="s">
-        <v>481</v>
+        <v>505</v>
       </c>
       <c r="V11" s="14">
         <v>0</v>
@@ -13032,7 +13452,7 @@
     </row>
     <row r="12" s="12" customFormat="1" spans="1:22">
       <c r="A12" s="13" t="s">
-        <v>482</v>
+        <v>506</v>
       </c>
       <c r="B12" s="15">
         <v>2</v>
@@ -13048,7 +13468,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>479</v>
+        <v>503</v>
       </c>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -13074,13 +13494,13 @@
       <c r="Q12" s="14"/>
       <c r="R12" s="15"/>
       <c r="S12" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T12" s="13" t="s">
-        <v>480</v>
+        <v>504</v>
       </c>
       <c r="U12" s="13" t="s">
-        <v>481</v>
+        <v>505</v>
       </c>
       <c r="V12" s="14">
         <v>0</v>
@@ -13088,7 +13508,7 @@
     </row>
     <row r="13" s="12" customFormat="1" spans="1:22">
       <c r="A13" s="13" t="s">
-        <v>483</v>
+        <v>507</v>
       </c>
       <c r="B13" s="14">
         <v>2</v>
@@ -13104,7 +13524,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>479</v>
+        <v>503</v>
       </c>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -13130,13 +13550,13 @@
       <c r="Q13" s="14"/>
       <c r="R13" s="14"/>
       <c r="S13" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T13" s="13" t="s">
-        <v>480</v>
+        <v>504</v>
       </c>
       <c r="U13" s="13" t="s">
-        <v>481</v>
+        <v>505</v>
       </c>
       <c r="V13" s="14">
         <v>0</v>
@@ -13144,7 +13564,7 @@
     </row>
     <row r="14" s="12" customFormat="1" spans="1:22">
       <c r="A14" s="13" t="s">
-        <v>484</v>
+        <v>508</v>
       </c>
       <c r="B14" s="15">
         <v>2</v>
@@ -13160,7 +13580,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>479</v>
+        <v>503</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -13186,13 +13606,13 @@
       <c r="Q14" s="14"/>
       <c r="R14" s="15"/>
       <c r="S14" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T14" s="13" t="s">
-        <v>480</v>
+        <v>504</v>
       </c>
       <c r="U14" s="13" t="s">
-        <v>481</v>
+        <v>505</v>
       </c>
       <c r="V14" s="14">
         <v>0</v>
@@ -13200,7 +13620,7 @@
     </row>
     <row r="15" s="12" customFormat="1" spans="1:22">
       <c r="A15" s="13" t="s">
-        <v>485</v>
+        <v>509</v>
       </c>
       <c r="B15" s="14">
         <v>2</v>
@@ -13216,7 +13636,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>479</v>
+        <v>503</v>
       </c>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -13242,13 +13662,13 @@
       <c r="Q15" s="14"/>
       <c r="R15" s="14"/>
       <c r="S15" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T15" s="13" t="s">
-        <v>480</v>
+        <v>504</v>
       </c>
       <c r="U15" s="13" t="s">
-        <v>481</v>
+        <v>505</v>
       </c>
       <c r="V15" s="14">
         <v>0</v>
@@ -13256,7 +13676,7 @@
     </row>
     <row r="16" s="12" customFormat="1" spans="1:22">
       <c r="A16" s="13" t="s">
-        <v>486</v>
+        <v>510</v>
       </c>
       <c r="B16" s="15">
         <v>2</v>
@@ -13272,7 +13692,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>479</v>
+        <v>503</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
@@ -13298,13 +13718,13 @@
       <c r="Q16" s="14"/>
       <c r="R16" s="15"/>
       <c r="S16" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T16" s="13" t="s">
-        <v>480</v>
+        <v>504</v>
       </c>
       <c r="U16" s="13" t="s">
-        <v>481</v>
+        <v>505</v>
       </c>
       <c r="V16" s="14">
         <v>0</v>
@@ -13312,7 +13732,7 @@
     </row>
     <row r="17" s="12" customFormat="1" spans="1:22">
       <c r="A17" s="13" t="s">
-        <v>487</v>
+        <v>511</v>
       </c>
       <c r="B17" s="14">
         <v>2</v>
@@ -13328,7 +13748,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>479</v>
+        <v>503</v>
       </c>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
@@ -13354,13 +13774,13 @@
       <c r="Q17" s="14"/>
       <c r="R17" s="14"/>
       <c r="S17" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T17" s="13" t="s">
-        <v>480</v>
+        <v>504</v>
       </c>
       <c r="U17" s="13" t="s">
-        <v>481</v>
+        <v>505</v>
       </c>
       <c r="V17" s="14">
         <v>0</v>
@@ -13368,7 +13788,7 @@
     </row>
     <row r="18" s="12" customFormat="1" spans="1:22">
       <c r="A18" s="13" t="s">
-        <v>488</v>
+        <v>512</v>
       </c>
       <c r="B18" s="15">
         <v>2</v>
@@ -13384,7 +13804,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>479</v>
+        <v>503</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -13410,13 +13830,13 @@
       <c r="Q18" s="14"/>
       <c r="R18" s="15"/>
       <c r="S18" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T18" s="13" t="s">
-        <v>480</v>
+        <v>504</v>
       </c>
       <c r="U18" s="13" t="s">
-        <v>481</v>
+        <v>505</v>
       </c>
       <c r="V18" s="14">
         <v>0</v>
@@ -13424,7 +13844,7 @@
     </row>
     <row r="19" s="12" customFormat="1" spans="1:22">
       <c r="A19" s="13" t="s">
-        <v>489</v>
+        <v>513</v>
       </c>
       <c r="B19" s="14">
         <v>2</v>
@@ -13440,7 +13860,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>479</v>
+        <v>503</v>
       </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
@@ -13466,13 +13886,13 @@
       <c r="Q19" s="14"/>
       <c r="R19" s="14"/>
       <c r="S19" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T19" s="13" t="s">
-        <v>480</v>
+        <v>504</v>
       </c>
       <c r="U19" s="13" t="s">
-        <v>481</v>
+        <v>505</v>
       </c>
       <c r="V19" s="14">
         <v>0</v>
@@ -13480,7 +13900,7 @@
     </row>
     <row r="20" s="12" customFormat="1" spans="1:22">
       <c r="A20" s="13" t="s">
-        <v>490</v>
+        <v>514</v>
       </c>
       <c r="B20" s="15">
         <v>2</v>
@@ -13496,7 +13916,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>479</v>
+        <v>503</v>
       </c>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -13522,13 +13942,13 @@
       <c r="Q20" s="14"/>
       <c r="R20" s="15"/>
       <c r="S20" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T20" s="13" t="s">
-        <v>480</v>
+        <v>504</v>
       </c>
       <c r="U20" s="13" t="s">
-        <v>481</v>
+        <v>505</v>
       </c>
       <c r="V20" s="14">
         <v>0</v>
@@ -13536,7 +13956,7 @@
     </row>
     <row r="21" s="12" customFormat="1" spans="1:22">
       <c r="A21" s="13" t="s">
-        <v>491</v>
+        <v>515</v>
       </c>
       <c r="B21" s="14">
         <v>2</v>
@@ -13552,7 +13972,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>492</v>
+        <v>516</v>
       </c>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
@@ -13578,13 +13998,13 @@
       <c r="Q21" s="14"/>
       <c r="R21" s="14"/>
       <c r="S21" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T21" s="13" t="s">
-        <v>493</v>
+        <v>517</v>
       </c>
       <c r="U21" s="13" t="s">
-        <v>494</v>
+        <v>518</v>
       </c>
       <c r="V21" s="14">
         <v>0</v>
@@ -13592,7 +14012,7 @@
     </row>
     <row r="22" s="12" customFormat="1" spans="1:22">
       <c r="A22" s="13" t="s">
-        <v>495</v>
+        <v>519</v>
       </c>
       <c r="B22" s="15">
         <v>2</v>
@@ -13608,7 +14028,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>492</v>
+        <v>516</v>
       </c>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
@@ -13634,13 +14054,13 @@
       <c r="Q22" s="14"/>
       <c r="R22" s="15"/>
       <c r="S22" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T22" s="13" t="s">
-        <v>493</v>
+        <v>517</v>
       </c>
       <c r="U22" s="13" t="s">
-        <v>494</v>
+        <v>518</v>
       </c>
       <c r="V22" s="14">
         <v>0</v>
@@ -13648,7 +14068,7 @@
     </row>
     <row r="23" s="12" customFormat="1" spans="1:22">
       <c r="A23" s="13" t="s">
-        <v>496</v>
+        <v>520</v>
       </c>
       <c r="B23" s="14">
         <v>2</v>
@@ -13664,7 +14084,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>492</v>
+        <v>516</v>
       </c>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
@@ -13690,13 +14110,13 @@
       <c r="Q23" s="14"/>
       <c r="R23" s="14"/>
       <c r="S23" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T23" s="13" t="s">
-        <v>493</v>
+        <v>517</v>
       </c>
       <c r="U23" s="13" t="s">
-        <v>494</v>
+        <v>518</v>
       </c>
       <c r="V23" s="14">
         <v>0</v>
@@ -13704,7 +14124,7 @@
     </row>
     <row r="24" s="12" customFormat="1" spans="1:22">
       <c r="A24" s="13" t="s">
-        <v>497</v>
+        <v>521</v>
       </c>
       <c r="B24" s="15">
         <v>2</v>
@@ -13720,7 +14140,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>492</v>
+        <v>516</v>
       </c>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
@@ -13746,13 +14166,13 @@
       <c r="Q24" s="14"/>
       <c r="R24" s="15"/>
       <c r="S24" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T24" s="13" t="s">
-        <v>493</v>
+        <v>517</v>
       </c>
       <c r="U24" s="13" t="s">
-        <v>494</v>
+        <v>518</v>
       </c>
       <c r="V24" s="14">
         <v>0</v>
@@ -13760,7 +14180,7 @@
     </row>
     <row r="25" s="12" customFormat="1" spans="1:22">
       <c r="A25" s="16" t="s">
-        <v>498</v>
+        <v>522</v>
       </c>
       <c r="B25" s="14">
         <v>2</v>
@@ -13776,7 +14196,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>492</v>
+        <v>516</v>
       </c>
       <c r="H25" s="17"/>
       <c r="I25" s="17"/>
@@ -13802,13 +14222,13 @@
       <c r="Q25" s="17"/>
       <c r="R25" s="17"/>
       <c r="S25" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T25" s="13" t="s">
-        <v>493</v>
+        <v>517</v>
       </c>
       <c r="U25" s="13" t="s">
-        <v>494</v>
+        <v>518</v>
       </c>
       <c r="V25" s="17">
         <v>0</v>
@@ -13816,7 +14236,7 @@
     </row>
     <row r="26" s="12" customFormat="1" spans="1:22">
       <c r="A26" s="16" t="s">
-        <v>499</v>
+        <v>523</v>
       </c>
       <c r="B26" s="15">
         <v>2</v>
@@ -13832,7 +14252,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>492</v>
+        <v>516</v>
       </c>
       <c r="H26" s="17"/>
       <c r="I26" s="17"/>
@@ -13858,13 +14278,13 @@
       <c r="Q26" s="17"/>
       <c r="R26" s="17"/>
       <c r="S26" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T26" s="13" t="s">
-        <v>493</v>
+        <v>517</v>
       </c>
       <c r="U26" s="13" t="s">
-        <v>494</v>
+        <v>518</v>
       </c>
       <c r="V26" s="17">
         <v>0</v>
@@ -14602,7 +15022,7 @@
     </row>
     <row r="11" s="7" customFormat="1" spans="1:22">
       <c r="A11" s="9" t="s">
-        <v>500</v>
+        <v>524</v>
       </c>
       <c r="B11" s="9">
         <v>1</v>
@@ -14618,7 +15038,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>501</v>
+        <v>525</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -14644,13 +15064,13 @@
       <c r="Q11" s="9"/>
       <c r="R11" s="9"/>
       <c r="S11" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T11" s="9" t="s">
-        <v>502</v>
+        <v>526</v>
       </c>
       <c r="U11" s="9" t="s">
-        <v>503</v>
+        <v>527</v>
       </c>
       <c r="V11" s="9">
         <v>0</v>
@@ -14658,7 +15078,7 @@
     </row>
     <row r="12" s="7" customFormat="1" spans="1:22">
       <c r="A12" s="9" t="s">
-        <v>504</v>
+        <v>528</v>
       </c>
       <c r="B12" s="9">
         <v>1</v>
@@ -14674,7 +15094,7 @@
         <v>2</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>501</v>
+        <v>525</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
@@ -14700,13 +15120,13 @@
       <c r="Q12" s="9"/>
       <c r="R12" s="9"/>
       <c r="S12" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T12" s="9" t="s">
-        <v>502</v>
+        <v>526</v>
       </c>
       <c r="U12" s="9" t="s">
-        <v>503</v>
+        <v>527</v>
       </c>
       <c r="V12" s="9">
         <v>0</v>
@@ -14714,7 +15134,7 @@
     </row>
     <row r="13" s="7" customFormat="1" spans="1:22">
       <c r="A13" s="9" t="s">
-        <v>505</v>
+        <v>529</v>
       </c>
       <c r="B13" s="9">
         <v>1</v>
@@ -14730,7 +15150,7 @@
         <v>3</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>501</v>
+        <v>525</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
@@ -14756,13 +15176,13 @@
       <c r="Q13" s="9"/>
       <c r="R13" s="9"/>
       <c r="S13" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T13" s="9" t="s">
-        <v>502</v>
+        <v>526</v>
       </c>
       <c r="U13" s="9" t="s">
-        <v>503</v>
+        <v>527</v>
       </c>
       <c r="V13" s="9">
         <v>0</v>
@@ -14770,7 +15190,7 @@
     </row>
     <row r="14" s="7" customFormat="1" spans="1:22">
       <c r="A14" s="9" t="s">
-        <v>506</v>
+        <v>530</v>
       </c>
       <c r="B14" s="9">
         <v>1</v>
@@ -14786,7 +15206,7 @@
         <v>4</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>501</v>
+        <v>525</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
@@ -14812,13 +15232,13 @@
       <c r="Q14" s="9"/>
       <c r="R14" s="9"/>
       <c r="S14" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T14" s="9" t="s">
-        <v>502</v>
+        <v>526</v>
       </c>
       <c r="U14" s="9" t="s">
-        <v>503</v>
+        <v>527</v>
       </c>
       <c r="V14" s="9">
         <v>0</v>
@@ -14826,7 +15246,7 @@
     </row>
     <row r="15" s="7" customFormat="1" spans="1:22">
       <c r="A15" s="9" t="s">
-        <v>507</v>
+        <v>531</v>
       </c>
       <c r="B15" s="9">
         <v>1</v>
@@ -14842,7 +15262,7 @@
         <v>5</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>501</v>
+        <v>525</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
@@ -14868,13 +15288,13 @@
       <c r="Q15" s="9"/>
       <c r="R15" s="9"/>
       <c r="S15" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T15" s="9" t="s">
-        <v>502</v>
+        <v>526</v>
       </c>
       <c r="U15" s="9" t="s">
-        <v>503</v>
+        <v>527</v>
       </c>
       <c r="V15" s="9">
         <v>0</v>
@@ -14882,7 +15302,7 @@
     </row>
     <row r="16" s="7" customFormat="1" spans="1:22">
       <c r="A16" s="9" t="s">
-        <v>508</v>
+        <v>532</v>
       </c>
       <c r="B16" s="9">
         <v>1</v>
@@ -14898,7 +15318,7 @@
         <v>6</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>501</v>
+        <v>525</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
@@ -14924,13 +15344,13 @@
       <c r="Q16" s="9"/>
       <c r="R16" s="9"/>
       <c r="S16" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T16" s="9" t="s">
-        <v>502</v>
+        <v>526</v>
       </c>
       <c r="U16" s="9" t="s">
-        <v>503</v>
+        <v>527</v>
       </c>
       <c r="V16" s="9">
         <v>0</v>
@@ -14938,7 +15358,7 @@
     </row>
     <row r="17" s="7" customFormat="1" spans="1:22">
       <c r="A17" s="9" t="s">
-        <v>509</v>
+        <v>533</v>
       </c>
       <c r="B17" s="9">
         <v>1</v>
@@ -14954,7 +15374,7 @@
         <v>7</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>501</v>
+        <v>525</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
@@ -14980,13 +15400,13 @@
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
       <c r="S17" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T17" s="9" t="s">
-        <v>502</v>
+        <v>526</v>
       </c>
       <c r="U17" s="9" t="s">
-        <v>503</v>
+        <v>527</v>
       </c>
       <c r="V17" s="9">
         <v>0</v>
@@ -14994,7 +15414,7 @@
     </row>
     <row r="18" s="7" customFormat="1" spans="1:22">
       <c r="A18" s="9" t="s">
-        <v>510</v>
+        <v>534</v>
       </c>
       <c r="B18" s="9">
         <v>1</v>
@@ -15010,7 +15430,7 @@
         <v>8</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>501</v>
+        <v>525</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
@@ -15036,13 +15456,13 @@
       <c r="Q18" s="9"/>
       <c r="R18" s="9"/>
       <c r="S18" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T18" s="9" t="s">
-        <v>502</v>
+        <v>526</v>
       </c>
       <c r="U18" s="9" t="s">
-        <v>503</v>
+        <v>527</v>
       </c>
       <c r="V18" s="9">
         <v>0</v>
@@ -15050,7 +15470,7 @@
     </row>
     <row r="19" s="7" customFormat="1" spans="1:22">
       <c r="A19" s="9" t="s">
-        <v>511</v>
+        <v>535</v>
       </c>
       <c r="B19" s="9">
         <v>1</v>
@@ -15066,7 +15486,7 @@
         <v>9</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>501</v>
+        <v>525</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
@@ -15092,13 +15512,13 @@
       <c r="Q19" s="9"/>
       <c r="R19" s="9"/>
       <c r="S19" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T19" s="9" t="s">
-        <v>502</v>
+        <v>526</v>
       </c>
       <c r="U19" s="9" t="s">
-        <v>503</v>
+        <v>527</v>
       </c>
       <c r="V19" s="9">
         <v>0</v>
@@ -15106,7 +15526,7 @@
     </row>
     <row r="20" s="7" customFormat="1" spans="1:22">
       <c r="A20" s="9" t="s">
-        <v>512</v>
+        <v>536</v>
       </c>
       <c r="B20" s="9">
         <v>1</v>
@@ -15122,7 +15542,7 @@
         <v>10</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>501</v>
+        <v>525</v>
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
@@ -15148,13 +15568,13 @@
       <c r="Q20" s="9"/>
       <c r="R20" s="9"/>
       <c r="S20" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T20" s="9" t="s">
-        <v>502</v>
+        <v>526</v>
       </c>
       <c r="U20" s="9" t="s">
-        <v>503</v>
+        <v>527</v>
       </c>
       <c r="V20" s="9">
         <v>0</v>
@@ -15162,7 +15582,7 @@
     </row>
     <row r="21" s="7" customFormat="1" spans="1:22">
       <c r="A21" s="9" t="s">
-        <v>513</v>
+        <v>537</v>
       </c>
       <c r="B21" s="9">
         <v>1</v>
@@ -15178,7 +15598,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>514</v>
+        <v>538</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
@@ -15204,13 +15624,13 @@
       <c r="Q21" s="9"/>
       <c r="R21" s="9"/>
       <c r="S21" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T21" s="9" t="s">
-        <v>515</v>
+        <v>539</v>
       </c>
       <c r="U21" s="9" t="s">
-        <v>516</v>
+        <v>540</v>
       </c>
       <c r="V21" s="9">
         <v>0</v>
@@ -15218,7 +15638,7 @@
     </row>
     <row r="22" s="7" customFormat="1" spans="1:22">
       <c r="A22" s="9" t="s">
-        <v>517</v>
+        <v>541</v>
       </c>
       <c r="B22" s="9">
         <v>1</v>
@@ -15234,7 +15654,7 @@
         <v>2</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>514</v>
+        <v>538</v>
       </c>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
@@ -15260,13 +15680,13 @@
       <c r="Q22" s="9"/>
       <c r="R22" s="9"/>
       <c r="S22" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T22" s="9" t="s">
-        <v>515</v>
+        <v>539</v>
       </c>
       <c r="U22" s="9" t="s">
-        <v>516</v>
+        <v>540</v>
       </c>
       <c r="V22" s="9">
         <v>0</v>
@@ -15274,7 +15694,7 @@
     </row>
     <row r="23" s="7" customFormat="1" spans="1:22">
       <c r="A23" s="9" t="s">
-        <v>518</v>
+        <v>542</v>
       </c>
       <c r="B23" s="9">
         <v>1</v>
@@ -15290,7 +15710,7 @@
         <v>3</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>514</v>
+        <v>538</v>
       </c>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
@@ -15316,13 +15736,13 @@
       <c r="Q23" s="9"/>
       <c r="R23" s="9"/>
       <c r="S23" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T23" s="9" t="s">
-        <v>515</v>
+        <v>539</v>
       </c>
       <c r="U23" s="9" t="s">
-        <v>516</v>
+        <v>540</v>
       </c>
       <c r="V23" s="9">
         <v>0</v>
@@ -15330,7 +15750,7 @@
     </row>
     <row r="24" s="7" customFormat="1" spans="1:22">
       <c r="A24" s="9" t="s">
-        <v>519</v>
+        <v>543</v>
       </c>
       <c r="B24" s="9">
         <v>1</v>
@@ -15346,7 +15766,7 @@
         <v>4</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>514</v>
+        <v>538</v>
       </c>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
@@ -15372,13 +15792,13 @@
       <c r="Q24" s="9"/>
       <c r="R24" s="9"/>
       <c r="S24" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T24" s="9" t="s">
-        <v>515</v>
+        <v>539</v>
       </c>
       <c r="U24" s="9" t="s">
-        <v>516</v>
+        <v>540</v>
       </c>
       <c r="V24" s="9">
         <v>0</v>
@@ -15386,7 +15806,7 @@
     </row>
     <row r="25" s="7" customFormat="1" spans="1:22">
       <c r="A25" s="9" t="s">
-        <v>520</v>
+        <v>544</v>
       </c>
       <c r="B25" s="9">
         <v>1</v>
@@ -15402,7 +15822,7 @@
         <v>5</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>514</v>
+        <v>538</v>
       </c>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
@@ -15428,13 +15848,13 @@
       <c r="Q25" s="9"/>
       <c r="R25" s="9"/>
       <c r="S25" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T25" s="9" t="s">
-        <v>515</v>
+        <v>539</v>
       </c>
       <c r="U25" s="9" t="s">
-        <v>516</v>
+        <v>540</v>
       </c>
       <c r="V25" s="9">
         <v>0</v>
@@ -15442,7 +15862,7 @@
     </row>
     <row r="26" s="7" customFormat="1" spans="1:22">
       <c r="A26" s="9" t="s">
-        <v>521</v>
+        <v>545</v>
       </c>
       <c r="B26" s="9">
         <v>1</v>
@@ -15458,7 +15878,7 @@
         <v>6</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>514</v>
+        <v>538</v>
       </c>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
@@ -15484,13 +15904,13 @@
       <c r="Q26" s="9"/>
       <c r="R26" s="9"/>
       <c r="S26" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T26" s="9" t="s">
-        <v>515</v>
+        <v>539</v>
       </c>
       <c r="U26" s="9" t="s">
-        <v>516</v>
+        <v>540</v>
       </c>
       <c r="V26" s="9">
         <v>0</v>
@@ -15498,7 +15918,7 @@
     </row>
     <row r="27" s="7" customFormat="1" spans="1:22">
       <c r="A27" s="9" t="s">
-        <v>522</v>
+        <v>546</v>
       </c>
       <c r="B27" s="9">
         <v>1</v>
@@ -15514,7 +15934,7 @@
         <v>7</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>514</v>
+        <v>538</v>
       </c>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
@@ -15540,13 +15960,13 @@
       <c r="Q27" s="9"/>
       <c r="R27" s="9"/>
       <c r="S27" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T27" s="9" t="s">
-        <v>515</v>
+        <v>539</v>
       </c>
       <c r="U27" s="9" t="s">
-        <v>516</v>
+        <v>540</v>
       </c>
       <c r="V27" s="9">
         <v>0</v>
@@ -15554,7 +15974,7 @@
     </row>
     <row r="28" s="7" customFormat="1" spans="1:22">
       <c r="A28" s="9" t="s">
-        <v>523</v>
+        <v>547</v>
       </c>
       <c r="B28" s="9">
         <v>1</v>
@@ -15570,7 +15990,7 @@
         <v>8</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>514</v>
+        <v>538</v>
       </c>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
@@ -15596,13 +16016,13 @@
       <c r="Q28" s="9"/>
       <c r="R28" s="9"/>
       <c r="S28" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T28" s="9" t="s">
-        <v>515</v>
+        <v>539</v>
       </c>
       <c r="U28" s="9" t="s">
-        <v>516</v>
+        <v>540</v>
       </c>
       <c r="V28" s="9">
         <v>0</v>
@@ -15610,7 +16030,7 @@
     </row>
     <row r="29" s="7" customFormat="1" spans="1:22">
       <c r="A29" s="9" t="s">
-        <v>524</v>
+        <v>548</v>
       </c>
       <c r="B29" s="9">
         <v>1</v>
@@ -15626,7 +16046,7 @@
         <v>9</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>514</v>
+        <v>538</v>
       </c>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
@@ -15652,13 +16072,13 @@
       <c r="Q29" s="9"/>
       <c r="R29" s="9"/>
       <c r="S29" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T29" s="9" t="s">
-        <v>515</v>
+        <v>539</v>
       </c>
       <c r="U29" s="9" t="s">
-        <v>516</v>
+        <v>540</v>
       </c>
       <c r="V29" s="9">
         <v>0</v>
@@ -15666,7 +16086,7 @@
     </row>
     <row r="30" s="7" customFormat="1" spans="1:22">
       <c r="A30" s="9" t="s">
-        <v>525</v>
+        <v>549</v>
       </c>
       <c r="B30" s="9">
         <v>1</v>
@@ -15682,7 +16102,7 @@
         <v>10</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>514</v>
+        <v>538</v>
       </c>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
@@ -15708,13 +16128,13 @@
       <c r="Q30" s="9"/>
       <c r="R30" s="9"/>
       <c r="S30" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T30" s="9" t="s">
-        <v>515</v>
+        <v>539</v>
       </c>
       <c r="U30" s="9" t="s">
-        <v>516</v>
+        <v>540</v>
       </c>
       <c r="V30" s="9">
         <v>0</v>
@@ -15722,7 +16142,7 @@
     </row>
     <row r="31" s="7" customFormat="1" spans="1:22">
       <c r="A31" s="9" t="s">
-        <v>526</v>
+        <v>550</v>
       </c>
       <c r="B31" s="9">
         <v>1</v>
@@ -15738,7 +16158,7 @@
         <v>1</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>527</v>
+        <v>551</v>
       </c>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
@@ -15764,13 +16184,13 @@
       <c r="Q31" s="9"/>
       <c r="R31" s="9"/>
       <c r="S31" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T31" s="9" t="s">
-        <v>528</v>
+        <v>552</v>
       </c>
       <c r="U31" s="9" t="s">
-        <v>529</v>
+        <v>553</v>
       </c>
       <c r="V31" s="9">
         <v>0</v>
@@ -15778,7 +16198,7 @@
     </row>
     <row r="32" s="7" customFormat="1" spans="1:22">
       <c r="A32" s="9" t="s">
-        <v>530</v>
+        <v>554</v>
       </c>
       <c r="B32" s="9">
         <v>1</v>
@@ -15794,7 +16214,7 @@
         <v>2</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>527</v>
+        <v>551</v>
       </c>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
@@ -15820,13 +16240,13 @@
       <c r="Q32" s="9"/>
       <c r="R32" s="9"/>
       <c r="S32" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T32" s="9" t="s">
-        <v>528</v>
+        <v>552</v>
       </c>
       <c r="U32" s="9" t="s">
-        <v>529</v>
+        <v>553</v>
       </c>
       <c r="V32" s="9">
         <v>0</v>
@@ -15834,7 +16254,7 @@
     </row>
     <row r="33" s="7" customFormat="1" spans="1:22">
       <c r="A33" s="9" t="s">
-        <v>531</v>
+        <v>555</v>
       </c>
       <c r="B33" s="9">
         <v>1</v>
@@ -15850,7 +16270,7 @@
         <v>3</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>527</v>
+        <v>551</v>
       </c>
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
@@ -15876,13 +16296,13 @@
       <c r="Q33" s="9"/>
       <c r="R33" s="9"/>
       <c r="S33" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T33" s="9" t="s">
-        <v>528</v>
+        <v>552</v>
       </c>
       <c r="U33" s="9" t="s">
-        <v>529</v>
+        <v>553</v>
       </c>
       <c r="V33" s="9">
         <v>0</v>
@@ -15890,7 +16310,7 @@
     </row>
     <row r="34" s="7" customFormat="1" spans="1:22">
       <c r="A34" s="9" t="s">
-        <v>532</v>
+        <v>556</v>
       </c>
       <c r="B34" s="9">
         <v>1</v>
@@ -15906,7 +16326,7 @@
         <v>4</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>527</v>
+        <v>551</v>
       </c>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
@@ -15932,13 +16352,13 @@
       <c r="Q34" s="9"/>
       <c r="R34" s="9"/>
       <c r="S34" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T34" s="9" t="s">
-        <v>528</v>
+        <v>552</v>
       </c>
       <c r="U34" s="9" t="s">
-        <v>529</v>
+        <v>553</v>
       </c>
       <c r="V34" s="9">
         <v>0</v>
@@ -15946,7 +16366,7 @@
     </row>
     <row r="35" s="7" customFormat="1" spans="1:22">
       <c r="A35" s="9" t="s">
-        <v>533</v>
+        <v>557</v>
       </c>
       <c r="B35" s="9">
         <v>1</v>
@@ -15962,7 +16382,7 @@
         <v>5</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>527</v>
+        <v>551</v>
       </c>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
@@ -15988,13 +16408,13 @@
       <c r="Q35" s="9"/>
       <c r="R35" s="9"/>
       <c r="S35" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T35" s="9" t="s">
-        <v>528</v>
+        <v>552</v>
       </c>
       <c r="U35" s="9" t="s">
-        <v>529</v>
+        <v>553</v>
       </c>
       <c r="V35" s="9">
         <v>0</v>
@@ -16002,7 +16422,7 @@
     </row>
     <row r="36" s="7" customFormat="1" spans="1:22">
       <c r="A36" s="9" t="s">
-        <v>534</v>
+        <v>558</v>
       </c>
       <c r="B36" s="9">
         <v>1</v>
@@ -16018,7 +16438,7 @@
         <v>6</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>527</v>
+        <v>551</v>
       </c>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
@@ -16044,13 +16464,13 @@
       <c r="Q36" s="9"/>
       <c r="R36" s="9"/>
       <c r="S36" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T36" s="9" t="s">
-        <v>528</v>
+        <v>552</v>
       </c>
       <c r="U36" s="9" t="s">
-        <v>529</v>
+        <v>553</v>
       </c>
       <c r="V36" s="9">
         <v>0</v>
@@ -16058,7 +16478,7 @@
     </row>
     <row r="37" s="7" customFormat="1" spans="1:22">
       <c r="A37" s="9" t="s">
-        <v>535</v>
+        <v>559</v>
       </c>
       <c r="B37" s="9">
         <v>1</v>
@@ -16074,7 +16494,7 @@
         <v>7</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>527</v>
+        <v>551</v>
       </c>
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
@@ -16100,13 +16520,13 @@
       <c r="Q37" s="9"/>
       <c r="R37" s="9"/>
       <c r="S37" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T37" s="9" t="s">
-        <v>528</v>
+        <v>552</v>
       </c>
       <c r="U37" s="9" t="s">
-        <v>529</v>
+        <v>553</v>
       </c>
       <c r="V37" s="9">
         <v>0</v>
@@ -16114,7 +16534,7 @@
     </row>
     <row r="38" s="7" customFormat="1" spans="1:22">
       <c r="A38" s="9" t="s">
-        <v>536</v>
+        <v>560</v>
       </c>
       <c r="B38" s="9">
         <v>1</v>
@@ -16130,7 +16550,7 @@
         <v>8</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>527</v>
+        <v>551</v>
       </c>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
@@ -16156,13 +16576,13 @@
       <c r="Q38" s="9"/>
       <c r="R38" s="9"/>
       <c r="S38" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T38" s="9" t="s">
-        <v>528</v>
+        <v>552</v>
       </c>
       <c r="U38" s="9" t="s">
-        <v>529</v>
+        <v>553</v>
       </c>
       <c r="V38" s="9">
         <v>0</v>
@@ -16170,7 +16590,7 @@
     </row>
     <row r="39" s="7" customFormat="1" spans="1:22">
       <c r="A39" s="9" t="s">
-        <v>537</v>
+        <v>561</v>
       </c>
       <c r="B39" s="9">
         <v>1</v>
@@ -16186,7 +16606,7 @@
         <v>9</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>527</v>
+        <v>551</v>
       </c>
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
@@ -16212,13 +16632,13 @@
       <c r="Q39" s="9"/>
       <c r="R39" s="9"/>
       <c r="S39" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T39" s="9" t="s">
-        <v>528</v>
+        <v>552</v>
       </c>
       <c r="U39" s="9" t="s">
-        <v>529</v>
+        <v>553</v>
       </c>
       <c r="V39" s="9">
         <v>0</v>
@@ -16226,7 +16646,7 @@
     </row>
     <row r="40" s="7" customFormat="1" spans="1:22">
       <c r="A40" s="9" t="s">
-        <v>538</v>
+        <v>562</v>
       </c>
       <c r="B40" s="9">
         <v>1</v>
@@ -16242,7 +16662,7 @@
         <v>10</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>527</v>
+        <v>551</v>
       </c>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
@@ -16268,13 +16688,13 @@
       <c r="Q40" s="9"/>
       <c r="R40" s="9"/>
       <c r="S40" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T40" s="9" t="s">
-        <v>528</v>
+        <v>552</v>
       </c>
       <c r="U40" s="9" t="s">
-        <v>529</v>
+        <v>553</v>
       </c>
       <c r="V40" s="9">
         <v>0</v>
@@ -16282,7 +16702,7 @@
     </row>
     <row r="41" s="7" customFormat="1" spans="1:22">
       <c r="A41" s="9" t="s">
-        <v>539</v>
+        <v>563</v>
       </c>
       <c r="B41" s="9">
         <v>1</v>
@@ -16298,7 +16718,7 @@
         <v>1</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>540</v>
+        <v>564</v>
       </c>
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
@@ -16324,13 +16744,13 @@
       <c r="Q41" s="9"/>
       <c r="R41" s="9"/>
       <c r="S41" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T41" s="9" t="s">
-        <v>541</v>
+        <v>565</v>
       </c>
       <c r="U41" s="9" t="s">
-        <v>542</v>
+        <v>566</v>
       </c>
       <c r="V41" s="9">
         <v>0</v>
@@ -16338,7 +16758,7 @@
     </row>
     <row r="42" s="7" customFormat="1" spans="1:22">
       <c r="A42" s="9" t="s">
-        <v>543</v>
+        <v>567</v>
       </c>
       <c r="B42" s="9">
         <v>1</v>
@@ -16354,7 +16774,7 @@
         <v>2</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>540</v>
+        <v>564</v>
       </c>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
@@ -16380,13 +16800,13 @@
       <c r="Q42" s="9"/>
       <c r="R42" s="9"/>
       <c r="S42" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T42" s="9" t="s">
-        <v>541</v>
+        <v>565</v>
       </c>
       <c r="U42" s="9" t="s">
-        <v>542</v>
+        <v>566</v>
       </c>
       <c r="V42" s="9">
         <v>0</v>
@@ -16394,7 +16814,7 @@
     </row>
     <row r="43" s="7" customFormat="1" spans="1:22">
       <c r="A43" s="9" t="s">
-        <v>544</v>
+        <v>568</v>
       </c>
       <c r="B43" s="9">
         <v>1</v>
@@ -16410,7 +16830,7 @@
         <v>3</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>540</v>
+        <v>564</v>
       </c>
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
@@ -16436,13 +16856,13 @@
       <c r="Q43" s="9"/>
       <c r="R43" s="9"/>
       <c r="S43" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T43" s="9" t="s">
-        <v>541</v>
+        <v>565</v>
       </c>
       <c r="U43" s="9" t="s">
-        <v>542</v>
+        <v>566</v>
       </c>
       <c r="V43" s="9">
         <v>0</v>
@@ -16450,7 +16870,7 @@
     </row>
     <row r="44" s="7" customFormat="1" spans="1:22">
       <c r="A44" s="9" t="s">
-        <v>545</v>
+        <v>569</v>
       </c>
       <c r="B44" s="9">
         <v>1</v>
@@ -16466,7 +16886,7 @@
         <v>4</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>540</v>
+        <v>564</v>
       </c>
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
@@ -16492,13 +16912,13 @@
       <c r="Q44" s="9"/>
       <c r="R44" s="9"/>
       <c r="S44" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T44" s="9" t="s">
-        <v>541</v>
+        <v>565</v>
       </c>
       <c r="U44" s="9" t="s">
-        <v>542</v>
+        <v>566</v>
       </c>
       <c r="V44" s="9">
         <v>0</v>
@@ -16506,7 +16926,7 @@
     </row>
     <row r="45" s="7" customFormat="1" spans="1:22">
       <c r="A45" s="9" t="s">
-        <v>546</v>
+        <v>570</v>
       </c>
       <c r="B45" s="9">
         <v>1</v>
@@ -16522,7 +16942,7 @@
         <v>5</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>540</v>
+        <v>564</v>
       </c>
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
@@ -16548,13 +16968,13 @@
       <c r="Q45" s="9"/>
       <c r="R45" s="9"/>
       <c r="S45" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T45" s="9" t="s">
-        <v>541</v>
+        <v>565</v>
       </c>
       <c r="U45" s="9" t="s">
-        <v>542</v>
+        <v>566</v>
       </c>
       <c r="V45" s="9">
         <v>0</v>
@@ -16562,7 +16982,7 @@
     </row>
     <row r="46" s="7" customFormat="1" spans="1:22">
       <c r="A46" s="9" t="s">
-        <v>547</v>
+        <v>571</v>
       </c>
       <c r="B46" s="9">
         <v>1</v>
@@ -16578,7 +16998,7 @@
         <v>6</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>540</v>
+        <v>564</v>
       </c>
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
@@ -16604,13 +17024,13 @@
       <c r="Q46" s="9"/>
       <c r="R46" s="9"/>
       <c r="S46" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T46" s="9" t="s">
-        <v>541</v>
+        <v>565</v>
       </c>
       <c r="U46" s="9" t="s">
-        <v>542</v>
+        <v>566</v>
       </c>
       <c r="V46" s="9">
         <v>0</v>
@@ -16618,7 +17038,7 @@
     </row>
     <row r="47" s="7" customFormat="1" spans="1:22">
       <c r="A47" s="9" t="s">
-        <v>548</v>
+        <v>572</v>
       </c>
       <c r="B47" s="9">
         <v>1</v>
@@ -16634,7 +17054,7 @@
         <v>7</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>540</v>
+        <v>564</v>
       </c>
       <c r="H47" s="9"/>
       <c r="I47" s="9"/>
@@ -16660,13 +17080,13 @@
       <c r="Q47" s="9"/>
       <c r="R47" s="9"/>
       <c r="S47" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T47" s="9" t="s">
-        <v>541</v>
+        <v>565</v>
       </c>
       <c r="U47" s="9" t="s">
-        <v>542</v>
+        <v>566</v>
       </c>
       <c r="V47" s="9">
         <v>0</v>
@@ -16674,7 +17094,7 @@
     </row>
     <row r="48" s="7" customFormat="1" spans="1:22">
       <c r="A48" s="9" t="s">
-        <v>549</v>
+        <v>573</v>
       </c>
       <c r="B48" s="9">
         <v>1</v>
@@ -16690,7 +17110,7 @@
         <v>8</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>540</v>
+        <v>564</v>
       </c>
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
@@ -16716,13 +17136,13 @@
       <c r="Q48" s="9"/>
       <c r="R48" s="9"/>
       <c r="S48" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T48" s="9" t="s">
-        <v>541</v>
+        <v>565</v>
       </c>
       <c r="U48" s="9" t="s">
-        <v>542</v>
+        <v>566</v>
       </c>
       <c r="V48" s="9">
         <v>0</v>
@@ -16730,7 +17150,7 @@
     </row>
     <row r="49" s="7" customFormat="1" spans="1:22">
       <c r="A49" s="9" t="s">
-        <v>550</v>
+        <v>574</v>
       </c>
       <c r="B49" s="9">
         <v>1</v>
@@ -16746,7 +17166,7 @@
         <v>9</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>540</v>
+        <v>564</v>
       </c>
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>
@@ -16772,13 +17192,13 @@
       <c r="Q49" s="9"/>
       <c r="R49" s="9"/>
       <c r="S49" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T49" s="9" t="s">
-        <v>541</v>
+        <v>565</v>
       </c>
       <c r="U49" s="9" t="s">
-        <v>542</v>
+        <v>566</v>
       </c>
       <c r="V49" s="9">
         <v>0</v>
@@ -16786,7 +17206,7 @@
     </row>
     <row r="50" s="7" customFormat="1" spans="1:22">
       <c r="A50" s="9" t="s">
-        <v>551</v>
+        <v>575</v>
       </c>
       <c r="B50" s="9">
         <v>1</v>
@@ -16802,7 +17222,7 @@
         <v>10</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>540</v>
+        <v>564</v>
       </c>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
@@ -16828,13 +17248,13 @@
       <c r="Q50" s="9"/>
       <c r="R50" s="9"/>
       <c r="S50" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T50" s="9" t="s">
-        <v>541</v>
+        <v>565</v>
       </c>
       <c r="U50" s="9" t="s">
-        <v>542</v>
+        <v>566</v>
       </c>
       <c r="V50" s="9">
         <v>0</v>
@@ -16842,7 +17262,7 @@
     </row>
     <row r="51" s="8" customFormat="1" spans="1:22">
       <c r="A51" s="10" t="s">
-        <v>552</v>
+        <v>576</v>
       </c>
       <c r="B51" s="10">
         <v>1</v>
@@ -16858,7 +17278,7 @@
         <v>1</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>553</v>
+        <v>577</v>
       </c>
       <c r="H51" s="10"/>
       <c r="I51" s="10"/>
@@ -16884,13 +17304,13 @@
       <c r="Q51" s="10"/>
       <c r="R51" s="9"/>
       <c r="S51" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T51" s="10" t="s">
-        <v>554</v>
+        <v>578</v>
       </c>
       <c r="U51" s="10" t="s">
-        <v>555</v>
+        <v>579</v>
       </c>
       <c r="V51" s="10">
         <v>0</v>
@@ -16898,7 +17318,7 @@
     </row>
     <row r="52" s="8" customFormat="1" spans="1:22">
       <c r="A52" s="10" t="s">
-        <v>556</v>
+        <v>580</v>
       </c>
       <c r="B52" s="10">
         <v>1</v>
@@ -16914,7 +17334,7 @@
         <v>2</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>553</v>
+        <v>577</v>
       </c>
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
@@ -16940,13 +17360,13 @@
       <c r="Q52" s="10"/>
       <c r="R52" s="9"/>
       <c r="S52" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T52" s="10" t="s">
-        <v>554</v>
+        <v>578</v>
       </c>
       <c r="U52" s="10" t="s">
-        <v>555</v>
+        <v>579</v>
       </c>
       <c r="V52" s="10">
         <v>0</v>
@@ -16954,7 +17374,7 @@
     </row>
     <row r="53" s="8" customFormat="1" spans="1:22">
       <c r="A53" s="10" t="s">
-        <v>557</v>
+        <v>581</v>
       </c>
       <c r="B53" s="10">
         <v>1</v>
@@ -16970,7 +17390,7 @@
         <v>3</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>553</v>
+        <v>577</v>
       </c>
       <c r="H53" s="10"/>
       <c r="I53" s="10"/>
@@ -16996,13 +17416,13 @@
       <c r="Q53" s="10"/>
       <c r="R53" s="9"/>
       <c r="S53" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T53" s="10" t="s">
-        <v>554</v>
+        <v>578</v>
       </c>
       <c r="U53" s="10" t="s">
-        <v>555</v>
+        <v>579</v>
       </c>
       <c r="V53" s="10">
         <v>0</v>
@@ -17010,7 +17430,7 @@
     </row>
     <row r="54" s="8" customFormat="1" spans="1:22">
       <c r="A54" s="10" t="s">
-        <v>558</v>
+        <v>582</v>
       </c>
       <c r="B54" s="10">
         <v>1</v>
@@ -17026,7 +17446,7 @@
         <v>4</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>553</v>
+        <v>577</v>
       </c>
       <c r="H54" s="10"/>
       <c r="I54" s="10"/>
@@ -17052,13 +17472,13 @@
       <c r="Q54" s="10"/>
       <c r="R54" s="9"/>
       <c r="S54" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T54" s="10" t="s">
-        <v>554</v>
+        <v>578</v>
       </c>
       <c r="U54" s="10" t="s">
-        <v>555</v>
+        <v>579</v>
       </c>
       <c r="V54" s="10">
         <v>0</v>
@@ -17066,7 +17486,7 @@
     </row>
     <row r="55" s="8" customFormat="1" spans="1:22">
       <c r="A55" s="10" t="s">
-        <v>559</v>
+        <v>583</v>
       </c>
       <c r="B55" s="10">
         <v>1</v>
@@ -17082,7 +17502,7 @@
         <v>5</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>553</v>
+        <v>577</v>
       </c>
       <c r="H55" s="10"/>
       <c r="I55" s="10"/>
@@ -17108,13 +17528,13 @@
       <c r="Q55" s="10"/>
       <c r="R55" s="9"/>
       <c r="S55" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T55" s="10" t="s">
-        <v>554</v>
+        <v>578</v>
       </c>
       <c r="U55" s="10" t="s">
-        <v>555</v>
+        <v>579</v>
       </c>
       <c r="V55" s="10">
         <v>0</v>
@@ -17122,7 +17542,7 @@
     </row>
     <row r="56" s="8" customFormat="1" spans="1:22">
       <c r="A56" s="10" t="s">
-        <v>560</v>
+        <v>584</v>
       </c>
       <c r="B56" s="10">
         <v>1</v>
@@ -17138,7 +17558,7 @@
         <v>6</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>553</v>
+        <v>577</v>
       </c>
       <c r="H56" s="10"/>
       <c r="I56" s="10"/>
@@ -17164,13 +17584,13 @@
       <c r="Q56" s="10"/>
       <c r="R56" s="9"/>
       <c r="S56" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T56" s="10" t="s">
-        <v>554</v>
+        <v>578</v>
       </c>
       <c r="U56" s="10" t="s">
-        <v>555</v>
+        <v>579</v>
       </c>
       <c r="V56" s="10">
         <v>0</v>
@@ -17178,7 +17598,7 @@
     </row>
     <row r="57" s="8" customFormat="1" spans="1:22">
       <c r="A57" s="10" t="s">
-        <v>561</v>
+        <v>585</v>
       </c>
       <c r="B57" s="10">
         <v>1</v>
@@ -17194,7 +17614,7 @@
         <v>7</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>553</v>
+        <v>577</v>
       </c>
       <c r="H57" s="10"/>
       <c r="I57" s="10"/>
@@ -17220,13 +17640,13 @@
       <c r="Q57" s="10"/>
       <c r="R57" s="9"/>
       <c r="S57" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T57" s="10" t="s">
-        <v>554</v>
+        <v>578</v>
       </c>
       <c r="U57" s="10" t="s">
-        <v>555</v>
+        <v>579</v>
       </c>
       <c r="V57" s="10">
         <v>0</v>
@@ -17234,7 +17654,7 @@
     </row>
     <row r="58" s="8" customFormat="1" spans="1:22">
       <c r="A58" s="10" t="s">
-        <v>562</v>
+        <v>586</v>
       </c>
       <c r="B58" s="10">
         <v>1</v>
@@ -17250,7 +17670,7 @@
         <v>8</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>553</v>
+        <v>577</v>
       </c>
       <c r="H58" s="10"/>
       <c r="I58" s="10"/>
@@ -17276,13 +17696,13 @@
       <c r="Q58" s="10"/>
       <c r="R58" s="9"/>
       <c r="S58" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T58" s="10" t="s">
-        <v>554</v>
+        <v>578</v>
       </c>
       <c r="U58" s="10" t="s">
-        <v>555</v>
+        <v>579</v>
       </c>
       <c r="V58" s="10">
         <v>0</v>
@@ -17290,7 +17710,7 @@
     </row>
     <row r="59" s="8" customFormat="1" spans="1:22">
       <c r="A59" s="10" t="s">
-        <v>563</v>
+        <v>587</v>
       </c>
       <c r="B59" s="10">
         <v>1</v>
@@ -17306,7 +17726,7 @@
         <v>9</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>553</v>
+        <v>577</v>
       </c>
       <c r="H59" s="10"/>
       <c r="I59" s="10"/>
@@ -17332,13 +17752,13 @@
       <c r="Q59" s="10"/>
       <c r="R59" s="9"/>
       <c r="S59" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T59" s="10" t="s">
-        <v>554</v>
+        <v>578</v>
       </c>
       <c r="U59" s="10" t="s">
-        <v>555</v>
+        <v>579</v>
       </c>
       <c r="V59" s="10">
         <v>0</v>
@@ -17346,7 +17766,7 @@
     </row>
     <row r="60" s="8" customFormat="1" spans="1:22">
       <c r="A60" s="10" t="s">
-        <v>564</v>
+        <v>588</v>
       </c>
       <c r="B60" s="10">
         <v>1</v>
@@ -17362,7 +17782,7 @@
         <v>10</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>553</v>
+        <v>577</v>
       </c>
       <c r="H60" s="10"/>
       <c r="I60" s="10"/>
@@ -17388,13 +17808,13 @@
       <c r="Q60" s="10"/>
       <c r="R60" s="9"/>
       <c r="S60" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T60" s="10" t="s">
-        <v>554</v>
+        <v>578</v>
       </c>
       <c r="U60" s="10" t="s">
-        <v>555</v>
+        <v>579</v>
       </c>
       <c r="V60" s="10">
         <v>0</v>
@@ -17402,7 +17822,7 @@
     </row>
     <row r="61" s="7" customFormat="1" spans="1:22">
       <c r="A61" s="9" t="s">
-        <v>565</v>
+        <v>589</v>
       </c>
       <c r="B61" s="9">
         <v>1</v>
@@ -17418,7 +17838,7 @@
         <v>1</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>566</v>
+        <v>590</v>
       </c>
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
@@ -17444,13 +17864,13 @@
       <c r="Q61" s="9"/>
       <c r="R61" s="9"/>
       <c r="S61" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T61" s="9" t="s">
-        <v>567</v>
+        <v>591</v>
       </c>
       <c r="U61" s="9" t="s">
-        <v>568</v>
+        <v>592</v>
       </c>
       <c r="V61" s="9">
         <v>0</v>
@@ -17458,7 +17878,7 @@
     </row>
     <row r="62" s="7" customFormat="1" spans="1:22">
       <c r="A62" s="9" t="s">
-        <v>569</v>
+        <v>593</v>
       </c>
       <c r="B62" s="9">
         <v>1</v>
@@ -17474,7 +17894,7 @@
         <v>2</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>566</v>
+        <v>590</v>
       </c>
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
@@ -17500,13 +17920,13 @@
       <c r="Q62" s="9"/>
       <c r="R62" s="9"/>
       <c r="S62" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T62" s="9" t="s">
-        <v>567</v>
+        <v>591</v>
       </c>
       <c r="U62" s="9" t="s">
-        <v>568</v>
+        <v>592</v>
       </c>
       <c r="V62" s="9">
         <v>0</v>
@@ -17514,7 +17934,7 @@
     </row>
     <row r="63" s="7" customFormat="1" spans="1:22">
       <c r="A63" s="9" t="s">
-        <v>570</v>
+        <v>594</v>
       </c>
       <c r="B63" s="9">
         <v>1</v>
@@ -17530,7 +17950,7 @@
         <v>3</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>566</v>
+        <v>590</v>
       </c>
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
@@ -17556,13 +17976,13 @@
       <c r="Q63" s="9"/>
       <c r="R63" s="9"/>
       <c r="S63" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T63" s="9" t="s">
-        <v>567</v>
+        <v>591</v>
       </c>
       <c r="U63" s="9" t="s">
-        <v>568</v>
+        <v>592</v>
       </c>
       <c r="V63" s="9">
         <v>0</v>
@@ -17570,7 +17990,7 @@
     </row>
     <row r="64" s="7" customFormat="1" spans="1:22">
       <c r="A64" s="9" t="s">
-        <v>571</v>
+        <v>595</v>
       </c>
       <c r="B64" s="9">
         <v>1</v>
@@ -17586,7 +18006,7 @@
         <v>4</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>566</v>
+        <v>590</v>
       </c>
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
@@ -17612,13 +18032,13 @@
       <c r="Q64" s="9"/>
       <c r="R64" s="9"/>
       <c r="S64" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T64" s="9" t="s">
-        <v>567</v>
+        <v>591</v>
       </c>
       <c r="U64" s="9" t="s">
-        <v>568</v>
+        <v>592</v>
       </c>
       <c r="V64" s="9">
         <v>0</v>
@@ -17626,7 +18046,7 @@
     </row>
     <row r="65" s="7" customFormat="1" spans="1:22">
       <c r="A65" s="9" t="s">
-        <v>572</v>
+        <v>596</v>
       </c>
       <c r="B65" s="9">
         <v>1</v>
@@ -17642,7 +18062,7 @@
         <v>5</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>566</v>
+        <v>590</v>
       </c>
       <c r="H65" s="9"/>
       <c r="I65" s="9"/>
@@ -17668,13 +18088,13 @@
       <c r="Q65" s="9"/>
       <c r="R65" s="9"/>
       <c r="S65" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T65" s="9" t="s">
-        <v>567</v>
+        <v>591</v>
       </c>
       <c r="U65" s="9" t="s">
-        <v>568</v>
+        <v>592</v>
       </c>
       <c r="V65" s="9">
         <v>0</v>
@@ -17682,7 +18102,7 @@
     </row>
     <row r="66" s="7" customFormat="1" spans="1:22">
       <c r="A66" s="9" t="s">
-        <v>573</v>
+        <v>597</v>
       </c>
       <c r="B66" s="9">
         <v>1</v>
@@ -17698,7 +18118,7 @@
         <v>6</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>566</v>
+        <v>590</v>
       </c>
       <c r="H66" s="9"/>
       <c r="I66" s="9"/>
@@ -17724,13 +18144,13 @@
       <c r="Q66" s="9"/>
       <c r="R66" s="9"/>
       <c r="S66" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T66" s="9" t="s">
-        <v>567</v>
+        <v>591</v>
       </c>
       <c r="U66" s="9" t="s">
-        <v>568</v>
+        <v>592</v>
       </c>
       <c r="V66" s="9">
         <v>0</v>
@@ -17738,7 +18158,7 @@
     </row>
     <row r="67" s="7" customFormat="1" spans="1:22">
       <c r="A67" s="9" t="s">
-        <v>574</v>
+        <v>598</v>
       </c>
       <c r="B67" s="9">
         <v>1</v>
@@ -17754,7 +18174,7 @@
         <v>7</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>566</v>
+        <v>590</v>
       </c>
       <c r="H67" s="9"/>
       <c r="I67" s="9"/>
@@ -17780,13 +18200,13 @@
       <c r="Q67" s="9"/>
       <c r="R67" s="9"/>
       <c r="S67" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T67" s="9" t="s">
-        <v>567</v>
+        <v>591</v>
       </c>
       <c r="U67" s="9" t="s">
-        <v>568</v>
+        <v>592</v>
       </c>
       <c r="V67" s="9">
         <v>0</v>
@@ -17794,7 +18214,7 @@
     </row>
     <row r="68" s="7" customFormat="1" spans="1:22">
       <c r="A68" s="9" t="s">
-        <v>575</v>
+        <v>599</v>
       </c>
       <c r="B68" s="9">
         <v>1</v>
@@ -17810,7 +18230,7 @@
         <v>8</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>566</v>
+        <v>590</v>
       </c>
       <c r="H68" s="9"/>
       <c r="I68" s="9"/>
@@ -17836,13 +18256,13 @@
       <c r="Q68" s="9"/>
       <c r="R68" s="9"/>
       <c r="S68" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T68" s="9" t="s">
-        <v>567</v>
+        <v>591</v>
       </c>
       <c r="U68" s="9" t="s">
-        <v>568</v>
+        <v>592</v>
       </c>
       <c r="V68" s="9">
         <v>0</v>
@@ -17850,7 +18270,7 @@
     </row>
     <row r="69" s="7" customFormat="1" spans="1:22">
       <c r="A69" s="9" t="s">
-        <v>576</v>
+        <v>600</v>
       </c>
       <c r="B69" s="9">
         <v>1</v>
@@ -17866,7 +18286,7 @@
         <v>9</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>566</v>
+        <v>590</v>
       </c>
       <c r="H69" s="9"/>
       <c r="I69" s="9"/>
@@ -17892,13 +18312,13 @@
       <c r="Q69" s="9"/>
       <c r="R69" s="9"/>
       <c r="S69" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T69" s="9" t="s">
-        <v>567</v>
+        <v>591</v>
       </c>
       <c r="U69" s="9" t="s">
-        <v>568</v>
+        <v>592</v>
       </c>
       <c r="V69" s="9">
         <v>0</v>
@@ -17906,7 +18326,7 @@
     </row>
     <row r="70" s="7" customFormat="1" spans="1:22">
       <c r="A70" s="9" t="s">
-        <v>577</v>
+        <v>601</v>
       </c>
       <c r="B70" s="9">
         <v>1</v>
@@ -17922,7 +18342,7 @@
         <v>10</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>566</v>
+        <v>590</v>
       </c>
       <c r="H70" s="9"/>
       <c r="I70" s="9"/>
@@ -17948,13 +18368,13 @@
       <c r="Q70" s="9"/>
       <c r="R70" s="9"/>
       <c r="S70" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T70" s="9" t="s">
-        <v>567</v>
+        <v>591</v>
       </c>
       <c r="U70" s="9" t="s">
-        <v>568</v>
+        <v>592</v>
       </c>
       <c r="V70" s="9">
         <v>0</v>
@@ -17962,7 +18382,7 @@
     </row>
     <row r="71" s="7" customFormat="1" spans="1:22">
       <c r="A71" s="9" t="s">
-        <v>578</v>
+        <v>602</v>
       </c>
       <c r="B71" s="9">
         <v>1</v>
@@ -17978,7 +18398,7 @@
         <v>1</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>579</v>
+        <v>603</v>
       </c>
       <c r="H71" s="9"/>
       <c r="I71" s="9"/>
@@ -18004,13 +18424,13 @@
       <c r="Q71" s="9"/>
       <c r="R71" s="9"/>
       <c r="S71" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T71" s="9" t="s">
-        <v>580</v>
+        <v>604</v>
       </c>
       <c r="U71" s="9" t="s">
-        <v>581</v>
+        <v>605</v>
       </c>
       <c r="V71" s="9">
         <v>0</v>
@@ -18018,7 +18438,7 @@
     </row>
     <row r="72" s="7" customFormat="1" spans="1:22">
       <c r="A72" s="9" t="s">
-        <v>582</v>
+        <v>606</v>
       </c>
       <c r="B72" s="9">
         <v>1</v>
@@ -18034,7 +18454,7 @@
         <v>2</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>579</v>
+        <v>603</v>
       </c>
       <c r="H72" s="9"/>
       <c r="I72" s="9"/>
@@ -18060,13 +18480,13 @@
       <c r="Q72" s="9"/>
       <c r="R72" s="9"/>
       <c r="S72" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T72" s="9" t="s">
-        <v>580</v>
+        <v>604</v>
       </c>
       <c r="U72" s="9" t="s">
-        <v>581</v>
+        <v>605</v>
       </c>
       <c r="V72" s="9">
         <v>0</v>
@@ -18074,7 +18494,7 @@
     </row>
     <row r="73" s="7" customFormat="1" spans="1:22">
       <c r="A73" s="9" t="s">
-        <v>583</v>
+        <v>607</v>
       </c>
       <c r="B73" s="9">
         <v>1</v>
@@ -18090,7 +18510,7 @@
         <v>3</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>579</v>
+        <v>603</v>
       </c>
       <c r="H73" s="9"/>
       <c r="I73" s="9"/>
@@ -18116,13 +18536,13 @@
       <c r="Q73" s="9"/>
       <c r="R73" s="9"/>
       <c r="S73" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T73" s="9" t="s">
-        <v>580</v>
+        <v>604</v>
       </c>
       <c r="U73" s="9" t="s">
-        <v>581</v>
+        <v>605</v>
       </c>
       <c r="V73" s="9">
         <v>0</v>
@@ -18130,7 +18550,7 @@
     </row>
     <row r="74" s="7" customFormat="1" spans="1:22">
       <c r="A74" s="9" t="s">
-        <v>584</v>
+        <v>608</v>
       </c>
       <c r="B74" s="9">
         <v>1</v>
@@ -18146,7 +18566,7 @@
         <v>4</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>579</v>
+        <v>603</v>
       </c>
       <c r="H74" s="9"/>
       <c r="I74" s="9"/>
@@ -18172,13 +18592,13 @@
       <c r="Q74" s="9"/>
       <c r="R74" s="9"/>
       <c r="S74" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T74" s="9" t="s">
-        <v>580</v>
+        <v>604</v>
       </c>
       <c r="U74" s="9" t="s">
-        <v>581</v>
+        <v>605</v>
       </c>
       <c r="V74" s="9">
         <v>0</v>
@@ -18186,7 +18606,7 @@
     </row>
     <row r="75" s="7" customFormat="1" spans="1:22">
       <c r="A75" s="9" t="s">
-        <v>585</v>
+        <v>609</v>
       </c>
       <c r="B75" s="9">
         <v>1</v>
@@ -18202,7 +18622,7 @@
         <v>5</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>579</v>
+        <v>603</v>
       </c>
       <c r="H75" s="9"/>
       <c r="I75" s="9"/>
@@ -18228,13 +18648,13 @@
       <c r="Q75" s="9"/>
       <c r="R75" s="9"/>
       <c r="S75" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T75" s="9" t="s">
-        <v>580</v>
+        <v>604</v>
       </c>
       <c r="U75" s="9" t="s">
-        <v>581</v>
+        <v>605</v>
       </c>
       <c r="V75" s="9">
         <v>0</v>
@@ -18242,7 +18662,7 @@
     </row>
     <row r="76" s="7" customFormat="1" spans="1:22">
       <c r="A76" s="9" t="s">
-        <v>586</v>
+        <v>610</v>
       </c>
       <c r="B76" s="9">
         <v>1</v>
@@ -18258,7 +18678,7 @@
         <v>6</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>579</v>
+        <v>603</v>
       </c>
       <c r="H76" s="9"/>
       <c r="I76" s="9"/>
@@ -18284,13 +18704,13 @@
       <c r="Q76" s="9"/>
       <c r="R76" s="9"/>
       <c r="S76" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T76" s="9" t="s">
-        <v>580</v>
+        <v>604</v>
       </c>
       <c r="U76" s="9" t="s">
-        <v>581</v>
+        <v>605</v>
       </c>
       <c r="V76" s="9">
         <v>0</v>
@@ -18298,7 +18718,7 @@
     </row>
     <row r="77" s="7" customFormat="1" spans="1:22">
       <c r="A77" s="9" t="s">
-        <v>587</v>
+        <v>611</v>
       </c>
       <c r="B77" s="9">
         <v>1</v>
@@ -18314,7 +18734,7 @@
         <v>7</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>579</v>
+        <v>603</v>
       </c>
       <c r="H77" s="9"/>
       <c r="I77" s="9"/>
@@ -18340,13 +18760,13 @@
       <c r="Q77" s="9"/>
       <c r="R77" s="9"/>
       <c r="S77" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T77" s="9" t="s">
-        <v>580</v>
+        <v>604</v>
       </c>
       <c r="U77" s="9" t="s">
-        <v>581</v>
+        <v>605</v>
       </c>
       <c r="V77" s="9">
         <v>0</v>
@@ -18354,7 +18774,7 @@
     </row>
     <row r="78" s="7" customFormat="1" spans="1:22">
       <c r="A78" s="9" t="s">
-        <v>588</v>
+        <v>612</v>
       </c>
       <c r="B78" s="9">
         <v>1</v>
@@ -18370,7 +18790,7 @@
         <v>8</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>579</v>
+        <v>603</v>
       </c>
       <c r="H78" s="9"/>
       <c r="I78" s="9"/>
@@ -18396,13 +18816,13 @@
       <c r="Q78" s="9"/>
       <c r="R78" s="9"/>
       <c r="S78" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T78" s="9" t="s">
-        <v>580</v>
+        <v>604</v>
       </c>
       <c r="U78" s="9" t="s">
-        <v>581</v>
+        <v>605</v>
       </c>
       <c r="V78" s="9">
         <v>0</v>
@@ -18410,7 +18830,7 @@
     </row>
     <row r="79" s="7" customFormat="1" spans="1:22">
       <c r="A79" s="9" t="s">
-        <v>589</v>
+        <v>613</v>
       </c>
       <c r="B79" s="9">
         <v>1</v>
@@ -18426,7 +18846,7 @@
         <v>9</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>579</v>
+        <v>603</v>
       </c>
       <c r="H79" s="9"/>
       <c r="I79" s="9"/>
@@ -18452,13 +18872,13 @@
       <c r="Q79" s="9"/>
       <c r="R79" s="9"/>
       <c r="S79" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T79" s="9" t="s">
-        <v>580</v>
+        <v>604</v>
       </c>
       <c r="U79" s="9" t="s">
-        <v>581</v>
+        <v>605</v>
       </c>
       <c r="V79" s="9">
         <v>0</v>
@@ -18466,7 +18886,7 @@
     </row>
     <row r="80" s="7" customFormat="1" spans="1:22">
       <c r="A80" s="9" t="s">
-        <v>590</v>
+        <v>614</v>
       </c>
       <c r="B80" s="9">
         <v>1</v>
@@ -18482,7 +18902,7 @@
         <v>10</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>579</v>
+        <v>603</v>
       </c>
       <c r="H80" s="9"/>
       <c r="I80" s="9"/>
@@ -18508,13 +18928,13 @@
       <c r="Q80" s="9"/>
       <c r="R80" s="9"/>
       <c r="S80" s="11" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="T80" s="9" t="s">
-        <v>580</v>
+        <v>604</v>
       </c>
       <c r="U80" s="9" t="s">
-        <v>581</v>
+        <v>605</v>
       </c>
       <c r="V80" s="9">
         <v>0</v>

--- a/_Out/NFDataCfg/Excel/Item.xlsx
+++ b/_Out/NFDataCfg/Excel/Item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="21440"/>
+    <workbookView windowWidth="32240" windowHeight="20800" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Property_supplies-2" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113">
   <si>
     <t>Id</t>
   </si>
@@ -57,6 +57,9 @@
     <t>AwardProperty</t>
   </si>
   <si>
+    <t>AwardPropertyValue</t>
+  </si>
+  <si>
     <t>CoolDownTime</t>
   </si>
   <si>
@@ -115,158 +118,132 @@
   </si>
   <si>
     <t>Desc</t>
+  </si>
+  <si>
+    <t>等级限制</t>
+  </si>
+  <si>
+    <t>职业限制,用分号隔开</t>
+  </si>
+  <si>
+    <t>物品品质</t>
+  </si>
+  <si>
+    <t>装备描述字符串索引</t>
+  </si>
+  <si>
+    <t>绝对值属性包索引</t>
+  </si>
+  <si>
+    <t>消费数据属性包索引</t>
+  </si>
+  <si>
+    <t>使用后获得的物品</t>
+  </si>
+  <si>
+    <t>使用后增加的属性值（货币经验等,一般有他就不用EffectData）</t>
+  </si>
+  <si>
+    <t>使用冷却CD</t>
+  </si>
+  <si>
+    <t>商店买价格</t>
+  </si>
+  <si>
+    <t>卖商店价格</t>
+  </si>
+  <si>
+    <t>物品使用脚本文件，比如得到英雄等</t>
+  </si>
+  <si>
+    <t>扩展字段，比如得到英雄等，实际意义和当时的类型有关系</t>
+  </si>
+  <si>
+    <t>物品显示Icon</t>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>Test_Item_MP1</t>
+  </si>
+  <si>
+    <t>UIResources/ItemSprite</t>
+  </si>
+  <si>
+    <t>1_Blue</t>
+  </si>
+  <si>
+    <t>Test_Item_MP2</t>
+  </si>
+  <si>
+    <t>2_Blue</t>
+  </si>
+  <si>
+    <t>Test_Item_MP3</t>
+  </si>
+  <si>
+    <t>3_Blue</t>
+  </si>
+  <si>
+    <t>Test_Item_MP4</t>
+  </si>
+  <si>
+    <t>4_Blue</t>
+  </si>
+  <si>
+    <t>Test_Item_MP5</t>
+  </si>
+  <si>
+    <t>5_Blue</t>
+  </si>
+  <si>
+    <t>Test_Item_MP6</t>
+  </si>
+  <si>
+    <t>6_Blue</t>
+  </si>
+  <si>
+    <t>Test_Item_HP1</t>
+  </si>
+  <si>
+    <t>1_Red</t>
+  </si>
+  <si>
+    <t>Test_Item_HP2</t>
+  </si>
+  <si>
+    <t>2_Red</t>
+  </si>
+  <si>
+    <t>Item_HP3</t>
+  </si>
+  <si>
+    <t>3_Red</t>
+  </si>
+  <si>
+    <t>Item_HP4</t>
+  </si>
+  <si>
+    <t>4_Red</t>
+  </si>
+  <si>
+    <t>Item_HP5</t>
+  </si>
+  <si>
+    <t>5_Red</t>
+  </si>
+  <si>
+    <t>Item_HP6</t>
+  </si>
+  <si>
+    <t>6_Red</t>
   </si>
   <si>
     <t>物品类别EItemType       EIT_EQUIP      = 0; 
  EIT_GEM       = 1;
  EIT_SUPPLY      = 2;
  EIT_SCROLL       = 3;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> EGIT_ITEM_WATER    = 0;  //
- EGIT_ITEM_DIAMOND   = 1; //
- EGIT_ITEM_CURRENCY   = 2;  //
- EGIT_ITEM_EXP    = 3;  //
- EGIT_ITEM_HP    = 4; //
- EGIT_ITEM_MP    = 5; //
- EGIT_ITEM_SP    = 6; //
- EGIT_ITEM_PACK    = 7; //
- EGIT_ITEM_MEMORY_POS  = 8; //
-    EGIT_ITEM_ONEMORE_CHESSPOOL = 9;    //
-    EGIT_ITEM_FIRE_WALL         = 10;    //
-    EGIT_ITEM_LIGHTING_WEAPONE  = 11;    //</t>
-  </si>
-  <si>
-    <t>等级限制</t>
-  </si>
-  <si>
-    <t>职业限制,用分号隔开</t>
-  </si>
-  <si>
-    <t>物品品质</t>
-  </si>
-  <si>
-    <t>装备描述字符串索引</t>
-  </si>
-  <si>
-    <t>绝对值属性包索引</t>
-  </si>
-  <si>
-    <t>消费数据属性包索引</t>
-  </si>
-  <si>
-    <t>使用后获得的物品</t>
-  </si>
-  <si>
-    <t>使用后增加的属性值（货币经验等,一般有他就不用EffectData）</t>
-  </si>
-  <si>
-    <t>使用冷却CD</t>
-  </si>
-  <si>
-    <t>商店买价格</t>
-  </si>
-  <si>
-    <t>卖商店价格</t>
-  </si>
-  <si>
-    <t>物品使用脚本文件，比如得到英雄等</t>
-  </si>
-  <si>
-    <t>扩展字段，比如得到英雄等，实际意义和当时的类型有关系</t>
-  </si>
-  <si>
-    <t>物品显示Icon</t>
-  </si>
-  <si>
-    <t>名字</t>
-  </si>
-  <si>
-    <t>Test_Item_MP1</t>
-  </si>
-  <si>
-    <t>Desc_MP</t>
-  </si>
-  <si>
-    <t>UIResources/ItemSprite</t>
-  </si>
-  <si>
-    <t>1_Blue</t>
-  </si>
-  <si>
-    <t>NameID_MP</t>
-  </si>
-  <si>
-    <t>Test_Item_MP2</t>
-  </si>
-  <si>
-    <t>2_Blue</t>
-  </si>
-  <si>
-    <t>Test_Item_MP3</t>
-  </si>
-  <si>
-    <t>3_Blue</t>
-  </si>
-  <si>
-    <t>Test_Item_MP4</t>
-  </si>
-  <si>
-    <t>4_Blue</t>
-  </si>
-  <si>
-    <t>Test_Item_MP5</t>
-  </si>
-  <si>
-    <t>5_Blue</t>
-  </si>
-  <si>
-    <t>Test_Item_MP6</t>
-  </si>
-  <si>
-    <t>6_Blue</t>
-  </si>
-  <si>
-    <t>Test_Item_HP1</t>
-  </si>
-  <si>
-    <t>Desc_HP</t>
-  </si>
-  <si>
-    <t>1_Red</t>
-  </si>
-  <si>
-    <t>NameID_HP</t>
-  </si>
-  <si>
-    <t>Test_Item_HP2</t>
-  </si>
-  <si>
-    <t>2_Red</t>
-  </si>
-  <si>
-    <t>Item_HP3</t>
-  </si>
-  <si>
-    <t>3_Red</t>
-  </si>
-  <si>
-    <t>Item_HP4</t>
-  </si>
-  <si>
-    <t>4_Red</t>
-  </si>
-  <si>
-    <t>Item_HP5</t>
-  </si>
-  <si>
-    <t>5_Red</t>
-  </si>
-  <si>
-    <t>Item_HP6</t>
-  </si>
-  <si>
-    <t>6_Red</t>
   </si>
   <si>
     <t xml:space="preserve"> EGTST_TOKEN_HERO_CARD    = 0;  //
@@ -405,10 +382,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -445,14 +422,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -460,8 +429,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -470,13 +454,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -505,10 +482,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -520,6 +498,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -528,16 +513,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -551,39 +551,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -634,55 +611,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,7 +635,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,19 +719,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -736,49 +767,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -790,25 +785,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -891,6 +868,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -915,43 +907,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -971,11 +931,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -988,153 +954,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1549,14 +1526,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="10" topLeftCell="H11" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="10" topLeftCell="J11" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M1" sqref="M$1:N$1048576"/>
+      <selection pane="bottomRight" activeCell="T11" sqref="T11:T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1571,17 +1548,17 @@
     <col min="8" max="8" width="34" customWidth="1"/>
     <col min="9" max="9" width="18.6640625" customWidth="1"/>
     <col min="10" max="10" width="58.3359375" customWidth="1"/>
-    <col min="11" max="11" width="31.5078125" customWidth="1"/>
-    <col min="12" max="12" width="14.1640625" customWidth="1"/>
-    <col min="13" max="13" width="16.5078125" customWidth="1"/>
-    <col min="14" max="14" width="12.6640625" customWidth="1"/>
-    <col min="15" max="15" width="14" customWidth="1"/>
-    <col min="16" max="16" width="27.6640625" customWidth="1"/>
-    <col min="17" max="18" width="23.3359375" customWidth="1"/>
-    <col min="19" max="19" width="21.5078125" customWidth="1"/>
+    <col min="11" max="12" width="31.5078125" customWidth="1"/>
+    <col min="13" max="13" width="14.1640625" customWidth="1"/>
+    <col min="14" max="14" width="16.5078125" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" customWidth="1"/>
+    <col min="16" max="16" width="14" customWidth="1"/>
+    <col min="17" max="17" width="27.6640625" customWidth="1"/>
+    <col min="18" max="19" width="23.3359375" customWidth="1"/>
+    <col min="20" max="20" width="21.5078125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:19">
+    <row r="1" s="1" customFormat="1" spans="1:20">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1639,69 +1616,75 @@
       <c r="S1" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:19">
+      <c r="T1" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:20">
       <c r="A2" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="G2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="M2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>20</v>
       </c>
       <c r="O2" s="6" t="s">
         <v>21</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" s="2" customFormat="1" spans="1:19">
+        <v>22</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:20">
       <c r="A3" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" s="6">
         <v>0</v>
@@ -1757,10 +1740,13 @@
       <c r="S3" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" s="2" customFormat="1" spans="1:19">
+      <c r="T3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:20">
       <c r="A4" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="6">
         <v>0</v>
@@ -1816,10 +1802,13 @@
       <c r="S4" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" s="2" customFormat="1" spans="1:19">
+      <c r="T4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:20">
       <c r="A5" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="6">
         <v>0</v>
@@ -1875,10 +1864,13 @@
       <c r="S5" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" s="2" customFormat="1" spans="1:19">
+      <c r="T5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:20">
       <c r="A6" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="6">
         <v>0</v>
@@ -1934,10 +1926,13 @@
       <c r="S6" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" s="3" customFormat="1" ht="17" spans="1:19">
+      <c r="T6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="1" ht="17" spans="1:20">
       <c r="A7" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" s="3">
         <v>0</v>
@@ -1991,12 +1986,15 @@
         <v>0</v>
       </c>
       <c r="S7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" s="3" customFormat="1" ht="17" spans="1:19">
+        <v>0</v>
+      </c>
+      <c r="T7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" s="3" customFormat="1" ht="17" spans="1:20">
       <c r="A8" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -2052,10 +2050,13 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" s="3" customFormat="1" ht="17" spans="1:19">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" s="3" customFormat="1" ht="17" spans="1:20">
       <c r="A9" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
@@ -2111,69 +2112,73 @@
       <c r="S9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" s="2" customFormat="1" ht="92" customHeight="1" spans="1:19">
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="92" customHeight="1" spans="1:20">
       <c r="A10" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="E10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="F10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="G10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="H10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="I10" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="J10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="K10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="L10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="N10" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="M10" s="6" t="s">
+      <c r="O10" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="N10" s="6" t="s">
+      <c r="P10" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="O10" s="6" t="s">
+      <c r="Q10" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="P10" s="6" t="s">
+      <c r="R10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="S10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="Q10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R10" s="6" t="s">
+      <c r="T10" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="S10" s="6" t="s">
+    </row>
+    <row r="11" s="21" customFormat="1" spans="1:20">
+      <c r="A11" s="22" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="11" s="21" customFormat="1" spans="1:19">
-      <c r="A11" s="22" t="s">
-        <v>48</v>
       </c>
       <c r="B11" s="23">
         <v>2</v>
@@ -2188,39 +2193,38 @@
       <c r="F11" s="24">
         <v>0</v>
       </c>
-      <c r="G11" s="22" t="s">
-        <v>49</v>
-      </c>
+      <c r="G11" s="22"/>
       <c r="H11" s="22"/>
       <c r="I11" s="24"/>
       <c r="J11" s="24"/>
       <c r="K11" s="24">
         <v>100</v>
       </c>
-      <c r="L11" s="23">
+      <c r="L11" s="24">
+        <v>100</v>
+      </c>
+      <c r="M11" s="23">
         <v>10</v>
       </c>
-      <c r="M11" s="24">
+      <c r="N11" s="24">
         <v>100</v>
       </c>
-      <c r="N11" s="23">
-        <v>1</v>
-      </c>
-      <c r="O11" s="24"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="9" t="s">
+      <c r="O11" s="23">
+        <v>1</v>
+      </c>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="S11" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="T11" s="22"/>
+    </row>
+    <row r="12" s="21" customFormat="1" spans="1:20">
+      <c r="A12" s="22" t="s">
         <v>50</v>
-      </c>
-      <c r="R11" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="S11" s="22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" s="21" customFormat="1" spans="1:19">
-      <c r="A12" s="22" t="s">
-        <v>53</v>
       </c>
       <c r="B12" s="24">
         <v>2</v>
@@ -2235,9 +2239,7 @@
       <c r="F12" s="24">
         <v>0</v>
       </c>
-      <c r="G12" s="22" t="s">
-        <v>49</v>
-      </c>
+      <c r="G12" s="22"/>
       <c r="H12" s="22"/>
       <c r="I12" s="24"/>
       <c r="J12" s="24"/>
@@ -2245,29 +2247,30 @@
         <v>200</v>
       </c>
       <c r="L12" s="24">
+        <v>200</v>
+      </c>
+      <c r="M12" s="24">
         <v>10</v>
       </c>
-      <c r="M12" s="24">
+      <c r="N12" s="24">
         <v>100</v>
       </c>
-      <c r="N12" s="23">
-        <v>1</v>
-      </c>
-      <c r="O12" s="24"/>
+      <c r="O12" s="23">
+        <v>1</v>
+      </c>
       <c r="P12" s="24"/>
-      <c r="Q12" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="R12" s="22" t="s">
-        <v>54</v>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="S12" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="T12" s="22"/>
+    </row>
+    <row r="13" s="21" customFormat="1" spans="1:20">
+      <c r="A13" s="22" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="13" s="21" customFormat="1" spans="1:19">
-      <c r="A13" s="22" t="s">
-        <v>55</v>
       </c>
       <c r="B13" s="23">
         <v>2</v>
@@ -2282,39 +2285,38 @@
       <c r="F13" s="24">
         <v>0</v>
       </c>
-      <c r="G13" s="22" t="s">
-        <v>49</v>
-      </c>
+      <c r="G13" s="22"/>
       <c r="H13" s="22"/>
       <c r="I13" s="24"/>
       <c r="J13" s="24"/>
       <c r="K13" s="24">
         <v>400</v>
       </c>
-      <c r="L13" s="23">
+      <c r="L13" s="24">
+        <v>400</v>
+      </c>
+      <c r="M13" s="23">
         <v>10</v>
       </c>
-      <c r="M13" s="24">
+      <c r="N13" s="24">
         <v>100</v>
       </c>
-      <c r="N13" s="23">
-        <v>1</v>
-      </c>
-      <c r="O13" s="24"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="R13" s="22" t="s">
-        <v>56</v>
+      <c r="O13" s="23">
+        <v>1</v>
+      </c>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="S13" s="22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" s="21" customFormat="1" spans="1:19">
+        <v>53</v>
+      </c>
+      <c r="T13" s="22"/>
+    </row>
+    <row r="14" s="21" customFormat="1" spans="1:20">
       <c r="A14" s="22" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B14" s="24">
         <v>2</v>
@@ -2329,9 +2331,7 @@
       <c r="F14" s="24">
         <v>0</v>
       </c>
-      <c r="G14" s="22" t="s">
-        <v>49</v>
-      </c>
+      <c r="G14" s="22"/>
       <c r="H14" s="22"/>
       <c r="I14" s="24"/>
       <c r="J14" s="24"/>
@@ -2339,29 +2339,30 @@
         <v>800</v>
       </c>
       <c r="L14" s="24">
+        <v>800</v>
+      </c>
+      <c r="M14" s="24">
         <v>10</v>
       </c>
-      <c r="M14" s="24">
+      <c r="N14" s="24">
         <v>100</v>
       </c>
-      <c r="N14" s="23">
-        <v>1</v>
-      </c>
-      <c r="O14" s="24"/>
+      <c r="O14" s="23">
+        <v>1</v>
+      </c>
       <c r="P14" s="24"/>
-      <c r="Q14" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="R14" s="22" t="s">
-        <v>58</v>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="S14" s="22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" s="21" customFormat="1" spans="1:19">
+        <v>55</v>
+      </c>
+      <c r="T14" s="22"/>
+    </row>
+    <row r="15" s="21" customFormat="1" spans="1:20">
       <c r="A15" s="22" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B15" s="24">
         <v>2</v>
@@ -2376,39 +2377,38 @@
       <c r="F15" s="24">
         <v>0</v>
       </c>
-      <c r="G15" s="22" t="s">
-        <v>49</v>
-      </c>
+      <c r="G15" s="22"/>
       <c r="H15" s="22"/>
       <c r="I15" s="24"/>
       <c r="J15" s="24"/>
       <c r="K15" s="24">
         <v>800</v>
       </c>
-      <c r="L15" s="23">
+      <c r="L15" s="24">
+        <v>800</v>
+      </c>
+      <c r="M15" s="23">
         <v>10</v>
       </c>
-      <c r="M15" s="24">
+      <c r="N15" s="24">
         <v>100</v>
       </c>
-      <c r="N15" s="23">
-        <v>1</v>
-      </c>
-      <c r="O15" s="24"/>
+      <c r="O15" s="23">
+        <v>1</v>
+      </c>
       <c r="P15" s="24"/>
-      <c r="Q15" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="R15" s="22" t="s">
-        <v>60</v>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="S15" s="22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" s="21" customFormat="1" spans="1:19">
+        <v>57</v>
+      </c>
+      <c r="T15" s="22"/>
+    </row>
+    <row r="16" s="21" customFormat="1" spans="1:20">
       <c r="A16" s="22" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B16" s="24">
         <v>2</v>
@@ -2423,9 +2423,7 @@
       <c r="F16" s="24">
         <v>0</v>
       </c>
-      <c r="G16" s="22" t="s">
-        <v>49</v>
-      </c>
+      <c r="G16" s="22"/>
       <c r="H16" s="22"/>
       <c r="I16" s="24"/>
       <c r="J16" s="24"/>
@@ -2433,29 +2431,30 @@
         <v>800</v>
       </c>
       <c r="L16" s="24">
+        <v>800</v>
+      </c>
+      <c r="M16" s="24">
         <v>10</v>
       </c>
-      <c r="M16" s="24">
+      <c r="N16" s="24">
         <v>100</v>
       </c>
-      <c r="N16" s="23">
-        <v>1</v>
-      </c>
-      <c r="O16" s="24"/>
+      <c r="O16" s="23">
+        <v>1</v>
+      </c>
       <c r="P16" s="24"/>
-      <c r="Q16" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="R16" s="22" t="s">
-        <v>62</v>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="S16" s="22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" s="21" customFormat="1" spans="1:19">
+        <v>59</v>
+      </c>
+      <c r="T16" s="22"/>
+    </row>
+    <row r="17" s="21" customFormat="1" spans="1:20">
       <c r="A17" s="22" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B17" s="23">
         <v>2</v>
@@ -2470,39 +2469,38 @@
       <c r="F17" s="24">
         <v>0</v>
       </c>
-      <c r="G17" s="22" t="s">
-        <v>64</v>
-      </c>
+      <c r="G17" s="22"/>
       <c r="H17" s="22"/>
       <c r="I17" s="24"/>
       <c r="J17" s="24"/>
       <c r="K17" s="24">
         <v>100</v>
       </c>
-      <c r="L17" s="23">
+      <c r="L17" s="24">
+        <v>100</v>
+      </c>
+      <c r="M17" s="23">
         <v>10</v>
       </c>
-      <c r="M17" s="24">
+      <c r="N17" s="24">
         <v>100</v>
       </c>
-      <c r="N17" s="23">
-        <v>1</v>
-      </c>
-      <c r="O17" s="24"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="R17" s="22" t="s">
-        <v>65</v>
+      <c r="O17" s="23">
+        <v>1</v>
+      </c>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="S17" s="22" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" s="21" customFormat="1" spans="1:19">
+        <v>61</v>
+      </c>
+      <c r="T17" s="22"/>
+    </row>
+    <row r="18" s="21" customFormat="1" spans="1:20">
       <c r="A18" s="22" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B18" s="24">
         <v>2</v>
@@ -2517,9 +2515,7 @@
       <c r="F18" s="24">
         <v>0</v>
       </c>
-      <c r="G18" s="22" t="s">
-        <v>64</v>
-      </c>
+      <c r="G18" s="22"/>
       <c r="H18" s="22"/>
       <c r="I18" s="24"/>
       <c r="J18" s="24"/>
@@ -2527,29 +2523,30 @@
         <v>200</v>
       </c>
       <c r="L18" s="24">
+        <v>200</v>
+      </c>
+      <c r="M18" s="24">
         <v>10</v>
       </c>
-      <c r="M18" s="24">
+      <c r="N18" s="24">
         <v>100</v>
       </c>
-      <c r="N18" s="23">
-        <v>1</v>
-      </c>
-      <c r="O18" s="24"/>
+      <c r="O18" s="23">
+        <v>1</v>
+      </c>
       <c r="P18" s="24"/>
-      <c r="Q18" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="R18" s="22" t="s">
-        <v>68</v>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="S18" s="22" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" s="21" customFormat="1" spans="1:19">
+        <v>63</v>
+      </c>
+      <c r="T18" s="22"/>
+    </row>
+    <row r="19" s="21" customFormat="1" spans="1:20">
       <c r="A19" s="22" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B19" s="23">
         <v>2</v>
@@ -2564,39 +2561,38 @@
       <c r="F19" s="24">
         <v>0</v>
       </c>
-      <c r="G19" s="22" t="s">
-        <v>64</v>
-      </c>
+      <c r="G19" s="22"/>
       <c r="H19" s="22"/>
       <c r="I19" s="24"/>
       <c r="J19" s="24"/>
       <c r="K19" s="24">
         <v>400</v>
       </c>
-      <c r="L19" s="23">
+      <c r="L19" s="24">
+        <v>400</v>
+      </c>
+      <c r="M19" s="23">
         <v>10</v>
       </c>
-      <c r="M19" s="24">
+      <c r="N19" s="24">
         <v>100</v>
       </c>
-      <c r="N19" s="23">
-        <v>1</v>
-      </c>
-      <c r="O19" s="24"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="R19" s="22" t="s">
-        <v>70</v>
+      <c r="O19" s="23">
+        <v>1</v>
+      </c>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="S19" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="T19" s="22"/>
+    </row>
+    <row r="20" s="21" customFormat="1" spans="1:20">
+      <c r="A20" s="22" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="20" s="21" customFormat="1" spans="1:19">
-      <c r="A20" s="22" t="s">
-        <v>71</v>
       </c>
       <c r="B20" s="24">
         <v>2</v>
@@ -2611,9 +2607,7 @@
       <c r="F20" s="24">
         <v>0</v>
       </c>
-      <c r="G20" s="22" t="s">
-        <v>64</v>
-      </c>
+      <c r="G20" s="22"/>
       <c r="H20" s="22"/>
       <c r="I20" s="24"/>
       <c r="J20" s="24"/>
@@ -2621,29 +2615,30 @@
         <v>800</v>
       </c>
       <c r="L20" s="24">
+        <v>800</v>
+      </c>
+      <c r="M20" s="24">
         <v>10</v>
       </c>
-      <c r="M20" s="24">
+      <c r="N20" s="24">
         <v>100</v>
       </c>
-      <c r="N20" s="23">
-        <v>1</v>
-      </c>
-      <c r="O20" s="24"/>
+      <c r="O20" s="23">
+        <v>1</v>
+      </c>
       <c r="P20" s="24"/>
-      <c r="Q20" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="R20" s="22" t="s">
-        <v>72</v>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="S20" s="22" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" s="21" customFormat="1" spans="1:19">
+        <v>67</v>
+      </c>
+      <c r="T20" s="22"/>
+    </row>
+    <row r="21" s="21" customFormat="1" spans="1:20">
       <c r="A21" s="22" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B21" s="24">
         <v>2</v>
@@ -2658,39 +2653,38 @@
       <c r="F21" s="24">
         <v>0</v>
       </c>
-      <c r="G21" s="22" t="s">
-        <v>64</v>
-      </c>
+      <c r="G21" s="22"/>
       <c r="H21" s="22"/>
       <c r="I21" s="24"/>
       <c r="J21" s="24"/>
       <c r="K21" s="24">
         <v>800</v>
       </c>
-      <c r="L21" s="23">
+      <c r="L21" s="24">
+        <v>800</v>
+      </c>
+      <c r="M21" s="23">
         <v>10</v>
       </c>
-      <c r="M21" s="24">
+      <c r="N21" s="24">
         <v>100</v>
       </c>
-      <c r="N21" s="23">
-        <v>1</v>
-      </c>
-      <c r="O21" s="24"/>
+      <c r="O21" s="23">
+        <v>1</v>
+      </c>
       <c r="P21" s="24"/>
-      <c r="Q21" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="R21" s="22" t="s">
-        <v>74</v>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="S21" s="22" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" s="21" customFormat="1" spans="1:19">
+        <v>69</v>
+      </c>
+      <c r="T21" s="22"/>
+    </row>
+    <row r="22" s="21" customFormat="1" spans="1:20">
       <c r="A22" s="22" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B22" s="24">
         <v>2</v>
@@ -2705,9 +2699,7 @@
       <c r="F22" s="24">
         <v>0</v>
       </c>
-      <c r="G22" s="22" t="s">
-        <v>64</v>
-      </c>
+      <c r="G22" s="22"/>
       <c r="H22" s="22"/>
       <c r="I22" s="24"/>
       <c r="J22" s="24"/>
@@ -2715,32 +2707,33 @@
         <v>800</v>
       </c>
       <c r="L22" s="24">
+        <v>800</v>
+      </c>
+      <c r="M22" s="24">
         <v>10</v>
       </c>
-      <c r="M22" s="24">
+      <c r="N22" s="24">
         <v>100</v>
       </c>
-      <c r="N22" s="23">
-        <v>1</v>
-      </c>
-      <c r="O22" s="24"/>
+      <c r="O22" s="23">
+        <v>1</v>
+      </c>
       <c r="P22" s="24"/>
-      <c r="Q22" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="R22" s="22" t="s">
-        <v>76</v>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="S22" s="22" t="s">
-        <v>66</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="T22" s="22"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:L9 M7:S9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9:K9 L9 M9 B9:B10 L7:L8 M7:M8 B7:K8 N7:T9">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2818,92 +2811,92 @@
         <v>10</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:19">
       <c r="A2" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="G2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="L2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>21</v>
-      </c>
       <c r="P2" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:19">
       <c r="A3" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" s="6">
         <v>0</v>
@@ -2962,7 +2955,7 @@
     </row>
     <row r="4" s="2" customFormat="1" spans="1:19">
       <c r="A4" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="6">
         <v>0</v>
@@ -3021,7 +3014,7 @@
     </row>
     <row r="5" s="2" customFormat="1" spans="1:19">
       <c r="A5" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="6">
         <v>0</v>
@@ -3080,7 +3073,7 @@
     </row>
     <row r="6" s="2" customFormat="1" spans="1:19">
       <c r="A6" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="6">
         <v>0</v>
@@ -3139,7 +3132,7 @@
     </row>
     <row r="7" s="3" customFormat="1" ht="17" spans="1:19">
       <c r="A7" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" s="3">
         <v>0</v>
@@ -3198,7 +3191,7 @@
     </row>
     <row r="8" s="3" customFormat="1" ht="17" spans="1:19">
       <c r="A8" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -3257,7 +3250,7 @@
     </row>
     <row r="9" s="3" customFormat="1" ht="17" spans="1:19">
       <c r="A9" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
@@ -3316,66 +3309,66 @@
     </row>
     <row r="10" s="2" customFormat="1" ht="92" customHeight="1" spans="1:19">
       <c r="A10" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="F10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="G10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="H10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="I10" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="J10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="K10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="L10" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="M10" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="M10" s="6" t="s">
+      <c r="N10" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="N10" s="6" t="s">
+      <c r="O10" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="O10" s="6" t="s">
+      <c r="P10" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="P10" s="6" t="s">
+      <c r="Q10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="Q10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R10" s="6" t="s">
+      <c r="S10" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="S10" s="6" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="11" s="10" customFormat="1" ht="17.55" spans="1:19">
       <c r="A11" s="11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B11" s="12">
         <v>3</v>
@@ -3391,7 +3384,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
@@ -3410,21 +3403,21 @@
       </c>
       <c r="O11" s="12"/>
       <c r="P11" s="17" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="18" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="R11" s="19" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="S11" s="20" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" s="10" customFormat="1" ht="17.55" spans="1:19">
       <c r="A12" s="11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B12" s="13">
         <v>3</v>
@@ -3440,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
@@ -3459,21 +3452,21 @@
       </c>
       <c r="O12" s="13"/>
       <c r="P12" s="17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="Q12" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="R12" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="R12" s="19" t="s">
-        <v>85</v>
-      </c>
       <c r="S12" s="20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" s="10" customFormat="1" ht="17.55" spans="1:19">
       <c r="A13" s="11" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B13" s="12">
         <v>3</v>
@@ -3489,7 +3482,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
@@ -3508,21 +3501,21 @@
       </c>
       <c r="O13" s="13"/>
       <c r="P13" s="17" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="Q13" s="18" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="R13" s="19" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="S13" s="20" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" s="10" customFormat="1" ht="17.55" spans="1:19">
       <c r="A14" s="11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B14" s="13">
         <v>3</v>
@@ -3538,7 +3531,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
@@ -3557,21 +3550,21 @@
       </c>
       <c r="O14" s="13"/>
       <c r="P14" s="17" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="Q14" s="18" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="R14" s="19" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S14" s="20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" ht="16.8" spans="1:19">
       <c r="A15" s="11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B15" s="12">
         <v>3</v>
@@ -3587,7 +3580,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
@@ -3606,16 +3599,16 @@
       </c>
       <c r="O15" s="12"/>
       <c r="P15" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="Q15" s="18" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="R15" s="19" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="S15" s="20" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -3636,12 +3629,12 @@
   <sheetPr/>
   <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="10" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N1" sqref="N1"/>
+      <selection pane="bottomRight" activeCell="G16" sqref="G16:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -3701,92 +3694,92 @@
         <v>10</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:19">
       <c r="A2" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="G2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="L2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>21</v>
-      </c>
       <c r="P2" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:19">
       <c r="A3" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" s="6">
         <v>0</v>
@@ -3845,7 +3838,7 @@
     </row>
     <row r="4" s="2" customFormat="1" spans="1:19">
       <c r="A4" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="6">
         <v>0</v>
@@ -3904,7 +3897,7 @@
     </row>
     <row r="5" s="2" customFormat="1" spans="1:19">
       <c r="A5" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="6">
         <v>0</v>
@@ -3963,7 +3956,7 @@
     </row>
     <row r="6" s="2" customFormat="1" spans="1:19">
       <c r="A6" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="6">
         <v>0</v>
@@ -4022,7 +4015,7 @@
     </row>
     <row r="7" s="3" customFormat="1" ht="17" spans="1:19">
       <c r="A7" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" s="3">
         <v>0</v>
@@ -4081,7 +4074,7 @@
     </row>
     <row r="8" s="3" customFormat="1" ht="17" spans="1:19">
       <c r="A8" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -4140,7 +4133,7 @@
     </row>
     <row r="9" s="3" customFormat="1" ht="17" spans="1:19">
       <c r="A9" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
@@ -4199,66 +4192,66 @@
     </row>
     <row r="10" s="2" customFormat="1" ht="92" customHeight="1" spans="1:19">
       <c r="A10" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="F10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="G10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="H10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="I10" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="J10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="K10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K10" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="L10" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="M10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="N10" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="N10" s="6" t="s">
+      <c r="O10" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="O10" s="6" t="s">
+      <c r="P10" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="P10" s="6" t="s">
+      <c r="Q10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="Q10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R10" s="6" t="s">
+      <c r="S10" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="S10" s="6" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="11" s="4" customFormat="1" spans="1:19">
       <c r="A11" s="8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B11" s="8">
         <v>1</v>
@@ -4274,7 +4267,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -4294,18 +4287,18 @@
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
       <c r="Q11" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="R11" s="8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="S11" s="8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" s="4" customFormat="1" spans="1:19">
       <c r="A12" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B12" s="8">
         <v>1</v>
@@ -4321,7 +4314,7 @@
         <v>2</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
@@ -4341,18 +4334,18 @@
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
       <c r="Q12" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="R12" s="8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="S12" s="8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" s="4" customFormat="1" spans="1:19">
       <c r="A13" s="8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B13" s="8">
         <v>1</v>
@@ -4368,7 +4361,7 @@
         <v>3</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
@@ -4388,18 +4381,18 @@
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
       <c r="Q13" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="R13" s="8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="S13" s="8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" s="4" customFormat="1" spans="1:19">
       <c r="A14" s="8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B14" s="8">
         <v>1</v>
@@ -4415,7 +4408,7 @@
         <v>4</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
@@ -4435,18 +4428,18 @@
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
       <c r="Q14" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="R14" s="8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="S14" s="8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" s="4" customFormat="1" spans="1:19">
       <c r="A15" s="8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B15" s="8">
         <v>1</v>
@@ -4462,7 +4455,7 @@
         <v>5</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -4482,18 +4475,18 @@
       <c r="O15" s="8"/>
       <c r="P15" s="8"/>
       <c r="Q15" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="R15" s="8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="S15" s="8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" s="4" customFormat="1" spans="1:19">
       <c r="A16" s="8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B16" s="8">
         <v>1</v>
@@ -4509,7 +4502,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
@@ -4529,18 +4522,18 @@
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
       <c r="Q16" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="R16" s="8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="S16" s="8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" s="4" customFormat="1" spans="1:19">
       <c r="A17" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B17" s="8">
         <v>1</v>
@@ -4556,7 +4549,7 @@
         <v>2</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -4576,18 +4569,18 @@
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
       <c r="Q17" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="R17" s="8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="S17" s="8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" s="4" customFormat="1" spans="1:19">
       <c r="A18" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B18" s="8">
         <v>1</v>
@@ -4603,7 +4596,7 @@
         <v>3</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
@@ -4623,18 +4616,18 @@
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
       <c r="Q18" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="R18" s="8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="S18" s="8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" s="4" customFormat="1" spans="1:19">
       <c r="A19" s="8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B19" s="8">
         <v>1</v>
@@ -4650,7 +4643,7 @@
         <v>4</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -4670,18 +4663,18 @@
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
       <c r="Q19" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="R19" s="8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="S19" s="8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" s="4" customFormat="1" spans="1:19">
       <c r="A20" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B20" s="8">
         <v>1</v>
@@ -4697,7 +4690,7 @@
         <v>5</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
@@ -4717,13 +4710,13 @@
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
       <c r="Q20" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="R20" s="8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="S20" s="8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/_Out/NFDataCfg/Excel/Item.xlsx
+++ b/_Out/NFDataCfg/Excel/Item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="32240" windowHeight="20800" activeTab="2"/>
+    <workbookView windowHeight="23360" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Property_supplies-2" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106">
   <si>
     <t>Id</t>
   </si>
@@ -329,52 +329,31 @@
     <t>coolDownTime</t>
   </si>
   <si>
-    <t>Test_Item_GEM_ATK_1</t>
-  </si>
-  <si>
-    <t>Desc_GEM_ATK</t>
-  </si>
-  <si>
-    <t>Item_GEM_ATK</t>
-  </si>
-  <si>
-    <t>NameID_GEM_ATK</t>
-  </si>
-  <si>
-    <t>Test_Item_GEM_ATK_2</t>
-  </si>
-  <si>
-    <t>Test_Item_GEM_ATK_3</t>
-  </si>
-  <si>
-    <t>Test_Item_GEM_ATK_4</t>
-  </si>
-  <si>
-    <t>Test_Item_GEM_ATK_5</t>
-  </si>
-  <si>
-    <t>Test_Item_GEM_DEF_1</t>
-  </si>
-  <si>
-    <t>Desc_GEM_DEF</t>
-  </si>
-  <si>
-    <t>Item_GEM_DEF</t>
-  </si>
-  <si>
-    <t>NameID_GEM_DEF</t>
-  </si>
-  <si>
-    <t>Test_Item_GEM_DEF_2</t>
-  </si>
-  <si>
-    <t>Test_Item_GEM_DEF_3</t>
-  </si>
-  <si>
-    <t>Test_Item_GEM_DEF_4</t>
-  </si>
-  <si>
-    <t>Test_Item_GEM_DEF_5</t>
+    <t>Item_Gold_Item1</t>
+  </si>
+  <si>
+    <t>Desc_Gold_Item1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Gold_Item1</t>
+  </si>
+  <si>
+    <t>NameID_Gold_Item1</t>
+  </si>
+  <si>
+    <t>Item_Diamond_Item1</t>
+  </si>
+  <si>
+    <t>Desc_Diamond_Item1</t>
+  </si>
+  <si>
+    <t>Diamond_Item1</t>
+  </si>
+  <si>
+    <t>NameID_Diamond_Item1</t>
   </si>
 </sst>
 </file>
@@ -383,9 +362,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -422,6 +401,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -429,8 +423,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -439,6 +449,60 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -453,30 +517,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -490,62 +531,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -553,14 +540,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -587,13 +566,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399884029663991"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,7 +584,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,7 +608,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -635,43 +632,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -689,13 +650,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -707,19 +680,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -737,7 +710,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -749,7 +728,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,31 +752,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -868,6 +847,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -879,15 +867,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -907,15 +886,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -927,6 +897,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -948,15 +927,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -965,157 +935,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1128,7 +1107,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1140,55 +1119,64 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2176,557 +2164,557 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" s="21" customFormat="1" spans="1:20">
-      <c r="A11" s="22" t="s">
+    <row r="11" s="23" customFormat="1" spans="1:20">
+      <c r="A11" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="23">
+      <c r="B11" s="25">
         <v>2</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="26">
         <v>5</v>
       </c>
-      <c r="D11" s="24">
-        <v>0</v>
-      </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="24">
-        <v>0</v>
-      </c>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24">
+      <c r="D11" s="26">
+        <v>0</v>
+      </c>
+      <c r="E11" s="25"/>
+      <c r="F11" s="26">
+        <v>0</v>
+      </c>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26">
         <v>100</v>
       </c>
-      <c r="L11" s="24">
+      <c r="L11" s="26">
         <v>100</v>
       </c>
-      <c r="M11" s="23">
+      <c r="M11" s="25">
         <v>10</v>
       </c>
-      <c r="N11" s="24">
+      <c r="N11" s="26">
         <v>100</v>
       </c>
-      <c r="O11" s="23">
+      <c r="O11" s="25">
         <v>1</v>
       </c>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="9" t="s">
+      <c r="P11" s="26"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="S11" s="22" t="s">
+      <c r="S11" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="T11" s="22"/>
-    </row>
-    <row r="12" s="21" customFormat="1" spans="1:20">
-      <c r="A12" s="22" t="s">
+      <c r="T11" s="24"/>
+    </row>
+    <row r="12" s="23" customFormat="1" spans="1:20">
+      <c r="A12" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="24">
+      <c r="B12" s="26">
         <v>2</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="26">
         <v>5</v>
       </c>
-      <c r="D12" s="24">
-        <v>0</v>
-      </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24">
-        <v>0</v>
-      </c>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24">
+      <c r="D12" s="26">
+        <v>0</v>
+      </c>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26">
+        <v>0</v>
+      </c>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26">
         <v>200</v>
       </c>
-      <c r="L12" s="24">
+      <c r="L12" s="26">
         <v>200</v>
       </c>
-      <c r="M12" s="24">
+      <c r="M12" s="26">
         <v>10</v>
       </c>
-      <c r="N12" s="24">
+      <c r="N12" s="26">
         <v>100</v>
       </c>
-      <c r="O12" s="23">
+      <c r="O12" s="25">
         <v>1</v>
       </c>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="9" t="s">
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="S12" s="22" t="s">
+      <c r="S12" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="T12" s="22"/>
-    </row>
-    <row r="13" s="21" customFormat="1" spans="1:20">
-      <c r="A13" s="22" t="s">
+      <c r="T12" s="24"/>
+    </row>
+    <row r="13" s="23" customFormat="1" spans="1:20">
+      <c r="A13" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="23">
+      <c r="B13" s="25">
         <v>2</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="26">
         <v>5</v>
       </c>
-      <c r="D13" s="24">
-        <v>0</v>
-      </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="24">
-        <v>0</v>
-      </c>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24">
+      <c r="D13" s="26">
+        <v>0</v>
+      </c>
+      <c r="E13" s="25"/>
+      <c r="F13" s="26">
+        <v>0</v>
+      </c>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26">
         <v>400</v>
       </c>
-      <c r="L13" s="24">
+      <c r="L13" s="26">
         <v>400</v>
       </c>
-      <c r="M13" s="23">
+      <c r="M13" s="25">
         <v>10</v>
       </c>
-      <c r="N13" s="24">
+      <c r="N13" s="26">
         <v>100</v>
       </c>
-      <c r="O13" s="23">
+      <c r="O13" s="25">
         <v>1</v>
       </c>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="9" t="s">
+      <c r="P13" s="26"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="S13" s="22" t="s">
+      <c r="S13" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="T13" s="22"/>
-    </row>
-    <row r="14" s="21" customFormat="1" spans="1:20">
-      <c r="A14" s="22" t="s">
+      <c r="T13" s="24"/>
+    </row>
+    <row r="14" s="23" customFormat="1" spans="1:20">
+      <c r="A14" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="26">
         <v>2</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="26">
         <v>5</v>
       </c>
-      <c r="D14" s="24">
-        <v>0</v>
-      </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24">
-        <v>0</v>
-      </c>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24">
+      <c r="D14" s="26">
+        <v>0</v>
+      </c>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26">
+        <v>0</v>
+      </c>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26">
         <v>800</v>
       </c>
-      <c r="L14" s="24">
+      <c r="L14" s="26">
         <v>800</v>
       </c>
-      <c r="M14" s="24">
+      <c r="M14" s="26">
         <v>10</v>
       </c>
-      <c r="N14" s="24">
+      <c r="N14" s="26">
         <v>100</v>
       </c>
-      <c r="O14" s="23">
+      <c r="O14" s="25">
         <v>1</v>
       </c>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="9" t="s">
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="S14" s="22" t="s">
+      <c r="S14" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="T14" s="22"/>
-    </row>
-    <row r="15" s="21" customFormat="1" spans="1:20">
-      <c r="A15" s="22" t="s">
+      <c r="T14" s="24"/>
+    </row>
+    <row r="15" s="23" customFormat="1" spans="1:20">
+      <c r="A15" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="24">
+      <c r="B15" s="26">
         <v>2</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="26">
         <v>5</v>
       </c>
-      <c r="D15" s="24">
-        <v>0</v>
-      </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24">
-        <v>0</v>
-      </c>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24">
+      <c r="D15" s="26">
+        <v>0</v>
+      </c>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26">
+        <v>0</v>
+      </c>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26">
         <v>800</v>
       </c>
-      <c r="L15" s="24">
+      <c r="L15" s="26">
         <v>800</v>
       </c>
-      <c r="M15" s="23">
+      <c r="M15" s="25">
         <v>10</v>
       </c>
-      <c r="N15" s="24">
+      <c r="N15" s="26">
         <v>100</v>
       </c>
-      <c r="O15" s="23">
+      <c r="O15" s="25">
         <v>1</v>
       </c>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="9" t="s">
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="S15" s="22" t="s">
+      <c r="S15" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="T15" s="22"/>
-    </row>
-    <row r="16" s="21" customFormat="1" spans="1:20">
-      <c r="A16" s="22" t="s">
+      <c r="T15" s="24"/>
+    </row>
+    <row r="16" s="23" customFormat="1" spans="1:20">
+      <c r="A16" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="24">
+      <c r="B16" s="26">
         <v>2</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="26">
         <v>5</v>
       </c>
-      <c r="D16" s="24">
-        <v>0</v>
-      </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24">
-        <v>0</v>
-      </c>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24">
+      <c r="D16" s="26">
+        <v>0</v>
+      </c>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26">
+        <v>0</v>
+      </c>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26">
         <v>800</v>
       </c>
-      <c r="L16" s="24">
+      <c r="L16" s="26">
         <v>800</v>
       </c>
-      <c r="M16" s="24">
+      <c r="M16" s="26">
         <v>10</v>
       </c>
-      <c r="N16" s="24">
+      <c r="N16" s="26">
         <v>100</v>
       </c>
-      <c r="O16" s="23">
+      <c r="O16" s="25">
         <v>1</v>
       </c>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="9" t="s">
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="S16" s="22" t="s">
+      <c r="S16" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="T16" s="22"/>
-    </row>
-    <row r="17" s="21" customFormat="1" spans="1:20">
-      <c r="A17" s="22" t="s">
+      <c r="T16" s="24"/>
+    </row>
+    <row r="17" s="23" customFormat="1" spans="1:20">
+      <c r="A17" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="23">
+      <c r="B17" s="25">
         <v>2</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="26">
         <v>4</v>
       </c>
-      <c r="D17" s="24">
-        <v>0</v>
-      </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="24">
-        <v>0</v>
-      </c>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24">
+      <c r="D17" s="26">
+        <v>0</v>
+      </c>
+      <c r="E17" s="25"/>
+      <c r="F17" s="26">
+        <v>0</v>
+      </c>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26">
         <v>100</v>
       </c>
-      <c r="L17" s="24">
+      <c r="L17" s="26">
         <v>100</v>
       </c>
-      <c r="M17" s="23">
+      <c r="M17" s="25">
         <v>10</v>
       </c>
-      <c r="N17" s="24">
+      <c r="N17" s="26">
         <v>100</v>
       </c>
-      <c r="O17" s="23">
+      <c r="O17" s="25">
         <v>1</v>
       </c>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="9" t="s">
+      <c r="P17" s="26"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="S17" s="22" t="s">
+      <c r="S17" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="T17" s="22"/>
-    </row>
-    <row r="18" s="21" customFormat="1" spans="1:20">
-      <c r="A18" s="22" t="s">
+      <c r="T17" s="24"/>
+    </row>
+    <row r="18" s="23" customFormat="1" spans="1:20">
+      <c r="A18" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="24">
+      <c r="B18" s="26">
         <v>2</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="26">
         <v>4</v>
       </c>
-      <c r="D18" s="24">
-        <v>0</v>
-      </c>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24">
-        <v>0</v>
-      </c>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24">
+      <c r="D18" s="26">
+        <v>0</v>
+      </c>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26">
+        <v>0</v>
+      </c>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26">
         <v>200</v>
       </c>
-      <c r="L18" s="24">
+      <c r="L18" s="26">
         <v>200</v>
       </c>
-      <c r="M18" s="24">
+      <c r="M18" s="26">
         <v>10</v>
       </c>
-      <c r="N18" s="24">
+      <c r="N18" s="26">
         <v>100</v>
       </c>
-      <c r="O18" s="23">
+      <c r="O18" s="25">
         <v>1</v>
       </c>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="9" t="s">
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="S18" s="22" t="s">
+      <c r="S18" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="T18" s="22"/>
-    </row>
-    <row r="19" s="21" customFormat="1" spans="1:20">
-      <c r="A19" s="22" t="s">
+      <c r="T18" s="24"/>
+    </row>
+    <row r="19" s="23" customFormat="1" spans="1:20">
+      <c r="A19" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="23">
+      <c r="B19" s="25">
         <v>2</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="26">
         <v>4</v>
       </c>
-      <c r="D19" s="24">
-        <v>0</v>
-      </c>
-      <c r="E19" s="23"/>
-      <c r="F19" s="24">
-        <v>0</v>
-      </c>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24">
+      <c r="D19" s="26">
+        <v>0</v>
+      </c>
+      <c r="E19" s="25"/>
+      <c r="F19" s="26">
+        <v>0</v>
+      </c>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26">
         <v>400</v>
       </c>
-      <c r="L19" s="24">
+      <c r="L19" s="26">
         <v>400</v>
       </c>
-      <c r="M19" s="23">
+      <c r="M19" s="25">
         <v>10</v>
       </c>
-      <c r="N19" s="24">
+      <c r="N19" s="26">
         <v>100</v>
       </c>
-      <c r="O19" s="23">
+      <c r="O19" s="25">
         <v>1</v>
       </c>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="9" t="s">
+      <c r="P19" s="26"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="S19" s="22" t="s">
+      <c r="S19" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="T19" s="22"/>
-    </row>
-    <row r="20" s="21" customFormat="1" spans="1:20">
-      <c r="A20" s="22" t="s">
+      <c r="T19" s="24"/>
+    </row>
+    <row r="20" s="23" customFormat="1" spans="1:20">
+      <c r="A20" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="24">
+      <c r="B20" s="26">
         <v>2</v>
       </c>
-      <c r="C20" s="24">
+      <c r="C20" s="26">
         <v>4</v>
       </c>
-      <c r="D20" s="24">
-        <v>0</v>
-      </c>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24">
-        <v>0</v>
-      </c>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24">
+      <c r="D20" s="26">
+        <v>0</v>
+      </c>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26">
+        <v>0</v>
+      </c>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26">
         <v>800</v>
       </c>
-      <c r="L20" s="24">
+      <c r="L20" s="26">
         <v>800</v>
       </c>
-      <c r="M20" s="24">
+      <c r="M20" s="26">
         <v>10</v>
       </c>
-      <c r="N20" s="24">
+      <c r="N20" s="26">
         <v>100</v>
       </c>
-      <c r="O20" s="23">
+      <c r="O20" s="25">
         <v>1</v>
       </c>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="9" t="s">
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="S20" s="22" t="s">
+      <c r="S20" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="T20" s="22"/>
-    </row>
-    <row r="21" s="21" customFormat="1" spans="1:20">
-      <c r="A21" s="22" t="s">
+      <c r="T20" s="24"/>
+    </row>
+    <row r="21" s="23" customFormat="1" spans="1:20">
+      <c r="A21" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="24">
+      <c r="B21" s="26">
         <v>2</v>
       </c>
-      <c r="C21" s="24">
+      <c r="C21" s="26">
         <v>4</v>
       </c>
-      <c r="D21" s="24">
-        <v>0</v>
-      </c>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24">
-        <v>0</v>
-      </c>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24">
+      <c r="D21" s="26">
+        <v>0</v>
+      </c>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26">
+        <v>0</v>
+      </c>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26">
         <v>800</v>
       </c>
-      <c r="L21" s="24">
+      <c r="L21" s="26">
         <v>800</v>
       </c>
-      <c r="M21" s="23">
+      <c r="M21" s="25">
         <v>10</v>
       </c>
-      <c r="N21" s="24">
+      <c r="N21" s="26">
         <v>100</v>
       </c>
-      <c r="O21" s="23">
+      <c r="O21" s="25">
         <v>1</v>
       </c>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="9" t="s">
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="S21" s="22" t="s">
+      <c r="S21" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="T21" s="22"/>
-    </row>
-    <row r="22" s="21" customFormat="1" spans="1:20">
-      <c r="A22" s="22" t="s">
+      <c r="T21" s="24"/>
+    </row>
+    <row r="22" s="23" customFormat="1" spans="1:20">
+      <c r="A22" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="24">
+      <c r="B22" s="26">
         <v>2</v>
       </c>
-      <c r="C22" s="24">
+      <c r="C22" s="26">
         <v>4</v>
       </c>
-      <c r="D22" s="24">
-        <v>0</v>
-      </c>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24">
-        <v>0</v>
-      </c>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24">
+      <c r="D22" s="26">
+        <v>0</v>
+      </c>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26">
+        <v>0</v>
+      </c>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26">
         <v>800</v>
       </c>
-      <c r="L22" s="24">
+      <c r="L22" s="26">
         <v>800</v>
       </c>
-      <c r="M22" s="24">
+      <c r="M22" s="26">
         <v>10</v>
       </c>
-      <c r="N22" s="24">
+      <c r="N22" s="26">
         <v>100</v>
       </c>
-      <c r="O22" s="23">
+      <c r="O22" s="25">
         <v>1</v>
       </c>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="9" t="s">
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="S22" s="22" t="s">
+      <c r="S22" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="T22" s="22"/>
+      <c r="T22" s="24"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -3366,248 +3354,248 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" s="10" customFormat="1" ht="17.55" spans="1:19">
-      <c r="A11" s="11" t="s">
+    <row r="11" s="12" customFormat="1" ht="17.55" spans="1:19">
+      <c r="A11" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="14">
         <v>3</v>
       </c>
-      <c r="C11" s="12">
-        <v>0</v>
-      </c>
-      <c r="D11" s="12">
-        <v>0</v>
-      </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12">
-        <v>0</v>
-      </c>
-      <c r="G11" s="14" t="s">
+      <c r="C11" s="14">
+        <v>0</v>
+      </c>
+      <c r="D11" s="14">
+        <v>0</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14">
+        <v>0</v>
+      </c>
+      <c r="G11" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="12">
-        <v>0</v>
-      </c>
-      <c r="L11" s="12">
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="14">
+        <v>0</v>
+      </c>
+      <c r="L11" s="14">
         <v>10</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M11" s="14">
         <v>1000</v>
       </c>
-      <c r="N11" s="12">
+      <c r="N11" s="14">
         <v>1</v>
       </c>
-      <c r="O11" s="12"/>
-      <c r="P11" s="17" t="s">
+      <c r="O11" s="14"/>
+      <c r="P11" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="Q11" s="18" t="s">
+      <c r="Q11" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="R11" s="19" t="s">
+      <c r="R11" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="S11" s="20" t="s">
+      <c r="S11" s="22" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="12" s="10" customFormat="1" ht="17.55" spans="1:19">
-      <c r="A12" s="11" t="s">
+    <row r="12" s="12" customFormat="1" ht="17.55" spans="1:19">
+      <c r="A12" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="15">
         <v>3</v>
       </c>
-      <c r="C12" s="13">
-        <v>0</v>
-      </c>
-      <c r="D12" s="13">
-        <v>0</v>
-      </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13">
-        <v>0</v>
-      </c>
-      <c r="G12" s="14" t="s">
+      <c r="C12" s="15">
+        <v>0</v>
+      </c>
+      <c r="D12" s="15">
+        <v>0</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15">
+        <v>0</v>
+      </c>
+      <c r="G12" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="13">
-        <v>0</v>
-      </c>
-      <c r="L12" s="13">
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="15">
+        <v>0</v>
+      </c>
+      <c r="L12" s="15">
         <v>10</v>
       </c>
-      <c r="M12" s="12">
+      <c r="M12" s="14">
         <v>1000</v>
       </c>
-      <c r="N12" s="13">
+      <c r="N12" s="15">
         <v>1</v>
       </c>
-      <c r="O12" s="13"/>
-      <c r="P12" s="17" t="s">
+      <c r="O12" s="15"/>
+      <c r="P12" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="Q12" s="18" t="s">
+      <c r="Q12" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="R12" s="19" t="s">
+      <c r="R12" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="S12" s="20" t="s">
+      <c r="S12" s="22" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="13" s="10" customFormat="1" ht="17.55" spans="1:19">
-      <c r="A13" s="11" t="s">
+    <row r="13" s="12" customFormat="1" ht="17.55" spans="1:19">
+      <c r="A13" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="14">
         <v>3</v>
       </c>
-      <c r="C13" s="12">
-        <v>0</v>
-      </c>
-      <c r="D13" s="13">
-        <v>0</v>
-      </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13">
-        <v>0</v>
-      </c>
-      <c r="G13" s="14" t="s">
+      <c r="C13" s="14">
+        <v>0</v>
+      </c>
+      <c r="D13" s="15">
+        <v>0</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15">
+        <v>0</v>
+      </c>
+      <c r="G13" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="13">
-        <v>0</v>
-      </c>
-      <c r="L13" s="12">
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="15">
+        <v>0</v>
+      </c>
+      <c r="L13" s="14">
         <v>10</v>
       </c>
-      <c r="M13" s="12">
+      <c r="M13" s="14">
         <v>1000</v>
       </c>
-      <c r="N13" s="13">
+      <c r="N13" s="15">
         <v>1</v>
       </c>
-      <c r="O13" s="13"/>
-      <c r="P13" s="17" t="s">
+      <c r="O13" s="15"/>
+      <c r="P13" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="Q13" s="18" t="s">
+      <c r="Q13" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="R13" s="19" t="s">
+      <c r="R13" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="S13" s="20" t="s">
+      <c r="S13" s="22" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="14" s="10" customFormat="1" ht="17.55" spans="1:19">
-      <c r="A14" s="11" t="s">
+    <row r="14" s="12" customFormat="1" ht="17.55" spans="1:19">
+      <c r="A14" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="15">
         <v>3</v>
       </c>
-      <c r="C14" s="13">
-        <v>0</v>
-      </c>
-      <c r="D14" s="13">
-        <v>0</v>
-      </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13">
-        <v>0</v>
-      </c>
-      <c r="G14" s="14" t="s">
+      <c r="C14" s="15">
+        <v>0</v>
+      </c>
+      <c r="D14" s="15">
+        <v>0</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15">
+        <v>0</v>
+      </c>
+      <c r="G14" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="13">
-        <v>0</v>
-      </c>
-      <c r="L14" s="13">
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="15">
+        <v>0</v>
+      </c>
+      <c r="L14" s="15">
         <v>10</v>
       </c>
-      <c r="M14" s="12">
+      <c r="M14" s="14">
         <v>1000</v>
       </c>
-      <c r="N14" s="13">
+      <c r="N14" s="15">
         <v>1</v>
       </c>
-      <c r="O14" s="13"/>
-      <c r="P14" s="17" t="s">
+      <c r="O14" s="15"/>
+      <c r="P14" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="Q14" s="18" t="s">
+      <c r="Q14" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="R14" s="19" t="s">
+      <c r="R14" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="S14" s="20" t="s">
+      <c r="S14" s="22" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="15" ht="16.8" spans="1:19">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="14">
         <v>3</v>
       </c>
-      <c r="C15" s="12">
-        <v>0</v>
-      </c>
-      <c r="D15" s="12">
-        <v>0</v>
-      </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12">
-        <v>0</v>
-      </c>
-      <c r="G15" s="14" t="s">
+      <c r="C15" s="14">
+        <v>0</v>
+      </c>
+      <c r="D15" s="14">
+        <v>0</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14">
+        <v>0</v>
+      </c>
+      <c r="G15" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="12">
-        <v>0</v>
-      </c>
-      <c r="L15" s="12">
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="14">
+        <v>0</v>
+      </c>
+      <c r="L15" s="14">
         <v>10</v>
       </c>
-      <c r="M15" s="12">
+      <c r="M15" s="14">
         <v>1000</v>
       </c>
-      <c r="N15" s="12">
+      <c r="N15" s="14">
         <v>1</v>
       </c>
-      <c r="O15" s="12"/>
-      <c r="P15" s="17" t="s">
+      <c r="O15" s="14"/>
+      <c r="P15" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="Q15" s="18" t="s">
+      <c r="Q15" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="R15" s="19" t="s">
+      <c r="R15" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="S15" s="20" t="s">
+      <c r="S15" s="22" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3627,14 +3615,14 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:S20"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="10" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="10" topLeftCell="I11" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G16" sqref="G16:G20"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="$A1:$XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -3656,10 +3644,11 @@
     <col min="15" max="15" width="14" customWidth="1"/>
     <col min="16" max="16" width="27.6640625" customWidth="1"/>
     <col min="17" max="18" width="23.3359375" customWidth="1"/>
-    <col min="19" max="19" width="21.5078125" customWidth="1"/>
+    <col min="19" max="19" width="15.7578125" customWidth="1"/>
+    <col min="20" max="20" width="22.3125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:19">
+    <row r="1" s="1" customFormat="1" ht="28" spans="1:20">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3694,31 +3683,34 @@
         <v>10</v>
       </c>
       <c r="L1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:19">
+    <row r="2" s="2" customFormat="1" spans="1:20">
       <c r="A2" s="6" t="s">
         <v>20</v>
       </c>
@@ -3750,19 +3742,19 @@
         <v>22</v>
       </c>
       <c r="K2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>21</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>22</v>
@@ -3776,8 +3768,11 @@
       <c r="S2" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" s="2" customFormat="1" spans="1:19">
+      <c r="T2" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:20">
       <c r="A3" s="6" t="s">
         <v>24</v>
       </c>
@@ -3835,8 +3830,11 @@
       <c r="S3" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" s="2" customFormat="1" spans="1:19">
+      <c r="T3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:20">
       <c r="A4" s="6" t="s">
         <v>25</v>
       </c>
@@ -3894,8 +3892,11 @@
       <c r="S4" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" s="2" customFormat="1" spans="1:19">
+      <c r="T4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:20">
       <c r="A5" s="6" t="s">
         <v>26</v>
       </c>
@@ -3953,8 +3954,11 @@
       <c r="S5" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" s="2" customFormat="1" spans="1:19">
+      <c r="T5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:20">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -4012,8 +4016,11 @@
       <c r="S6" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" s="3" customFormat="1" ht="17" spans="1:19">
+      <c r="T6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="1" ht="17" spans="1:20">
       <c r="A7" s="7" t="s">
         <v>28</v>
       </c>
@@ -4069,10 +4076,13 @@
         <v>0</v>
       </c>
       <c r="S7" s="3">
+        <v>0</v>
+      </c>
+      <c r="T7" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" ht="17" spans="1:19">
+    <row r="8" s="3" customFormat="1" ht="17" spans="1:20">
       <c r="A8" s="7" t="s">
         <v>29</v>
       </c>
@@ -4130,8 +4140,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" s="3" customFormat="1" ht="17" spans="1:19">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" s="3" customFormat="1" ht="17" spans="1:20">
       <c r="A9" s="7" t="s">
         <v>30</v>
       </c>
@@ -4187,6 +4200,9 @@
         <v>0</v>
       </c>
       <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4249,480 +4265,108 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" s="4" customFormat="1" spans="1:19">
+    <row r="11" s="4" customFormat="1" spans="1:20">
       <c r="A11" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="8">
-        <v>1</v>
-      </c>
-      <c r="C11" s="8">
-        <v>0</v>
-      </c>
-      <c r="D11" s="8">
-        <v>0</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8">
-        <v>1</v>
+      <c r="B11" s="9">
+        <v>2</v>
+      </c>
+      <c r="C11" s="10">
+        <v>2</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9">
+        <v>0</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8">
-        <v>20</v>
-      </c>
-      <c r="L11" s="8">
+      <c r="H11" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9">
+        <v>1000</v>
+      </c>
+      <c r="M11" s="9">
         <v>10</v>
       </c>
-      <c r="M11" s="8">
-        <v>20</v>
-      </c>
-      <c r="N11" s="8">
+      <c r="N11" s="9">
+        <v>100</v>
+      </c>
+      <c r="O11" s="9">
         <v>1</v>
       </c>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="9" t="s">
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="R11" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="S11" s="8" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="12" s="4" customFormat="1" spans="1:19">
-      <c r="A12" s="8" t="s">
+      <c r="T11" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B12" s="8">
+    </row>
+    <row r="12" s="4" customFormat="1" spans="1:20">
+      <c r="A12" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="10">
+        <v>2</v>
+      </c>
+      <c r="C12" s="10">
         <v>1</v>
       </c>
-      <c r="C12" s="8">
-        <v>0</v>
-      </c>
-      <c r="D12" s="8">
-        <v>0</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8">
-        <v>2</v>
+      <c r="D12" s="10">
+        <v>0</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10">
+        <v>0</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8">
-        <v>50</v>
-      </c>
-      <c r="L12" s="8">
+        <v>103</v>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10">
+        <v>1000</v>
+      </c>
+      <c r="M12" s="10">
         <v>10</v>
       </c>
-      <c r="M12" s="8">
-        <v>50</v>
-      </c>
-      <c r="N12" s="8">
+      <c r="N12" s="10">
+        <v>100</v>
+      </c>
+      <c r="O12" s="9">
         <v>1</v>
       </c>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="9" t="s">
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="R12" s="8" t="s">
-        <v>99</v>
-      </c>
       <c r="S12" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" s="4" customFormat="1" spans="1:19">
-      <c r="A13" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B13" s="8">
-        <v>1</v>
-      </c>
-      <c r="C13" s="8">
-        <v>0</v>
-      </c>
-      <c r="D13" s="8">
-        <v>0</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8">
-        <v>3</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8">
-        <v>90</v>
-      </c>
-      <c r="L13" s="8">
-        <v>10</v>
-      </c>
-      <c r="M13" s="8">
-        <v>90</v>
-      </c>
-      <c r="N13" s="8">
-        <v>1</v>
-      </c>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="R13" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="S13" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" s="4" customFormat="1" spans="1:19">
-      <c r="A14" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B14" s="8">
-        <v>1</v>
-      </c>
-      <c r="C14" s="8">
-        <v>0</v>
-      </c>
-      <c r="D14" s="8">
-        <v>0</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8">
-        <v>4</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8">
-        <v>140</v>
-      </c>
-      <c r="L14" s="8">
-        <v>10</v>
-      </c>
-      <c r="M14" s="8">
-        <v>140</v>
-      </c>
-      <c r="N14" s="8">
-        <v>1</v>
-      </c>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="R14" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="S14" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" s="4" customFormat="1" spans="1:19">
-      <c r="A15" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B15" s="8">
-        <v>1</v>
-      </c>
-      <c r="C15" s="8">
-        <v>0</v>
-      </c>
-      <c r="D15" s="8">
-        <v>0</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8">
-        <v>5</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8">
-        <v>200</v>
-      </c>
-      <c r="L15" s="8">
-        <v>10</v>
-      </c>
-      <c r="M15" s="8">
-        <v>200</v>
-      </c>
-      <c r="N15" s="8">
-        <v>1</v>
-      </c>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="R15" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="S15" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" s="4" customFormat="1" spans="1:19">
-      <c r="A16" s="8" t="s">
+      <c r="T12" s="8" t="s">
         <v>105</v>
-      </c>
-      <c r="B16" s="8">
-        <v>1</v>
-      </c>
-      <c r="C16" s="8">
-        <v>1</v>
-      </c>
-      <c r="D16" s="8">
-        <v>0</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8">
-        <v>1</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8">
-        <v>20</v>
-      </c>
-      <c r="L16" s="8">
-        <v>10</v>
-      </c>
-      <c r="M16" s="8">
-        <v>20</v>
-      </c>
-      <c r="N16" s="8">
-        <v>1</v>
-      </c>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="R16" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="S16" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" s="4" customFormat="1" spans="1:19">
-      <c r="A17" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B17" s="8">
-        <v>1</v>
-      </c>
-      <c r="C17" s="8">
-        <v>1</v>
-      </c>
-      <c r="D17" s="8">
-        <v>0</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8">
-        <v>2</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8">
-        <v>50</v>
-      </c>
-      <c r="L17" s="8">
-        <v>10</v>
-      </c>
-      <c r="M17" s="8">
-        <v>50</v>
-      </c>
-      <c r="N17" s="8">
-        <v>1</v>
-      </c>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="R17" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="S17" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="18" s="4" customFormat="1" spans="1:19">
-      <c r="A18" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B18" s="8">
-        <v>1</v>
-      </c>
-      <c r="C18" s="8">
-        <v>1</v>
-      </c>
-      <c r="D18" s="8">
-        <v>0</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8">
-        <v>3</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8">
-        <v>90</v>
-      </c>
-      <c r="L18" s="8">
-        <v>10</v>
-      </c>
-      <c r="M18" s="8">
-        <v>90</v>
-      </c>
-      <c r="N18" s="8">
-        <v>1</v>
-      </c>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="R18" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="S18" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="19" s="4" customFormat="1" spans="1:19">
-      <c r="A19" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B19" s="8">
-        <v>1</v>
-      </c>
-      <c r="C19" s="8">
-        <v>1</v>
-      </c>
-      <c r="D19" s="8">
-        <v>0</v>
-      </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8">
-        <v>4</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8">
-        <v>140</v>
-      </c>
-      <c r="L19" s="8">
-        <v>10</v>
-      </c>
-      <c r="M19" s="8">
-        <v>140</v>
-      </c>
-      <c r="N19" s="8">
-        <v>1</v>
-      </c>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="R19" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="S19" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" s="4" customFormat="1" spans="1:19">
-      <c r="A20" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B20" s="8">
-        <v>1</v>
-      </c>
-      <c r="C20" s="8">
-        <v>1</v>
-      </c>
-      <c r="D20" s="8">
-        <v>0</v>
-      </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8">
-        <v>5</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8">
-        <v>200</v>
-      </c>
-      <c r="L20" s="8">
-        <v>10</v>
-      </c>
-      <c r="M20" s="8">
-        <v>200</v>
-      </c>
-      <c r="N20" s="8">
-        <v>1</v>
-      </c>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="R20" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="S20" s="8" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:L9 M7:S9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L7:L9 M7:M9 B7:K9 N7:T9">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
